--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TOEIC 300-500 K1" sheetId="2" r:id="rId1"/>
+    <sheet name="TOEIC 300-500 K2" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
   <si>
     <t>x</t>
   </si>
@@ -50,13 +51,70 @@
   </si>
   <si>
     <t>Khóa TOEIC 300-500 K1 (13/8/2016 - 20/11/2016)</t>
+  </si>
+  <si>
+    <t>Listening</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>L Correct Answer</t>
+  </si>
+  <si>
+    <t>R Correct Answer</t>
+  </si>
+  <si>
+    <t>L Points</t>
+  </si>
+  <si>
+    <t>R Points</t>
+  </si>
+  <si>
+    <t>Total Score</t>
+  </si>
+  <si>
+    <t>Part 1</t>
+  </si>
+  <si>
+    <t>Part 2</t>
+  </si>
+  <si>
+    <t>Part 3</t>
+  </si>
+  <si>
+    <t>Part 4</t>
+  </si>
+  <si>
+    <t>Part 5</t>
+  </si>
+  <si>
+    <t>Part 6</t>
+  </si>
+  <si>
+    <t>Part 7</t>
+  </si>
+  <si>
+    <t>Khóa TOEIC 300-500 K1 (28/11/2016 - 28/02/2016)</t>
+  </si>
+  <si>
+    <t>01282671995</t>
+  </si>
+  <si>
+    <t>Trần Thị Phương Hòa</t>
+  </si>
+  <si>
+    <t>0935812532</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Anh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,13 +145,117 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -105,10 +267,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -120,8 +292,59 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="11">
+    <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
+    <cellStyle name="20% - Accent6" xfId="8" builtinId="50"/>
+    <cellStyle name="40% - Accent1" xfId="4" builtinId="31"/>
+    <cellStyle name="40% - Accent6" xfId="9" builtinId="51"/>
+    <cellStyle name="60% - Accent1" xfId="5" builtinId="32"/>
+    <cellStyle name="60% - Accent6" xfId="10" builtinId="52"/>
+    <cellStyle name="Accent1" xfId="2" builtinId="29"/>
+    <cellStyle name="Accent5" xfId="6" builtinId="45"/>
+    <cellStyle name="Accent6" xfId="7" builtinId="49"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -424,26 +647,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" customWidth="1"/>
+    <col min="17" max="17" width="9.42578125" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B1" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G2" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -462,8 +720,34 @@
       <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+    </row>
+    <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -479,27 +763,467 @@
       <c r="E4" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="F4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="14">
+        <v>7</v>
+      </c>
+      <c r="H4" s="14">
+        <v>13</v>
+      </c>
+      <c r="I4" s="14">
+        <v>10</v>
+      </c>
+      <c r="J4" s="14">
+        <v>9</v>
+      </c>
+      <c r="K4" s="14">
+        <v>21</v>
+      </c>
+      <c r="L4" s="14">
+        <v>3</v>
+      </c>
+      <c r="M4" s="14">
+        <v>11</v>
+      </c>
+      <c r="N4" s="15">
+        <f>SUM(G4:J4)</f>
+        <v>39</v>
+      </c>
+      <c r="O4" s="15">
+        <f>SUM(K4:M4)</f>
+        <v>35</v>
+      </c>
+      <c r="P4" s="14">
+        <v>180</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>120</v>
+      </c>
+      <c r="R4" s="16">
+        <f>P4+Q4</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="14">
+        <v>8</v>
+      </c>
+      <c r="H5" s="14">
+        <v>22</v>
+      </c>
+      <c r="I5" s="14">
+        <v>14</v>
+      </c>
+      <c r="J5" s="14">
+        <v>18</v>
+      </c>
+      <c r="K5" s="14">
+        <v>30</v>
+      </c>
+      <c r="L5" s="14">
+        <v>8</v>
+      </c>
+      <c r="M5" s="14">
+        <v>28</v>
+      </c>
+      <c r="N5" s="15">
+        <f>SUM(G5:J5)</f>
+        <v>62</v>
+      </c>
+      <c r="O5" s="15">
+        <f>SUM(K5:M5)</f>
+        <v>66</v>
+      </c>
+      <c r="P5" s="14">
+        <v>325</v>
+      </c>
+      <c r="Q5" s="14">
+        <v>310</v>
+      </c>
+      <c r="R5" s="16">
+        <f>P5+Q5</f>
+        <v>635</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1993</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="14">
+        <v>1</v>
+      </c>
+      <c r="H6" s="14">
+        <v>17</v>
+      </c>
+      <c r="I6" s="14">
+        <v>4</v>
+      </c>
+      <c r="J6" s="14">
+        <v>10</v>
+      </c>
+      <c r="K6" s="14">
+        <v>19</v>
+      </c>
+      <c r="L6" s="14">
+        <v>1</v>
+      </c>
+      <c r="M6" s="14">
+        <v>16</v>
+      </c>
+      <c r="N6" s="15">
+        <f>SUM(G6:J6)</f>
+        <v>32</v>
+      </c>
+      <c r="O6" s="15">
+        <f>SUM(K6:M6)</f>
+        <v>36</v>
+      </c>
+      <c r="P6" s="14">
+        <v>140</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>125</v>
+      </c>
+      <c r="R6" s="16">
+        <f>P6+Q6</f>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G7" s="14">
+        <v>10</v>
+      </c>
+      <c r="H7" s="14">
+        <v>29</v>
+      </c>
+      <c r="I7" s="14">
+        <v>14</v>
+      </c>
+      <c r="J7" s="14">
+        <v>13</v>
+      </c>
+      <c r="K7" s="14">
+        <v>31</v>
+      </c>
+      <c r="L7" s="14">
+        <v>7</v>
+      </c>
+      <c r="M7" s="14">
+        <v>28</v>
+      </c>
+      <c r="N7" s="15">
+        <f>SUM(G7:J7)</f>
+        <v>66</v>
+      </c>
+      <c r="O7" s="15">
+        <f>SUM(K7:M7)</f>
+        <v>66</v>
+      </c>
+      <c r="P7" s="14">
+        <v>350</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>310</v>
+      </c>
+      <c r="R7" s="16">
+        <f>P7+Q7</f>
+        <v>660</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" customWidth="1"/>
+    <col min="17" max="17" width="9.42578125" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B1" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G2" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+    </row>
+    <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1995</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="G4" s="14">
+        <v>3</v>
+      </c>
+      <c r="H4" s="14">
+        <v>9</v>
+      </c>
+      <c r="I4" s="14">
+        <v>14</v>
+      </c>
+      <c r="J4" s="14">
+        <v>9</v>
+      </c>
+      <c r="K4" s="14">
+        <v>15</v>
+      </c>
+      <c r="L4" s="14">
+        <v>1</v>
+      </c>
+      <c r="M4" s="14">
+        <v>6</v>
+      </c>
+      <c r="N4" s="15">
+        <f>SUM(G4:J4)</f>
+        <v>35</v>
+      </c>
+      <c r="O4" s="15">
+        <f>SUM(K4:M4)</f>
+        <v>22</v>
+      </c>
+      <c r="P4" s="14">
+        <v>160</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>40</v>
+      </c>
+      <c r="R4" s="16">
+        <f>P4+Q4</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="15">
+        <f>SUM(G5:J5)</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="15">
+        <f>SUM(K5:M5)</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="16">
+        <f>P5+Q5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2">
         <v>1993</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2"/>
+      <c r="D6" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="15">
+        <f>SUM(G6:J6)</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="15">
+        <f>SUM(K6:M6)</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="16">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="15">
+        <f>SUM(G7:J7)</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="15">
+        <f>SUM(K7:M7)</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="16">
+        <f>P7+Q7</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TOEIC 300-500 K1" sheetId="2" r:id="rId1"/>
     <sheet name="TOEIC 300-500 K2" sheetId="3" r:id="rId2"/>
+    <sheet name="TOEIC 500-700 K1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="31">
   <si>
     <t>x</t>
   </si>
@@ -322,6 +323,8 @@
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -331,8 +334,6 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
@@ -647,10 +648,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,30 +678,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="19" t="s">
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="17" t="s">
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="R2" s="19" t="s">
         <v>18</v>
       </c>
     </row>
@@ -741,11 +745,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -970,7 +974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -995,30 +999,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="19" t="s">
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="17" t="s">
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="R2" s="19" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1062,11 +1066,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -1078,7 +1082,7 @@
       <c r="C4" s="2">
         <v>1995</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="17" t="s">
         <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -1163,7 +1167,7 @@
       <c r="C6" s="2">
         <v>1993</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="18" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -1212,6 +1216,243 @@
       <c r="R7" s="16">
         <f>P7+Q7</f>
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" customWidth="1"/>
+    <col min="17" max="17" width="9.42578125" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B1" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G2" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+    </row>
+    <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1994</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="14">
+        <v>8</v>
+      </c>
+      <c r="H4" s="14">
+        <v>22</v>
+      </c>
+      <c r="I4" s="14">
+        <v>14</v>
+      </c>
+      <c r="J4" s="14">
+        <v>18</v>
+      </c>
+      <c r="K4" s="14">
+        <v>30</v>
+      </c>
+      <c r="L4" s="14">
+        <v>8</v>
+      </c>
+      <c r="M4" s="14">
+        <v>28</v>
+      </c>
+      <c r="N4" s="15">
+        <f>SUM(G4:J4)</f>
+        <v>62</v>
+      </c>
+      <c r="O4" s="15">
+        <f>SUM(K4:M4)</f>
+        <v>66</v>
+      </c>
+      <c r="P4" s="14">
+        <v>325</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>310</v>
+      </c>
+      <c r="R4" s="16">
+        <f>P4+Q4</f>
+        <v>635</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1993</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="14">
+        <v>10</v>
+      </c>
+      <c r="H6" s="14">
+        <v>29</v>
+      </c>
+      <c r="I6" s="14">
+        <v>14</v>
+      </c>
+      <c r="J6" s="14">
+        <v>13</v>
+      </c>
+      <c r="K6" s="14">
+        <v>31</v>
+      </c>
+      <c r="L6" s="14">
+        <v>7</v>
+      </c>
+      <c r="M6" s="14">
+        <v>28</v>
+      </c>
+      <c r="N6" s="15">
+        <f>SUM(G6:J6)</f>
+        <v>66</v>
+      </c>
+      <c r="O6" s="15">
+        <f>SUM(K6:M6)</f>
+        <v>66</v>
+      </c>
+      <c r="P6" s="14">
+        <v>350</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>310</v>
+      </c>
+      <c r="R6" s="16">
+        <f>P6+Q6</f>
+        <v>660</v>
       </c>
     </row>
   </sheetData>

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TOEIC 300-500 K1" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="35">
   <si>
     <t>x</t>
   </si>
@@ -109,6 +109,18 @@
   </si>
   <si>
     <t>Nguyễn Ngọc Anh</t>
+  </si>
+  <si>
+    <t>Phạm Ngọc Kiều Trang</t>
+  </si>
+  <si>
+    <t>0978500110</t>
+  </si>
+  <si>
+    <t>Phan Thị Kim Phượng</t>
+  </si>
+  <si>
+    <t>01677840119</t>
   </si>
 </sst>
 </file>
@@ -281,7 +293,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -323,8 +335,6 @@
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -332,6 +342,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -678,30 +713,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="21" t="s">
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="19" t="s">
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="O2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="P2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="Q2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="19" t="s">
+      <c r="R2" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -745,11 +780,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -972,19 +1007,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="20" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="20" customWidth="1"/>
+    <col min="4" max="4" width="17" style="23" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
@@ -999,30 +1034,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="21" t="s">
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="19" t="s">
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="O2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="P2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="Q2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="19" t="s">
+      <c r="R2" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1036,7 +1071,7 @@
       <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="22" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -1066,26 +1101,26 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="14">
         <v>1995</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="14" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="2"/>
@@ -1131,9 +1166,10 @@
     </row>
     <row r="5" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="2"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="14"/>
       <c r="F5" s="2"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
@@ -1161,41 +1197,64 @@
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="14">
         <v>1993</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="14" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
+      <c r="G6" s="14">
+        <v>4</v>
+      </c>
+      <c r="H6" s="14">
+        <v>12</v>
+      </c>
+      <c r="I6" s="14">
+        <v>10</v>
+      </c>
+      <c r="J6" s="14">
+        <v>7</v>
+      </c>
+      <c r="K6" s="14">
+        <v>16</v>
+      </c>
+      <c r="L6" s="14">
+        <v>4</v>
+      </c>
+      <c r="M6" s="14">
+        <v>13</v>
+      </c>
       <c r="N6" s="15">
         <f>SUM(G6:J6)</f>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="O6" s="15">
         <f>SUM(K6:M6)</f>
-        <v>0</v>
-      </c>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
+        <v>33</v>
+      </c>
+      <c r="P6" s="14">
+        <v>145</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>110</v>
+      </c>
       <c r="R6" s="16">
-        <v>300</v>
+        <f t="shared" ref="R6:R7" si="0">P6+Q6</f>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="26"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
@@ -1214,7 +1273,24 @@
       <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
       <c r="R7" s="16">
-        <f>P7+Q7</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>3</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1998</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1234,18 +1310,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="4" max="4" width="17" style="23" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.42578125" bestFit="1" customWidth="1"/>
@@ -1261,30 +1337,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="21" t="s">
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="19" t="s">
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="O2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="P2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="Q2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="19" t="s">
+      <c r="R2" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1298,7 +1374,7 @@
       <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="22" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -1328,11 +1404,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -1344,7 +1420,7 @@
       <c r="C4" s="2">
         <v>1994</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="24" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -1394,7 +1470,7 @@
     <row r="5" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="4"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
@@ -1408,7 +1484,7 @@
       <c r="C6" s="2">
         <v>1993</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="25" t="s">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -1453,6 +1529,26 @@
       <c r="R6" s="16">
         <f>P6+Q6</f>
         <v>660</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1990</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R8" s="21">
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -1466,5 +1562,6 @@
     <mergeCell ref="Q2:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="37">
   <si>
     <t>x</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>01677840119</t>
+  </si>
+  <si>
+    <t>Nguyễn Đỗ Bảo Yên</t>
+  </si>
+  <si>
+    <t>0905012112</t>
   </si>
 </sst>
 </file>
@@ -293,7 +299,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -335,6 +341,31 @@
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -344,30 +375,11 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -713,30 +725,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="19" t="s">
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="17" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="R2" s="26" t="s">
         <v>18</v>
       </c>
     </row>
@@ -780,11 +792,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -1007,25 +1019,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="17" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="11" style="20" customWidth="1"/>
-    <col min="4" max="4" width="17" style="23" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="17" customWidth="1"/>
+    <col min="4" max="4" width="17" style="20" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
     <col min="15" max="15" width="17.85546875" customWidth="1"/>
     <col min="17" max="17" width="9.42578125" customWidth="1"/>
-    <col min="18" max="18" width="11.5703125" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
@@ -1034,30 +1046,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="19" t="s">
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="17" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="R2" s="30" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1071,7 +1083,7 @@
       <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="19" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -1101,23 +1113,23 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="30"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="14">
         <v>1995</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="24" t="s">
         <v>27</v>
       </c>
       <c r="E4" s="14" t="s">
@@ -1166,9 +1178,9 @@
     </row>
     <row r="5" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="26"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="14"/>
-      <c r="D5" s="28"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="14"/>
       <c r="F5" s="2"/>
       <c r="G5" s="14"/>
@@ -1197,13 +1209,13 @@
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="23" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="14">
         <v>1993</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="25" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="14" t="s">
@@ -1251,9 +1263,9 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="26"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="14"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="24"/>
       <c r="E7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
@@ -1281,17 +1293,38 @@
       <c r="A8" s="2">
         <v>3</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="23" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="14">
         <v>1998</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="24" t="s">
         <v>34</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>0</v>
+      </c>
+      <c r="R8" s="18"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R9" s="18"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="17">
+        <v>1994</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="R10" s="18">
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -1321,7 +1354,7 @@
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="26.5703125" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="17" style="23" customWidth="1"/>
+    <col min="4" max="4" width="17" style="20" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.42578125" bestFit="1" customWidth="1"/>
@@ -1337,30 +1370,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="19" t="s">
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="17" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="R2" s="26" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1374,7 +1407,7 @@
       <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="19" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -1404,11 +1437,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -1420,7 +1453,7 @@
       <c r="C4" s="2">
         <v>1994</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -1470,7 +1503,7 @@
     <row r="5" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="24"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
@@ -1484,7 +1517,7 @@
       <c r="C6" s="2">
         <v>1993</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="22" t="s">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -1541,13 +1574,13 @@
       <c r="C8" s="2">
         <v>1990</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="22" t="s">
         <v>32</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="R8" s="21">
+      <c r="R8" s="18">
         <v>460</v>
       </c>
     </row>

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="37">
   <si>
     <t>x</t>
   </si>
@@ -366,6 +366,9 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -373,9 +376,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
@@ -725,30 +725,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="28" t="s">
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="26" t="s">
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="O2" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="P2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="26" t="s">
+      <c r="Q2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="26" t="s">
+      <c r="R2" s="27" t="s">
         <v>18</v>
       </c>
     </row>
@@ -792,11 +792,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -1022,7 +1022,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,7 +1037,7 @@
     <col min="14" max="14" width="16" customWidth="1"/>
     <col min="15" max="15" width="17.85546875" customWidth="1"/>
     <col min="17" max="17" width="9.42578125" customWidth="1"/>
-    <col min="18" max="18" width="11.5703125" style="29" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
@@ -1046,27 +1046,27 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="28" t="s">
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="26" t="s">
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="O2" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="P2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="26" t="s">
+      <c r="Q2" s="27" t="s">
         <v>17</v>
       </c>
       <c r="R2" s="30" t="s">
@@ -1113,10 +1113,10 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
       <c r="R3" s="30"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -1322,6 +1322,9 @@
       </c>
       <c r="D10" s="20" t="s">
         <v>36</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>0</v>
       </c>
       <c r="R10" s="18">
         <v>450</v>
@@ -1370,30 +1373,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="28" t="s">
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="26" t="s">
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="O2" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="P2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="26" t="s">
+      <c r="Q2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="26" t="s">
+      <c r="R2" s="27" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1437,11 +1440,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -123,10 +123,10 @@
     <t>01677840119</t>
   </si>
   <si>
-    <t>Nguyễn Đỗ Bảo Yên</t>
-  </si>
-  <si>
     <t>0905012112</t>
+  </si>
+  <si>
+    <t>Nguyễn Đỗ Bảo Uyên</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1022,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1315,13 +1315,13 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" s="17">
         <v>1994</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>0</v>

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TOEIC 300-500 K1" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="37">
   <si>
     <t>x</t>
   </si>
@@ -1021,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1132,9 +1132,7 @@
       <c r="D4" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>0</v>
-      </c>
+      <c r="E4" s="14"/>
       <c r="F4" s="2"/>
       <c r="G4" s="14">
         <v>3</v>
@@ -1348,8 +1346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1459,9 +1457,7 @@
       <c r="D4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="14">
         <v>8</v>
@@ -1523,9 +1519,7 @@
       <c r="D6" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="14">
         <v>10</v>

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="37">
   <si>
     <t>x</t>
   </si>
@@ -120,13 +120,13 @@
     <t>Phan Thị Kim Phượng</t>
   </si>
   <si>
-    <t>01677840119</t>
-  </si>
-  <si>
     <t>0905012112</t>
   </si>
   <si>
     <t>Nguyễn Đỗ Bảo Uyên</t>
+  </si>
+  <si>
+    <t>01889585963</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1022,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1132,7 +1132,9 @@
       <c r="D4" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="14"/>
+      <c r="E4" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="14">
         <v>3</v>
@@ -1185,7 +1187,9 @@
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
+      <c r="K5" s="14">
+        <v>20</v>
+      </c>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
       <c r="N5" s="15">
@@ -1194,7 +1198,7 @@
       </c>
       <c r="O5" s="15">
         <f>SUM(K5:M5)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
@@ -1265,20 +1269,26 @@
       <c r="C7" s="14"/>
       <c r="D7" s="24"/>
       <c r="E7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
+      <c r="G7" s="14">
+        <v>7</v>
+      </c>
+      <c r="H7" s="14">
+        <v>11</v>
+      </c>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
+      <c r="K7" s="14">
+        <v>21</v>
+      </c>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
       <c r="N7" s="15">
         <f>SUM(G7:J7)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="O7" s="15">
         <f>SUM(K7:M7)</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
@@ -1297,15 +1307,18 @@
       <c r="C8" s="14">
         <v>1998</v>
       </c>
-      <c r="D8" s="24" t="s">
-        <v>34</v>
+      <c r="D8" s="20" t="s">
+        <v>36</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>0</v>
       </c>
       <c r="R8" s="18"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G9" s="14">
+        <v>5</v>
+      </c>
       <c r="R9" s="18"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1313,16 +1326,19 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="17">
         <v>1994</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>0</v>
+      </c>
+      <c r="K10">
+        <v>24</v>
       </c>
       <c r="R10" s="18">
         <v>450</v>
@@ -1344,10 +1360,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E6"/>
+      <selection activeCell="K5" sqref="K5:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1457,7 +1473,9 @@
       <c r="D4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="14">
         <v>8</v>
@@ -1505,6 +1523,12 @@
       <c r="D5" s="21"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
+      <c r="K5" s="2">
+        <v>33</v>
+      </c>
+      <c r="L5" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -1519,7 +1543,9 @@
       <c r="D6" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="14">
         <v>10</v>
@@ -1561,6 +1587,14 @@
         <v>660</v>
       </c>
     </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K7" s="17">
+        <v>35</v>
+      </c>
+      <c r="L7" s="17">
+        <v>9</v>
+      </c>
+    </row>
     <row r="8" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>3</v>
@@ -1577,8 +1611,19 @@
       <c r="E8" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="H8">
+        <v>13</v>
+      </c>
+      <c r="K8">
+        <v>30</v>
+      </c>
       <c r="R8" s="18">
         <v>460</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -1021,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1363,7 +1363,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:L7"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1614,6 +1614,9 @@
       <c r="H8">
         <v>13</v>
       </c>
+      <c r="I8">
+        <v>18</v>
+      </c>
       <c r="K8">
         <v>30</v>
       </c>

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -1022,7 +1022,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1340,6 +1340,9 @@
       <c r="K10">
         <v>24</v>
       </c>
+      <c r="L10">
+        <v>10</v>
+      </c>
       <c r="R10" s="18">
         <v>450</v>
       </c>
@@ -1363,7 +1366,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1620,6 +1623,9 @@
       <c r="K8">
         <v>30</v>
       </c>
+      <c r="L8">
+        <v>10</v>
+      </c>
       <c r="R8" s="18">
         <v>460</v>
       </c>

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -299,7 +299,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -353,12 +353,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -380,6 +374,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -725,30 +722,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="29" t="s">
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="27" t="s">
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="27" t="s">
+      <c r="O2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="27" t="s">
+      <c r="P2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="27" t="s">
+      <c r="Q2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="R2" s="25" t="s">
         <v>18</v>
       </c>
     </row>
@@ -792,11 +789,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -1037,7 +1034,7 @@
     <col min="14" max="14" width="16" customWidth="1"/>
     <col min="15" max="15" width="17.85546875" customWidth="1"/>
     <col min="17" max="17" width="9.42578125" customWidth="1"/>
-    <col min="18" max="18" width="11.5703125" style="26" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
@@ -1046,30 +1043,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="29" t="s">
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="27" t="s">
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="27" t="s">
+      <c r="O2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="27" t="s">
+      <c r="P2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="27" t="s">
+      <c r="Q2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="30" t="s">
+      <c r="R2" s="28" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1113,23 +1110,23 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="30"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="28"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="14">
         <v>1995</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="22" t="s">
         <v>27</v>
       </c>
       <c r="E4" s="14" t="s">
@@ -1178,9 +1175,9 @@
     </row>
     <row r="5" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="23"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="14"/>
-      <c r="D5" s="25"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="14"/>
       <c r="F5" s="2"/>
       <c r="G5" s="14"/>
@@ -1211,13 +1208,13 @@
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="14">
         <v>1993</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="14" t="s">
@@ -1265,9 +1262,9 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="23"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="14"/>
-      <c r="D7" s="24"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="14"/>
       <c r="G7" s="14">
         <v>7</v>
@@ -1301,7 +1298,7 @@
       <c r="A8" s="2">
         <v>3</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="21" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="14">
@@ -1366,7 +1363,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1377,7 +1374,8 @@
     <col min="4" max="4" width="17" style="20" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="9.140625" style="17"/>
+    <col min="13" max="13" width="6.42578125" style="17" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
     <col min="15" max="15" width="17.85546875" customWidth="1"/>
     <col min="17" max="17" width="9.42578125" customWidth="1"/>
@@ -1390,30 +1388,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="29" t="s">
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="27" t="s">
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="27" t="s">
+      <c r="O2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="27" t="s">
+      <c r="P2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="27" t="s">
+      <c r="Q2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="R2" s="25" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1457,29 +1455,29 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="14">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="14">
         <v>1994</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="14"/>
       <c r="G4" s="14">
         <v>8</v>
       </c>
@@ -1521,35 +1519,54 @@
       </c>
     </row>
     <row r="5" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="K5" s="2">
+      <c r="A5" s="14"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14">
+        <v>8</v>
+      </c>
+      <c r="H5" s="14">
+        <v>25</v>
+      </c>
+      <c r="I5" s="14">
+        <v>25</v>
+      </c>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14">
         <v>33</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="14">
         <v>8</v>
       </c>
+      <c r="M5" s="14">
+        <v>36</v>
+      </c>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
     </row>
     <row r="6" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="14">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="14">
         <v>1993</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="14"/>
       <c r="G6" s="14">
         <v>10</v>
       </c>
@@ -1590,50 +1607,99 @@
         <v>660</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K7" s="17">
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="14">
+        <v>8</v>
+      </c>
+      <c r="H7" s="14">
+        <v>25</v>
+      </c>
+      <c r="I7" s="14">
+        <v>25</v>
+      </c>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14">
         <v>35</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L7" s="14">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="M7" s="14">
+        <v>36</v>
+      </c>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
         <v>3</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="14">
         <v>1990</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="H8">
+      <c r="F8" s="21"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14">
         <v>13</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="14">
         <v>18</v>
       </c>
-      <c r="K8">
+      <c r="J8" s="14"/>
+      <c r="K8" s="14">
         <v>30</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="14">
         <v>10</v>
       </c>
-      <c r="R8" s="18">
+      <c r="M8" s="14"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="29">
         <v>460</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K9">
+    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14">
         <v>32</v>
       </c>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TOEIC 300-500 K1" sheetId="2" r:id="rId1"/>
     <sheet name="TOEIC 300-500 K2" sheetId="3" r:id="rId2"/>
     <sheet name="TOEIC 500-700 K1" sheetId="4" r:id="rId3"/>
+    <sheet name="TOEIC 300-500 K3" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="69">
   <si>
     <t>x</t>
   </si>
@@ -127,13 +128,109 @@
   </si>
   <si>
     <t>01889585963</t>
+  </si>
+  <si>
+    <t>Khóa TOEIC 300-500 K3 (6/3/2017-31/5/2017)</t>
+  </si>
+  <si>
+    <t>Lê Nguyên</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thùy Hương</t>
+  </si>
+  <si>
+    <t>Quách Thị Mỹ Linh</t>
+  </si>
+  <si>
+    <t>Hồ Minh Trang</t>
+  </si>
+  <si>
+    <t>Nguyễn Viết Chương</t>
+  </si>
+  <si>
+    <t>Nguyễn Tài</t>
+  </si>
+  <si>
+    <t>Trần Thị Ái</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Hiếu</t>
+  </si>
+  <si>
+    <t>Nguyễn Hữu Lập</t>
+  </si>
+  <si>
+    <t>Hồ Văn Nghĩa</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Diễm Hiền</t>
+  </si>
+  <si>
+    <t>Phạm Văn Cường</t>
+  </si>
+  <si>
+    <t>16/10/1996</t>
+  </si>
+  <si>
+    <t>30/7/1997</t>
+  </si>
+  <si>
+    <t>16/4/1998</t>
+  </si>
+  <si>
+    <t>090.5634124</t>
+  </si>
+  <si>
+    <t>0167.3196168</t>
+  </si>
+  <si>
+    <t>097.8437787</t>
+  </si>
+  <si>
+    <t>0166.2711759</t>
+  </si>
+  <si>
+    <t>0165.6934247</t>
+  </si>
+  <si>
+    <t>0165.9151906</t>
+  </si>
+  <si>
+    <t>0126.3663202</t>
+  </si>
+  <si>
+    <t>090.5789423</t>
+  </si>
+  <si>
+    <t>090.2440603</t>
+  </si>
+  <si>
+    <t>0169.5627311</t>
+  </si>
+  <si>
+    <t>01234245255</t>
+  </si>
+  <si>
+    <t>0986525172</t>
+  </si>
+  <si>
+    <t>Học bổng</t>
+  </si>
+  <si>
+    <t>25/10/1995</t>
+  </si>
+  <si>
+    <t>Đăng ký học</t>
+  </si>
+  <si>
+    <t>Báo lại sau</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +297,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -299,7 +418,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -363,6 +482,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -375,9 +497,23 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
@@ -722,30 +858,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="27" t="s">
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="25" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="O2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="P2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="25" t="s">
+      <c r="Q2" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="25" t="s">
+      <c r="R2" s="26" t="s">
         <v>18</v>
       </c>
     </row>
@@ -789,11 +925,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -1018,7 +1154,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -1043,30 +1179,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="27" t="s">
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="25" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="O2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="P2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="25" t="s">
+      <c r="Q2" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="28" t="s">
+      <c r="R2" s="29" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1110,11 +1246,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="28"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="29"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -1362,7 +1498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
@@ -1388,30 +1524,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="27" t="s">
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="25" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="O2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="P2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="25" t="s">
+      <c r="Q2" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="25" t="s">
+      <c r="R2" s="26" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1455,11 +1591,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -1675,7 +1811,7 @@
       <c r="O8" s="21"/>
       <c r="P8" s="21"/>
       <c r="Q8" s="21"/>
-      <c r="R8" s="29">
+      <c r="R8" s="25">
         <v>460</v>
       </c>
     </row>
@@ -1714,4 +1850,538 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="20" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="9.140625" style="17"/>
+    <col min="14" max="14" width="6.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16" customWidth="1"/>
+    <col min="16" max="16" width="17.85546875" customWidth="1"/>
+    <col min="18" max="18" width="9.42578125" customWidth="1"/>
+    <col min="19" max="19" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B1" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H2" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
+        <v>1</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="35"/>
+    </row>
+    <row r="5" spans="1:19" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
+        <v>2</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="30">
+        <v>34554</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="36"/>
+    </row>
+    <row r="6" spans="1:19" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
+        <v>3</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="30">
+        <v>34579</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="35"/>
+    </row>
+    <row r="7" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>4</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="14">
+        <v>3</v>
+      </c>
+      <c r="I7" s="14">
+        <v>9</v>
+      </c>
+      <c r="J7" s="14">
+        <v>11</v>
+      </c>
+      <c r="K7" s="14">
+        <v>11</v>
+      </c>
+      <c r="L7" s="14">
+        <v>12</v>
+      </c>
+      <c r="M7" s="14">
+        <v>2</v>
+      </c>
+      <c r="N7" s="14">
+        <v>15</v>
+      </c>
+      <c r="O7" s="14">
+        <f t="shared" ref="O7" si="0">SUM(H7:K7)</f>
+        <v>34</v>
+      </c>
+      <c r="P7" s="14">
+        <f t="shared" ref="P7" si="1">SUM(L7:N7)</f>
+        <v>29</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>150</v>
+      </c>
+      <c r="R7" s="14">
+        <v>85</v>
+      </c>
+      <c r="S7" s="34">
+        <f t="shared" ref="S7" si="2">Q7+R7</f>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>5</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="37"/>
+    </row>
+    <row r="9" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>6</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="36"/>
+    </row>
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>7</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="S10" s="38"/>
+    </row>
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>8</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="S11" s="38"/>
+    </row>
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>9</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="30">
+        <v>35773</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="S12" s="38"/>
+    </row>
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>10</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="S13" s="38"/>
+    </row>
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="14">
+        <v>2</v>
+      </c>
+      <c r="I14" s="14">
+        <v>9</v>
+      </c>
+      <c r="J14" s="14">
+        <v>12</v>
+      </c>
+      <c r="K14" s="14">
+        <v>11</v>
+      </c>
+      <c r="L14" s="14">
+        <v>14</v>
+      </c>
+      <c r="M14" s="14">
+        <v>0</v>
+      </c>
+      <c r="N14" s="14">
+        <v>19</v>
+      </c>
+      <c r="O14" s="14">
+        <v>34</v>
+      </c>
+      <c r="P14" s="14">
+        <v>33</v>
+      </c>
+      <c r="Q14" s="14">
+        <v>150</v>
+      </c>
+      <c r="R14" s="14">
+        <v>110</v>
+      </c>
+      <c r="S14" s="34">
+        <f>Q14+R14</f>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <v>12</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="14">
+        <v>4</v>
+      </c>
+      <c r="I15" s="14">
+        <v>9</v>
+      </c>
+      <c r="J15" s="14">
+        <v>15</v>
+      </c>
+      <c r="K15" s="14">
+        <v>11</v>
+      </c>
+      <c r="L15" s="14">
+        <v>17</v>
+      </c>
+      <c r="M15" s="14">
+        <v>4</v>
+      </c>
+      <c r="N15" s="14">
+        <v>14</v>
+      </c>
+      <c r="O15" s="14">
+        <f>H15+I15+J15+K15</f>
+        <v>39</v>
+      </c>
+      <c r="P15" s="14">
+        <f>L15+M15+N15</f>
+        <v>35</v>
+      </c>
+      <c r="Q15" s="14">
+        <v>180</v>
+      </c>
+      <c r="R15" s="14">
+        <v>120</v>
+      </c>
+      <c r="S15" s="34">
+        <f>Q15+R15</f>
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="70">
   <si>
     <t>x</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>Báo lại sau</t>
+  </si>
+  <si>
+    <t>Vắng</t>
   </si>
 </sst>
 </file>
@@ -485,18 +488,6 @@
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -514,6 +505,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
@@ -858,30 +861,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="28" t="s">
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="26" t="s">
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="O2" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="P2" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="26" t="s">
+      <c r="Q2" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="26" t="s">
+      <c r="R2" s="35" t="s">
         <v>18</v>
       </c>
     </row>
@@ -925,11 +928,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -1179,30 +1182,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="28" t="s">
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="26" t="s">
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="O2" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="P2" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="26" t="s">
+      <c r="Q2" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="29" t="s">
+      <c r="R2" s="38" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1246,11 +1249,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="29"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="38"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -1524,30 +1527,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="28" t="s">
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="26" t="s">
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="O2" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="P2" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="26" t="s">
+      <c r="Q2" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="26" t="s">
+      <c r="R2" s="35" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1591,11 +1594,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -1854,10 +1857,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1868,49 +1871,50 @@
     <col min="4" max="4" width="17" style="20" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" style="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="9.140625" style="17"/>
-    <col min="14" max="14" width="6.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16" customWidth="1"/>
-    <col min="16" max="16" width="17.85546875" customWidth="1"/>
-    <col min="18" max="18" width="9.42578125" customWidth="1"/>
-    <col min="19" max="19" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="9.140625" style="17"/>
+    <col min="15" max="15" width="6.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16" customWidth="1"/>
+    <col min="17" max="17" width="17.85546875" customWidth="1"/>
+    <col min="19" max="19" width="9.42578125" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="H2" s="27" t="s">
+    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="28" t="s">
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="26" t="s">
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="Q2" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="26" t="s">
+      <c r="R2" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="26" t="s">
+      <c r="S2" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="26" t="s">
+      <c r="T2" s="35" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -1930,36 +1934,39 @@
         <v>6</v>
       </c>
       <c r="G3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="L3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="M3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="N3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="O3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-    </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+    </row>
+    <row r="4" spans="1:20" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
         <v>1</v>
       </c>
@@ -1967,7 +1974,7 @@
         <v>38</v>
       </c>
       <c r="C4" s="21"/>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="27" t="s">
         <v>53</v>
       </c>
       <c r="E4" s="14" t="s">
@@ -1976,7 +1983,9 @@
       <c r="F4" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
@@ -1984,23 +1993,24 @@
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
       <c r="N4" s="14"/>
-      <c r="O4" s="15"/>
+      <c r="O4" s="14"/>
       <c r="P4" s="15"/>
-      <c r="Q4" s="14"/>
+      <c r="Q4" s="15"/>
       <c r="R4" s="14"/>
-      <c r="S4" s="35"/>
-    </row>
-    <row r="5" spans="1:19" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S4" s="14"/>
+      <c r="T4" s="31"/>
+    </row>
+    <row r="5" spans="1:20" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>2</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="26">
         <v>34554</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="27" t="s">
         <v>54</v>
       </c>
       <c r="E5" s="14" t="s">
@@ -2017,23 +2027,24 @@
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
-      <c r="O5" s="21"/>
+      <c r="O5" s="14"/>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
       <c r="R5" s="21"/>
-      <c r="S5" s="36"/>
-    </row>
-    <row r="6" spans="1:19" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S5" s="21"/>
+      <c r="T5" s="32"/>
+    </row>
+    <row r="6" spans="1:20" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>3</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="26">
         <v>34579</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="27" t="s">
         <v>55</v>
       </c>
       <c r="E6" s="14">
@@ -2042,7 +2053,9 @@
       <c r="F6" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="14"/>
+      <c r="G6" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
@@ -2050,13 +2063,14 @@
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
-      <c r="O6" s="15"/>
+      <c r="O6" s="14"/>
       <c r="P6" s="15"/>
-      <c r="Q6" s="14"/>
+      <c r="Q6" s="15"/>
       <c r="R6" s="14"/>
-      <c r="S6" s="35"/>
-    </row>
-    <row r="7" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S6" s="14"/>
+      <c r="T6" s="31"/>
+    </row>
+    <row r="7" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>4</v>
       </c>
@@ -2064,7 +2078,7 @@
         <v>41</v>
       </c>
       <c r="C7" s="21"/>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="27" t="s">
         <v>56</v>
       </c>
       <c r="E7" s="14" t="s">
@@ -2073,48 +2087,51 @@
       <c r="F7" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="14">
+      <c r="G7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="21"/>
+      <c r="I7" s="14">
         <v>3</v>
       </c>
-      <c r="I7" s="14">
+      <c r="J7" s="14">
         <v>9</v>
-      </c>
-      <c r="J7" s="14">
-        <v>11</v>
       </c>
       <c r="K7" s="14">
         <v>11</v>
       </c>
       <c r="L7" s="14">
+        <v>11</v>
+      </c>
+      <c r="M7" s="14">
         <v>12</v>
       </c>
-      <c r="M7" s="14">
+      <c r="N7" s="14">
         <v>2</v>
       </c>
-      <c r="N7" s="14">
+      <c r="O7" s="14">
         <v>15</v>
       </c>
-      <c r="O7" s="14">
-        <f t="shared" ref="O7" si="0">SUM(H7:K7)</f>
+      <c r="P7" s="14">
+        <f t="shared" ref="P7" si="0">SUM(I7:L7)</f>
         <v>34</v>
       </c>
-      <c r="P7" s="14">
-        <f t="shared" ref="P7" si="1">SUM(L7:N7)</f>
+      <c r="Q7" s="14">
+        <f t="shared" ref="Q7" si="1">SUM(M7:O7)</f>
         <v>29</v>
       </c>
-      <c r="Q7" s="14">
+      <c r="R7" s="14">
         <v>150</v>
       </c>
-      <c r="R7" s="14">
+      <c r="S7" s="14">
         <v>85</v>
       </c>
-      <c r="S7" s="34">
-        <f t="shared" ref="S7" si="2">Q7+R7</f>
+      <c r="T7" s="30">
+        <f t="shared" ref="T7" si="2">R7+S7</f>
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>5</v>
       </c>
@@ -2122,7 +2139,7 @@
         <v>42</v>
       </c>
       <c r="C8" s="21"/>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="27" t="s">
         <v>57</v>
       </c>
       <c r="E8" s="14" t="s">
@@ -2131,21 +2148,24 @@
       <c r="F8" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="14"/>
+      <c r="G8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="21"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
-      <c r="O8" s="21"/>
+      <c r="O8" s="14"/>
       <c r="P8" s="21"/>
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
-      <c r="S8" s="37"/>
-    </row>
-    <row r="9" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S8" s="21"/>
+      <c r="T8" s="33"/>
+    </row>
+    <row r="9" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>6</v>
       </c>
@@ -2153,7 +2173,7 @@
         <v>43</v>
       </c>
       <c r="C9" s="21"/>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="28" t="s">
         <v>58</v>
       </c>
       <c r="E9" s="14" t="s">
@@ -2162,21 +2182,22 @@
       <c r="F9" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="21"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
-      <c r="O9" s="21"/>
+      <c r="O9" s="14"/>
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
-      <c r="S9" s="36"/>
-    </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S9" s="21"/>
+      <c r="T9" s="32"/>
+    </row>
+    <row r="10" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>7</v>
       </c>
@@ -2186,7 +2207,7 @@
       <c r="C10" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="27" t="s">
         <v>59</v>
       </c>
       <c r="E10" s="14" t="s">
@@ -2195,9 +2216,10 @@
       <c r="F10" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="S10" s="38"/>
-    </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="14"/>
+      <c r="T10" s="34"/>
+    </row>
+    <row r="11" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>8</v>
       </c>
@@ -2207,7 +2229,7 @@
       <c r="C11" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="27" t="s">
         <v>60</v>
       </c>
       <c r="E11" s="14" t="s">
@@ -2216,19 +2238,20 @@
       <c r="F11" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="S11" s="38"/>
-    </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="14"/>
+      <c r="T11" s="34"/>
+    </row>
+    <row r="12" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>9</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="26">
         <v>35773</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="27" t="s">
         <v>61</v>
       </c>
       <c r="E12" s="14" t="s">
@@ -2237,9 +2260,10 @@
       <c r="F12" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="S12" s="38"/>
-    </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="14"/>
+      <c r="T12" s="34"/>
+    </row>
+    <row r="13" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>10</v>
       </c>
@@ -2249,7 +2273,7 @@
       <c r="C13" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="27" t="s">
         <v>62</v>
       </c>
       <c r="E13" s="14" t="s">
@@ -2258,9 +2282,10 @@
       <c r="F13" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="S13" s="38"/>
-    </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="14"/>
+      <c r="T13" s="34"/>
+    </row>
+    <row r="14" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>11</v>
       </c>
@@ -2270,7 +2295,7 @@
       <c r="C14" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="29" t="s">
         <v>63</v>
       </c>
       <c r="E14" s="14" t="s">
@@ -2279,45 +2304,46 @@
       <c r="F14" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="H14" s="14">
+      <c r="G14" s="14"/>
+      <c r="I14" s="14">
         <v>2</v>
       </c>
-      <c r="I14" s="14">
+      <c r="J14" s="14">
         <v>9</v>
       </c>
-      <c r="J14" s="14">
+      <c r="K14" s="14">
         <v>12</v>
       </c>
-      <c r="K14" s="14">
+      <c r="L14" s="14">
         <v>11</v>
       </c>
-      <c r="L14" s="14">
+      <c r="M14" s="14">
         <v>14</v>
       </c>
-      <c r="M14" s="14">
-        <v>0</v>
-      </c>
       <c r="N14" s="14">
+        <v>0</v>
+      </c>
+      <c r="O14" s="14">
         <v>19</v>
       </c>
-      <c r="O14" s="14">
+      <c r="P14" s="14">
         <v>34</v>
       </c>
-      <c r="P14" s="14">
+      <c r="Q14" s="14">
         <v>33</v>
       </c>
-      <c r="Q14" s="14">
+      <c r="R14" s="14">
         <v>150</v>
       </c>
-      <c r="R14" s="14">
+      <c r="S14" s="14">
         <v>110</v>
       </c>
-      <c r="S14" s="34">
-        <f>Q14+R14</f>
+      <c r="T14" s="30">
+        <f>R14+S14</f>
         <v>260</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>12</v>
       </c>
@@ -2325,61 +2351,61 @@
         <v>49</v>
       </c>
       <c r="C15" s="21"/>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="29" t="s">
         <v>64</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="H15" s="14">
+      <c r="I15" s="14">
         <v>4</v>
       </c>
-      <c r="I15" s="14">
+      <c r="J15" s="14">
         <v>9</v>
       </c>
-      <c r="J15" s="14">
+      <c r="K15" s="14">
         <v>15</v>
       </c>
-      <c r="K15" s="14">
+      <c r="L15" s="14">
         <v>11</v>
       </c>
-      <c r="L15" s="14">
+      <c r="M15" s="14">
         <v>17</v>
       </c>
-      <c r="M15" s="14">
+      <c r="N15" s="14">
         <v>4</v>
       </c>
-      <c r="N15" s="14">
+      <c r="O15" s="14">
         <v>14</v>
       </c>
-      <c r="O15" s="14">
-        <f>H15+I15+J15+K15</f>
+      <c r="P15" s="14">
+        <f>I15+J15+K15+L15</f>
         <v>39</v>
       </c>
-      <c r="P15" s="14">
-        <f>L15+M15+N15</f>
+      <c r="Q15" s="14">
+        <f>M15+N15+O15</f>
         <v>35</v>
       </c>
-      <c r="Q15" s="14">
+      <c r="R15" s="14">
         <v>180</v>
       </c>
-      <c r="R15" s="14">
+      <c r="S15" s="14">
         <v>120</v>
       </c>
-      <c r="S15" s="34">
-        <f>Q15+R15</f>
+      <c r="T15" s="30">
+        <f>R15+S15</f>
         <v>300</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="70">
   <si>
     <t>x</t>
   </si>
@@ -329,7 +329,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -398,6 +398,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -421,7 +427,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -517,6 +523,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="9" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
@@ -1860,7 +1879,7 @@
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2034,41 +2053,41 @@
       <c r="S5" s="21"/>
       <c r="T5" s="32"/>
     </row>
-    <row r="6" spans="1:20" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
+    <row r="6" spans="1:20" s="45" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="39">
         <v>3</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="41">
         <v>34579</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="14">
-        <v>0</v>
-      </c>
-      <c r="F6" s="14" t="s">
+      <c r="E6" s="39">
+        <v>0</v>
+      </c>
+      <c r="F6" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="31"/>
+      <c r="G6" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="44"/>
     </row>
     <row r="7" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
@@ -2304,7 +2323,9 @@
       <c r="F14" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G14" s="14"/>
+      <c r="G14" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="I14" s="14">
         <v>2</v>
       </c>

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TOEIC 300-500 K1" sheetId="2" r:id="rId1"/>
     <sheet name="TOEIC 300-500 K2" sheetId="3" r:id="rId2"/>
     <sheet name="TOEIC 500-700 K1" sheetId="4" r:id="rId3"/>
     <sheet name="TOEIC 300-500 K3" sheetId="6" r:id="rId4"/>
+    <sheet name="TOEIC 300-500 K3 - Bai tap" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="75">
   <si>
     <t>x</t>
   </si>
@@ -226,7 +227,22 @@
     <t>Báo lại sau</t>
   </si>
   <si>
-    <t>Vắng</t>
+    <t>Lesson 1</t>
+  </si>
+  <si>
+    <t>Lesson 2</t>
+  </si>
+  <si>
+    <t>Lesson 3</t>
+  </si>
+  <si>
+    <t>Lesson 4</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>V</t>
   </si>
 </sst>
 </file>
@@ -329,7 +345,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -398,19 +414,63 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -427,7 +487,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -523,19 +583,28 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="9" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
@@ -1876,9 +1945,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -1890,50 +1959,49 @@
     <col min="4" max="4" width="17" style="20" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" style="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="9.140625" style="17"/>
-    <col min="15" max="15" width="6.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16" customWidth="1"/>
-    <col min="17" max="17" width="17.85546875" customWidth="1"/>
-    <col min="19" max="19" width="9.42578125" customWidth="1"/>
-    <col min="20" max="20" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="9.140625" style="17"/>
+    <col min="14" max="14" width="6.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16" customWidth="1"/>
+    <col min="16" max="16" width="17.85546875" customWidth="1"/>
+    <col min="18" max="18" width="9.42578125" customWidth="1"/>
+    <col min="19" max="19" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I2" s="36" t="s">
+    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H2" s="36" t="s">
         <v>12</v>
       </c>
+      <c r="I2" s="36"/>
       <c r="J2" s="36"/>
       <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="37" t="s">
+      <c r="L2" s="37" t="s">
         <v>13</v>
       </c>
+      <c r="M2" s="37"/>
       <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
+      <c r="O2" s="35" t="s">
+        <v>14</v>
+      </c>
       <c r="P2" s="35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q2" s="35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R2" s="35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S2" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="T2" s="35" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -1953,39 +2021,36 @@
         <v>6</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="L3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="M3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="N3" s="13" t="s">
         <v>25</v>
       </c>
+      <c r="O3" s="35"/>
       <c r="P3" s="35"/>
       <c r="Q3" s="35"/>
       <c r="R3" s="35"/>
       <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-    </row>
-    <row r="4" spans="1:20" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
         <v>1</v>
       </c>
@@ -2002,9 +2067,7 @@
       <c r="F4" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>0</v>
-      </c>
+      <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
@@ -2012,14 +2075,13 @@
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
       <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
+      <c r="O4" s="15"/>
       <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
+      <c r="Q4" s="14"/>
       <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="31"/>
-    </row>
-    <row r="5" spans="1:20" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S4" s="31"/>
+    </row>
+    <row r="5" spans="1:19" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>2</v>
       </c>
@@ -2046,50 +2108,46 @@
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
+      <c r="O5" s="21"/>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
       <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="32"/>
-    </row>
-    <row r="6" spans="1:20" s="45" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39">
+      <c r="S5" s="32"/>
+    </row>
+    <row r="6" spans="1:19" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
         <v>3</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="26">
         <v>34579</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="39">
-        <v>0</v>
-      </c>
-      <c r="F6" s="39" t="s">
+      <c r="E6" s="14">
+        <v>0</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="44"/>
-    </row>
-    <row r="7" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="31"/>
+    </row>
+    <row r="7" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>4</v>
       </c>
@@ -2106,51 +2164,48 @@
       <c r="F7" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="14">
+        <v>3</v>
+      </c>
       <c r="I7" s="14">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J7" s="14">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K7" s="14">
         <v>11</v>
       </c>
       <c r="L7" s="14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M7" s="14">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="N7" s="14">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="O7" s="14">
-        <v>15</v>
+        <f t="shared" ref="O7" si="0">SUM(H7:K7)</f>
+        <v>34</v>
       </c>
       <c r="P7" s="14">
-        <f t="shared" ref="P7" si="0">SUM(I7:L7)</f>
-        <v>34</v>
+        <f t="shared" ref="P7" si="1">SUM(L7:N7)</f>
+        <v>29</v>
       </c>
       <c r="Q7" s="14">
-        <f t="shared" ref="Q7" si="1">SUM(M7:O7)</f>
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="R7" s="14">
-        <v>150</v>
-      </c>
-      <c r="S7" s="14">
         <v>85</v>
       </c>
-      <c r="T7" s="30">
-        <f t="shared" ref="T7" si="2">R7+S7</f>
+      <c r="S7" s="30">
+        <f t="shared" ref="S7" si="2">Q7+R7</f>
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>5</v>
       </c>
@@ -2167,24 +2222,21 @@
       <c r="F8" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
+      <c r="O8" s="21"/>
       <c r="P8" s="21"/>
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="33"/>
-    </row>
-    <row r="9" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S8" s="33"/>
+    </row>
+    <row r="9" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>6</v>
       </c>
@@ -2201,22 +2253,21 @@
       <c r="F9" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
+      <c r="O9" s="21"/>
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="32"/>
-    </row>
-    <row r="10" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S9" s="32"/>
+    </row>
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>7</v>
       </c>
@@ -2235,10 +2286,9 @@
       <c r="F10" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="T10" s="34"/>
-    </row>
-    <row r="11" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S10" s="34"/>
+    </row>
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>8</v>
       </c>
@@ -2257,10 +2307,9 @@
       <c r="F11" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="T11" s="34"/>
-    </row>
-    <row r="12" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S11" s="34"/>
+    </row>
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>9</v>
       </c>
@@ -2279,10 +2328,9 @@
       <c r="F12" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="G12" s="14"/>
-      <c r="T12" s="34"/>
-    </row>
-    <row r="13" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S12" s="34"/>
+    </row>
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>10</v>
       </c>
@@ -2301,10 +2349,9 @@
       <c r="F13" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="T13" s="34"/>
-    </row>
-    <row r="14" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S13" s="34"/>
+    </row>
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>11</v>
       </c>
@@ -2323,48 +2370,45 @@
       <c r="F14" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G14" s="14" t="s">
-        <v>0</v>
+      <c r="H14" s="14">
+        <v>2</v>
       </c>
       <c r="I14" s="14">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J14" s="14">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K14" s="14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L14" s="14">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M14" s="14">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="N14" s="14">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="O14" s="14">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="P14" s="14">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q14" s="14">
-        <v>33</v>
+        <v>150</v>
       </c>
       <c r="R14" s="14">
-        <v>150</v>
-      </c>
-      <c r="S14" s="14">
         <v>110</v>
       </c>
-      <c r="T14" s="30">
-        <f>R14+S14</f>
+      <c r="S14" s="30">
+        <f>Q14+R14</f>
         <v>260</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>12</v>
       </c>
@@ -2378,55 +2422,1188 @@
       <c r="E15" s="14" t="s">
         <v>0</v>
       </c>
+      <c r="H15" s="14">
+        <v>4</v>
+      </c>
       <c r="I15" s="14">
+        <v>9</v>
+      </c>
+      <c r="J15" s="14">
+        <v>15</v>
+      </c>
+      <c r="K15" s="14">
+        <v>11</v>
+      </c>
+      <c r="L15" s="14">
+        <v>17</v>
+      </c>
+      <c r="M15" s="14">
         <v>4</v>
       </c>
-      <c r="J15" s="14">
-        <v>9</v>
-      </c>
-      <c r="K15" s="14">
-        <v>15</v>
-      </c>
-      <c r="L15" s="14">
-        <v>11</v>
-      </c>
-      <c r="M15" s="14">
-        <v>17</v>
-      </c>
       <c r="N15" s="14">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="O15" s="14">
-        <v>14</v>
+        <f>H15+I15+J15+K15</f>
+        <v>39</v>
       </c>
       <c r="P15" s="14">
-        <f>I15+J15+K15+L15</f>
-        <v>39</v>
+        <f>L15+M15+N15</f>
+        <v>35</v>
       </c>
       <c r="Q15" s="14">
-        <f>M15+N15+O15</f>
-        <v>35</v>
+        <v>180</v>
       </c>
       <c r="R15" s="14">
-        <v>180</v>
-      </c>
-      <c r="S15" s="14">
         <v>120</v>
       </c>
-      <c r="T15" s="30">
-        <f>R15+S15</f>
+      <c r="S15" s="30">
+        <f>Q15+R15</f>
         <v>300</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CD16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="3" max="41" width="4.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:82" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B1" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:82" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+    </row>
+    <row r="4" spans="1:82" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="40"/>
+    </row>
+    <row r="5" spans="1:82" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="41">
+        <v>1</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="41">
+        <v>0</v>
+      </c>
+      <c r="D5" s="41">
+        <v>0</v>
+      </c>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="41"/>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="41"/>
+      <c r="Z5" s="41"/>
+      <c r="AA5" s="41"/>
+      <c r="AB5" s="41"/>
+      <c r="AC5" s="21"/>
+      <c r="AD5" s="21"/>
+      <c r="AE5" s="21"/>
+      <c r="AF5" s="21"/>
+      <c r="AG5" s="21"/>
+      <c r="AH5" s="21"/>
+      <c r="AI5" s="21"/>
+      <c r="AJ5" s="21"/>
+      <c r="AK5" s="21"/>
+      <c r="AL5" s="21"/>
+      <c r="AM5" s="21"/>
+      <c r="AN5" s="21"/>
+      <c r="AO5" s="21"/>
+      <c r="AP5" s="21"/>
+      <c r="AQ5" s="21"/>
+      <c r="AR5" s="21"/>
+      <c r="AS5" s="21"/>
+      <c r="AT5" s="21"/>
+      <c r="AU5" s="21"/>
+      <c r="AV5" s="21"/>
+      <c r="AW5" s="21"/>
+      <c r="AX5" s="21"/>
+      <c r="AY5" s="21"/>
+      <c r="AZ5" s="21"/>
+      <c r="BA5" s="21"/>
+      <c r="BB5" s="21"/>
+      <c r="BC5" s="21"/>
+      <c r="BD5" s="21"/>
+      <c r="BE5" s="21"/>
+      <c r="BF5" s="21"/>
+      <c r="BG5" s="21"/>
+      <c r="BH5" s="21"/>
+      <c r="BI5" s="21"/>
+      <c r="BJ5" s="21"/>
+      <c r="BK5" s="21"/>
+      <c r="BL5" s="21"/>
+      <c r="BM5" s="21"/>
+      <c r="BN5" s="21"/>
+      <c r="BO5" s="21"/>
+      <c r="BP5" s="21"/>
+      <c r="BQ5" s="21"/>
+      <c r="BR5" s="21"/>
+      <c r="BS5" s="21"/>
+      <c r="BT5" s="21"/>
+      <c r="BU5" s="21"/>
+      <c r="BV5" s="21"/>
+      <c r="BW5" s="21"/>
+      <c r="BX5" s="21"/>
+      <c r="BY5" s="21"/>
+      <c r="BZ5" s="21"/>
+      <c r="CA5" s="21"/>
+      <c r="CB5" s="21"/>
+      <c r="CC5" s="21"/>
+      <c r="CD5" s="21"/>
+    </row>
+    <row r="6" spans="1:82" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="41">
+        <v>2</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="41"/>
+      <c r="X6" s="41"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="41"/>
+      <c r="AA6" s="41"/>
+      <c r="AB6" s="41"/>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="21"/>
+      <c r="AE6" s="21"/>
+      <c r="AF6" s="21"/>
+      <c r="AG6" s="21"/>
+      <c r="AH6" s="21"/>
+      <c r="AI6" s="21"/>
+      <c r="AJ6" s="21"/>
+      <c r="AK6" s="21"/>
+      <c r="AL6" s="21"/>
+      <c r="AM6" s="21"/>
+      <c r="AN6" s="21"/>
+      <c r="AO6" s="21"/>
+      <c r="AP6" s="21"/>
+      <c r="AQ6" s="21"/>
+      <c r="AR6" s="21"/>
+      <c r="AS6" s="21"/>
+      <c r="AT6" s="21"/>
+      <c r="AU6" s="21"/>
+      <c r="AV6" s="21"/>
+      <c r="AW6" s="21"/>
+      <c r="AX6" s="21"/>
+      <c r="AY6" s="21"/>
+      <c r="AZ6" s="21"/>
+      <c r="BA6" s="21"/>
+      <c r="BB6" s="21"/>
+      <c r="BC6" s="21"/>
+      <c r="BD6" s="21"/>
+      <c r="BE6" s="21"/>
+      <c r="BF6" s="21"/>
+      <c r="BG6" s="21"/>
+      <c r="BH6" s="21"/>
+      <c r="BI6" s="21"/>
+      <c r="BJ6" s="21"/>
+      <c r="BK6" s="21"/>
+      <c r="BL6" s="21"/>
+      <c r="BM6" s="21"/>
+      <c r="BN6" s="21"/>
+      <c r="BO6" s="21"/>
+      <c r="BP6" s="21"/>
+      <c r="BQ6" s="21"/>
+      <c r="BR6" s="21"/>
+      <c r="BS6" s="21"/>
+      <c r="BT6" s="21"/>
+      <c r="BU6" s="21"/>
+      <c r="BV6" s="21"/>
+      <c r="BW6" s="21"/>
+      <c r="BX6" s="21"/>
+      <c r="BY6" s="21"/>
+      <c r="BZ6" s="21"/>
+      <c r="CA6" s="21"/>
+      <c r="CB6" s="21"/>
+      <c r="CC6" s="21"/>
+      <c r="CD6" s="21"/>
+    </row>
+    <row r="7" spans="1:82" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="41">
+        <v>3</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="41"/>
+      <c r="AB7" s="41"/>
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="21"/>
+      <c r="AE7" s="21"/>
+      <c r="AF7" s="21"/>
+      <c r="AG7" s="21"/>
+      <c r="AH7" s="21"/>
+      <c r="AI7" s="21"/>
+      <c r="AJ7" s="21"/>
+      <c r="AK7" s="21"/>
+      <c r="AL7" s="21"/>
+      <c r="AM7" s="21"/>
+      <c r="AN7" s="21"/>
+      <c r="AO7" s="21"/>
+      <c r="AP7" s="21"/>
+      <c r="AQ7" s="21"/>
+      <c r="AR7" s="21"/>
+      <c r="AS7" s="21"/>
+      <c r="AT7" s="21"/>
+      <c r="AU7" s="21"/>
+      <c r="AV7" s="21"/>
+      <c r="AW7" s="21"/>
+      <c r="AX7" s="21"/>
+      <c r="AY7" s="21"/>
+      <c r="AZ7" s="21"/>
+      <c r="BA7" s="21"/>
+      <c r="BB7" s="21"/>
+      <c r="BC7" s="21"/>
+      <c r="BD7" s="21"/>
+      <c r="BE7" s="21"/>
+      <c r="BF7" s="21"/>
+      <c r="BG7" s="21"/>
+      <c r="BH7" s="21"/>
+      <c r="BI7" s="21"/>
+      <c r="BJ7" s="21"/>
+      <c r="BK7" s="21"/>
+      <c r="BL7" s="21"/>
+      <c r="BM7" s="21"/>
+      <c r="BN7" s="21"/>
+      <c r="BO7" s="21"/>
+      <c r="BP7" s="21"/>
+      <c r="BQ7" s="21"/>
+      <c r="BR7" s="21"/>
+      <c r="BS7" s="21"/>
+      <c r="BT7" s="21"/>
+      <c r="BU7" s="21"/>
+      <c r="BV7" s="21"/>
+      <c r="BW7" s="21"/>
+      <c r="BX7" s="21"/>
+      <c r="BY7" s="21"/>
+      <c r="BZ7" s="21"/>
+      <c r="CA7" s="21"/>
+      <c r="CB7" s="21"/>
+      <c r="CC7" s="21"/>
+      <c r="CD7" s="21"/>
+    </row>
+    <row r="8" spans="1:82" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="41">
+        <v>4</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="41"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="41"/>
+      <c r="V8" s="41"/>
+      <c r="W8" s="41"/>
+      <c r="X8" s="41"/>
+      <c r="Y8" s="41"/>
+      <c r="Z8" s="41"/>
+      <c r="AA8" s="41"/>
+      <c r="AB8" s="41"/>
+      <c r="AC8" s="21"/>
+      <c r="AD8" s="21"/>
+      <c r="AE8" s="21"/>
+      <c r="AF8" s="21"/>
+      <c r="AG8" s="21"/>
+      <c r="AH8" s="21"/>
+      <c r="AI8" s="21"/>
+      <c r="AJ8" s="21"/>
+      <c r="AK8" s="21"/>
+      <c r="AL8" s="21"/>
+      <c r="AM8" s="21"/>
+      <c r="AN8" s="21"/>
+      <c r="AO8" s="21"/>
+      <c r="AP8" s="21"/>
+      <c r="AQ8" s="21"/>
+      <c r="AR8" s="21"/>
+      <c r="AS8" s="21"/>
+      <c r="AT8" s="21"/>
+      <c r="AU8" s="21"/>
+      <c r="AV8" s="21"/>
+      <c r="AW8" s="21"/>
+      <c r="AX8" s="21"/>
+      <c r="AY8" s="21"/>
+      <c r="AZ8" s="21"/>
+      <c r="BA8" s="21"/>
+      <c r="BB8" s="21"/>
+      <c r="BC8" s="21"/>
+      <c r="BD8" s="21"/>
+      <c r="BE8" s="21"/>
+      <c r="BF8" s="21"/>
+      <c r="BG8" s="21"/>
+      <c r="BH8" s="21"/>
+      <c r="BI8" s="21"/>
+      <c r="BJ8" s="21"/>
+      <c r="BK8" s="21"/>
+      <c r="BL8" s="21"/>
+      <c r="BM8" s="21"/>
+      <c r="BN8" s="21"/>
+      <c r="BO8" s="21"/>
+      <c r="BP8" s="21"/>
+      <c r="BQ8" s="21"/>
+      <c r="BR8" s="21"/>
+      <c r="BS8" s="21"/>
+      <c r="BT8" s="21"/>
+      <c r="BU8" s="21"/>
+      <c r="BV8" s="21"/>
+      <c r="BW8" s="21"/>
+      <c r="BX8" s="21"/>
+      <c r="BY8" s="21"/>
+      <c r="BZ8" s="21"/>
+      <c r="CA8" s="21"/>
+      <c r="CB8" s="21"/>
+      <c r="CC8" s="21"/>
+      <c r="CD8" s="21"/>
+    </row>
+    <row r="9" spans="1:82" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="41">
+        <v>5</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="41"/>
+      <c r="V9" s="41"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="41"/>
+      <c r="Z9" s="41"/>
+      <c r="AA9" s="41"/>
+      <c r="AB9" s="41"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="21"/>
+      <c r="AH9" s="21"/>
+      <c r="AI9" s="21"/>
+      <c r="AJ9" s="21"/>
+      <c r="AK9" s="21"/>
+      <c r="AL9" s="21"/>
+      <c r="AM9" s="21"/>
+      <c r="AN9" s="21"/>
+      <c r="AO9" s="21"/>
+      <c r="AP9" s="21"/>
+      <c r="AQ9" s="21"/>
+      <c r="AR9" s="21"/>
+      <c r="AS9" s="21"/>
+      <c r="AT9" s="21"/>
+      <c r="AU9" s="21"/>
+      <c r="AV9" s="21"/>
+      <c r="AW9" s="21"/>
+      <c r="AX9" s="21"/>
+      <c r="AY9" s="21"/>
+      <c r="AZ9" s="21"/>
+      <c r="BA9" s="21"/>
+      <c r="BB9" s="21"/>
+      <c r="BC9" s="21"/>
+      <c r="BD9" s="21"/>
+      <c r="BE9" s="21"/>
+      <c r="BF9" s="21"/>
+      <c r="BG9" s="21"/>
+      <c r="BH9" s="21"/>
+      <c r="BI9" s="21"/>
+      <c r="BJ9" s="21"/>
+      <c r="BK9" s="21"/>
+      <c r="BL9" s="21"/>
+      <c r="BM9" s="21"/>
+      <c r="BN9" s="21"/>
+      <c r="BO9" s="21"/>
+      <c r="BP9" s="21"/>
+      <c r="BQ9" s="21"/>
+      <c r="BR9" s="21"/>
+      <c r="BS9" s="21"/>
+      <c r="BT9" s="21"/>
+      <c r="BU9" s="21"/>
+      <c r="BV9" s="21"/>
+      <c r="BW9" s="21"/>
+      <c r="BX9" s="21"/>
+      <c r="BY9" s="21"/>
+      <c r="BZ9" s="21"/>
+      <c r="CA9" s="21"/>
+      <c r="CB9" s="21"/>
+      <c r="CC9" s="21"/>
+      <c r="CD9" s="21"/>
+    </row>
+    <row r="10" spans="1:82" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="41">
+        <v>6</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="41"/>
+      <c r="V10" s="41"/>
+      <c r="W10" s="41"/>
+      <c r="X10" s="41"/>
+      <c r="Y10" s="41"/>
+      <c r="Z10" s="41"/>
+      <c r="AA10" s="41"/>
+      <c r="AB10" s="41"/>
+      <c r="AC10" s="21"/>
+      <c r="AD10" s="21"/>
+      <c r="AE10" s="21"/>
+      <c r="AF10" s="21"/>
+      <c r="AG10" s="21"/>
+      <c r="AH10" s="21"/>
+      <c r="AI10" s="21"/>
+      <c r="AJ10" s="21"/>
+      <c r="AK10" s="21"/>
+      <c r="AL10" s="21"/>
+      <c r="AM10" s="21"/>
+      <c r="AN10" s="21"/>
+      <c r="AO10" s="21"/>
+      <c r="AP10" s="21"/>
+      <c r="AQ10" s="21"/>
+      <c r="AR10" s="21"/>
+      <c r="AS10" s="21"/>
+      <c r="AT10" s="21"/>
+      <c r="AU10" s="21"/>
+      <c r="AV10" s="21"/>
+      <c r="AW10" s="21"/>
+      <c r="AX10" s="21"/>
+      <c r="AY10" s="21"/>
+      <c r="AZ10" s="21"/>
+      <c r="BA10" s="21"/>
+      <c r="BB10" s="21"/>
+      <c r="BC10" s="21"/>
+      <c r="BD10" s="21"/>
+      <c r="BE10" s="21"/>
+      <c r="BF10" s="21"/>
+      <c r="BG10" s="21"/>
+      <c r="BH10" s="21"/>
+      <c r="BI10" s="21"/>
+      <c r="BJ10" s="21"/>
+      <c r="BK10" s="21"/>
+      <c r="BL10" s="21"/>
+      <c r="BM10" s="21"/>
+      <c r="BN10" s="21"/>
+      <c r="BO10" s="21"/>
+      <c r="BP10" s="21"/>
+      <c r="BQ10" s="21"/>
+      <c r="BR10" s="21"/>
+      <c r="BS10" s="21"/>
+      <c r="BT10" s="21"/>
+      <c r="BU10" s="21"/>
+      <c r="BV10" s="21"/>
+      <c r="BW10" s="21"/>
+      <c r="BX10" s="21"/>
+      <c r="BY10" s="21"/>
+      <c r="BZ10" s="21"/>
+      <c r="CA10" s="21"/>
+      <c r="CB10" s="21"/>
+      <c r="CC10" s="21"/>
+      <c r="CD10" s="21"/>
+    </row>
+    <row r="11" spans="1:82" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="41">
+        <v>7</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="41"/>
+      <c r="V11" s="41"/>
+      <c r="W11" s="41"/>
+      <c r="X11" s="41"/>
+      <c r="Y11" s="41"/>
+      <c r="Z11" s="41"/>
+      <c r="AA11" s="41"/>
+      <c r="AB11" s="41"/>
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="21"/>
+      <c r="AE11" s="21"/>
+      <c r="AF11" s="21"/>
+      <c r="AG11" s="21"/>
+      <c r="AH11" s="21"/>
+      <c r="AI11" s="21"/>
+      <c r="AJ11" s="21"/>
+      <c r="AK11" s="21"/>
+      <c r="AL11" s="21"/>
+      <c r="AM11" s="21"/>
+      <c r="AN11" s="21"/>
+      <c r="AO11" s="21"/>
+      <c r="AP11" s="21"/>
+      <c r="AQ11" s="21"/>
+      <c r="AR11" s="21"/>
+      <c r="AS11" s="21"/>
+      <c r="AT11" s="21"/>
+      <c r="AU11" s="21"/>
+      <c r="AV11" s="21"/>
+      <c r="AW11" s="21"/>
+      <c r="AX11" s="21"/>
+      <c r="AY11" s="21"/>
+      <c r="AZ11" s="21"/>
+      <c r="BA11" s="21"/>
+      <c r="BB11" s="21"/>
+      <c r="BC11" s="21"/>
+      <c r="BD11" s="21"/>
+      <c r="BE11" s="21"/>
+      <c r="BF11" s="21"/>
+      <c r="BG11" s="21"/>
+      <c r="BH11" s="21"/>
+      <c r="BI11" s="21"/>
+      <c r="BJ11" s="21"/>
+      <c r="BK11" s="21"/>
+      <c r="BL11" s="21"/>
+      <c r="BM11" s="21"/>
+      <c r="BN11" s="21"/>
+      <c r="BO11" s="21"/>
+      <c r="BP11" s="21"/>
+      <c r="BQ11" s="21"/>
+      <c r="BR11" s="21"/>
+      <c r="BS11" s="21"/>
+      <c r="BT11" s="21"/>
+      <c r="BU11" s="21"/>
+      <c r="BV11" s="21"/>
+      <c r="BW11" s="21"/>
+      <c r="BX11" s="21"/>
+      <c r="BY11" s="21"/>
+      <c r="BZ11" s="21"/>
+      <c r="CA11" s="21"/>
+      <c r="CB11" s="21"/>
+      <c r="CC11" s="21"/>
+      <c r="CD11" s="21"/>
+    </row>
+    <row r="12" spans="1:82" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="41">
+        <v>8</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="41">
+        <v>0</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="41"/>
+      <c r="V12" s="41"/>
+      <c r="W12" s="41"/>
+      <c r="X12" s="41"/>
+      <c r="Y12" s="41"/>
+      <c r="Z12" s="41"/>
+      <c r="AA12" s="41"/>
+      <c r="AB12" s="41"/>
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="21"/>
+      <c r="AE12" s="21"/>
+      <c r="AF12" s="21"/>
+      <c r="AG12" s="21"/>
+      <c r="AH12" s="21"/>
+      <c r="AI12" s="21"/>
+      <c r="AJ12" s="21"/>
+      <c r="AK12" s="21"/>
+      <c r="AL12" s="21"/>
+      <c r="AM12" s="21"/>
+      <c r="AN12" s="21"/>
+      <c r="AO12" s="21"/>
+      <c r="AP12" s="21"/>
+      <c r="AQ12" s="21"/>
+      <c r="AR12" s="21"/>
+      <c r="AS12" s="21"/>
+      <c r="AT12" s="21"/>
+      <c r="AU12" s="21"/>
+      <c r="AV12" s="21"/>
+      <c r="AW12" s="21"/>
+      <c r="AX12" s="21"/>
+      <c r="AY12" s="21"/>
+      <c r="AZ12" s="21"/>
+      <c r="BA12" s="21"/>
+      <c r="BB12" s="21"/>
+      <c r="BC12" s="21"/>
+      <c r="BD12" s="21"/>
+      <c r="BE12" s="21"/>
+      <c r="BF12" s="21"/>
+      <c r="BG12" s="21"/>
+      <c r="BH12" s="21"/>
+      <c r="BI12" s="21"/>
+      <c r="BJ12" s="21"/>
+      <c r="BK12" s="21"/>
+      <c r="BL12" s="21"/>
+      <c r="BM12" s="21"/>
+      <c r="BN12" s="21"/>
+      <c r="BO12" s="21"/>
+      <c r="BP12" s="21"/>
+      <c r="BQ12" s="21"/>
+      <c r="BR12" s="21"/>
+      <c r="BS12" s="21"/>
+      <c r="BT12" s="21"/>
+      <c r="BU12" s="21"/>
+      <c r="BV12" s="21"/>
+      <c r="BW12" s="21"/>
+      <c r="BX12" s="21"/>
+      <c r="BY12" s="21"/>
+      <c r="BZ12" s="21"/>
+      <c r="CA12" s="21"/>
+      <c r="CB12" s="21"/>
+      <c r="CC12" s="21"/>
+      <c r="CD12" s="21"/>
+    </row>
+    <row r="13" spans="1:82" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="41">
+        <v>9</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
+      <c r="W13" s="41"/>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="41"/>
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="41"/>
+      <c r="AB13" s="41"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="21"/>
+      <c r="AE13" s="21"/>
+      <c r="AF13" s="21"/>
+      <c r="AG13" s="21"/>
+      <c r="AH13" s="21"/>
+      <c r="AI13" s="21"/>
+      <c r="AJ13" s="21"/>
+      <c r="AK13" s="21"/>
+      <c r="AL13" s="21"/>
+      <c r="AM13" s="21"/>
+      <c r="AN13" s="21"/>
+      <c r="AO13" s="21"/>
+      <c r="AP13" s="21"/>
+      <c r="AQ13" s="21"/>
+      <c r="AR13" s="21"/>
+      <c r="AS13" s="21"/>
+      <c r="AT13" s="21"/>
+      <c r="AU13" s="21"/>
+      <c r="AV13" s="21"/>
+      <c r="AW13" s="21"/>
+      <c r="AX13" s="21"/>
+      <c r="AY13" s="21"/>
+      <c r="AZ13" s="21"/>
+      <c r="BA13" s="21"/>
+      <c r="BB13" s="21"/>
+      <c r="BC13" s="21"/>
+      <c r="BD13" s="21"/>
+      <c r="BE13" s="21"/>
+      <c r="BF13" s="21"/>
+      <c r="BG13" s="21"/>
+      <c r="BH13" s="21"/>
+      <c r="BI13" s="21"/>
+      <c r="BJ13" s="21"/>
+      <c r="BK13" s="21"/>
+      <c r="BL13" s="21"/>
+      <c r="BM13" s="21"/>
+      <c r="BN13" s="21"/>
+      <c r="BO13" s="21"/>
+      <c r="BP13" s="21"/>
+      <c r="BQ13" s="21"/>
+      <c r="BR13" s="21"/>
+      <c r="BS13" s="21"/>
+      <c r="BT13" s="21"/>
+      <c r="BU13" s="21"/>
+      <c r="BV13" s="21"/>
+      <c r="BW13" s="21"/>
+      <c r="BX13" s="21"/>
+      <c r="BY13" s="21"/>
+      <c r="BZ13" s="21"/>
+      <c r="CA13" s="21"/>
+      <c r="CB13" s="21"/>
+      <c r="CC13" s="21"/>
+      <c r="CD13" s="21"/>
+    </row>
+    <row r="14" spans="1:82" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="41">
+        <v>10</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="41">
+        <v>0</v>
+      </c>
+      <c r="D14" s="41">
+        <v>0</v>
+      </c>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="41"/>
+      <c r="W14" s="41"/>
+      <c r="X14" s="41"/>
+      <c r="Y14" s="41"/>
+      <c r="Z14" s="41"/>
+      <c r="AA14" s="41"/>
+      <c r="AB14" s="41"/>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="21"/>
+      <c r="AF14" s="21"/>
+      <c r="AG14" s="21"/>
+      <c r="AH14" s="21"/>
+      <c r="AI14" s="21"/>
+      <c r="AJ14" s="21"/>
+      <c r="AK14" s="21"/>
+      <c r="AL14" s="21"/>
+      <c r="AM14" s="21"/>
+      <c r="AN14" s="21"/>
+      <c r="AO14" s="21"/>
+      <c r="AP14" s="21"/>
+      <c r="AQ14" s="21"/>
+      <c r="AR14" s="21"/>
+      <c r="AS14" s="21"/>
+      <c r="AT14" s="21"/>
+      <c r="AU14" s="21"/>
+      <c r="AV14" s="21"/>
+      <c r="AW14" s="21"/>
+      <c r="AX14" s="21"/>
+      <c r="AY14" s="21"/>
+      <c r="AZ14" s="21"/>
+      <c r="BA14" s="21"/>
+      <c r="BB14" s="21"/>
+      <c r="BC14" s="21"/>
+      <c r="BD14" s="21"/>
+      <c r="BE14" s="21"/>
+      <c r="BF14" s="21"/>
+      <c r="BG14" s="21"/>
+      <c r="BH14" s="21"/>
+      <c r="BI14" s="21"/>
+      <c r="BJ14" s="21"/>
+      <c r="BK14" s="21"/>
+      <c r="BL14" s="21"/>
+      <c r="BM14" s="21"/>
+      <c r="BN14" s="21"/>
+      <c r="BO14" s="21"/>
+      <c r="BP14" s="21"/>
+      <c r="BQ14" s="21"/>
+      <c r="BR14" s="21"/>
+      <c r="BS14" s="21"/>
+      <c r="BT14" s="21"/>
+      <c r="BU14" s="21"/>
+      <c r="BV14" s="21"/>
+      <c r="BW14" s="21"/>
+      <c r="BX14" s="21"/>
+      <c r="BY14" s="21"/>
+      <c r="BZ14" s="21"/>
+      <c r="CA14" s="21"/>
+      <c r="CB14" s="21"/>
+      <c r="CC14" s="21"/>
+      <c r="CD14" s="21"/>
+    </row>
+    <row r="15" spans="1:82" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="41">
+        <v>11</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="44"/>
+      <c r="X15" s="44"/>
+      <c r="Y15" s="44"/>
+      <c r="Z15" s="44"/>
+      <c r="AA15" s="44"/>
+      <c r="AB15" s="44"/>
+      <c r="AC15" s="21"/>
+      <c r="AD15" s="21"/>
+      <c r="AE15" s="21"/>
+      <c r="AF15" s="21"/>
+      <c r="AG15" s="21"/>
+      <c r="AH15" s="21"/>
+      <c r="AI15" s="21"/>
+      <c r="AJ15" s="21"/>
+      <c r="AK15" s="21"/>
+      <c r="AL15" s="21"/>
+      <c r="AM15" s="21"/>
+      <c r="AN15" s="21"/>
+      <c r="AO15" s="21"/>
+      <c r="AP15" s="21"/>
+      <c r="AQ15" s="21"/>
+      <c r="AR15" s="21"/>
+      <c r="AS15" s="21"/>
+      <c r="AT15" s="21"/>
+      <c r="AU15" s="21"/>
+      <c r="AV15" s="21"/>
+      <c r="AW15" s="21"/>
+      <c r="AX15" s="21"/>
+      <c r="AY15" s="21"/>
+      <c r="AZ15" s="21"/>
+      <c r="BA15" s="21"/>
+      <c r="BB15" s="21"/>
+      <c r="BC15" s="21"/>
+      <c r="BD15" s="21"/>
+      <c r="BE15" s="21"/>
+      <c r="BF15" s="21"/>
+      <c r="BG15" s="21"/>
+      <c r="BH15" s="21"/>
+      <c r="BI15" s="21"/>
+      <c r="BJ15" s="21"/>
+      <c r="BK15" s="21"/>
+      <c r="BL15" s="21"/>
+      <c r="BM15" s="21"/>
+      <c r="BN15" s="21"/>
+      <c r="BO15" s="21"/>
+      <c r="BP15" s="21"/>
+      <c r="BQ15" s="21"/>
+      <c r="BR15" s="21"/>
+      <c r="BS15" s="21"/>
+      <c r="BT15" s="21"/>
+      <c r="BU15" s="21"/>
+      <c r="BV15" s="21"/>
+      <c r="BW15" s="21"/>
+      <c r="BX15" s="21"/>
+      <c r="BY15" s="21"/>
+      <c r="BZ15" s="21"/>
+      <c r="CA15" s="21"/>
+      <c r="CB15" s="21"/>
+      <c r="CC15" s="21"/>
+      <c r="CD15" s="21"/>
+    </row>
+    <row r="16" spans="1:82" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -4,21 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TOEIC 300-500 K1" sheetId="2" r:id="rId1"/>
     <sheet name="TOEIC 300-500 K2" sheetId="3" r:id="rId2"/>
     <sheet name="TOEIC 500-700 K1" sheetId="4" r:id="rId3"/>
     <sheet name="TOEIC 300-500 K3" sheetId="6" r:id="rId4"/>
-    <sheet name="TOEIC 300-500 K3 - Bai tap" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="70">
   <si>
     <t>x</t>
   </si>
@@ -227,22 +226,7 @@
     <t>Báo lại sau</t>
   </si>
   <si>
-    <t>Lesson 1</t>
-  </si>
-  <si>
-    <t>Lesson 2</t>
-  </si>
-  <si>
-    <t>Lesson 3</t>
-  </si>
-  <si>
-    <t>Lesson 4</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>V</t>
+    <t>Vắng</t>
   </si>
 </sst>
 </file>
@@ -345,7 +329,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -414,63 +398,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -487,7 +427,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -571,6 +511,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="9" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -582,28 +535,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -949,30 +880,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="37" t="s">
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="35" t="s">
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="35" t="s">
+      <c r="O2" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="35" t="s">
+      <c r="P2" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="35" t="s">
+      <c r="Q2" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="35" t="s">
+      <c r="R2" s="42" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1016,11 +947,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -1270,30 +1201,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="37" t="s">
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="35" t="s">
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="35" t="s">
+      <c r="O2" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="35" t="s">
+      <c r="P2" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="35" t="s">
+      <c r="Q2" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="38" t="s">
+      <c r="R2" s="45" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1337,11 +1268,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="38"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="45"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -1615,30 +1546,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="37" t="s">
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="35" t="s">
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="35" t="s">
+      <c r="O2" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="35" t="s">
+      <c r="P2" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="35" t="s">
+      <c r="Q2" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="35" t="s">
+      <c r="R2" s="42" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1682,11 +1613,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -1945,10 +1876,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1959,49 +1890,50 @@
     <col min="4" max="4" width="17" style="20" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" style="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="9.140625" style="17"/>
-    <col min="14" max="14" width="6.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16" customWidth="1"/>
-    <col min="16" max="16" width="17.85546875" customWidth="1"/>
-    <col min="18" max="18" width="9.42578125" customWidth="1"/>
-    <col min="19" max="19" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="9.140625" style="17"/>
+    <col min="15" max="15" width="6.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16" customWidth="1"/>
+    <col min="17" max="17" width="17.85546875" customWidth="1"/>
+    <col min="19" max="19" width="9.42578125" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="H2" s="36" t="s">
+    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="37" t="s">
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="35" t="s">
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="35" t="s">
+      <c r="Q2" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="35" t="s">
+      <c r="R2" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="35" t="s">
+      <c r="S2" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="35" t="s">
+      <c r="T2" s="42" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -2021,36 +1953,39 @@
         <v>6</v>
       </c>
       <c r="G3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="L3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="M3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="N3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="O3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-    </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+    </row>
+    <row r="4" spans="1:20" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
         <v>1</v>
       </c>
@@ -2067,7 +2002,9 @@
       <c r="F4" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
@@ -2075,13 +2012,14 @@
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
       <c r="N4" s="14"/>
-      <c r="O4" s="15"/>
+      <c r="O4" s="14"/>
       <c r="P4" s="15"/>
-      <c r="Q4" s="14"/>
+      <c r="Q4" s="15"/>
       <c r="R4" s="14"/>
-      <c r="S4" s="31"/>
-    </row>
-    <row r="5" spans="1:19" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S4" s="14"/>
+      <c r="T4" s="31"/>
+    </row>
+    <row r="5" spans="1:20" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>2</v>
       </c>
@@ -2108,46 +2046,50 @@
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
-      <c r="O5" s="21"/>
+      <c r="O5" s="14"/>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
       <c r="R5" s="21"/>
-      <c r="S5" s="32"/>
-    </row>
-    <row r="6" spans="1:19" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
+      <c r="S5" s="21"/>
+      <c r="T5" s="32"/>
+    </row>
+    <row r="6" spans="1:20" s="41" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="35">
         <v>3</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="37">
         <v>34579</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="14">
-        <v>0</v>
-      </c>
-      <c r="F6" s="14" t="s">
+      <c r="E6" s="35">
+        <v>0</v>
+      </c>
+      <c r="F6" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="31"/>
-    </row>
-    <row r="7" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="40"/>
+    </row>
+    <row r="7" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>4</v>
       </c>
@@ -2164,48 +2106,51 @@
       <c r="F7" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="14">
+      <c r="G7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="21"/>
+      <c r="I7" s="14">
         <v>3</v>
       </c>
-      <c r="I7" s="14">
+      <c r="J7" s="14">
         <v>9</v>
-      </c>
-      <c r="J7" s="14">
-        <v>11</v>
       </c>
       <c r="K7" s="14">
         <v>11</v>
       </c>
       <c r="L7" s="14">
+        <v>11</v>
+      </c>
+      <c r="M7" s="14">
         <v>12</v>
       </c>
-      <c r="M7" s="14">
+      <c r="N7" s="14">
         <v>2</v>
       </c>
-      <c r="N7" s="14">
+      <c r="O7" s="14">
         <v>15</v>
       </c>
-      <c r="O7" s="14">
-        <f t="shared" ref="O7" si="0">SUM(H7:K7)</f>
+      <c r="P7" s="14">
+        <f t="shared" ref="P7" si="0">SUM(I7:L7)</f>
         <v>34</v>
       </c>
-      <c r="P7" s="14">
-        <f t="shared" ref="P7" si="1">SUM(L7:N7)</f>
+      <c r="Q7" s="14">
+        <f t="shared" ref="Q7" si="1">SUM(M7:O7)</f>
         <v>29</v>
       </c>
-      <c r="Q7" s="14">
+      <c r="R7" s="14">
         <v>150</v>
       </c>
-      <c r="R7" s="14">
+      <c r="S7" s="14">
         <v>85</v>
       </c>
-      <c r="S7" s="30">
-        <f t="shared" ref="S7" si="2">Q7+R7</f>
+      <c r="T7" s="30">
+        <f t="shared" ref="T7" si="2">R7+S7</f>
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>5</v>
       </c>
@@ -2222,21 +2167,24 @@
       <c r="F8" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="14"/>
+      <c r="G8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="21"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
-      <c r="O8" s="21"/>
+      <c r="O8" s="14"/>
       <c r="P8" s="21"/>
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
-      <c r="S8" s="33"/>
-    </row>
-    <row r="9" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S8" s="21"/>
+      <c r="T8" s="33"/>
+    </row>
+    <row r="9" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>6</v>
       </c>
@@ -2253,21 +2201,22 @@
       <c r="F9" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="21"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
-      <c r="O9" s="21"/>
+      <c r="O9" s="14"/>
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
-      <c r="S9" s="32"/>
-    </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S9" s="21"/>
+      <c r="T9" s="32"/>
+    </row>
+    <row r="10" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>7</v>
       </c>
@@ -2286,9 +2235,10 @@
       <c r="F10" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="S10" s="34"/>
-    </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="14"/>
+      <c r="T10" s="34"/>
+    </row>
+    <row r="11" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>8</v>
       </c>
@@ -2307,9 +2257,12 @@
       <c r="F11" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="S11" s="34"/>
-    </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="T11" s="34"/>
+    </row>
+    <row r="12" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>9</v>
       </c>
@@ -2328,9 +2281,10 @@
       <c r="F12" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="S12" s="34"/>
-    </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="14"/>
+      <c r="T12" s="34"/>
+    </row>
+    <row r="13" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>10</v>
       </c>
@@ -2349,9 +2303,10 @@
       <c r="F13" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="S13" s="34"/>
-    </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="14"/>
+      <c r="T13" s="34"/>
+    </row>
+    <row r="14" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>11</v>
       </c>
@@ -2370,45 +2325,48 @@
       <c r="F14" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="H14" s="14">
+      <c r="G14" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="14">
         <v>2</v>
       </c>
-      <c r="I14" s="14">
+      <c r="J14" s="14">
         <v>9</v>
       </c>
-      <c r="J14" s="14">
+      <c r="K14" s="14">
         <v>12</v>
       </c>
-      <c r="K14" s="14">
+      <c r="L14" s="14">
         <v>11</v>
       </c>
-      <c r="L14" s="14">
+      <c r="M14" s="14">
         <v>14</v>
       </c>
-      <c r="M14" s="14">
-        <v>0</v>
-      </c>
       <c r="N14" s="14">
+        <v>0</v>
+      </c>
+      <c r="O14" s="14">
         <v>19</v>
       </c>
-      <c r="O14" s="14">
+      <c r="P14" s="14">
         <v>34</v>
       </c>
-      <c r="P14" s="14">
+      <c r="Q14" s="14">
         <v>33</v>
       </c>
-      <c r="Q14" s="14">
+      <c r="R14" s="14">
         <v>150</v>
       </c>
-      <c r="R14" s="14">
+      <c r="S14" s="14">
         <v>110</v>
       </c>
-      <c r="S14" s="30">
-        <f>Q14+R14</f>
+      <c r="T14" s="30">
+        <f>R14+S14</f>
         <v>260</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>12</v>
       </c>
@@ -2422,1188 +2380,55 @@
       <c r="E15" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="H15" s="14">
+      <c r="I15" s="14">
         <v>4</v>
       </c>
-      <c r="I15" s="14">
+      <c r="J15" s="14">
         <v>9</v>
       </c>
-      <c r="J15" s="14">
+      <c r="K15" s="14">
         <v>15</v>
       </c>
-      <c r="K15" s="14">
+      <c r="L15" s="14">
         <v>11</v>
       </c>
-      <c r="L15" s="14">
+      <c r="M15" s="14">
         <v>17</v>
       </c>
-      <c r="M15" s="14">
+      <c r="N15" s="14">
         <v>4</v>
       </c>
-      <c r="N15" s="14">
+      <c r="O15" s="14">
         <v>14</v>
       </c>
-      <c r="O15" s="14">
-        <f>H15+I15+J15+K15</f>
+      <c r="P15" s="14">
+        <f>I15+J15+K15+L15</f>
         <v>39</v>
       </c>
-      <c r="P15" s="14">
-        <f>L15+M15+N15</f>
+      <c r="Q15" s="14">
+        <f>M15+N15+O15</f>
         <v>35</v>
       </c>
-      <c r="Q15" s="14">
+      <c r="R15" s="14">
         <v>180</v>
       </c>
-      <c r="R15" s="14">
+      <c r="S15" s="14">
         <v>120</v>
       </c>
-      <c r="S15" s="30">
-        <f>Q15+R15</f>
+      <c r="T15" s="30">
+        <f>R15+S15</f>
         <v>300</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CD16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
-    <col min="3" max="41" width="4.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:82" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B1" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:82" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-    </row>
-    <row r="4" spans="1:82" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="H4" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="I4" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="J4" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="40"/>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="40"/>
-      <c r="AB4" s="40"/>
-    </row>
-    <row r="5" spans="1:82" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="41">
-        <v>1</v>
-      </c>
-      <c r="B5" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="41">
-        <v>0</v>
-      </c>
-      <c r="D5" s="41">
-        <v>0</v>
-      </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="41"/>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="41"/>
-      <c r="AC5" s="21"/>
-      <c r="AD5" s="21"/>
-      <c r="AE5" s="21"/>
-      <c r="AF5" s="21"/>
-      <c r="AG5" s="21"/>
-      <c r="AH5" s="21"/>
-      <c r="AI5" s="21"/>
-      <c r="AJ5" s="21"/>
-      <c r="AK5" s="21"/>
-      <c r="AL5" s="21"/>
-      <c r="AM5" s="21"/>
-      <c r="AN5" s="21"/>
-      <c r="AO5" s="21"/>
-      <c r="AP5" s="21"/>
-      <c r="AQ5" s="21"/>
-      <c r="AR5" s="21"/>
-      <c r="AS5" s="21"/>
-      <c r="AT5" s="21"/>
-      <c r="AU5" s="21"/>
-      <c r="AV5" s="21"/>
-      <c r="AW5" s="21"/>
-      <c r="AX5" s="21"/>
-      <c r="AY5" s="21"/>
-      <c r="AZ5" s="21"/>
-      <c r="BA5" s="21"/>
-      <c r="BB5" s="21"/>
-      <c r="BC5" s="21"/>
-      <c r="BD5" s="21"/>
-      <c r="BE5" s="21"/>
-      <c r="BF5" s="21"/>
-      <c r="BG5" s="21"/>
-      <c r="BH5" s="21"/>
-      <c r="BI5" s="21"/>
-      <c r="BJ5" s="21"/>
-      <c r="BK5" s="21"/>
-      <c r="BL5" s="21"/>
-      <c r="BM5" s="21"/>
-      <c r="BN5" s="21"/>
-      <c r="BO5" s="21"/>
-      <c r="BP5" s="21"/>
-      <c r="BQ5" s="21"/>
-      <c r="BR5" s="21"/>
-      <c r="BS5" s="21"/>
-      <c r="BT5" s="21"/>
-      <c r="BU5" s="21"/>
-      <c r="BV5" s="21"/>
-      <c r="BW5" s="21"/>
-      <c r="BX5" s="21"/>
-      <c r="BY5" s="21"/>
-      <c r="BZ5" s="21"/>
-      <c r="CA5" s="21"/>
-      <c r="CB5" s="21"/>
-      <c r="CC5" s="21"/>
-      <c r="CD5" s="21"/>
-    </row>
-    <row r="6" spans="1:82" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41">
-        <v>2</v>
-      </c>
-      <c r="B6" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="41"/>
-      <c r="W6" s="41"/>
-      <c r="X6" s="41"/>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="41"/>
-      <c r="AA6" s="41"/>
-      <c r="AB6" s="41"/>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="21"/>
-      <c r="AE6" s="21"/>
-      <c r="AF6" s="21"/>
-      <c r="AG6" s="21"/>
-      <c r="AH6" s="21"/>
-      <c r="AI6" s="21"/>
-      <c r="AJ6" s="21"/>
-      <c r="AK6" s="21"/>
-      <c r="AL6" s="21"/>
-      <c r="AM6" s="21"/>
-      <c r="AN6" s="21"/>
-      <c r="AO6" s="21"/>
-      <c r="AP6" s="21"/>
-      <c r="AQ6" s="21"/>
-      <c r="AR6" s="21"/>
-      <c r="AS6" s="21"/>
-      <c r="AT6" s="21"/>
-      <c r="AU6" s="21"/>
-      <c r="AV6" s="21"/>
-      <c r="AW6" s="21"/>
-      <c r="AX6" s="21"/>
-      <c r="AY6" s="21"/>
-      <c r="AZ6" s="21"/>
-      <c r="BA6" s="21"/>
-      <c r="BB6" s="21"/>
-      <c r="BC6" s="21"/>
-      <c r="BD6" s="21"/>
-      <c r="BE6" s="21"/>
-      <c r="BF6" s="21"/>
-      <c r="BG6" s="21"/>
-      <c r="BH6" s="21"/>
-      <c r="BI6" s="21"/>
-      <c r="BJ6" s="21"/>
-      <c r="BK6" s="21"/>
-      <c r="BL6" s="21"/>
-      <c r="BM6" s="21"/>
-      <c r="BN6" s="21"/>
-      <c r="BO6" s="21"/>
-      <c r="BP6" s="21"/>
-      <c r="BQ6" s="21"/>
-      <c r="BR6" s="21"/>
-      <c r="BS6" s="21"/>
-      <c r="BT6" s="21"/>
-      <c r="BU6" s="21"/>
-      <c r="BV6" s="21"/>
-      <c r="BW6" s="21"/>
-      <c r="BX6" s="21"/>
-      <c r="BY6" s="21"/>
-      <c r="BZ6" s="21"/>
-      <c r="CA6" s="21"/>
-      <c r="CB6" s="21"/>
-      <c r="CC6" s="21"/>
-      <c r="CD6" s="21"/>
-    </row>
-    <row r="7" spans="1:82" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41">
-        <v>3</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="41"/>
-      <c r="AC7" s="21"/>
-      <c r="AD7" s="21"/>
-      <c r="AE7" s="21"/>
-      <c r="AF7" s="21"/>
-      <c r="AG7" s="21"/>
-      <c r="AH7" s="21"/>
-      <c r="AI7" s="21"/>
-      <c r="AJ7" s="21"/>
-      <c r="AK7" s="21"/>
-      <c r="AL7" s="21"/>
-      <c r="AM7" s="21"/>
-      <c r="AN7" s="21"/>
-      <c r="AO7" s="21"/>
-      <c r="AP7" s="21"/>
-      <c r="AQ7" s="21"/>
-      <c r="AR7" s="21"/>
-      <c r="AS7" s="21"/>
-      <c r="AT7" s="21"/>
-      <c r="AU7" s="21"/>
-      <c r="AV7" s="21"/>
-      <c r="AW7" s="21"/>
-      <c r="AX7" s="21"/>
-      <c r="AY7" s="21"/>
-      <c r="AZ7" s="21"/>
-      <c r="BA7" s="21"/>
-      <c r="BB7" s="21"/>
-      <c r="BC7" s="21"/>
-      <c r="BD7" s="21"/>
-      <c r="BE7" s="21"/>
-      <c r="BF7" s="21"/>
-      <c r="BG7" s="21"/>
-      <c r="BH7" s="21"/>
-      <c r="BI7" s="21"/>
-      <c r="BJ7" s="21"/>
-      <c r="BK7" s="21"/>
-      <c r="BL7" s="21"/>
-      <c r="BM7" s="21"/>
-      <c r="BN7" s="21"/>
-      <c r="BO7" s="21"/>
-      <c r="BP7" s="21"/>
-      <c r="BQ7" s="21"/>
-      <c r="BR7" s="21"/>
-      <c r="BS7" s="21"/>
-      <c r="BT7" s="21"/>
-      <c r="BU7" s="21"/>
-      <c r="BV7" s="21"/>
-      <c r="BW7" s="21"/>
-      <c r="BX7" s="21"/>
-      <c r="BY7" s="21"/>
-      <c r="BZ7" s="21"/>
-      <c r="CA7" s="21"/>
-      <c r="CB7" s="21"/>
-      <c r="CC7" s="21"/>
-      <c r="CD7" s="21"/>
-    </row>
-    <row r="8" spans="1:82" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41">
-        <v>4</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="41"/>
-      <c r="V8" s="41"/>
-      <c r="W8" s="41"/>
-      <c r="X8" s="41"/>
-      <c r="Y8" s="41"/>
-      <c r="Z8" s="41"/>
-      <c r="AA8" s="41"/>
-      <c r="AB8" s="41"/>
-      <c r="AC8" s="21"/>
-      <c r="AD8" s="21"/>
-      <c r="AE8" s="21"/>
-      <c r="AF8" s="21"/>
-      <c r="AG8" s="21"/>
-      <c r="AH8" s="21"/>
-      <c r="AI8" s="21"/>
-      <c r="AJ8" s="21"/>
-      <c r="AK8" s="21"/>
-      <c r="AL8" s="21"/>
-      <c r="AM8" s="21"/>
-      <c r="AN8" s="21"/>
-      <c r="AO8" s="21"/>
-      <c r="AP8" s="21"/>
-      <c r="AQ8" s="21"/>
-      <c r="AR8" s="21"/>
-      <c r="AS8" s="21"/>
-      <c r="AT8" s="21"/>
-      <c r="AU8" s="21"/>
-      <c r="AV8" s="21"/>
-      <c r="AW8" s="21"/>
-      <c r="AX8" s="21"/>
-      <c r="AY8" s="21"/>
-      <c r="AZ8" s="21"/>
-      <c r="BA8" s="21"/>
-      <c r="BB8" s="21"/>
-      <c r="BC8" s="21"/>
-      <c r="BD8" s="21"/>
-      <c r="BE8" s="21"/>
-      <c r="BF8" s="21"/>
-      <c r="BG8" s="21"/>
-      <c r="BH8" s="21"/>
-      <c r="BI8" s="21"/>
-      <c r="BJ8" s="21"/>
-      <c r="BK8" s="21"/>
-      <c r="BL8" s="21"/>
-      <c r="BM8" s="21"/>
-      <c r="BN8" s="21"/>
-      <c r="BO8" s="21"/>
-      <c r="BP8" s="21"/>
-      <c r="BQ8" s="21"/>
-      <c r="BR8" s="21"/>
-      <c r="BS8" s="21"/>
-      <c r="BT8" s="21"/>
-      <c r="BU8" s="21"/>
-      <c r="BV8" s="21"/>
-      <c r="BW8" s="21"/>
-      <c r="BX8" s="21"/>
-      <c r="BY8" s="21"/>
-      <c r="BZ8" s="21"/>
-      <c r="CA8" s="21"/>
-      <c r="CB8" s="21"/>
-      <c r="CC8" s="21"/>
-      <c r="CD8" s="21"/>
-    </row>
-    <row r="9" spans="1:82" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41">
-        <v>5</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="41"/>
-      <c r="V9" s="41"/>
-      <c r="W9" s="41"/>
-      <c r="X9" s="41"/>
-      <c r="Y9" s="41"/>
-      <c r="Z9" s="41"/>
-      <c r="AA9" s="41"/>
-      <c r="AB9" s="41"/>
-      <c r="AC9" s="21"/>
-      <c r="AD9" s="21"/>
-      <c r="AE9" s="21"/>
-      <c r="AF9" s="21"/>
-      <c r="AG9" s="21"/>
-      <c r="AH9" s="21"/>
-      <c r="AI9" s="21"/>
-      <c r="AJ9" s="21"/>
-      <c r="AK9" s="21"/>
-      <c r="AL9" s="21"/>
-      <c r="AM9" s="21"/>
-      <c r="AN9" s="21"/>
-      <c r="AO9" s="21"/>
-      <c r="AP9" s="21"/>
-      <c r="AQ9" s="21"/>
-      <c r="AR9" s="21"/>
-      <c r="AS9" s="21"/>
-      <c r="AT9" s="21"/>
-      <c r="AU9" s="21"/>
-      <c r="AV9" s="21"/>
-      <c r="AW9" s="21"/>
-      <c r="AX9" s="21"/>
-      <c r="AY9" s="21"/>
-      <c r="AZ9" s="21"/>
-      <c r="BA9" s="21"/>
-      <c r="BB9" s="21"/>
-      <c r="BC9" s="21"/>
-      <c r="BD9" s="21"/>
-      <c r="BE9" s="21"/>
-      <c r="BF9" s="21"/>
-      <c r="BG9" s="21"/>
-      <c r="BH9" s="21"/>
-      <c r="BI9" s="21"/>
-      <c r="BJ9" s="21"/>
-      <c r="BK9" s="21"/>
-      <c r="BL9" s="21"/>
-      <c r="BM9" s="21"/>
-      <c r="BN9" s="21"/>
-      <c r="BO9" s="21"/>
-      <c r="BP9" s="21"/>
-      <c r="BQ9" s="21"/>
-      <c r="BR9" s="21"/>
-      <c r="BS9" s="21"/>
-      <c r="BT9" s="21"/>
-      <c r="BU9" s="21"/>
-      <c r="BV9" s="21"/>
-      <c r="BW9" s="21"/>
-      <c r="BX9" s="21"/>
-      <c r="BY9" s="21"/>
-      <c r="BZ9" s="21"/>
-      <c r="CA9" s="21"/>
-      <c r="CB9" s="21"/>
-      <c r="CC9" s="21"/>
-      <c r="CD9" s="21"/>
-    </row>
-    <row r="10" spans="1:82" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41">
-        <v>6</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="41"/>
-      <c r="V10" s="41"/>
-      <c r="W10" s="41"/>
-      <c r="X10" s="41"/>
-      <c r="Y10" s="41"/>
-      <c r="Z10" s="41"/>
-      <c r="AA10" s="41"/>
-      <c r="AB10" s="41"/>
-      <c r="AC10" s="21"/>
-      <c r="AD10" s="21"/>
-      <c r="AE10" s="21"/>
-      <c r="AF10" s="21"/>
-      <c r="AG10" s="21"/>
-      <c r="AH10" s="21"/>
-      <c r="AI10" s="21"/>
-      <c r="AJ10" s="21"/>
-      <c r="AK10" s="21"/>
-      <c r="AL10" s="21"/>
-      <c r="AM10" s="21"/>
-      <c r="AN10" s="21"/>
-      <c r="AO10" s="21"/>
-      <c r="AP10" s="21"/>
-      <c r="AQ10" s="21"/>
-      <c r="AR10" s="21"/>
-      <c r="AS10" s="21"/>
-      <c r="AT10" s="21"/>
-      <c r="AU10" s="21"/>
-      <c r="AV10" s="21"/>
-      <c r="AW10" s="21"/>
-      <c r="AX10" s="21"/>
-      <c r="AY10" s="21"/>
-      <c r="AZ10" s="21"/>
-      <c r="BA10" s="21"/>
-      <c r="BB10" s="21"/>
-      <c r="BC10" s="21"/>
-      <c r="BD10" s="21"/>
-      <c r="BE10" s="21"/>
-      <c r="BF10" s="21"/>
-      <c r="BG10" s="21"/>
-      <c r="BH10" s="21"/>
-      <c r="BI10" s="21"/>
-      <c r="BJ10" s="21"/>
-      <c r="BK10" s="21"/>
-      <c r="BL10" s="21"/>
-      <c r="BM10" s="21"/>
-      <c r="BN10" s="21"/>
-      <c r="BO10" s="21"/>
-      <c r="BP10" s="21"/>
-      <c r="BQ10" s="21"/>
-      <c r="BR10" s="21"/>
-      <c r="BS10" s="21"/>
-      <c r="BT10" s="21"/>
-      <c r="BU10" s="21"/>
-      <c r="BV10" s="21"/>
-      <c r="BW10" s="21"/>
-      <c r="BX10" s="21"/>
-      <c r="BY10" s="21"/>
-      <c r="BZ10" s="21"/>
-      <c r="CA10" s="21"/>
-      <c r="CB10" s="21"/>
-      <c r="CC10" s="21"/>
-      <c r="CD10" s="21"/>
-    </row>
-    <row r="11" spans="1:82" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="41">
-        <v>7</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="41"/>
-      <c r="V11" s="41"/>
-      <c r="W11" s="41"/>
-      <c r="X11" s="41"/>
-      <c r="Y11" s="41"/>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="41"/>
-      <c r="AB11" s="41"/>
-      <c r="AC11" s="21"/>
-      <c r="AD11" s="21"/>
-      <c r="AE11" s="21"/>
-      <c r="AF11" s="21"/>
-      <c r="AG11" s="21"/>
-      <c r="AH11" s="21"/>
-      <c r="AI11" s="21"/>
-      <c r="AJ11" s="21"/>
-      <c r="AK11" s="21"/>
-      <c r="AL11" s="21"/>
-      <c r="AM11" s="21"/>
-      <c r="AN11" s="21"/>
-      <c r="AO11" s="21"/>
-      <c r="AP11" s="21"/>
-      <c r="AQ11" s="21"/>
-      <c r="AR11" s="21"/>
-      <c r="AS11" s="21"/>
-      <c r="AT11" s="21"/>
-      <c r="AU11" s="21"/>
-      <c r="AV11" s="21"/>
-      <c r="AW11" s="21"/>
-      <c r="AX11" s="21"/>
-      <c r="AY11" s="21"/>
-      <c r="AZ11" s="21"/>
-      <c r="BA11" s="21"/>
-      <c r="BB11" s="21"/>
-      <c r="BC11" s="21"/>
-      <c r="BD11" s="21"/>
-      <c r="BE11" s="21"/>
-      <c r="BF11" s="21"/>
-      <c r="BG11" s="21"/>
-      <c r="BH11" s="21"/>
-      <c r="BI11" s="21"/>
-      <c r="BJ11" s="21"/>
-      <c r="BK11" s="21"/>
-      <c r="BL11" s="21"/>
-      <c r="BM11" s="21"/>
-      <c r="BN11" s="21"/>
-      <c r="BO11" s="21"/>
-      <c r="BP11" s="21"/>
-      <c r="BQ11" s="21"/>
-      <c r="BR11" s="21"/>
-      <c r="BS11" s="21"/>
-      <c r="BT11" s="21"/>
-      <c r="BU11" s="21"/>
-      <c r="BV11" s="21"/>
-      <c r="BW11" s="21"/>
-      <c r="BX11" s="21"/>
-      <c r="BY11" s="21"/>
-      <c r="BZ11" s="21"/>
-      <c r="CA11" s="21"/>
-      <c r="CB11" s="21"/>
-      <c r="CC11" s="21"/>
-      <c r="CD11" s="21"/>
-    </row>
-    <row r="12" spans="1:82" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="41">
-        <v>8</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="41">
-        <v>0</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="41"/>
-      <c r="V12" s="41"/>
-      <c r="W12" s="41"/>
-      <c r="X12" s="41"/>
-      <c r="Y12" s="41"/>
-      <c r="Z12" s="41"/>
-      <c r="AA12" s="41"/>
-      <c r="AB12" s="41"/>
-      <c r="AC12" s="21"/>
-      <c r="AD12" s="21"/>
-      <c r="AE12" s="21"/>
-      <c r="AF12" s="21"/>
-      <c r="AG12" s="21"/>
-      <c r="AH12" s="21"/>
-      <c r="AI12" s="21"/>
-      <c r="AJ12" s="21"/>
-      <c r="AK12" s="21"/>
-      <c r="AL12" s="21"/>
-      <c r="AM12" s="21"/>
-      <c r="AN12" s="21"/>
-      <c r="AO12" s="21"/>
-      <c r="AP12" s="21"/>
-      <c r="AQ12" s="21"/>
-      <c r="AR12" s="21"/>
-      <c r="AS12" s="21"/>
-      <c r="AT12" s="21"/>
-      <c r="AU12" s="21"/>
-      <c r="AV12" s="21"/>
-      <c r="AW12" s="21"/>
-      <c r="AX12" s="21"/>
-      <c r="AY12" s="21"/>
-      <c r="AZ12" s="21"/>
-      <c r="BA12" s="21"/>
-      <c r="BB12" s="21"/>
-      <c r="BC12" s="21"/>
-      <c r="BD12" s="21"/>
-      <c r="BE12" s="21"/>
-      <c r="BF12" s="21"/>
-      <c r="BG12" s="21"/>
-      <c r="BH12" s="21"/>
-      <c r="BI12" s="21"/>
-      <c r="BJ12" s="21"/>
-      <c r="BK12" s="21"/>
-      <c r="BL12" s="21"/>
-      <c r="BM12" s="21"/>
-      <c r="BN12" s="21"/>
-      <c r="BO12" s="21"/>
-      <c r="BP12" s="21"/>
-      <c r="BQ12" s="21"/>
-      <c r="BR12" s="21"/>
-      <c r="BS12" s="21"/>
-      <c r="BT12" s="21"/>
-      <c r="BU12" s="21"/>
-      <c r="BV12" s="21"/>
-      <c r="BW12" s="21"/>
-      <c r="BX12" s="21"/>
-      <c r="BY12" s="21"/>
-      <c r="BZ12" s="21"/>
-      <c r="CA12" s="21"/>
-      <c r="CB12" s="21"/>
-      <c r="CC12" s="21"/>
-      <c r="CD12" s="21"/>
-    </row>
-    <row r="13" spans="1:82" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="41">
-        <v>9</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="41"/>
-      <c r="V13" s="41"/>
-      <c r="W13" s="41"/>
-      <c r="X13" s="41"/>
-      <c r="Y13" s="41"/>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="41"/>
-      <c r="AB13" s="41"/>
-      <c r="AC13" s="21"/>
-      <c r="AD13" s="21"/>
-      <c r="AE13" s="21"/>
-      <c r="AF13" s="21"/>
-      <c r="AG13" s="21"/>
-      <c r="AH13" s="21"/>
-      <c r="AI13" s="21"/>
-      <c r="AJ13" s="21"/>
-      <c r="AK13" s="21"/>
-      <c r="AL13" s="21"/>
-      <c r="AM13" s="21"/>
-      <c r="AN13" s="21"/>
-      <c r="AO13" s="21"/>
-      <c r="AP13" s="21"/>
-      <c r="AQ13" s="21"/>
-      <c r="AR13" s="21"/>
-      <c r="AS13" s="21"/>
-      <c r="AT13" s="21"/>
-      <c r="AU13" s="21"/>
-      <c r="AV13" s="21"/>
-      <c r="AW13" s="21"/>
-      <c r="AX13" s="21"/>
-      <c r="AY13" s="21"/>
-      <c r="AZ13" s="21"/>
-      <c r="BA13" s="21"/>
-      <c r="BB13" s="21"/>
-      <c r="BC13" s="21"/>
-      <c r="BD13" s="21"/>
-      <c r="BE13" s="21"/>
-      <c r="BF13" s="21"/>
-      <c r="BG13" s="21"/>
-      <c r="BH13" s="21"/>
-      <c r="BI13" s="21"/>
-      <c r="BJ13" s="21"/>
-      <c r="BK13" s="21"/>
-      <c r="BL13" s="21"/>
-      <c r="BM13" s="21"/>
-      <c r="BN13" s="21"/>
-      <c r="BO13" s="21"/>
-      <c r="BP13" s="21"/>
-      <c r="BQ13" s="21"/>
-      <c r="BR13" s="21"/>
-      <c r="BS13" s="21"/>
-      <c r="BT13" s="21"/>
-      <c r="BU13" s="21"/>
-      <c r="BV13" s="21"/>
-      <c r="BW13" s="21"/>
-      <c r="BX13" s="21"/>
-      <c r="BY13" s="21"/>
-      <c r="BZ13" s="21"/>
-      <c r="CA13" s="21"/>
-      <c r="CB13" s="21"/>
-      <c r="CC13" s="21"/>
-      <c r="CD13" s="21"/>
-    </row>
-    <row r="14" spans="1:82" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="41">
-        <v>10</v>
-      </c>
-      <c r="B14" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="41">
-        <v>0</v>
-      </c>
-      <c r="D14" s="41">
-        <v>0</v>
-      </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="41"/>
-      <c r="V14" s="41"/>
-      <c r="W14" s="41"/>
-      <c r="X14" s="41"/>
-      <c r="Y14" s="41"/>
-      <c r="Z14" s="41"/>
-      <c r="AA14" s="41"/>
-      <c r="AB14" s="41"/>
-      <c r="AC14" s="21"/>
-      <c r="AD14" s="21"/>
-      <c r="AE14" s="21"/>
-      <c r="AF14" s="21"/>
-      <c r="AG14" s="21"/>
-      <c r="AH14" s="21"/>
-      <c r="AI14" s="21"/>
-      <c r="AJ14" s="21"/>
-      <c r="AK14" s="21"/>
-      <c r="AL14" s="21"/>
-      <c r="AM14" s="21"/>
-      <c r="AN14" s="21"/>
-      <c r="AO14" s="21"/>
-      <c r="AP14" s="21"/>
-      <c r="AQ14" s="21"/>
-      <c r="AR14" s="21"/>
-      <c r="AS14" s="21"/>
-      <c r="AT14" s="21"/>
-      <c r="AU14" s="21"/>
-      <c r="AV14" s="21"/>
-      <c r="AW14" s="21"/>
-      <c r="AX14" s="21"/>
-      <c r="AY14" s="21"/>
-      <c r="AZ14" s="21"/>
-      <c r="BA14" s="21"/>
-      <c r="BB14" s="21"/>
-      <c r="BC14" s="21"/>
-      <c r="BD14" s="21"/>
-      <c r="BE14" s="21"/>
-      <c r="BF14" s="21"/>
-      <c r="BG14" s="21"/>
-      <c r="BH14" s="21"/>
-      <c r="BI14" s="21"/>
-      <c r="BJ14" s="21"/>
-      <c r="BK14" s="21"/>
-      <c r="BL14" s="21"/>
-      <c r="BM14" s="21"/>
-      <c r="BN14" s="21"/>
-      <c r="BO14" s="21"/>
-      <c r="BP14" s="21"/>
-      <c r="BQ14" s="21"/>
-      <c r="BR14" s="21"/>
-      <c r="BS14" s="21"/>
-      <c r="BT14" s="21"/>
-      <c r="BU14" s="21"/>
-      <c r="BV14" s="21"/>
-      <c r="BW14" s="21"/>
-      <c r="BX14" s="21"/>
-      <c r="BY14" s="21"/>
-      <c r="BZ14" s="21"/>
-      <c r="CA14" s="21"/>
-      <c r="CB14" s="21"/>
-      <c r="CC14" s="21"/>
-      <c r="CD14" s="21"/>
-    </row>
-    <row r="15" spans="1:82" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="41">
-        <v>11</v>
-      </c>
-      <c r="B15" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="44"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="44"/>
-      <c r="U15" s="44"/>
-      <c r="V15" s="44"/>
-      <c r="W15" s="44"/>
-      <c r="X15" s="44"/>
-      <c r="Y15" s="44"/>
-      <c r="Z15" s="44"/>
-      <c r="AA15" s="44"/>
-      <c r="AB15" s="44"/>
-      <c r="AC15" s="21"/>
-      <c r="AD15" s="21"/>
-      <c r="AE15" s="21"/>
-      <c r="AF15" s="21"/>
-      <c r="AG15" s="21"/>
-      <c r="AH15" s="21"/>
-      <c r="AI15" s="21"/>
-      <c r="AJ15" s="21"/>
-      <c r="AK15" s="21"/>
-      <c r="AL15" s="21"/>
-      <c r="AM15" s="21"/>
-      <c r="AN15" s="21"/>
-      <c r="AO15" s="21"/>
-      <c r="AP15" s="21"/>
-      <c r="AQ15" s="21"/>
-      <c r="AR15" s="21"/>
-      <c r="AS15" s="21"/>
-      <c r="AT15" s="21"/>
-      <c r="AU15" s="21"/>
-      <c r="AV15" s="21"/>
-      <c r="AW15" s="21"/>
-      <c r="AX15" s="21"/>
-      <c r="AY15" s="21"/>
-      <c r="AZ15" s="21"/>
-      <c r="BA15" s="21"/>
-      <c r="BB15" s="21"/>
-      <c r="BC15" s="21"/>
-      <c r="BD15" s="21"/>
-      <c r="BE15" s="21"/>
-      <c r="BF15" s="21"/>
-      <c r="BG15" s="21"/>
-      <c r="BH15" s="21"/>
-      <c r="BI15" s="21"/>
-      <c r="BJ15" s="21"/>
-      <c r="BK15" s="21"/>
-      <c r="BL15" s="21"/>
-      <c r="BM15" s="21"/>
-      <c r="BN15" s="21"/>
-      <c r="BO15" s="21"/>
-      <c r="BP15" s="21"/>
-      <c r="BQ15" s="21"/>
-      <c r="BR15" s="21"/>
-      <c r="BS15" s="21"/>
-      <c r="BT15" s="21"/>
-      <c r="BU15" s="21"/>
-      <c r="BV15" s="21"/>
-      <c r="BW15" s="21"/>
-      <c r="BX15" s="21"/>
-      <c r="BY15" s="21"/>
-      <c r="BZ15" s="21"/>
-      <c r="CA15" s="21"/>
-      <c r="CB15" s="21"/>
-      <c r="CC15" s="21"/>
-      <c r="CD15" s="21"/>
-    </row>
-    <row r="16" spans="1:82" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="S2:S3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TOEIC 300-500 K1" sheetId="2" r:id="rId1"/>
     <sheet name="TOEIC 300-500 K2" sheetId="3" r:id="rId2"/>
     <sheet name="TOEIC 500-700 K1" sheetId="4" r:id="rId3"/>
     <sheet name="TOEIC 300-500 K3" sheetId="6" r:id="rId4"/>
+    <sheet name="TOEIC 300-500 K3-BTap+vang" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="80">
   <si>
     <t>x</t>
   </si>
@@ -227,6 +228,36 @@
   </si>
   <si>
     <t>Vắng</t>
+  </si>
+  <si>
+    <t>10/3-Lesson 1</t>
+  </si>
+  <si>
+    <t>Sách</t>
+  </si>
+  <si>
+    <t>Vở</t>
+  </si>
+  <si>
+    <t>13/3-Lesson 2</t>
+  </si>
+  <si>
+    <t>15/3-Lesson 3</t>
+  </si>
+  <si>
+    <t>17/3-Lesson 4</t>
+  </si>
+  <si>
+    <t>20/3-Lesson 5</t>
+  </si>
+  <si>
+    <t>22/3-Lesson 6</t>
+  </si>
+  <si>
+    <t>24/3-Lesson 7</t>
+  </si>
+  <si>
+    <t>27/3-Lesson 8</t>
   </si>
 </sst>
 </file>
@@ -405,12 +436,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -427,7 +473,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -535,6 +581,19 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1878,7 +1937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -2433,4 +2492,613 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="36" width="5.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B1" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="47"/>
+    </row>
+    <row r="4" spans="1:27" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="K4" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="N4" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q4" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="R4" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="S4" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="T4" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="U4" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="V4" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="W4" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y4" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z4" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA4" s="48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="48">
+        <v>1</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48">
+        <v>0</v>
+      </c>
+      <c r="E5" s="48">
+        <v>0</v>
+      </c>
+      <c r="F5" s="48">
+        <v>0</v>
+      </c>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="48"/>
+    </row>
+    <row r="6" spans="1:27" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="48">
+        <v>2</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="50">
+        <v>34554</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="48"/>
+      <c r="W6" s="48"/>
+      <c r="X6" s="48"/>
+      <c r="Y6" s="48"/>
+      <c r="Z6" s="48"/>
+      <c r="AA6" s="48"/>
+    </row>
+    <row r="7" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="48">
+        <v>3</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="48"/>
+      <c r="S7" s="48"/>
+      <c r="T7" s="48"/>
+      <c r="U7" s="48"/>
+      <c r="V7" s="48"/>
+      <c r="W7" s="48"/>
+      <c r="X7" s="48"/>
+      <c r="Y7" s="48"/>
+      <c r="Z7" s="48"/>
+      <c r="AA7" s="48"/>
+    </row>
+    <row r="8" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="48">
+        <v>4</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48">
+        <v>0</v>
+      </c>
+      <c r="E8" s="48">
+        <v>0</v>
+      </c>
+      <c r="F8" s="48">
+        <v>0</v>
+      </c>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="48"/>
+      <c r="X8" s="48"/>
+      <c r="Y8" s="48"/>
+      <c r="Z8" s="48"/>
+      <c r="AA8" s="48"/>
+    </row>
+    <row r="9" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="48">
+        <v>5</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="48"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="48"/>
+      <c r="V9" s="48"/>
+      <c r="W9" s="48"/>
+      <c r="X9" s="48"/>
+      <c r="Y9" s="48"/>
+      <c r="Z9" s="48"/>
+      <c r="AA9" s="48"/>
+    </row>
+    <row r="10" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="48">
+        <v>6</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="48"/>
+      <c r="W10" s="48"/>
+      <c r="X10" s="48"/>
+      <c r="Y10" s="48"/>
+      <c r="Z10" s="48"/>
+      <c r="AA10" s="48"/>
+    </row>
+    <row r="11" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="48">
+        <v>7</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="48">
+        <v>0</v>
+      </c>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="48"/>
+      <c r="X11" s="48"/>
+      <c r="Y11" s="48"/>
+      <c r="Z11" s="48"/>
+      <c r="AA11" s="48"/>
+    </row>
+    <row r="12" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="48">
+        <v>8</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="50">
+        <v>35773</v>
+      </c>
+      <c r="D12" s="48">
+        <v>0</v>
+      </c>
+      <c r="E12" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="48"/>
+      <c r="W12" s="48"/>
+      <c r="X12" s="48"/>
+      <c r="Y12" s="48"/>
+      <c r="Z12" s="48"/>
+      <c r="AA12" s="48"/>
+    </row>
+    <row r="13" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="48">
+        <v>9</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="48"/>
+      <c r="X13" s="48"/>
+      <c r="Y13" s="48"/>
+      <c r="Z13" s="48"/>
+      <c r="AA13" s="48"/>
+    </row>
+    <row r="14" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="48">
+        <v>10</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="48">
+        <v>0</v>
+      </c>
+      <c r="E14" s="48">
+        <v>0</v>
+      </c>
+      <c r="F14" s="48">
+        <v>0</v>
+      </c>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="48"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="48"/>
+      <c r="X14" s="48"/>
+      <c r="Y14" s="48"/>
+      <c r="Z14" s="48"/>
+      <c r="AA14" s="48"/>
+    </row>
+    <row r="15" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="48">
+        <v>11</v>
+      </c>
+      <c r="B15" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48">
+        <v>0</v>
+      </c>
+      <c r="E15" s="48">
+        <v>0</v>
+      </c>
+      <c r="F15" s="48">
+        <v>0</v>
+      </c>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="48"/>
+      <c r="X15" s="48"/>
+      <c r="Y15" s="48"/>
+      <c r="Z15" s="48"/>
+      <c r="AA15" s="48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:U3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -11,7 +11,7 @@
     <sheet name="TOEIC 300-500 K2" sheetId="3" r:id="rId2"/>
     <sheet name="TOEIC 500-700 K1" sheetId="4" r:id="rId3"/>
     <sheet name="TOEIC 300-500 K3" sheetId="6" r:id="rId4"/>
-    <sheet name="TOEIC 300-500 K3-BTap+vang" sheetId="7" r:id="rId5"/>
+    <sheet name="TOEIC 300-500 K3-BTap+Vang" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -570,6 +570,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -582,17 +589,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -939,30 +939,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="44" t="s">
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="42" t="s">
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="42" t="s">
+      <c r="O2" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="42" t="s">
+      <c r="P2" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="42" t="s">
+      <c r="Q2" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="42" t="s">
+      <c r="R2" s="45" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1006,11 +1006,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -1260,30 +1260,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="44" t="s">
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="42" t="s">
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="42" t="s">
+      <c r="O2" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="42" t="s">
+      <c r="P2" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="42" t="s">
+      <c r="Q2" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="45" t="s">
+      <c r="R2" s="48" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1327,11 +1327,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="48"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -1605,30 +1605,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="44" t="s">
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="42" t="s">
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="42" t="s">
+      <c r="O2" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="42" t="s">
+      <c r="P2" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="42" t="s">
+      <c r="Q2" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="42" t="s">
+      <c r="R2" s="45" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1672,11 +1672,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -1965,30 +1965,30 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="44" t="s">
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="42" t="s">
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="42" t="s">
+      <c r="Q2" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="42" t="s">
+      <c r="R2" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="42" t="s">
+      <c r="S2" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="42" t="s">
+      <c r="T2" s="45" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2038,11 +2038,11 @@
       <c r="O3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
     </row>
     <row r="4" spans="1:20" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -2499,7 +2499,7 @@
   <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2516,573 +2516,573 @@
       </c>
     </row>
     <row r="3" spans="1:27" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47" t="s">
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47" t="s">
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47" t="s">
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47" t="s">
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47" t="s">
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47" t="s">
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47" t="s">
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="47"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
     </row>
     <row r="4" spans="1:27" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="48" t="s">
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="48" t="s">
+      <c r="I4" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="48" t="s">
+      <c r="J4" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="K4" s="48" t="s">
+      <c r="K4" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="L4" s="48" t="s">
+      <c r="L4" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="M4" s="48" t="s">
+      <c r="M4" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="N4" s="48" t="s">
+      <c r="N4" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="O4" s="48" t="s">
+      <c r="O4" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="P4" s="48" t="s">
+      <c r="P4" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="Q4" s="48" t="s">
+      <c r="Q4" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="R4" s="48" t="s">
+      <c r="R4" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="S4" s="48" t="s">
+      <c r="S4" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="T4" s="48" t="s">
+      <c r="T4" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="U4" s="48" t="s">
+      <c r="U4" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="V4" s="48" t="s">
+      <c r="V4" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="W4" s="48" t="s">
+      <c r="W4" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="X4" s="48" t="s">
+      <c r="X4" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="Y4" s="48" t="s">
+      <c r="Y4" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="Z4" s="48" t="s">
+      <c r="Z4" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="AA4" s="48" t="s">
+      <c r="AA4" s="42" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:27" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48">
+      <c r="A5" s="42">
         <v>1</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48">
-        <v>0</v>
-      </c>
-      <c r="E5" s="48">
-        <v>0</v>
-      </c>
-      <c r="F5" s="48">
-        <v>0</v>
-      </c>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="48"/>
-      <c r="Z5" s="48"/>
-      <c r="AA5" s="48"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42">
+        <v>0</v>
+      </c>
+      <c r="E5" s="42">
+        <v>0</v>
+      </c>
+      <c r="F5" s="42">
+        <v>0</v>
+      </c>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
+      <c r="W5" s="42"/>
+      <c r="X5" s="42"/>
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="42"/>
+      <c r="AA5" s="42"/>
     </row>
     <row r="6" spans="1:27" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="48">
+      <c r="A6" s="42">
         <v>2</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="50">
+      <c r="C6" s="44">
         <v>34554</v>
       </c>
-      <c r="D6" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="48"/>
-      <c r="V6" s="48"/>
-      <c r="W6" s="48"/>
-      <c r="X6" s="48"/>
-      <c r="Y6" s="48"/>
-      <c r="Z6" s="48"/>
-      <c r="AA6" s="48"/>
+      <c r="D6" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="42"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="42"/>
     </row>
     <row r="7" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="48">
+      <c r="A7" s="42">
         <v>3</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="48"/>
-      <c r="T7" s="48"/>
-      <c r="U7" s="48"/>
-      <c r="V7" s="48"/>
-      <c r="W7" s="48"/>
-      <c r="X7" s="48"/>
-      <c r="Y7" s="48"/>
-      <c r="Z7" s="48"/>
-      <c r="AA7" s="48"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="42"/>
     </row>
     <row r="8" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="48">
+      <c r="A8" s="42">
         <v>4</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48">
-        <v>0</v>
-      </c>
-      <c r="E8" s="48">
-        <v>0</v>
-      </c>
-      <c r="F8" s="48">
-        <v>0</v>
-      </c>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="48"/>
-      <c r="X8" s="48"/>
-      <c r="Y8" s="48"/>
-      <c r="Z8" s="48"/>
-      <c r="AA8" s="48"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42">
+        <v>0</v>
+      </c>
+      <c r="E8" s="42">
+        <v>0</v>
+      </c>
+      <c r="F8" s="42">
+        <v>0</v>
+      </c>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="42"/>
+      <c r="AA8" s="42"/>
     </row>
     <row r="9" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48">
+      <c r="A9" s="42">
         <v>5</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="48"/>
-      <c r="T9" s="48"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="48"/>
-      <c r="X9" s="48"/>
-      <c r="Y9" s="48"/>
-      <c r="Z9" s="48"/>
-      <c r="AA9" s="48"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="42"/>
+      <c r="AA9" s="42"/>
     </row>
     <row r="10" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="48">
+      <c r="A10" s="42">
         <v>6</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="48"/>
-      <c r="T10" s="48"/>
-      <c r="U10" s="48"/>
-      <c r="V10" s="48"/>
-      <c r="W10" s="48"/>
-      <c r="X10" s="48"/>
-      <c r="Y10" s="48"/>
-      <c r="Z10" s="48"/>
-      <c r="AA10" s="48"/>
+      <c r="D10" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="42"/>
     </row>
     <row r="11" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="48">
+      <c r="A11" s="42">
         <v>7</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="48">
-        <v>0</v>
-      </c>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="48"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="48"/>
-      <c r="X11" s="48"/>
-      <c r="Y11" s="48"/>
-      <c r="Z11" s="48"/>
-      <c r="AA11" s="48"/>
+      <c r="D11" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="42">
+        <v>0</v>
+      </c>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="42"/>
+      <c r="AA11" s="42"/>
     </row>
     <row r="12" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="48">
+      <c r="A12" s="42">
         <v>8</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="50">
+      <c r="C12" s="44">
         <v>35773</v>
       </c>
-      <c r="D12" s="48">
-        <v>0</v>
-      </c>
-      <c r="E12" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="48"/>
-      <c r="U12" s="48"/>
-      <c r="V12" s="48"/>
-      <c r="W12" s="48"/>
-      <c r="X12" s="48"/>
-      <c r="Y12" s="48"/>
-      <c r="Z12" s="48"/>
-      <c r="AA12" s="48"/>
+      <c r="D12" s="42">
+        <v>0</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="42"/>
     </row>
     <row r="13" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="48">
+      <c r="A13" s="42">
         <v>9</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="48"/>
-      <c r="X13" s="48"/>
-      <c r="Y13" s="48"/>
-      <c r="Z13" s="48"/>
-      <c r="AA13" s="48"/>
+      <c r="D13" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="42"/>
+      <c r="Z13" s="42"/>
+      <c r="AA13" s="42"/>
     </row>
     <row r="14" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="48">
+      <c r="A14" s="42">
         <v>10</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="48">
-        <v>0</v>
-      </c>
-      <c r="E14" s="48">
-        <v>0</v>
-      </c>
-      <c r="F14" s="48">
-        <v>0</v>
-      </c>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="48"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="48"/>
-      <c r="X14" s="48"/>
-      <c r="Y14" s="48"/>
-      <c r="Z14" s="48"/>
-      <c r="AA14" s="48"/>
+      <c r="D14" s="42">
+        <v>0</v>
+      </c>
+      <c r="E14" s="42">
+        <v>0</v>
+      </c>
+      <c r="F14" s="42">
+        <v>0</v>
+      </c>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="42"/>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="42"/>
+      <c r="Z14" s="42"/>
+      <c r="AA14" s="42"/>
     </row>
     <row r="15" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="48">
+      <c r="A15" s="42">
         <v>11</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48">
-        <v>0</v>
-      </c>
-      <c r="E15" s="48">
-        <v>0</v>
-      </c>
-      <c r="F15" s="48">
-        <v>0</v>
-      </c>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="48"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="48"/>
-      <c r="X15" s="48"/>
-      <c r="Y15" s="48"/>
-      <c r="Z15" s="48"/>
-      <c r="AA15" s="48"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42">
+        <v>0</v>
+      </c>
+      <c r="E15" s="42">
+        <v>0</v>
+      </c>
+      <c r="F15" s="42">
+        <v>0</v>
+      </c>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="42"/>
+      <c r="Z15" s="42"/>
+      <c r="AA15" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TOEIC 300-500 K1" sheetId="2" r:id="rId1"/>
@@ -264,7 +264,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,14 +332,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -473,7 +465,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -541,34 +533,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="9" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -595,6 +573,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
@@ -939,30 +921,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="47" t="s">
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="45" t="s">
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="45" t="s">
+      <c r="O2" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="45" t="s">
+      <c r="P2" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="45" t="s">
+      <c r="Q2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="45" t="s">
+      <c r="R2" s="39" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1006,11 +988,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -1260,30 +1242,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="47" t="s">
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="45" t="s">
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="45" t="s">
+      <c r="O2" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="45" t="s">
+      <c r="P2" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="45" t="s">
+      <c r="Q2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="48" t="s">
+      <c r="R2" s="42" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1327,11 +1309,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="48"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="42"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -1605,30 +1587,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="47" t="s">
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="45" t="s">
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="45" t="s">
+      <c r="O2" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="45" t="s">
+      <c r="P2" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="45" t="s">
+      <c r="Q2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="45" t="s">
+      <c r="R2" s="39" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1672,11 +1654,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -1937,8 +1919,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1965,30 +1950,30 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I2" s="46" t="s">
+      <c r="I2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="47" t="s">
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="45" t="s">
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="45" t="s">
+      <c r="Q2" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="45" t="s">
+      <c r="R2" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="45" t="s">
+      <c r="S2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="45" t="s">
+      <c r="T2" s="39" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2038,11 +2023,11 @@
       <c r="O3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
     </row>
     <row r="4" spans="1:20" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -2072,11 +2057,20 @@
       <c r="M4" s="14"/>
       <c r="N4" s="14"/>
       <c r="O4" s="14"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
+      <c r="P4" s="14">
+        <f t="shared" ref="P4:P6" si="0">SUM(I4:L4)</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="14">
+        <f t="shared" ref="Q4:Q6" si="1">SUM(M4:O4)</f>
+        <v>0</v>
+      </c>
       <c r="R4" s="14"/>
       <c r="S4" s="14"/>
-      <c r="T4" s="31"/>
+      <c r="T4" s="30">
+        <f t="shared" ref="T4:T6" si="2">R4+S4</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:20" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
@@ -2099,54 +2093,90 @@
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="32"/>
-    </row>
-    <row r="6" spans="1:20" s="41" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35">
+      <c r="I5" s="14">
+        <v>6</v>
+      </c>
+      <c r="J5" s="14">
+        <v>15</v>
+      </c>
+      <c r="K5" s="14">
+        <v>8</v>
+      </c>
+      <c r="L5" s="14">
+        <v>11</v>
+      </c>
+      <c r="M5" s="14">
+        <v>14</v>
+      </c>
+      <c r="N5" s="14">
+        <v>2</v>
+      </c>
+      <c r="O5" s="14">
+        <v>10</v>
+      </c>
+      <c r="P5" s="14">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="Q5" s="14">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="R5" s="21">
+        <v>185</v>
+      </c>
+      <c r="S5" s="21">
+        <v>65</v>
+      </c>
+      <c r="T5" s="30">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="35" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="31">
         <v>3</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="33">
         <v>34579</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="35">
-        <v>0</v>
-      </c>
-      <c r="F6" s="35" t="s">
+      <c r="E6" s="31">
+        <v>0</v>
+      </c>
+      <c r="F6" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="40"/>
+      <c r="G6" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
@@ -2191,11 +2221,11 @@
         <v>15</v>
       </c>
       <c r="P7" s="14">
-        <f t="shared" ref="P7" si="0">SUM(I7:L7)</f>
+        <f t="shared" ref="P7:P13" si="3">SUM(I7:L7)</f>
         <v>34</v>
       </c>
       <c r="Q7" s="14">
-        <f t="shared" ref="Q7" si="1">SUM(M7:O7)</f>
+        <f t="shared" ref="Q7:Q13" si="4">SUM(M7:O7)</f>
         <v>29</v>
       </c>
       <c r="R7" s="14">
@@ -2205,43 +2235,52 @@
         <v>85</v>
       </c>
       <c r="T7" s="30">
-        <f t="shared" ref="T7" si="2">R7+S7</f>
+        <f t="shared" ref="T7:T13" si="5">R7+S7</f>
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+    <row r="8" spans="1:20" s="46" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="31">
         <v>5</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="27" t="s">
+      <c r="C8" s="32"/>
+      <c r="D8" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="14" t="s">
+      <c r="E8" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="33"/>
+      <c r="G8" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="32"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="45">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
@@ -2269,11 +2308,20 @@
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
+      <c r="P9" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
-      <c r="T9" s="32"/>
+      <c r="T9" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
@@ -2295,7 +2343,45 @@
         <v>65</v>
       </c>
       <c r="G10" s="14"/>
-      <c r="T10" s="34"/>
+      <c r="I10" s="17">
+        <v>2</v>
+      </c>
+      <c r="J10" s="17">
+        <v>11</v>
+      </c>
+      <c r="K10" s="17">
+        <v>8</v>
+      </c>
+      <c r="L10" s="17">
+        <v>13</v>
+      </c>
+      <c r="M10" s="17">
+        <v>14</v>
+      </c>
+      <c r="N10" s="17">
+        <v>4</v>
+      </c>
+      <c r="O10" s="17">
+        <v>14</v>
+      </c>
+      <c r="P10" s="14">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="Q10" s="14">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="R10" s="17">
+        <v>150</v>
+      </c>
+      <c r="S10" s="17">
+        <v>100</v>
+      </c>
+      <c r="T10" s="30">
+        <f t="shared" si="5"/>
+        <v>250</v>
+      </c>
     </row>
     <row r="11" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
@@ -2319,7 +2405,45 @@
       <c r="G11" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="T11" s="34"/>
+      <c r="I11" s="17">
+        <v>3</v>
+      </c>
+      <c r="J11" s="17">
+        <v>14</v>
+      </c>
+      <c r="K11" s="17">
+        <v>12</v>
+      </c>
+      <c r="L11" s="17">
+        <v>8</v>
+      </c>
+      <c r="M11" s="17">
+        <v>18</v>
+      </c>
+      <c r="N11" s="17">
+        <v>5</v>
+      </c>
+      <c r="O11" s="17">
+        <v>9</v>
+      </c>
+      <c r="P11" s="14">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="Q11" s="14">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="R11" s="17">
+        <v>170</v>
+      </c>
+      <c r="S11" s="17">
+        <v>100</v>
+      </c>
+      <c r="T11" s="30">
+        <f t="shared" si="5"/>
+        <v>270</v>
+      </c>
     </row>
     <row r="12" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
@@ -2341,7 +2465,45 @@
         <v>65</v>
       </c>
       <c r="G12" s="14"/>
-      <c r="T12" s="34"/>
+      <c r="I12" s="17">
+        <v>0</v>
+      </c>
+      <c r="J12" s="17">
+        <v>6</v>
+      </c>
+      <c r="K12" s="17">
+        <v>6</v>
+      </c>
+      <c r="L12" s="17">
+        <v>11</v>
+      </c>
+      <c r="M12" s="17">
+        <v>24</v>
+      </c>
+      <c r="N12" s="17">
+        <v>8</v>
+      </c>
+      <c r="O12" s="17">
+        <v>16</v>
+      </c>
+      <c r="P12" s="14">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="Q12" s="14">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="R12" s="17">
+        <v>90</v>
+      </c>
+      <c r="S12" s="17">
+        <v>200</v>
+      </c>
+      <c r="T12" s="30">
+        <f t="shared" si="5"/>
+        <v>290</v>
+      </c>
     </row>
     <row r="13" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
@@ -2363,7 +2525,45 @@
         <v>65</v>
       </c>
       <c r="G13" s="14"/>
-      <c r="T13" s="34"/>
+      <c r="I13" s="17">
+        <v>5</v>
+      </c>
+      <c r="J13" s="17">
+        <v>8</v>
+      </c>
+      <c r="K13" s="17">
+        <v>5</v>
+      </c>
+      <c r="L13" s="17">
+        <v>6</v>
+      </c>
+      <c r="M13" s="17">
+        <v>15</v>
+      </c>
+      <c r="N13" s="17">
+        <v>3</v>
+      </c>
+      <c r="O13" s="17">
+        <v>12</v>
+      </c>
+      <c r="P13" s="14">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="Q13" s="14">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="R13" s="17">
+        <v>95</v>
+      </c>
+      <c r="S13" s="17">
+        <v>90</v>
+      </c>
+      <c r="T13" s="30">
+        <f t="shared" si="5"/>
+        <v>185</v>
+      </c>
     </row>
     <row r="14" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
@@ -2498,7 +2698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
@@ -2516,573 +2716,573 @@
       </c>
     </row>
     <row r="3" spans="1:27" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49" t="s">
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49" t="s">
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49" t="s">
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49" t="s">
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49" t="s">
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49" t="s">
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="49" t="s">
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="49"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
     </row>
     <row r="4" spans="1:27" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="42" t="s">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="H4" s="42" t="s">
+      <c r="H4" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="42" t="s">
+      <c r="I4" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="42" t="s">
+      <c r="J4" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="K4" s="42" t="s">
+      <c r="K4" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="L4" s="42" t="s">
+      <c r="L4" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="M4" s="42" t="s">
+      <c r="M4" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="N4" s="42" t="s">
+      <c r="N4" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="O4" s="42" t="s">
+      <c r="O4" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="P4" s="42" t="s">
+      <c r="P4" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="Q4" s="42" t="s">
+      <c r="Q4" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="R4" s="42" t="s">
+      <c r="R4" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="S4" s="42" t="s">
+      <c r="S4" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="T4" s="42" t="s">
+      <c r="T4" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="U4" s="42" t="s">
+      <c r="U4" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="V4" s="42" t="s">
+      <c r="V4" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="W4" s="42" t="s">
+      <c r="W4" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="X4" s="42" t="s">
+      <c r="X4" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="Y4" s="42" t="s">
+      <c r="Y4" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="Z4" s="42" t="s">
+      <c r="Z4" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="AA4" s="42" t="s">
+      <c r="AA4" s="36" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:27" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42">
+      <c r="A5" s="36">
         <v>1</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42">
-        <v>0</v>
-      </c>
-      <c r="E5" s="42">
-        <v>0</v>
-      </c>
-      <c r="F5" s="42">
-        <v>0</v>
-      </c>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="42"/>
-      <c r="W5" s="42"/>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="42"/>
-      <c r="Z5" s="42"/>
-      <c r="AA5" s="42"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36">
+        <v>0</v>
+      </c>
+      <c r="E5" s="36">
+        <v>0</v>
+      </c>
+      <c r="F5" s="36">
+        <v>0</v>
+      </c>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="36"/>
     </row>
     <row r="6" spans="1:27" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42">
+      <c r="A6" s="36">
         <v>2</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="38">
         <v>34554</v>
       </c>
-      <c r="D6" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="42"/>
-      <c r="U6" s="42"/>
-      <c r="V6" s="42"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="42"/>
-      <c r="Y6" s="42"/>
-      <c r="Z6" s="42"/>
-      <c r="AA6" s="42"/>
+      <c r="D6" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
     </row>
     <row r="7" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="42">
+      <c r="A7" s="36">
         <v>3</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="42"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="42"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="36"/>
     </row>
     <row r="8" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42">
+      <c r="A8" s="36">
         <v>4</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42">
-        <v>0</v>
-      </c>
-      <c r="E8" s="42">
-        <v>0</v>
-      </c>
-      <c r="F8" s="42">
-        <v>0</v>
-      </c>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="42"/>
-      <c r="T8" s="42"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="42"/>
-      <c r="X8" s="42"/>
-      <c r="Y8" s="42"/>
-      <c r="Z8" s="42"/>
-      <c r="AA8" s="42"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36">
+        <v>0</v>
+      </c>
+      <c r="E8" s="36">
+        <v>0</v>
+      </c>
+      <c r="F8" s="36">
+        <v>0</v>
+      </c>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="36"/>
     </row>
     <row r="9" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="42">
+      <c r="A9" s="36">
         <v>5</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42"/>
-      <c r="S9" s="42"/>
-      <c r="T9" s="42"/>
-      <c r="U9" s="42"/>
-      <c r="V9" s="42"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="42"/>
-      <c r="Y9" s="42"/>
-      <c r="Z9" s="42"/>
-      <c r="AA9" s="42"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="36"/>
     </row>
     <row r="10" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="42">
+      <c r="A10" s="36">
         <v>6</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="42"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="42"/>
-      <c r="Z10" s="42"/>
-      <c r="AA10" s="42"/>
+      <c r="D10" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="36"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="36"/>
     </row>
     <row r="11" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="42">
+      <c r="A11" s="36">
         <v>7</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="42">
-        <v>0</v>
-      </c>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="42"/>
-      <c r="S11" s="42"/>
-      <c r="T11" s="42"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="42"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="42"/>
-      <c r="Y11" s="42"/>
-      <c r="Z11" s="42"/>
-      <c r="AA11" s="42"/>
+      <c r="D11" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="36">
+        <v>0</v>
+      </c>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="36"/>
+      <c r="Z11" s="36"/>
+      <c r="AA11" s="36"/>
     </row>
     <row r="12" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="42">
+      <c r="A12" s="36">
         <v>8</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="44">
+      <c r="C12" s="38">
         <v>35773</v>
       </c>
-      <c r="D12" s="42">
-        <v>0</v>
-      </c>
-      <c r="E12" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="42"/>
-      <c r="T12" s="42"/>
-      <c r="U12" s="42"/>
-      <c r="V12" s="42"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="42"/>
-      <c r="Y12" s="42"/>
-      <c r="Z12" s="42"/>
-      <c r="AA12" s="42"/>
+      <c r="D12" s="36">
+        <v>0</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="36"/>
+      <c r="AA12" s="36"/>
     </row>
     <row r="13" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="42">
+      <c r="A13" s="36">
         <v>9</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="42"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="42"/>
-      <c r="W13" s="42"/>
-      <c r="X13" s="42"/>
-      <c r="Y13" s="42"/>
-      <c r="Z13" s="42"/>
-      <c r="AA13" s="42"/>
+      <c r="D13" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="36"/>
+      <c r="Z13" s="36"/>
+      <c r="AA13" s="36"/>
     </row>
     <row r="14" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="42">
+      <c r="A14" s="36">
         <v>10</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="42">
-        <v>0</v>
-      </c>
-      <c r="E14" s="42">
-        <v>0</v>
-      </c>
-      <c r="F14" s="42">
-        <v>0</v>
-      </c>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="42"/>
-      <c r="U14" s="42"/>
-      <c r="V14" s="42"/>
-      <c r="W14" s="42"/>
-      <c r="X14" s="42"/>
-      <c r="Y14" s="42"/>
-      <c r="Z14" s="42"/>
-      <c r="AA14" s="42"/>
+      <c r="D14" s="36">
+        <v>0</v>
+      </c>
+      <c r="E14" s="36">
+        <v>0</v>
+      </c>
+      <c r="F14" s="36">
+        <v>0</v>
+      </c>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="36"/>
+      <c r="Z14" s="36"/>
+      <c r="AA14" s="36"/>
     </row>
     <row r="15" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="42">
+      <c r="A15" s="36">
         <v>11</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42">
-        <v>0</v>
-      </c>
-      <c r="E15" s="42">
-        <v>0</v>
-      </c>
-      <c r="F15" s="42">
-        <v>0</v>
-      </c>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="42"/>
-      <c r="T15" s="42"/>
-      <c r="U15" s="42"/>
-      <c r="V15" s="42"/>
-      <c r="W15" s="42"/>
-      <c r="X15" s="42"/>
-      <c r="Y15" s="42"/>
-      <c r="Z15" s="42"/>
-      <c r="AA15" s="42"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36">
+        <v>0</v>
+      </c>
+      <c r="E15" s="36">
+        <v>0</v>
+      </c>
+      <c r="F15" s="36">
+        <v>0</v>
+      </c>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="36"/>
+      <c r="Y15" s="36"/>
+      <c r="Z15" s="36"/>
+      <c r="AA15" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TOEIC 300-500 K1" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="80">
   <si>
     <t>x</t>
   </si>
@@ -555,6 +555,10 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -573,10 +577,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
@@ -921,30 +921,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="41" t="s">
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="39" t="s">
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="39" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="39" t="s">
+      <c r="P2" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="39" t="s">
+      <c r="R2" s="41" t="s">
         <v>18</v>
       </c>
     </row>
@@ -988,11 +988,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -1242,30 +1242,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="41" t="s">
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="39" t="s">
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="39" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="39" t="s">
+      <c r="P2" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="42" t="s">
+      <c r="R2" s="44" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1309,11 +1309,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="42"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="44"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -1587,30 +1587,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="41" t="s">
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="39" t="s">
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="39" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="39" t="s">
+      <c r="P2" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="39" t="s">
+      <c r="R2" s="41" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1654,11 +1654,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -1919,7 +1919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -1950,30 +1950,30 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="41" t="s">
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="39" t="s">
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="39" t="s">
+      <c r="R2" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="39" t="s">
+      <c r="S2" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="39" t="s">
+      <c r="T2" s="41" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2023,11 +2023,11 @@
       <c r="O3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
     </row>
     <row r="4" spans="1:20" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -2239,7 +2239,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="46" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" s="40" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>5</v>
       </c>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="R8" s="32"/>
       <c r="S8" s="32"/>
-      <c r="T8" s="45">
+      <c r="T8" s="39">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -2698,8 +2698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2716,60 +2716,60 @@
       </c>
     </row>
     <row r="3" spans="1:27" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43" t="s">
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43" t="s">
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43" t="s">
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43" t="s">
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43" t="s">
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43" t="s">
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43" t="s">
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
     </row>
     <row r="4" spans="1:27" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
       <c r="D4" s="36" t="s">
         <v>71</v>
       </c>
@@ -2901,8 +2901,12 @@
       <c r="F6" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
+      <c r="G6" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>0</v>
+      </c>
       <c r="I6" s="36"/>
       <c r="J6" s="36"/>
       <c r="K6" s="36"/>
@@ -3018,8 +3022,12 @@
       <c r="F9" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
+      <c r="G9" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>0</v>
+      </c>
       <c r="I9" s="36"/>
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TOEIC 300-500 K1" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="80">
   <si>
     <t>x</t>
   </si>
@@ -465,7 +465,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -555,10 +555,6 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -577,6 +573,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
@@ -921,30 +926,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="43" t="s">
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="41" t="s">
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="P2" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="41" t="s">
+      <c r="Q2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="R2" s="39" t="s">
         <v>18</v>
       </c>
     </row>
@@ -988,11 +993,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -1242,30 +1247,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="43" t="s">
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="41" t="s">
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="P2" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="41" t="s">
+      <c r="Q2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="44" t="s">
+      <c r="R2" s="42" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1309,11 +1314,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="44"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="42"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -1587,30 +1592,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="43" t="s">
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="41" t="s">
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="P2" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="41" t="s">
+      <c r="Q2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="R2" s="39" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1654,11 +1659,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -1919,23 +1924,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="26.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
     <col min="4" max="4" width="17" style="20" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="20" customWidth="1"/>
+    <col min="6" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
     <col min="9" max="14" width="9.140625" style="17"/>
     <col min="15" max="15" width="6.42578125" style="17" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16" customWidth="1"/>
@@ -1950,30 +1954,30 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="43" t="s">
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="41" t="s">
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="41" t="s">
+      <c r="Q2" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="R2" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="41" t="s">
+      <c r="S2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="41" t="s">
+      <c r="T2" s="39" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2023,11 +2027,11 @@
       <c r="O3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
     </row>
     <row r="4" spans="1:20" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -2239,45 +2243,45 @@
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="40" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31">
+    <row r="8" spans="1:20" s="49" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="45">
         <v>5</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="34" t="s">
+      <c r="C8" s="46"/>
+      <c r="D8" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="31" t="s">
+      <c r="E8" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="32"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31">
+      <c r="G8" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="46"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="31">
+      <c r="Q8" s="45">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="39">
+      <c r="R8" s="46"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="48">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -2342,7 +2346,9 @@
       <c r="F10" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="14"/>
+      <c r="G10" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="I10" s="17">
         <v>2</v>
       </c>
@@ -2464,7 +2470,9 @@
       <c r="F12" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="G12" s="14"/>
+      <c r="G12" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="I12" s="17">
         <v>0</v>
       </c>
@@ -2637,6 +2645,9 @@
         <v>64</v>
       </c>
       <c r="E15" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="14" t="s">
         <v>0</v>
       </c>
       <c r="I15" s="14">
@@ -2698,8 +2709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2716,60 +2727,60 @@
       </c>
     </row>
     <row r="3" spans="1:27" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45" t="s">
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45" t="s">
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45" t="s">
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45" t="s">
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45" t="s">
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45" t="s">
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45" t="s">
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
     </row>
     <row r="4" spans="1:27" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="36" t="s">
         <v>71</v>
       </c>
@@ -2901,12 +2912,8 @@
       <c r="F6" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="36" t="s">
-        <v>0</v>
-      </c>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
       <c r="I6" s="36"/>
       <c r="J6" s="36"/>
       <c r="K6" s="36"/>
@@ -3022,12 +3029,8 @@
       <c r="F9" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="36" t="s">
-        <v>0</v>
-      </c>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
       <c r="I9" s="36"/>
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TOEIC 300-500 K1" sheetId="2" r:id="rId1"/>
@@ -465,7 +465,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -555,6 +555,15 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -573,15 +582,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
@@ -926,30 +928,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="41" t="s">
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="39" t="s">
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="39" t="s">
+      <c r="O2" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="39" t="s">
+      <c r="P2" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="39" t="s">
+      <c r="R2" s="44" t="s">
         <v>18</v>
       </c>
     </row>
@@ -993,11 +995,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -1222,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1247,30 +1249,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="41" t="s">
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="39" t="s">
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="39" t="s">
+      <c r="O2" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="39" t="s">
+      <c r="P2" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="42" t="s">
+      <c r="R2" s="47" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1314,11 +1316,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="42"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="47"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -1337,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="14">
+      <c r="G4" s="50">
         <v>3</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="50">
         <v>9</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="50">
         <v>14</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="50">
         <v>9</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="50">
         <v>15</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="50">
         <v>1</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M4" s="50">
         <v>6</v>
       </c>
       <c r="N4" s="15">
@@ -1384,22 +1386,28 @@
       <c r="D5" s="23"/>
       <c r="E5" s="14"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14">
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50">
+        <v>15</v>
+      </c>
+      <c r="K5" s="50">
         <v>20</v>
       </c>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
+      <c r="L5" s="50">
+        <v>10</v>
+      </c>
+      <c r="M5" s="50">
+        <v>33</v>
+      </c>
       <c r="N5" s="15">
         <f>SUM(G5:J5)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O5" s="15">
         <f>SUM(K5:M5)</f>
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
@@ -1425,25 +1433,25 @@
         <v>0</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="14">
+      <c r="G6" s="50">
         <v>4</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="50">
         <v>12</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="50">
         <v>10</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="50">
         <v>7</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="50">
         <v>16</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="50">
         <v>4</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M6" s="50">
         <v>13</v>
       </c>
       <c r="N6" s="15">
@@ -1470,22 +1478,24 @@
       <c r="C7" s="14"/>
       <c r="D7" s="22"/>
       <c r="E7" s="14"/>
-      <c r="G7" s="14">
+      <c r="G7" s="50">
         <v>7</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="50">
         <v>11</v>
       </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14">
+      <c r="I7" s="50"/>
+      <c r="J7" s="50">
+        <v>15</v>
+      </c>
+      <c r="K7" s="50">
         <v>21</v>
       </c>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
       <c r="N7" s="15">
         <f>SUM(G7:J7)</f>
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="O7" s="15">
         <f>SUM(K7:M7)</f>
@@ -1514,15 +1524,36 @@
       <c r="E8" s="14" t="s">
         <v>0</v>
       </c>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
       <c r="R8" s="18"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G9" s="14">
+      <c r="G9" s="50">
         <v>5</v>
       </c>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="50">
+        <v>15</v>
+      </c>
+      <c r="K9" s="50">
+        <v>20</v>
+      </c>
+      <c r="L9" s="50">
+        <v>6</v>
+      </c>
+      <c r="M9" s="50">
+        <v>32</v>
+      </c>
       <c r="R9" s="18"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>4</v>
       </c>
@@ -1538,12 +1569,19 @@
       <c r="E10" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="K10">
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="50">
+        <v>15</v>
+      </c>
+      <c r="K10" s="51">
         <v>24</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="51">
         <v>10</v>
       </c>
+      <c r="M10" s="51"/>
       <c r="R10" s="18">
         <v>450</v>
       </c>
@@ -1567,7 +1605,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1592,30 +1630,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="41" t="s">
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="39" t="s">
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="39" t="s">
+      <c r="O2" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="39" t="s">
+      <c r="P2" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="39" t="s">
+      <c r="R2" s="44" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1659,11 +1697,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -1924,7 +1962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -1954,30 +1992,30 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="41" t="s">
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="39" t="s">
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="39" t="s">
+      <c r="R2" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="39" t="s">
+      <c r="S2" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="39" t="s">
+      <c r="T2" s="44" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2027,11 +2065,11 @@
       <c r="O3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
     </row>
     <row r="4" spans="1:20" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -2243,45 +2281,45 @@
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="49" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="45">
+    <row r="8" spans="1:20" s="43" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="39">
         <v>5</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="47" t="s">
+      <c r="C8" s="40"/>
+      <c r="D8" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="45" t="s">
+      <c r="E8" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="46"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45">
+      <c r="G8" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="40"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="45">
+      <c r="Q8" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R8" s="46"/>
-      <c r="S8" s="46"/>
-      <c r="T8" s="48">
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="42">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -2727,60 +2765,60 @@
       </c>
     </row>
     <row r="3" spans="1:27" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43" t="s">
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43" t="s">
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43" t="s">
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43" t="s">
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43" t="s">
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43" t="s">
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43" t="s">
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
     </row>
     <row r="4" spans="1:27" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="36" t="s">
         <v>71</v>
       </c>

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TOEIC 300-500 K1" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="80">
   <si>
     <t>x</t>
   </si>
@@ -465,7 +465,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -555,15 +555,10 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -582,8 +577,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
@@ -928,30 +921,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="46" t="s">
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="44" t="s">
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="44" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="44" t="s">
+      <c r="P2" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="44" t="s">
+      <c r="Q2" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="44" t="s">
+      <c r="R2" s="41" t="s">
         <v>18</v>
       </c>
     </row>
@@ -995,11 +988,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -1224,8 +1217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1249,30 +1242,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="46" t="s">
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="44" t="s">
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="44" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="44" t="s">
+      <c r="P2" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="44" t="s">
+      <c r="Q2" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="47" t="s">
+      <c r="R2" s="44" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1316,11 +1309,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="47"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="44"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -1339,25 +1332,25 @@
         <v>0</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="50">
+      <c r="G4" s="14">
         <v>3</v>
       </c>
-      <c r="H4" s="50">
+      <c r="H4" s="14">
         <v>9</v>
       </c>
-      <c r="I4" s="50">
+      <c r="I4" s="14">
         <v>14</v>
       </c>
-      <c r="J4" s="50">
+      <c r="J4" s="14">
         <v>9</v>
       </c>
-      <c r="K4" s="50">
+      <c r="K4" s="14">
         <v>15</v>
       </c>
-      <c r="L4" s="50">
+      <c r="L4" s="14">
         <v>1</v>
       </c>
-      <c r="M4" s="50">
+      <c r="M4" s="14">
         <v>6</v>
       </c>
       <c r="N4" s="15">
@@ -1386,28 +1379,22 @@
       <c r="D5" s="23"/>
       <c r="E5" s="14"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50">
-        <v>15</v>
-      </c>
-      <c r="K5" s="50">
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14">
         <v>20</v>
       </c>
-      <c r="L5" s="50">
-        <v>10</v>
-      </c>
-      <c r="M5" s="50">
-        <v>33</v>
-      </c>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
       <c r="N5" s="15">
         <f>SUM(G5:J5)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O5" s="15">
         <f>SUM(K5:M5)</f>
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
@@ -1433,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="50">
+      <c r="G6" s="14">
         <v>4</v>
       </c>
-      <c r="H6" s="50">
+      <c r="H6" s="14">
         <v>12</v>
       </c>
-      <c r="I6" s="50">
+      <c r="I6" s="14">
         <v>10</v>
       </c>
-      <c r="J6" s="50">
+      <c r="J6" s="14">
         <v>7</v>
       </c>
-      <c r="K6" s="50">
+      <c r="K6" s="14">
         <v>16</v>
       </c>
-      <c r="L6" s="50">
+      <c r="L6" s="14">
         <v>4</v>
       </c>
-      <c r="M6" s="50">
+      <c r="M6" s="14">
         <v>13</v>
       </c>
       <c r="N6" s="15">
@@ -1478,24 +1465,22 @@
       <c r="C7" s="14"/>
       <c r="D7" s="22"/>
       <c r="E7" s="14"/>
-      <c r="G7" s="50">
+      <c r="G7" s="14">
         <v>7</v>
       </c>
-      <c r="H7" s="50">
+      <c r="H7" s="14">
         <v>11</v>
       </c>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50">
-        <v>15</v>
-      </c>
-      <c r="K7" s="50">
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14">
         <v>21</v>
       </c>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
       <c r="N7" s="15">
         <f>SUM(G7:J7)</f>
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="O7" s="15">
         <f>SUM(K7:M7)</f>
@@ -1524,36 +1509,15 @@
       <c r="E8" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
       <c r="R8" s="18"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G9" s="50">
+      <c r="G9" s="14">
         <v>5</v>
       </c>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="50">
-        <v>15</v>
-      </c>
-      <c r="K9" s="50">
-        <v>20</v>
-      </c>
-      <c r="L9" s="50">
-        <v>6</v>
-      </c>
-      <c r="M9" s="50">
-        <v>32</v>
-      </c>
       <c r="R9" s="18"/>
     </row>
-    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>4</v>
       </c>
@@ -1569,19 +1533,12 @@
       <c r="E10" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="50">
-        <v>15</v>
-      </c>
-      <c r="K10" s="51">
+      <c r="K10">
         <v>24</v>
       </c>
-      <c r="L10" s="51">
+      <c r="L10">
         <v>10</v>
       </c>
-      <c r="M10" s="51"/>
       <c r="R10" s="18">
         <v>450</v>
       </c>
@@ -1605,7 +1562,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1630,30 +1587,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="46" t="s">
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="44" t="s">
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="44" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="44" t="s">
+      <c r="P2" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="44" t="s">
+      <c r="Q2" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="44" t="s">
+      <c r="R2" s="41" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1697,11 +1654,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -1963,21 +1920,22 @@
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="26.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="20" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="20" customWidth="1"/>
-    <col min="6" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="14" width="9.140625" style="17"/>
     <col min="15" max="15" width="6.42578125" style="17" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16" customWidth="1"/>
@@ -1992,30 +1950,30 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I2" s="45" t="s">
+      <c r="I2" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="46" t="s">
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="44" t="s">
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="44" t="s">
+      <c r="Q2" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="44" t="s">
+      <c r="R2" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="44" t="s">
+      <c r="S2" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="44" t="s">
+      <c r="T2" s="41" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2065,11 +2023,11 @@
       <c r="O3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
     </row>
     <row r="4" spans="1:20" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -2281,45 +2239,45 @@
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="43" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39">
+    <row r="8" spans="1:20" s="40" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="31">
         <v>5</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="41" t="s">
+      <c r="C8" s="32"/>
+      <c r="D8" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="39" t="s">
+      <c r="E8" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39">
+      <c r="G8" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="32"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="39">
+      <c r="Q8" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="42">
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="39">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -2384,9 +2342,7 @@
       <c r="F10" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="14" t="s">
-        <v>0</v>
-      </c>
+      <c r="G10" s="14"/>
       <c r="I10" s="17">
         <v>2</v>
       </c>
@@ -2508,9 +2464,7 @@
       <c r="F12" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="G12" s="14" t="s">
-        <v>0</v>
-      </c>
+      <c r="G12" s="14"/>
       <c r="I12" s="17">
         <v>0</v>
       </c>
@@ -2683,9 +2637,6 @@
         <v>64</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="14" t="s">
         <v>0</v>
       </c>
       <c r="I15" s="14">
@@ -2747,8 +2698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2765,60 +2716,60 @@
       </c>
     </row>
     <row r="3" spans="1:27" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48" t="s">
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48" t="s">
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48" t="s">
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48" t="s">
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48" t="s">
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48" t="s">
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48" t="s">
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="Z3" s="48"/>
-      <c r="AA3" s="48"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
     </row>
     <row r="4" spans="1:27" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
       <c r="D4" s="36" t="s">
         <v>71</v>
       </c>
@@ -2950,8 +2901,12 @@
       <c r="F6" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
+      <c r="G6" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>0</v>
+      </c>
       <c r="I6" s="36"/>
       <c r="J6" s="36"/>
       <c r="K6" s="36"/>
@@ -3067,11 +3022,19 @@
       <c r="F9" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
+      <c r="G9" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>0</v>
+      </c>
       <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
+      <c r="J9" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="36" t="s">
+        <v>0</v>
+      </c>
       <c r="L9" s="36"/>
       <c r="M9" s="36"/>
       <c r="N9" s="36"/>
@@ -3111,8 +3074,12 @@
       <c r="G10" s="36"/>
       <c r="H10" s="36"/>
       <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
+      <c r="J10" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" s="36" t="s">
+        <v>0</v>
+      </c>
       <c r="L10" s="36"/>
       <c r="M10" s="36"/>
       <c r="N10" s="36"/>

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TOEIC 300-500 K1" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="81">
   <si>
     <t>x</t>
   </si>
@@ -258,6 +258,9 @@
   </si>
   <si>
     <t>27/3-Lesson 8</t>
+  </si>
+  <si>
+    <t>Kiểm tra lần 1</t>
   </si>
 </sst>
 </file>
@@ -1215,10 +1218,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1404,143 +1407,577 @@
       </c>
     </row>
     <row r="6" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>2</v>
-      </c>
+      <c r="A6" s="2"/>
       <c r="B6" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="14">
-        <v>1993</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>0</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="14"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="14">
-        <v>4</v>
-      </c>
-      <c r="H6" s="14">
-        <v>12</v>
-      </c>
-      <c r="I6" s="14">
-        <v>10</v>
-      </c>
-      <c r="J6" s="14">
-        <v>7</v>
-      </c>
-      <c r="K6" s="14">
-        <v>16</v>
-      </c>
-      <c r="L6" s="14">
-        <v>4</v>
-      </c>
-      <c r="M6" s="14">
-        <v>13</v>
-      </c>
-      <c r="N6" s="15">
-        <f>SUM(G6:J6)</f>
-        <v>33</v>
-      </c>
-      <c r="O6" s="15">
-        <f>SUM(K6:M6)</f>
-        <v>33</v>
-      </c>
-      <c r="P6" s="14">
-        <v>145</v>
-      </c>
-      <c r="Q6" s="14">
-        <v>110</v>
-      </c>
-      <c r="R6" s="16">
-        <f t="shared" ref="R6:R7" si="0">P6+Q6</f>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="16"/>
+    </row>
+    <row r="7" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
       <c r="B7" s="21"/>
       <c r="C7" s="14"/>
-      <c r="D7" s="22"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="14"/>
-      <c r="G7" s="14">
-        <v>7</v>
-      </c>
-      <c r="H7" s="14">
-        <v>11</v>
-      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
-      <c r="K7" s="14">
-        <v>21</v>
-      </c>
+      <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
-      <c r="N7" s="15">
-        <f>SUM(G7:J7)</f>
-        <v>18</v>
-      </c>
-      <c r="O7" s="15">
-        <f>SUM(K7:M7)</f>
-        <v>21</v>
-      </c>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
       <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
-      <c r="R7" s="16">
+      <c r="R7" s="16"/>
+    </row>
+    <row r="8" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="16"/>
+    </row>
+    <row r="9" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="14">
+        <v>1993</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="14">
+        <v>4</v>
+      </c>
+      <c r="H9" s="14">
+        <v>12</v>
+      </c>
+      <c r="I9" s="14">
+        <v>10</v>
+      </c>
+      <c r="J9" s="14">
+        <v>7</v>
+      </c>
+      <c r="K9" s="14">
+        <v>16</v>
+      </c>
+      <c r="L9" s="14">
+        <v>4</v>
+      </c>
+      <c r="M9" s="14">
+        <v>13</v>
+      </c>
+      <c r="N9" s="15">
+        <f>SUM(G9:J9)</f>
+        <v>33</v>
+      </c>
+      <c r="O9" s="15">
+        <f>SUM(K9:M9)</f>
+        <v>33</v>
+      </c>
+      <c r="P9" s="14">
+        <v>145</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>110</v>
+      </c>
+      <c r="R9" s="16">
+        <f t="shared" ref="R9:R23" si="0">P9+Q9</f>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C10" s="14"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="14"/>
+      <c r="G10" s="14">
+        <v>7</v>
+      </c>
+      <c r="H10" s="14">
+        <v>11</v>
+      </c>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14">
+        <v>21</v>
+      </c>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="15">
+        <f>SUM(G10:J10)</f>
+        <v>18</v>
+      </c>
+      <c r="O10" s="15">
+        <f>SUM(K10:M10)</f>
+        <v>21</v>
+      </c>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="14"/>
+      <c r="G11" s="14">
+        <v>5</v>
+      </c>
+      <c r="H11" s="14">
+        <v>18</v>
+      </c>
+      <c r="I11" s="14">
+        <v>19</v>
+      </c>
+      <c r="J11" s="14">
+        <v>9</v>
+      </c>
+      <c r="K11" s="14">
+        <v>12</v>
+      </c>
+      <c r="L11" s="14">
         <v>3</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="M11" s="14">
+        <v>19</v>
+      </c>
+      <c r="N11" s="15">
+        <f t="shared" ref="N11:N26" si="1">SUM(G11:J11)</f>
+        <v>51</v>
+      </c>
+      <c r="O11" s="15">
+        <f t="shared" ref="O11:O26" si="2">SUM(K11:M11)</f>
+        <v>34</v>
+      </c>
+      <c r="P11" s="14">
+        <v>255</v>
+      </c>
+      <c r="Q11" s="14">
+        <v>115</v>
+      </c>
+      <c r="R11" s="16">
+        <f t="shared" si="0"/>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="21"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="21"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>3</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C14" s="14">
         <v>1998</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D14" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="R8" s="18"/>
-    </row>
-    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G9" s="14">
+      <c r="E14" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N14" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>9</v>
+      </c>
+      <c r="I15">
+        <v>7</v>
+      </c>
+      <c r="J15">
+        <v>10</v>
+      </c>
+      <c r="K15">
+        <v>8</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="M15">
+        <v>10</v>
+      </c>
+      <c r="N15" s="15">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="O15" s="15">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="P15">
+        <v>125</v>
+      </c>
+      <c r="Q15">
+        <v>35</v>
+      </c>
+      <c r="R15" s="16">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="N16" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="N17" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G18" s="14">
         <v>5</v>
       </c>
-      <c r="R9" s="18"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
+      <c r="N18" s="15">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="O18" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
         <v>4</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B19" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C19" s="17">
         <v>1994</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D19" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="K10">
+      <c r="E19" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K19">
         <v>24</v>
       </c>
-      <c r="L10">
+      <c r="L19">
         <v>10</v>
       </c>
-      <c r="R10" s="18">
+      <c r="N19" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="15">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="R19" s="18">
         <v>450</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="N20" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="18"/>
+    </row>
+    <row r="21" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N21" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="18"/>
+    </row>
+    <row r="22" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N22" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="18"/>
+    </row>
+    <row r="23" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
+        <v>5</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="14">
+        <v>1990</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="21"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14">
+        <v>13</v>
+      </c>
+      <c r="I23" s="14">
+        <v>18</v>
+      </c>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14">
+        <v>30</v>
+      </c>
+      <c r="L23" s="14">
+        <v>10</v>
+      </c>
+      <c r="M23" s="14"/>
+      <c r="N23" s="15">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="O23" s="15">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="25">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <v>17</v>
+      </c>
+      <c r="I24">
+        <v>10</v>
+      </c>
+      <c r="J24">
+        <v>13</v>
+      </c>
+      <c r="K24">
+        <v>21</v>
+      </c>
+      <c r="L24">
+        <v>4</v>
+      </c>
+      <c r="M24">
+        <v>25</v>
+      </c>
+      <c r="N24" s="15">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="O24" s="15">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="P24">
+        <v>215</v>
+      </c>
+      <c r="Q24">
+        <v>215</v>
+      </c>
+      <c r="R24" s="18">
+        <f>P24+Q24</f>
+        <v>430</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N25" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="18">
+        <f t="shared" ref="R25:R26" si="3">P25+Q25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N26" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1562,7 +1999,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2698,7 +3135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TOEIC 300-500 K1" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="82">
   <si>
     <t>x</t>
   </si>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t>Kiểm tra lần 1</t>
+  </si>
+  <si>
+    <t>Kiểm tra lần 2</t>
   </si>
 </sst>
 </file>
@@ -1218,10 +1221,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1357,11 +1363,11 @@
         <v>6</v>
       </c>
       <c r="N4" s="15">
-        <f>SUM(G4:J4)</f>
+        <f>SUM($G4:$J4)</f>
         <v>35</v>
       </c>
       <c r="O4" s="15">
-        <f>SUM(K4:M4)</f>
+        <f>SUM($K4:$M4)</f>
         <v>22</v>
       </c>
       <c r="P4" s="14">
@@ -1377,8 +1383,12 @@
     </row>
     <row r="5" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="14"/>
+      <c r="B5" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" s="23"/>
       <c r="E5" s="14"/>
       <c r="F5" s="2"/>
@@ -1386,49 +1396,72 @@
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
-      <c r="K5" s="14">
-        <v>20</v>
-      </c>
+      <c r="K5" s="14"/>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
       <c r="N5" s="15">
-        <f>SUM(G5:J5)</f>
+        <f t="shared" ref="N5:N23" si="0">SUM($G5:$J5)</f>
         <v>0</v>
       </c>
       <c r="O5" s="15">
-        <f>SUM(K5:M5)</f>
-        <v>20</v>
+        <f t="shared" ref="O5:O23" si="1">SUM($K5:$M5)</f>
+        <v>0</v>
       </c>
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
       <c r="R5" s="16">
-        <f>P5+Q5</f>
+        <f t="shared" ref="R5:R7" si="2">P5+Q5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>69</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C6" s="14"/>
       <c r="D6" s="23"/>
       <c r="E6" s="14"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="16"/>
+      <c r="G6" s="14">
+        <v>2</v>
+      </c>
+      <c r="H6" s="14">
+        <v>14</v>
+      </c>
+      <c r="I6" s="14">
+        <v>6</v>
+      </c>
+      <c r="J6" s="14">
+        <v>3</v>
+      </c>
+      <c r="K6" s="14">
+        <v>7</v>
+      </c>
+      <c r="L6" s="14">
+        <v>1</v>
+      </c>
+      <c r="M6" s="14">
+        <v>11</v>
+      </c>
+      <c r="N6" s="15">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="O6" s="15">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="P6" s="14">
+        <v>100</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>25</v>
+      </c>
+      <c r="R6" s="16">
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
     </row>
     <row r="7" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
@@ -1444,541 +1477,777 @@
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
+      <c r="N7" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
-      <c r="R7" s="16"/>
+      <c r="R7" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="14"/>
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1993</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="16"/>
-    </row>
-    <row r="9" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>2</v>
-      </c>
+      <c r="G8" s="14">
+        <v>4</v>
+      </c>
+      <c r="H8" s="14">
+        <v>12</v>
+      </c>
+      <c r="I8" s="14">
+        <v>10</v>
+      </c>
+      <c r="J8" s="14">
+        <v>7</v>
+      </c>
+      <c r="K8" s="14">
+        <v>16</v>
+      </c>
+      <c r="L8" s="14">
+        <v>4</v>
+      </c>
+      <c r="M8" s="14">
+        <v>13</v>
+      </c>
+      <c r="N8" s="15">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="O8" s="15">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="P8" s="14">
+        <v>145</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>110</v>
+      </c>
+      <c r="R8" s="16">
+        <f t="shared" ref="R8:R16" si="3">P8+Q8</f>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="14">
-        <v>1993</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="17"/>
       <c r="G9" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H9" s="14">
+        <v>18</v>
+      </c>
+      <c r="I9" s="14">
+        <v>19</v>
+      </c>
+      <c r="J9" s="14">
+        <v>9</v>
+      </c>
+      <c r="K9" s="14">
         <v>12</v>
       </c>
-      <c r="I9" s="14">
-        <v>10</v>
-      </c>
-      <c r="J9" s="14">
-        <v>7</v>
-      </c>
-      <c r="K9" s="14">
-        <v>16</v>
-      </c>
       <c r="L9" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M9" s="14">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N9" s="15">
-        <f>SUM(G9:J9)</f>
-        <v>33</v>
+        <f t="shared" si="0"/>
+        <v>51</v>
       </c>
       <c r="O9" s="15">
-        <f>SUM(K9:M9)</f>
-        <v>33</v>
+        <f t="shared" si="1"/>
+        <v>34</v>
       </c>
       <c r="P9" s="14">
-        <v>145</v>
+        <v>255</v>
       </c>
       <c r="Q9" s="14">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="R9" s="16">
-        <f t="shared" ref="R9:R23" si="0">P9+Q9</f>
-        <v>255</v>
+        <f t="shared" si="3"/>
+        <v>370</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="21" t="s">
+        <v>81</v>
+      </c>
       <c r="C10" s="14"/>
       <c r="D10" s="22"/>
       <c r="E10" s="14"/>
+      <c r="F10" s="17"/>
       <c r="G10" s="14">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H10" s="14">
-        <v>11</v>
-      </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
+        <v>14</v>
+      </c>
+      <c r="I10" s="14">
+        <v>10</v>
+      </c>
+      <c r="J10" s="14">
+        <v>9</v>
+      </c>
       <c r="K10" s="14">
-        <v>21</v>
-      </c>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
+        <v>14</v>
+      </c>
+      <c r="L10" s="14">
+        <v>4</v>
+      </c>
+      <c r="M10" s="14">
+        <v>14</v>
+      </c>
       <c r="N10" s="15">
-        <f>SUM(G10:J10)</f>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>36</v>
       </c>
       <c r="O10" s="15">
-        <f>SUM(K10:M10)</f>
-        <v>21</v>
-      </c>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="P10" s="14">
+        <v>165</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>100</v>
+      </c>
       <c r="R10" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="21" t="s">
-        <v>80</v>
-      </c>
+      <c r="B11" s="21"/>
       <c r="C11" s="14"/>
       <c r="D11" s="22"/>
       <c r="E11" s="14"/>
-      <c r="G11" s="14">
-        <v>5</v>
-      </c>
-      <c r="H11" s="14">
-        <v>18</v>
-      </c>
-      <c r="I11" s="14">
-        <v>19</v>
-      </c>
-      <c r="J11" s="14">
+      <c r="F11" s="17"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>3</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="14">
+        <v>1998</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17">
+        <v>3</v>
+      </c>
+      <c r="H13" s="17">
         <v>9</v>
       </c>
-      <c r="K11" s="14">
-        <v>12</v>
-      </c>
-      <c r="L11" s="14">
+      <c r="I13" s="17">
+        <v>7</v>
+      </c>
+      <c r="J13" s="17">
+        <v>10</v>
+      </c>
+      <c r="K13" s="17">
+        <v>8</v>
+      </c>
+      <c r="L13" s="17">
         <v>3</v>
       </c>
-      <c r="M11" s="14">
-        <v>19</v>
-      </c>
-      <c r="N11" s="15">
-        <f t="shared" ref="N11:N26" si="1">SUM(G11:J11)</f>
-        <v>51</v>
-      </c>
-      <c r="O11" s="15">
-        <f t="shared" ref="O11:O26" si="2">SUM(K11:M11)</f>
-        <v>34</v>
-      </c>
-      <c r="P11" s="14">
-        <v>255</v>
-      </c>
-      <c r="Q11" s="14">
-        <v>115</v>
-      </c>
-      <c r="R11" s="16">
+      <c r="M13" s="17">
+        <v>10</v>
+      </c>
+      <c r="N13" s="15">
         <f t="shared" si="0"/>
-        <v>370</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="21"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="15">
+        <v>29</v>
+      </c>
+      <c r="O13" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="16">
+        <v>21</v>
+      </c>
+      <c r="P13" s="17">
+        <v>125</v>
+      </c>
+      <c r="Q13" s="17">
+        <v>35</v>
+      </c>
+      <c r="R13" s="16">
+        <f t="shared" si="3"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="21"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="15">
+      <c r="O14" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O13" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>3</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="14">
-        <v>1998</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="N14" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
       <c r="R14" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="B15" s="21" t="s">
-        <v>80</v>
-      </c>
+      <c r="B15" s="21"/>
       <c r="C15" s="14"/>
       <c r="E15" s="14"/>
-      <c r="G15">
-        <v>3</v>
-      </c>
-      <c r="H15">
-        <v>9</v>
-      </c>
-      <c r="I15">
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F16" s="17"/>
+      <c r="G16" s="14">
+        <v>5</v>
+      </c>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="15">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O16" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="17">
+        <v>1994</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17">
+        <v>24</v>
+      </c>
+      <c r="L17" s="17">
+        <v>10</v>
+      </c>
+      <c r="M17" s="17"/>
+      <c r="N17" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="15">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="18">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="18"/>
+    </row>
+    <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="18"/>
+    </row>
+    <row r="20" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="18"/>
+    </row>
+    <row r="21" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
+        <v>5</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="14">
+        <v>1990</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14">
+        <v>13</v>
+      </c>
+      <c r="I21" s="14">
+        <v>18</v>
+      </c>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14">
+        <v>30</v>
+      </c>
+      <c r="L21" s="14">
+        <v>10</v>
+      </c>
+      <c r="M21" s="14"/>
+      <c r="N21" s="15">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="O21" s="15">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="25">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17">
+        <v>5</v>
+      </c>
+      <c r="H22" s="17">
+        <v>17</v>
+      </c>
+      <c r="I22" s="17">
+        <v>10</v>
+      </c>
+      <c r="J22" s="17">
+        <v>13</v>
+      </c>
+      <c r="K22" s="17">
+        <v>21</v>
+      </c>
+      <c r="L22" s="17">
+        <v>4</v>
+      </c>
+      <c r="M22" s="17">
+        <v>25</v>
+      </c>
+      <c r="N22" s="15">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="O22" s="15">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="P22" s="17">
+        <v>215</v>
+      </c>
+      <c r="Q22" s="17">
+        <v>215</v>
+      </c>
+      <c r="R22" s="18">
+        <f>P22+Q22</f>
+        <v>430</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17">
+        <v>0</v>
+      </c>
+      <c r="H23" s="17">
+        <v>4</v>
+      </c>
+      <c r="I23" s="17">
+        <v>15</v>
+      </c>
+      <c r="J23" s="17">
         <v>7</v>
       </c>
-      <c r="J15">
-        <v>10</v>
-      </c>
-      <c r="K15">
-        <v>8</v>
-      </c>
-      <c r="L15">
-        <v>3</v>
-      </c>
-      <c r="M15">
-        <v>10</v>
-      </c>
-      <c r="N15" s="15">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="O15" s="15">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="P15">
-        <v>125</v>
-      </c>
-      <c r="Q15">
-        <v>35</v>
-      </c>
-      <c r="R15" s="16">
+      <c r="K23" s="17">
+        <v>24</v>
+      </c>
+      <c r="L23" s="17">
+        <v>7</v>
+      </c>
+      <c r="M23" s="17">
+        <v>27</v>
+      </c>
+      <c r="N23" s="15">
         <f t="shared" si="0"/>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="N16" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="N17" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R17" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G18" s="14">
-        <v>5</v>
-      </c>
-      <c r="N18" s="15">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="O18" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R18" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="17">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="17">
-        <v>1994</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>24</v>
-      </c>
-      <c r="L19">
-        <v>10</v>
-      </c>
-      <c r="N19" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="15">
-        <f t="shared" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="R19" s="18">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="N20" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R20" s="18"/>
-    </row>
-    <row r="21" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="N21" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R21" s="18"/>
-    </row>
-    <row r="22" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="N22" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O22" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R22" s="18"/>
-    </row>
-    <row r="23" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="14">
-        <v>5</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="14">
-        <v>1990</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14">
-        <v>13</v>
-      </c>
-      <c r="I23" s="14">
-        <v>18</v>
-      </c>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14">
-        <v>30</v>
-      </c>
-      <c r="L23" s="14">
-        <v>10</v>
-      </c>
-      <c r="M23" s="14"/>
-      <c r="N23" s="15">
-        <f t="shared" si="1"/>
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O23" s="15">
-        <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="25">
-        <v>460</v>
+        <f>SUM($K23:$M23)</f>
+        <v>58</v>
+      </c>
+      <c r="P23" s="17">
+        <v>110</v>
+      </c>
+      <c r="Q23" s="17">
+        <v>260</v>
+      </c>
+      <c r="R23" s="18">
+        <f t="shared" ref="R23:R24" si="4">P23+Q23</f>
+        <v>370</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="G24">
-        <v>5</v>
-      </c>
-      <c r="H24">
-        <v>17</v>
-      </c>
-      <c r="I24">
-        <v>10</v>
-      </c>
-      <c r="J24">
-        <v>13</v>
-      </c>
-      <c r="K24">
-        <v>21</v>
-      </c>
-      <c r="L24">
-        <v>4</v>
-      </c>
-      <c r="M24">
-        <v>25</v>
-      </c>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
       <c r="N24" s="15">
-        <f t="shared" si="1"/>
-        <v>45</v>
+        <f t="shared" ref="N9:N24" si="5">SUM(G24:J24)</f>
+        <v>0</v>
       </c>
       <c r="O24" s="15">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="P24">
-        <v>215</v>
-      </c>
-      <c r="Q24">
-        <v>215</v>
-      </c>
+        <f t="shared" ref="O9:O24" si="6">SUM(K24:M24)</f>
+        <v>0</v>
+      </c>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
       <c r="R24" s="18">
-        <f>P24+Q24</f>
-        <v>430</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="N25" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O25" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R25" s="18">
-        <f t="shared" ref="R25:R26" si="3">P25+Q25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="N26" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O26" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R26" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+    </row>
+    <row r="33" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1996,10 +2265,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2156,100 +2428,55 @@
     </row>
     <row r="5" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
-      <c r="B5" s="21"/>
+      <c r="B5" s="21" t="s">
+        <v>80</v>
+      </c>
       <c r="C5" s="14"/>
       <c r="D5" s="23"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
-      <c r="G5" s="14">
-        <v>8</v>
-      </c>
-      <c r="H5" s="14">
-        <v>25</v>
-      </c>
-      <c r="I5" s="14">
-        <v>25</v>
-      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
       <c r="J5" s="14"/>
-      <c r="K5" s="14">
-        <v>33</v>
-      </c>
-      <c r="L5" s="14">
-        <v>8</v>
-      </c>
-      <c r="M5" s="14">
-        <v>36</v>
-      </c>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="16"/>
     </row>
     <row r="6" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
-        <v>2</v>
-      </c>
+      <c r="A6" s="14"/>
       <c r="B6" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="14">
-        <v>1993</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>0</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="14"/>
       <c r="F6" s="14"/>
-      <c r="G6" s="14">
-        <v>10</v>
-      </c>
-      <c r="H6" s="14">
-        <v>29</v>
-      </c>
-      <c r="I6" s="14">
-        <v>14</v>
-      </c>
-      <c r="J6" s="14">
-        <v>13</v>
-      </c>
-      <c r="K6" s="14">
-        <v>31</v>
-      </c>
-      <c r="L6" s="14">
-        <v>7</v>
-      </c>
-      <c r="M6" s="14">
-        <v>28</v>
-      </c>
-      <c r="N6" s="15">
-        <f>SUM(G6:J6)</f>
-        <v>66</v>
-      </c>
-      <c r="O6" s="15">
-        <f>SUM(K6:M6)</f>
-        <v>66</v>
-      </c>
-      <c r="P6" s="14">
-        <v>350</v>
-      </c>
-      <c r="Q6" s="14">
-        <v>310</v>
-      </c>
-      <c r="R6" s="16">
-        <f>P6+Q6</f>
-        <v>660</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="16"/>
+    </row>
+    <row r="7" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
       <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
       <c r="G7" s="14">
         <v>8</v>
       </c>
@@ -2261,10 +2488,10 @@
       </c>
       <c r="J7" s="14"/>
       <c r="K7" s="14">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L7" s="14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M7" s="14">
         <v>36</v>
@@ -2275,67 +2502,101 @@
       <c r="Q7" s="21"/>
       <c r="R7" s="21"/>
     </row>
-    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1993</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14">
+        <v>10</v>
+      </c>
+      <c r="H8" s="14">
+        <v>29</v>
+      </c>
+      <c r="I8" s="14">
+        <v>14</v>
+      </c>
+      <c r="J8" s="14">
+        <v>13</v>
+      </c>
+      <c r="K8" s="14">
         <v>31</v>
       </c>
-      <c r="C8" s="14">
-        <v>1990</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14">
-        <v>13</v>
-      </c>
-      <c r="I8" s="14">
-        <v>18</v>
-      </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14">
-        <v>30</v>
-      </c>
       <c r="L8" s="14">
-        <v>10</v>
-      </c>
-      <c r="M8" s="14"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="25">
-        <v>460</v>
+        <v>7</v>
+      </c>
+      <c r="M8" s="14">
+        <v>28</v>
+      </c>
+      <c r="N8" s="15">
+        <f>SUM(G8:J8)</f>
+        <v>66</v>
+      </c>
+      <c r="O8" s="15">
+        <f>SUM(K8:M8)</f>
+        <v>66</v>
+      </c>
+      <c r="P8" s="14">
+        <v>350</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>310</v>
+      </c>
+      <c r="R8" s="16">
+        <f>P8+Q8</f>
+        <v>660</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
+      <c r="B9" s="21" t="s">
+        <v>80</v>
+      </c>
       <c r="C9" s="21"/>
       <c r="D9" s="22"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
+      <c r="G9" s="14">
+        <v>8</v>
+      </c>
+      <c r="H9" s="14">
+        <v>25</v>
+      </c>
+      <c r="I9" s="14">
+        <v>25</v>
+      </c>
       <c r="J9" s="14"/>
       <c r="K9" s="14">
-        <v>32</v>
-      </c>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
+        <v>35</v>
+      </c>
+      <c r="L9" s="14">
+        <v>9</v>
+      </c>
+      <c r="M9" s="14">
+        <v>36</v>
+      </c>
       <c r="N9" s="21"/>
       <c r="O9" s="21"/>
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="21" t="s">
+        <v>81</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TOEIC 300-500 K1" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="83">
   <si>
     <t>x</t>
   </si>
@@ -257,13 +257,16 @@
     <t>24/3-Lesson 7</t>
   </si>
   <si>
-    <t>27/3-Lesson 8</t>
-  </si>
-  <si>
     <t>Kiểm tra lần 1</t>
   </si>
   <si>
     <t>Kiểm tra lần 2</t>
+  </si>
+  <si>
+    <t>Ghi chú: "x": vắng mặt (tính từ ngày 27/3, trước đó ngược lại)</t>
+  </si>
+  <si>
+    <t>27/3-Lesson 7</t>
   </si>
 </sst>
 </file>
@@ -471,7 +474,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -565,6 +568,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -927,30 +932,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="43" t="s">
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="41" t="s">
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="P2" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="41" t="s">
+      <c r="Q2" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="R2" s="43" t="s">
         <v>18</v>
       </c>
     </row>
@@ -994,11 +999,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -1251,30 +1256,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="43" t="s">
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="41" t="s">
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="P2" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="41" t="s">
+      <c r="Q2" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="44" t="s">
+      <c r="R2" s="46" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1318,11 +1323,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="44"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="46"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -1384,7 +1389,7 @@
     <row r="5" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>69</v>
@@ -1404,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="15">
-        <f t="shared" ref="O5:O23" si="1">SUM($K5:$M5)</f>
+        <f t="shared" ref="O5:O22" si="1">SUM($K5:$M5)</f>
         <v>0</v>
       </c>
       <c r="P5" s="14"/>
@@ -1417,7 +1422,7 @@
     <row r="6" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="23"/>
@@ -1551,7 +1556,7 @@
     </row>
     <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="22"/>
@@ -1599,7 +1604,7 @@
     </row>
     <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="22"/>
@@ -1715,7 +1720,7 @@
     <row r="13" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" s="14"/>
       <c r="E13" s="14"/>
@@ -1763,7 +1768,7 @@
     <row r="14" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>69</v>
@@ -1890,7 +1895,7 @@
     </row>
     <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>69</v>
@@ -1917,7 +1922,7 @@
     </row>
     <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>69</v>
@@ -2011,7 +2016,7 @@
     </row>
     <row r="22" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="17">
@@ -2056,7 +2061,7 @@
     </row>
     <row r="23" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="17">
@@ -2109,11 +2114,11 @@
       <c r="L24" s="17"/>
       <c r="M24" s="17"/>
       <c r="N24" s="15">
-        <f t="shared" ref="N9:N24" si="5">SUM(G24:J24)</f>
+        <f t="shared" ref="N24" si="5">SUM(G24:J24)</f>
         <v>0</v>
       </c>
       <c r="O24" s="15">
-        <f t="shared" ref="O9:O24" si="6">SUM(K24:M24)</f>
+        <f t="shared" ref="O24" si="6">SUM(K24:M24)</f>
         <v>0</v>
       </c>
       <c r="P24" s="17"/>
@@ -2268,10 +2273,10 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2296,30 +2301,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="43" t="s">
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="41" t="s">
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="P2" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="41" t="s">
+      <c r="Q2" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="R2" s="43" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2363,11 +2368,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -2429,9 +2434,11 @@
     <row r="5" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
       <c r="B5" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="14"/>
+        <v>79</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" s="23"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -2451,7 +2458,7 @@
     <row r="6" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="23"/>
@@ -2562,40 +2569,67 @@
     <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="22"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
       <c r="G9" s="14">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H9" s="14">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I9" s="14">
-        <v>25</v>
-      </c>
-      <c r="J9" s="14"/>
+        <v>29</v>
+      </c>
+      <c r="J9" s="14">
+        <v>26</v>
+      </c>
       <c r="K9" s="14">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="L9" s="14">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M9" s="14">
-        <v>36</v>
-      </c>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
+        <v>28</v>
+      </c>
+      <c r="N9" s="15">
+        <f t="shared" ref="N9:N10" si="0">SUM(G9:J9)</f>
+        <v>92</v>
+      </c>
+      <c r="O9" s="15">
+        <f t="shared" ref="O9:O10" si="1">SUM(K9:M9)</f>
+        <v>79</v>
+      </c>
+      <c r="P9" s="21">
+        <v>495</v>
+      </c>
+      <c r="Q9" s="21">
+        <v>390</v>
+      </c>
+      <c r="R9" s="16">
+        <f t="shared" ref="R9:R10" si="2">P9+Q9</f>
+        <v>885</v>
+      </c>
     </row>
     <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="N10" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2648,30 +2682,30 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="43" t="s">
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="41" t="s">
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="41" t="s">
+      <c r="Q2" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="R2" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="41" t="s">
+      <c r="S2" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="41" t="s">
+      <c r="T2" s="43" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2721,11 +2755,11 @@
       <c r="O3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
     </row>
     <row r="4" spans="1:20" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -3394,10 +3428,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA15"/>
+  <dimension ref="A1:BK14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3405,69 +3439,110 @@
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="26.5703125" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="36" width="5.5703125" customWidth="1"/>
+    <col min="4" max="24" width="5.5703125" hidden="1" customWidth="1"/>
+    <col min="25" max="36" width="5.5703125" customWidth="1"/>
+    <col min="37" max="67" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:63" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="AF1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:63" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45" t="s">
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45" t="s">
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45" t="s">
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45" t="s">
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45" t="s">
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45" t="s">
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
-    </row>
-    <row r="4" spans="1:27" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="47"/>
+      <c r="AE3" s="47"/>
+      <c r="AF3" s="47"/>
+      <c r="AG3" s="47"/>
+      <c r="AH3" s="47"/>
+      <c r="AI3" s="47"/>
+      <c r="AJ3" s="47"/>
+      <c r="AK3" s="47"/>
+      <c r="AL3" s="47"/>
+      <c r="AM3" s="47"/>
+      <c r="AN3" s="47"/>
+      <c r="AO3" s="47"/>
+      <c r="AP3" s="47"/>
+      <c r="AQ3" s="47"/>
+      <c r="AR3" s="47"/>
+      <c r="AS3" s="47"/>
+      <c r="AT3" s="47"/>
+      <c r="AU3" s="47"/>
+      <c r="AV3" s="47"/>
+      <c r="AW3" s="47"/>
+      <c r="AX3" s="47"/>
+      <c r="AY3" s="47"/>
+      <c r="AZ3" s="47"/>
+      <c r="BA3" s="47"/>
+      <c r="BB3" s="47"/>
+      <c r="BC3" s="47"/>
+      <c r="BD3" s="47"/>
+      <c r="BE3" s="47"/>
+      <c r="BF3" s="47"/>
+      <c r="BG3" s="47"/>
+      <c r="BH3" s="47"/>
+      <c r="BI3" s="47"/>
+      <c r="BJ3" s="47"/>
+      <c r="BK3" s="47"/>
+    </row>
+    <row r="4" spans="1:63" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
       <c r="D4" s="36" t="s">
         <v>71</v>
       </c>
@@ -3540,26 +3615,140 @@
       <c r="AA4" s="36" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB4" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC4" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD4" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE4" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF4" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG4" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH4" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI4" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ4" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK4" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL4" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM4" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN4" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO4" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP4" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ4" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR4" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS4" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT4" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU4" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV4" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW4" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX4" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY4" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ4" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA4" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB4" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC4" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="BD4" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE4" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="BF4" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG4" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH4" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="BI4" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="BJ4" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="BK4" s="36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:63" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="36">
         <v>1</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36">
-        <v>0</v>
-      </c>
-      <c r="E5" s="36">
-        <v>0</v>
-      </c>
-      <c r="F5" s="36">
-        <v>0</v>
-      </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
+        <v>39</v>
+      </c>
+      <c r="C5" s="38">
+        <v>34554</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>0</v>
+      </c>
       <c r="I5" s="36"/>
       <c r="J5" s="36"/>
       <c r="K5" s="36"/>
@@ -3576,20 +3765,58 @@
       <c r="V5" s="36"/>
       <c r="W5" s="36"/>
       <c r="X5" s="36"/>
-      <c r="Y5" s="36"/>
-      <c r="Z5" s="36"/>
+      <c r="Y5" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="36" t="s">
+        <v>0</v>
+      </c>
       <c r="AA5" s="36"/>
-    </row>
-    <row r="6" spans="1:27" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB5" s="41"/>
+      <c r="AC5" s="41"/>
+      <c r="AD5" s="41"/>
+      <c r="AE5" s="41"/>
+      <c r="AF5" s="41"/>
+      <c r="AG5" s="41"/>
+      <c r="AH5" s="41"/>
+      <c r="AI5" s="41"/>
+      <c r="AJ5" s="41"/>
+      <c r="AK5" s="41"/>
+      <c r="AL5" s="41"/>
+      <c r="AM5" s="41"/>
+      <c r="AN5" s="41"/>
+      <c r="AO5" s="41"/>
+      <c r="AP5" s="41"/>
+      <c r="AQ5" s="41"/>
+      <c r="AR5" s="41"/>
+      <c r="AS5" s="41"/>
+      <c r="AT5" s="41"/>
+      <c r="AU5" s="41"/>
+      <c r="AV5" s="41"/>
+      <c r="AW5" s="41"/>
+      <c r="AX5" s="41"/>
+      <c r="AY5" s="41"/>
+      <c r="AZ5" s="41"/>
+      <c r="BA5" s="41"/>
+      <c r="BB5" s="41"/>
+      <c r="BC5" s="41"/>
+      <c r="BD5" s="41"/>
+      <c r="BE5" s="41"/>
+      <c r="BF5" s="41"/>
+      <c r="BG5" s="41"/>
+      <c r="BH5" s="41"/>
+      <c r="BI5" s="41"/>
+      <c r="BJ5" s="41"/>
+      <c r="BK5" s="41"/>
+    </row>
+    <row r="6" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36">
         <v>2</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="38">
-        <v>34554</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C6" s="36"/>
       <c r="D6" s="36" t="s">
         <v>0</v>
       </c>
@@ -3599,12 +3826,8 @@
       <c r="F6" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="36" t="s">
-        <v>0</v>
-      </c>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
       <c r="I6" s="36"/>
       <c r="J6" s="36"/>
       <c r="K6" s="36"/>
@@ -3624,24 +3847,54 @@
       <c r="Y6" s="36"/>
       <c r="Z6" s="36"/>
       <c r="AA6" s="36"/>
-    </row>
-    <row r="7" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB6" s="42"/>
+      <c r="AC6" s="42"/>
+      <c r="AD6" s="42"/>
+      <c r="AE6" s="42"/>
+      <c r="AF6" s="42"/>
+      <c r="AG6" s="42"/>
+      <c r="AH6" s="42"/>
+      <c r="AI6" s="42"/>
+      <c r="AJ6" s="42"/>
+      <c r="AK6" s="42"/>
+      <c r="AL6" s="42"/>
+      <c r="AM6" s="42"/>
+      <c r="AN6" s="42"/>
+      <c r="AO6" s="42"/>
+      <c r="AP6" s="42"/>
+      <c r="AQ6" s="42"/>
+      <c r="AR6" s="42"/>
+      <c r="AS6" s="42"/>
+      <c r="AT6" s="42"/>
+      <c r="AU6" s="42"/>
+      <c r="AV6" s="42"/>
+      <c r="AW6" s="42"/>
+      <c r="AX6" s="42"/>
+      <c r="AY6" s="42"/>
+      <c r="AZ6" s="42"/>
+      <c r="BA6" s="42"/>
+      <c r="BB6" s="42"/>
+      <c r="BC6" s="42"/>
+      <c r="BD6" s="42"/>
+      <c r="BE6" s="42"/>
+      <c r="BF6" s="42"/>
+      <c r="BG6" s="42"/>
+      <c r="BH6" s="42"/>
+      <c r="BI6" s="42"/>
+      <c r="BJ6" s="42"/>
+      <c r="BK6" s="42"/>
+    </row>
+    <row r="7" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36">
         <v>3</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" s="36"/>
-      <c r="D7" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>0</v>
-      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
       <c r="G7" s="36"/>
       <c r="H7" s="36"/>
       <c r="I7" s="36"/>
@@ -3663,29 +3916,73 @@
       <c r="Y7" s="36"/>
       <c r="Z7" s="36"/>
       <c r="AA7" s="36"/>
-    </row>
-    <row r="8" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB7" s="42"/>
+      <c r="AC7" s="42"/>
+      <c r="AD7" s="42"/>
+      <c r="AE7" s="42"/>
+      <c r="AF7" s="42"/>
+      <c r="AG7" s="42"/>
+      <c r="AH7" s="42"/>
+      <c r="AI7" s="42"/>
+      <c r="AJ7" s="42"/>
+      <c r="AK7" s="42"/>
+      <c r="AL7" s="42"/>
+      <c r="AM7" s="42"/>
+      <c r="AN7" s="42"/>
+      <c r="AO7" s="42"/>
+      <c r="AP7" s="42"/>
+      <c r="AQ7" s="42"/>
+      <c r="AR7" s="42"/>
+      <c r="AS7" s="42"/>
+      <c r="AT7" s="42"/>
+      <c r="AU7" s="42"/>
+      <c r="AV7" s="42"/>
+      <c r="AW7" s="42"/>
+      <c r="AX7" s="42"/>
+      <c r="AY7" s="42"/>
+      <c r="AZ7" s="42"/>
+      <c r="BA7" s="42"/>
+      <c r="BB7" s="42"/>
+      <c r="BC7" s="42"/>
+      <c r="BD7" s="42"/>
+      <c r="BE7" s="42"/>
+      <c r="BF7" s="42"/>
+      <c r="BG7" s="42"/>
+      <c r="BH7" s="42"/>
+      <c r="BI7" s="42"/>
+      <c r="BJ7" s="42"/>
+      <c r="BK7" s="42"/>
+    </row>
+    <row r="8" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36">
         <v>4</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" s="36"/>
-      <c r="D8" s="36">
-        <v>0</v>
-      </c>
-      <c r="E8" s="36">
-        <v>0</v>
-      </c>
-      <c r="F8" s="36">
-        <v>0</v>
-      </c>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
+      <c r="D8" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>0</v>
+      </c>
       <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
+      <c r="J8" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="36" t="s">
+        <v>0</v>
+      </c>
       <c r="L8" s="36"/>
       <c r="M8" s="36"/>
       <c r="N8" s="36"/>
@@ -3702,15 +3999,53 @@
       <c r="Y8" s="36"/>
       <c r="Z8" s="36"/>
       <c r="AA8" s="36"/>
-    </row>
-    <row r="9" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB8" s="42"/>
+      <c r="AC8" s="42"/>
+      <c r="AD8" s="42"/>
+      <c r="AE8" s="42"/>
+      <c r="AF8" s="42"/>
+      <c r="AG8" s="42"/>
+      <c r="AH8" s="42"/>
+      <c r="AI8" s="42"/>
+      <c r="AJ8" s="42"/>
+      <c r="AK8" s="42"/>
+      <c r="AL8" s="42"/>
+      <c r="AM8" s="42"/>
+      <c r="AN8" s="42"/>
+      <c r="AO8" s="42"/>
+      <c r="AP8" s="42"/>
+      <c r="AQ8" s="42"/>
+      <c r="AR8" s="42"/>
+      <c r="AS8" s="42"/>
+      <c r="AT8" s="42"/>
+      <c r="AU8" s="42"/>
+      <c r="AV8" s="42"/>
+      <c r="AW8" s="42"/>
+      <c r="AX8" s="42"/>
+      <c r="AY8" s="42"/>
+      <c r="AZ8" s="42"/>
+      <c r="BA8" s="42"/>
+      <c r="BB8" s="42"/>
+      <c r="BC8" s="42"/>
+      <c r="BD8" s="42"/>
+      <c r="BE8" s="42"/>
+      <c r="BF8" s="42"/>
+      <c r="BG8" s="42"/>
+      <c r="BH8" s="42"/>
+      <c r="BI8" s="42"/>
+      <c r="BJ8" s="42"/>
+      <c r="BK8" s="42"/>
+    </row>
+    <row r="9" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36">
         <v>5</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="36"/>
+        <v>44</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>50</v>
+      </c>
       <c r="D9" s="36" t="s">
         <v>0</v>
       </c>
@@ -3720,12 +4055,8 @@
       <c r="F9" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="36" t="s">
-        <v>0</v>
-      </c>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
       <c r="I9" s="36"/>
       <c r="J9" s="36" t="s">
         <v>0</v>
@@ -3749,16 +4080,52 @@
       <c r="Y9" s="36"/>
       <c r="Z9" s="36"/>
       <c r="AA9" s="36"/>
-    </row>
-    <row r="10" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB9" s="42"/>
+      <c r="AC9" s="42"/>
+      <c r="AD9" s="42"/>
+      <c r="AE9" s="42"/>
+      <c r="AF9" s="42"/>
+      <c r="AG9" s="42"/>
+      <c r="AH9" s="42"/>
+      <c r="AI9" s="42"/>
+      <c r="AJ9" s="42"/>
+      <c r="AK9" s="42"/>
+      <c r="AL9" s="42"/>
+      <c r="AM9" s="42"/>
+      <c r="AN9" s="42"/>
+      <c r="AO9" s="42"/>
+      <c r="AP9" s="42"/>
+      <c r="AQ9" s="42"/>
+      <c r="AR9" s="42"/>
+      <c r="AS9" s="42"/>
+      <c r="AT9" s="42"/>
+      <c r="AU9" s="42"/>
+      <c r="AV9" s="42"/>
+      <c r="AW9" s="42"/>
+      <c r="AX9" s="42"/>
+      <c r="AY9" s="42"/>
+      <c r="AZ9" s="42"/>
+      <c r="BA9" s="42"/>
+      <c r="BB9" s="42"/>
+      <c r="BC9" s="42"/>
+      <c r="BD9" s="42"/>
+      <c r="BE9" s="42"/>
+      <c r="BF9" s="42"/>
+      <c r="BG9" s="42"/>
+      <c r="BH9" s="42"/>
+      <c r="BI9" s="42"/>
+      <c r="BJ9" s="42"/>
+      <c r="BK9" s="42"/>
+    </row>
+    <row r="10" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36">
         <v>6</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D10" s="36" t="s">
         <v>0</v>
@@ -3766,18 +4133,12 @@
       <c r="E10" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="36" t="s">
-        <v>0</v>
-      </c>
+      <c r="F10" s="36"/>
       <c r="G10" s="36"/>
       <c r="H10" s="36"/>
       <c r="I10" s="36"/>
-      <c r="J10" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="K10" s="36" t="s">
-        <v>0</v>
-      </c>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
       <c r="L10" s="36"/>
       <c r="M10" s="36"/>
       <c r="N10" s="36"/>
@@ -3791,27 +4152,65 @@
       <c r="V10" s="36"/>
       <c r="W10" s="36"/>
       <c r="X10" s="36"/>
-      <c r="Y10" s="36"/>
-      <c r="Z10" s="36"/>
+      <c r="Y10" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="36" t="s">
+        <v>0</v>
+      </c>
       <c r="AA10" s="36"/>
-    </row>
-    <row r="11" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB10" s="42"/>
+      <c r="AC10" s="42"/>
+      <c r="AD10" s="42"/>
+      <c r="AE10" s="42"/>
+      <c r="AF10" s="42"/>
+      <c r="AG10" s="42"/>
+      <c r="AH10" s="42"/>
+      <c r="AI10" s="42"/>
+      <c r="AJ10" s="42"/>
+      <c r="AK10" s="42"/>
+      <c r="AL10" s="42"/>
+      <c r="AM10" s="42"/>
+      <c r="AN10" s="42"/>
+      <c r="AO10" s="42"/>
+      <c r="AP10" s="42"/>
+      <c r="AQ10" s="42"/>
+      <c r="AR10" s="42"/>
+      <c r="AS10" s="42"/>
+      <c r="AT10" s="42"/>
+      <c r="AU10" s="42"/>
+      <c r="AV10" s="42"/>
+      <c r="AW10" s="42"/>
+      <c r="AX10" s="42"/>
+      <c r="AY10" s="42"/>
+      <c r="AZ10" s="42"/>
+      <c r="BA10" s="42"/>
+      <c r="BB10" s="42"/>
+      <c r="BC10" s="42"/>
+      <c r="BD10" s="42"/>
+      <c r="BE10" s="42"/>
+      <c r="BF10" s="42"/>
+      <c r="BG10" s="42"/>
+      <c r="BH10" s="42"/>
+      <c r="BI10" s="42"/>
+      <c r="BJ10" s="42"/>
+      <c r="BK10" s="42"/>
+    </row>
+    <row r="11" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36">
         <v>7</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>0</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C11" s="38">
+        <v>35773</v>
+      </c>
+      <c r="D11" s="36"/>
       <c r="E11" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="36" t="s">
         <v>0</v>
       </c>
       <c r="G11" s="36"/>
@@ -3835,18 +4234,54 @@
       <c r="Y11" s="36"/>
       <c r="Z11" s="36"/>
       <c r="AA11" s="36"/>
-    </row>
-    <row r="12" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB11" s="42"/>
+      <c r="AC11" s="42"/>
+      <c r="AD11" s="42"/>
+      <c r="AE11" s="42"/>
+      <c r="AF11" s="42"/>
+      <c r="AG11" s="42"/>
+      <c r="AH11" s="42"/>
+      <c r="AI11" s="42"/>
+      <c r="AJ11" s="42"/>
+      <c r="AK11" s="42"/>
+      <c r="AL11" s="42"/>
+      <c r="AM11" s="42"/>
+      <c r="AN11" s="42"/>
+      <c r="AO11" s="42"/>
+      <c r="AP11" s="42"/>
+      <c r="AQ11" s="42"/>
+      <c r="AR11" s="42"/>
+      <c r="AS11" s="42"/>
+      <c r="AT11" s="42"/>
+      <c r="AU11" s="42"/>
+      <c r="AV11" s="42"/>
+      <c r="AW11" s="42"/>
+      <c r="AX11" s="42"/>
+      <c r="AY11" s="42"/>
+      <c r="AZ11" s="42"/>
+      <c r="BA11" s="42"/>
+      <c r="BB11" s="42"/>
+      <c r="BC11" s="42"/>
+      <c r="BD11" s="42"/>
+      <c r="BE11" s="42"/>
+      <c r="BF11" s="42"/>
+      <c r="BG11" s="42"/>
+      <c r="BH11" s="42"/>
+      <c r="BI11" s="42"/>
+      <c r="BJ11" s="42"/>
+      <c r="BK11" s="42"/>
+    </row>
+    <row r="12" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36">
         <v>8</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="38">
-        <v>35773</v>
-      </c>
-      <c r="D12" s="36">
+        <v>47</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="36" t="s">
         <v>0</v>
       </c>
       <c r="E12" s="36" t="s">
@@ -3873,29 +4308,65 @@
       <c r="V12" s="36"/>
       <c r="W12" s="36"/>
       <c r="X12" s="36"/>
-      <c r="Y12" s="36"/>
-      <c r="Z12" s="36"/>
-      <c r="AA12" s="36"/>
-    </row>
-    <row r="13" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y12" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="42"/>
+      <c r="AC12" s="42"/>
+      <c r="AD12" s="42"/>
+      <c r="AE12" s="42"/>
+      <c r="AF12" s="42"/>
+      <c r="AG12" s="42"/>
+      <c r="AH12" s="42"/>
+      <c r="AI12" s="42"/>
+      <c r="AJ12" s="42"/>
+      <c r="AK12" s="42"/>
+      <c r="AL12" s="42"/>
+      <c r="AM12" s="42"/>
+      <c r="AN12" s="42"/>
+      <c r="AO12" s="42"/>
+      <c r="AP12" s="42"/>
+      <c r="AQ12" s="42"/>
+      <c r="AR12" s="42"/>
+      <c r="AS12" s="42"/>
+      <c r="AT12" s="42"/>
+      <c r="AU12" s="42"/>
+      <c r="AV12" s="42"/>
+      <c r="AW12" s="42"/>
+      <c r="AX12" s="42"/>
+      <c r="AY12" s="42"/>
+      <c r="AZ12" s="42"/>
+      <c r="BA12" s="42"/>
+      <c r="BB12" s="42"/>
+      <c r="BC12" s="42"/>
+      <c r="BD12" s="42"/>
+      <c r="BE12" s="42"/>
+      <c r="BF12" s="42"/>
+      <c r="BG12" s="42"/>
+      <c r="BH12" s="42"/>
+      <c r="BI12" s="42"/>
+      <c r="BJ12" s="42"/>
+      <c r="BK12" s="42"/>
+    </row>
+    <row r="13" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="36">
         <v>9</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="36" t="s">
-        <v>0</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
       <c r="G13" s="36"/>
       <c r="H13" s="36"/>
       <c r="I13" s="36"/>
@@ -3914,29 +4385,61 @@
       <c r="V13" s="36"/>
       <c r="W13" s="36"/>
       <c r="X13" s="36"/>
-      <c r="Y13" s="36"/>
-      <c r="Z13" s="36"/>
+      <c r="Y13" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="36" t="s">
+        <v>0</v>
+      </c>
       <c r="AA13" s="36"/>
-    </row>
-    <row r="14" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB13" s="42"/>
+      <c r="AC13" s="42"/>
+      <c r="AD13" s="42"/>
+      <c r="AE13" s="42"/>
+      <c r="AF13" s="42"/>
+      <c r="AG13" s="42"/>
+      <c r="AH13" s="42"/>
+      <c r="AI13" s="42"/>
+      <c r="AJ13" s="42"/>
+      <c r="AK13" s="42"/>
+      <c r="AL13" s="42"/>
+      <c r="AM13" s="42"/>
+      <c r="AN13" s="42"/>
+      <c r="AO13" s="42"/>
+      <c r="AP13" s="42"/>
+      <c r="AQ13" s="42"/>
+      <c r="AR13" s="42"/>
+      <c r="AS13" s="42"/>
+      <c r="AT13" s="42"/>
+      <c r="AU13" s="42"/>
+      <c r="AV13" s="42"/>
+      <c r="AW13" s="42"/>
+      <c r="AX13" s="42"/>
+      <c r="AY13" s="42"/>
+      <c r="AZ13" s="42"/>
+      <c r="BA13" s="42"/>
+      <c r="BB13" s="42"/>
+      <c r="BC13" s="42"/>
+      <c r="BD13" s="42"/>
+      <c r="BE13" s="42"/>
+      <c r="BF13" s="42"/>
+      <c r="BG13" s="42"/>
+      <c r="BH13" s="42"/>
+      <c r="BI13" s="42"/>
+      <c r="BJ13" s="42"/>
+      <c r="BK13" s="42"/>
+    </row>
+    <row r="14" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36">
         <v>10</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="36">
-        <v>0</v>
-      </c>
-      <c r="E14" s="36">
-        <v>0</v>
-      </c>
-      <c r="F14" s="36">
-        <v>0</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
       <c r="G14" s="36"/>
       <c r="H14" s="36"/>
       <c r="I14" s="36"/>
@@ -3955,51 +4458,52 @@
       <c r="V14" s="36"/>
       <c r="W14" s="36"/>
       <c r="X14" s="36"/>
-      <c r="Y14" s="36"/>
-      <c r="Z14" s="36"/>
+      <c r="Y14" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="36" t="s">
+        <v>0</v>
+      </c>
       <c r="AA14" s="36"/>
-    </row>
-    <row r="15" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36">
-        <v>11</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36">
-        <v>0</v>
-      </c>
-      <c r="E15" s="36">
-        <v>0</v>
-      </c>
-      <c r="F15" s="36">
-        <v>0</v>
-      </c>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="36"/>
-      <c r="V15" s="36"/>
-      <c r="W15" s="36"/>
-      <c r="X15" s="36"/>
-      <c r="Y15" s="36"/>
-      <c r="Z15" s="36"/>
-      <c r="AA15" s="36"/>
+      <c r="AB14" s="42"/>
+      <c r="AC14" s="42"/>
+      <c r="AD14" s="42"/>
+      <c r="AE14" s="42"/>
+      <c r="AF14" s="42"/>
+      <c r="AG14" s="42"/>
+      <c r="AH14" s="42"/>
+      <c r="AI14" s="42"/>
+      <c r="AJ14" s="42"/>
+      <c r="AK14" s="42"/>
+      <c r="AL14" s="42"/>
+      <c r="AM14" s="42"/>
+      <c r="AN14" s="42"/>
+      <c r="AO14" s="42"/>
+      <c r="AP14" s="42"/>
+      <c r="AQ14" s="42"/>
+      <c r="AR14" s="42"/>
+      <c r="AS14" s="42"/>
+      <c r="AT14" s="42"/>
+      <c r="AU14" s="42"/>
+      <c r="AV14" s="42"/>
+      <c r="AW14" s="42"/>
+      <c r="AX14" s="42"/>
+      <c r="AY14" s="42"/>
+      <c r="AZ14" s="42"/>
+      <c r="BA14" s="42"/>
+      <c r="BB14" s="42"/>
+      <c r="BC14" s="42"/>
+      <c r="BD14" s="42"/>
+      <c r="BE14" s="42"/>
+      <c r="BF14" s="42"/>
+      <c r="BG14" s="42"/>
+      <c r="BH14" s="42"/>
+      <c r="BI14" s="42"/>
+      <c r="BJ14" s="42"/>
+      <c r="BK14" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="23">
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="A3:A4"/>
@@ -4011,6 +4515,18 @@
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:U3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="AN3:AP3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BK3"/>
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="AT3:AV3"/>
+    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="BC3:BE3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TOEIC 300-500 K1" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="84">
   <si>
     <t>x</t>
   </si>
@@ -267,6 +267,9 @@
   </si>
   <si>
     <t>27/3-Lesson 7</t>
+  </si>
+  <si>
+    <t>29/3-Lesson 8</t>
   </si>
 </sst>
 </file>
@@ -568,8 +571,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -586,6 +590,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -932,30 +939,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="45" t="s">
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="43" t="s">
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="43" t="s">
+      <c r="O2" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="43" t="s">
+      <c r="P2" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="43" t="s">
+      <c r="Q2" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="43" t="s">
+      <c r="R2" s="42" t="s">
         <v>18</v>
       </c>
     </row>
@@ -999,11 +1006,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -1256,30 +1263,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="45" t="s">
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="43" t="s">
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="43" t="s">
+      <c r="O2" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="43" t="s">
+      <c r="P2" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="43" t="s">
+      <c r="Q2" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="46" t="s">
+      <c r="R2" s="45" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1323,11 +1330,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="46"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="45"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -2272,7 +2279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -2301,30 +2308,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="45" t="s">
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="43" t="s">
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="43" t="s">
+      <c r="O2" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="43" t="s">
+      <c r="P2" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="43" t="s">
+      <c r="Q2" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="43" t="s">
+      <c r="R2" s="42" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2368,11 +2375,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -2682,30 +2689,30 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="45" t="s">
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="43" t="s">
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="43" t="s">
+      <c r="Q2" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="43" t="s">
+      <c r="R2" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="43" t="s">
+      <c r="S2" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="43" t="s">
+      <c r="T2" s="42" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2755,11 +2762,11 @@
       <c r="O3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
     </row>
     <row r="4" spans="1:20" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -3430,8 +3437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AE9" sqref="AE9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3453,96 +3460,98 @@
       </c>
     </row>
     <row r="3" spans="1:63" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47" t="s">
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47" t="s">
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47" t="s">
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47" t="s">
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47" t="s">
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47" t="s">
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47" t="s">
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="47"/>
-      <c r="AF3" s="47"/>
-      <c r="AG3" s="47"/>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="47"/>
-      <c r="AJ3" s="47"/>
-      <c r="AK3" s="47"/>
-      <c r="AL3" s="47"/>
-      <c r="AM3" s="47"/>
-      <c r="AN3" s="47"/>
-      <c r="AO3" s="47"/>
-      <c r="AP3" s="47"/>
-      <c r="AQ3" s="47"/>
-      <c r="AR3" s="47"/>
-      <c r="AS3" s="47"/>
-      <c r="AT3" s="47"/>
-      <c r="AU3" s="47"/>
-      <c r="AV3" s="47"/>
-      <c r="AW3" s="47"/>
-      <c r="AX3" s="47"/>
-      <c r="AY3" s="47"/>
-      <c r="AZ3" s="47"/>
-      <c r="BA3" s="47"/>
-      <c r="BB3" s="47"/>
-      <c r="BC3" s="47"/>
-      <c r="BD3" s="47"/>
-      <c r="BE3" s="47"/>
-      <c r="BF3" s="47"/>
-      <c r="BG3" s="47"/>
-      <c r="BH3" s="47"/>
-      <c r="BI3" s="47"/>
-      <c r="BJ3" s="47"/>
-      <c r="BK3" s="47"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="46"/>
+      <c r="AB3" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC3" s="46"/>
+      <c r="AD3" s="46"/>
+      <c r="AE3" s="46"/>
+      <c r="AF3" s="46"/>
+      <c r="AG3" s="46"/>
+      <c r="AH3" s="46"/>
+      <c r="AI3" s="46"/>
+      <c r="AJ3" s="46"/>
+      <c r="AK3" s="46"/>
+      <c r="AL3" s="46"/>
+      <c r="AM3" s="46"/>
+      <c r="AN3" s="46"/>
+      <c r="AO3" s="46"/>
+      <c r="AP3" s="46"/>
+      <c r="AQ3" s="46"/>
+      <c r="AR3" s="46"/>
+      <c r="AS3" s="46"/>
+      <c r="AT3" s="46"/>
+      <c r="AU3" s="46"/>
+      <c r="AV3" s="46"/>
+      <c r="AW3" s="46"/>
+      <c r="AX3" s="46"/>
+      <c r="AY3" s="46"/>
+      <c r="AZ3" s="46"/>
+      <c r="BA3" s="46"/>
+      <c r="BB3" s="46"/>
+      <c r="BC3" s="46"/>
+      <c r="BD3" s="46"/>
+      <c r="BE3" s="46"/>
+      <c r="BF3" s="46"/>
+      <c r="BG3" s="46"/>
+      <c r="BH3" s="46"/>
+      <c r="BI3" s="46"/>
+      <c r="BJ3" s="46"/>
+      <c r="BK3" s="46"/>
     </row>
     <row r="4" spans="1:63" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="36" t="s">
         <v>71</v>
       </c>
@@ -3844,45 +3853,55 @@
       <c r="V6" s="36"/>
       <c r="W6" s="36"/>
       <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="36"/>
-      <c r="AB6" s="42"/>
-      <c r="AC6" s="42"/>
-      <c r="AD6" s="42"/>
-      <c r="AE6" s="42"/>
-      <c r="AF6" s="42"/>
-      <c r="AG6" s="42"/>
-      <c r="AH6" s="42"/>
-      <c r="AI6" s="42"/>
-      <c r="AJ6" s="42"/>
-      <c r="AK6" s="42"/>
-      <c r="AL6" s="42"/>
-      <c r="AM6" s="42"/>
-      <c r="AN6" s="42"/>
-      <c r="AO6" s="42"/>
-      <c r="AP6" s="42"/>
-      <c r="AQ6" s="42"/>
-      <c r="AR6" s="42"/>
-      <c r="AS6" s="42"/>
-      <c r="AT6" s="42"/>
-      <c r="AU6" s="42"/>
-      <c r="AV6" s="42"/>
-      <c r="AW6" s="42"/>
-      <c r="AX6" s="42"/>
-      <c r="AY6" s="42"/>
-      <c r="AZ6" s="42"/>
-      <c r="BA6" s="42"/>
-      <c r="BB6" s="42"/>
-      <c r="BC6" s="42"/>
-      <c r="BD6" s="42"/>
-      <c r="BE6" s="42"/>
-      <c r="BF6" s="42"/>
-      <c r="BG6" s="42"/>
-      <c r="BH6" s="42"/>
-      <c r="BI6" s="42"/>
-      <c r="BJ6" s="42"/>
-      <c r="BK6" s="42"/>
+      <c r="Y6" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="48"/>
+      <c r="AE6" s="48"/>
+      <c r="AF6" s="48"/>
+      <c r="AG6" s="48"/>
+      <c r="AH6" s="48"/>
+      <c r="AI6" s="48"/>
+      <c r="AJ6" s="48"/>
+      <c r="AK6" s="48"/>
+      <c r="AL6" s="48"/>
+      <c r="AM6" s="48"/>
+      <c r="AN6" s="48"/>
+      <c r="AO6" s="48"/>
+      <c r="AP6" s="48"/>
+      <c r="AQ6" s="48"/>
+      <c r="AR6" s="48"/>
+      <c r="AS6" s="48"/>
+      <c r="AT6" s="48"/>
+      <c r="AU6" s="48"/>
+      <c r="AV6" s="48"/>
+      <c r="AW6" s="48"/>
+      <c r="AX6" s="48"/>
+      <c r="AY6" s="48"/>
+      <c r="AZ6" s="48"/>
+      <c r="BA6" s="48"/>
+      <c r="BB6" s="48"/>
+      <c r="BC6" s="48"/>
+      <c r="BD6" s="48"/>
+      <c r="BE6" s="48"/>
+      <c r="BF6" s="48"/>
+      <c r="BG6" s="48"/>
+      <c r="BH6" s="48"/>
+      <c r="BI6" s="48"/>
+      <c r="BJ6" s="48"/>
+      <c r="BK6" s="48"/>
     </row>
     <row r="7" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36">
@@ -3916,42 +3935,42 @@
       <c r="Y7" s="36"/>
       <c r="Z7" s="36"/>
       <c r="AA7" s="36"/>
-      <c r="AB7" s="42"/>
-      <c r="AC7" s="42"/>
-      <c r="AD7" s="42"/>
-      <c r="AE7" s="42"/>
-      <c r="AF7" s="42"/>
-      <c r="AG7" s="42"/>
-      <c r="AH7" s="42"/>
-      <c r="AI7" s="42"/>
-      <c r="AJ7" s="42"/>
-      <c r="AK7" s="42"/>
-      <c r="AL7" s="42"/>
-      <c r="AM7" s="42"/>
-      <c r="AN7" s="42"/>
-      <c r="AO7" s="42"/>
-      <c r="AP7" s="42"/>
-      <c r="AQ7" s="42"/>
-      <c r="AR7" s="42"/>
-      <c r="AS7" s="42"/>
-      <c r="AT7" s="42"/>
-      <c r="AU7" s="42"/>
-      <c r="AV7" s="42"/>
-      <c r="AW7" s="42"/>
-      <c r="AX7" s="42"/>
-      <c r="AY7" s="42"/>
-      <c r="AZ7" s="42"/>
-      <c r="BA7" s="42"/>
-      <c r="BB7" s="42"/>
-      <c r="BC7" s="42"/>
-      <c r="BD7" s="42"/>
-      <c r="BE7" s="42"/>
-      <c r="BF7" s="42"/>
-      <c r="BG7" s="42"/>
-      <c r="BH7" s="42"/>
-      <c r="BI7" s="42"/>
-      <c r="BJ7" s="42"/>
-      <c r="BK7" s="42"/>
+      <c r="AB7" s="48"/>
+      <c r="AC7" s="48"/>
+      <c r="AD7" s="48"/>
+      <c r="AE7" s="48"/>
+      <c r="AF7" s="48"/>
+      <c r="AG7" s="48"/>
+      <c r="AH7" s="48"/>
+      <c r="AI7" s="48"/>
+      <c r="AJ7" s="48"/>
+      <c r="AK7" s="48"/>
+      <c r="AL7" s="48"/>
+      <c r="AM7" s="48"/>
+      <c r="AN7" s="48"/>
+      <c r="AO7" s="48"/>
+      <c r="AP7" s="48"/>
+      <c r="AQ7" s="48"/>
+      <c r="AR7" s="48"/>
+      <c r="AS7" s="48"/>
+      <c r="AT7" s="48"/>
+      <c r="AU7" s="48"/>
+      <c r="AV7" s="48"/>
+      <c r="AW7" s="48"/>
+      <c r="AX7" s="48"/>
+      <c r="AY7" s="48"/>
+      <c r="AZ7" s="48"/>
+      <c r="BA7" s="48"/>
+      <c r="BB7" s="48"/>
+      <c r="BC7" s="48"/>
+      <c r="BD7" s="48"/>
+      <c r="BE7" s="48"/>
+      <c r="BF7" s="48"/>
+      <c r="BG7" s="48"/>
+      <c r="BH7" s="48"/>
+      <c r="BI7" s="48"/>
+      <c r="BJ7" s="48"/>
+      <c r="BK7" s="48"/>
     </row>
     <row r="8" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36">
@@ -3999,42 +4018,42 @@
       <c r="Y8" s="36"/>
       <c r="Z8" s="36"/>
       <c r="AA8" s="36"/>
-      <c r="AB8" s="42"/>
-      <c r="AC8" s="42"/>
-      <c r="AD8" s="42"/>
-      <c r="AE8" s="42"/>
-      <c r="AF8" s="42"/>
-      <c r="AG8" s="42"/>
-      <c r="AH8" s="42"/>
-      <c r="AI8" s="42"/>
-      <c r="AJ8" s="42"/>
-      <c r="AK8" s="42"/>
-      <c r="AL8" s="42"/>
-      <c r="AM8" s="42"/>
-      <c r="AN8" s="42"/>
-      <c r="AO8" s="42"/>
-      <c r="AP8" s="42"/>
-      <c r="AQ8" s="42"/>
-      <c r="AR8" s="42"/>
-      <c r="AS8" s="42"/>
-      <c r="AT8" s="42"/>
-      <c r="AU8" s="42"/>
-      <c r="AV8" s="42"/>
-      <c r="AW8" s="42"/>
-      <c r="AX8" s="42"/>
-      <c r="AY8" s="42"/>
-      <c r="AZ8" s="42"/>
-      <c r="BA8" s="42"/>
-      <c r="BB8" s="42"/>
-      <c r="BC8" s="42"/>
-      <c r="BD8" s="42"/>
-      <c r="BE8" s="42"/>
-      <c r="BF8" s="42"/>
-      <c r="BG8" s="42"/>
-      <c r="BH8" s="42"/>
-      <c r="BI8" s="42"/>
-      <c r="BJ8" s="42"/>
-      <c r="BK8" s="42"/>
+      <c r="AB8" s="48"/>
+      <c r="AC8" s="48"/>
+      <c r="AD8" s="48"/>
+      <c r="AE8" s="48"/>
+      <c r="AF8" s="48"/>
+      <c r="AG8" s="48"/>
+      <c r="AH8" s="48"/>
+      <c r="AI8" s="48"/>
+      <c r="AJ8" s="48"/>
+      <c r="AK8" s="48"/>
+      <c r="AL8" s="48"/>
+      <c r="AM8" s="48"/>
+      <c r="AN8" s="48"/>
+      <c r="AO8" s="48"/>
+      <c r="AP8" s="48"/>
+      <c r="AQ8" s="48"/>
+      <c r="AR8" s="48"/>
+      <c r="AS8" s="48"/>
+      <c r="AT8" s="48"/>
+      <c r="AU8" s="48"/>
+      <c r="AV8" s="48"/>
+      <c r="AW8" s="48"/>
+      <c r="AX8" s="48"/>
+      <c r="AY8" s="48"/>
+      <c r="AZ8" s="48"/>
+      <c r="BA8" s="48"/>
+      <c r="BB8" s="48"/>
+      <c r="BC8" s="48"/>
+      <c r="BD8" s="48"/>
+      <c r="BE8" s="48"/>
+      <c r="BF8" s="48"/>
+      <c r="BG8" s="48"/>
+      <c r="BH8" s="48"/>
+      <c r="BI8" s="48"/>
+      <c r="BJ8" s="48"/>
+      <c r="BK8" s="48"/>
     </row>
     <row r="9" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36">
@@ -4077,45 +4096,55 @@
       <c r="V9" s="36"/>
       <c r="W9" s="36"/>
       <c r="X9" s="36"/>
-      <c r="Y9" s="36"/>
-      <c r="Z9" s="36"/>
-      <c r="AA9" s="36"/>
-      <c r="AB9" s="42"/>
-      <c r="AC9" s="42"/>
-      <c r="AD9" s="42"/>
-      <c r="AE9" s="42"/>
-      <c r="AF9" s="42"/>
-      <c r="AG9" s="42"/>
-      <c r="AH9" s="42"/>
-      <c r="AI9" s="42"/>
-      <c r="AJ9" s="42"/>
-      <c r="AK9" s="42"/>
-      <c r="AL9" s="42"/>
-      <c r="AM9" s="42"/>
-      <c r="AN9" s="42"/>
-      <c r="AO9" s="42"/>
-      <c r="AP9" s="42"/>
-      <c r="AQ9" s="42"/>
-      <c r="AR9" s="42"/>
-      <c r="AS9" s="42"/>
-      <c r="AT9" s="42"/>
-      <c r="AU9" s="42"/>
-      <c r="AV9" s="42"/>
-      <c r="AW9" s="42"/>
-      <c r="AX9" s="42"/>
-      <c r="AY9" s="42"/>
-      <c r="AZ9" s="42"/>
-      <c r="BA9" s="42"/>
-      <c r="BB9" s="42"/>
-      <c r="BC9" s="42"/>
-      <c r="BD9" s="42"/>
-      <c r="BE9" s="42"/>
-      <c r="BF9" s="42"/>
-      <c r="BG9" s="42"/>
-      <c r="BH9" s="42"/>
-      <c r="BI9" s="42"/>
-      <c r="BJ9" s="42"/>
-      <c r="BK9" s="42"/>
+      <c r="Y9" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="48"/>
+      <c r="AE9" s="48"/>
+      <c r="AF9" s="48"/>
+      <c r="AG9" s="48"/>
+      <c r="AH9" s="48"/>
+      <c r="AI9" s="48"/>
+      <c r="AJ9" s="48"/>
+      <c r="AK9" s="48"/>
+      <c r="AL9" s="48"/>
+      <c r="AM9" s="48"/>
+      <c r="AN9" s="48"/>
+      <c r="AO9" s="48"/>
+      <c r="AP9" s="48"/>
+      <c r="AQ9" s="48"/>
+      <c r="AR9" s="48"/>
+      <c r="AS9" s="48"/>
+      <c r="AT9" s="48"/>
+      <c r="AU9" s="48"/>
+      <c r="AV9" s="48"/>
+      <c r="AW9" s="48"/>
+      <c r="AX9" s="48"/>
+      <c r="AY9" s="48"/>
+      <c r="AZ9" s="48"/>
+      <c r="BA9" s="48"/>
+      <c r="BB9" s="48"/>
+      <c r="BC9" s="48"/>
+      <c r="BD9" s="48"/>
+      <c r="BE9" s="48"/>
+      <c r="BF9" s="48"/>
+      <c r="BG9" s="48"/>
+      <c r="BH9" s="48"/>
+      <c r="BI9" s="48"/>
+      <c r="BJ9" s="48"/>
+      <c r="BK9" s="48"/>
     </row>
     <row r="10" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36">
@@ -4159,42 +4188,46 @@
         <v>0</v>
       </c>
       <c r="AA10" s="36"/>
-      <c r="AB10" s="42"/>
-      <c r="AC10" s="42"/>
-      <c r="AD10" s="42"/>
-      <c r="AE10" s="42"/>
-      <c r="AF10" s="42"/>
-      <c r="AG10" s="42"/>
-      <c r="AH10" s="42"/>
-      <c r="AI10" s="42"/>
-      <c r="AJ10" s="42"/>
-      <c r="AK10" s="42"/>
-      <c r="AL10" s="42"/>
-      <c r="AM10" s="42"/>
-      <c r="AN10" s="42"/>
-      <c r="AO10" s="42"/>
-      <c r="AP10" s="42"/>
-      <c r="AQ10" s="42"/>
-      <c r="AR10" s="42"/>
-      <c r="AS10" s="42"/>
-      <c r="AT10" s="42"/>
-      <c r="AU10" s="42"/>
-      <c r="AV10" s="42"/>
-      <c r="AW10" s="42"/>
-      <c r="AX10" s="42"/>
-      <c r="AY10" s="42"/>
-      <c r="AZ10" s="42"/>
-      <c r="BA10" s="42"/>
-      <c r="BB10" s="42"/>
-      <c r="BC10" s="42"/>
-      <c r="BD10" s="42"/>
-      <c r="BE10" s="42"/>
-      <c r="BF10" s="42"/>
-      <c r="BG10" s="42"/>
-      <c r="BH10" s="42"/>
-      <c r="BI10" s="42"/>
-      <c r="BJ10" s="42"/>
-      <c r="BK10" s="42"/>
+      <c r="AB10" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="48"/>
+      <c r="AE10" s="48"/>
+      <c r="AF10" s="48"/>
+      <c r="AG10" s="48"/>
+      <c r="AH10" s="48"/>
+      <c r="AI10" s="48"/>
+      <c r="AJ10" s="48"/>
+      <c r="AK10" s="48"/>
+      <c r="AL10" s="48"/>
+      <c r="AM10" s="48"/>
+      <c r="AN10" s="48"/>
+      <c r="AO10" s="48"/>
+      <c r="AP10" s="48"/>
+      <c r="AQ10" s="48"/>
+      <c r="AR10" s="48"/>
+      <c r="AS10" s="48"/>
+      <c r="AT10" s="48"/>
+      <c r="AU10" s="48"/>
+      <c r="AV10" s="48"/>
+      <c r="AW10" s="48"/>
+      <c r="AX10" s="48"/>
+      <c r="AY10" s="48"/>
+      <c r="AZ10" s="48"/>
+      <c r="BA10" s="48"/>
+      <c r="BB10" s="48"/>
+      <c r="BC10" s="48"/>
+      <c r="BD10" s="48"/>
+      <c r="BE10" s="48"/>
+      <c r="BF10" s="48"/>
+      <c r="BG10" s="48"/>
+      <c r="BH10" s="48"/>
+      <c r="BI10" s="48"/>
+      <c r="BJ10" s="48"/>
+      <c r="BK10" s="48"/>
     </row>
     <row r="11" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36">
@@ -4231,45 +4264,55 @@
       <c r="V11" s="36"/>
       <c r="W11" s="36"/>
       <c r="X11" s="36"/>
-      <c r="Y11" s="36"/>
-      <c r="Z11" s="36"/>
-      <c r="AA11" s="36"/>
-      <c r="AB11" s="42"/>
-      <c r="AC11" s="42"/>
-      <c r="AD11" s="42"/>
-      <c r="AE11" s="42"/>
-      <c r="AF11" s="42"/>
-      <c r="AG11" s="42"/>
-      <c r="AH11" s="42"/>
-      <c r="AI11" s="42"/>
-      <c r="AJ11" s="42"/>
-      <c r="AK11" s="42"/>
-      <c r="AL11" s="42"/>
-      <c r="AM11" s="42"/>
-      <c r="AN11" s="42"/>
-      <c r="AO11" s="42"/>
-      <c r="AP11" s="42"/>
-      <c r="AQ11" s="42"/>
-      <c r="AR11" s="42"/>
-      <c r="AS11" s="42"/>
-      <c r="AT11" s="42"/>
-      <c r="AU11" s="42"/>
-      <c r="AV11" s="42"/>
-      <c r="AW11" s="42"/>
-      <c r="AX11" s="42"/>
-      <c r="AY11" s="42"/>
-      <c r="AZ11" s="42"/>
-      <c r="BA11" s="42"/>
-      <c r="BB11" s="42"/>
-      <c r="BC11" s="42"/>
-      <c r="BD11" s="42"/>
-      <c r="BE11" s="42"/>
-      <c r="BF11" s="42"/>
-      <c r="BG11" s="42"/>
-      <c r="BH11" s="42"/>
-      <c r="BI11" s="42"/>
-      <c r="BJ11" s="42"/>
-      <c r="BK11" s="42"/>
+      <c r="Y11" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="48"/>
+      <c r="AE11" s="48"/>
+      <c r="AF11" s="48"/>
+      <c r="AG11" s="48"/>
+      <c r="AH11" s="48"/>
+      <c r="AI11" s="48"/>
+      <c r="AJ11" s="48"/>
+      <c r="AK11" s="48"/>
+      <c r="AL11" s="48"/>
+      <c r="AM11" s="48"/>
+      <c r="AN11" s="48"/>
+      <c r="AO11" s="48"/>
+      <c r="AP11" s="48"/>
+      <c r="AQ11" s="48"/>
+      <c r="AR11" s="48"/>
+      <c r="AS11" s="48"/>
+      <c r="AT11" s="48"/>
+      <c r="AU11" s="48"/>
+      <c r="AV11" s="48"/>
+      <c r="AW11" s="48"/>
+      <c r="AX11" s="48"/>
+      <c r="AY11" s="48"/>
+      <c r="AZ11" s="48"/>
+      <c r="BA11" s="48"/>
+      <c r="BB11" s="48"/>
+      <c r="BC11" s="48"/>
+      <c r="BD11" s="48"/>
+      <c r="BE11" s="48"/>
+      <c r="BF11" s="48"/>
+      <c r="BG11" s="48"/>
+      <c r="BH11" s="48"/>
+      <c r="BI11" s="48"/>
+      <c r="BJ11" s="48"/>
+      <c r="BK11" s="48"/>
     </row>
     <row r="12" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36">
@@ -4317,42 +4360,46 @@
       <c r="AA12" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="AB12" s="42"/>
-      <c r="AC12" s="42"/>
-      <c r="AD12" s="42"/>
-      <c r="AE12" s="42"/>
-      <c r="AF12" s="42"/>
-      <c r="AG12" s="42"/>
-      <c r="AH12" s="42"/>
-      <c r="AI12" s="42"/>
-      <c r="AJ12" s="42"/>
-      <c r="AK12" s="42"/>
-      <c r="AL12" s="42"/>
-      <c r="AM12" s="42"/>
-      <c r="AN12" s="42"/>
-      <c r="AO12" s="42"/>
-      <c r="AP12" s="42"/>
-      <c r="AQ12" s="42"/>
-      <c r="AR12" s="42"/>
-      <c r="AS12" s="42"/>
-      <c r="AT12" s="42"/>
-      <c r="AU12" s="42"/>
-      <c r="AV12" s="42"/>
-      <c r="AW12" s="42"/>
-      <c r="AX12" s="42"/>
-      <c r="AY12" s="42"/>
-      <c r="AZ12" s="42"/>
-      <c r="BA12" s="42"/>
-      <c r="BB12" s="42"/>
-      <c r="BC12" s="42"/>
-      <c r="BD12" s="42"/>
-      <c r="BE12" s="42"/>
-      <c r="BF12" s="42"/>
-      <c r="BG12" s="42"/>
-      <c r="BH12" s="42"/>
-      <c r="BI12" s="42"/>
-      <c r="BJ12" s="42"/>
-      <c r="BK12" s="42"/>
+      <c r="AB12" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="48"/>
+      <c r="AE12" s="48"/>
+      <c r="AF12" s="48"/>
+      <c r="AG12" s="48"/>
+      <c r="AH12" s="48"/>
+      <c r="AI12" s="48"/>
+      <c r="AJ12" s="48"/>
+      <c r="AK12" s="48"/>
+      <c r="AL12" s="48"/>
+      <c r="AM12" s="48"/>
+      <c r="AN12" s="48"/>
+      <c r="AO12" s="48"/>
+      <c r="AP12" s="48"/>
+      <c r="AQ12" s="48"/>
+      <c r="AR12" s="48"/>
+      <c r="AS12" s="48"/>
+      <c r="AT12" s="48"/>
+      <c r="AU12" s="48"/>
+      <c r="AV12" s="48"/>
+      <c r="AW12" s="48"/>
+      <c r="AX12" s="48"/>
+      <c r="AY12" s="48"/>
+      <c r="AZ12" s="48"/>
+      <c r="BA12" s="48"/>
+      <c r="BB12" s="48"/>
+      <c r="BC12" s="48"/>
+      <c r="BD12" s="48"/>
+      <c r="BE12" s="48"/>
+      <c r="BF12" s="48"/>
+      <c r="BG12" s="48"/>
+      <c r="BH12" s="48"/>
+      <c r="BI12" s="48"/>
+      <c r="BJ12" s="48"/>
+      <c r="BK12" s="48"/>
     </row>
     <row r="13" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="36">
@@ -4392,42 +4439,46 @@
         <v>0</v>
       </c>
       <c r="AA13" s="36"/>
-      <c r="AB13" s="42"/>
-      <c r="AC13" s="42"/>
-      <c r="AD13" s="42"/>
-      <c r="AE13" s="42"/>
-      <c r="AF13" s="42"/>
-      <c r="AG13" s="42"/>
-      <c r="AH13" s="42"/>
-      <c r="AI13" s="42"/>
-      <c r="AJ13" s="42"/>
-      <c r="AK13" s="42"/>
-      <c r="AL13" s="42"/>
-      <c r="AM13" s="42"/>
-      <c r="AN13" s="42"/>
-      <c r="AO13" s="42"/>
-      <c r="AP13" s="42"/>
-      <c r="AQ13" s="42"/>
-      <c r="AR13" s="42"/>
-      <c r="AS13" s="42"/>
-      <c r="AT13" s="42"/>
-      <c r="AU13" s="42"/>
-      <c r="AV13" s="42"/>
-      <c r="AW13" s="42"/>
-      <c r="AX13" s="42"/>
-      <c r="AY13" s="42"/>
-      <c r="AZ13" s="42"/>
-      <c r="BA13" s="42"/>
-      <c r="BB13" s="42"/>
-      <c r="BC13" s="42"/>
-      <c r="BD13" s="42"/>
-      <c r="BE13" s="42"/>
-      <c r="BF13" s="42"/>
-      <c r="BG13" s="42"/>
-      <c r="BH13" s="42"/>
-      <c r="BI13" s="42"/>
-      <c r="BJ13" s="42"/>
-      <c r="BK13" s="42"/>
+      <c r="AB13" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="48"/>
+      <c r="AE13" s="48"/>
+      <c r="AF13" s="48"/>
+      <c r="AG13" s="48"/>
+      <c r="AH13" s="48"/>
+      <c r="AI13" s="48"/>
+      <c r="AJ13" s="48"/>
+      <c r="AK13" s="48"/>
+      <c r="AL13" s="48"/>
+      <c r="AM13" s="48"/>
+      <c r="AN13" s="48"/>
+      <c r="AO13" s="48"/>
+      <c r="AP13" s="48"/>
+      <c r="AQ13" s="48"/>
+      <c r="AR13" s="48"/>
+      <c r="AS13" s="48"/>
+      <c r="AT13" s="48"/>
+      <c r="AU13" s="48"/>
+      <c r="AV13" s="48"/>
+      <c r="AW13" s="48"/>
+      <c r="AX13" s="48"/>
+      <c r="AY13" s="48"/>
+      <c r="AZ13" s="48"/>
+      <c r="BA13" s="48"/>
+      <c r="BB13" s="48"/>
+      <c r="BC13" s="48"/>
+      <c r="BD13" s="48"/>
+      <c r="BE13" s="48"/>
+      <c r="BF13" s="48"/>
+      <c r="BG13" s="48"/>
+      <c r="BH13" s="48"/>
+      <c r="BI13" s="48"/>
+      <c r="BJ13" s="48"/>
+      <c r="BK13" s="48"/>
     </row>
     <row r="14" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36">
@@ -4465,45 +4516,61 @@
         <v>0</v>
       </c>
       <c r="AA14" s="36"/>
-      <c r="AB14" s="42"/>
-      <c r="AC14" s="42"/>
-      <c r="AD14" s="42"/>
-      <c r="AE14" s="42"/>
-      <c r="AF14" s="42"/>
-      <c r="AG14" s="42"/>
-      <c r="AH14" s="42"/>
-      <c r="AI14" s="42"/>
-      <c r="AJ14" s="42"/>
-      <c r="AK14" s="42"/>
-      <c r="AL14" s="42"/>
-      <c r="AM14" s="42"/>
-      <c r="AN14" s="42"/>
-      <c r="AO14" s="42"/>
-      <c r="AP14" s="42"/>
-      <c r="AQ14" s="42"/>
-      <c r="AR14" s="42"/>
-      <c r="AS14" s="42"/>
-      <c r="AT14" s="42"/>
-      <c r="AU14" s="42"/>
-      <c r="AV14" s="42"/>
-      <c r="AW14" s="42"/>
-      <c r="AX14" s="42"/>
-      <c r="AY14" s="42"/>
-      <c r="AZ14" s="42"/>
-      <c r="BA14" s="42"/>
-      <c r="BB14" s="42"/>
-      <c r="BC14" s="42"/>
-      <c r="BD14" s="42"/>
-      <c r="BE14" s="42"/>
-      <c r="BF14" s="42"/>
-      <c r="BG14" s="42"/>
-      <c r="BH14" s="42"/>
-      <c r="BI14" s="42"/>
-      <c r="BJ14" s="42"/>
-      <c r="BK14" s="42"/>
+      <c r="AB14" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="48"/>
+      <c r="AE14" s="48"/>
+      <c r="AF14" s="48"/>
+      <c r="AG14" s="48"/>
+      <c r="AH14" s="48"/>
+      <c r="AI14" s="48"/>
+      <c r="AJ14" s="48"/>
+      <c r="AK14" s="48"/>
+      <c r="AL14" s="48"/>
+      <c r="AM14" s="48"/>
+      <c r="AN14" s="48"/>
+      <c r="AO14" s="48"/>
+      <c r="AP14" s="48"/>
+      <c r="AQ14" s="48"/>
+      <c r="AR14" s="48"/>
+      <c r="AS14" s="48"/>
+      <c r="AT14" s="48"/>
+      <c r="AU14" s="48"/>
+      <c r="AV14" s="48"/>
+      <c r="AW14" s="48"/>
+      <c r="AX14" s="48"/>
+      <c r="AY14" s="48"/>
+      <c r="AZ14" s="48"/>
+      <c r="BA14" s="48"/>
+      <c r="BB14" s="48"/>
+      <c r="BC14" s="48"/>
+      <c r="BD14" s="48"/>
+      <c r="BE14" s="48"/>
+      <c r="BF14" s="48"/>
+      <c r="BG14" s="48"/>
+      <c r="BH14" s="48"/>
+      <c r="BI14" s="48"/>
+      <c r="BJ14" s="48"/>
+      <c r="BK14" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BK3"/>
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="AT3:AV3"/>
+    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="AN3:AP3"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="A3:A4"/>
@@ -4515,18 +4582,6 @@
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:U3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AK3:AM3"/>
-    <mergeCell ref="AN3:AP3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BK3"/>
-    <mergeCell ref="AQ3:AS3"/>
-    <mergeCell ref="AT3:AV3"/>
-    <mergeCell ref="AW3:AY3"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="BC3:BE3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="85">
   <si>
     <t>x</t>
   </si>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t>29/3-Lesson 8</t>
+  </si>
+  <si>
+    <t>31/3 - Lesson 9</t>
   </si>
 </sst>
 </file>
@@ -574,6 +577,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -590,9 +596,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -939,30 +942,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="44" t="s">
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="42" t="s">
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="42" t="s">
+      <c r="O2" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="42" t="s">
+      <c r="P2" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="42" t="s">
+      <c r="Q2" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="42" t="s">
+      <c r="R2" s="43" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1006,11 +1009,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -1263,30 +1266,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="44" t="s">
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="42" t="s">
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="42" t="s">
+      <c r="O2" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="42" t="s">
+      <c r="P2" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="42" t="s">
+      <c r="Q2" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="45" t="s">
+      <c r="R2" s="46" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1330,11 +1333,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="45"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="46"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -2308,30 +2311,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="44" t="s">
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="42" t="s">
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="42" t="s">
+      <c r="O2" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="42" t="s">
+      <c r="P2" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="42" t="s">
+      <c r="Q2" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="42" t="s">
+      <c r="R2" s="43" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2375,11 +2378,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -2689,30 +2692,30 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="44" t="s">
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="42" t="s">
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="42" t="s">
+      <c r="Q2" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="42" t="s">
+      <c r="R2" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="42" t="s">
+      <c r="S2" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="42" t="s">
+      <c r="T2" s="43" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2762,11 +2765,11 @@
       <c r="O3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
     </row>
     <row r="4" spans="1:20" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -3438,7 +3441,7 @@
   <dimension ref="A1:BK14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE9" sqref="AE9"/>
+      <selection activeCell="AI13" sqref="AI13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3447,7 +3450,9 @@
     <col min="2" max="2" width="26.5703125" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="24" width="5.5703125" hidden="1" customWidth="1"/>
-    <col min="25" max="36" width="5.5703125" customWidth="1"/>
+    <col min="25" max="32" width="5.5703125" customWidth="1"/>
+    <col min="33" max="33" width="6.5703125" customWidth="1"/>
+    <col min="34" max="36" width="5.5703125" customWidth="1"/>
     <col min="37" max="67" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3460,98 +3465,100 @@
       </c>
     </row>
     <row r="3" spans="1:63" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46" t="s">
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46" t="s">
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46" t="s">
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46" t="s">
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46" t="s">
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46" t="s">
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46" t="s">
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="46" t="s">
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="AC3" s="46"/>
-      <c r="AD3" s="46"/>
-      <c r="AE3" s="46"/>
-      <c r="AF3" s="46"/>
-      <c r="AG3" s="46"/>
-      <c r="AH3" s="46"/>
-      <c r="AI3" s="46"/>
-      <c r="AJ3" s="46"/>
-      <c r="AK3" s="46"/>
-      <c r="AL3" s="46"/>
-      <c r="AM3" s="46"/>
-      <c r="AN3" s="46"/>
-      <c r="AO3" s="46"/>
-      <c r="AP3" s="46"/>
-      <c r="AQ3" s="46"/>
-      <c r="AR3" s="46"/>
-      <c r="AS3" s="46"/>
-      <c r="AT3" s="46"/>
-      <c r="AU3" s="46"/>
-      <c r="AV3" s="46"/>
-      <c r="AW3" s="46"/>
-      <c r="AX3" s="46"/>
-      <c r="AY3" s="46"/>
-      <c r="AZ3" s="46"/>
-      <c r="BA3" s="46"/>
-      <c r="BB3" s="46"/>
-      <c r="BC3" s="46"/>
-      <c r="BD3" s="46"/>
-      <c r="BE3" s="46"/>
-      <c r="BF3" s="46"/>
-      <c r="BG3" s="46"/>
-      <c r="BH3" s="46"/>
-      <c r="BI3" s="46"/>
-      <c r="BJ3" s="46"/>
-      <c r="BK3" s="46"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="47"/>
+      <c r="AE3" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF3" s="47"/>
+      <c r="AG3" s="47"/>
+      <c r="AH3" s="47"/>
+      <c r="AI3" s="47"/>
+      <c r="AJ3" s="47"/>
+      <c r="AK3" s="47"/>
+      <c r="AL3" s="47"/>
+      <c r="AM3" s="47"/>
+      <c r="AN3" s="47"/>
+      <c r="AO3" s="47"/>
+      <c r="AP3" s="47"/>
+      <c r="AQ3" s="47"/>
+      <c r="AR3" s="47"/>
+      <c r="AS3" s="47"/>
+      <c r="AT3" s="47"/>
+      <c r="AU3" s="47"/>
+      <c r="AV3" s="47"/>
+      <c r="AW3" s="47"/>
+      <c r="AX3" s="47"/>
+      <c r="AY3" s="47"/>
+      <c r="AZ3" s="47"/>
+      <c r="BA3" s="47"/>
+      <c r="BB3" s="47"/>
+      <c r="BC3" s="47"/>
+      <c r="BD3" s="47"/>
+      <c r="BE3" s="47"/>
+      <c r="BF3" s="47"/>
+      <c r="BG3" s="47"/>
+      <c r="BH3" s="47"/>
+      <c r="BI3" s="47"/>
+      <c r="BJ3" s="47"/>
+      <c r="BK3" s="47"/>
     </row>
     <row r="4" spans="1:63" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
       <c r="D4" s="36" t="s">
         <v>71</v>
       </c>
@@ -3862,46 +3869,48 @@
       <c r="AA6" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="AB6" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="48"/>
-      <c r="AE6" s="48"/>
-      <c r="AF6" s="48"/>
-      <c r="AG6" s="48"/>
-      <c r="AH6" s="48"/>
-      <c r="AI6" s="48"/>
-      <c r="AJ6" s="48"/>
-      <c r="AK6" s="48"/>
-      <c r="AL6" s="48"/>
-      <c r="AM6" s="48"/>
-      <c r="AN6" s="48"/>
-      <c r="AO6" s="48"/>
-      <c r="AP6" s="48"/>
-      <c r="AQ6" s="48"/>
-      <c r="AR6" s="48"/>
-      <c r="AS6" s="48"/>
-      <c r="AT6" s="48"/>
-      <c r="AU6" s="48"/>
-      <c r="AV6" s="48"/>
-      <c r="AW6" s="48"/>
-      <c r="AX6" s="48"/>
-      <c r="AY6" s="48"/>
-      <c r="AZ6" s="48"/>
-      <c r="BA6" s="48"/>
-      <c r="BB6" s="48"/>
-      <c r="BC6" s="48"/>
-      <c r="BD6" s="48"/>
-      <c r="BE6" s="48"/>
-      <c r="BF6" s="48"/>
-      <c r="BG6" s="48"/>
-      <c r="BH6" s="48"/>
-      <c r="BI6" s="48"/>
-      <c r="BJ6" s="48"/>
-      <c r="BK6" s="48"/>
+      <c r="AB6" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="42"/>
+      <c r="AE6" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="42"/>
+      <c r="AG6" s="42"/>
+      <c r="AH6" s="42"/>
+      <c r="AI6" s="42"/>
+      <c r="AJ6" s="42"/>
+      <c r="AK6" s="42"/>
+      <c r="AL6" s="42"/>
+      <c r="AM6" s="42"/>
+      <c r="AN6" s="42"/>
+      <c r="AO6" s="42"/>
+      <c r="AP6" s="42"/>
+      <c r="AQ6" s="42"/>
+      <c r="AR6" s="42"/>
+      <c r="AS6" s="42"/>
+      <c r="AT6" s="42"/>
+      <c r="AU6" s="42"/>
+      <c r="AV6" s="42"/>
+      <c r="AW6" s="42"/>
+      <c r="AX6" s="42"/>
+      <c r="AY6" s="42"/>
+      <c r="AZ6" s="42"/>
+      <c r="BA6" s="42"/>
+      <c r="BB6" s="42"/>
+      <c r="BC6" s="42"/>
+      <c r="BD6" s="42"/>
+      <c r="BE6" s="42"/>
+      <c r="BF6" s="42"/>
+      <c r="BG6" s="42"/>
+      <c r="BH6" s="42"/>
+      <c r="BI6" s="42"/>
+      <c r="BJ6" s="42"/>
+      <c r="BK6" s="42"/>
     </row>
     <row r="7" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36">
@@ -3935,42 +3944,42 @@
       <c r="Y7" s="36"/>
       <c r="Z7" s="36"/>
       <c r="AA7" s="36"/>
-      <c r="AB7" s="48"/>
-      <c r="AC7" s="48"/>
-      <c r="AD7" s="48"/>
-      <c r="AE7" s="48"/>
-      <c r="AF7" s="48"/>
-      <c r="AG7" s="48"/>
-      <c r="AH7" s="48"/>
-      <c r="AI7" s="48"/>
-      <c r="AJ7" s="48"/>
-      <c r="AK7" s="48"/>
-      <c r="AL7" s="48"/>
-      <c r="AM7" s="48"/>
-      <c r="AN7" s="48"/>
-      <c r="AO7" s="48"/>
-      <c r="AP7" s="48"/>
-      <c r="AQ7" s="48"/>
-      <c r="AR7" s="48"/>
-      <c r="AS7" s="48"/>
-      <c r="AT7" s="48"/>
-      <c r="AU7" s="48"/>
-      <c r="AV7" s="48"/>
-      <c r="AW7" s="48"/>
-      <c r="AX7" s="48"/>
-      <c r="AY7" s="48"/>
-      <c r="AZ7" s="48"/>
-      <c r="BA7" s="48"/>
-      <c r="BB7" s="48"/>
-      <c r="BC7" s="48"/>
-      <c r="BD7" s="48"/>
-      <c r="BE7" s="48"/>
-      <c r="BF7" s="48"/>
-      <c r="BG7" s="48"/>
-      <c r="BH7" s="48"/>
-      <c r="BI7" s="48"/>
-      <c r="BJ7" s="48"/>
-      <c r="BK7" s="48"/>
+      <c r="AB7" s="42"/>
+      <c r="AC7" s="42"/>
+      <c r="AD7" s="42"/>
+      <c r="AE7" s="42"/>
+      <c r="AF7" s="42"/>
+      <c r="AG7" s="42"/>
+      <c r="AH7" s="42"/>
+      <c r="AI7" s="42"/>
+      <c r="AJ7" s="42"/>
+      <c r="AK7" s="42"/>
+      <c r="AL7" s="42"/>
+      <c r="AM7" s="42"/>
+      <c r="AN7" s="42"/>
+      <c r="AO7" s="42"/>
+      <c r="AP7" s="42"/>
+      <c r="AQ7" s="42"/>
+      <c r="AR7" s="42"/>
+      <c r="AS7" s="42"/>
+      <c r="AT7" s="42"/>
+      <c r="AU7" s="42"/>
+      <c r="AV7" s="42"/>
+      <c r="AW7" s="42"/>
+      <c r="AX7" s="42"/>
+      <c r="AY7" s="42"/>
+      <c r="AZ7" s="42"/>
+      <c r="BA7" s="42"/>
+      <c r="BB7" s="42"/>
+      <c r="BC7" s="42"/>
+      <c r="BD7" s="42"/>
+      <c r="BE7" s="42"/>
+      <c r="BF7" s="42"/>
+      <c r="BG7" s="42"/>
+      <c r="BH7" s="42"/>
+      <c r="BI7" s="42"/>
+      <c r="BJ7" s="42"/>
+      <c r="BK7" s="42"/>
     </row>
     <row r="8" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36">
@@ -4018,42 +4027,46 @@
       <c r="Y8" s="36"/>
       <c r="Z8" s="36"/>
       <c r="AA8" s="36"/>
-      <c r="AB8" s="48"/>
-      <c r="AC8" s="48"/>
-      <c r="AD8" s="48"/>
-      <c r="AE8" s="48"/>
-      <c r="AF8" s="48"/>
-      <c r="AG8" s="48"/>
-      <c r="AH8" s="48"/>
-      <c r="AI8" s="48"/>
-      <c r="AJ8" s="48"/>
-      <c r="AK8" s="48"/>
-      <c r="AL8" s="48"/>
-      <c r="AM8" s="48"/>
-      <c r="AN8" s="48"/>
-      <c r="AO8" s="48"/>
-      <c r="AP8" s="48"/>
-      <c r="AQ8" s="48"/>
-      <c r="AR8" s="48"/>
-      <c r="AS8" s="48"/>
-      <c r="AT8" s="48"/>
-      <c r="AU8" s="48"/>
-      <c r="AV8" s="48"/>
-      <c r="AW8" s="48"/>
-      <c r="AX8" s="48"/>
-      <c r="AY8" s="48"/>
-      <c r="AZ8" s="48"/>
-      <c r="BA8" s="48"/>
-      <c r="BB8" s="48"/>
-      <c r="BC8" s="48"/>
-      <c r="BD8" s="48"/>
-      <c r="BE8" s="48"/>
-      <c r="BF8" s="48"/>
-      <c r="BG8" s="48"/>
-      <c r="BH8" s="48"/>
-      <c r="BI8" s="48"/>
-      <c r="BJ8" s="48"/>
-      <c r="BK8" s="48"/>
+      <c r="AB8" s="42"/>
+      <c r="AC8" s="42"/>
+      <c r="AD8" s="42"/>
+      <c r="AE8" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="42"/>
+      <c r="AH8" s="42"/>
+      <c r="AI8" s="42"/>
+      <c r="AJ8" s="42"/>
+      <c r="AK8" s="42"/>
+      <c r="AL8" s="42"/>
+      <c r="AM8" s="42"/>
+      <c r="AN8" s="42"/>
+      <c r="AO8" s="42"/>
+      <c r="AP8" s="42"/>
+      <c r="AQ8" s="42"/>
+      <c r="AR8" s="42"/>
+      <c r="AS8" s="42"/>
+      <c r="AT8" s="42"/>
+      <c r="AU8" s="42"/>
+      <c r="AV8" s="42"/>
+      <c r="AW8" s="42"/>
+      <c r="AX8" s="42"/>
+      <c r="AY8" s="42"/>
+      <c r="AZ8" s="42"/>
+      <c r="BA8" s="42"/>
+      <c r="BB8" s="42"/>
+      <c r="BC8" s="42"/>
+      <c r="BD8" s="42"/>
+      <c r="BE8" s="42"/>
+      <c r="BF8" s="42"/>
+      <c r="BG8" s="42"/>
+      <c r="BH8" s="42"/>
+      <c r="BI8" s="42"/>
+      <c r="BJ8" s="42"/>
+      <c r="BK8" s="42"/>
     </row>
     <row r="9" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36">
@@ -4105,46 +4118,46 @@
       <c r="AA9" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="AB9" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="48"/>
-      <c r="AE9" s="48"/>
-      <c r="AF9" s="48"/>
-      <c r="AG9" s="48"/>
-      <c r="AH9" s="48"/>
-      <c r="AI9" s="48"/>
-      <c r="AJ9" s="48"/>
-      <c r="AK9" s="48"/>
-      <c r="AL9" s="48"/>
-      <c r="AM9" s="48"/>
-      <c r="AN9" s="48"/>
-      <c r="AO9" s="48"/>
-      <c r="AP9" s="48"/>
-      <c r="AQ9" s="48"/>
-      <c r="AR9" s="48"/>
-      <c r="AS9" s="48"/>
-      <c r="AT9" s="48"/>
-      <c r="AU9" s="48"/>
-      <c r="AV9" s="48"/>
-      <c r="AW9" s="48"/>
-      <c r="AX9" s="48"/>
-      <c r="AY9" s="48"/>
-      <c r="AZ9" s="48"/>
-      <c r="BA9" s="48"/>
-      <c r="BB9" s="48"/>
-      <c r="BC9" s="48"/>
-      <c r="BD9" s="48"/>
-      <c r="BE9" s="48"/>
-      <c r="BF9" s="48"/>
-      <c r="BG9" s="48"/>
-      <c r="BH9" s="48"/>
-      <c r="BI9" s="48"/>
-      <c r="BJ9" s="48"/>
-      <c r="BK9" s="48"/>
+      <c r="AB9" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="42"/>
+      <c r="AE9" s="42"/>
+      <c r="AF9" s="42"/>
+      <c r="AG9" s="42"/>
+      <c r="AH9" s="42"/>
+      <c r="AI9" s="42"/>
+      <c r="AJ9" s="42"/>
+      <c r="AK9" s="42"/>
+      <c r="AL9" s="42"/>
+      <c r="AM9" s="42"/>
+      <c r="AN9" s="42"/>
+      <c r="AO9" s="42"/>
+      <c r="AP9" s="42"/>
+      <c r="AQ9" s="42"/>
+      <c r="AR9" s="42"/>
+      <c r="AS9" s="42"/>
+      <c r="AT9" s="42"/>
+      <c r="AU9" s="42"/>
+      <c r="AV9" s="42"/>
+      <c r="AW9" s="42"/>
+      <c r="AX9" s="42"/>
+      <c r="AY9" s="42"/>
+      <c r="AZ9" s="42"/>
+      <c r="BA9" s="42"/>
+      <c r="BB9" s="42"/>
+      <c r="BC9" s="42"/>
+      <c r="BD9" s="42"/>
+      <c r="BE9" s="42"/>
+      <c r="BF9" s="42"/>
+      <c r="BG9" s="42"/>
+      <c r="BH9" s="42"/>
+      <c r="BI9" s="42"/>
+      <c r="BJ9" s="42"/>
+      <c r="BK9" s="42"/>
     </row>
     <row r="10" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36">
@@ -4188,46 +4201,46 @@
         <v>0</v>
       </c>
       <c r="AA10" s="36"/>
-      <c r="AB10" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="48"/>
-      <c r="AE10" s="48"/>
-      <c r="AF10" s="48"/>
-      <c r="AG10" s="48"/>
-      <c r="AH10" s="48"/>
-      <c r="AI10" s="48"/>
-      <c r="AJ10" s="48"/>
-      <c r="AK10" s="48"/>
-      <c r="AL10" s="48"/>
-      <c r="AM10" s="48"/>
-      <c r="AN10" s="48"/>
-      <c r="AO10" s="48"/>
-      <c r="AP10" s="48"/>
-      <c r="AQ10" s="48"/>
-      <c r="AR10" s="48"/>
-      <c r="AS10" s="48"/>
-      <c r="AT10" s="48"/>
-      <c r="AU10" s="48"/>
-      <c r="AV10" s="48"/>
-      <c r="AW10" s="48"/>
-      <c r="AX10" s="48"/>
-      <c r="AY10" s="48"/>
-      <c r="AZ10" s="48"/>
-      <c r="BA10" s="48"/>
-      <c r="BB10" s="48"/>
-      <c r="BC10" s="48"/>
-      <c r="BD10" s="48"/>
-      <c r="BE10" s="48"/>
-      <c r="BF10" s="48"/>
-      <c r="BG10" s="48"/>
-      <c r="BH10" s="48"/>
-      <c r="BI10" s="48"/>
-      <c r="BJ10" s="48"/>
-      <c r="BK10" s="48"/>
+      <c r="AB10" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="42"/>
+      <c r="AE10" s="42"/>
+      <c r="AF10" s="42"/>
+      <c r="AG10" s="42"/>
+      <c r="AH10" s="42"/>
+      <c r="AI10" s="42"/>
+      <c r="AJ10" s="42"/>
+      <c r="AK10" s="42"/>
+      <c r="AL10" s="42"/>
+      <c r="AM10" s="42"/>
+      <c r="AN10" s="42"/>
+      <c r="AO10" s="42"/>
+      <c r="AP10" s="42"/>
+      <c r="AQ10" s="42"/>
+      <c r="AR10" s="42"/>
+      <c r="AS10" s="42"/>
+      <c r="AT10" s="42"/>
+      <c r="AU10" s="42"/>
+      <c r="AV10" s="42"/>
+      <c r="AW10" s="42"/>
+      <c r="AX10" s="42"/>
+      <c r="AY10" s="42"/>
+      <c r="AZ10" s="42"/>
+      <c r="BA10" s="42"/>
+      <c r="BB10" s="42"/>
+      <c r="BC10" s="42"/>
+      <c r="BD10" s="42"/>
+      <c r="BE10" s="42"/>
+      <c r="BF10" s="42"/>
+      <c r="BG10" s="42"/>
+      <c r="BH10" s="42"/>
+      <c r="BI10" s="42"/>
+      <c r="BJ10" s="42"/>
+      <c r="BK10" s="42"/>
     </row>
     <row r="11" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36">
@@ -4273,46 +4286,50 @@
       <c r="AA11" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="AB11" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="48"/>
-      <c r="AE11" s="48"/>
-      <c r="AF11" s="48"/>
-      <c r="AG11" s="48"/>
-      <c r="AH11" s="48"/>
-      <c r="AI11" s="48"/>
-      <c r="AJ11" s="48"/>
-      <c r="AK11" s="48"/>
-      <c r="AL11" s="48"/>
-      <c r="AM11" s="48"/>
-      <c r="AN11" s="48"/>
-      <c r="AO11" s="48"/>
-      <c r="AP11" s="48"/>
-      <c r="AQ11" s="48"/>
-      <c r="AR11" s="48"/>
-      <c r="AS11" s="48"/>
-      <c r="AT11" s="48"/>
-      <c r="AU11" s="48"/>
-      <c r="AV11" s="48"/>
-      <c r="AW11" s="48"/>
-      <c r="AX11" s="48"/>
-      <c r="AY11" s="48"/>
-      <c r="AZ11" s="48"/>
-      <c r="BA11" s="48"/>
-      <c r="BB11" s="48"/>
-      <c r="BC11" s="48"/>
-      <c r="BD11" s="48"/>
-      <c r="BE11" s="48"/>
-      <c r="BF11" s="48"/>
-      <c r="BG11" s="48"/>
-      <c r="BH11" s="48"/>
-      <c r="BI11" s="48"/>
-      <c r="BJ11" s="48"/>
-      <c r="BK11" s="48"/>
+      <c r="AB11" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="42"/>
+      <c r="AE11" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="42"/>
+      <c r="AH11" s="42"/>
+      <c r="AI11" s="42"/>
+      <c r="AJ11" s="42"/>
+      <c r="AK11" s="42"/>
+      <c r="AL11" s="42"/>
+      <c r="AM11" s="42"/>
+      <c r="AN11" s="42"/>
+      <c r="AO11" s="42"/>
+      <c r="AP11" s="42"/>
+      <c r="AQ11" s="42"/>
+      <c r="AR11" s="42"/>
+      <c r="AS11" s="42"/>
+      <c r="AT11" s="42"/>
+      <c r="AU11" s="42"/>
+      <c r="AV11" s="42"/>
+      <c r="AW11" s="42"/>
+      <c r="AX11" s="42"/>
+      <c r="AY11" s="42"/>
+      <c r="AZ11" s="42"/>
+      <c r="BA11" s="42"/>
+      <c r="BB11" s="42"/>
+      <c r="BC11" s="42"/>
+      <c r="BD11" s="42"/>
+      <c r="BE11" s="42"/>
+      <c r="BF11" s="42"/>
+      <c r="BG11" s="42"/>
+      <c r="BH11" s="42"/>
+      <c r="BI11" s="42"/>
+      <c r="BJ11" s="42"/>
+      <c r="BK11" s="42"/>
     </row>
     <row r="12" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36">
@@ -4360,46 +4377,46 @@
       <c r="AA12" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="AB12" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="48"/>
-      <c r="AE12" s="48"/>
-      <c r="AF12" s="48"/>
-      <c r="AG12" s="48"/>
-      <c r="AH12" s="48"/>
-      <c r="AI12" s="48"/>
-      <c r="AJ12" s="48"/>
-      <c r="AK12" s="48"/>
-      <c r="AL12" s="48"/>
-      <c r="AM12" s="48"/>
-      <c r="AN12" s="48"/>
-      <c r="AO12" s="48"/>
-      <c r="AP12" s="48"/>
-      <c r="AQ12" s="48"/>
-      <c r="AR12" s="48"/>
-      <c r="AS12" s="48"/>
-      <c r="AT12" s="48"/>
-      <c r="AU12" s="48"/>
-      <c r="AV12" s="48"/>
-      <c r="AW12" s="48"/>
-      <c r="AX12" s="48"/>
-      <c r="AY12" s="48"/>
-      <c r="AZ12" s="48"/>
-      <c r="BA12" s="48"/>
-      <c r="BB12" s="48"/>
-      <c r="BC12" s="48"/>
-      <c r="BD12" s="48"/>
-      <c r="BE12" s="48"/>
-      <c r="BF12" s="48"/>
-      <c r="BG12" s="48"/>
-      <c r="BH12" s="48"/>
-      <c r="BI12" s="48"/>
-      <c r="BJ12" s="48"/>
-      <c r="BK12" s="48"/>
+      <c r="AB12" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="42"/>
+      <c r="AE12" s="42"/>
+      <c r="AF12" s="42"/>
+      <c r="AG12" s="42"/>
+      <c r="AH12" s="42"/>
+      <c r="AI12" s="42"/>
+      <c r="AJ12" s="42"/>
+      <c r="AK12" s="42"/>
+      <c r="AL12" s="42"/>
+      <c r="AM12" s="42"/>
+      <c r="AN12" s="42"/>
+      <c r="AO12" s="42"/>
+      <c r="AP12" s="42"/>
+      <c r="AQ12" s="42"/>
+      <c r="AR12" s="42"/>
+      <c r="AS12" s="42"/>
+      <c r="AT12" s="42"/>
+      <c r="AU12" s="42"/>
+      <c r="AV12" s="42"/>
+      <c r="AW12" s="42"/>
+      <c r="AX12" s="42"/>
+      <c r="AY12" s="42"/>
+      <c r="AZ12" s="42"/>
+      <c r="BA12" s="42"/>
+      <c r="BB12" s="42"/>
+      <c r="BC12" s="42"/>
+      <c r="BD12" s="42"/>
+      <c r="BE12" s="42"/>
+      <c r="BF12" s="42"/>
+      <c r="BG12" s="42"/>
+      <c r="BH12" s="42"/>
+      <c r="BI12" s="42"/>
+      <c r="BJ12" s="42"/>
+      <c r="BK12" s="42"/>
     </row>
     <row r="13" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="36">
@@ -4439,46 +4456,50 @@
         <v>0</v>
       </c>
       <c r="AA13" s="36"/>
-      <c r="AB13" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="48"/>
-      <c r="AE13" s="48"/>
-      <c r="AF13" s="48"/>
-      <c r="AG13" s="48"/>
-      <c r="AH13" s="48"/>
-      <c r="AI13" s="48"/>
-      <c r="AJ13" s="48"/>
-      <c r="AK13" s="48"/>
-      <c r="AL13" s="48"/>
-      <c r="AM13" s="48"/>
-      <c r="AN13" s="48"/>
-      <c r="AO13" s="48"/>
-      <c r="AP13" s="48"/>
-      <c r="AQ13" s="48"/>
-      <c r="AR13" s="48"/>
-      <c r="AS13" s="48"/>
-      <c r="AT13" s="48"/>
-      <c r="AU13" s="48"/>
-      <c r="AV13" s="48"/>
-      <c r="AW13" s="48"/>
-      <c r="AX13" s="48"/>
-      <c r="AY13" s="48"/>
-      <c r="AZ13" s="48"/>
-      <c r="BA13" s="48"/>
-      <c r="BB13" s="48"/>
-      <c r="BC13" s="48"/>
-      <c r="BD13" s="48"/>
-      <c r="BE13" s="48"/>
-      <c r="BF13" s="48"/>
-      <c r="BG13" s="48"/>
-      <c r="BH13" s="48"/>
-      <c r="BI13" s="48"/>
-      <c r="BJ13" s="48"/>
-      <c r="BK13" s="48"/>
+      <c r="AB13" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="42"/>
+      <c r="AE13" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="42"/>
+      <c r="AH13" s="42"/>
+      <c r="AI13" s="42"/>
+      <c r="AJ13" s="42"/>
+      <c r="AK13" s="42"/>
+      <c r="AL13" s="42"/>
+      <c r="AM13" s="42"/>
+      <c r="AN13" s="42"/>
+      <c r="AO13" s="42"/>
+      <c r="AP13" s="42"/>
+      <c r="AQ13" s="42"/>
+      <c r="AR13" s="42"/>
+      <c r="AS13" s="42"/>
+      <c r="AT13" s="42"/>
+      <c r="AU13" s="42"/>
+      <c r="AV13" s="42"/>
+      <c r="AW13" s="42"/>
+      <c r="AX13" s="42"/>
+      <c r="AY13" s="42"/>
+      <c r="AZ13" s="42"/>
+      <c r="BA13" s="42"/>
+      <c r="BB13" s="42"/>
+      <c r="BC13" s="42"/>
+      <c r="BD13" s="42"/>
+      <c r="BE13" s="42"/>
+      <c r="BF13" s="42"/>
+      <c r="BG13" s="42"/>
+      <c r="BH13" s="42"/>
+      <c r="BI13" s="42"/>
+      <c r="BJ13" s="42"/>
+      <c r="BK13" s="42"/>
     </row>
     <row r="14" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36">
@@ -4516,61 +4537,53 @@
         <v>0</v>
       </c>
       <c r="AA14" s="36"/>
-      <c r="AB14" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="48"/>
-      <c r="AE14" s="48"/>
-      <c r="AF14" s="48"/>
-      <c r="AG14" s="48"/>
-      <c r="AH14" s="48"/>
-      <c r="AI14" s="48"/>
-      <c r="AJ14" s="48"/>
-      <c r="AK14" s="48"/>
-      <c r="AL14" s="48"/>
-      <c r="AM14" s="48"/>
-      <c r="AN14" s="48"/>
-      <c r="AO14" s="48"/>
-      <c r="AP14" s="48"/>
-      <c r="AQ14" s="48"/>
-      <c r="AR14" s="48"/>
-      <c r="AS14" s="48"/>
-      <c r="AT14" s="48"/>
-      <c r="AU14" s="48"/>
-      <c r="AV14" s="48"/>
-      <c r="AW14" s="48"/>
-      <c r="AX14" s="48"/>
-      <c r="AY14" s="48"/>
-      <c r="AZ14" s="48"/>
-      <c r="BA14" s="48"/>
-      <c r="BB14" s="48"/>
-      <c r="BC14" s="48"/>
-      <c r="BD14" s="48"/>
-      <c r="BE14" s="48"/>
-      <c r="BF14" s="48"/>
-      <c r="BG14" s="48"/>
-      <c r="BH14" s="48"/>
-      <c r="BI14" s="48"/>
-      <c r="BJ14" s="48"/>
-      <c r="BK14" s="48"/>
+      <c r="AB14" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="42"/>
+      <c r="AE14" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="42"/>
+      <c r="AH14" s="42"/>
+      <c r="AI14" s="42"/>
+      <c r="AJ14" s="42"/>
+      <c r="AK14" s="42"/>
+      <c r="AL14" s="42"/>
+      <c r="AM14" s="42"/>
+      <c r="AN14" s="42"/>
+      <c r="AO14" s="42"/>
+      <c r="AP14" s="42"/>
+      <c r="AQ14" s="42"/>
+      <c r="AR14" s="42"/>
+      <c r="AS14" s="42"/>
+      <c r="AT14" s="42"/>
+      <c r="AU14" s="42"/>
+      <c r="AV14" s="42"/>
+      <c r="AW14" s="42"/>
+      <c r="AX14" s="42"/>
+      <c r="AY14" s="42"/>
+      <c r="AZ14" s="42"/>
+      <c r="BA14" s="42"/>
+      <c r="BB14" s="42"/>
+      <c r="BC14" s="42"/>
+      <c r="BD14" s="42"/>
+      <c r="BE14" s="42"/>
+      <c r="BF14" s="42"/>
+      <c r="BG14" s="42"/>
+      <c r="BH14" s="42"/>
+      <c r="BI14" s="42"/>
+      <c r="BJ14" s="42"/>
+      <c r="BK14" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BK3"/>
-    <mergeCell ref="AQ3:AS3"/>
-    <mergeCell ref="AT3:AV3"/>
-    <mergeCell ref="AW3:AY3"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AK3:AM3"/>
-    <mergeCell ref="AN3:AP3"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="A3:A4"/>
@@ -4582,6 +4595,18 @@
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:U3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="AN3:AP3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BK3"/>
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="AT3:AV3"/>
+    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="BC3:BE3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TOEIC 300-500 K1" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="80">
   <si>
     <t>x</t>
   </si>
@@ -134,15 +134,9 @@
     <t>Khóa TOEIC 300-500 K3 (6/3/2017-31/5/2017)</t>
   </si>
   <si>
-    <t>Lê Nguyên</t>
-  </si>
-  <si>
     <t>Nguyễn Thị Thùy Hương</t>
   </si>
   <si>
-    <t>Quách Thị Mỹ Linh</t>
-  </si>
-  <si>
     <t>Hồ Minh Trang</t>
   </si>
   <si>
@@ -179,15 +173,9 @@
     <t>16/4/1998</t>
   </si>
   <si>
-    <t>090.5634124</t>
-  </si>
-  <si>
     <t>0167.3196168</t>
   </si>
   <si>
-    <t>097.8437787</t>
-  </si>
-  <si>
     <t>0166.2711759</t>
   </si>
   <si>
@@ -222,9 +210,6 @@
   </si>
   <si>
     <t>Đăng ký học</t>
-  </si>
-  <si>
-    <t>Báo lại sau</t>
   </si>
   <si>
     <t>Vắng</t>
@@ -480,7 +465,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -560,9 +545,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="9" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -942,30 +925,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="45" t="s">
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="43" t="s">
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="43" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="43" t="s">
+      <c r="P2" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="43" t="s">
+      <c r="Q2" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="43" t="s">
+      <c r="R2" s="41" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1009,11 +992,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -1266,30 +1249,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="45" t="s">
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="43" t="s">
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="43" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="43" t="s">
+      <c r="P2" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="43" t="s">
+      <c r="Q2" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="46" t="s">
+      <c r="R2" s="44" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1333,11 +1316,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="46"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="44"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -1399,10 +1382,10 @@
     <row r="5" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="21" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="14"/>
@@ -1432,7 +1415,7 @@
     <row r="6" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="21" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="23"/>
@@ -1566,7 +1549,7 @@
     </row>
     <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="21" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="22"/>
@@ -1614,7 +1597,7 @@
     </row>
     <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="21" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="22"/>
@@ -1730,7 +1713,7 @@
     <row r="13" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="21" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C13" s="14"/>
       <c r="E13" s="14"/>
@@ -1778,10 +1761,10 @@
     <row r="14" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="21" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="17"/>
@@ -1905,10 +1888,10 @@
     </row>
     <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="21" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
@@ -1932,10 +1915,10 @@
     </row>
     <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="21" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
@@ -2026,7 +2009,7 @@
     </row>
     <row r="22" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="21" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="17">
@@ -2071,7 +2054,7 @@
     </row>
     <row r="23" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="21" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="17">
@@ -2311,30 +2294,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="45" t="s">
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="43" t="s">
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="43" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="43" t="s">
+      <c r="P2" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="43" t="s">
+      <c r="Q2" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="43" t="s">
+      <c r="R2" s="41" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2378,11 +2361,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -2444,10 +2427,10 @@
     <row r="5" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
       <c r="B5" s="21" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="14"/>
@@ -2468,7 +2451,7 @@
     <row r="6" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="21" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="23"/>
@@ -2579,7 +2562,7 @@
     <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="21" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="22"/>
@@ -2627,7 +2610,7 @@
     </row>
     <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="21" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N10" s="15">
         <f t="shared" si="0"/>
@@ -2659,13 +2642,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2692,30 +2675,30 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="45" t="s">
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="43" t="s">
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="43" t="s">
+      <c r="Q2" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="43" t="s">
+      <c r="R2" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="43" t="s">
+      <c r="S2" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="43" t="s">
+      <c r="T2" s="41" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2733,13 +2716,13 @@
         <v>7</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>5</v>
@@ -2765,11 +2748,11 @@
       <c r="O3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
     </row>
     <row r="4" spans="1:20" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -2778,126 +2761,142 @@
       <c r="B4" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="21"/>
+      <c r="C4" s="26">
+        <v>34554</v>
+      </c>
       <c r="D4" s="27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="F4" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14">
+        <v>6</v>
+      </c>
+      <c r="J4" s="14">
+        <v>15</v>
+      </c>
+      <c r="K4" s="14">
+        <v>8</v>
+      </c>
+      <c r="L4" s="14">
+        <v>11</v>
+      </c>
+      <c r="M4" s="14">
+        <v>14</v>
+      </c>
+      <c r="N4" s="14">
+        <v>2</v>
+      </c>
+      <c r="O4" s="14">
+        <v>10</v>
+      </c>
+      <c r="P4" s="14">
+        <f t="shared" ref="P4" si="0">SUM(I4:L4)</f>
+        <v>40</v>
+      </c>
+      <c r="Q4" s="14">
+        <f t="shared" ref="Q4" si="1">SUM(M4:O4)</f>
+        <v>26</v>
+      </c>
+      <c r="R4" s="21">
+        <v>185</v>
+      </c>
+      <c r="S4" s="21">
         <v>65</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14">
-        <f t="shared" ref="P4:P6" si="0">SUM(I4:L4)</f>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="14">
-        <f t="shared" ref="Q4:Q6" si="1">SUM(M4:O4)</f>
-        <v>0</v>
-      </c>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
       <c r="T4" s="30">
-        <f t="shared" ref="T4:T6" si="2">R4+S4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="T4" si="2">R4+S4</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>2</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="26">
-        <v>34554</v>
-      </c>
+      <c r="C5" s="21"/>
       <c r="D5" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>0</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+        <v>61</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="21"/>
       <c r="I5" s="14">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J5" s="14">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K5" s="14">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L5" s="14">
         <v>11</v>
       </c>
       <c r="M5" s="14">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N5" s="14">
         <v>2</v>
       </c>
       <c r="O5" s="14">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="P5" s="14">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <f t="shared" ref="P5:P11" si="3">SUM(I5:L5)</f>
+        <v>34</v>
       </c>
       <c r="Q5" s="14">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="R5" s="21">
-        <v>185</v>
-      </c>
-      <c r="S5" s="21">
-        <v>65</v>
+        <f t="shared" ref="Q5:Q11" si="4">SUM(M5:O5)</f>
+        <v>29</v>
+      </c>
+      <c r="R5" s="14">
+        <v>150</v>
+      </c>
+      <c r="S5" s="14">
+        <v>85</v>
       </c>
       <c r="T5" s="30">
-        <f t="shared" si="2"/>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" s="35" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="31">
+        <f t="shared" ref="T5:T11" si="5">R5+S5</f>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="38" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
         <v>3</v>
       </c>
       <c r="B6" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="33">
-        <v>34579</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="31">
+      <c r="C6" s="32"/>
+      <c r="D6" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="31" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G6" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="31"/>
+      <c r="H6" s="32"/>
       <c r="I6" s="31"/>
       <c r="J6" s="31"/>
       <c r="K6" s="31"/>
@@ -2906,17 +2905,17 @@
       <c r="N6" s="31"/>
       <c r="O6" s="31"/>
       <c r="P6" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q6" s="31">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="37">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2928,100 +2927,115 @@
         <v>41</v>
       </c>
       <c r="C7" s="21"/>
-      <c r="D7" s="27" t="s">
-        <v>56</v>
+      <c r="D7" s="28" t="s">
+        <v>54</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>0</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>0</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G7" s="14"/>
       <c r="H7" s="21"/>
       <c r="I7" s="14">
         <v>3</v>
       </c>
       <c r="J7" s="14">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="K7" s="14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L7" s="14">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M7" s="14">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N7" s="14">
         <v>2</v>
       </c>
       <c r="O7" s="14">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P7" s="14">
-        <f t="shared" ref="P7:P13" si="3">SUM(I7:L7)</f>
+        <f>SUM(I7:L7)</f>
+        <v>43</v>
+      </c>
+      <c r="Q7" s="14">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="R7" s="21">
+        <v>200</v>
+      </c>
+      <c r="S7" s="21">
+        <v>110</v>
+      </c>
+      <c r="T7" s="30">
+        <f t="shared" si="5"/>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>5</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="I8" s="17">
+        <v>2</v>
+      </c>
+      <c r="J8" s="17">
+        <v>11</v>
+      </c>
+      <c r="K8" s="17">
+        <v>8</v>
+      </c>
+      <c r="L8" s="17">
+        <v>13</v>
+      </c>
+      <c r="M8" s="17">
+        <v>14</v>
+      </c>
+      <c r="N8" s="17">
+        <v>4</v>
+      </c>
+      <c r="O8" s="17">
+        <v>14</v>
+      </c>
+      <c r="P8" s="14">
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="Q7" s="14">
-        <f t="shared" ref="Q7:Q13" si="4">SUM(M7:O7)</f>
-        <v>29</v>
-      </c>
-      <c r="R7" s="14">
+      <c r="Q8" s="14">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="R8" s="17">
         <v>150</v>
       </c>
-      <c r="S7" s="14">
-        <v>85</v>
-      </c>
-      <c r="T7" s="30">
-        <f t="shared" ref="T7:T13" si="5">R7+S7</f>
-        <v>235</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" s="40" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31">
-        <v>5</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="32"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="31">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="39">
+      <c r="S8" s="17">
+        <v>100</v>
+      </c>
+      <c r="T8" s="30">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3031,38 +3045,59 @@
       <c r="B9" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="28" t="s">
-        <v>58</v>
+      <c r="C9" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>56</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>0</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
+        <v>61</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="17">
+        <v>3</v>
+      </c>
+      <c r="J9" s="17">
+        <v>14</v>
+      </c>
+      <c r="K9" s="17">
+        <v>12</v>
+      </c>
+      <c r="L9" s="17">
+        <v>8</v>
+      </c>
+      <c r="M9" s="17">
+        <v>18</v>
+      </c>
+      <c r="N9" s="17">
+        <v>5</v>
+      </c>
+      <c r="O9" s="17">
+        <v>9</v>
+      </c>
       <c r="P9" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="Q9" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
+        <v>32</v>
+      </c>
+      <c r="R9" s="17">
+        <v>170</v>
+      </c>
+      <c r="S9" s="17">
+        <v>100</v>
+      </c>
       <c r="T9" s="30">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3072,57 +3107,57 @@
       <c r="B10" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="21" t="s">
-        <v>50</v>
+      <c r="C10" s="26">
+        <v>35773</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>0</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G10" s="14"/>
       <c r="I10" s="17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10" s="17">
+        <v>6</v>
+      </c>
+      <c r="K10" s="17">
+        <v>6</v>
+      </c>
+      <c r="L10" s="17">
         <v>11</v>
       </c>
-      <c r="K10" s="17">
+      <c r="M10" s="17">
+        <v>24</v>
+      </c>
+      <c r="N10" s="17">
         <v>8</v>
       </c>
-      <c r="L10" s="17">
-        <v>13</v>
-      </c>
-      <c r="M10" s="17">
-        <v>14</v>
-      </c>
-      <c r="N10" s="17">
-        <v>4</v>
-      </c>
       <c r="O10" s="17">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="P10" s="14">
         <f t="shared" si="3"/>
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="Q10" s="14">
         <f t="shared" si="4"/>
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="R10" s="17">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="S10" s="17">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T10" s="30">
         <f t="shared" si="5"/>
-        <v>250</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3133,58 +3168,56 @@
         <v>45</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>0</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G11" s="14"/>
       <c r="I11" s="17">
+        <v>5</v>
+      </c>
+      <c r="J11" s="17">
+        <v>8</v>
+      </c>
+      <c r="K11" s="17">
+        <v>5</v>
+      </c>
+      <c r="L11" s="17">
+        <v>6</v>
+      </c>
+      <c r="M11" s="17">
+        <v>15</v>
+      </c>
+      <c r="N11" s="17">
         <v>3</v>
       </c>
-      <c r="J11" s="17">
-        <v>14</v>
-      </c>
-      <c r="K11" s="17">
+      <c r="O11" s="17">
         <v>12</v>
-      </c>
-      <c r="L11" s="17">
-        <v>8</v>
-      </c>
-      <c r="M11" s="17">
-        <v>18</v>
-      </c>
-      <c r="N11" s="17">
-        <v>5</v>
-      </c>
-      <c r="O11" s="17">
-        <v>9</v>
       </c>
       <c r="P11" s="14">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="Q11" s="14">
         <f t="shared" si="4"/>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="R11" s="17">
-        <v>170</v>
+        <v>95</v>
       </c>
       <c r="S11" s="17">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="T11" s="30">
         <f t="shared" si="5"/>
-        <v>270</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3194,57 +3227,57 @@
       <c r="B12" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="26">
-        <v>35773</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>61</v>
+      <c r="C12" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>59</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="14"/>
-      <c r="I12" s="17">
-        <v>0</v>
-      </c>
-      <c r="J12" s="17">
-        <v>6</v>
-      </c>
-      <c r="K12" s="17">
-        <v>6</v>
-      </c>
-      <c r="L12" s="17">
+        <v>0</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="14">
+        <v>2</v>
+      </c>
+      <c r="J12" s="14">
+        <v>9</v>
+      </c>
+      <c r="K12" s="14">
+        <v>12</v>
+      </c>
+      <c r="L12" s="14">
         <v>11</v>
       </c>
-      <c r="M12" s="17">
-        <v>24</v>
-      </c>
-      <c r="N12" s="17">
-        <v>8</v>
-      </c>
-      <c r="O12" s="17">
-        <v>16</v>
+      <c r="M12" s="14">
+        <v>14</v>
+      </c>
+      <c r="N12" s="14">
+        <v>0</v>
+      </c>
+      <c r="O12" s="14">
+        <v>19</v>
       </c>
       <c r="P12" s="14">
-        <f t="shared" si="3"/>
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="Q12" s="14">
-        <f t="shared" si="4"/>
-        <v>48</v>
-      </c>
-      <c r="R12" s="17">
-        <v>90</v>
-      </c>
-      <c r="S12" s="17">
-        <v>200</v>
+        <v>33</v>
+      </c>
+      <c r="R12" s="14">
+        <v>150</v>
+      </c>
+      <c r="S12" s="14">
+        <v>110</v>
       </c>
       <c r="T12" s="30">
-        <f t="shared" si="5"/>
-        <v>290</v>
+        <f>R12+S12</f>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3254,170 +3287,50 @@
       <c r="B13" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>62</v>
+      <c r="C13" s="21"/>
+      <c r="D13" s="29" t="s">
+        <v>60</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="14"/>
-      <c r="I13" s="17">
-        <v>5</v>
-      </c>
-      <c r="J13" s="17">
-        <v>8</v>
-      </c>
-      <c r="K13" s="17">
-        <v>5</v>
-      </c>
-      <c r="L13" s="17">
-        <v>6</v>
-      </c>
-      <c r="M13" s="17">
+      <c r="I13" s="14">
+        <v>4</v>
+      </c>
+      <c r="J13" s="14">
+        <v>9</v>
+      </c>
+      <c r="K13" s="14">
         <v>15</v>
       </c>
-      <c r="N13" s="17">
-        <v>3</v>
-      </c>
-      <c r="O13" s="17">
-        <v>12</v>
+      <c r="L13" s="14">
+        <v>11</v>
+      </c>
+      <c r="M13" s="14">
+        <v>17</v>
+      </c>
+      <c r="N13" s="14">
+        <v>4</v>
+      </c>
+      <c r="O13" s="14">
+        <v>14</v>
       </c>
       <c r="P13" s="14">
-        <f t="shared" si="3"/>
-        <v>24</v>
+        <f>I13+J13+K13+L13</f>
+        <v>39</v>
       </c>
       <c r="Q13" s="14">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="R13" s="17">
-        <v>95</v>
-      </c>
-      <c r="S13" s="17">
-        <v>90</v>
+        <f>M13+N13+O13</f>
+        <v>35</v>
+      </c>
+      <c r="R13" s="14">
+        <v>180</v>
+      </c>
+      <c r="S13" s="14">
+        <v>120</v>
       </c>
       <c r="T13" s="30">
-        <f t="shared" si="5"/>
-        <v>185</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
-        <v>11</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="14">
-        <v>2</v>
-      </c>
-      <c r="J14" s="14">
-        <v>9</v>
-      </c>
-      <c r="K14" s="14">
-        <v>12</v>
-      </c>
-      <c r="L14" s="14">
-        <v>11</v>
-      </c>
-      <c r="M14" s="14">
-        <v>14</v>
-      </c>
-      <c r="N14" s="14">
-        <v>0</v>
-      </c>
-      <c r="O14" s="14">
-        <v>19</v>
-      </c>
-      <c r="P14" s="14">
-        <v>34</v>
-      </c>
-      <c r="Q14" s="14">
-        <v>33</v>
-      </c>
-      <c r="R14" s="14">
-        <v>150</v>
-      </c>
-      <c r="S14" s="14">
-        <v>110</v>
-      </c>
-      <c r="T14" s="30">
-        <f>R14+S14</f>
-        <v>260</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
-        <v>12</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="I15" s="14">
-        <v>4</v>
-      </c>
-      <c r="J15" s="14">
-        <v>9</v>
-      </c>
-      <c r="K15" s="14">
-        <v>15</v>
-      </c>
-      <c r="L15" s="14">
-        <v>11</v>
-      </c>
-      <c r="M15" s="14">
-        <v>17</v>
-      </c>
-      <c r="N15" s="14">
-        <v>4</v>
-      </c>
-      <c r="O15" s="14">
-        <v>14</v>
-      </c>
-      <c r="P15" s="14">
-        <f>I15+J15+K15+L15</f>
-        <v>39</v>
-      </c>
-      <c r="Q15" s="14">
-        <f>M15+N15+O15</f>
-        <v>35</v>
-      </c>
-      <c r="R15" s="14">
-        <v>180</v>
-      </c>
-      <c r="S15" s="14">
-        <v>120</v>
-      </c>
-      <c r="T15" s="30">
-        <f>R15+S15</f>
+        <f>R13+S13</f>
         <v>300</v>
       </c>
     </row>
@@ -3440,7 +3353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AI13" sqref="AI13"/>
     </sheetView>
   </sheetViews>
@@ -3461,1129 +3374,1141 @@
         <v>37</v>
       </c>
       <c r="AF1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:63" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47" t="s">
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47" t="s">
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47" t="s">
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF3" s="47"/>
-      <c r="AG3" s="47"/>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="47"/>
-      <c r="AJ3" s="47"/>
-      <c r="AK3" s="47"/>
-      <c r="AL3" s="47"/>
-      <c r="AM3" s="47"/>
-      <c r="AN3" s="47"/>
-      <c r="AO3" s="47"/>
-      <c r="AP3" s="47"/>
-      <c r="AQ3" s="47"/>
-      <c r="AR3" s="47"/>
-      <c r="AS3" s="47"/>
-      <c r="AT3" s="47"/>
-      <c r="AU3" s="47"/>
-      <c r="AV3" s="47"/>
-      <c r="AW3" s="47"/>
-      <c r="AX3" s="47"/>
-      <c r="AY3" s="47"/>
-      <c r="AZ3" s="47"/>
-      <c r="BA3" s="47"/>
-      <c r="BB3" s="47"/>
-      <c r="BC3" s="47"/>
-      <c r="BD3" s="47"/>
-      <c r="BE3" s="47"/>
-      <c r="BF3" s="47"/>
-      <c r="BG3" s="47"/>
-      <c r="BH3" s="47"/>
-      <c r="BI3" s="47"/>
-      <c r="BJ3" s="47"/>
-      <c r="BK3" s="47"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="45"/>
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="45"/>
+      <c r="AN3" s="45"/>
+      <c r="AO3" s="45"/>
+      <c r="AP3" s="45"/>
+      <c r="AQ3" s="45"/>
+      <c r="AR3" s="45"/>
+      <c r="AS3" s="45"/>
+      <c r="AT3" s="45"/>
+      <c r="AU3" s="45"/>
+      <c r="AV3" s="45"/>
+      <c r="AW3" s="45"/>
+      <c r="AX3" s="45"/>
+      <c r="AY3" s="45"/>
+      <c r="AZ3" s="45"/>
+      <c r="BA3" s="45"/>
+      <c r="BB3" s="45"/>
+      <c r="BC3" s="45"/>
+      <c r="BD3" s="45"/>
+      <c r="BE3" s="45"/>
+      <c r="BF3" s="45"/>
+      <c r="BG3" s="45"/>
+      <c r="BH3" s="45"/>
+      <c r="BI3" s="45"/>
+      <c r="BJ3" s="45"/>
+      <c r="BK3" s="45"/>
     </row>
     <row r="4" spans="1:63" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="G4" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="H4" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="I4" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="K4" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="L4" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="M4" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="N4" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="O4" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="P4" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q4" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="R4" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="S4" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="T4" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="U4" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="V4" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="W4" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="X4" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y4" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z4" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA4" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB4" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC4" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD4" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE4" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF4" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG4" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH4" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI4" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ4" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK4" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL4" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM4" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN4" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO4" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP4" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ4" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR4" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="AS4" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT4" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="AU4" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="AV4" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW4" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="AX4" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="AY4" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="AZ4" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="BA4" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="BB4" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="BC4" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="BD4" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="BE4" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="BF4" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="BG4" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="BH4" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="BI4" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="BJ4" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="BK4" s="36" t="s">
-        <v>69</v>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="N4" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q4" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="R4" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="S4" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="T4" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="U4" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="V4" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="W4" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="X4" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y4" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z4" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA4" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB4" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC4" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD4" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE4" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF4" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG4" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH4" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI4" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ4" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK4" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL4" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM4" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN4" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO4" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP4" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ4" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR4" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS4" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT4" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="AU4" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="AV4" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW4" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX4" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY4" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ4" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="BA4" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="BB4" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="BC4" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="BD4" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="BE4" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="BF4" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="BG4" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH4" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="BI4" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="BJ4" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="BK4" s="34" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:63" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36">
+      <c r="A5" s="34">
         <v>1</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="36">
+        <v>34554</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="39"/>
+      <c r="AC5" s="39"/>
+      <c r="AD5" s="39"/>
+      <c r="AE5" s="39"/>
+      <c r="AF5" s="39"/>
+      <c r="AG5" s="39"/>
+      <c r="AH5" s="39"/>
+      <c r="AI5" s="39"/>
+      <c r="AJ5" s="39"/>
+      <c r="AK5" s="39"/>
+      <c r="AL5" s="39"/>
+      <c r="AM5" s="39"/>
+      <c r="AN5" s="39"/>
+      <c r="AO5" s="39"/>
+      <c r="AP5" s="39"/>
+      <c r="AQ5" s="39"/>
+      <c r="AR5" s="39"/>
+      <c r="AS5" s="39"/>
+      <c r="AT5" s="39"/>
+      <c r="AU5" s="39"/>
+      <c r="AV5" s="39"/>
+      <c r="AW5" s="39"/>
+      <c r="AX5" s="39"/>
+      <c r="AY5" s="39"/>
+      <c r="AZ5" s="39"/>
+      <c r="BA5" s="39"/>
+      <c r="BB5" s="39"/>
+      <c r="BC5" s="39"/>
+      <c r="BD5" s="39"/>
+      <c r="BE5" s="39"/>
+      <c r="BF5" s="39"/>
+      <c r="BG5" s="39"/>
+      <c r="BH5" s="39"/>
+      <c r="BI5" s="39"/>
+      <c r="BJ5" s="39"/>
+      <c r="BK5" s="39"/>
+    </row>
+    <row r="6" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="34">
+        <v>2</v>
+      </c>
+      <c r="B6" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="38">
-        <v>34554</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="36"/>
-      <c r="AB5" s="41"/>
-      <c r="AC5" s="41"/>
-      <c r="AD5" s="41"/>
-      <c r="AE5" s="41"/>
-      <c r="AF5" s="41"/>
-      <c r="AG5" s="41"/>
-      <c r="AH5" s="41"/>
-      <c r="AI5" s="41"/>
-      <c r="AJ5" s="41"/>
-      <c r="AK5" s="41"/>
-      <c r="AL5" s="41"/>
-      <c r="AM5" s="41"/>
-      <c r="AN5" s="41"/>
-      <c r="AO5" s="41"/>
-      <c r="AP5" s="41"/>
-      <c r="AQ5" s="41"/>
-      <c r="AR5" s="41"/>
-      <c r="AS5" s="41"/>
-      <c r="AT5" s="41"/>
-      <c r="AU5" s="41"/>
-      <c r="AV5" s="41"/>
-      <c r="AW5" s="41"/>
-      <c r="AX5" s="41"/>
-      <c r="AY5" s="41"/>
-      <c r="AZ5" s="41"/>
-      <c r="BA5" s="41"/>
-      <c r="BB5" s="41"/>
-      <c r="BC5" s="41"/>
-      <c r="BD5" s="41"/>
-      <c r="BE5" s="41"/>
-      <c r="BF5" s="41"/>
-      <c r="BG5" s="41"/>
-      <c r="BH5" s="41"/>
-      <c r="BI5" s="41"/>
-      <c r="BJ5" s="41"/>
-      <c r="BK5" s="41"/>
-    </row>
-    <row r="6" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36">
-        <v>2</v>
-      </c>
-      <c r="B6" s="37" t="s">
+      <c r="C6" s="34"/>
+      <c r="D6" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="40"/>
+      <c r="AE6" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="40"/>
+      <c r="AG6" s="40"/>
+      <c r="AH6" s="40"/>
+      <c r="AI6" s="40"/>
+      <c r="AJ6" s="40"/>
+      <c r="AK6" s="40"/>
+      <c r="AL6" s="40"/>
+      <c r="AM6" s="40"/>
+      <c r="AN6" s="40"/>
+      <c r="AO6" s="40"/>
+      <c r="AP6" s="40"/>
+      <c r="AQ6" s="40"/>
+      <c r="AR6" s="40"/>
+      <c r="AS6" s="40"/>
+      <c r="AT6" s="40"/>
+      <c r="AU6" s="40"/>
+      <c r="AV6" s="40"/>
+      <c r="AW6" s="40"/>
+      <c r="AX6" s="40"/>
+      <c r="AY6" s="40"/>
+      <c r="AZ6" s="40"/>
+      <c r="BA6" s="40"/>
+      <c r="BB6" s="40"/>
+      <c r="BC6" s="40"/>
+      <c r="BD6" s="40"/>
+      <c r="BE6" s="40"/>
+      <c r="BF6" s="40"/>
+      <c r="BG6" s="40"/>
+      <c r="BH6" s="40"/>
+      <c r="BI6" s="40"/>
+      <c r="BJ6" s="40"/>
+      <c r="BK6" s="40"/>
+    </row>
+    <row r="7" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="34">
+        <v>3</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="34"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="40"/>
+      <c r="AC7" s="40"/>
+      <c r="AD7" s="40"/>
+      <c r="AE7" s="40"/>
+      <c r="AF7" s="40"/>
+      <c r="AG7" s="40"/>
+      <c r="AH7" s="40"/>
+      <c r="AI7" s="40"/>
+      <c r="AJ7" s="40"/>
+      <c r="AK7" s="40"/>
+      <c r="AL7" s="40"/>
+      <c r="AM7" s="40"/>
+      <c r="AN7" s="40"/>
+      <c r="AO7" s="40"/>
+      <c r="AP7" s="40"/>
+      <c r="AQ7" s="40"/>
+      <c r="AR7" s="40"/>
+      <c r="AS7" s="40"/>
+      <c r="AT7" s="40"/>
+      <c r="AU7" s="40"/>
+      <c r="AV7" s="40"/>
+      <c r="AW7" s="40"/>
+      <c r="AX7" s="40"/>
+      <c r="AY7" s="40"/>
+      <c r="AZ7" s="40"/>
+      <c r="BA7" s="40"/>
+      <c r="BB7" s="40"/>
+      <c r="BC7" s="40"/>
+      <c r="BD7" s="40"/>
+      <c r="BE7" s="40"/>
+      <c r="BF7" s="40"/>
+      <c r="BG7" s="40"/>
+      <c r="BH7" s="40"/>
+      <c r="BI7" s="40"/>
+      <c r="BJ7" s="40"/>
+      <c r="BK7" s="40"/>
+    </row>
+    <row r="8" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="34">
+        <v>4</v>
+      </c>
+      <c r="B8" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="42"/>
-      <c r="AE6" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="42"/>
-      <c r="AG6" s="42"/>
-      <c r="AH6" s="42"/>
-      <c r="AI6" s="42"/>
-      <c r="AJ6" s="42"/>
-      <c r="AK6" s="42"/>
-      <c r="AL6" s="42"/>
-      <c r="AM6" s="42"/>
-      <c r="AN6" s="42"/>
-      <c r="AO6" s="42"/>
-      <c r="AP6" s="42"/>
-      <c r="AQ6" s="42"/>
-      <c r="AR6" s="42"/>
-      <c r="AS6" s="42"/>
-      <c r="AT6" s="42"/>
-      <c r="AU6" s="42"/>
-      <c r="AV6" s="42"/>
-      <c r="AW6" s="42"/>
-      <c r="AX6" s="42"/>
-      <c r="AY6" s="42"/>
-      <c r="AZ6" s="42"/>
-      <c r="BA6" s="42"/>
-      <c r="BB6" s="42"/>
-      <c r="BC6" s="42"/>
-      <c r="BD6" s="42"/>
-      <c r="BE6" s="42"/>
-      <c r="BF6" s="42"/>
-      <c r="BG6" s="42"/>
-      <c r="BH6" s="42"/>
-      <c r="BI6" s="42"/>
-      <c r="BJ6" s="42"/>
-      <c r="BK6" s="42"/>
-    </row>
-    <row r="7" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36">
-        <v>3</v>
-      </c>
-      <c r="B7" s="37" t="s">
+      <c r="C8" s="34"/>
+      <c r="D8" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="34"/>
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="40"/>
+      <c r="AC8" s="40"/>
+      <c r="AD8" s="40"/>
+      <c r="AE8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="40"/>
+      <c r="AH8" s="40"/>
+      <c r="AI8" s="40"/>
+      <c r="AJ8" s="40"/>
+      <c r="AK8" s="40"/>
+      <c r="AL8" s="40"/>
+      <c r="AM8" s="40"/>
+      <c r="AN8" s="40"/>
+      <c r="AO8" s="40"/>
+      <c r="AP8" s="40"/>
+      <c r="AQ8" s="40"/>
+      <c r="AR8" s="40"/>
+      <c r="AS8" s="40"/>
+      <c r="AT8" s="40"/>
+      <c r="AU8" s="40"/>
+      <c r="AV8" s="40"/>
+      <c r="AW8" s="40"/>
+      <c r="AX8" s="40"/>
+      <c r="AY8" s="40"/>
+      <c r="AZ8" s="40"/>
+      <c r="BA8" s="40"/>
+      <c r="BB8" s="40"/>
+      <c r="BC8" s="40"/>
+      <c r="BD8" s="40"/>
+      <c r="BE8" s="40"/>
+      <c r="BF8" s="40"/>
+      <c r="BG8" s="40"/>
+      <c r="BH8" s="40"/>
+      <c r="BI8" s="40"/>
+      <c r="BJ8" s="40"/>
+      <c r="BK8" s="40"/>
+    </row>
+    <row r="9" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="34">
+        <v>5</v>
+      </c>
+      <c r="B9" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="36"/>
-      <c r="V7" s="36"/>
-      <c r="W7" s="36"/>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="36"/>
-      <c r="Z7" s="36"/>
-      <c r="AA7" s="36"/>
-      <c r="AB7" s="42"/>
-      <c r="AC7" s="42"/>
-      <c r="AD7" s="42"/>
-      <c r="AE7" s="42"/>
-      <c r="AF7" s="42"/>
-      <c r="AG7" s="42"/>
-      <c r="AH7" s="42"/>
-      <c r="AI7" s="42"/>
-      <c r="AJ7" s="42"/>
-      <c r="AK7" s="42"/>
-      <c r="AL7" s="42"/>
-      <c r="AM7" s="42"/>
-      <c r="AN7" s="42"/>
-      <c r="AO7" s="42"/>
-      <c r="AP7" s="42"/>
-      <c r="AQ7" s="42"/>
-      <c r="AR7" s="42"/>
-      <c r="AS7" s="42"/>
-      <c r="AT7" s="42"/>
-      <c r="AU7" s="42"/>
-      <c r="AV7" s="42"/>
-      <c r="AW7" s="42"/>
-      <c r="AX7" s="42"/>
-      <c r="AY7" s="42"/>
-      <c r="AZ7" s="42"/>
-      <c r="BA7" s="42"/>
-      <c r="BB7" s="42"/>
-      <c r="BC7" s="42"/>
-      <c r="BD7" s="42"/>
-      <c r="BE7" s="42"/>
-      <c r="BF7" s="42"/>
-      <c r="BG7" s="42"/>
-      <c r="BH7" s="42"/>
-      <c r="BI7" s="42"/>
-      <c r="BJ7" s="42"/>
-      <c r="BK7" s="42"/>
-    </row>
-    <row r="8" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36">
-        <v>4</v>
-      </c>
-      <c r="B8" s="37" t="s">
+      <c r="C9" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="40"/>
+      <c r="AE9" s="40"/>
+      <c r="AF9" s="40"/>
+      <c r="AG9" s="40"/>
+      <c r="AH9" s="40"/>
+      <c r="AI9" s="40"/>
+      <c r="AJ9" s="40"/>
+      <c r="AK9" s="40"/>
+      <c r="AL9" s="40"/>
+      <c r="AM9" s="40"/>
+      <c r="AN9" s="40"/>
+      <c r="AO9" s="40"/>
+      <c r="AP9" s="40"/>
+      <c r="AQ9" s="40"/>
+      <c r="AR9" s="40"/>
+      <c r="AS9" s="40"/>
+      <c r="AT9" s="40"/>
+      <c r="AU9" s="40"/>
+      <c r="AV9" s="40"/>
+      <c r="AW9" s="40"/>
+      <c r="AX9" s="40"/>
+      <c r="AY9" s="40"/>
+      <c r="AZ9" s="40"/>
+      <c r="BA9" s="40"/>
+      <c r="BB9" s="40"/>
+      <c r="BC9" s="40"/>
+      <c r="BD9" s="40"/>
+      <c r="BE9" s="40"/>
+      <c r="BF9" s="40"/>
+      <c r="BG9" s="40"/>
+      <c r="BH9" s="40"/>
+      <c r="BI9" s="40"/>
+      <c r="BJ9" s="40"/>
+      <c r="BK9" s="40"/>
+    </row>
+    <row r="10" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="34">
+        <v>6</v>
+      </c>
+      <c r="B10" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="K8" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
-      <c r="S8" s="36"/>
-      <c r="T8" s="36"/>
-      <c r="U8" s="36"/>
-      <c r="V8" s="36"/>
-      <c r="W8" s="36"/>
-      <c r="X8" s="36"/>
-      <c r="Y8" s="36"/>
-      <c r="Z8" s="36"/>
-      <c r="AA8" s="36"/>
-      <c r="AB8" s="42"/>
-      <c r="AC8" s="42"/>
-      <c r="AD8" s="42"/>
-      <c r="AE8" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="42"/>
-      <c r="AH8" s="42"/>
-      <c r="AI8" s="42"/>
-      <c r="AJ8" s="42"/>
-      <c r="AK8" s="42"/>
-      <c r="AL8" s="42"/>
-      <c r="AM8" s="42"/>
-      <c r="AN8" s="42"/>
-      <c r="AO8" s="42"/>
-      <c r="AP8" s="42"/>
-      <c r="AQ8" s="42"/>
-      <c r="AR8" s="42"/>
-      <c r="AS8" s="42"/>
-      <c r="AT8" s="42"/>
-      <c r="AU8" s="42"/>
-      <c r="AV8" s="42"/>
-      <c r="AW8" s="42"/>
-      <c r="AX8" s="42"/>
-      <c r="AY8" s="42"/>
-      <c r="AZ8" s="42"/>
-      <c r="BA8" s="42"/>
-      <c r="BB8" s="42"/>
-      <c r="BC8" s="42"/>
-      <c r="BD8" s="42"/>
-      <c r="BE8" s="42"/>
-      <c r="BF8" s="42"/>
-      <c r="BG8" s="42"/>
-      <c r="BH8" s="42"/>
-      <c r="BI8" s="42"/>
-      <c r="BJ8" s="42"/>
-      <c r="BK8" s="42"/>
-    </row>
-    <row r="9" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36">
-        <v>5</v>
-      </c>
-      <c r="B9" s="37" t="s">
+      <c r="C10" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="40"/>
+      <c r="AE10" s="40"/>
+      <c r="AF10" s="40"/>
+      <c r="AG10" s="40"/>
+      <c r="AH10" s="40"/>
+      <c r="AI10" s="40"/>
+      <c r="AJ10" s="40"/>
+      <c r="AK10" s="40"/>
+      <c r="AL10" s="40"/>
+      <c r="AM10" s="40"/>
+      <c r="AN10" s="40"/>
+      <c r="AO10" s="40"/>
+      <c r="AP10" s="40"/>
+      <c r="AQ10" s="40"/>
+      <c r="AR10" s="40"/>
+      <c r="AS10" s="40"/>
+      <c r="AT10" s="40"/>
+      <c r="AU10" s="40"/>
+      <c r="AV10" s="40"/>
+      <c r="AW10" s="40"/>
+      <c r="AX10" s="40"/>
+      <c r="AY10" s="40"/>
+      <c r="AZ10" s="40"/>
+      <c r="BA10" s="40"/>
+      <c r="BB10" s="40"/>
+      <c r="BC10" s="40"/>
+      <c r="BD10" s="40"/>
+      <c r="BE10" s="40"/>
+      <c r="BF10" s="40"/>
+      <c r="BG10" s="40"/>
+      <c r="BH10" s="40"/>
+      <c r="BI10" s="40"/>
+      <c r="BJ10" s="40"/>
+      <c r="BK10" s="40"/>
+    </row>
+    <row r="11" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="34">
+        <v>7</v>
+      </c>
+      <c r="B11" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C11" s="36">
+        <v>35773</v>
+      </c>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="40"/>
+      <c r="AE11" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="40"/>
+      <c r="AH11" s="40"/>
+      <c r="AI11" s="40"/>
+      <c r="AJ11" s="40"/>
+      <c r="AK11" s="40"/>
+      <c r="AL11" s="40"/>
+      <c r="AM11" s="40"/>
+      <c r="AN11" s="40"/>
+      <c r="AO11" s="40"/>
+      <c r="AP11" s="40"/>
+      <c r="AQ11" s="40"/>
+      <c r="AR11" s="40"/>
+      <c r="AS11" s="40"/>
+      <c r="AT11" s="40"/>
+      <c r="AU11" s="40"/>
+      <c r="AV11" s="40"/>
+      <c r="AW11" s="40"/>
+      <c r="AX11" s="40"/>
+      <c r="AY11" s="40"/>
+      <c r="AZ11" s="40"/>
+      <c r="BA11" s="40"/>
+      <c r="BB11" s="40"/>
+      <c r="BC11" s="40"/>
+      <c r="BD11" s="40"/>
+      <c r="BE11" s="40"/>
+      <c r="BF11" s="40"/>
+      <c r="BG11" s="40"/>
+      <c r="BH11" s="40"/>
+      <c r="BI11" s="40"/>
+      <c r="BJ11" s="40"/>
+      <c r="BK11" s="40"/>
+    </row>
+    <row r="12" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="34">
+        <v>8</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="K9" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="36"/>
-      <c r="V9" s="36"/>
-      <c r="W9" s="36"/>
-      <c r="X9" s="36"/>
-      <c r="Y9" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="42"/>
-      <c r="AE9" s="42"/>
-      <c r="AF9" s="42"/>
-      <c r="AG9" s="42"/>
-      <c r="AH9" s="42"/>
-      <c r="AI9" s="42"/>
-      <c r="AJ9" s="42"/>
-      <c r="AK9" s="42"/>
-      <c r="AL9" s="42"/>
-      <c r="AM9" s="42"/>
-      <c r="AN9" s="42"/>
-      <c r="AO9" s="42"/>
-      <c r="AP9" s="42"/>
-      <c r="AQ9" s="42"/>
-      <c r="AR9" s="42"/>
-      <c r="AS9" s="42"/>
-      <c r="AT9" s="42"/>
-      <c r="AU9" s="42"/>
-      <c r="AV9" s="42"/>
-      <c r="AW9" s="42"/>
-      <c r="AX9" s="42"/>
-      <c r="AY9" s="42"/>
-      <c r="AZ9" s="42"/>
-      <c r="BA9" s="42"/>
-      <c r="BB9" s="42"/>
-      <c r="BC9" s="42"/>
-      <c r="BD9" s="42"/>
-      <c r="BE9" s="42"/>
-      <c r="BF9" s="42"/>
-      <c r="BG9" s="42"/>
-      <c r="BH9" s="42"/>
-      <c r="BI9" s="42"/>
-      <c r="BJ9" s="42"/>
-      <c r="BK9" s="42"/>
-    </row>
-    <row r="10" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36">
-        <v>6</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="36"/>
-      <c r="W10" s="36"/>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="36"/>
-      <c r="AB10" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="42"/>
-      <c r="AE10" s="42"/>
-      <c r="AF10" s="42"/>
-      <c r="AG10" s="42"/>
-      <c r="AH10" s="42"/>
-      <c r="AI10" s="42"/>
-      <c r="AJ10" s="42"/>
-      <c r="AK10" s="42"/>
-      <c r="AL10" s="42"/>
-      <c r="AM10" s="42"/>
-      <c r="AN10" s="42"/>
-      <c r="AO10" s="42"/>
-      <c r="AP10" s="42"/>
-      <c r="AQ10" s="42"/>
-      <c r="AR10" s="42"/>
-      <c r="AS10" s="42"/>
-      <c r="AT10" s="42"/>
-      <c r="AU10" s="42"/>
-      <c r="AV10" s="42"/>
-      <c r="AW10" s="42"/>
-      <c r="AX10" s="42"/>
-      <c r="AY10" s="42"/>
-      <c r="AZ10" s="42"/>
-      <c r="BA10" s="42"/>
-      <c r="BB10" s="42"/>
-      <c r="BC10" s="42"/>
-      <c r="BD10" s="42"/>
-      <c r="BE10" s="42"/>
-      <c r="BF10" s="42"/>
-      <c r="BG10" s="42"/>
-      <c r="BH10" s="42"/>
-      <c r="BI10" s="42"/>
-      <c r="BJ10" s="42"/>
-      <c r="BK10" s="42"/>
-    </row>
-    <row r="11" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36">
-        <v>7</v>
-      </c>
-      <c r="B11" s="37" t="s">
+      <c r="D12" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="34"/>
+      <c r="Y12" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="40"/>
+      <c r="AE12" s="40"/>
+      <c r="AF12" s="40"/>
+      <c r="AG12" s="40"/>
+      <c r="AH12" s="40"/>
+      <c r="AI12" s="40"/>
+      <c r="AJ12" s="40"/>
+      <c r="AK12" s="40"/>
+      <c r="AL12" s="40"/>
+      <c r="AM12" s="40"/>
+      <c r="AN12" s="40"/>
+      <c r="AO12" s="40"/>
+      <c r="AP12" s="40"/>
+      <c r="AQ12" s="40"/>
+      <c r="AR12" s="40"/>
+      <c r="AS12" s="40"/>
+      <c r="AT12" s="40"/>
+      <c r="AU12" s="40"/>
+      <c r="AV12" s="40"/>
+      <c r="AW12" s="40"/>
+      <c r="AX12" s="40"/>
+      <c r="AY12" s="40"/>
+      <c r="AZ12" s="40"/>
+      <c r="BA12" s="40"/>
+      <c r="BB12" s="40"/>
+      <c r="BC12" s="40"/>
+      <c r="BD12" s="40"/>
+      <c r="BE12" s="40"/>
+      <c r="BF12" s="40"/>
+      <c r="BG12" s="40"/>
+      <c r="BH12" s="40"/>
+      <c r="BI12" s="40"/>
+      <c r="BJ12" s="40"/>
+      <c r="BK12" s="40"/>
+    </row>
+    <row r="13" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="34">
+        <v>9</v>
+      </c>
+      <c r="B13" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="38">
-        <v>35773</v>
-      </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="36"/>
-      <c r="W11" s="36"/>
-      <c r="X11" s="36"/>
-      <c r="Y11" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="42"/>
-      <c r="AE11" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="42"/>
-      <c r="AH11" s="42"/>
-      <c r="AI11" s="42"/>
-      <c r="AJ11" s="42"/>
-      <c r="AK11" s="42"/>
-      <c r="AL11" s="42"/>
-      <c r="AM11" s="42"/>
-      <c r="AN11" s="42"/>
-      <c r="AO11" s="42"/>
-      <c r="AP11" s="42"/>
-      <c r="AQ11" s="42"/>
-      <c r="AR11" s="42"/>
-      <c r="AS11" s="42"/>
-      <c r="AT11" s="42"/>
-      <c r="AU11" s="42"/>
-      <c r="AV11" s="42"/>
-      <c r="AW11" s="42"/>
-      <c r="AX11" s="42"/>
-      <c r="AY11" s="42"/>
-      <c r="AZ11" s="42"/>
-      <c r="BA11" s="42"/>
-      <c r="BB11" s="42"/>
-      <c r="BC11" s="42"/>
-      <c r="BD11" s="42"/>
-      <c r="BE11" s="42"/>
-      <c r="BF11" s="42"/>
-      <c r="BG11" s="42"/>
-      <c r="BH11" s="42"/>
-      <c r="BI11" s="42"/>
-      <c r="BJ11" s="42"/>
-      <c r="BK11" s="42"/>
-    </row>
-    <row r="12" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36">
-        <v>8</v>
-      </c>
-      <c r="B12" s="37" t="s">
+      <c r="C13" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="34"/>
+      <c r="AB13" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="40"/>
+      <c r="AE13" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="40"/>
+      <c r="AH13" s="40"/>
+      <c r="AI13" s="40"/>
+      <c r="AJ13" s="40"/>
+      <c r="AK13" s="40"/>
+      <c r="AL13" s="40"/>
+      <c r="AM13" s="40"/>
+      <c r="AN13" s="40"/>
+      <c r="AO13" s="40"/>
+      <c r="AP13" s="40"/>
+      <c r="AQ13" s="40"/>
+      <c r="AR13" s="40"/>
+      <c r="AS13" s="40"/>
+      <c r="AT13" s="40"/>
+      <c r="AU13" s="40"/>
+      <c r="AV13" s="40"/>
+      <c r="AW13" s="40"/>
+      <c r="AX13" s="40"/>
+      <c r="AY13" s="40"/>
+      <c r="AZ13" s="40"/>
+      <c r="BA13" s="40"/>
+      <c r="BB13" s="40"/>
+      <c r="BC13" s="40"/>
+      <c r="BD13" s="40"/>
+      <c r="BE13" s="40"/>
+      <c r="BF13" s="40"/>
+      <c r="BG13" s="40"/>
+      <c r="BH13" s="40"/>
+      <c r="BI13" s="40"/>
+      <c r="BJ13" s="40"/>
+      <c r="BK13" s="40"/>
+    </row>
+    <row r="14" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="34">
+        <v>10</v>
+      </c>
+      <c r="B14" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="36"/>
-      <c r="W12" s="36"/>
-      <c r="X12" s="36"/>
-      <c r="Y12" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="42"/>
-      <c r="AE12" s="42"/>
-      <c r="AF12" s="42"/>
-      <c r="AG12" s="42"/>
-      <c r="AH12" s="42"/>
-      <c r="AI12" s="42"/>
-      <c r="AJ12" s="42"/>
-      <c r="AK12" s="42"/>
-      <c r="AL12" s="42"/>
-      <c r="AM12" s="42"/>
-      <c r="AN12" s="42"/>
-      <c r="AO12" s="42"/>
-      <c r="AP12" s="42"/>
-      <c r="AQ12" s="42"/>
-      <c r="AR12" s="42"/>
-      <c r="AS12" s="42"/>
-      <c r="AT12" s="42"/>
-      <c r="AU12" s="42"/>
-      <c r="AV12" s="42"/>
-      <c r="AW12" s="42"/>
-      <c r="AX12" s="42"/>
-      <c r="AY12" s="42"/>
-      <c r="AZ12" s="42"/>
-      <c r="BA12" s="42"/>
-      <c r="BB12" s="42"/>
-      <c r="BC12" s="42"/>
-      <c r="BD12" s="42"/>
-      <c r="BE12" s="42"/>
-      <c r="BF12" s="42"/>
-      <c r="BG12" s="42"/>
-      <c r="BH12" s="42"/>
-      <c r="BI12" s="42"/>
-      <c r="BJ12" s="42"/>
-      <c r="BK12" s="42"/>
-    </row>
-    <row r="13" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36">
-        <v>9</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="36"/>
-      <c r="W13" s="36"/>
-      <c r="X13" s="36"/>
-      <c r="Y13" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="36"/>
-      <c r="AB13" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="42"/>
-      <c r="AE13" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="42"/>
-      <c r="AH13" s="42"/>
-      <c r="AI13" s="42"/>
-      <c r="AJ13" s="42"/>
-      <c r="AK13" s="42"/>
-      <c r="AL13" s="42"/>
-      <c r="AM13" s="42"/>
-      <c r="AN13" s="42"/>
-      <c r="AO13" s="42"/>
-      <c r="AP13" s="42"/>
-      <c r="AQ13" s="42"/>
-      <c r="AR13" s="42"/>
-      <c r="AS13" s="42"/>
-      <c r="AT13" s="42"/>
-      <c r="AU13" s="42"/>
-      <c r="AV13" s="42"/>
-      <c r="AW13" s="42"/>
-      <c r="AX13" s="42"/>
-      <c r="AY13" s="42"/>
-      <c r="AZ13" s="42"/>
-      <c r="BA13" s="42"/>
-      <c r="BB13" s="42"/>
-      <c r="BC13" s="42"/>
-      <c r="BD13" s="42"/>
-      <c r="BE13" s="42"/>
-      <c r="BF13" s="42"/>
-      <c r="BG13" s="42"/>
-      <c r="BH13" s="42"/>
-      <c r="BI13" s="42"/>
-      <c r="BJ13" s="42"/>
-      <c r="BK13" s="42"/>
-    </row>
-    <row r="14" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36">
-        <v>10</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="36"/>
-      <c r="X14" s="36"/>
-      <c r="Y14" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="36"/>
-      <c r="AB14" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="42"/>
-      <c r="AE14" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="42"/>
-      <c r="AH14" s="42"/>
-      <c r="AI14" s="42"/>
-      <c r="AJ14" s="42"/>
-      <c r="AK14" s="42"/>
-      <c r="AL14" s="42"/>
-      <c r="AM14" s="42"/>
-      <c r="AN14" s="42"/>
-      <c r="AO14" s="42"/>
-      <c r="AP14" s="42"/>
-      <c r="AQ14" s="42"/>
-      <c r="AR14" s="42"/>
-      <c r="AS14" s="42"/>
-      <c r="AT14" s="42"/>
-      <c r="AU14" s="42"/>
-      <c r="AV14" s="42"/>
-      <c r="AW14" s="42"/>
-      <c r="AX14" s="42"/>
-      <c r="AY14" s="42"/>
-      <c r="AZ14" s="42"/>
-      <c r="BA14" s="42"/>
-      <c r="BB14" s="42"/>
-      <c r="BC14" s="42"/>
-      <c r="BD14" s="42"/>
-      <c r="BE14" s="42"/>
-      <c r="BF14" s="42"/>
-      <c r="BG14" s="42"/>
-      <c r="BH14" s="42"/>
-      <c r="BI14" s="42"/>
-      <c r="BJ14" s="42"/>
-      <c r="BK14" s="42"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="34"/>
+      <c r="AB14" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="40"/>
+      <c r="AE14" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="40"/>
+      <c r="AH14" s="40"/>
+      <c r="AI14" s="40"/>
+      <c r="AJ14" s="40"/>
+      <c r="AK14" s="40"/>
+      <c r="AL14" s="40"/>
+      <c r="AM14" s="40"/>
+      <c r="AN14" s="40"/>
+      <c r="AO14" s="40"/>
+      <c r="AP14" s="40"/>
+      <c r="AQ14" s="40"/>
+      <c r="AR14" s="40"/>
+      <c r="AS14" s="40"/>
+      <c r="AT14" s="40"/>
+      <c r="AU14" s="40"/>
+      <c r="AV14" s="40"/>
+      <c r="AW14" s="40"/>
+      <c r="AX14" s="40"/>
+      <c r="AY14" s="40"/>
+      <c r="AZ14" s="40"/>
+      <c r="BA14" s="40"/>
+      <c r="BB14" s="40"/>
+      <c r="BC14" s="40"/>
+      <c r="BD14" s="40"/>
+      <c r="BE14" s="40"/>
+      <c r="BF14" s="40"/>
+      <c r="BG14" s="40"/>
+      <c r="BH14" s="40"/>
+      <c r="BI14" s="40"/>
+      <c r="BJ14" s="40"/>
+      <c r="BK14" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BK3"/>
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="AT3:AV3"/>
+    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="AN3:AP3"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="A3:A4"/>
@@ -4595,18 +4520,6 @@
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:U3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AK3:AM3"/>
-    <mergeCell ref="AN3:AP3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BK3"/>
-    <mergeCell ref="AQ3:AS3"/>
-    <mergeCell ref="AT3:AV3"/>
-    <mergeCell ref="AW3:AY3"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="BC3:BE3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TOEIC 300-500 K1" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="81">
   <si>
     <t>x</t>
   </si>
@@ -258,6 +258,9 @@
   </si>
   <si>
     <t>31/3 - Lesson 9</t>
+  </si>
+  <si>
+    <t>3/4 - Lesson 10</t>
   </si>
 </sst>
 </file>
@@ -2644,7 +2647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -3353,8 +3356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AI13" sqref="AI13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AE7" sqref="AE7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3437,7 +3440,9 @@
       </c>
       <c r="AF3" s="45"/>
       <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
+      <c r="AH3" s="45" t="s">
+        <v>80</v>
+      </c>
       <c r="AI3" s="45"/>
       <c r="AJ3" s="45"/>
       <c r="AK3" s="45"/>
@@ -3700,15 +3705,29 @@
       <c r="Z5" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="39"/>
+      <c r="AA5" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="39" t="s">
+        <v>0</v>
+      </c>
       <c r="AC5" s="39"/>
       <c r="AD5" s="39"/>
-      <c r="AE5" s="39"/>
-      <c r="AF5" s="39"/>
-      <c r="AG5" s="39"/>
-      <c r="AH5" s="39"/>
-      <c r="AI5" s="39"/>
+      <c r="AE5" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="39" t="s">
+        <v>0</v>
+      </c>
       <c r="AJ5" s="39"/>
       <c r="AK5" s="39"/>
       <c r="AL5" s="39"/>
@@ -3794,9 +3813,15 @@
       </c>
       <c r="AF6" s="40"/>
       <c r="AG6" s="40"/>
-      <c r="AH6" s="40"/>
-      <c r="AI6" s="40"/>
-      <c r="AJ6" s="40"/>
+      <c r="AH6" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="40" t="s">
+        <v>0</v>
+      </c>
       <c r="AK6" s="40"/>
       <c r="AL6" s="40"/>
       <c r="AM6" s="40"/>
@@ -4041,9 +4066,15 @@
       <c r="AE9" s="40"/>
       <c r="AF9" s="40"/>
       <c r="AG9" s="40"/>
-      <c r="AH9" s="40"/>
-      <c r="AI9" s="40"/>
-      <c r="AJ9" s="40"/>
+      <c r="AH9" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="40" t="s">
+        <v>0</v>
+      </c>
       <c r="AK9" s="40"/>
       <c r="AL9" s="40"/>
       <c r="AM9" s="40"/>
@@ -4121,11 +4152,19 @@
         <v>0</v>
       </c>
       <c r="AD10" s="40"/>
-      <c r="AE10" s="40"/>
-      <c r="AF10" s="40"/>
+      <c r="AE10" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="40" t="s">
+        <v>0</v>
+      </c>
       <c r="AG10" s="40"/>
-      <c r="AH10" s="40"/>
-      <c r="AI10" s="40"/>
+      <c r="AH10" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="40" t="s">
+        <v>0</v>
+      </c>
       <c r="AJ10" s="40"/>
       <c r="AK10" s="40"/>
       <c r="AL10" s="40"/>
@@ -4213,9 +4252,15 @@
         <v>0</v>
       </c>
       <c r="AG11" s="40"/>
-      <c r="AH11" s="40"/>
-      <c r="AI11" s="40"/>
-      <c r="AJ11" s="40"/>
+      <c r="AH11" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="40" t="s">
+        <v>0</v>
+      </c>
       <c r="AK11" s="40"/>
       <c r="AL11" s="40"/>
       <c r="AM11" s="40"/>
@@ -4300,9 +4345,15 @@
       <c r="AE12" s="40"/>
       <c r="AF12" s="40"/>
       <c r="AG12" s="40"/>
-      <c r="AH12" s="40"/>
-      <c r="AI12" s="40"/>
-      <c r="AJ12" s="40"/>
+      <c r="AH12" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="40" t="s">
+        <v>0</v>
+      </c>
       <c r="AK12" s="40"/>
       <c r="AL12" s="40"/>
       <c r="AM12" s="40"/>
@@ -4383,9 +4434,15 @@
         <v>0</v>
       </c>
       <c r="AG13" s="40"/>
-      <c r="AH13" s="40"/>
-      <c r="AI13" s="40"/>
-      <c r="AJ13" s="40"/>
+      <c r="AH13" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="40" t="s">
+        <v>0</v>
+      </c>
       <c r="AK13" s="40"/>
       <c r="AL13" s="40"/>
       <c r="AM13" s="40"/>
@@ -4464,9 +4521,15 @@
         <v>0</v>
       </c>
       <c r="AG14" s="40"/>
-      <c r="AH14" s="40"/>
-      <c r="AI14" s="40"/>
-      <c r="AJ14" s="40"/>
+      <c r="AH14" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="40" t="s">
+        <v>0</v>
+      </c>
       <c r="AK14" s="40"/>
       <c r="AL14" s="40"/>
       <c r="AM14" s="40"/>
@@ -4497,18 +4560,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BK3"/>
-    <mergeCell ref="AQ3:AS3"/>
-    <mergeCell ref="AT3:AV3"/>
-    <mergeCell ref="AW3:AY3"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AK3:AM3"/>
-    <mergeCell ref="AN3:AP3"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="A3:A4"/>
@@ -4520,6 +4571,18 @@
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:U3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="AN3:AP3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BK3"/>
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="AT3:AV3"/>
+    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="BC3:BE3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="83">
   <si>
     <t>x</t>
   </si>
@@ -261,6 +261,12 @@
   </si>
   <si>
     <t>3/4 - Lesson 10</t>
+  </si>
+  <si>
+    <t>5/4 - Lesson 11</t>
+  </si>
+  <si>
+    <t>7/4 - Lesson 12</t>
   </si>
 </sst>
 </file>
@@ -355,7 +361,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -430,6 +436,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -468,7 +480,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -584,6 +596,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
@@ -3357,7 +3377,7 @@
   <dimension ref="A1:BK14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE7" sqref="AE7"/>
+      <selection activeCell="AP6" sqref="AP6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3369,7 +3389,11 @@
     <col min="25" max="32" width="5.5703125" customWidth="1"/>
     <col min="33" max="33" width="6.5703125" customWidth="1"/>
     <col min="34" max="36" width="5.5703125" customWidth="1"/>
-    <col min="37" max="67" width="5.42578125" customWidth="1"/>
+    <col min="37" max="38" width="5.42578125" customWidth="1"/>
+    <col min="39" max="39" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="5.42578125" customWidth="1"/>
+    <col min="42" max="42" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="67" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:63" ht="26.25" x14ac:dyDescent="0.4">
@@ -3445,10 +3469,14 @@
       </c>
       <c r="AI3" s="45"/>
       <c r="AJ3" s="45"/>
-      <c r="AK3" s="45"/>
+      <c r="AK3" s="45" t="s">
+        <v>81</v>
+      </c>
       <c r="AL3" s="45"/>
       <c r="AM3" s="45"/>
-      <c r="AN3" s="45"/>
+      <c r="AN3" s="45" t="s">
+        <v>82</v>
+      </c>
       <c r="AO3" s="45"/>
       <c r="AP3" s="45"/>
       <c r="AQ3" s="45"/>
@@ -3729,12 +3757,24 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="39"/>
-      <c r="AK5" s="39"/>
-      <c r="AL5" s="39"/>
-      <c r="AM5" s="39"/>
-      <c r="AN5" s="39"/>
-      <c r="AO5" s="39"/>
-      <c r="AP5" s="39"/>
+      <c r="AK5" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="39" t="s">
+        <v>0</v>
+      </c>
       <c r="AQ5" s="39"/>
       <c r="AR5" s="39"/>
       <c r="AS5" s="39"/>
@@ -3822,11 +3862,21 @@
       <c r="AJ6" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="AK6" s="40"/>
-      <c r="AL6" s="40"/>
-      <c r="AM6" s="40"/>
-      <c r="AN6" s="40"/>
-      <c r="AO6" s="40"/>
+      <c r="AK6" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="40" t="s">
+        <v>0</v>
+      </c>
       <c r="AP6" s="40"/>
       <c r="AQ6" s="40"/>
       <c r="AR6" s="40"/>
@@ -3850,74 +3900,74 @@
       <c r="BJ6" s="40"/>
       <c r="BK6" s="40"/>
     </row>
-    <row r="7" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34">
+    <row r="7" spans="1:63" s="50" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="47">
         <v>3</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="34"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="34"/>
-      <c r="X7" s="34"/>
-      <c r="Y7" s="34"/>
-      <c r="Z7" s="34"/>
-      <c r="AA7" s="34"/>
-      <c r="AB7" s="40"/>
-      <c r="AC7" s="40"/>
-      <c r="AD7" s="40"/>
-      <c r="AE7" s="40"/>
-      <c r="AF7" s="40"/>
-      <c r="AG7" s="40"/>
-      <c r="AH7" s="40"/>
-      <c r="AI7" s="40"/>
-      <c r="AJ7" s="40"/>
-      <c r="AK7" s="40"/>
-      <c r="AL7" s="40"/>
-      <c r="AM7" s="40"/>
-      <c r="AN7" s="40"/>
-      <c r="AO7" s="40"/>
-      <c r="AP7" s="40"/>
-      <c r="AQ7" s="40"/>
-      <c r="AR7" s="40"/>
-      <c r="AS7" s="40"/>
-      <c r="AT7" s="40"/>
-      <c r="AU7" s="40"/>
-      <c r="AV7" s="40"/>
-      <c r="AW7" s="40"/>
-      <c r="AX7" s="40"/>
-      <c r="AY7" s="40"/>
-      <c r="AZ7" s="40"/>
-      <c r="BA7" s="40"/>
-      <c r="BB7" s="40"/>
-      <c r="BC7" s="40"/>
-      <c r="BD7" s="40"/>
-      <c r="BE7" s="40"/>
-      <c r="BF7" s="40"/>
-      <c r="BG7" s="40"/>
-      <c r="BH7" s="40"/>
-      <c r="BI7" s="40"/>
-      <c r="BJ7" s="40"/>
-      <c r="BK7" s="40"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="47"/>
+      <c r="X7" s="47"/>
+      <c r="Y7" s="47"/>
+      <c r="Z7" s="47"/>
+      <c r="AA7" s="47"/>
+      <c r="AB7" s="49"/>
+      <c r="AC7" s="49"/>
+      <c r="AD7" s="49"/>
+      <c r="AE7" s="49"/>
+      <c r="AF7" s="49"/>
+      <c r="AG7" s="49"/>
+      <c r="AH7" s="49"/>
+      <c r="AI7" s="49"/>
+      <c r="AJ7" s="49"/>
+      <c r="AK7" s="49"/>
+      <c r="AL7" s="49"/>
+      <c r="AM7" s="49"/>
+      <c r="AN7" s="49"/>
+      <c r="AO7" s="49"/>
+      <c r="AP7" s="49"/>
+      <c r="AQ7" s="49"/>
+      <c r="AR7" s="49"/>
+      <c r="AS7" s="49"/>
+      <c r="AT7" s="49"/>
+      <c r="AU7" s="49"/>
+      <c r="AV7" s="49"/>
+      <c r="AW7" s="49"/>
+      <c r="AX7" s="49"/>
+      <c r="AY7" s="49"/>
+      <c r="AZ7" s="49"/>
+      <c r="BA7" s="49"/>
+      <c r="BB7" s="49"/>
+      <c r="BC7" s="49"/>
+      <c r="BD7" s="49"/>
+      <c r="BE7" s="49"/>
+      <c r="BF7" s="49"/>
+      <c r="BG7" s="49"/>
+      <c r="BH7" s="49"/>
+      <c r="BI7" s="49"/>
+      <c r="BJ7" s="49"/>
+      <c r="BK7" s="49"/>
     </row>
     <row r="8" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="34">
@@ -3981,8 +4031,12 @@
       <c r="AK8" s="40"/>
       <c r="AL8" s="40"/>
       <c r="AM8" s="40"/>
-      <c r="AN8" s="40"/>
-      <c r="AO8" s="40"/>
+      <c r="AN8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="40" t="s">
+        <v>0</v>
+      </c>
       <c r="AP8" s="40"/>
       <c r="AQ8" s="40"/>
       <c r="AR8" s="40"/>
@@ -4075,9 +4129,15 @@
       <c r="AJ9" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="AK9" s="40"/>
-      <c r="AL9" s="40"/>
-      <c r="AM9" s="40"/>
+      <c r="AK9" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="40" t="s">
+        <v>0</v>
+      </c>
       <c r="AN9" s="40"/>
       <c r="AO9" s="40"/>
       <c r="AP9" s="40"/>
@@ -4166,11 +4226,19 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="40"/>
-      <c r="AK10" s="40"/>
-      <c r="AL10" s="40"/>
+      <c r="AK10" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="40" t="s">
+        <v>0</v>
+      </c>
       <c r="AM10" s="40"/>
-      <c r="AN10" s="40"/>
-      <c r="AO10" s="40"/>
+      <c r="AN10" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="40" t="s">
+        <v>0</v>
+      </c>
       <c r="AP10" s="40"/>
       <c r="AQ10" s="40"/>
       <c r="AR10" s="40"/>
@@ -4261,11 +4329,19 @@
       <c r="AJ11" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="AK11" s="40"/>
-      <c r="AL11" s="40"/>
+      <c r="AK11" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="40" t="s">
+        <v>0</v>
+      </c>
       <c r="AM11" s="40"/>
-      <c r="AN11" s="40"/>
-      <c r="AO11" s="40"/>
+      <c r="AN11" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="40" t="s">
+        <v>0</v>
+      </c>
       <c r="AP11" s="40"/>
       <c r="AQ11" s="40"/>
       <c r="AR11" s="40"/>
@@ -4289,98 +4365,98 @@
       <c r="BJ11" s="40"/>
       <c r="BK11" s="40"/>
     </row>
-    <row r="12" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34">
+    <row r="12" spans="1:63" s="50" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="47">
         <v>8</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="40"/>
-      <c r="AE12" s="40"/>
-      <c r="AF12" s="40"/>
-      <c r="AG12" s="40"/>
-      <c r="AH12" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="40"/>
-      <c r="AL12" s="40"/>
-      <c r="AM12" s="40"/>
-      <c r="AN12" s="40"/>
-      <c r="AO12" s="40"/>
-      <c r="AP12" s="40"/>
-      <c r="AQ12" s="40"/>
-      <c r="AR12" s="40"/>
-      <c r="AS12" s="40"/>
-      <c r="AT12" s="40"/>
-      <c r="AU12" s="40"/>
-      <c r="AV12" s="40"/>
-      <c r="AW12" s="40"/>
-      <c r="AX12" s="40"/>
-      <c r="AY12" s="40"/>
-      <c r="AZ12" s="40"/>
-      <c r="BA12" s="40"/>
-      <c r="BB12" s="40"/>
-      <c r="BC12" s="40"/>
-      <c r="BD12" s="40"/>
-      <c r="BE12" s="40"/>
-      <c r="BF12" s="40"/>
-      <c r="BG12" s="40"/>
-      <c r="BH12" s="40"/>
-      <c r="BI12" s="40"/>
-      <c r="BJ12" s="40"/>
-      <c r="BK12" s="40"/>
+      <c r="D12" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="47"/>
+      <c r="U12" s="47"/>
+      <c r="V12" s="47"/>
+      <c r="W12" s="47"/>
+      <c r="X12" s="47"/>
+      <c r="Y12" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="49"/>
+      <c r="AE12" s="49"/>
+      <c r="AF12" s="49"/>
+      <c r="AG12" s="49"/>
+      <c r="AH12" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="49"/>
+      <c r="AL12" s="49"/>
+      <c r="AM12" s="49"/>
+      <c r="AN12" s="49"/>
+      <c r="AO12" s="49"/>
+      <c r="AP12" s="49"/>
+      <c r="AQ12" s="49"/>
+      <c r="AR12" s="49"/>
+      <c r="AS12" s="49"/>
+      <c r="AT12" s="49"/>
+      <c r="AU12" s="49"/>
+      <c r="AV12" s="49"/>
+      <c r="AW12" s="49"/>
+      <c r="AX12" s="49"/>
+      <c r="AY12" s="49"/>
+      <c r="AZ12" s="49"/>
+      <c r="BA12" s="49"/>
+      <c r="BB12" s="49"/>
+      <c r="BC12" s="49"/>
+      <c r="BD12" s="49"/>
+      <c r="BE12" s="49"/>
+      <c r="BF12" s="49"/>
+      <c r="BG12" s="49"/>
+      <c r="BH12" s="49"/>
+      <c r="BI12" s="49"/>
+      <c r="BJ12" s="49"/>
+      <c r="BK12" s="49"/>
     </row>
     <row r="13" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="34">
@@ -4443,11 +4519,19 @@
       <c r="AJ13" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="AK13" s="40"/>
-      <c r="AL13" s="40"/>
+      <c r="AK13" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="40" t="s">
+        <v>0</v>
+      </c>
       <c r="AM13" s="40"/>
-      <c r="AN13" s="40"/>
-      <c r="AO13" s="40"/>
+      <c r="AN13" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="40" t="s">
+        <v>0</v>
+      </c>
       <c r="AP13" s="40"/>
       <c r="AQ13" s="40"/>
       <c r="AR13" s="40"/>
@@ -4530,12 +4614,24 @@
       <c r="AJ14" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="AK14" s="40"/>
-      <c r="AL14" s="40"/>
-      <c r="AM14" s="40"/>
-      <c r="AN14" s="40"/>
-      <c r="AO14" s="40"/>
-      <c r="AP14" s="40"/>
+      <c r="AK14" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="40">
+        <v>4</v>
+      </c>
       <c r="AQ14" s="40"/>
       <c r="AR14" s="40"/>
       <c r="AS14" s="40"/>
@@ -4560,6 +4656,18 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BK3"/>
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="AT3:AV3"/>
+    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="AN3:AP3"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="A3:A4"/>
@@ -4571,18 +4679,6 @@
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:U3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AK3:AM3"/>
-    <mergeCell ref="AN3:AP3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BK3"/>
-    <mergeCell ref="AQ3:AS3"/>
-    <mergeCell ref="AT3:AV3"/>
-    <mergeCell ref="AW3:AY3"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="BC3:BE3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="84">
   <si>
     <t>x</t>
   </si>
@@ -267,6 +267,9 @@
   </si>
   <si>
     <t>7/4 - Lesson 12</t>
+  </si>
+  <si>
+    <t>10/4 - Lesson13</t>
   </si>
 </sst>
 </file>
@@ -578,6 +581,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -596,14 +607,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
@@ -948,30 +951,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="43" t="s">
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="41" t="s">
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="P2" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="41" t="s">
+      <c r="Q2" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="R2" s="45" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1015,11 +1018,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -1272,30 +1275,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="43" t="s">
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="41" t="s">
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="P2" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="41" t="s">
+      <c r="Q2" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="44" t="s">
+      <c r="R2" s="48" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1339,11 +1342,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="44"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="48"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -2317,30 +2320,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="43" t="s">
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="41" t="s">
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="P2" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="41" t="s">
+      <c r="Q2" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="R2" s="45" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2384,11 +2387,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -2698,30 +2701,30 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="43" t="s">
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="41" t="s">
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="41" t="s">
+      <c r="Q2" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="R2" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="41" t="s">
+      <c r="S2" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="41" t="s">
+      <c r="T2" s="45" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2771,11 +2774,11 @@
       <c r="O3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
     </row>
     <row r="4" spans="1:20" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -3377,7 +3380,7 @@
   <dimension ref="A1:BK14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AP6" sqref="AP6"/>
+      <selection activeCell="AQ12" sqref="AQ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3393,7 +3396,9 @@
     <col min="39" max="39" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="40" max="41" width="5.42578125" customWidth="1"/>
     <col min="42" max="42" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="67" width="5.42578125" customWidth="1"/>
+    <col min="43" max="44" width="5.42578125" customWidth="1"/>
+    <col min="45" max="45" width="6.42578125" customWidth="1"/>
+    <col min="46" max="67" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:63" ht="26.25" x14ac:dyDescent="0.4">
@@ -3405,106 +3410,108 @@
       </c>
     </row>
     <row r="3" spans="1:63" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45" t="s">
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45" t="s">
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45" t="s">
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45" t="s">
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45" t="s">
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45" t="s">
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45" t="s">
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="45" t="s">
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="45"/>
-      <c r="AE3" s="45" t="s">
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45" t="s">
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="49"/>
+      <c r="AH3" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="45"/>
-      <c r="AK3" s="45" t="s">
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="45"/>
-      <c r="AN3" s="45" t="s">
+      <c r="AL3" s="49"/>
+      <c r="AM3" s="49"/>
+      <c r="AN3" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="AO3" s="45"/>
-      <c r="AP3" s="45"/>
-      <c r="AQ3" s="45"/>
-      <c r="AR3" s="45"/>
-      <c r="AS3" s="45"/>
-      <c r="AT3" s="45"/>
-      <c r="AU3" s="45"/>
-      <c r="AV3" s="45"/>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="45"/>
-      <c r="AY3" s="45"/>
-      <c r="AZ3" s="45"/>
-      <c r="BA3" s="45"/>
-      <c r="BB3" s="45"/>
-      <c r="BC3" s="45"/>
-      <c r="BD3" s="45"/>
-      <c r="BE3" s="45"/>
-      <c r="BF3" s="45"/>
-      <c r="BG3" s="45"/>
-      <c r="BH3" s="45"/>
-      <c r="BI3" s="45"/>
-      <c r="BJ3" s="45"/>
-      <c r="BK3" s="45"/>
+      <c r="AO3" s="49"/>
+      <c r="AP3" s="49"/>
+      <c r="AQ3" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR3" s="49"/>
+      <c r="AS3" s="49"/>
+      <c r="AT3" s="49"/>
+      <c r="AU3" s="49"/>
+      <c r="AV3" s="49"/>
+      <c r="AW3" s="49"/>
+      <c r="AX3" s="49"/>
+      <c r="AY3" s="49"/>
+      <c r="AZ3" s="49"/>
+      <c r="BA3" s="49"/>
+      <c r="BB3" s="49"/>
+      <c r="BC3" s="49"/>
+      <c r="BD3" s="49"/>
+      <c r="BE3" s="49"/>
+      <c r="BF3" s="49"/>
+      <c r="BG3" s="49"/>
+      <c r="BH3" s="49"/>
+      <c r="BI3" s="49"/>
+      <c r="BJ3" s="49"/>
+      <c r="BK3" s="49"/>
     </row>
     <row r="4" spans="1:63" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="34" t="s">
         <v>66</v>
       </c>
@@ -3775,9 +3782,15 @@
       <c r="AP5" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="AQ5" s="39"/>
-      <c r="AR5" s="39"/>
-      <c r="AS5" s="39"/>
+      <c r="AQ5" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="39" t="s">
+        <v>0</v>
+      </c>
       <c r="AT5" s="39"/>
       <c r="AU5" s="39"/>
       <c r="AV5" s="39"/>
@@ -3878,8 +3891,12 @@
         <v>0</v>
       </c>
       <c r="AP6" s="40"/>
-      <c r="AQ6" s="40"/>
-      <c r="AR6" s="40"/>
+      <c r="AQ6" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="40" t="s">
+        <v>0</v>
+      </c>
       <c r="AS6" s="40"/>
       <c r="AT6" s="40"/>
       <c r="AU6" s="40"/>
@@ -3900,74 +3917,74 @@
       <c r="BJ6" s="40"/>
       <c r="BK6" s="40"/>
     </row>
-    <row r="7" spans="1:63" s="50" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="47">
+    <row r="7" spans="1:63" s="44" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="41">
         <v>3</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="47"/>
-      <c r="T7" s="47"/>
-      <c r="U7" s="47"/>
-      <c r="V7" s="47"/>
-      <c r="W7" s="47"/>
-      <c r="X7" s="47"/>
-      <c r="Y7" s="47"/>
-      <c r="Z7" s="47"/>
-      <c r="AA7" s="47"/>
-      <c r="AB7" s="49"/>
-      <c r="AC7" s="49"/>
-      <c r="AD7" s="49"/>
-      <c r="AE7" s="49"/>
-      <c r="AF7" s="49"/>
-      <c r="AG7" s="49"/>
-      <c r="AH7" s="49"/>
-      <c r="AI7" s="49"/>
-      <c r="AJ7" s="49"/>
-      <c r="AK7" s="49"/>
-      <c r="AL7" s="49"/>
-      <c r="AM7" s="49"/>
-      <c r="AN7" s="49"/>
-      <c r="AO7" s="49"/>
-      <c r="AP7" s="49"/>
-      <c r="AQ7" s="49"/>
-      <c r="AR7" s="49"/>
-      <c r="AS7" s="49"/>
-      <c r="AT7" s="49"/>
-      <c r="AU7" s="49"/>
-      <c r="AV7" s="49"/>
-      <c r="AW7" s="49"/>
-      <c r="AX7" s="49"/>
-      <c r="AY7" s="49"/>
-      <c r="AZ7" s="49"/>
-      <c r="BA7" s="49"/>
-      <c r="BB7" s="49"/>
-      <c r="BC7" s="49"/>
-      <c r="BD7" s="49"/>
-      <c r="BE7" s="49"/>
-      <c r="BF7" s="49"/>
-      <c r="BG7" s="49"/>
-      <c r="BH7" s="49"/>
-      <c r="BI7" s="49"/>
-      <c r="BJ7" s="49"/>
-      <c r="BK7" s="49"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="41"/>
+      <c r="AB7" s="43"/>
+      <c r="AC7" s="43"/>
+      <c r="AD7" s="43"/>
+      <c r="AE7" s="43"/>
+      <c r="AF7" s="43"/>
+      <c r="AG7" s="43"/>
+      <c r="AH7" s="43"/>
+      <c r="AI7" s="43"/>
+      <c r="AJ7" s="43"/>
+      <c r="AK7" s="43"/>
+      <c r="AL7" s="43"/>
+      <c r="AM7" s="43"/>
+      <c r="AN7" s="43"/>
+      <c r="AO7" s="43"/>
+      <c r="AP7" s="43"/>
+      <c r="AQ7" s="43"/>
+      <c r="AR7" s="43"/>
+      <c r="AS7" s="43"/>
+      <c r="AT7" s="43"/>
+      <c r="AU7" s="43"/>
+      <c r="AV7" s="43"/>
+      <c r="AW7" s="43"/>
+      <c r="AX7" s="43"/>
+      <c r="AY7" s="43"/>
+      <c r="AZ7" s="43"/>
+      <c r="BA7" s="43"/>
+      <c r="BB7" s="43"/>
+      <c r="BC7" s="43"/>
+      <c r="BD7" s="43"/>
+      <c r="BE7" s="43"/>
+      <c r="BF7" s="43"/>
+      <c r="BG7" s="43"/>
+      <c r="BH7" s="43"/>
+      <c r="BI7" s="43"/>
+      <c r="BJ7" s="43"/>
+      <c r="BK7" s="43"/>
     </row>
     <row r="8" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="34">
@@ -4038,9 +4055,15 @@
         <v>0</v>
       </c>
       <c r="AP8" s="40"/>
-      <c r="AQ8" s="40"/>
-      <c r="AR8" s="40"/>
-      <c r="AS8" s="40"/>
+      <c r="AQ8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="40" t="s">
+        <v>0</v>
+      </c>
       <c r="AT8" s="40"/>
       <c r="AU8" s="40"/>
       <c r="AV8" s="40"/>
@@ -4141,8 +4164,12 @@
       <c r="AN9" s="40"/>
       <c r="AO9" s="40"/>
       <c r="AP9" s="40"/>
-      <c r="AQ9" s="40"/>
-      <c r="AR9" s="40"/>
+      <c r="AQ9" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="40" t="s">
+        <v>0</v>
+      </c>
       <c r="AS9" s="40"/>
       <c r="AT9" s="40"/>
       <c r="AU9" s="40"/>
@@ -4240,8 +4267,12 @@
         <v>0</v>
       </c>
       <c r="AP10" s="40"/>
-      <c r="AQ10" s="40"/>
-      <c r="AR10" s="40"/>
+      <c r="AQ10" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="40" t="s">
+        <v>0</v>
+      </c>
       <c r="AS10" s="40"/>
       <c r="AT10" s="40"/>
       <c r="AU10" s="40"/>
@@ -4343,9 +4374,15 @@
         <v>0</v>
       </c>
       <c r="AP11" s="40"/>
-      <c r="AQ11" s="40"/>
-      <c r="AR11" s="40"/>
-      <c r="AS11" s="40"/>
+      <c r="AQ11" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="40" t="s">
+        <v>0</v>
+      </c>
       <c r="AT11" s="40"/>
       <c r="AU11" s="40"/>
       <c r="AV11" s="40"/>
@@ -4365,98 +4402,98 @@
       <c r="BJ11" s="40"/>
       <c r="BK11" s="40"/>
     </row>
-    <row r="12" spans="1:63" s="50" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="47">
+    <row r="12" spans="1:63" s="44" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="41">
         <v>8</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="47"/>
-      <c r="S12" s="47"/>
-      <c r="T12" s="47"/>
-      <c r="U12" s="47"/>
-      <c r="V12" s="47"/>
-      <c r="W12" s="47"/>
-      <c r="X12" s="47"/>
-      <c r="Y12" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="49"/>
-      <c r="AE12" s="49"/>
-      <c r="AF12" s="49"/>
-      <c r="AG12" s="49"/>
-      <c r="AH12" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="49"/>
-      <c r="AL12" s="49"/>
-      <c r="AM12" s="49"/>
-      <c r="AN12" s="49"/>
-      <c r="AO12" s="49"/>
-      <c r="AP12" s="49"/>
-      <c r="AQ12" s="49"/>
-      <c r="AR12" s="49"/>
-      <c r="AS12" s="49"/>
-      <c r="AT12" s="49"/>
-      <c r="AU12" s="49"/>
-      <c r="AV12" s="49"/>
-      <c r="AW12" s="49"/>
-      <c r="AX12" s="49"/>
-      <c r="AY12" s="49"/>
-      <c r="AZ12" s="49"/>
-      <c r="BA12" s="49"/>
-      <c r="BB12" s="49"/>
-      <c r="BC12" s="49"/>
-      <c r="BD12" s="49"/>
-      <c r="BE12" s="49"/>
-      <c r="BF12" s="49"/>
-      <c r="BG12" s="49"/>
-      <c r="BH12" s="49"/>
-      <c r="BI12" s="49"/>
-      <c r="BJ12" s="49"/>
-      <c r="BK12" s="49"/>
+      <c r="D12" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="41"/>
+      <c r="V12" s="41"/>
+      <c r="W12" s="41"/>
+      <c r="X12" s="41"/>
+      <c r="Y12" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="43"/>
+      <c r="AE12" s="43"/>
+      <c r="AF12" s="43"/>
+      <c r="AG12" s="43"/>
+      <c r="AH12" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="43"/>
+      <c r="AL12" s="43"/>
+      <c r="AM12" s="43"/>
+      <c r="AN12" s="43"/>
+      <c r="AO12" s="43"/>
+      <c r="AP12" s="43"/>
+      <c r="AQ12" s="43"/>
+      <c r="AR12" s="43"/>
+      <c r="AS12" s="43"/>
+      <c r="AT12" s="43"/>
+      <c r="AU12" s="43"/>
+      <c r="AV12" s="43"/>
+      <c r="AW12" s="43"/>
+      <c r="AX12" s="43"/>
+      <c r="AY12" s="43"/>
+      <c r="AZ12" s="43"/>
+      <c r="BA12" s="43"/>
+      <c r="BB12" s="43"/>
+      <c r="BC12" s="43"/>
+      <c r="BD12" s="43"/>
+      <c r="BE12" s="43"/>
+      <c r="BF12" s="43"/>
+      <c r="BG12" s="43"/>
+      <c r="BH12" s="43"/>
+      <c r="BI12" s="43"/>
+      <c r="BJ12" s="43"/>
+      <c r="BK12" s="43"/>
     </row>
     <row r="13" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="34">
@@ -4533,8 +4570,12 @@
         <v>0</v>
       </c>
       <c r="AP13" s="40"/>
-      <c r="AQ13" s="40"/>
-      <c r="AR13" s="40"/>
+      <c r="AQ13" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="40" t="s">
+        <v>0</v>
+      </c>
       <c r="AS13" s="40"/>
       <c r="AT13" s="40"/>
       <c r="AU13" s="40"/>
@@ -4632,8 +4673,12 @@
       <c r="AP14" s="40">
         <v>4</v>
       </c>
-      <c r="AQ14" s="40"/>
-      <c r="AR14" s="40"/>
+      <c r="AQ14" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="40" t="s">
+        <v>0</v>
+      </c>
       <c r="AS14" s="40"/>
       <c r="AT14" s="40"/>
       <c r="AU14" s="40"/>
@@ -4656,18 +4701,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BK3"/>
-    <mergeCell ref="AQ3:AS3"/>
-    <mergeCell ref="AT3:AV3"/>
-    <mergeCell ref="AW3:AY3"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AK3:AM3"/>
-    <mergeCell ref="AN3:AP3"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="A3:A4"/>
@@ -4679,6 +4712,18 @@
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:U3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="AN3:AP3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BK3"/>
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="AT3:AV3"/>
+    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="BC3:BE3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="85">
   <si>
     <t>x</t>
   </si>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t>10/4 - Lesson13</t>
+  </si>
+  <si>
+    <t>12/4 - Lesson 14</t>
   </si>
 </sst>
 </file>
@@ -364,7 +367,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -439,12 +442,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -483,7 +480,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -581,14 +578,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -951,30 +940,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="47" t="s">
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="45" t="s">
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="45" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="45" t="s">
+      <c r="P2" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="45" t="s">
+      <c r="Q2" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="45" t="s">
+      <c r="R2" s="41" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1018,11 +1007,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -1275,30 +1264,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="47" t="s">
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="45" t="s">
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="45" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="45" t="s">
+      <c r="P2" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="45" t="s">
+      <c r="Q2" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="48" t="s">
+      <c r="R2" s="44" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1342,11 +1331,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="48"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="44"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -2320,30 +2309,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="47" t="s">
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="45" t="s">
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="45" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="45" t="s">
+      <c r="P2" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="45" t="s">
+      <c r="Q2" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="45" t="s">
+      <c r="R2" s="41" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2387,11 +2376,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -2701,30 +2690,30 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I2" s="46" t="s">
+      <c r="I2" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="47" t="s">
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="45" t="s">
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="45" t="s">
+      <c r="Q2" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="45" t="s">
+      <c r="R2" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="45" t="s">
+      <c r="S2" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="45" t="s">
+      <c r="T2" s="41" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2774,11 +2763,11 @@
       <c r="O3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
     </row>
     <row r="4" spans="1:20" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -3377,10 +3366,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BK14"/>
+  <dimension ref="A1:BK12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AQ12" sqref="AQ12"/>
+      <selection activeCell="AX10" sqref="AX10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3388,17 +3377,18 @@
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="26.5703125" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="24" width="5.5703125" hidden="1" customWidth="1"/>
-    <col min="25" max="32" width="5.5703125" customWidth="1"/>
-    <col min="33" max="33" width="6.5703125" customWidth="1"/>
-    <col min="34" max="36" width="5.5703125" customWidth="1"/>
-    <col min="37" max="38" width="5.42578125" customWidth="1"/>
-    <col min="39" max="39" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="5.42578125" customWidth="1"/>
-    <col min="42" max="42" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" width="5.42578125" customWidth="1"/>
-    <col min="45" max="45" width="6.42578125" customWidth="1"/>
-    <col min="46" max="67" width="5.42578125" customWidth="1"/>
+    <col min="4" max="32" width="5.5703125" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="6.5703125" hidden="1" customWidth="1"/>
+    <col min="34" max="36" width="5.5703125" hidden="1" customWidth="1"/>
+    <col min="37" max="38" width="5.42578125" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="5.7109375" hidden="1" customWidth="1"/>
+    <col min="40" max="41" width="5.42578125" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="5.7109375" hidden="1" customWidth="1"/>
+    <col min="43" max="44" width="5.42578125" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="6.42578125" hidden="1" customWidth="1"/>
+    <col min="46" max="47" width="5.42578125" customWidth="1"/>
+    <col min="48" max="48" width="7.28515625" customWidth="1"/>
+    <col min="49" max="67" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:63" ht="26.25" x14ac:dyDescent="0.4">
@@ -3410,108 +3400,110 @@
       </c>
     </row>
     <row r="3" spans="1:63" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49" t="s">
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49" t="s">
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49" t="s">
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49" t="s">
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49" t="s">
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49" t="s">
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="49" t="s">
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="49"/>
-      <c r="AB3" s="49" t="s">
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="AC3" s="49"/>
-      <c r="AD3" s="49"/>
-      <c r="AE3" s="49" t="s">
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="AF3" s="49"/>
-      <c r="AG3" s="49"/>
-      <c r="AH3" s="49" t="s">
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="49"/>
-      <c r="AK3" s="49" t="s">
+      <c r="AI3" s="45"/>
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="AL3" s="49"/>
-      <c r="AM3" s="49"/>
-      <c r="AN3" s="49" t="s">
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="45"/>
+      <c r="AN3" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="AO3" s="49"/>
-      <c r="AP3" s="49"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="AO3" s="45"/>
+      <c r="AP3" s="45"/>
+      <c r="AQ3" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="AR3" s="49"/>
-      <c r="AS3" s="49"/>
-      <c r="AT3" s="49"/>
-      <c r="AU3" s="49"/>
-      <c r="AV3" s="49"/>
-      <c r="AW3" s="49"/>
-      <c r="AX3" s="49"/>
-      <c r="AY3" s="49"/>
-      <c r="AZ3" s="49"/>
-      <c r="BA3" s="49"/>
-      <c r="BB3" s="49"/>
-      <c r="BC3" s="49"/>
-      <c r="BD3" s="49"/>
-      <c r="BE3" s="49"/>
-      <c r="BF3" s="49"/>
-      <c r="BG3" s="49"/>
-      <c r="BH3" s="49"/>
-      <c r="BI3" s="49"/>
-      <c r="BJ3" s="49"/>
-      <c r="BK3" s="49"/>
+      <c r="AR3" s="45"/>
+      <c r="AS3" s="45"/>
+      <c r="AT3" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU3" s="45"/>
+      <c r="AV3" s="45"/>
+      <c r="AW3" s="45"/>
+      <c r="AX3" s="45"/>
+      <c r="AY3" s="45"/>
+      <c r="AZ3" s="45"/>
+      <c r="BA3" s="45"/>
+      <c r="BB3" s="45"/>
+      <c r="BC3" s="45"/>
+      <c r="BD3" s="45"/>
+      <c r="BE3" s="45"/>
+      <c r="BF3" s="45"/>
+      <c r="BG3" s="45"/>
+      <c r="BH3" s="45"/>
+      <c r="BI3" s="45"/>
+      <c r="BJ3" s="45"/>
+      <c r="BK3" s="45"/>
     </row>
     <row r="4" spans="1:63" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
       <c r="D4" s="34" t="s">
         <v>66</v>
       </c>
@@ -3791,24 +3783,30 @@
       <c r="AS5" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="AT5" s="39"/>
-      <c r="AU5" s="39"/>
-      <c r="AV5" s="39"/>
-      <c r="AW5" s="39"/>
-      <c r="AX5" s="39"/>
-      <c r="AY5" s="39"/>
-      <c r="AZ5" s="39"/>
-      <c r="BA5" s="39"/>
-      <c r="BB5" s="39"/>
-      <c r="BC5" s="39"/>
-      <c r="BD5" s="39"/>
-      <c r="BE5" s="39"/>
-      <c r="BF5" s="39"/>
-      <c r="BG5" s="39"/>
-      <c r="BH5" s="39"/>
-      <c r="BI5" s="39"/>
-      <c r="BJ5" s="39"/>
-      <c r="BK5" s="39"/>
+      <c r="AT5" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="34"/>
+      <c r="AX5" s="34"/>
+      <c r="AY5" s="34"/>
+      <c r="AZ5" s="34"/>
+      <c r="BA5" s="34"/>
+      <c r="BB5" s="34"/>
+      <c r="BC5" s="34"/>
+      <c r="BD5" s="34"/>
+      <c r="BE5" s="34"/>
+      <c r="BF5" s="34"/>
+      <c r="BG5" s="34"/>
+      <c r="BH5" s="34"/>
+      <c r="BI5" s="34"/>
+      <c r="BJ5" s="34"/>
+      <c r="BK5" s="34"/>
     </row>
     <row r="6" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34">
@@ -3898,102 +3896,136 @@
         <v>0</v>
       </c>
       <c r="AS6" s="40"/>
-      <c r="AT6" s="40"/>
-      <c r="AU6" s="40"/>
-      <c r="AV6" s="40"/>
-      <c r="AW6" s="40"/>
-      <c r="AX6" s="40"/>
-      <c r="AY6" s="40"/>
-      <c r="AZ6" s="40"/>
-      <c r="BA6" s="40"/>
-      <c r="BB6" s="40"/>
-      <c r="BC6" s="40"/>
-      <c r="BD6" s="40"/>
-      <c r="BE6" s="40"/>
-      <c r="BF6" s="40"/>
-      <c r="BG6" s="40"/>
-      <c r="BH6" s="40"/>
-      <c r="BI6" s="40"/>
-      <c r="BJ6" s="40"/>
-      <c r="BK6" s="40"/>
-    </row>
-    <row r="7" spans="1:63" s="44" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41">
+      <c r="AT6" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="34"/>
+      <c r="AW6" s="34"/>
+      <c r="AX6" s="34"/>
+      <c r="AY6" s="34"/>
+      <c r="AZ6" s="34"/>
+      <c r="BA6" s="34"/>
+      <c r="BB6" s="34"/>
+      <c r="BC6" s="34"/>
+      <c r="BD6" s="34"/>
+      <c r="BE6" s="34"/>
+      <c r="BF6" s="34"/>
+      <c r="BG6" s="34"/>
+      <c r="BH6" s="34"/>
+      <c r="BI6" s="34"/>
+      <c r="BJ6" s="34"/>
+      <c r="BK6" s="34"/>
+    </row>
+    <row r="7" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="34">
         <v>3</v>
       </c>
-      <c r="B7" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="43"/>
-      <c r="AC7" s="43"/>
-      <c r="AD7" s="43"/>
-      <c r="AE7" s="43"/>
-      <c r="AF7" s="43"/>
-      <c r="AG7" s="43"/>
-      <c r="AH7" s="43"/>
-      <c r="AI7" s="43"/>
-      <c r="AJ7" s="43"/>
-      <c r="AK7" s="43"/>
-      <c r="AL7" s="43"/>
-      <c r="AM7" s="43"/>
-      <c r="AN7" s="43"/>
-      <c r="AO7" s="43"/>
-      <c r="AP7" s="43"/>
-      <c r="AQ7" s="43"/>
-      <c r="AR7" s="43"/>
-      <c r="AS7" s="43"/>
-      <c r="AT7" s="43"/>
-      <c r="AU7" s="43"/>
-      <c r="AV7" s="43"/>
-      <c r="AW7" s="43"/>
-      <c r="AX7" s="43"/>
-      <c r="AY7" s="43"/>
-      <c r="AZ7" s="43"/>
-      <c r="BA7" s="43"/>
-      <c r="BB7" s="43"/>
-      <c r="BC7" s="43"/>
-      <c r="BD7" s="43"/>
-      <c r="BE7" s="43"/>
-      <c r="BF7" s="43"/>
-      <c r="BG7" s="43"/>
-      <c r="BH7" s="43"/>
-      <c r="BI7" s="43"/>
-      <c r="BJ7" s="43"/>
-      <c r="BK7" s="43"/>
+      <c r="B7" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="34"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="40"/>
+      <c r="AC7" s="40"/>
+      <c r="AD7" s="40"/>
+      <c r="AE7" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="40"/>
+      <c r="AH7" s="40"/>
+      <c r="AI7" s="40"/>
+      <c r="AJ7" s="40"/>
+      <c r="AK7" s="40"/>
+      <c r="AL7" s="40"/>
+      <c r="AM7" s="40"/>
+      <c r="AN7" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="40"/>
+      <c r="AQ7" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="34"/>
+      <c r="AU7" s="34"/>
+      <c r="AV7" s="34"/>
+      <c r="AW7" s="34"/>
+      <c r="AX7" s="34"/>
+      <c r="AY7" s="34"/>
+      <c r="AZ7" s="34"/>
+      <c r="BA7" s="34"/>
+      <c r="BB7" s="34"/>
+      <c r="BC7" s="34"/>
+      <c r="BD7" s="34"/>
+      <c r="BE7" s="34"/>
+      <c r="BF7" s="34"/>
+      <c r="BG7" s="34"/>
+      <c r="BH7" s="34"/>
+      <c r="BI7" s="34"/>
+      <c r="BJ7" s="34"/>
+      <c r="BK7" s="34"/>
     </row>
     <row r="8" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="34">
         <v>4</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="34"/>
+        <v>42</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>48</v>
+      </c>
       <c r="D8" s="34" t="s">
         <v>0</v>
       </c>
@@ -4003,12 +4035,8 @@
       <c r="F8" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>0</v>
-      </c>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
       <c r="I8" s="34"/>
       <c r="J8" s="34" t="s">
         <v>0</v>
@@ -4029,31 +4057,45 @@
       <c r="V8" s="34"/>
       <c r="W8" s="34"/>
       <c r="X8" s="34"/>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="34"/>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="40"/>
-      <c r="AC8" s="40"/>
+      <c r="Y8" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="40" t="s">
+        <v>0</v>
+      </c>
       <c r="AD8" s="40"/>
-      <c r="AE8" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="40" t="s">
-        <v>0</v>
-      </c>
+      <c r="AE8" s="40"/>
+      <c r="AF8" s="40"/>
       <c r="AG8" s="40"/>
-      <c r="AH8" s="40"/>
-      <c r="AI8" s="40"/>
-      <c r="AJ8" s="40"/>
-      <c r="AK8" s="40"/>
-      <c r="AL8" s="40"/>
-      <c r="AM8" s="40"/>
-      <c r="AN8" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="40" t="s">
-        <v>0</v>
-      </c>
+      <c r="AH8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="40"/>
+      <c r="AO8" s="40"/>
       <c r="AP8" s="40"/>
       <c r="AQ8" s="40" t="s">
         <v>0</v>
@@ -4061,37 +4103,35 @@
       <c r="AR8" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="AS8" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="40"/>
-      <c r="AU8" s="40"/>
-      <c r="AV8" s="40"/>
-      <c r="AW8" s="40"/>
-      <c r="AX8" s="40"/>
-      <c r="AY8" s="40"/>
-      <c r="AZ8" s="40"/>
-      <c r="BA8" s="40"/>
-      <c r="BB8" s="40"/>
-      <c r="BC8" s="40"/>
-      <c r="BD8" s="40"/>
-      <c r="BE8" s="40"/>
-      <c r="BF8" s="40"/>
-      <c r="BG8" s="40"/>
-      <c r="BH8" s="40"/>
-      <c r="BI8" s="40"/>
-      <c r="BJ8" s="40"/>
-      <c r="BK8" s="40"/>
+      <c r="AS8" s="40"/>
+      <c r="AT8" s="34"/>
+      <c r="AU8" s="34"/>
+      <c r="AV8" s="34"/>
+      <c r="AW8" s="34"/>
+      <c r="AX8" s="34"/>
+      <c r="AY8" s="34"/>
+      <c r="AZ8" s="34"/>
+      <c r="BA8" s="34"/>
+      <c r="BB8" s="34"/>
+      <c r="BC8" s="34"/>
+      <c r="BD8" s="34"/>
+      <c r="BE8" s="34"/>
+      <c r="BF8" s="34"/>
+      <c r="BG8" s="34"/>
+      <c r="BH8" s="34"/>
+      <c r="BI8" s="34"/>
+      <c r="BJ8" s="34"/>
+      <c r="BK8" s="34"/>
     </row>
     <row r="9" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34">
         <v>5</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9" s="34" t="s">
         <v>0</v>
@@ -4099,18 +4139,12 @@
       <c r="E9" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="34" t="s">
-        <v>0</v>
-      </c>
+      <c r="F9" s="34"/>
       <c r="G9" s="34"/>
       <c r="H9" s="34"/>
       <c r="I9" s="34"/>
-      <c r="J9" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="K9" s="34" t="s">
-        <v>0</v>
-      </c>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
       <c r="L9" s="34"/>
       <c r="M9" s="34"/>
       <c r="N9" s="34"/>
@@ -4130,9 +4164,7 @@
       <c r="Z9" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="AA9" s="34" t="s">
-        <v>0</v>
-      </c>
+      <c r="AA9" s="34"/>
       <c r="AB9" s="40" t="s">
         <v>0</v>
       </c>
@@ -4140,8 +4172,12 @@
         <v>0</v>
       </c>
       <c r="AD9" s="40"/>
-      <c r="AE9" s="40"/>
-      <c r="AF9" s="40"/>
+      <c r="AE9" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="40" t="s">
+        <v>0</v>
+      </c>
       <c r="AG9" s="40"/>
       <c r="AH9" s="40" t="s">
         <v>0</v>
@@ -4149,20 +4185,20 @@
       <c r="AI9" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="AJ9" s="40" t="s">
-        <v>0</v>
-      </c>
+      <c r="AJ9" s="40"/>
       <c r="AK9" s="40" t="s">
         <v>0</v>
       </c>
       <c r="AL9" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="AM9" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="40"/>
-      <c r="AO9" s="40"/>
+      <c r="AM9" s="40"/>
+      <c r="AN9" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="40" t="s">
+        <v>0</v>
+      </c>
       <c r="AP9" s="40"/>
       <c r="AQ9" s="40" t="s">
         <v>0</v>
@@ -4171,42 +4207,48 @@
         <v>0</v>
       </c>
       <c r="AS9" s="40"/>
-      <c r="AT9" s="40"/>
-      <c r="AU9" s="40"/>
-      <c r="AV9" s="40"/>
-      <c r="AW9" s="40"/>
-      <c r="AX9" s="40"/>
-      <c r="AY9" s="40"/>
-      <c r="AZ9" s="40"/>
-      <c r="BA9" s="40"/>
-      <c r="BB9" s="40"/>
-      <c r="BC9" s="40"/>
-      <c r="BD9" s="40"/>
-      <c r="BE9" s="40"/>
-      <c r="BF9" s="40"/>
-      <c r="BG9" s="40"/>
-      <c r="BH9" s="40"/>
-      <c r="BI9" s="40"/>
-      <c r="BJ9" s="40"/>
-      <c r="BK9" s="40"/>
+      <c r="AT9" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="34"/>
+      <c r="AX9" s="34"/>
+      <c r="AY9" s="34"/>
+      <c r="AZ9" s="34"/>
+      <c r="BA9" s="34"/>
+      <c r="BB9" s="34"/>
+      <c r="BC9" s="34"/>
+      <c r="BD9" s="34"/>
+      <c r="BE9" s="34"/>
+      <c r="BF9" s="34"/>
+      <c r="BG9" s="34"/>
+      <c r="BH9" s="34"/>
+      <c r="BI9" s="34"/>
+      <c r="BJ9" s="34"/>
+      <c r="BK9" s="34"/>
     </row>
     <row r="10" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="34">
         <v>6</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>0</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C10" s="36">
+        <v>35773</v>
+      </c>
+      <c r="D10" s="34"/>
       <c r="E10" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="34"/>
+      <c r="F10" s="34" t="s">
+        <v>0</v>
+      </c>
       <c r="G10" s="34"/>
       <c r="H10" s="34"/>
       <c r="I10" s="34"/>
@@ -4231,7 +4273,9 @@
       <c r="Z10" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="AA10" s="34"/>
+      <c r="AA10" s="34" t="s">
+        <v>0</v>
+      </c>
       <c r="AB10" s="40" t="s">
         <v>0</v>
       </c>
@@ -4252,7 +4296,9 @@
       <c r="AI10" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="AJ10" s="40"/>
+      <c r="AJ10" s="40" t="s">
+        <v>0</v>
+      </c>
       <c r="AK10" s="40" t="s">
         <v>0</v>
       </c>
@@ -4273,43 +4319,47 @@
       <c r="AR10" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="AS10" s="40"/>
-      <c r="AT10" s="40"/>
-      <c r="AU10" s="40"/>
-      <c r="AV10" s="40"/>
-      <c r="AW10" s="40"/>
-      <c r="AX10" s="40"/>
-      <c r="AY10" s="40"/>
-      <c r="AZ10" s="40"/>
-      <c r="BA10" s="40"/>
-      <c r="BB10" s="40"/>
-      <c r="BC10" s="40"/>
-      <c r="BD10" s="40"/>
-      <c r="BE10" s="40"/>
-      <c r="BF10" s="40"/>
-      <c r="BG10" s="40"/>
-      <c r="BH10" s="40"/>
-      <c r="BI10" s="40"/>
-      <c r="BJ10" s="40"/>
-      <c r="BK10" s="40"/>
+      <c r="AS10" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="34"/>
+      <c r="AX10" s="34"/>
+      <c r="AY10" s="34"/>
+      <c r="AZ10" s="34"/>
+      <c r="BA10" s="34"/>
+      <c r="BB10" s="34"/>
+      <c r="BC10" s="34"/>
+      <c r="BD10" s="34"/>
+      <c r="BE10" s="34"/>
+      <c r="BF10" s="34"/>
+      <c r="BG10" s="34"/>
+      <c r="BH10" s="34"/>
+      <c r="BI10" s="34"/>
+      <c r="BJ10" s="34"/>
+      <c r="BK10" s="34"/>
     </row>
     <row r="11" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="34">
         <v>7</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="36">
-        <v>35773</v>
+        <v>46</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>62</v>
       </c>
       <c r="D11" s="34"/>
-      <c r="E11" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="34" t="s">
-        <v>0</v>
-      </c>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
       <c r="G11" s="34"/>
       <c r="H11" s="34"/>
       <c r="I11" s="34"/>
@@ -4334,9 +4384,7 @@
       <c r="Z11" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="AA11" s="34" t="s">
-        <v>0</v>
-      </c>
+      <c r="AA11" s="34"/>
       <c r="AB11" s="40" t="s">
         <v>0</v>
       </c>
@@ -4380,327 +4428,151 @@
       <c r="AR11" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="AS11" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT11" s="40"/>
-      <c r="AU11" s="40"/>
-      <c r="AV11" s="40"/>
-      <c r="AW11" s="40"/>
-      <c r="AX11" s="40"/>
-      <c r="AY11" s="40"/>
-      <c r="AZ11" s="40"/>
-      <c r="BA11" s="40"/>
-      <c r="BB11" s="40"/>
-      <c r="BC11" s="40"/>
-      <c r="BD11" s="40"/>
-      <c r="BE11" s="40"/>
-      <c r="BF11" s="40"/>
-      <c r="BG11" s="40"/>
-      <c r="BH11" s="40"/>
-      <c r="BI11" s="40"/>
-      <c r="BJ11" s="40"/>
-      <c r="BK11" s="40"/>
-    </row>
-    <row r="12" spans="1:63" s="44" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="41">
+      <c r="AS11" s="40"/>
+      <c r="AT11" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="34"/>
+      <c r="AW11" s="34"/>
+      <c r="AX11" s="34"/>
+      <c r="AY11" s="34"/>
+      <c r="AZ11" s="34"/>
+      <c r="BA11" s="34"/>
+      <c r="BB11" s="34"/>
+      <c r="BC11" s="34"/>
+      <c r="BD11" s="34"/>
+      <c r="BE11" s="34"/>
+      <c r="BF11" s="34"/>
+      <c r="BG11" s="34"/>
+      <c r="BH11" s="34"/>
+      <c r="BI11" s="34"/>
+      <c r="BJ11" s="34"/>
+      <c r="BK11" s="34"/>
+    </row>
+    <row r="12" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="34">
         <v>8</v>
       </c>
-      <c r="B12" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="41"/>
-      <c r="V12" s="41"/>
-      <c r="W12" s="41"/>
-      <c r="X12" s="41"/>
-      <c r="Y12" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="43"/>
-      <c r="AE12" s="43"/>
-      <c r="AF12" s="43"/>
-      <c r="AG12" s="43"/>
-      <c r="AH12" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="43"/>
-      <c r="AL12" s="43"/>
-      <c r="AM12" s="43"/>
-      <c r="AN12" s="43"/>
-      <c r="AO12" s="43"/>
-      <c r="AP12" s="43"/>
-      <c r="AQ12" s="43"/>
-      <c r="AR12" s="43"/>
-      <c r="AS12" s="43"/>
-      <c r="AT12" s="43"/>
-      <c r="AU12" s="43"/>
-      <c r="AV12" s="43"/>
-      <c r="AW12" s="43"/>
-      <c r="AX12" s="43"/>
-      <c r="AY12" s="43"/>
-      <c r="AZ12" s="43"/>
-      <c r="BA12" s="43"/>
-      <c r="BB12" s="43"/>
-      <c r="BC12" s="43"/>
-      <c r="BD12" s="43"/>
-      <c r="BE12" s="43"/>
-      <c r="BF12" s="43"/>
-      <c r="BG12" s="43"/>
-      <c r="BH12" s="43"/>
-      <c r="BI12" s="43"/>
-      <c r="BJ12" s="43"/>
-      <c r="BK12" s="43"/>
-    </row>
-    <row r="13" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34">
-        <v>9</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="34"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="34"/>
-      <c r="AB13" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="40"/>
-      <c r="AE13" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="40"/>
-      <c r="AH13" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM13" s="40"/>
-      <c r="AN13" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO13" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP13" s="40"/>
-      <c r="AQ13" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR13" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS13" s="40"/>
-      <c r="AT13" s="40"/>
-      <c r="AU13" s="40"/>
-      <c r="AV13" s="40"/>
-      <c r="AW13" s="40"/>
-      <c r="AX13" s="40"/>
-      <c r="AY13" s="40"/>
-      <c r="AZ13" s="40"/>
-      <c r="BA13" s="40"/>
-      <c r="BB13" s="40"/>
-      <c r="BC13" s="40"/>
-      <c r="BD13" s="40"/>
-      <c r="BE13" s="40"/>
-      <c r="BF13" s="40"/>
-      <c r="BG13" s="40"/>
-      <c r="BH13" s="40"/>
-      <c r="BI13" s="40"/>
-      <c r="BJ13" s="40"/>
-      <c r="BK13" s="40"/>
-    </row>
-    <row r="14" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34">
-        <v>10</v>
-      </c>
-      <c r="B14" s="35" t="s">
+      <c r="B12" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="34"/>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="34"/>
-      <c r="AB14" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="40"/>
-      <c r="AE14" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="40"/>
-      <c r="AH14" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK14" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM14" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN14" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO14" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP14" s="40">
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="34"/>
+      <c r="Y12" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="34"/>
+      <c r="AB12" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="40"/>
+      <c r="AE12" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="40"/>
+      <c r="AH12" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="40">
         <v>4</v>
       </c>
-      <c r="AQ14" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR14" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS14" s="40"/>
-      <c r="AT14" s="40"/>
-      <c r="AU14" s="40"/>
-      <c r="AV14" s="40"/>
-      <c r="AW14" s="40"/>
-      <c r="AX14" s="40"/>
-      <c r="AY14" s="40"/>
-      <c r="AZ14" s="40"/>
-      <c r="BA14" s="40"/>
-      <c r="BB14" s="40"/>
-      <c r="BC14" s="40"/>
-      <c r="BD14" s="40"/>
-      <c r="BE14" s="40"/>
-      <c r="BF14" s="40"/>
-      <c r="BG14" s="40"/>
-      <c r="BH14" s="40"/>
-      <c r="BI14" s="40"/>
-      <c r="BJ14" s="40"/>
-      <c r="BK14" s="40"/>
+      <c r="AQ12" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="40"/>
+      <c r="AT12" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="34"/>
+      <c r="AW12" s="34"/>
+      <c r="AX12" s="34"/>
+      <c r="AY12" s="34"/>
+      <c r="AZ12" s="34"/>
+      <c r="BA12" s="34"/>
+      <c r="BB12" s="34"/>
+      <c r="BC12" s="34"/>
+      <c r="BD12" s="34"/>
+      <c r="BE12" s="34"/>
+      <c r="BF12" s="34"/>
+      <c r="BG12" s="34"/>
+      <c r="BH12" s="34"/>
+      <c r="BI12" s="34"/>
+      <c r="BJ12" s="34"/>
+      <c r="BK12" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BK3"/>
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="AT3:AV3"/>
+    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="AN3:AP3"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="A3:A4"/>
@@ -4712,18 +4584,6 @@
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:U3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AK3:AM3"/>
-    <mergeCell ref="AN3:AP3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BK3"/>
-    <mergeCell ref="AQ3:AS3"/>
-    <mergeCell ref="AT3:AV3"/>
-    <mergeCell ref="AW3:AY3"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="BC3:BE3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="86">
   <si>
     <t>x</t>
   </si>
@@ -273,6 +273,9 @@
   </si>
   <si>
     <t>12/4 - Lesson 14</t>
+  </si>
+  <si>
+    <t>14/4-Lesson 15</t>
   </si>
 </sst>
 </file>
@@ -3369,7 +3372,7 @@
   <dimension ref="A1:BK12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AX10" sqref="AX10"/>
+      <selection activeCell="BA9" sqref="BA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3388,7 +3391,9 @@
     <col min="45" max="45" width="6.42578125" hidden="1" customWidth="1"/>
     <col min="46" max="47" width="5.42578125" customWidth="1"/>
     <col min="48" max="48" width="7.28515625" customWidth="1"/>
-    <col min="49" max="67" width="5.42578125" customWidth="1"/>
+    <col min="49" max="50" width="5.42578125" customWidth="1"/>
+    <col min="51" max="51" width="6.28515625" customWidth="1"/>
+    <col min="52" max="67" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:63" ht="26.25" x14ac:dyDescent="0.4">
@@ -3484,7 +3489,9 @@
       </c>
       <c r="AU3" s="45"/>
       <c r="AV3" s="45"/>
-      <c r="AW3" s="45"/>
+      <c r="AW3" s="45" t="s">
+        <v>85</v>
+      </c>
       <c r="AX3" s="45"/>
       <c r="AY3" s="45"/>
       <c r="AZ3" s="45"/>
@@ -3903,8 +3910,12 @@
         <v>0</v>
       </c>
       <c r="AV6" s="34"/>
-      <c r="AW6" s="34"/>
-      <c r="AX6" s="34"/>
+      <c r="AW6" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="34" t="s">
+        <v>0</v>
+      </c>
       <c r="AY6" s="34"/>
       <c r="AZ6" s="34"/>
       <c r="BA6" s="34"/>
@@ -4107,9 +4118,15 @@
       <c r="AT8" s="34"/>
       <c r="AU8" s="34"/>
       <c r="AV8" s="34"/>
-      <c r="AW8" s="34"/>
-      <c r="AX8" s="34"/>
-      <c r="AY8" s="34"/>
+      <c r="AW8" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="34" t="s">
+        <v>0</v>
+      </c>
       <c r="AZ8" s="34"/>
       <c r="BA8" s="34"/>
       <c r="BB8" s="34"/>
@@ -4216,8 +4233,12 @@
       <c r="AV9" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="AW9" s="34"/>
-      <c r="AX9" s="34"/>
+      <c r="AW9" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="34" t="s">
+        <v>0</v>
+      </c>
       <c r="AY9" s="34"/>
       <c r="AZ9" s="34"/>
       <c r="BA9" s="34"/>
@@ -4331,8 +4352,12 @@
       <c r="AV10" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="AW10" s="34"/>
-      <c r="AX10" s="34"/>
+      <c r="AW10" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="34" t="s">
+        <v>0</v>
+      </c>
       <c r="AY10" s="34"/>
       <c r="AZ10" s="34"/>
       <c r="BA10" s="34"/>
@@ -4436,8 +4461,12 @@
         <v>0</v>
       </c>
       <c r="AV11" s="34"/>
-      <c r="AW11" s="34"/>
-      <c r="AX11" s="34"/>
+      <c r="AW11" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="34" t="s">
+        <v>0</v>
+      </c>
       <c r="AY11" s="34"/>
       <c r="AZ11" s="34"/>
       <c r="BA11" s="34"/>
@@ -4543,9 +4572,15 @@
         <v>0</v>
       </c>
       <c r="AV12" s="34"/>
-      <c r="AW12" s="34"/>
-      <c r="AX12" s="34"/>
-      <c r="AY12" s="34"/>
+      <c r="AW12" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY12" s="34" t="s">
+        <v>0</v>
+      </c>
       <c r="AZ12" s="34"/>
       <c r="BA12" s="34"/>
       <c r="BB12" s="34"/>
@@ -4561,18 +4596,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BK3"/>
-    <mergeCell ref="AQ3:AS3"/>
-    <mergeCell ref="AT3:AV3"/>
-    <mergeCell ref="AW3:AY3"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AK3:AM3"/>
-    <mergeCell ref="AN3:AP3"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="A3:A4"/>
@@ -4584,6 +4607,18 @@
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:U3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="AN3:AP3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BK3"/>
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="AT3:AV3"/>
+    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="BC3:BE3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TOEIC 300-500 K1" sheetId="2" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="TOEIC 500-700 K1" sheetId="4" r:id="rId3"/>
     <sheet name="TOEIC 300-500 K3" sheetId="6" r:id="rId4"/>
     <sheet name="TOEIC 300-500 K3-BTap+Vang" sheetId="7" r:id="rId5"/>
+    <sheet name="TOEIC 500-700 K2" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="93">
   <si>
     <t>x</t>
   </si>
@@ -276,6 +277,27 @@
   </si>
   <si>
     <t>14/4-Lesson 15</t>
+  </si>
+  <si>
+    <t>Đoàn Thành Lợi</t>
+  </si>
+  <si>
+    <t>Huỳnh Linh Đa</t>
+  </si>
+  <si>
+    <t>01688204826</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Phương Loan</t>
+  </si>
+  <si>
+    <t>0932053958</t>
+  </si>
+  <si>
+    <t>Khóa TOEIC 500-700 K2 (17/4/2017 - 14/7/2017)</t>
+  </si>
+  <si>
+    <t>17/4-Lesson 16</t>
   </si>
 </sst>
 </file>
@@ -1240,10 +1262,10 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5:B6"/>
+      <selection pane="bottomRight" activeCell="P4" sqref="P4:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2285,9 +2307,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="S9" sqref="S9"/>
+      <selection activeCell="BA9" sqref="BA9"/>
+      <selection pane="topRight" activeCell="BA9" sqref="BA9"/>
+      <selection pane="bottomLeft" activeCell="BA9" sqref="BA9"/>
+      <selection pane="bottomRight" activeCell="BA9" sqref="BA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3372,7 +3395,7 @@
   <dimension ref="A1:BK12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BA9" sqref="BA9"/>
+      <selection activeCell="BB13" sqref="BB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3494,7 +3517,9 @@
       </c>
       <c r="AX3" s="45"/>
       <c r="AY3" s="45"/>
-      <c r="AZ3" s="45"/>
+      <c r="AZ3" s="45" t="s">
+        <v>92</v>
+      </c>
       <c r="BA3" s="45"/>
       <c r="BB3" s="45"/>
       <c r="BC3" s="45"/>
@@ -3802,9 +3827,15 @@
       <c r="AW5" s="34"/>
       <c r="AX5" s="34"/>
       <c r="AY5" s="34"/>
-      <c r="AZ5" s="34"/>
-      <c r="BA5" s="34"/>
-      <c r="BB5" s="34"/>
+      <c r="AZ5" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="34" t="s">
+        <v>0</v>
+      </c>
       <c r="BC5" s="34"/>
       <c r="BD5" s="34"/>
       <c r="BE5" s="34"/>
@@ -3917,9 +3948,15 @@
         <v>0</v>
       </c>
       <c r="AY6" s="34"/>
-      <c r="AZ6" s="34"/>
-      <c r="BA6" s="34"/>
-      <c r="BB6" s="34"/>
+      <c r="AZ6" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="34" t="s">
+        <v>0</v>
+      </c>
       <c r="BC6" s="34"/>
       <c r="BD6" s="34"/>
       <c r="BE6" s="34"/>
@@ -4014,9 +4051,15 @@
       <c r="AW7" s="34"/>
       <c r="AX7" s="34"/>
       <c r="AY7" s="34"/>
-      <c r="AZ7" s="34"/>
-      <c r="BA7" s="34"/>
-      <c r="BB7" s="34"/>
+      <c r="AZ7" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="34" t="s">
+        <v>0</v>
+      </c>
       <c r="BC7" s="34"/>
       <c r="BD7" s="34"/>
       <c r="BE7" s="34"/>
@@ -4127,9 +4170,15 @@
       <c r="AY8" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="AZ8" s="34"/>
-      <c r="BA8" s="34"/>
-      <c r="BB8" s="34"/>
+      <c r="AZ8" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="34" t="s">
+        <v>0</v>
+      </c>
       <c r="BC8" s="34"/>
       <c r="BD8" s="34"/>
       <c r="BE8" s="34"/>
@@ -4240,9 +4289,15 @@
         <v>0</v>
       </c>
       <c r="AY9" s="34"/>
-      <c r="AZ9" s="34"/>
-      <c r="BA9" s="34"/>
-      <c r="BB9" s="34"/>
+      <c r="AZ9" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="34" t="s">
+        <v>0</v>
+      </c>
       <c r="BC9" s="34"/>
       <c r="BD9" s="34"/>
       <c r="BE9" s="34"/>
@@ -4359,9 +4414,15 @@
         <v>0</v>
       </c>
       <c r="AY10" s="34"/>
-      <c r="AZ10" s="34"/>
-      <c r="BA10" s="34"/>
-      <c r="BB10" s="34"/>
+      <c r="AZ10" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="34" t="s">
+        <v>0</v>
+      </c>
       <c r="BC10" s="34"/>
       <c r="BD10" s="34"/>
       <c r="BE10" s="34"/>
@@ -4468,8 +4529,12 @@
         <v>0</v>
       </c>
       <c r="AY11" s="34"/>
-      <c r="AZ11" s="34"/>
-      <c r="BA11" s="34"/>
+      <c r="AZ11" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="34" t="s">
+        <v>0</v>
+      </c>
       <c r="BB11" s="34"/>
       <c r="BC11" s="34"/>
       <c r="BD11" s="34"/>
@@ -4581,8 +4646,12 @@
       <c r="AY12" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="AZ12" s="34"/>
-      <c r="BA12" s="34"/>
+      <c r="AZ12" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="34" t="s">
+        <v>0</v>
+      </c>
       <c r="BB12" s="34"/>
       <c r="BC12" s="34"/>
       <c r="BD12" s="34"/>
@@ -4623,4 +4692,342 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="BA9" sqref="BA9"/>
+      <selection pane="topRight" activeCell="BA9" sqref="BA9"/>
+      <selection pane="bottomLeft" activeCell="BA9" sqref="BA9"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="17" style="20" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="9.140625" style="17"/>
+    <col min="13" max="13" width="6.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" customWidth="1"/>
+    <col min="17" max="17" width="9.42578125" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B1" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G2" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+    </row>
+    <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
+        <v>1</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14">
+        <v>2</v>
+      </c>
+      <c r="H4" s="14">
+        <v>15</v>
+      </c>
+      <c r="I4" s="14">
+        <v>10</v>
+      </c>
+      <c r="J4" s="14">
+        <v>10</v>
+      </c>
+      <c r="K4" s="14">
+        <v>20</v>
+      </c>
+      <c r="L4" s="14">
+        <v>1</v>
+      </c>
+      <c r="M4" s="14">
+        <v>15</v>
+      </c>
+      <c r="N4" s="15">
+        <f>SUM(G4:J4)</f>
+        <v>37</v>
+      </c>
+      <c r="O4" s="15">
+        <f>SUM(K4:M4)</f>
+        <v>36</v>
+      </c>
+      <c r="P4" s="14">
+        <v>170</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>125</v>
+      </c>
+      <c r="R4" s="16">
+        <f>SUM(P4:Q4)</f>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
+        <v>2</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14">
+        <v>7</v>
+      </c>
+      <c r="H5" s="14">
+        <v>11</v>
+      </c>
+      <c r="I5" s="14">
+        <v>13</v>
+      </c>
+      <c r="J5" s="14">
+        <v>9</v>
+      </c>
+      <c r="K5" s="14">
+        <v>22</v>
+      </c>
+      <c r="L5" s="14">
+        <v>6</v>
+      </c>
+      <c r="M5" s="14">
+        <v>31</v>
+      </c>
+      <c r="N5" s="15">
+        <f t="shared" ref="N5:N7" si="0">SUM(G5:J5)</f>
+        <v>40</v>
+      </c>
+      <c r="O5" s="15">
+        <f t="shared" ref="O5:O7" si="1">SUM(K5:M5)</f>
+        <v>59</v>
+      </c>
+      <c r="P5" s="14">
+        <v>185</v>
+      </c>
+      <c r="Q5" s="14">
+        <v>265</v>
+      </c>
+      <c r="R5" s="16">
+        <f t="shared" ref="R5:R7" si="2">SUM(P5:Q5)</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
+        <v>3</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14">
+        <v>3</v>
+      </c>
+      <c r="H6" s="14">
+        <v>13</v>
+      </c>
+      <c r="I6" s="14">
+        <v>14</v>
+      </c>
+      <c r="J6" s="14">
+        <v>4</v>
+      </c>
+      <c r="K6" s="14">
+        <v>17</v>
+      </c>
+      <c r="L6" s="14">
+        <v>3</v>
+      </c>
+      <c r="M6" s="14">
+        <v>19</v>
+      </c>
+      <c r="N6" s="15">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="O6" s="15">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="P6" s="14">
+        <v>150</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>145</v>
+      </c>
+      <c r="R6" s="16">
+        <f t="shared" si="2"/>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14">
+        <v>4</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="14">
+        <v>1995</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14">
+        <v>3</v>
+      </c>
+      <c r="H7" s="14">
+        <v>9</v>
+      </c>
+      <c r="I7" s="14">
+        <v>14</v>
+      </c>
+      <c r="J7" s="14">
+        <v>9</v>
+      </c>
+      <c r="K7" s="14">
+        <v>15</v>
+      </c>
+      <c r="L7" s="14">
+        <v>1</v>
+      </c>
+      <c r="M7" s="14">
+        <v>6</v>
+      </c>
+      <c r="N7" s="15">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="O7" s="15">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="P7" s="14">
+        <v>160</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>40</v>
+      </c>
+      <c r="R7" s="16">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TOEIC 300-500 K1" sheetId="2" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="TOEIC 300-500 K3" sheetId="6" r:id="rId4"/>
     <sheet name="TOEIC 300-500 K3-BTap+Vang" sheetId="7" r:id="rId5"/>
     <sheet name="TOEIC 500-700 K2" sheetId="9" r:id="rId6"/>
+    <sheet name="TOEIC 300-500 K4" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="101">
   <si>
     <t>x</t>
   </si>
@@ -298,6 +299,30 @@
   </si>
   <si>
     <t>17/4-Lesson 16</t>
+  </si>
+  <si>
+    <t>Khóa TOEIC 300-500 K4 (18/4/2017 - 15/7/2017)</t>
+  </si>
+  <si>
+    <t>Đoàn Văn Bình</t>
+  </si>
+  <si>
+    <t>Trương Minh Nhật</t>
+  </si>
+  <si>
+    <t>Trần Thị Anh Thư</t>
+  </si>
+  <si>
+    <t>Trần Thị Tú Anh</t>
+  </si>
+  <si>
+    <t>Phạm Quang Anh Vũ</t>
+  </si>
+  <si>
+    <t>Phan Minh Thuận</t>
+  </si>
+  <si>
+    <t>Trần Ngọc Đạt</t>
   </si>
 </sst>
 </file>
@@ -3394,7 +3419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="BB13" sqref="BB13"/>
     </sheetView>
   </sheetViews>
@@ -4665,6 +4690,18 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BK3"/>
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="AT3:AV3"/>
+    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="AN3:AP3"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="A3:A4"/>
@@ -4676,18 +4713,6 @@
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:U3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AK3:AM3"/>
-    <mergeCell ref="AN3:AP3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BK3"/>
-    <mergeCell ref="AQ3:AS3"/>
-    <mergeCell ref="AT3:AV3"/>
-    <mergeCell ref="AW3:AY3"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="BC3:BE3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4698,12 +4723,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="BA9" sqref="BA9"/>
       <selection pane="topRight" activeCell="BA9" sqref="BA9"/>
       <selection pane="bottomLeft" activeCell="BA9" sqref="BA9"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4920,7 +4945,9 @@
       <c r="D6" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="14"/>
+      <c r="E6" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="F6" s="14"/>
       <c r="G6" s="14">
         <v>3</v>
@@ -5017,6 +5044,392 @@
         <v>200</v>
       </c>
     </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="BA9" sqref="BA9"/>
+      <selection pane="topRight" activeCell="BA9" sqref="BA9"/>
+      <selection pane="bottomLeft" activeCell="BA9" sqref="BA9"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="17" style="20" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="9.140625" style="17"/>
+    <col min="13" max="13" width="6.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" customWidth="1"/>
+    <col min="17" max="17" width="9.42578125" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B1" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G2" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+    </row>
+    <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
+        <v>1</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="15">
+        <f>SUM(G4:J4)</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="15">
+        <f>SUM(K4:M4)</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="16">
+        <f>SUM(P4:Q4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
+        <v>2</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="15">
+        <f t="shared" ref="N5:N10" si="0">SUM(G5:J5)</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="15">
+        <f t="shared" ref="O5:O10" si="1">SUM(K5:M5)</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="16">
+        <f t="shared" ref="R5:R10" si="2">SUM(P5:Q5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
+        <v>3</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14">
+        <v>4</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14">
+        <v>4</v>
+      </c>
+      <c r="H7" s="14">
+        <v>15</v>
+      </c>
+      <c r="I7" s="14">
+        <v>6</v>
+      </c>
+      <c r="J7" s="14">
+        <v>8</v>
+      </c>
+      <c r="K7" s="14">
+        <v>25</v>
+      </c>
+      <c r="L7" s="14">
+        <v>5</v>
+      </c>
+      <c r="M7" s="14">
+        <v>17</v>
+      </c>
+      <c r="N7" s="15">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="O7" s="15">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="P7" s="14">
+        <v>145</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>195</v>
+      </c>
+      <c r="R7" s="16">
+        <f t="shared" si="2"/>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>5</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="17">
+        <v>3</v>
+      </c>
+      <c r="H8" s="17">
+        <v>10</v>
+      </c>
+      <c r="I8" s="17">
+        <v>9</v>
+      </c>
+      <c r="J8" s="17">
+        <v>7</v>
+      </c>
+      <c r="K8" s="17">
+        <v>20</v>
+      </c>
+      <c r="L8" s="17">
+        <v>1</v>
+      </c>
+      <c r="M8" s="17">
+        <v>10</v>
+      </c>
+      <c r="N8" s="15">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="O8" s="15">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="P8" s="17">
+        <v>125</v>
+      </c>
+      <c r="Q8" s="17">
+        <v>95</v>
+      </c>
+      <c r="R8" s="16">
+        <f t="shared" si="2"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>6</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N9" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>7</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N10" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="R2:R3"/>

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TOEIC 300-500 K1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="102">
   <si>
     <t>x</t>
   </si>
@@ -323,6 +323,9 @@
   </si>
   <si>
     <t>Trần Ngọc Đạt</t>
+  </si>
+  <si>
+    <t>19/4-Lesson 17</t>
   </si>
 </sst>
 </file>
@@ -3419,8 +3422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="BB13" sqref="BB13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BH8" sqref="BH8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3547,7 +3550,9 @@
       </c>
       <c r="BA3" s="45"/>
       <c r="BB3" s="45"/>
-      <c r="BC3" s="45"/>
+      <c r="BC3" s="45" t="s">
+        <v>101</v>
+      </c>
       <c r="BD3" s="45"/>
       <c r="BE3" s="45"/>
       <c r="BF3" s="45"/>
@@ -3861,9 +3866,15 @@
       <c r="BB5" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="BC5" s="34"/>
-      <c r="BD5" s="34"/>
-      <c r="BE5" s="34"/>
+      <c r="BC5" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="34" t="s">
+        <v>0</v>
+      </c>
       <c r="BF5" s="34"/>
       <c r="BG5" s="34"/>
       <c r="BH5" s="34"/>
@@ -3982,9 +3993,15 @@
       <c r="BB6" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="BC6" s="34"/>
-      <c r="BD6" s="34"/>
-      <c r="BE6" s="34"/>
+      <c r="BC6" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="34" t="s">
+        <v>0</v>
+      </c>
       <c r="BF6" s="34"/>
       <c r="BG6" s="34"/>
       <c r="BH6" s="34"/>
@@ -4085,8 +4102,12 @@
       <c r="BB7" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="BC7" s="34"/>
-      <c r="BD7" s="34"/>
+      <c r="BC7" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="34" t="s">
+        <v>0</v>
+      </c>
       <c r="BE7" s="34"/>
       <c r="BF7" s="34"/>
       <c r="BG7" s="34"/>
@@ -4204,9 +4225,15 @@
       <c r="BB8" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="BC8" s="34"/>
-      <c r="BD8" s="34"/>
-      <c r="BE8" s="34"/>
+      <c r="BC8" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="34" t="s">
+        <v>0</v>
+      </c>
       <c r="BF8" s="34"/>
       <c r="BG8" s="34"/>
       <c r="BH8" s="34"/>
@@ -4323,9 +4350,15 @@
       <c r="BB9" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="BC9" s="34"/>
-      <c r="BD9" s="34"/>
-      <c r="BE9" s="34"/>
+      <c r="BC9" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="34" t="s">
+        <v>0</v>
+      </c>
       <c r="BF9" s="34"/>
       <c r="BG9" s="34"/>
       <c r="BH9" s="34"/>
@@ -4448,8 +4481,12 @@
       <c r="BB10" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="BC10" s="34"/>
-      <c r="BD10" s="34"/>
+      <c r="BC10" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD10" s="34" t="s">
+        <v>0</v>
+      </c>
       <c r="BE10" s="34"/>
       <c r="BF10" s="34"/>
       <c r="BG10" s="34"/>
@@ -4561,8 +4598,12 @@
         <v>0</v>
       </c>
       <c r="BB11" s="34"/>
-      <c r="BC11" s="34"/>
-      <c r="BD11" s="34"/>
+      <c r="BC11" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD11" s="34" t="s">
+        <v>0</v>
+      </c>
       <c r="BE11" s="34"/>
       <c r="BF11" s="34"/>
       <c r="BG11" s="34"/>
@@ -4678,9 +4719,15 @@
         <v>0</v>
       </c>
       <c r="BB12" s="34"/>
-      <c r="BC12" s="34"/>
-      <c r="BD12" s="34"/>
-      <c r="BE12" s="34"/>
+      <c r="BC12" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD12" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE12" s="34" t="s">
+        <v>0</v>
+      </c>
       <c r="BF12" s="34"/>
       <c r="BG12" s="34"/>
       <c r="BH12" s="34"/>
@@ -4690,18 +4737,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BK3"/>
-    <mergeCell ref="AQ3:AS3"/>
-    <mergeCell ref="AT3:AV3"/>
-    <mergeCell ref="AW3:AY3"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AK3:AM3"/>
-    <mergeCell ref="AN3:AP3"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="A3:A4"/>
@@ -4713,6 +4748,18 @@
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:U3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="AN3:AP3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BK3"/>
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="AT3:AV3"/>
+    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="BC3:BE3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4723,7 +4770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="BA9" sqref="BA9"/>
       <selection pane="topRight" activeCell="BA9" sqref="BA9"/>

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TOEIC 300-500 K1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="105">
   <si>
     <t>x</t>
   </si>
@@ -326,6 +326,15 @@
   </si>
   <si>
     <t>19/4-Lesson 17</t>
+  </si>
+  <si>
+    <t>Lê Khánh Linh</t>
+  </si>
+  <si>
+    <t>Phạm Thiên Nam</t>
+  </si>
+  <si>
+    <t>chưa sách+học phí</t>
   </si>
 </sst>
 </file>
@@ -3422,7 +3431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="BH8" sqref="BH8"/>
     </sheetView>
   </sheetViews>
@@ -4737,6 +4746,18 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BK3"/>
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="AT3:AV3"/>
+    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="AN3:AP3"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="A3:A4"/>
@@ -4748,18 +4769,6 @@
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:U3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AK3:AM3"/>
-    <mergeCell ref="AN3:AP3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BK3"/>
-    <mergeCell ref="AQ3:AS3"/>
-    <mergeCell ref="AT3:AV3"/>
-    <mergeCell ref="AW3:AY3"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="BC3:BE3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5110,12 +5119,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="BA9" sqref="BA9"/>
       <selection pane="topRight" activeCell="BA9" sqref="BA9"/>
       <selection pane="bottomLeft" activeCell="BA9" sqref="BA9"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5220,7 +5229,9 @@
       <c r="B4" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="14"/>
+      <c r="C4" s="14">
+        <v>0</v>
+      </c>
       <c r="D4" s="23"/>
       <c r="E4" s="14" t="s">
         <v>0</v>
@@ -5255,7 +5266,9 @@
       <c r="B5" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="14"/>
+      <c r="C5" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="D5" s="23"/>
       <c r="E5" s="14" t="s">
         <v>0</v>
@@ -5290,7 +5303,9 @@
       <c r="B6" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="14"/>
+      <c r="C6" s="14">
+        <v>0</v>
+      </c>
       <c r="D6" s="23"/>
       <c r="E6" s="14" t="s">
         <v>0</v>
@@ -5325,7 +5340,9 @@
       <c r="B7" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="14"/>
+      <c r="C7" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="D7" s="22"/>
       <c r="E7" s="14" t="s">
         <v>0</v>
@@ -5378,6 +5395,9 @@
       <c r="B8" s="21" t="s">
         <v>98</v>
       </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
       <c r="E8" s="14" t="s">
         <v>0</v>
       </c>
@@ -5428,6 +5448,9 @@
       <c r="B9" s="21" t="s">
         <v>99</v>
       </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
       <c r="E9" s="14" t="s">
         <v>0</v>
       </c>
@@ -5451,6 +5474,9 @@
       <c r="B10" s="21" t="s">
         <v>100</v>
       </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
       <c r="E10" s="14" t="s">
         <v>0</v>
       </c>
@@ -5467,8 +5493,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>8</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>9</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" t="s">
+        <v>104</v>
+      </c>
+    </row>
     <row r="13" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="105">
   <si>
     <t>x</t>
   </si>
@@ -4746,18 +4746,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BK3"/>
-    <mergeCell ref="AQ3:AS3"/>
-    <mergeCell ref="AT3:AV3"/>
-    <mergeCell ref="AW3:AY3"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AK3:AM3"/>
-    <mergeCell ref="AN3:AP3"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="A3:A4"/>
@@ -4769,6 +4757,18 @@
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:U3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="AN3:AP3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BK3"/>
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="AT3:AV3"/>
+    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="BC3:BE3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5124,7 +5124,7 @@
       <selection activeCell="BA9" sqref="BA9"/>
       <selection pane="topRight" activeCell="BA9" sqref="BA9"/>
       <selection pane="bottomLeft" activeCell="BA9" sqref="BA9"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5229,7 +5229,7 @@
       <c r="B4" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="23"/>
@@ -5474,7 +5474,7 @@
       <c r="B10" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="14" t="s">

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TOEIC 300-500 K1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="106">
   <si>
     <t>x</t>
   </si>
@@ -335,6 +335,9 @@
   </si>
   <si>
     <t>chưa sách+học phí</t>
+  </si>
+  <si>
+    <t>21/4-Lesson 18</t>
   </si>
 </sst>
 </file>
@@ -3431,8 +3434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="BH8" sqref="BH8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BH11" sqref="BH11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3564,7 +3567,9 @@
       </c>
       <c r="BD3" s="45"/>
       <c r="BE3" s="45"/>
-      <c r="BF3" s="45"/>
+      <c r="BF3" s="45" t="s">
+        <v>105</v>
+      </c>
       <c r="BG3" s="45"/>
       <c r="BH3" s="45"/>
       <c r="BI3" s="45"/>
@@ -3884,9 +3889,15 @@
       <c r="BE5" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="BF5" s="34"/>
-      <c r="BG5" s="34"/>
-      <c r="BH5" s="34"/>
+      <c r="BF5" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="34" t="s">
+        <v>0</v>
+      </c>
       <c r="BI5" s="34"/>
       <c r="BJ5" s="34"/>
       <c r="BK5" s="34"/>
@@ -4011,9 +4022,15 @@
       <c r="BE6" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="BF6" s="34"/>
-      <c r="BG6" s="34"/>
-      <c r="BH6" s="34"/>
+      <c r="BF6" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="34" t="s">
+        <v>0</v>
+      </c>
       <c r="BI6" s="34"/>
       <c r="BJ6" s="34"/>
       <c r="BK6" s="34"/>
@@ -4118,8 +4135,12 @@
         <v>0</v>
       </c>
       <c r="BE7" s="34"/>
-      <c r="BF7" s="34"/>
-      <c r="BG7" s="34"/>
+      <c r="BF7" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="34" t="s">
+        <v>0</v>
+      </c>
       <c r="BH7" s="34"/>
       <c r="BI7" s="34"/>
       <c r="BJ7" s="34"/>
@@ -4243,9 +4264,15 @@
       <c r="BE8" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="BF8" s="34"/>
-      <c r="BG8" s="34"/>
-      <c r="BH8" s="34"/>
+      <c r="BF8" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG8" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH8" s="34" t="s">
+        <v>0</v>
+      </c>
       <c r="BI8" s="34"/>
       <c r="BJ8" s="34"/>
       <c r="BK8" s="34"/>
@@ -4368,8 +4395,12 @@
       <c r="BE9" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="BF9" s="34"/>
-      <c r="BG9" s="34"/>
+      <c r="BF9" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG9" s="34" t="s">
+        <v>0</v>
+      </c>
       <c r="BH9" s="34"/>
       <c r="BI9" s="34"/>
       <c r="BJ9" s="34"/>
@@ -4497,8 +4528,12 @@
         <v>0</v>
       </c>
       <c r="BE10" s="34"/>
-      <c r="BF10" s="34"/>
-      <c r="BG10" s="34"/>
+      <c r="BF10" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG10" s="34" t="s">
+        <v>0</v>
+      </c>
       <c r="BH10" s="34"/>
       <c r="BI10" s="34"/>
       <c r="BJ10" s="34"/>
@@ -4614,8 +4649,12 @@
         <v>0</v>
       </c>
       <c r="BE11" s="34"/>
-      <c r="BF11" s="34"/>
-      <c r="BG11" s="34"/>
+      <c r="BF11" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG11" s="34" t="s">
+        <v>0</v>
+      </c>
       <c r="BH11" s="34"/>
       <c r="BI11" s="34"/>
       <c r="BJ11" s="34"/>
@@ -4737,15 +4776,33 @@
       <c r="BE12" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="BF12" s="34"/>
-      <c r="BG12" s="34"/>
-      <c r="BH12" s="34"/>
+      <c r="BF12" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG12" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH12" s="34" t="s">
+        <v>0</v>
+      </c>
       <c r="BI12" s="34"/>
       <c r="BJ12" s="34"/>
       <c r="BK12" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BK3"/>
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="AT3:AV3"/>
+    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="AN3:AP3"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="A3:A4"/>
@@ -4757,18 +4814,6 @@
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:U3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AK3:AM3"/>
-    <mergeCell ref="AN3:AP3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BK3"/>
-    <mergeCell ref="AQ3:AS3"/>
-    <mergeCell ref="AT3:AV3"/>
-    <mergeCell ref="AW3:AY3"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="BC3:BE3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5119,7 +5164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="BA9" sqref="BA9"/>
       <selection pane="topRight" activeCell="BA9" sqref="BA9"/>

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TOEIC 300-500 K1" sheetId="2" r:id="rId1"/>
@@ -13,14 +13,15 @@
     <sheet name="TOEIC 300-500 K3" sheetId="6" r:id="rId4"/>
     <sheet name="TOEIC 300-500 K3-BTap+Vang" sheetId="7" r:id="rId5"/>
     <sheet name="TOEIC 500-700 K2" sheetId="9" r:id="rId6"/>
-    <sheet name="TOEIC 300-500 K4" sheetId="10" r:id="rId7"/>
+    <sheet name="TOEIC 500-700 K2-Vang+Btap" sheetId="11" r:id="rId7"/>
+    <sheet name="TOEIC 300-500 K4" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="111">
   <si>
     <t>x</t>
   </si>
@@ -338,6 +339,21 @@
   </si>
   <si>
     <t>21/4-Lesson 18</t>
+  </si>
+  <si>
+    <t>17/4</t>
+  </si>
+  <si>
+    <t>19/4</t>
+  </si>
+  <si>
+    <t>21/4</t>
+  </si>
+  <si>
+    <t>Lê Khánh Toàn</t>
+  </si>
+  <si>
+    <t>Ghi chú: "x": vắng</t>
   </si>
 </sst>
 </file>
@@ -545,7 +561,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -660,6 +676,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -3434,7 +3453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="BH11" sqref="BH11"/>
     </sheetView>
   </sheetViews>
@@ -4791,18 +4810,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BK3"/>
-    <mergeCell ref="AQ3:AS3"/>
-    <mergeCell ref="AT3:AV3"/>
-    <mergeCell ref="AW3:AY3"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AK3:AM3"/>
-    <mergeCell ref="AN3:AP3"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="A3:A4"/>
@@ -4814,6 +4821,18 @@
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:U3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="AN3:AP3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BK3"/>
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="AT3:AV3"/>
+    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="BC3:BE3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5162,6 +5181,394 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="3" max="5" width="5.42578125" style="17" customWidth="1"/>
+    <col min="6" max="19" width="9.140625" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+    </row>
+    <row r="4" spans="1:19" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+    </row>
+    <row r="5" spans="1:19" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>1</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+    </row>
+    <row r="6" spans="1:19" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>2</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+    </row>
+    <row r="7" spans="1:19" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>3</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+    </row>
+    <row r="8" spans="1:19" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>4</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+    </row>
+    <row r="9" spans="1:19" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>5</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+    </row>
+    <row r="10" spans="1:19" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+    </row>
+    <row r="11" spans="1:19" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+    </row>
+    <row r="12" spans="1:19" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+    </row>
+    <row r="13" spans="1:19" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+    </row>
+    <row r="14" spans="1:19" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+    </row>
+    <row r="15" spans="1:19" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+    </row>
+    <row r="16" spans="1:19" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+    </row>
+    <row r="17" spans="3:19" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+    </row>
+    <row r="18" spans="3:19" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="TOEIC 300-500 K1" sheetId="2" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="TOEIC 500-700 K2" sheetId="9" r:id="rId6"/>
     <sheet name="TOEIC 500-700 K2-Vang+Btap" sheetId="11" r:id="rId7"/>
     <sheet name="TOEIC 300-500 K4" sheetId="10" r:id="rId8"/>
+    <sheet name="TOEIC 300-500 K4-Vang+Btap" sheetId="12" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="116">
   <si>
     <t>x</t>
   </si>
@@ -354,6 +355,21 @@
   </si>
   <si>
     <t>Ghi chú: "x": vắng</t>
+  </si>
+  <si>
+    <t>Hồ Ngọc Phú</t>
+  </si>
+  <si>
+    <t>thiếu 54k</t>
+  </si>
+  <si>
+    <t>18/4</t>
+  </si>
+  <si>
+    <t>20/4</t>
+  </si>
+  <si>
+    <t>22/4</t>
   </si>
 </sst>
 </file>
@@ -4810,6 +4826,18 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BK3"/>
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="AT3:AV3"/>
+    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="AN3:AP3"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="A3:A4"/>
@@ -4821,18 +4849,6 @@
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:U3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AK3:AM3"/>
-    <mergeCell ref="AN3:AP3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BK3"/>
-    <mergeCell ref="AQ3:AS3"/>
-    <mergeCell ref="AT3:AV3"/>
-    <mergeCell ref="AW3:AY3"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="BC3:BE3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5183,7 +5199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -5576,7 +5592,7 @@
       <selection activeCell="BA9" sqref="BA9"/>
       <selection pane="topRight" activeCell="BA9" sqref="BA9"/>
       <selection pane="bottomLeft" activeCell="BA9" sqref="BA9"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5755,7 +5771,7 @@
       <c r="B6" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="23"/>
@@ -5847,7 +5863,7 @@
       <c r="B8" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="17" t="s">
         <v>0</v>
       </c>
       <c r="E8" s="14" t="s">
@@ -5900,7 +5916,7 @@
       <c r="B9" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="17" t="s">
         <v>0</v>
       </c>
       <c r="E9" s="14" t="s">
@@ -5926,7 +5942,7 @@
       <c r="B10" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="17" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="14" t="s">
@@ -5963,11 +5979,21 @@
       <c r="B12" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="C12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C12" s="17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>10</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>112</v>
+      </c>
+    </row>
     <row r="14" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5988,4 +6014,365 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="BA9" sqref="BA9"/>
+      <selection pane="topRight" activeCell="BA9" sqref="BA9"/>
+      <selection pane="bottomLeft" activeCell="BA9" sqref="BA9"/>
+      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="3" max="5" width="6.140625" style="17" customWidth="1"/>
+    <col min="6" max="20" width="9.140625" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B1" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+    </row>
+    <row r="4" spans="1:20" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>1</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+    </row>
+    <row r="5" spans="1:20" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>2</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+    </row>
+    <row r="6" spans="1:20" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>3</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+    </row>
+    <row r="7" spans="1:20" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>4</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+    </row>
+    <row r="8" spans="1:20" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>5</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+    </row>
+    <row r="9" spans="1:20" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>6</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+    </row>
+    <row r="10" spans="1:20" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>7</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+    </row>
+    <row r="11" spans="1:20" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>8</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+    </row>
+    <row r="12" spans="1:20" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>9</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+    </row>
+    <row r="13" spans="1:20" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>10</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+    </row>
+    <row r="14" spans="1:20" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+    </row>
+    <row r="15" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TOEIC 300-500 K1" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="117">
   <si>
     <t>x</t>
   </si>
@@ -370,6 +370,9 @@
   </si>
   <si>
     <t>22/4</t>
+  </si>
+  <si>
+    <t>24/4-Lesson 19</t>
   </si>
 </sst>
 </file>
@@ -3469,8 +3472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="BH11" sqref="BH11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BM10" sqref="BM10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3607,7 +3610,9 @@
       </c>
       <c r="BG3" s="45"/>
       <c r="BH3" s="45"/>
-      <c r="BI3" s="45"/>
+      <c r="BI3" s="45" t="s">
+        <v>116</v>
+      </c>
       <c r="BJ3" s="45"/>
       <c r="BK3" s="45"/>
     </row>
@@ -3933,9 +3938,15 @@
       <c r="BH5" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="BI5" s="34"/>
-      <c r="BJ5" s="34"/>
-      <c r="BK5" s="34"/>
+      <c r="BI5" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK5" s="34" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34">
@@ -4066,8 +4077,12 @@
       <c r="BH6" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="BI6" s="34"/>
-      <c r="BJ6" s="34"/>
+      <c r="BI6" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="34" t="s">
+        <v>0</v>
+      </c>
       <c r="BK6" s="34"/>
     </row>
     <row r="7" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4177,8 +4192,12 @@
         <v>0</v>
       </c>
       <c r="BH7" s="34"/>
-      <c r="BI7" s="34"/>
-      <c r="BJ7" s="34"/>
+      <c r="BI7" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="34" t="s">
+        <v>0</v>
+      </c>
       <c r="BK7" s="34"/>
     </row>
     <row r="8" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4308,9 +4327,15 @@
       <c r="BH8" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="BI8" s="34"/>
-      <c r="BJ8" s="34"/>
-      <c r="BK8" s="34"/>
+      <c r="BI8" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK8" s="34" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34">
@@ -4437,8 +4462,12 @@
         <v>0</v>
       </c>
       <c r="BH9" s="34"/>
-      <c r="BI9" s="34"/>
-      <c r="BJ9" s="34"/>
+      <c r="BI9" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ9" s="34" t="s">
+        <v>0</v>
+      </c>
       <c r="BK9" s="34"/>
     </row>
     <row r="10" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4570,9 +4599,15 @@
         <v>0</v>
       </c>
       <c r="BH10" s="34"/>
-      <c r="BI10" s="34"/>
-      <c r="BJ10" s="34"/>
-      <c r="BK10" s="34"/>
+      <c r="BI10" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ10" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK10" s="34" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="34">
@@ -4691,8 +4726,12 @@
         <v>0</v>
       </c>
       <c r="BH11" s="34"/>
-      <c r="BI11" s="34"/>
-      <c r="BJ11" s="34"/>
+      <c r="BI11" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ11" s="34" t="s">
+        <v>0</v>
+      </c>
       <c r="BK11" s="34"/>
     </row>
     <row r="12" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4820,24 +4859,18 @@
       <c r="BH12" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="BI12" s="34"/>
-      <c r="BJ12" s="34"/>
-      <c r="BK12" s="34"/>
+      <c r="BI12" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ12" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK12" s="34" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BK3"/>
-    <mergeCell ref="AQ3:AS3"/>
-    <mergeCell ref="AT3:AV3"/>
-    <mergeCell ref="AW3:AY3"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AK3:AM3"/>
-    <mergeCell ref="AN3:AP3"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="A3:A4"/>
@@ -4849,6 +4882,18 @@
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:U3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="AN3:AP3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BK3"/>
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="AT3:AV3"/>
+    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="BC3:BE3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6020,7 +6065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="BA9" sqref="BA9"/>
       <selection pane="topRight" activeCell="BA9" sqref="BA9"/>

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TOEIC 300-500 K1" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="118">
   <si>
     <t>x</t>
   </si>
@@ -373,6 +373,9 @@
   </si>
   <si>
     <t>24/4-Lesson 19</t>
+  </si>
+  <si>
+    <t>24/4</t>
   </si>
 </sst>
 </file>
@@ -3472,7 +3475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="BM10" sqref="BM10"/>
     </sheetView>
   </sheetViews>
@@ -4871,6 +4874,18 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BK3"/>
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="AT3:AV3"/>
+    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="AN3:AP3"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="A3:A4"/>
@@ -4882,18 +4897,6 @@
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:U3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AK3:AM3"/>
-    <mergeCell ref="AN3:AP3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BK3"/>
-    <mergeCell ref="AQ3:AS3"/>
-    <mergeCell ref="AT3:AV3"/>
-    <mergeCell ref="AW3:AY3"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="BC3:BE3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5244,23 +5247,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
     <col min="2" max="2" width="26.5703125" customWidth="1"/>
-    <col min="3" max="5" width="5.42578125" style="17" customWidth="1"/>
-    <col min="6" max="19" width="9.140625" style="17"/>
+    <col min="3" max="12" width="6.7109375" style="17" customWidth="1"/>
+    <col min="13" max="19" width="9.140625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B1" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="M1" s="17" t="s">
         <v>110</v>
       </c>
     </row>
@@ -5280,7 +5283,9 @@
       <c r="E3" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="14"/>
+      <c r="F3" s="14" t="s">
+        <v>117</v>
+      </c>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
@@ -5431,7 +5436,9 @@
         <v>0</v>
       </c>
       <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
+      <c r="E9" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="TOEIC 300-500 K1" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="121">
   <si>
     <t>x</t>
   </si>
@@ -376,6 +376,15 @@
   </si>
   <si>
     <t>24/4</t>
+  </si>
+  <si>
+    <t>25/4</t>
+  </si>
+  <si>
+    <t>Đặng Thảo Nguyên</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Minh Toàn</t>
   </si>
 </sst>
 </file>
@@ -4874,18 +4883,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BK3"/>
-    <mergeCell ref="AQ3:AS3"/>
-    <mergeCell ref="AT3:AV3"/>
-    <mergeCell ref="AW3:AY3"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AK3:AM3"/>
-    <mergeCell ref="AN3:AP3"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="A3:A4"/>
@@ -4897,6 +4894,18 @@
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:U3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="AN3:AP3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BK3"/>
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="AT3:AV3"/>
+    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="BC3:BE3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5247,7 +5256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -5639,12 +5648,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="BA9" sqref="BA9"/>
       <selection pane="topRight" activeCell="BA9" sqref="BA9"/>
       <selection pane="bottomLeft" activeCell="BA9" sqref="BA9"/>
-      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6046,8 +6055,28 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <v>12</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="16" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6077,7 +6106,7 @@
       <selection activeCell="BA9" sqref="BA9"/>
       <selection pane="topRight" activeCell="BA9" sqref="BA9"/>
       <selection pane="bottomLeft" activeCell="BA9" sqref="BA9"/>
-      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6109,7 +6138,9 @@
       <c r="E3" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -6398,9 +6429,21 @@
       <c r="T13" s="14"/>
     </row>
     <row r="14" spans="1:20" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
+      <c r="A14" s="14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -6417,7 +6460,23 @@
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
     </row>
-    <row r="15" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <v>12</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="16" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="TOEIC 300-500 K1" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="120">
   <si>
     <t>x</t>
   </si>
@@ -358,9 +358,6 @@
   </si>
   <si>
     <t>Hồ Ngọc Phú</t>
-  </si>
-  <si>
-    <t>thiếu 54k</t>
   </si>
   <si>
     <t>18/4</t>
@@ -592,7 +589,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -709,6 +706,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3623,7 +3628,7 @@
       <c r="BG3" s="45"/>
       <c r="BH3" s="45"/>
       <c r="BI3" s="45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BJ3" s="45"/>
       <c r="BK3" s="45"/>
@@ -4883,6 +4888,18 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BK3"/>
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="AT3:AV3"/>
+    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="AN3:AP3"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="A3:A4"/>
@@ -4894,18 +4911,6 @@
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:U3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AK3:AM3"/>
-    <mergeCell ref="AN3:AP3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BK3"/>
-    <mergeCell ref="AQ3:AS3"/>
-    <mergeCell ref="AT3:AV3"/>
-    <mergeCell ref="AW3:AY3"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="BC3:BE3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5293,7 +5298,7 @@
         <v>108</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
@@ -5648,12 +5653,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="BA9" sqref="BA9"/>
       <selection pane="topRight" activeCell="BA9" sqref="BA9"/>
       <selection pane="bottomLeft" activeCell="BA9" sqref="BA9"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6022,16 +6027,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+    <row r="11" spans="1:18" s="49" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="25">
         <v>8</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="49" t="s">
         <v>104</v>
       </c>
+      <c r="D11" s="50"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
     </row>
     <row r="12" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
@@ -6052,7 +6065,7 @@
         <v>111</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6060,7 +6073,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>0</v>
@@ -6071,7 +6084,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>0</v>
@@ -6099,22 +6112,23 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="BA9" sqref="BA9"/>
       <selection pane="topRight" activeCell="BA9" sqref="BA9"/>
       <selection pane="bottomLeft" activeCell="BA9" sqref="BA9"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="26.5703125" customWidth="1"/>
     <col min="3" max="5" width="6.140625" style="17" customWidth="1"/>
-    <col min="6" max="20" width="9.140625" style="17"/>
+    <col min="6" max="6" width="5.5703125" style="17" customWidth="1"/>
+    <col min="7" max="20" width="9.140625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
@@ -6122,78 +6136,54 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="51" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-    </row>
-    <row r="4" spans="1:20" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
-        <v>1</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
     </row>
     <row r="5" spans="1:20" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="14" t="s">
-        <v>0</v>
-      </c>
+      <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
@@ -6212,14 +6202,16 @@
     </row>
     <row r="6" spans="1:20" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
+      <c r="E6" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
@@ -6238,10 +6230,10 @@
     </row>
     <row r="7" spans="1:20" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -6264,10 +6256,10 @@
     </row>
     <row r="8" spans="1:20" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -6290,15 +6282,17 @@
     </row>
     <row r="9" spans="1:20" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="F9" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
@@ -6316,10 +6310,10 @@
     </row>
     <row r="10" spans="1:20" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
@@ -6342,18 +6336,14 @@
     </row>
     <row r="11" spans="1:20" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>0</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="C11" s="14"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="14" t="s">
-        <v>0</v>
-      </c>
+      <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
@@ -6370,47 +6360,47 @@
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
     </row>
-    <row r="12" spans="1:20" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
-        <v>9</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
+    <row r="12" spans="1:20" s="48" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="25">
+        <v>8</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
     </row>
     <row r="13" spans="1:20" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>0</v>
-      </c>
+      <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
@@ -6430,10 +6420,10 @@
     </row>
     <row r="14" spans="1:20" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>0</v>
@@ -6441,9 +6431,7 @@
       <c r="D14" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>0</v>
-      </c>
+      <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -6460,29 +6448,65 @@
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
     </row>
-    <row r="15" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
+        <v>11</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+    </row>
+    <row r="16" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
         <v>12</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B16" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="17" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TOEIC 300-500 K1" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="121">
   <si>
     <t>x</t>
   </si>
@@ -382,6 +382,9 @@
   </si>
   <si>
     <t>Nguyễn Thị Minh Toàn</t>
+  </si>
+  <si>
+    <t>26/4-Lesson 20</t>
   </si>
 </sst>
 </file>
@@ -552,7 +555,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -564,6 +567,43 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -589,7 +629,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -687,6 +727,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -708,13 +756,17 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1060,30 +1112,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="43" t="s">
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="41" t="s">
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="P2" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="41" t="s">
+      <c r="Q2" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="R2" s="45" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1127,11 +1179,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -1384,30 +1436,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="43" t="s">
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="41" t="s">
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="P2" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="41" t="s">
+      <c r="Q2" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="44" t="s">
+      <c r="R2" s="48" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1451,11 +1503,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="44"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="48"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -2430,30 +2482,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="43" t="s">
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="41" t="s">
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="P2" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="41" t="s">
+      <c r="Q2" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="R2" s="45" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2497,11 +2549,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -2811,30 +2863,30 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="43" t="s">
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="41" t="s">
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="41" t="s">
+      <c r="Q2" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="R2" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="41" t="s">
+      <c r="S2" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="41" t="s">
+      <c r="T2" s="45" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2884,11 +2936,11 @@
       <c r="O3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
     </row>
     <row r="4" spans="1:20" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -3487,10 +3539,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BK12"/>
+  <dimension ref="A1:CF12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="BM10" sqref="BM10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BQ10" sqref="BQ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3507,14 +3559,16 @@
     <col min="42" max="42" width="5.7109375" hidden="1" customWidth="1"/>
     <col min="43" max="44" width="5.42578125" hidden="1" customWidth="1"/>
     <col min="45" max="45" width="6.42578125" hidden="1" customWidth="1"/>
-    <col min="46" max="47" width="5.42578125" customWidth="1"/>
-    <col min="48" max="48" width="7.28515625" customWidth="1"/>
-    <col min="49" max="50" width="5.42578125" customWidth="1"/>
-    <col min="51" max="51" width="6.28515625" customWidth="1"/>
-    <col min="52" max="67" width="5.42578125" customWidth="1"/>
+    <col min="46" max="47" width="5.42578125" hidden="1" customWidth="1"/>
+    <col min="48" max="48" width="7.28515625" hidden="1" customWidth="1"/>
+    <col min="49" max="50" width="5.42578125" hidden="1" customWidth="1"/>
+    <col min="51" max="51" width="6.28515625" hidden="1" customWidth="1"/>
+    <col min="52" max="60" width="5.42578125" hidden="1" customWidth="1"/>
+    <col min="61" max="63" width="5.42578125" customWidth="1"/>
+    <col min="64" max="95" width="5.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:84" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
@@ -3522,121 +3576,144 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:63" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+    <row r="3" spans="1:84" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45" t="s">
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45" t="s">
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45" t="s">
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45" t="s">
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45" t="s">
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45" t="s">
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45" t="s">
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="45" t="s">
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="45"/>
-      <c r="AE3" s="45" t="s">
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45" t="s">
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="49"/>
+      <c r="AH3" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="45"/>
-      <c r="AK3" s="45" t="s">
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="45"/>
-      <c r="AN3" s="45" t="s">
+      <c r="AL3" s="49"/>
+      <c r="AM3" s="49"/>
+      <c r="AN3" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="AO3" s="45"/>
-      <c r="AP3" s="45"/>
-      <c r="AQ3" s="45" t="s">
+      <c r="AO3" s="49"/>
+      <c r="AP3" s="49"/>
+      <c r="AQ3" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="AR3" s="45"/>
-      <c r="AS3" s="45"/>
-      <c r="AT3" s="45" t="s">
+      <c r="AR3" s="49"/>
+      <c r="AS3" s="49"/>
+      <c r="AT3" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="AU3" s="45"/>
-      <c r="AV3" s="45"/>
-      <c r="AW3" s="45" t="s">
+      <c r="AU3" s="49"/>
+      <c r="AV3" s="49"/>
+      <c r="AW3" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="AX3" s="45"/>
-      <c r="AY3" s="45"/>
-      <c r="AZ3" s="45" t="s">
+      <c r="AX3" s="49"/>
+      <c r="AY3" s="49"/>
+      <c r="AZ3" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="BA3" s="45"/>
-      <c r="BB3" s="45"/>
-      <c r="BC3" s="45" t="s">
+      <c r="BA3" s="49"/>
+      <c r="BB3" s="49"/>
+      <c r="BC3" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="BD3" s="45"/>
-      <c r="BE3" s="45"/>
-      <c r="BF3" s="45" t="s">
+      <c r="BD3" s="49"/>
+      <c r="BE3" s="49"/>
+      <c r="BF3" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="BG3" s="45"/>
-      <c r="BH3" s="45"/>
-      <c r="BI3" s="45" t="s">
+      <c r="BG3" s="49"/>
+      <c r="BH3" s="49"/>
+      <c r="BI3" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="BJ3" s="45"/>
-      <c r="BK3" s="45"/>
-    </row>
-    <row r="4" spans="1:63" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
+      <c r="BJ3" s="49"/>
+      <c r="BK3" s="49"/>
+      <c r="BL3" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="BM3" s="49"/>
+      <c r="BN3" s="49"/>
+      <c r="BO3" s="49"/>
+      <c r="BP3" s="49"/>
+      <c r="BQ3" s="49"/>
+      <c r="BR3" s="49"/>
+      <c r="BS3" s="49"/>
+      <c r="BT3" s="49"/>
+      <c r="BU3" s="53"/>
+      <c r="BV3" s="54"/>
+      <c r="BW3" s="55"/>
+      <c r="BX3" s="53"/>
+      <c r="BY3" s="54"/>
+      <c r="BZ3" s="55"/>
+      <c r="CA3" s="53"/>
+      <c r="CB3" s="54"/>
+      <c r="CC3" s="55"/>
+      <c r="CD3" s="53"/>
+      <c r="CE3" s="54"/>
+      <c r="CF3" s="55"/>
+    </row>
+    <row r="4" spans="1:84" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="34" t="s">
         <v>66</v>
       </c>
@@ -3817,8 +3894,71 @@
       <c r="BK4" s="34" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="5" spans="1:63" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BL4" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM4" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="BN4" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO4" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP4" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ4" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="BR4" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="BS4" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="BT4" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="BU4" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="BV4" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="BW4" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="BX4" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="BY4" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="BZ4" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="CA4" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="CB4" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="CC4" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="CD4" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="CE4" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="CF4" s="34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:84" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="34">
         <v>1</v>
       </c>
@@ -3964,8 +4104,35 @@
       <c r="BK5" s="34" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BL5" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM5" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN5" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO5" s="41"/>
+      <c r="BP5" s="41"/>
+      <c r="BQ5" s="41"/>
+      <c r="BR5" s="41"/>
+      <c r="BS5" s="41"/>
+      <c r="BT5" s="41"/>
+      <c r="BU5" s="41"/>
+      <c r="BV5" s="41"/>
+      <c r="BW5" s="41"/>
+      <c r="BX5" s="41"/>
+      <c r="BY5" s="41"/>
+      <c r="BZ5" s="41"/>
+      <c r="CA5" s="41"/>
+      <c r="CB5" s="41"/>
+      <c r="CC5" s="41"/>
+      <c r="CD5" s="41"/>
+      <c r="CE5" s="41"/>
+      <c r="CF5" s="41"/>
+    </row>
+    <row r="6" spans="1:84" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34">
         <v>2</v>
       </c>
@@ -4101,8 +4268,33 @@
         <v>0</v>
       </c>
       <c r="BK6" s="34"/>
-    </row>
-    <row r="7" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BL6" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM6" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN6" s="40"/>
+      <c r="BO6" s="40"/>
+      <c r="BP6" s="40"/>
+      <c r="BQ6" s="40"/>
+      <c r="BR6" s="40"/>
+      <c r="BS6" s="40"/>
+      <c r="BT6" s="40"/>
+      <c r="BU6" s="40"/>
+      <c r="BV6" s="40"/>
+      <c r="BW6" s="40"/>
+      <c r="BX6" s="40"/>
+      <c r="BY6" s="40"/>
+      <c r="BZ6" s="40"/>
+      <c r="CA6" s="40"/>
+      <c r="CB6" s="40"/>
+      <c r="CC6" s="40"/>
+      <c r="CD6" s="40"/>
+      <c r="CE6" s="40"/>
+      <c r="CF6" s="40"/>
+    </row>
+    <row r="7" spans="1:84" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="34">
         <v>3</v>
       </c>
@@ -4216,8 +4408,33 @@
         <v>0</v>
       </c>
       <c r="BK7" s="34"/>
-    </row>
-    <row r="8" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BL7" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM7" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN7" s="40"/>
+      <c r="BO7" s="40"/>
+      <c r="BP7" s="40"/>
+      <c r="BQ7" s="40"/>
+      <c r="BR7" s="40"/>
+      <c r="BS7" s="40"/>
+      <c r="BT7" s="40"/>
+      <c r="BU7" s="40"/>
+      <c r="BV7" s="40"/>
+      <c r="BW7" s="40"/>
+      <c r="BX7" s="40"/>
+      <c r="BY7" s="40"/>
+      <c r="BZ7" s="40"/>
+      <c r="CA7" s="40"/>
+      <c r="CB7" s="40"/>
+      <c r="CC7" s="40"/>
+      <c r="CD7" s="40"/>
+      <c r="CE7" s="40"/>
+      <c r="CF7" s="40"/>
+    </row>
+    <row r="8" spans="1:84" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="34">
         <v>4</v>
       </c>
@@ -4353,8 +4570,35 @@
       <c r="BK8" s="34" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BL8" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM8" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN8" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO8" s="40"/>
+      <c r="BP8" s="40"/>
+      <c r="BQ8" s="40"/>
+      <c r="BR8" s="40"/>
+      <c r="BS8" s="40"/>
+      <c r="BT8" s="40"/>
+      <c r="BU8" s="40"/>
+      <c r="BV8" s="40"/>
+      <c r="BW8" s="40"/>
+      <c r="BX8" s="40"/>
+      <c r="BY8" s="40"/>
+      <c r="BZ8" s="40"/>
+      <c r="CA8" s="40"/>
+      <c r="CB8" s="40"/>
+      <c r="CC8" s="40"/>
+      <c r="CD8" s="40"/>
+      <c r="CE8" s="40"/>
+      <c r="CF8" s="40"/>
+    </row>
+    <row r="9" spans="1:84" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34">
         <v>5</v>
       </c>
@@ -4486,8 +4730,35 @@
         <v>0</v>
       </c>
       <c r="BK9" s="34"/>
-    </row>
-    <row r="10" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BL9" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM9" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN9" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO9" s="40"/>
+      <c r="BP9" s="40"/>
+      <c r="BQ9" s="40"/>
+      <c r="BR9" s="40"/>
+      <c r="BS9" s="40"/>
+      <c r="BT9" s="40"/>
+      <c r="BU9" s="40"/>
+      <c r="BV9" s="40"/>
+      <c r="BW9" s="40"/>
+      <c r="BX9" s="40"/>
+      <c r="BY9" s="40"/>
+      <c r="BZ9" s="40"/>
+      <c r="CA9" s="40"/>
+      <c r="CB9" s="40"/>
+      <c r="CC9" s="40"/>
+      <c r="CD9" s="40"/>
+      <c r="CE9" s="40"/>
+      <c r="CF9" s="40"/>
+    </row>
+    <row r="10" spans="1:84" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="34">
         <v>6</v>
       </c>
@@ -4625,8 +4896,33 @@
       <c r="BK10" s="34" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BL10" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM10" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN10" s="40"/>
+      <c r="BO10" s="40"/>
+      <c r="BP10" s="40"/>
+      <c r="BQ10" s="40"/>
+      <c r="BR10" s="40"/>
+      <c r="BS10" s="40"/>
+      <c r="BT10" s="40"/>
+      <c r="BU10" s="40"/>
+      <c r="BV10" s="40"/>
+      <c r="BW10" s="40"/>
+      <c r="BX10" s="40"/>
+      <c r="BY10" s="40"/>
+      <c r="BZ10" s="40"/>
+      <c r="CA10" s="40"/>
+      <c r="CB10" s="40"/>
+      <c r="CC10" s="40"/>
+      <c r="CD10" s="40"/>
+      <c r="CE10" s="40"/>
+      <c r="CF10" s="40"/>
+    </row>
+    <row r="11" spans="1:84" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="34">
         <v>7</v>
       </c>
@@ -4750,8 +5046,33 @@
         <v>0</v>
       </c>
       <c r="BK11" s="34"/>
-    </row>
-    <row r="12" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BL11" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM11" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN11" s="40"/>
+      <c r="BO11" s="40"/>
+      <c r="BP11" s="40"/>
+      <c r="BQ11" s="40"/>
+      <c r="BR11" s="40"/>
+      <c r="BS11" s="40"/>
+      <c r="BT11" s="40"/>
+      <c r="BU11" s="40"/>
+      <c r="BV11" s="40"/>
+      <c r="BW11" s="40"/>
+      <c r="BX11" s="40"/>
+      <c r="BY11" s="40"/>
+      <c r="BZ11" s="40"/>
+      <c r="CA11" s="40"/>
+      <c r="CB11" s="40"/>
+      <c r="CC11" s="40"/>
+      <c r="CD11" s="40"/>
+      <c r="CE11" s="40"/>
+      <c r="CF11" s="40"/>
+    </row>
+    <row r="12" spans="1:84" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="34">
         <v>8</v>
       </c>
@@ -4885,21 +5206,43 @@
       <c r="BK12" s="34" t="s">
         <v>0</v>
       </c>
+      <c r="BL12" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM12" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN12" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO12" s="40"/>
+      <c r="BP12" s="40"/>
+      <c r="BQ12" s="40"/>
+      <c r="BR12" s="40"/>
+      <c r="BS12" s="40"/>
+      <c r="BT12" s="40"/>
+      <c r="BU12" s="40"/>
+      <c r="BV12" s="40"/>
+      <c r="BW12" s="40"/>
+      <c r="BX12" s="40"/>
+      <c r="BY12" s="40"/>
+      <c r="BZ12" s="40"/>
+      <c r="CA12" s="40"/>
+      <c r="CB12" s="40"/>
+      <c r="CC12" s="40"/>
+      <c r="CD12" s="40"/>
+      <c r="CE12" s="40"/>
+      <c r="CF12" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BK3"/>
-    <mergeCell ref="AQ3:AS3"/>
-    <mergeCell ref="AT3:AV3"/>
-    <mergeCell ref="AW3:AY3"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AK3:AM3"/>
-    <mergeCell ref="AN3:AP3"/>
+  <mergeCells count="30">
+    <mergeCell ref="CA3:CC3"/>
+    <mergeCell ref="CD3:CF3"/>
+    <mergeCell ref="BL3:BN3"/>
+    <mergeCell ref="BO3:BQ3"/>
+    <mergeCell ref="BR3:BT3"/>
+    <mergeCell ref="BU3:BW3"/>
+    <mergeCell ref="BX3:BZ3"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="A3:A4"/>
@@ -4911,6 +5254,18 @@
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:U3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="AN3:AP3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BK3"/>
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="AT3:AV3"/>
+    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="BC3:BE3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4951,30 +5306,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="43" t="s">
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="41" t="s">
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="P2" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="41" t="s">
+      <c r="Q2" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="R2" s="45" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5018,11 +5373,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -5282,10 +5637,10 @@
       </c>
     </row>
     <row r="3" spans="1:19" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="51" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="14" t="s">
@@ -5315,8 +5670,8 @@
       <c r="S3" s="14"/>
     </row>
     <row r="4" spans="1:19" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
@@ -5683,30 +6038,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="43" t="s">
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="41" t="s">
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="P2" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="41" t="s">
+      <c r="Q2" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="R2" s="45" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5750,11 +6105,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -6027,17 +6382,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="49" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" s="43" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>8</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="50"/>
+      <c r="D11" s="44"/>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
@@ -6114,7 +6469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="BA9" sqref="BA9"/>
       <selection pane="topRight" activeCell="BA9" sqref="BA9"/>
@@ -6137,10 +6492,10 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="52" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -6157,8 +6512,8 @@
       </c>
     </row>
     <row r="4" spans="1:20" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -6360,11 +6715,11 @@
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
     </row>
-    <row r="12" spans="1:20" s="48" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" s="42" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>8</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="42" t="s">
         <v>102</v>
       </c>
       <c r="C12" s="25" t="s">

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TOEIC 300-500 K1" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="123">
   <si>
     <t>x</t>
   </si>
@@ -385,6 +385,12 @@
   </si>
   <si>
     <t>26/4-Lesson 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vở </t>
+  </si>
+  <si>
+    <t>26/4-Lesson 1</t>
   </si>
 </sst>
 </file>
@@ -629,7 +635,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -747,18 +753,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -767,6 +761,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -3541,7 +3559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CF12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="BQ10" sqref="BQ10"/>
     </sheetView>
   </sheetViews>
@@ -3577,143 +3595,143 @@
       </c>
     </row>
     <row r="3" spans="1:84" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49" t="s">
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49" t="s">
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49" t="s">
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49" t="s">
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49" t="s">
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49" t="s">
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="49" t="s">
+      <c r="W3" s="52"/>
+      <c r="X3" s="52"/>
+      <c r="Y3" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="49"/>
-      <c r="AB3" s="49" t="s">
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="52"/>
+      <c r="AB3" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="AC3" s="49"/>
-      <c r="AD3" s="49"/>
-      <c r="AE3" s="49" t="s">
+      <c r="AC3" s="52"/>
+      <c r="AD3" s="52"/>
+      <c r="AE3" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="AF3" s="49"/>
-      <c r="AG3" s="49"/>
-      <c r="AH3" s="49" t="s">
+      <c r="AF3" s="52"/>
+      <c r="AG3" s="52"/>
+      <c r="AH3" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="49"/>
-      <c r="AK3" s="49" t="s">
+      <c r="AI3" s="52"/>
+      <c r="AJ3" s="52"/>
+      <c r="AK3" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="AL3" s="49"/>
-      <c r="AM3" s="49"/>
-      <c r="AN3" s="49" t="s">
+      <c r="AL3" s="52"/>
+      <c r="AM3" s="52"/>
+      <c r="AN3" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="AO3" s="49"/>
-      <c r="AP3" s="49"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="AO3" s="52"/>
+      <c r="AP3" s="52"/>
+      <c r="AQ3" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="AR3" s="49"/>
-      <c r="AS3" s="49"/>
-      <c r="AT3" s="49" t="s">
+      <c r="AR3" s="52"/>
+      <c r="AS3" s="52"/>
+      <c r="AT3" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="AU3" s="49"/>
-      <c r="AV3" s="49"/>
-      <c r="AW3" s="49" t="s">
+      <c r="AU3" s="52"/>
+      <c r="AV3" s="52"/>
+      <c r="AW3" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="AX3" s="49"/>
-      <c r="AY3" s="49"/>
-      <c r="AZ3" s="49" t="s">
+      <c r="AX3" s="52"/>
+      <c r="AY3" s="52"/>
+      <c r="AZ3" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="BA3" s="49"/>
-      <c r="BB3" s="49"/>
-      <c r="BC3" s="49" t="s">
+      <c r="BA3" s="52"/>
+      <c r="BB3" s="52"/>
+      <c r="BC3" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="BD3" s="49"/>
-      <c r="BE3" s="49"/>
-      <c r="BF3" s="49" t="s">
+      <c r="BD3" s="52"/>
+      <c r="BE3" s="52"/>
+      <c r="BF3" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="BG3" s="49"/>
-      <c r="BH3" s="49"/>
-      <c r="BI3" s="49" t="s">
+      <c r="BG3" s="52"/>
+      <c r="BH3" s="52"/>
+      <c r="BI3" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="BJ3" s="49"/>
-      <c r="BK3" s="49"/>
-      <c r="BL3" s="49" t="s">
+      <c r="BJ3" s="52"/>
+      <c r="BK3" s="52"/>
+      <c r="BL3" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="BM3" s="49"/>
-      <c r="BN3" s="49"/>
-      <c r="BO3" s="49"/>
-      <c r="BP3" s="49"/>
-      <c r="BQ3" s="49"/>
-      <c r="BR3" s="49"/>
-      <c r="BS3" s="49"/>
-      <c r="BT3" s="49"/>
-      <c r="BU3" s="53"/>
-      <c r="BV3" s="54"/>
-      <c r="BW3" s="55"/>
-      <c r="BX3" s="53"/>
-      <c r="BY3" s="54"/>
-      <c r="BZ3" s="55"/>
-      <c r="CA3" s="53"/>
-      <c r="CB3" s="54"/>
-      <c r="CC3" s="55"/>
-      <c r="CD3" s="53"/>
-      <c r="CE3" s="54"/>
-      <c r="CF3" s="55"/>
+      <c r="BM3" s="52"/>
+      <c r="BN3" s="52"/>
+      <c r="BO3" s="52"/>
+      <c r="BP3" s="52"/>
+      <c r="BQ3" s="52"/>
+      <c r="BR3" s="52"/>
+      <c r="BS3" s="52"/>
+      <c r="BT3" s="52"/>
+      <c r="BU3" s="49"/>
+      <c r="BV3" s="50"/>
+      <c r="BW3" s="51"/>
+      <c r="BX3" s="49"/>
+      <c r="BY3" s="50"/>
+      <c r="BZ3" s="51"/>
+      <c r="CA3" s="49"/>
+      <c r="CB3" s="50"/>
+      <c r="CC3" s="51"/>
+      <c r="CD3" s="49"/>
+      <c r="CE3" s="50"/>
+      <c r="CF3" s="51"/>
     </row>
     <row r="4" spans="1:84" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="34" t="s">
         <v>66</v>
       </c>
@@ -5236,13 +5254,18 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="CA3:CC3"/>
-    <mergeCell ref="CD3:CF3"/>
-    <mergeCell ref="BL3:BN3"/>
-    <mergeCell ref="BO3:BQ3"/>
-    <mergeCell ref="BR3:BT3"/>
-    <mergeCell ref="BU3:BW3"/>
-    <mergeCell ref="BX3:BZ3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BK3"/>
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="AT3:AV3"/>
+    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="AN3:AP3"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="A3:A4"/>
@@ -5254,18 +5277,13 @@
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:U3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AK3:AM3"/>
-    <mergeCell ref="AN3:AP3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BK3"/>
-    <mergeCell ref="AQ3:AS3"/>
-    <mergeCell ref="AT3:AV3"/>
-    <mergeCell ref="AW3:AY3"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="CA3:CC3"/>
+    <mergeCell ref="CD3:CF3"/>
+    <mergeCell ref="BL3:BN3"/>
+    <mergeCell ref="BO3:BQ3"/>
+    <mergeCell ref="BR3:BT3"/>
+    <mergeCell ref="BU3:BW3"/>
+    <mergeCell ref="BX3:BZ3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5614,21 +5632,22 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
     <col min="2" max="2" width="26.5703125" customWidth="1"/>
-    <col min="3" max="12" width="6.7109375" style="17" customWidth="1"/>
-    <col min="13" max="19" width="9.140625" style="17"/>
+    <col min="3" max="6" width="6.7109375" style="17" customWidth="1"/>
+    <col min="7" max="19" width="5.85546875" style="17" customWidth="1"/>
+    <col min="20" max="22" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B1" s="6" t="s">
         <v>91</v>
       </c>
@@ -5636,194 +5655,235 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+    <row r="3" spans="1:22" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-    </row>
-    <row r="4" spans="1:19" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-    </row>
-    <row r="5" spans="1:19" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+      <c r="G3" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="35"/>
+    </row>
+    <row r="4" spans="1:22" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+    </row>
+    <row r="5" spans="1:22" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="34">
         <v>1</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-    </row>
-    <row r="6" spans="1:19" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+    </row>
+    <row r="6" spans="1:22" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="34">
         <v>2</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-    </row>
-    <row r="7" spans="1:19" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
+    </row>
+    <row r="7" spans="1:22" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="34">
         <v>3</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-    </row>
-    <row r="8" spans="1:19" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="35"/>
+    </row>
+    <row r="8" spans="1:22" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="34">
         <v>4</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-    </row>
-    <row r="9" spans="1:19" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+    </row>
+    <row r="9" spans="1:22" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="34">
         <v>5</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-    </row>
-    <row r="10" spans="1:19" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C9" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35"/>
+    </row>
+    <row r="10" spans="1:22" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -5842,7 +5902,7 @@
       <c r="R10" s="14"/>
       <c r="S10" s="14"/>
     </row>
-    <row r="11" spans="1:19" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -5861,7 +5921,7 @@
       <c r="R11" s="14"/>
       <c r="S11" s="14"/>
     </row>
-    <row r="12" spans="1:19" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
@@ -5880,7 +5940,7 @@
       <c r="R12" s="14"/>
       <c r="S12" s="14"/>
     </row>
-    <row r="13" spans="1:19" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
@@ -5899,7 +5959,7 @@
       <c r="R13" s="14"/>
       <c r="S13" s="14"/>
     </row>
-    <row r="14" spans="1:19" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
@@ -5918,7 +5978,7 @@
       <c r="R14" s="14"/>
       <c r="S14" s="14"/>
     </row>
-    <row r="15" spans="1:19" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
@@ -5937,7 +5997,7 @@
       <c r="R15" s="14"/>
       <c r="S15" s="14"/>
     </row>
-    <row r="16" spans="1:19" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
@@ -5995,9 +6055,14 @@
       <c r="S18" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="7">
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:U3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6492,10 +6557,10 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="54" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -6512,8 +6577,8 @@
       </c>
     </row>
     <row r="4" spans="1:20" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="TOEIC 300-500 K1" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="122">
   <si>
     <t>x</t>
   </si>
@@ -330,15 +330,9 @@
     <t>19/4-Lesson 17</t>
   </si>
   <si>
-    <t>Lê Khánh Linh</t>
-  </si>
-  <si>
     <t>Phạm Thiên Nam</t>
   </si>
   <si>
-    <t>chưa sách+học phí</t>
-  </si>
-  <si>
     <t>21/4-Lesson 18</t>
   </si>
   <si>
@@ -391,6 +385,9 @@
   </si>
   <si>
     <t>26/4-Lesson 1</t>
+  </si>
+  <si>
+    <t>27/4-Lesson 1</t>
   </si>
 </sst>
 </file>
@@ -561,7 +558,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -621,6 +618,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -635,7 +654,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -736,9 +755,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
@@ -753,6 +770,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -760,18 +783,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -785,6 +796,17 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1130,30 +1152,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="47" t="s">
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="45" t="s">
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="45" t="s">
+      <c r="O2" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="45" t="s">
+      <c r="P2" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="45" t="s">
+      <c r="Q2" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="45" t="s">
+      <c r="R2" s="43" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1197,11 +1219,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -1454,30 +1476,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="47" t="s">
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="45" t="s">
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="45" t="s">
+      <c r="O2" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="45" t="s">
+      <c r="P2" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="45" t="s">
+      <c r="Q2" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="48" t="s">
+      <c r="R2" s="46" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1521,11 +1543,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="48"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="46"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -2500,30 +2522,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="47" t="s">
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="45" t="s">
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="45" t="s">
+      <c r="O2" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="45" t="s">
+      <c r="P2" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="45" t="s">
+      <c r="Q2" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="45" t="s">
+      <c r="R2" s="43" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2567,11 +2589,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -2881,30 +2903,30 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I2" s="46" t="s">
+      <c r="I2" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="47" t="s">
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="45" t="s">
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="45" t="s">
+      <c r="Q2" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="45" t="s">
+      <c r="R2" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="45" t="s">
+      <c r="S2" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="45" t="s">
+      <c r="T2" s="43" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2954,11 +2976,11 @@
       <c r="O3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
     </row>
     <row r="4" spans="1:20" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -3595,126 +3617,126 @@
       </c>
     </row>
     <row r="3" spans="1:84" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52" t="s">
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52" t="s">
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52" t="s">
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52" t="s">
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52" t="s">
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="52" t="s">
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="W3" s="52"/>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="52" t="s">
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="52" t="s">
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="AC3" s="52"/>
-      <c r="AD3" s="52"/>
-      <c r="AE3" s="52" t="s">
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="47"/>
+      <c r="AE3" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="AF3" s="52"/>
-      <c r="AG3" s="52"/>
-      <c r="AH3" s="52" t="s">
+      <c r="AF3" s="47"/>
+      <c r="AG3" s="47"/>
+      <c r="AH3" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="AI3" s="52"/>
-      <c r="AJ3" s="52"/>
-      <c r="AK3" s="52" t="s">
+      <c r="AI3" s="47"/>
+      <c r="AJ3" s="47"/>
+      <c r="AK3" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="AL3" s="52"/>
-      <c r="AM3" s="52"/>
-      <c r="AN3" s="52" t="s">
+      <c r="AL3" s="47"/>
+      <c r="AM3" s="47"/>
+      <c r="AN3" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="AO3" s="52"/>
-      <c r="AP3" s="52"/>
-      <c r="AQ3" s="52" t="s">
+      <c r="AO3" s="47"/>
+      <c r="AP3" s="47"/>
+      <c r="AQ3" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="AR3" s="52"/>
-      <c r="AS3" s="52"/>
-      <c r="AT3" s="52" t="s">
+      <c r="AR3" s="47"/>
+      <c r="AS3" s="47"/>
+      <c r="AT3" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="AU3" s="52"/>
-      <c r="AV3" s="52"/>
-      <c r="AW3" s="52" t="s">
+      <c r="AU3" s="47"/>
+      <c r="AV3" s="47"/>
+      <c r="AW3" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="AX3" s="52"/>
-      <c r="AY3" s="52"/>
-      <c r="AZ3" s="52" t="s">
+      <c r="AX3" s="47"/>
+      <c r="AY3" s="47"/>
+      <c r="AZ3" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="BA3" s="52"/>
-      <c r="BB3" s="52"/>
-      <c r="BC3" s="52" t="s">
+      <c r="BA3" s="47"/>
+      <c r="BB3" s="47"/>
+      <c r="BC3" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="BD3" s="52"/>
-      <c r="BE3" s="52"/>
-      <c r="BF3" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="BG3" s="52"/>
-      <c r="BH3" s="52"/>
-      <c r="BI3" s="52" t="s">
-        <v>115</v>
-      </c>
-      <c r="BJ3" s="52"/>
-      <c r="BK3" s="52"/>
-      <c r="BL3" s="52" t="s">
-        <v>120</v>
-      </c>
-      <c r="BM3" s="52"/>
-      <c r="BN3" s="52"/>
-      <c r="BO3" s="52"/>
-      <c r="BP3" s="52"/>
-      <c r="BQ3" s="52"/>
-      <c r="BR3" s="52"/>
-      <c r="BS3" s="52"/>
-      <c r="BT3" s="52"/>
+      <c r="BD3" s="47"/>
+      <c r="BE3" s="47"/>
+      <c r="BF3" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="BG3" s="47"/>
+      <c r="BH3" s="47"/>
+      <c r="BI3" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="BJ3" s="47"/>
+      <c r="BK3" s="47"/>
+      <c r="BL3" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="BM3" s="47"/>
+      <c r="BN3" s="47"/>
+      <c r="BO3" s="47"/>
+      <c r="BP3" s="47"/>
+      <c r="BQ3" s="47"/>
+      <c r="BR3" s="47"/>
+      <c r="BS3" s="47"/>
+      <c r="BT3" s="47"/>
       <c r="BU3" s="49"/>
       <c r="BV3" s="50"/>
       <c r="BW3" s="51"/>
@@ -3729,9 +3751,9 @@
       <c r="CF3" s="51"/>
     </row>
     <row r="4" spans="1:84" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
       <c r="D4" s="34" t="s">
         <v>66</v>
       </c>
@@ -5254,18 +5276,13 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BK3"/>
-    <mergeCell ref="AQ3:AS3"/>
-    <mergeCell ref="AT3:AV3"/>
-    <mergeCell ref="AW3:AY3"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AK3:AM3"/>
-    <mergeCell ref="AN3:AP3"/>
+    <mergeCell ref="CA3:CC3"/>
+    <mergeCell ref="CD3:CF3"/>
+    <mergeCell ref="BL3:BN3"/>
+    <mergeCell ref="BO3:BQ3"/>
+    <mergeCell ref="BR3:BT3"/>
+    <mergeCell ref="BU3:BW3"/>
+    <mergeCell ref="BX3:BZ3"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="A3:A4"/>
@@ -5277,13 +5294,18 @@
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:U3"/>
-    <mergeCell ref="CA3:CC3"/>
-    <mergeCell ref="CD3:CF3"/>
-    <mergeCell ref="BL3:BN3"/>
-    <mergeCell ref="BO3:BQ3"/>
-    <mergeCell ref="BR3:BT3"/>
-    <mergeCell ref="BU3:BW3"/>
-    <mergeCell ref="BX3:BZ3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="AN3:AP3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BK3"/>
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="AT3:AV3"/>
+    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="BC3:BE3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5324,30 +5346,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="47" t="s">
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="45" t="s">
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="45" t="s">
+      <c r="O2" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="45" t="s">
+      <c r="P2" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="45" t="s">
+      <c r="Q2" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="45" t="s">
+      <c r="R2" s="43" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5391,11 +5413,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -5634,7 +5656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -5652,50 +5674,50 @@
         <v>91</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="55" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>108</v>
-      </c>
       <c r="F3" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="G3" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="58"/>
+        <v>114</v>
+      </c>
+      <c r="G3" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="54"/>
       <c r="V3" s="35"/>
     </row>
     <row r="4" spans="1:22" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
-      <c r="B4" s="59"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
@@ -5704,7 +5726,7 @@
         <v>66</v>
       </c>
       <c r="H4" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I4" s="34" t="s">
         <v>64</v>
@@ -5852,7 +5874,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C9" s="34" t="s">
         <v>0</v>
@@ -6071,14 +6093,14 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="BA9" sqref="BA9"/>
       <selection pane="topRight" activeCell="BA9" sqref="BA9"/>
       <selection pane="bottomLeft" activeCell="BA9" sqref="BA9"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6103,30 +6125,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="47" t="s">
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="45" t="s">
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="45" t="s">
+      <c r="O2" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="45" t="s">
+      <c r="P2" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="45" t="s">
+      <c r="Q2" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="45" t="s">
+      <c r="R2" s="43" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6170,11 +6192,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -6447,31 +6469,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="43" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25">
+    <row r="11" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
         <v>8</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="44"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
+      <c r="C11" s="17" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>9</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>0</v>
@@ -6482,7 +6496,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>0</v>
@@ -6493,28 +6507,17 @@
         <v>11</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
-        <v>12</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="15" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="R2:R3"/>
@@ -6532,14 +6535,14 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:AD20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="BA9" sqref="BA9"/>
       <selection pane="topRight" activeCell="BA9" sqref="BA9"/>
       <selection pane="bottomLeft" activeCell="BA9" sqref="BA9"/>
-      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6548,384 +6551,578 @@
     <col min="2" max="2" width="26.5703125" customWidth="1"/>
     <col min="3" max="5" width="6.140625" style="17" customWidth="1"/>
     <col min="6" max="6" width="5.5703125" style="17" customWidth="1"/>
-    <col min="7" max="20" width="9.140625" style="17"/>
+    <col min="7" max="20" width="6.28515625" style="17" customWidth="1"/>
+    <col min="21" max="21" width="6.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:30" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B1" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="54" t="s">
+    <row r="3" spans="1:30" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+    </row>
+    <row r="4" spans="1:30" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+    </row>
+    <row r="5" spans="1:30" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="42">
+        <v>1</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
+      <c r="AD5" s="35"/>
+    </row>
+    <row r="6" spans="1:30" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="42">
+        <v>2</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="42"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="35"/>
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="35"/>
+      <c r="AC6" s="35"/>
+      <c r="AD6" s="35"/>
+    </row>
+    <row r="7" spans="1:30" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="42">
+        <v>3</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="35"/>
+      <c r="X7" s="35"/>
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="35"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="35"/>
+      <c r="AC7" s="35"/>
+      <c r="AD7" s="35"/>
+    </row>
+    <row r="8" spans="1:30" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="42">
+        <v>4</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="35"/>
+      <c r="AA8" s="35"/>
+      <c r="AB8" s="35"/>
+      <c r="AC8" s="35"/>
+      <c r="AD8" s="35"/>
+    </row>
+    <row r="9" spans="1:30" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="42">
+        <v>5</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="35"/>
+      <c r="AA9" s="35"/>
+      <c r="AB9" s="35"/>
+      <c r="AC9" s="35"/>
+      <c r="AD9" s="35"/>
+    </row>
+    <row r="10" spans="1:30" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="42">
+        <v>6</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="35"/>
+      <c r="Y10" s="35"/>
+      <c r="Z10" s="35"/>
+      <c r="AA10" s="35"/>
+      <c r="AB10" s="35"/>
+      <c r="AC10" s="35"/>
+      <c r="AD10" s="35"/>
+    </row>
+    <row r="11" spans="1:30" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="42">
+        <v>7</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="35"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="35"/>
+      <c r="AC11" s="35"/>
+      <c r="AD11" s="35"/>
+    </row>
+    <row r="12" spans="1:30" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="42">
+        <v>8</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="35"/>
+      <c r="AA12" s="35"/>
+      <c r="AB12" s="35"/>
+      <c r="AC12" s="35"/>
+      <c r="AD12" s="35"/>
+    </row>
+    <row r="13" spans="1:30" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="42">
+        <v>9</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="35"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="35"/>
+      <c r="X13" s="35"/>
+      <c r="Y13" s="35"/>
+      <c r="Z13" s="35"/>
+      <c r="AA13" s="35"/>
+      <c r="AB13" s="35"/>
+      <c r="AC13" s="35"/>
+      <c r="AD13" s="35"/>
+    </row>
+    <row r="14" spans="1:30" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="42">
+        <v>10</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="35"/>
+      <c r="Y14" s="35"/>
+      <c r="Z14" s="35"/>
+      <c r="AA14" s="35"/>
+      <c r="AB14" s="35"/>
+      <c r="AC14" s="35"/>
+      <c r="AD14" s="35"/>
+    </row>
+    <row r="15" spans="1:30" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="42">
+        <v>11</v>
+      </c>
+      <c r="B15" s="58" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-    </row>
-    <row r="5" spans="1:20" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
-        <v>1</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-    </row>
-    <row r="6" spans="1:20" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
-        <v>2</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-    </row>
-    <row r="7" spans="1:20" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
-        <v>3</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-    </row>
-    <row r="8" spans="1:20" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
-        <v>4</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-    </row>
-    <row r="9" spans="1:20" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
-        <v>5</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-    </row>
-    <row r="10" spans="1:20" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
-        <v>6</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-    </row>
-    <row r="11" spans="1:20" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
-        <v>7</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-    </row>
-    <row r="12" spans="1:20" s="42" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25">
-        <v>8</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-    </row>
-    <row r="13" spans="1:20" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
-        <v>9</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-    </row>
-    <row r="14" spans="1:20" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
-        <v>10</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-    </row>
-    <row r="15" spans="1:20" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
-        <v>11</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-    </row>
-    <row r="16" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14">
-        <v>12</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>0</v>
-      </c>
+      <c r="C15" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="58"/>
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="58"/>
+      <c r="AA15" s="58"/>
+      <c r="AB15" s="58"/>
+      <c r="AC15" s="58"/>
+      <c r="AD15" s="58"/>
+    </row>
+    <row r="16" spans="1:30" s="59" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="60"/>
+      <c r="R16" s="60"/>
+      <c r="S16" s="60"/>
+      <c r="T16" s="60"/>
     </row>
     <row r="17" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
+    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TOEIC 300-500 K1" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="124">
   <si>
     <t>x</t>
   </si>
@@ -388,6 +388,12 @@
   </si>
   <si>
     <t>27/4-Lesson 1</t>
+  </si>
+  <si>
+    <t>28/4-Lesson 21</t>
+  </si>
+  <si>
+    <t>28/4-Lesson 2</t>
   </si>
 </sst>
 </file>
@@ -654,7 +660,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -758,6 +764,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -770,12 +787,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -783,6 +794,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -798,14 +815,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1152,30 +1161,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="45" t="s">
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="43" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="43" t="s">
+      <c r="O2" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="43" t="s">
+      <c r="P2" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="43" t="s">
+      <c r="Q2" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="43" t="s">
+      <c r="R2" s="48" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1219,11 +1228,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -1476,30 +1485,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="45" t="s">
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="43" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="43" t="s">
+      <c r="O2" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="43" t="s">
+      <c r="P2" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="43" t="s">
+      <c r="Q2" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="46" t="s">
+      <c r="R2" s="51" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1543,11 +1552,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="46"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="51"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -2522,30 +2531,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="45" t="s">
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="43" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="43" t="s">
+      <c r="O2" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="43" t="s">
+      <c r="P2" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="43" t="s">
+      <c r="Q2" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="43" t="s">
+      <c r="R2" s="48" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2589,11 +2598,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -2903,30 +2912,30 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="45" t="s">
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="43" t="s">
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="43" t="s">
+      <c r="Q2" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="43" t="s">
+      <c r="R2" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="43" t="s">
+      <c r="S2" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="43" t="s">
+      <c r="T2" s="48" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2976,11 +2985,11 @@
       <c r="O3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
     </row>
     <row r="4" spans="1:20" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -3582,7 +3591,7 @@
   <dimension ref="A1:CF12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="BQ10" sqref="BQ10"/>
+      <selection activeCell="BS10" sqref="BS10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3617,143 +3626,145 @@
       </c>
     </row>
     <row r="3" spans="1:84" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47" t="s">
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47" t="s">
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47" t="s">
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47" t="s">
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47" t="s">
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47" t="s">
+      <c r="T3" s="55"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47" t="s">
+      <c r="W3" s="55"/>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="47" t="s">
+      <c r="Z3" s="55"/>
+      <c r="AA3" s="55"/>
+      <c r="AB3" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="47" t="s">
+      <c r="AC3" s="55"/>
+      <c r="AD3" s="55"/>
+      <c r="AE3" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="AF3" s="47"/>
-      <c r="AG3" s="47"/>
-      <c r="AH3" s="47" t="s">
+      <c r="AF3" s="55"/>
+      <c r="AG3" s="55"/>
+      <c r="AH3" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="AI3" s="47"/>
-      <c r="AJ3" s="47"/>
-      <c r="AK3" s="47" t="s">
+      <c r="AI3" s="55"/>
+      <c r="AJ3" s="55"/>
+      <c r="AK3" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="AL3" s="47"/>
-      <c r="AM3" s="47"/>
-      <c r="AN3" s="47" t="s">
+      <c r="AL3" s="55"/>
+      <c r="AM3" s="55"/>
+      <c r="AN3" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="AO3" s="47"/>
-      <c r="AP3" s="47"/>
-      <c r="AQ3" s="47" t="s">
+      <c r="AO3" s="55"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="AR3" s="47"/>
-      <c r="AS3" s="47"/>
-      <c r="AT3" s="47" t="s">
+      <c r="AR3" s="55"/>
+      <c r="AS3" s="55"/>
+      <c r="AT3" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="AU3" s="47"/>
-      <c r="AV3" s="47"/>
-      <c r="AW3" s="47" t="s">
+      <c r="AU3" s="55"/>
+      <c r="AV3" s="55"/>
+      <c r="AW3" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="AX3" s="47"/>
-      <c r="AY3" s="47"/>
-      <c r="AZ3" s="47" t="s">
+      <c r="AX3" s="55"/>
+      <c r="AY3" s="55"/>
+      <c r="AZ3" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="BA3" s="47"/>
-      <c r="BB3" s="47"/>
-      <c r="BC3" s="47" t="s">
+      <c r="BA3" s="55"/>
+      <c r="BB3" s="55"/>
+      <c r="BC3" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="BD3" s="47"/>
-      <c r="BE3" s="47"/>
-      <c r="BF3" s="47" t="s">
+      <c r="BD3" s="55"/>
+      <c r="BE3" s="55"/>
+      <c r="BF3" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="BG3" s="47"/>
-      <c r="BH3" s="47"/>
-      <c r="BI3" s="47" t="s">
+      <c r="BG3" s="55"/>
+      <c r="BH3" s="55"/>
+      <c r="BI3" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="BJ3" s="47"/>
-      <c r="BK3" s="47"/>
-      <c r="BL3" s="47" t="s">
+      <c r="BJ3" s="55"/>
+      <c r="BK3" s="55"/>
+      <c r="BL3" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="BM3" s="47"/>
-      <c r="BN3" s="47"/>
-      <c r="BO3" s="47"/>
-      <c r="BP3" s="47"/>
-      <c r="BQ3" s="47"/>
-      <c r="BR3" s="47"/>
-      <c r="BS3" s="47"/>
-      <c r="BT3" s="47"/>
-      <c r="BU3" s="49"/>
-      <c r="BV3" s="50"/>
-      <c r="BW3" s="51"/>
-      <c r="BX3" s="49"/>
-      <c r="BY3" s="50"/>
-      <c r="BZ3" s="51"/>
-      <c r="CA3" s="49"/>
-      <c r="CB3" s="50"/>
-      <c r="CC3" s="51"/>
-      <c r="CD3" s="49"/>
-      <c r="CE3" s="50"/>
-      <c r="CF3" s="51"/>
+      <c r="BM3" s="55"/>
+      <c r="BN3" s="55"/>
+      <c r="BO3" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="BP3" s="55"/>
+      <c r="BQ3" s="55"/>
+      <c r="BR3" s="55"/>
+      <c r="BS3" s="55"/>
+      <c r="BT3" s="55"/>
+      <c r="BU3" s="52"/>
+      <c r="BV3" s="53"/>
+      <c r="BW3" s="54"/>
+      <c r="BX3" s="52"/>
+      <c r="BY3" s="53"/>
+      <c r="BZ3" s="54"/>
+      <c r="CA3" s="52"/>
+      <c r="CB3" s="53"/>
+      <c r="CC3" s="54"/>
+      <c r="CD3" s="52"/>
+      <c r="CE3" s="53"/>
+      <c r="CF3" s="54"/>
     </row>
     <row r="4" spans="1:84" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
       <c r="D4" s="34" t="s">
         <v>66</v>
       </c>
@@ -4153,9 +4164,15 @@
       <c r="BN5" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="BO5" s="41"/>
-      <c r="BP5" s="41"/>
-      <c r="BQ5" s="41"/>
+      <c r="BO5" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP5" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ5" s="43" t="s">
+        <v>0</v>
+      </c>
       <c r="BR5" s="41"/>
       <c r="BS5" s="41"/>
       <c r="BT5" s="41"/>
@@ -4315,8 +4332,12 @@
         <v>0</v>
       </c>
       <c r="BN6" s="40"/>
-      <c r="BO6" s="40"/>
-      <c r="BP6" s="40"/>
+      <c r="BO6" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP6" s="40" t="s">
+        <v>0</v>
+      </c>
       <c r="BQ6" s="40"/>
       <c r="BR6" s="40"/>
       <c r="BS6" s="40"/>
@@ -4455,8 +4476,12 @@
         <v>0</v>
       </c>
       <c r="BN7" s="40"/>
-      <c r="BO7" s="40"/>
-      <c r="BP7" s="40"/>
+      <c r="BO7" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP7" s="40" t="s">
+        <v>0</v>
+      </c>
       <c r="BQ7" s="40"/>
       <c r="BR7" s="40"/>
       <c r="BS7" s="40"/>
@@ -4619,9 +4644,15 @@
       <c r="BN8" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="BO8" s="40"/>
-      <c r="BP8" s="40"/>
-      <c r="BQ8" s="40"/>
+      <c r="BO8" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP8" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ8" s="43" t="s">
+        <v>0</v>
+      </c>
       <c r="BR8" s="40"/>
       <c r="BS8" s="40"/>
       <c r="BT8" s="40"/>
@@ -4779,9 +4810,15 @@
       <c r="BN9" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="BO9" s="40"/>
-      <c r="BP9" s="40"/>
-      <c r="BQ9" s="40"/>
+      <c r="BO9" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP9" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ9" s="43" t="s">
+        <v>0</v>
+      </c>
       <c r="BR9" s="40"/>
       <c r="BS9" s="40"/>
       <c r="BT9" s="40"/>
@@ -4943,9 +4980,15 @@
         <v>0</v>
       </c>
       <c r="BN10" s="40"/>
-      <c r="BO10" s="40"/>
-      <c r="BP10" s="40"/>
-      <c r="BQ10" s="40"/>
+      <c r="BO10" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP10" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ10" s="43" t="s">
+        <v>0</v>
+      </c>
       <c r="BR10" s="40"/>
       <c r="BS10" s="40"/>
       <c r="BT10" s="40"/>
@@ -5093,8 +5136,12 @@
         <v>0</v>
       </c>
       <c r="BN11" s="40"/>
-      <c r="BO11" s="40"/>
-      <c r="BP11" s="40"/>
+      <c r="BO11" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP11" s="40" t="s">
+        <v>0</v>
+      </c>
       <c r="BQ11" s="40"/>
       <c r="BR11" s="40"/>
       <c r="BS11" s="40"/>
@@ -5255,9 +5302,15 @@
       <c r="BN12" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="BO12" s="40"/>
-      <c r="BP12" s="40"/>
-      <c r="BQ12" s="40"/>
+      <c r="BO12" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP12" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ12" s="43" t="s">
+        <v>0</v>
+      </c>
       <c r="BR12" s="40"/>
       <c r="BS12" s="40"/>
       <c r="BT12" s="40"/>
@@ -5276,13 +5329,18 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="CA3:CC3"/>
-    <mergeCell ref="CD3:CF3"/>
-    <mergeCell ref="BL3:BN3"/>
-    <mergeCell ref="BO3:BQ3"/>
-    <mergeCell ref="BR3:BT3"/>
-    <mergeCell ref="BU3:BW3"/>
-    <mergeCell ref="BX3:BZ3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BK3"/>
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="AT3:AV3"/>
+    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="AN3:AP3"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="A3:A4"/>
@@ -5294,18 +5352,13 @@
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:U3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AK3:AM3"/>
-    <mergeCell ref="AN3:AP3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BK3"/>
-    <mergeCell ref="AQ3:AS3"/>
-    <mergeCell ref="AT3:AV3"/>
-    <mergeCell ref="AW3:AY3"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="CA3:CC3"/>
+    <mergeCell ref="CD3:CF3"/>
+    <mergeCell ref="BL3:BN3"/>
+    <mergeCell ref="BO3:BQ3"/>
+    <mergeCell ref="BR3:BT3"/>
+    <mergeCell ref="BU3:BW3"/>
+    <mergeCell ref="BX3:BZ3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5314,14 +5367,14 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="BA9" sqref="BA9"/>
       <selection pane="topRight" activeCell="BA9" sqref="BA9"/>
       <selection pane="bottomLeft" activeCell="BA9" sqref="BA9"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5346,30 +5399,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="45" t="s">
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="43" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="43" t="s">
+      <c r="O2" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="43" t="s">
+      <c r="P2" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="43" t="s">
+      <c r="Q2" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="43" t="s">
+      <c r="R2" s="48" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5413,13 +5466,13 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-    </row>
-    <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+    </row>
+    <row r="4" spans="1:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
         <v>1</v>
       </c>
@@ -5472,7 +5525,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>2</v>
       </c>
@@ -5527,7 +5580,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>3</v>
       </c>
@@ -5582,7 +5635,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>4</v>
       </c>
@@ -5637,6 +5690,25 @@
         <v>200</v>
       </c>
     </row>
+    <row r="8" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>5</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="R2:R3"/>
@@ -5656,8 +5728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5678,10 +5750,10 @@
       </c>
     </row>
     <row r="3" spans="1:22" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="60" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="34" t="s">
@@ -5696,28 +5768,30 @@
       <c r="F3" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="54"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="K3" s="58"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="59"/>
       <c r="V3" s="35"/>
     </row>
     <row r="4" spans="1:22" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
-      <c r="B4" s="55"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
@@ -5731,18 +5805,42 @@
       <c r="I4" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
+      <c r="J4" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="L4" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="N4" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="O4" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q4" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="R4" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="S4" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="T4" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="U4" s="43" t="s">
+        <v>64</v>
+      </c>
       <c r="V4" s="35"/>
     </row>
     <row r="5" spans="1:22" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5759,8 +5857,12 @@
       <c r="G5" s="34"/>
       <c r="H5" s="34"/>
       <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
+      <c r="J5" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="43" t="s">
+        <v>0</v>
+      </c>
       <c r="L5" s="34"/>
       <c r="M5" s="34"/>
       <c r="N5" s="34"/>
@@ -5821,9 +5923,15 @@
         <v>0</v>
       </c>
       <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
+      <c r="J7" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="34" t="s">
+        <v>0</v>
+      </c>
       <c r="M7" s="34"/>
       <c r="N7" s="34"/>
       <c r="O7" s="34"/>
@@ -5855,9 +5963,15 @@
         <v>0</v>
       </c>
       <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
+      <c r="J8" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="43" t="s">
+        <v>0</v>
+      </c>
       <c r="M8" s="34"/>
       <c r="N8" s="34"/>
       <c r="O8" s="34"/>
@@ -5892,7 +6006,9 @@
       </c>
       <c r="I9" s="34"/>
       <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
+      <c r="K9" s="34" t="s">
+        <v>0</v>
+      </c>
       <c r="L9" s="34"/>
       <c r="M9" s="34"/>
       <c r="N9" s="34"/>
@@ -6100,7 +6216,7 @@
       <selection activeCell="BA9" sqref="BA9"/>
       <selection pane="topRight" activeCell="BA9" sqref="BA9"/>
       <selection pane="bottomLeft" activeCell="BA9" sqref="BA9"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10:A14"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6125,30 +6241,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="45" t="s">
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="43" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="43" t="s">
+      <c r="O2" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="43" t="s">
+      <c r="P2" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="43" t="s">
+      <c r="Q2" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="43" t="s">
+      <c r="R2" s="48" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6192,11 +6308,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -6537,7 +6653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="BA9" sqref="BA9"/>
       <selection pane="topRight" activeCell="BA9" sqref="BA9"/>
@@ -6561,10 +6677,10 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="60" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="42" t="s">
@@ -6579,11 +6695,11 @@
       <c r="F3" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
       <c r="J3" s="42"/>
       <c r="K3" s="42"/>
       <c r="L3" s="42"/>
@@ -6607,8 +6723,8 @@
       <c r="AD3" s="35"/>
     </row>
     <row r="4" spans="1:30" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
-      <c r="B4" s="55"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
@@ -7056,63 +7172,63 @@
       <c r="A15" s="42">
         <v>11</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="57"/>
-      <c r="S15" s="57"/>
-      <c r="T15" s="57"/>
-      <c r="U15" s="58"/>
-      <c r="V15" s="58"/>
-      <c r="W15" s="58"/>
-      <c r="X15" s="58"/>
-      <c r="Y15" s="58"/>
-      <c r="Z15" s="58"/>
-      <c r="AA15" s="58"/>
-      <c r="AB15" s="58"/>
-      <c r="AC15" s="58"/>
-      <c r="AD15" s="58"/>
-    </row>
-    <row r="16" spans="1:30" s="59" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="60"/>
-      <c r="P16" s="60"/>
-      <c r="Q16" s="60"/>
-      <c r="R16" s="60"/>
-      <c r="S16" s="60"/>
-      <c r="T16" s="60"/>
+      <c r="C15" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="45"/>
+      <c r="W15" s="45"/>
+      <c r="X15" s="45"/>
+      <c r="Y15" s="45"/>
+      <c r="Z15" s="45"/>
+      <c r="AA15" s="45"/>
+      <c r="AB15" s="45"/>
+      <c r="AC15" s="45"/>
+      <c r="AD15" s="45"/>
+    </row>
+    <row r="16" spans="1:30" s="46" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="47"/>
     </row>
     <row r="17" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TOEIC 300-500 K1" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="125">
   <si>
     <t>x</t>
   </si>
@@ -394,6 +394,9 @@
   </si>
   <si>
     <t>28/4-Lesson 2</t>
+  </si>
+  <si>
+    <t>3/5-Lesson 22</t>
   </si>
 </sst>
 </file>
@@ -660,7 +663,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -775,6 +778,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -787,6 +793,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -794,12 +806,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1161,30 +1167,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50" t="s">
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="48" t="s">
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="48" t="s">
+      <c r="P2" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="48" t="s">
+      <c r="Q2" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="48" t="s">
+      <c r="R2" s="49" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1228,11 +1234,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -1485,30 +1491,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50" t="s">
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="48" t="s">
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="48" t="s">
+      <c r="P2" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="48" t="s">
+      <c r="Q2" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="51" t="s">
+      <c r="R2" s="52" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1552,11 +1558,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="51"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="52"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -2531,30 +2537,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50" t="s">
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="48" t="s">
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="48" t="s">
+      <c r="P2" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="48" t="s">
+      <c r="Q2" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="48" t="s">
+      <c r="R2" s="49" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2598,11 +2604,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -2912,30 +2918,30 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I2" s="49" t="s">
+      <c r="I2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="50" t="s">
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="48" t="s">
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="48" t="s">
+      <c r="Q2" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="48" t="s">
+      <c r="R2" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="48" t="s">
+      <c r="S2" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="48" t="s">
+      <c r="T2" s="49" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2985,11 +2991,11 @@
       <c r="O3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
     </row>
     <row r="4" spans="1:20" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -3590,8 +3596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CF12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="BS10" sqref="BS10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BV7" sqref="BV7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3626,145 +3632,147 @@
       </c>
     </row>
     <row r="3" spans="1:84" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55" t="s">
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55" t="s">
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55" t="s">
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55" t="s">
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="55" t="s">
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="T3" s="55"/>
-      <c r="U3" s="55"/>
-      <c r="V3" s="55" t="s">
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="W3" s="55"/>
-      <c r="X3" s="55"/>
-      <c r="Y3" s="55" t="s">
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="Z3" s="55"/>
-      <c r="AA3" s="55"/>
-      <c r="AB3" s="55" t="s">
+      <c r="Z3" s="53"/>
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="AC3" s="55"/>
-      <c r="AD3" s="55"/>
-      <c r="AE3" s="55" t="s">
+      <c r="AC3" s="53"/>
+      <c r="AD3" s="53"/>
+      <c r="AE3" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="AF3" s="55"/>
-      <c r="AG3" s="55"/>
-      <c r="AH3" s="55" t="s">
+      <c r="AF3" s="53"/>
+      <c r="AG3" s="53"/>
+      <c r="AH3" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="AI3" s="55"/>
-      <c r="AJ3" s="55"/>
-      <c r="AK3" s="55" t="s">
+      <c r="AI3" s="53"/>
+      <c r="AJ3" s="53"/>
+      <c r="AK3" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="AL3" s="55"/>
-      <c r="AM3" s="55"/>
-      <c r="AN3" s="55" t="s">
+      <c r="AL3" s="53"/>
+      <c r="AM3" s="53"/>
+      <c r="AN3" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="AO3" s="55"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="55" t="s">
+      <c r="AO3" s="53"/>
+      <c r="AP3" s="53"/>
+      <c r="AQ3" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="AR3" s="55"/>
-      <c r="AS3" s="55"/>
-      <c r="AT3" s="55" t="s">
+      <c r="AR3" s="53"/>
+      <c r="AS3" s="53"/>
+      <c r="AT3" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="AU3" s="55"/>
-      <c r="AV3" s="55"/>
-      <c r="AW3" s="55" t="s">
+      <c r="AU3" s="53"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="AX3" s="55"/>
-      <c r="AY3" s="55"/>
-      <c r="AZ3" s="55" t="s">
+      <c r="AX3" s="53"/>
+      <c r="AY3" s="53"/>
+      <c r="AZ3" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="BA3" s="55"/>
-      <c r="BB3" s="55"/>
-      <c r="BC3" s="55" t="s">
+      <c r="BA3" s="53"/>
+      <c r="BB3" s="53"/>
+      <c r="BC3" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="BD3" s="55"/>
-      <c r="BE3" s="55"/>
-      <c r="BF3" s="55" t="s">
+      <c r="BD3" s="53"/>
+      <c r="BE3" s="53"/>
+      <c r="BF3" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="BG3" s="55"/>
-      <c r="BH3" s="55"/>
-      <c r="BI3" s="55" t="s">
+      <c r="BG3" s="53"/>
+      <c r="BH3" s="53"/>
+      <c r="BI3" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="BJ3" s="55"/>
-      <c r="BK3" s="55"/>
-      <c r="BL3" s="55" t="s">
+      <c r="BJ3" s="53"/>
+      <c r="BK3" s="53"/>
+      <c r="BL3" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="BM3" s="55"/>
-      <c r="BN3" s="55"/>
-      <c r="BO3" s="55" t="s">
+      <c r="BM3" s="53"/>
+      <c r="BN3" s="53"/>
+      <c r="BO3" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="BP3" s="55"/>
-      <c r="BQ3" s="55"/>
-      <c r="BR3" s="55"/>
-      <c r="BS3" s="55"/>
-      <c r="BT3" s="55"/>
-      <c r="BU3" s="52"/>
-      <c r="BV3" s="53"/>
-      <c r="BW3" s="54"/>
-      <c r="BX3" s="52"/>
-      <c r="BY3" s="53"/>
-      <c r="BZ3" s="54"/>
-      <c r="CA3" s="52"/>
-      <c r="CB3" s="53"/>
-      <c r="CC3" s="54"/>
-      <c r="CD3" s="52"/>
-      <c r="CE3" s="53"/>
-      <c r="CF3" s="54"/>
+      <c r="BP3" s="53"/>
+      <c r="BQ3" s="53"/>
+      <c r="BR3" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="BS3" s="53"/>
+      <c r="BT3" s="53"/>
+      <c r="BU3" s="55"/>
+      <c r="BV3" s="56"/>
+      <c r="BW3" s="57"/>
+      <c r="BX3" s="55"/>
+      <c r="BY3" s="56"/>
+      <c r="BZ3" s="57"/>
+      <c r="CA3" s="55"/>
+      <c r="CB3" s="56"/>
+      <c r="CC3" s="57"/>
+      <c r="CD3" s="55"/>
+      <c r="CE3" s="56"/>
+      <c r="CF3" s="57"/>
     </row>
     <row r="4" spans="1:84" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="56"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="34" t="s">
         <v>66</v>
       </c>
@@ -4173,9 +4181,15 @@
       <c r="BQ5" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="BR5" s="41"/>
-      <c r="BS5" s="41"/>
-      <c r="BT5" s="41"/>
+      <c r="BR5" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS5" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT5" s="48" t="s">
+        <v>0</v>
+      </c>
       <c r="BU5" s="41"/>
       <c r="BV5" s="41"/>
       <c r="BW5" s="41"/>
@@ -4339,9 +4353,13 @@
         <v>0</v>
       </c>
       <c r="BQ6" s="40"/>
-      <c r="BR6" s="40"/>
-      <c r="BS6" s="40"/>
-      <c r="BT6" s="40"/>
+      <c r="BR6" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS6" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT6" s="48"/>
       <c r="BU6" s="40"/>
       <c r="BV6" s="40"/>
       <c r="BW6" s="40"/>
@@ -4483,9 +4501,15 @@
         <v>0</v>
       </c>
       <c r="BQ7" s="40"/>
-      <c r="BR7" s="40"/>
-      <c r="BS7" s="40"/>
-      <c r="BT7" s="40"/>
+      <c r="BR7" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS7" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT7" s="48" t="s">
+        <v>0</v>
+      </c>
       <c r="BU7" s="40"/>
       <c r="BV7" s="40"/>
       <c r="BW7" s="40"/>
@@ -4653,9 +4677,15 @@
       <c r="BQ8" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="BR8" s="40"/>
-      <c r="BS8" s="40"/>
-      <c r="BT8" s="40"/>
+      <c r="BR8" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS8" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT8" s="48" t="s">
+        <v>0</v>
+      </c>
       <c r="BU8" s="40"/>
       <c r="BV8" s="40"/>
       <c r="BW8" s="40"/>
@@ -4819,9 +4849,15 @@
       <c r="BQ9" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="BR9" s="40"/>
-      <c r="BS9" s="40"/>
-      <c r="BT9" s="40"/>
+      <c r="BR9" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS9" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT9" s="48" t="s">
+        <v>0</v>
+      </c>
       <c r="BU9" s="40"/>
       <c r="BV9" s="40"/>
       <c r="BW9" s="40"/>
@@ -4989,9 +5025,13 @@
       <c r="BQ10" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="BR10" s="40"/>
-      <c r="BS10" s="40"/>
-      <c r="BT10" s="40"/>
+      <c r="BR10" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS10" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT10" s="48"/>
       <c r="BU10" s="40"/>
       <c r="BV10" s="40"/>
       <c r="BW10" s="40"/>
@@ -5143,9 +5183,13 @@
         <v>0</v>
       </c>
       <c r="BQ11" s="40"/>
-      <c r="BR11" s="40"/>
-      <c r="BS11" s="40"/>
-      <c r="BT11" s="40"/>
+      <c r="BR11" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS11" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT11" s="48"/>
       <c r="BU11" s="40"/>
       <c r="BV11" s="40"/>
       <c r="BW11" s="40"/>
@@ -5311,9 +5355,15 @@
       <c r="BQ12" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="BR12" s="40"/>
-      <c r="BS12" s="40"/>
-      <c r="BT12" s="40"/>
+      <c r="BR12" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS12" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT12" s="48" t="s">
+        <v>0</v>
+      </c>
       <c r="BU12" s="40"/>
       <c r="BV12" s="40"/>
       <c r="BW12" s="40"/>
@@ -5329,18 +5379,13 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BK3"/>
-    <mergeCell ref="AQ3:AS3"/>
-    <mergeCell ref="AT3:AV3"/>
-    <mergeCell ref="AW3:AY3"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AK3:AM3"/>
-    <mergeCell ref="AN3:AP3"/>
+    <mergeCell ref="CA3:CC3"/>
+    <mergeCell ref="CD3:CF3"/>
+    <mergeCell ref="BL3:BN3"/>
+    <mergeCell ref="BO3:BQ3"/>
+    <mergeCell ref="BR3:BT3"/>
+    <mergeCell ref="BU3:BW3"/>
+    <mergeCell ref="BX3:BZ3"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="A3:A4"/>
@@ -5352,13 +5397,18 @@
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:U3"/>
-    <mergeCell ref="CA3:CC3"/>
-    <mergeCell ref="CD3:CF3"/>
-    <mergeCell ref="BL3:BN3"/>
-    <mergeCell ref="BO3:BQ3"/>
-    <mergeCell ref="BR3:BT3"/>
-    <mergeCell ref="BU3:BW3"/>
-    <mergeCell ref="BX3:BZ3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="AN3:AP3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BK3"/>
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="AT3:AV3"/>
+    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="BC3:BE3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5399,30 +5449,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50" t="s">
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="48" t="s">
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="48" t="s">
+      <c r="P2" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="48" t="s">
+      <c r="Q2" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="48" t="s">
+      <c r="R2" s="49" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5466,11 +5516,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -5728,7 +5778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
@@ -5750,10 +5800,10 @@
       </c>
     </row>
     <row r="3" spans="1:22" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="61" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="34" t="s">
@@ -5768,30 +5818,30 @@
       <c r="F3" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="61" t="s">
+      <c r="G3" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="57" t="s">
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="K3" s="58"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="60"/>
       <c r="V3" s="35"/>
     </row>
     <row r="4" spans="1:22" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="60"/>
-      <c r="B4" s="60"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
@@ -6241,30 +6291,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50" t="s">
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="48" t="s">
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="48" t="s">
+      <c r="P2" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="48" t="s">
+      <c r="Q2" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="48" t="s">
+      <c r="R2" s="49" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6308,11 +6358,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -6677,10 +6727,10 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="61" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="42" t="s">
@@ -6695,11 +6745,11 @@
       <c r="F3" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="G3" s="61" t="s">
+      <c r="G3" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
       <c r="J3" s="42"/>
       <c r="K3" s="42"/>
       <c r="L3" s="42"/>
@@ -6723,8 +6773,8 @@
       <c r="AD3" s="35"/>
     </row>
     <row r="4" spans="1:30" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="60"/>
-      <c r="B4" s="60"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="TOEIC 300-500 K1" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="126">
   <si>
     <t>x</t>
   </si>
@@ -397,6 +397,9 @@
   </si>
   <si>
     <t>3/5-Lesson 22</t>
+  </si>
+  <si>
+    <t>4/5-Lesson 2</t>
   </si>
 </sst>
 </file>
@@ -663,7 +666,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -781,6 +784,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -793,12 +799,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -806,6 +806,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1167,30 +1173,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51" t="s">
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="49" t="s">
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="49" t="s">
+      <c r="O2" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="49" t="s">
+      <c r="P2" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="49" t="s">
+      <c r="Q2" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="49" t="s">
+      <c r="R2" s="50" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1234,11 +1240,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -1491,30 +1497,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51" t="s">
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="49" t="s">
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="49" t="s">
+      <c r="O2" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="49" t="s">
+      <c r="P2" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="49" t="s">
+      <c r="Q2" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="52" t="s">
+      <c r="R2" s="53" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1558,11 +1564,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="52"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="53"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -2537,30 +2543,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51" t="s">
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="49" t="s">
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="49" t="s">
+      <c r="O2" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="49" t="s">
+      <c r="P2" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="49" t="s">
+      <c r="Q2" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="49" t="s">
+      <c r="R2" s="50" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2604,11 +2610,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -2918,30 +2924,30 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51" t="s">
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="49" t="s">
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="49" t="s">
+      <c r="Q2" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="49" t="s">
+      <c r="R2" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="49" t="s">
+      <c r="S2" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="49" t="s">
+      <c r="T2" s="50" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2991,11 +2997,11 @@
       <c r="O3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
     </row>
     <row r="4" spans="1:20" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -3596,7 +3602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CF12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="BV7" sqref="BV7"/>
     </sheetView>
   </sheetViews>
@@ -3632,147 +3638,147 @@
       </c>
     </row>
     <row r="3" spans="1:84" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53" t="s">
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53" t="s">
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53" t="s">
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53" t="s">
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53" t="s">
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53" t="s">
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53" t="s">
+      <c r="W3" s="57"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="Z3" s="53"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="53" t="s">
+      <c r="Z3" s="57"/>
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="AC3" s="53"/>
-      <c r="AD3" s="53"/>
-      <c r="AE3" s="53" t="s">
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="57"/>
+      <c r="AE3" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="AF3" s="53"/>
-      <c r="AG3" s="53"/>
-      <c r="AH3" s="53" t="s">
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="57"/>
+      <c r="AH3" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="AI3" s="53"/>
-      <c r="AJ3" s="53"/>
-      <c r="AK3" s="53" t="s">
+      <c r="AI3" s="57"/>
+      <c r="AJ3" s="57"/>
+      <c r="AK3" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="AL3" s="53"/>
-      <c r="AM3" s="53"/>
-      <c r="AN3" s="53" t="s">
+      <c r="AL3" s="57"/>
+      <c r="AM3" s="57"/>
+      <c r="AN3" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="AO3" s="53"/>
-      <c r="AP3" s="53"/>
-      <c r="AQ3" s="53" t="s">
+      <c r="AO3" s="57"/>
+      <c r="AP3" s="57"/>
+      <c r="AQ3" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="AR3" s="53"/>
-      <c r="AS3" s="53"/>
-      <c r="AT3" s="53" t="s">
+      <c r="AR3" s="57"/>
+      <c r="AS3" s="57"/>
+      <c r="AT3" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="AU3" s="53"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="53" t="s">
+      <c r="AU3" s="57"/>
+      <c r="AV3" s="57"/>
+      <c r="AW3" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="AX3" s="53"/>
-      <c r="AY3" s="53"/>
-      <c r="AZ3" s="53" t="s">
+      <c r="AX3" s="57"/>
+      <c r="AY3" s="57"/>
+      <c r="AZ3" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="BA3" s="53"/>
-      <c r="BB3" s="53"/>
-      <c r="BC3" s="53" t="s">
+      <c r="BA3" s="57"/>
+      <c r="BB3" s="57"/>
+      <c r="BC3" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="BD3" s="53"/>
-      <c r="BE3" s="53"/>
-      <c r="BF3" s="53" t="s">
+      <c r="BD3" s="57"/>
+      <c r="BE3" s="57"/>
+      <c r="BF3" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="BG3" s="53"/>
-      <c r="BH3" s="53"/>
-      <c r="BI3" s="53" t="s">
+      <c r="BG3" s="57"/>
+      <c r="BH3" s="57"/>
+      <c r="BI3" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="BJ3" s="53"/>
-      <c r="BK3" s="53"/>
-      <c r="BL3" s="53" t="s">
+      <c r="BJ3" s="57"/>
+      <c r="BK3" s="57"/>
+      <c r="BL3" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="BM3" s="53"/>
-      <c r="BN3" s="53"/>
-      <c r="BO3" s="53" t="s">
+      <c r="BM3" s="57"/>
+      <c r="BN3" s="57"/>
+      <c r="BO3" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="BP3" s="53"/>
-      <c r="BQ3" s="53"/>
-      <c r="BR3" s="53" t="s">
+      <c r="BP3" s="57"/>
+      <c r="BQ3" s="57"/>
+      <c r="BR3" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="BS3" s="53"/>
-      <c r="BT3" s="53"/>
-      <c r="BU3" s="55"/>
-      <c r="BV3" s="56"/>
-      <c r="BW3" s="57"/>
-      <c r="BX3" s="55"/>
-      <c r="BY3" s="56"/>
-      <c r="BZ3" s="57"/>
-      <c r="CA3" s="55"/>
-      <c r="CB3" s="56"/>
-      <c r="CC3" s="57"/>
-      <c r="CD3" s="55"/>
-      <c r="CE3" s="56"/>
-      <c r="CF3" s="57"/>
+      <c r="BS3" s="57"/>
+      <c r="BT3" s="57"/>
+      <c r="BU3" s="54"/>
+      <c r="BV3" s="55"/>
+      <c r="BW3" s="56"/>
+      <c r="BX3" s="54"/>
+      <c r="BY3" s="55"/>
+      <c r="BZ3" s="56"/>
+      <c r="CA3" s="54"/>
+      <c r="CB3" s="55"/>
+      <c r="CC3" s="56"/>
+      <c r="CD3" s="54"/>
+      <c r="CE3" s="55"/>
+      <c r="CF3" s="56"/>
     </row>
     <row r="4" spans="1:84" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
       <c r="D4" s="34" t="s">
         <v>66</v>
       </c>
@@ -5379,13 +5385,18 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="CA3:CC3"/>
-    <mergeCell ref="CD3:CF3"/>
-    <mergeCell ref="BL3:BN3"/>
-    <mergeCell ref="BO3:BQ3"/>
-    <mergeCell ref="BR3:BT3"/>
-    <mergeCell ref="BU3:BW3"/>
-    <mergeCell ref="BX3:BZ3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BK3"/>
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="AT3:AV3"/>
+    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="AN3:AP3"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="A3:A4"/>
@@ -5397,18 +5408,13 @@
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:U3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AK3:AM3"/>
-    <mergeCell ref="AN3:AP3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BK3"/>
-    <mergeCell ref="AQ3:AS3"/>
-    <mergeCell ref="AT3:AV3"/>
-    <mergeCell ref="AW3:AY3"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="CA3:CC3"/>
+    <mergeCell ref="CD3:CF3"/>
+    <mergeCell ref="BL3:BN3"/>
+    <mergeCell ref="BO3:BQ3"/>
+    <mergeCell ref="BR3:BT3"/>
+    <mergeCell ref="BU3:BW3"/>
+    <mergeCell ref="BX3:BZ3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5449,30 +5455,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51" t="s">
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="49" t="s">
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="49" t="s">
+      <c r="O2" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="49" t="s">
+      <c r="P2" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="49" t="s">
+      <c r="Q2" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="49" t="s">
+      <c r="R2" s="50" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5516,11 +5522,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -5800,10 +5806,10 @@
       </c>
     </row>
     <row r="3" spans="1:22" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="62" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="34" t="s">
@@ -5818,30 +5824,30 @@
       <c r="F3" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="62" t="s">
+      <c r="G3" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="58" t="s">
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="K3" s="59"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="61"/>
       <c r="V3" s="35"/>
     </row>
     <row r="4" spans="1:22" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="61"/>
-      <c r="B4" s="61"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="62"/>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
@@ -6291,30 +6297,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51" t="s">
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="49" t="s">
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="49" t="s">
+      <c r="O2" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="49" t="s">
+      <c r="P2" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="49" t="s">
+      <c r="Q2" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="49" t="s">
+      <c r="R2" s="50" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6358,11 +6364,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -6703,12 +6709,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="BA9" sqref="BA9"/>
       <selection pane="topRight" activeCell="BA9" sqref="BA9"/>
       <selection pane="bottomLeft" activeCell="BA9" sqref="BA9"/>
-      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6727,10 +6733,10 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="62" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="42" t="s">
@@ -6745,14 +6751,16 @@
       <c r="F3" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="G3" s="62" t="s">
+      <c r="G3" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="K3" s="60"/>
+      <c r="L3" s="61"/>
       <c r="M3" s="42"/>
       <c r="N3" s="42"/>
       <c r="O3" s="42"/>
@@ -6773,8 +6781,8 @@
       <c r="AD3" s="35"/>
     </row>
     <row r="4" spans="1:30" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="61"/>
-      <c r="B4" s="61"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="62"/>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
@@ -6788,9 +6796,15 @@
       <c r="I4" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
+      <c r="J4" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="49" t="s">
+        <v>64</v>
+      </c>
       <c r="M4" s="42"/>
       <c r="N4" s="42"/>
       <c r="O4" s="42"/>
@@ -6828,8 +6842,12 @@
         <v>0</v>
       </c>
       <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
+      <c r="J5" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="49" t="s">
+        <v>0</v>
+      </c>
       <c r="L5" s="42"/>
       <c r="M5" s="42"/>
       <c r="N5" s="42"/>
@@ -6870,8 +6888,12 @@
         <v>0</v>
       </c>
       <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
+      <c r="J6" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="49" t="s">
+        <v>0</v>
+      </c>
       <c r="L6" s="42"/>
       <c r="M6" s="42"/>
       <c r="N6" s="42"/>
@@ -6906,8 +6928,12 @@
       <c r="G7" s="42"/>
       <c r="H7" s="42"/>
       <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
+      <c r="J7" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="49" t="s">
+        <v>0</v>
+      </c>
       <c r="L7" s="42"/>
       <c r="M7" s="42"/>
       <c r="N7" s="42"/>
@@ -6942,8 +6968,12 @@
       <c r="G8" s="42"/>
       <c r="H8" s="42"/>
       <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
+      <c r="J8" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="49" t="s">
+        <v>0</v>
+      </c>
       <c r="L8" s="42"/>
       <c r="M8" s="42"/>
       <c r="N8" s="42"/>
@@ -6984,8 +7014,12 @@
         <v>0</v>
       </c>
       <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
+      <c r="J9" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="42" t="s">
+        <v>0</v>
+      </c>
       <c r="L9" s="42"/>
       <c r="M9" s="42"/>
       <c r="N9" s="42"/>
@@ -7026,8 +7060,12 @@
       <c r="I10" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
+      <c r="J10" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" s="49" t="s">
+        <v>0</v>
+      </c>
       <c r="L10" s="42"/>
       <c r="M10" s="42"/>
       <c r="N10" s="42"/>
@@ -7068,8 +7106,12 @@
       <c r="I11" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
+      <c r="J11" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="49" t="s">
+        <v>0</v>
+      </c>
       <c r="L11" s="42"/>
       <c r="M11" s="42"/>
       <c r="N11" s="42"/>
@@ -7110,8 +7152,12 @@
         <v>0</v>
       </c>
       <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
+      <c r="J12" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="49" t="s">
+        <v>0</v>
+      </c>
       <c r="L12" s="42"/>
       <c r="M12" s="42"/>
       <c r="N12" s="42"/>
@@ -7154,8 +7200,12 @@
         <v>0</v>
       </c>
       <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
+      <c r="J13" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="49" t="s">
+        <v>0</v>
+      </c>
       <c r="L13" s="42"/>
       <c r="M13" s="42"/>
       <c r="N13" s="42"/>
@@ -7196,8 +7246,8 @@
       <c r="G14" s="42"/>
       <c r="H14" s="42"/>
       <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
       <c r="L14" s="42"/>
       <c r="M14" s="42"/>
       <c r="N14" s="42"/>
@@ -7238,8 +7288,8 @@
       <c r="G15" s="44"/>
       <c r="H15" s="44"/>
       <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
       <c r="L15" s="44"/>
       <c r="M15" s="44"/>
       <c r="N15" s="44"/>
@@ -7285,10 +7335,11 @@
     <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TOEIC 300-500 K1" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="127">
   <si>
     <t>x</t>
   </si>
@@ -400,6 +400,9 @@
   </si>
   <si>
     <t>4/5-Lesson 2</t>
+  </si>
+  <si>
+    <t>5/5-Lesson 23</t>
   </si>
 </sst>
 </file>
@@ -666,7 +669,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -787,6 +790,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -799,6 +805,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -806,12 +818,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1173,30 +1179,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52" t="s">
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="50" t="s">
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="50" t="s">
+      <c r="O2" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="50" t="s">
+      <c r="P2" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="50" t="s">
+      <c r="Q2" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="50" t="s">
+      <c r="R2" s="51" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1240,11 +1246,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -1497,30 +1503,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52" t="s">
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="50" t="s">
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="50" t="s">
+      <c r="O2" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="50" t="s">
+      <c r="P2" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="50" t="s">
+      <c r="Q2" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="53" t="s">
+      <c r="R2" s="54" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1564,11 +1570,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="53"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="54"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -2543,30 +2549,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52" t="s">
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="50" t="s">
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="50" t="s">
+      <c r="O2" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="50" t="s">
+      <c r="P2" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="50" t="s">
+      <c r="Q2" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="50" t="s">
+      <c r="R2" s="51" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2610,11 +2616,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -2924,30 +2930,30 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52" t="s">
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="50" t="s">
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="50" t="s">
+      <c r="Q2" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="50" t="s">
+      <c r="R2" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="50" t="s">
+      <c r="S2" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="50" t="s">
+      <c r="T2" s="51" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2997,11 +3003,11 @@
       <c r="O3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
     </row>
     <row r="4" spans="1:20" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -3602,8 +3608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CF12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="BV7" sqref="BV7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BW10" sqref="BW10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3638,147 +3644,149 @@
       </c>
     </row>
     <row r="3" spans="1:84" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57" t="s">
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57" t="s">
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57" t="s">
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57" t="s">
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57" t="s">
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57"/>
-      <c r="V3" s="57" t="s">
+      <c r="T3" s="55"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="W3" s="57"/>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="57" t="s">
+      <c r="W3" s="55"/>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="Z3" s="57"/>
-      <c r="AA3" s="57"/>
-      <c r="AB3" s="57" t="s">
+      <c r="Z3" s="55"/>
+      <c r="AA3" s="55"/>
+      <c r="AB3" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="AC3" s="57"/>
-      <c r="AD3" s="57"/>
-      <c r="AE3" s="57" t="s">
+      <c r="AC3" s="55"/>
+      <c r="AD3" s="55"/>
+      <c r="AE3" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="AF3" s="57"/>
-      <c r="AG3" s="57"/>
-      <c r="AH3" s="57" t="s">
+      <c r="AF3" s="55"/>
+      <c r="AG3" s="55"/>
+      <c r="AH3" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="AI3" s="57"/>
-      <c r="AJ3" s="57"/>
-      <c r="AK3" s="57" t="s">
+      <c r="AI3" s="55"/>
+      <c r="AJ3" s="55"/>
+      <c r="AK3" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="AL3" s="57"/>
-      <c r="AM3" s="57"/>
-      <c r="AN3" s="57" t="s">
+      <c r="AL3" s="55"/>
+      <c r="AM3" s="55"/>
+      <c r="AN3" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="AO3" s="57"/>
-      <c r="AP3" s="57"/>
-      <c r="AQ3" s="57" t="s">
+      <c r="AO3" s="55"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="AR3" s="57"/>
-      <c r="AS3" s="57"/>
-      <c r="AT3" s="57" t="s">
+      <c r="AR3" s="55"/>
+      <c r="AS3" s="55"/>
+      <c r="AT3" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="AU3" s="57"/>
-      <c r="AV3" s="57"/>
-      <c r="AW3" s="57" t="s">
+      <c r="AU3" s="55"/>
+      <c r="AV3" s="55"/>
+      <c r="AW3" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="AX3" s="57"/>
-      <c r="AY3" s="57"/>
-      <c r="AZ3" s="57" t="s">
+      <c r="AX3" s="55"/>
+      <c r="AY3" s="55"/>
+      <c r="AZ3" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="BA3" s="57"/>
-      <c r="BB3" s="57"/>
-      <c r="BC3" s="57" t="s">
+      <c r="BA3" s="55"/>
+      <c r="BB3" s="55"/>
+      <c r="BC3" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="BD3" s="57"/>
-      <c r="BE3" s="57"/>
-      <c r="BF3" s="57" t="s">
+      <c r="BD3" s="55"/>
+      <c r="BE3" s="55"/>
+      <c r="BF3" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="BG3" s="57"/>
-      <c r="BH3" s="57"/>
-      <c r="BI3" s="57" t="s">
+      <c r="BG3" s="55"/>
+      <c r="BH3" s="55"/>
+      <c r="BI3" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="BJ3" s="57"/>
-      <c r="BK3" s="57"/>
-      <c r="BL3" s="57" t="s">
+      <c r="BJ3" s="55"/>
+      <c r="BK3" s="55"/>
+      <c r="BL3" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="BM3" s="57"/>
-      <c r="BN3" s="57"/>
-      <c r="BO3" s="57" t="s">
+      <c r="BM3" s="55"/>
+      <c r="BN3" s="55"/>
+      <c r="BO3" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="BP3" s="57"/>
-      <c r="BQ3" s="57"/>
-      <c r="BR3" s="57" t="s">
+      <c r="BP3" s="55"/>
+      <c r="BQ3" s="55"/>
+      <c r="BR3" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="BS3" s="57"/>
-      <c r="BT3" s="57"/>
-      <c r="BU3" s="54"/>
-      <c r="BV3" s="55"/>
-      <c r="BW3" s="56"/>
-      <c r="BX3" s="54"/>
-      <c r="BY3" s="55"/>
-      <c r="BZ3" s="56"/>
-      <c r="CA3" s="54"/>
-      <c r="CB3" s="55"/>
-      <c r="CC3" s="56"/>
-      <c r="CD3" s="54"/>
-      <c r="CE3" s="55"/>
-      <c r="CF3" s="56"/>
+      <c r="BS3" s="55"/>
+      <c r="BT3" s="55"/>
+      <c r="BU3" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="BV3" s="58"/>
+      <c r="BW3" s="59"/>
+      <c r="BX3" s="57"/>
+      <c r="BY3" s="58"/>
+      <c r="BZ3" s="59"/>
+      <c r="CA3" s="57"/>
+      <c r="CB3" s="58"/>
+      <c r="CC3" s="59"/>
+      <c r="CD3" s="57"/>
+      <c r="CE3" s="58"/>
+      <c r="CF3" s="59"/>
     </row>
     <row r="4" spans="1:84" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
       <c r="D4" s="34" t="s">
         <v>66</v>
       </c>
@@ -4196,9 +4204,15 @@
       <c r="BT5" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="BU5" s="41"/>
-      <c r="BV5" s="41"/>
-      <c r="BW5" s="41"/>
+      <c r="BU5" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV5" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW5" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="BX5" s="41"/>
       <c r="BY5" s="41"/>
       <c r="BZ5" s="41"/>
@@ -4366,8 +4380,12 @@
         <v>0</v>
       </c>
       <c r="BT6" s="48"/>
-      <c r="BU6" s="40"/>
-      <c r="BV6" s="40"/>
+      <c r="BU6" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV6" s="40" t="s">
+        <v>0</v>
+      </c>
       <c r="BW6" s="40"/>
       <c r="BX6" s="40"/>
       <c r="BY6" s="40"/>
@@ -4516,9 +4534,15 @@
       <c r="BT7" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="BU7" s="40"/>
-      <c r="BV7" s="40"/>
-      <c r="BW7" s="40"/>
+      <c r="BU7" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV7" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW7" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="BX7" s="40"/>
       <c r="BY7" s="40"/>
       <c r="BZ7" s="40"/>
@@ -4692,9 +4716,15 @@
       <c r="BT8" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="BU8" s="40"/>
-      <c r="BV8" s="40"/>
-      <c r="BW8" s="40"/>
+      <c r="BU8" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV8" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW8" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="BX8" s="40"/>
       <c r="BY8" s="40"/>
       <c r="BZ8" s="40"/>
@@ -4864,8 +4894,12 @@
       <c r="BT9" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="BU9" s="40"/>
-      <c r="BV9" s="40"/>
+      <c r="BU9" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV9" s="40" t="s">
+        <v>0</v>
+      </c>
       <c r="BW9" s="40"/>
       <c r="BX9" s="40"/>
       <c r="BY9" s="40"/>
@@ -5038,8 +5072,12 @@
         <v>0</v>
       </c>
       <c r="BT10" s="48"/>
-      <c r="BU10" s="40"/>
-      <c r="BV10" s="40"/>
+      <c r="BU10" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV10" s="40" t="s">
+        <v>0</v>
+      </c>
       <c r="BW10" s="40"/>
       <c r="BX10" s="40"/>
       <c r="BY10" s="40"/>
@@ -5196,8 +5234,12 @@
         <v>0</v>
       </c>
       <c r="BT11" s="48"/>
-      <c r="BU11" s="40"/>
-      <c r="BV11" s="40"/>
+      <c r="BU11" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV11" s="40" t="s">
+        <v>0</v>
+      </c>
       <c r="BW11" s="40"/>
       <c r="BX11" s="40"/>
       <c r="BY11" s="40"/>
@@ -5370,8 +5412,12 @@
       <c r="BT12" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="BU12" s="40"/>
-      <c r="BV12" s="40"/>
+      <c r="BU12" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV12" s="40" t="s">
+        <v>0</v>
+      </c>
       <c r="BW12" s="40"/>
       <c r="BX12" s="40"/>
       <c r="BY12" s="40"/>
@@ -5385,18 +5431,13 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BK3"/>
-    <mergeCell ref="AQ3:AS3"/>
-    <mergeCell ref="AT3:AV3"/>
-    <mergeCell ref="AW3:AY3"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AK3:AM3"/>
-    <mergeCell ref="AN3:AP3"/>
+    <mergeCell ref="CA3:CC3"/>
+    <mergeCell ref="CD3:CF3"/>
+    <mergeCell ref="BL3:BN3"/>
+    <mergeCell ref="BO3:BQ3"/>
+    <mergeCell ref="BR3:BT3"/>
+    <mergeCell ref="BU3:BW3"/>
+    <mergeCell ref="BX3:BZ3"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="A3:A4"/>
@@ -5408,13 +5449,18 @@
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:U3"/>
-    <mergeCell ref="CA3:CC3"/>
-    <mergeCell ref="CD3:CF3"/>
-    <mergeCell ref="BL3:BN3"/>
-    <mergeCell ref="BO3:BQ3"/>
-    <mergeCell ref="BR3:BT3"/>
-    <mergeCell ref="BU3:BW3"/>
-    <mergeCell ref="BX3:BZ3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="AN3:AP3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BK3"/>
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="AT3:AV3"/>
+    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="BC3:BE3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5455,30 +5501,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52" t="s">
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="50" t="s">
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="50" t="s">
+      <c r="O2" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="50" t="s">
+      <c r="P2" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="50" t="s">
+      <c r="Q2" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="50" t="s">
+      <c r="R2" s="51" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5522,11 +5568,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -5806,10 +5852,10 @@
       </c>
     </row>
     <row r="3" spans="1:22" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="63" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="34" t="s">
@@ -5824,30 +5870,30 @@
       <c r="F3" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="63" t="s">
+      <c r="G3" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="59" t="s">
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="K3" s="60"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="62"/>
       <c r="V3" s="35"/>
     </row>
     <row r="4" spans="1:22" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
-      <c r="B4" s="62"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
@@ -6297,30 +6343,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52" t="s">
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="50" t="s">
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="50" t="s">
+      <c r="O2" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="50" t="s">
+      <c r="P2" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="50" t="s">
+      <c r="Q2" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="50" t="s">
+      <c r="R2" s="51" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6364,11 +6410,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -6709,7 +6755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="BA9" sqref="BA9"/>
       <selection pane="topRight" activeCell="BA9" sqref="BA9"/>
@@ -6733,10 +6779,10 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="63" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="42" t="s">
@@ -6751,16 +6797,16 @@
       <c r="F3" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="G3" s="63" t="s">
+      <c r="G3" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="59" t="s">
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="K3" s="60"/>
-      <c r="L3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="62"/>
       <c r="M3" s="42"/>
       <c r="N3" s="42"/>
       <c r="O3" s="42"/>
@@ -6781,8 +6827,8 @@
       <c r="AD3" s="35"/>
     </row>
     <row r="4" spans="1:30" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
-      <c r="B4" s="62"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TOEIC 300-500 K1" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="132">
   <si>
     <t>x</t>
   </si>
@@ -403,6 +403,21 @@
   </si>
   <si>
     <t>5/5-Lesson 23</t>
+  </si>
+  <si>
+    <t>8/5-Lesson 24</t>
+  </si>
+  <si>
+    <t>6/5-Lesson 3</t>
+  </si>
+  <si>
+    <t>5/5-Lesson 3</t>
+  </si>
+  <si>
+    <t>Văn Hồng Nguyên</t>
+  </si>
+  <si>
+    <t>8/5-Lesson 4</t>
   </si>
 </sst>
 </file>
@@ -669,7 +684,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -793,6 +808,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -805,12 +823,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -818,6 +830,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1179,30 +1197,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53" t="s">
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="51" t="s">
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="51" t="s">
+      <c r="O2" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="51" t="s">
+      <c r="P2" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="51" t="s">
+      <c r="Q2" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="51" t="s">
+      <c r="R2" s="52" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1246,11 +1264,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -1503,30 +1521,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53" t="s">
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="51" t="s">
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="51" t="s">
+      <c r="O2" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="51" t="s">
+      <c r="P2" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="51" t="s">
+      <c r="Q2" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="54" t="s">
+      <c r="R2" s="55" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1570,11 +1588,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="54"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="55"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -2549,30 +2567,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53" t="s">
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="51" t="s">
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="51" t="s">
+      <c r="O2" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="51" t="s">
+      <c r="P2" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="51" t="s">
+      <c r="Q2" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="51" t="s">
+      <c r="R2" s="52" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2616,11 +2634,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -2930,30 +2948,30 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I2" s="52" t="s">
+      <c r="I2" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53" t="s">
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="51" t="s">
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="51" t="s">
+      <c r="Q2" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="51" t="s">
+      <c r="R2" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="51" t="s">
+      <c r="S2" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="51" t="s">
+      <c r="T2" s="52" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3003,11 +3021,11 @@
       <c r="O3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="52"/>
     </row>
     <row r="4" spans="1:20" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -3608,8 +3626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CF12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BW10" sqref="BW10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="BL7" sqref="BL7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3644,149 +3662,151 @@
       </c>
     </row>
     <row r="3" spans="1:84" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55" t="s">
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55" t="s">
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55" t="s">
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55" t="s">
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="55" t="s">
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="T3" s="55"/>
-      <c r="U3" s="55"/>
-      <c r="V3" s="55" t="s">
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="W3" s="55"/>
-      <c r="X3" s="55"/>
-      <c r="Y3" s="55" t="s">
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="Z3" s="55"/>
-      <c r="AA3" s="55"/>
-      <c r="AB3" s="55" t="s">
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="AC3" s="55"/>
-      <c r="AD3" s="55"/>
-      <c r="AE3" s="55" t="s">
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="AF3" s="55"/>
-      <c r="AG3" s="55"/>
-      <c r="AH3" s="55" t="s">
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="AI3" s="55"/>
-      <c r="AJ3" s="55"/>
-      <c r="AK3" s="55" t="s">
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="59"/>
+      <c r="AK3" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="AL3" s="55"/>
-      <c r="AM3" s="55"/>
-      <c r="AN3" s="55" t="s">
+      <c r="AL3" s="59"/>
+      <c r="AM3" s="59"/>
+      <c r="AN3" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="AO3" s="55"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="55" t="s">
+      <c r="AO3" s="59"/>
+      <c r="AP3" s="59"/>
+      <c r="AQ3" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="AR3" s="55"/>
-      <c r="AS3" s="55"/>
-      <c r="AT3" s="55" t="s">
+      <c r="AR3" s="59"/>
+      <c r="AS3" s="59"/>
+      <c r="AT3" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="AU3" s="55"/>
-      <c r="AV3" s="55"/>
-      <c r="AW3" s="55" t="s">
+      <c r="AU3" s="59"/>
+      <c r="AV3" s="59"/>
+      <c r="AW3" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="AX3" s="55"/>
-      <c r="AY3" s="55"/>
-      <c r="AZ3" s="55" t="s">
+      <c r="AX3" s="59"/>
+      <c r="AY3" s="59"/>
+      <c r="AZ3" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="BA3" s="55"/>
-      <c r="BB3" s="55"/>
-      <c r="BC3" s="55" t="s">
+      <c r="BA3" s="59"/>
+      <c r="BB3" s="59"/>
+      <c r="BC3" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="BD3" s="55"/>
-      <c r="BE3" s="55"/>
-      <c r="BF3" s="55" t="s">
+      <c r="BD3" s="59"/>
+      <c r="BE3" s="59"/>
+      <c r="BF3" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="BG3" s="55"/>
-      <c r="BH3" s="55"/>
-      <c r="BI3" s="55" t="s">
+      <c r="BG3" s="59"/>
+      <c r="BH3" s="59"/>
+      <c r="BI3" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="BJ3" s="55"/>
-      <c r="BK3" s="55"/>
-      <c r="BL3" s="55" t="s">
+      <c r="BJ3" s="59"/>
+      <c r="BK3" s="59"/>
+      <c r="BL3" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="BM3" s="55"/>
-      <c r="BN3" s="55"/>
-      <c r="BO3" s="55" t="s">
+      <c r="BM3" s="59"/>
+      <c r="BN3" s="59"/>
+      <c r="BO3" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="BP3" s="55"/>
-      <c r="BQ3" s="55"/>
-      <c r="BR3" s="55" t="s">
+      <c r="BP3" s="59"/>
+      <c r="BQ3" s="59"/>
+      <c r="BR3" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="BS3" s="55"/>
-      <c r="BT3" s="55"/>
-      <c r="BU3" s="57" t="s">
+      <c r="BS3" s="59"/>
+      <c r="BT3" s="59"/>
+      <c r="BU3" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="BV3" s="58"/>
-      <c r="BW3" s="59"/>
-      <c r="BX3" s="57"/>
-      <c r="BY3" s="58"/>
-      <c r="BZ3" s="59"/>
-      <c r="CA3" s="57"/>
-      <c r="CB3" s="58"/>
-      <c r="CC3" s="59"/>
-      <c r="CD3" s="57"/>
-      <c r="CE3" s="58"/>
-      <c r="CF3" s="59"/>
+      <c r="BV3" s="57"/>
+      <c r="BW3" s="58"/>
+      <c r="BX3" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="BY3" s="57"/>
+      <c r="BZ3" s="58"/>
+      <c r="CA3" s="56"/>
+      <c r="CB3" s="57"/>
+      <c r="CC3" s="58"/>
+      <c r="CD3" s="56"/>
+      <c r="CE3" s="57"/>
+      <c r="CF3" s="58"/>
     </row>
     <row r="4" spans="1:84" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="56"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
       <c r="D4" s="34" t="s">
         <v>66</v>
       </c>
@@ -4213,9 +4233,15 @@
       <c r="BW5" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="BX5" s="41"/>
-      <c r="BY5" s="41"/>
-      <c r="BZ5" s="41"/>
+      <c r="BX5" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY5" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ5" s="51" t="s">
+        <v>0</v>
+      </c>
       <c r="CA5" s="41"/>
       <c r="CB5" s="41"/>
       <c r="CC5" s="41"/>
@@ -4387,8 +4413,12 @@
         <v>0</v>
       </c>
       <c r="BW6" s="40"/>
-      <c r="BX6" s="40"/>
-      <c r="BY6" s="40"/>
+      <c r="BX6" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY6" s="40" t="s">
+        <v>0</v>
+      </c>
       <c r="BZ6" s="40"/>
       <c r="CA6" s="40"/>
       <c r="CB6" s="40"/>
@@ -4543,9 +4573,15 @@
       <c r="BW7" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="BX7" s="40"/>
-      <c r="BY7" s="40"/>
-      <c r="BZ7" s="40"/>
+      <c r="BX7" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY7" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ7" s="51" t="s">
+        <v>0</v>
+      </c>
       <c r="CA7" s="40"/>
       <c r="CB7" s="40"/>
       <c r="CC7" s="40"/>
@@ -4725,9 +4761,15 @@
       <c r="BW8" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="BX8" s="40"/>
-      <c r="BY8" s="40"/>
-      <c r="BZ8" s="40"/>
+      <c r="BX8" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY8" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ8" s="51" t="s">
+        <v>0</v>
+      </c>
       <c r="CA8" s="40"/>
       <c r="CB8" s="40"/>
       <c r="CC8" s="40"/>
@@ -4901,8 +4943,12 @@
         <v>0</v>
       </c>
       <c r="BW9" s="40"/>
-      <c r="BX9" s="40"/>
-      <c r="BY9" s="40"/>
+      <c r="BX9" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY9" s="40" t="s">
+        <v>0</v>
+      </c>
       <c r="BZ9" s="40"/>
       <c r="CA9" s="40"/>
       <c r="CB9" s="40"/>
@@ -5079,9 +5125,15 @@
         <v>0</v>
       </c>
       <c r="BW10" s="40"/>
-      <c r="BX10" s="40"/>
-      <c r="BY10" s="40"/>
-      <c r="BZ10" s="40"/>
+      <c r="BX10" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY10" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ10" s="51" t="s">
+        <v>0</v>
+      </c>
       <c r="CA10" s="40"/>
       <c r="CB10" s="40"/>
       <c r="CC10" s="40"/>
@@ -5241,8 +5293,12 @@
         <v>0</v>
       </c>
       <c r="BW11" s="40"/>
-      <c r="BX11" s="40"/>
-      <c r="BY11" s="40"/>
+      <c r="BX11" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY11" s="40" t="s">
+        <v>0</v>
+      </c>
       <c r="BZ11" s="40"/>
       <c r="CA11" s="40"/>
       <c r="CB11" s="40"/>
@@ -5419,9 +5475,15 @@
         <v>0</v>
       </c>
       <c r="BW12" s="40"/>
-      <c r="BX12" s="40"/>
-      <c r="BY12" s="40"/>
-      <c r="BZ12" s="40"/>
+      <c r="BX12" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY12" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ12" s="51" t="s">
+        <v>0</v>
+      </c>
       <c r="CA12" s="40"/>
       <c r="CB12" s="40"/>
       <c r="CC12" s="40"/>
@@ -5431,13 +5493,18 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="CA3:CC3"/>
-    <mergeCell ref="CD3:CF3"/>
-    <mergeCell ref="BL3:BN3"/>
-    <mergeCell ref="BO3:BQ3"/>
-    <mergeCell ref="BR3:BT3"/>
-    <mergeCell ref="BU3:BW3"/>
-    <mergeCell ref="BX3:BZ3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BK3"/>
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="AT3:AV3"/>
+    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="AN3:AP3"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="A3:A4"/>
@@ -5449,18 +5516,13 @@
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:U3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AK3:AM3"/>
-    <mergeCell ref="AN3:AP3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BK3"/>
-    <mergeCell ref="AQ3:AS3"/>
-    <mergeCell ref="AT3:AV3"/>
-    <mergeCell ref="AW3:AY3"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="CA3:CC3"/>
+    <mergeCell ref="CD3:CF3"/>
+    <mergeCell ref="BL3:BN3"/>
+    <mergeCell ref="BO3:BQ3"/>
+    <mergeCell ref="BR3:BT3"/>
+    <mergeCell ref="BU3:BW3"/>
+    <mergeCell ref="BX3:BZ3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5501,30 +5563,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53" t="s">
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="51" t="s">
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="51" t="s">
+      <c r="O2" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="51" t="s">
+      <c r="P2" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="51" t="s">
+      <c r="Q2" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="51" t="s">
+      <c r="R2" s="52" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5568,11 +5630,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -5830,8 +5892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5852,10 +5914,10 @@
       </c>
     </row>
     <row r="3" spans="1:22" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="64" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="34" t="s">
@@ -5870,30 +5932,34 @@
       <c r="F3" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="64" t="s">
+      <c r="G3" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="60" t="s">
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="K3" s="61"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="N3" s="62"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="63"/>
       <c r="V3" s="35"/>
     </row>
     <row r="4" spans="1:22" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63"/>
-      <c r="B4" s="63"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
@@ -5966,11 +6032,19 @@
         <v>0</v>
       </c>
       <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
+      <c r="M5" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="51" t="s">
+        <v>0</v>
+      </c>
       <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
+      <c r="P5" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="51" t="s">
+        <v>0</v>
+      </c>
       <c r="R5" s="34"/>
       <c r="S5" s="34"/>
       <c r="T5" s="35"/>
@@ -5994,8 +6068,12 @@
       <c r="J6" s="34"/>
       <c r="K6" s="34"/>
       <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
+      <c r="M6" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" s="51" t="s">
+        <v>0</v>
+      </c>
       <c r="O6" s="34"/>
       <c r="P6" s="34"/>
       <c r="Q6" s="34"/>
@@ -6034,11 +6112,19 @@
       <c r="L7" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
+      <c r="M7" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" s="51" t="s">
+        <v>0</v>
+      </c>
       <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
+      <c r="P7" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="51" t="s">
+        <v>0</v>
+      </c>
       <c r="R7" s="34"/>
       <c r="S7" s="34"/>
       <c r="T7" s="35"/>
@@ -6074,12 +6160,24 @@
       <c r="L8" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
+      <c r="M8" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="O8" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="P8" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="R8" s="34" t="s">
+        <v>0</v>
+      </c>
       <c r="S8" s="34"/>
       <c r="T8" s="35"/>
       <c r="U8" s="35"/>
@@ -6112,35 +6210,82 @@
         <v>0</v>
       </c>
       <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
+      <c r="M9" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="N9" s="51" t="s">
+        <v>0</v>
+      </c>
       <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
+      <c r="P9" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="51" t="s">
+        <v>0</v>
+      </c>
       <c r="R9" s="34"/>
       <c r="S9" s="34"/>
       <c r="T9" s="35"/>
       <c r="U9" s="35"/>
       <c r="V9" s="35"/>
     </row>
-    <row r="10" spans="1:22" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
+    <row r="10" spans="1:22" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="51">
+        <v>6</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="M10" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="N10" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="R10" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="S10" s="51"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
     </row>
     <row r="11" spans="1:22" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C11" s="14"/>
@@ -6343,30 +6488,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53" t="s">
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="51" t="s">
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="51" t="s">
+      <c r="O2" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="51" t="s">
+      <c r="P2" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="51" t="s">
+      <c r="Q2" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="51" t="s">
+      <c r="R2" s="52" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6410,11 +6555,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -6760,7 +6905,7 @@
       <selection activeCell="BA9" sqref="BA9"/>
       <selection pane="topRight" activeCell="BA9" sqref="BA9"/>
       <selection pane="bottomLeft" activeCell="BA9" sqref="BA9"/>
-      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomRight" activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6779,10 +6924,10 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="64" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="42" t="s">
@@ -6797,19 +6942,21 @@
       <c r="F3" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="G3" s="64" t="s">
+      <c r="G3" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="60" t="s">
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="K3" s="61"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="N3" s="62"/>
+      <c r="O3" s="63"/>
       <c r="P3" s="42"/>
       <c r="Q3" s="42"/>
       <c r="R3" s="42"/>
@@ -6827,8 +6974,8 @@
       <c r="AD3" s="35"/>
     </row>
     <row r="4" spans="1:30" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63"/>
-      <c r="B4" s="63"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
@@ -6851,15 +6998,33 @@
       <c r="L4" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="35"/>
+      <c r="M4" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="N4" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q4" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="R4" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="S4" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="T4" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="U4" s="51" t="s">
+        <v>64</v>
+      </c>
       <c r="V4" s="35"/>
       <c r="W4" s="35"/>
       <c r="X4" s="35"/>
@@ -6895,8 +7060,12 @@
         <v>0</v>
       </c>
       <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
+      <c r="M5" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="51" t="s">
+        <v>0</v>
+      </c>
       <c r="O5" s="42"/>
       <c r="P5" s="42"/>
       <c r="Q5" s="42"/>
@@ -6941,8 +7110,12 @@
         <v>0</v>
       </c>
       <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
+      <c r="M6" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" s="51" t="s">
+        <v>0</v>
+      </c>
       <c r="O6" s="42"/>
       <c r="P6" s="42"/>
       <c r="Q6" s="42"/>
@@ -6981,8 +7154,12 @@
         <v>0</v>
       </c>
       <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
+      <c r="M7" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" s="51" t="s">
+        <v>0</v>
+      </c>
       <c r="O7" s="42"/>
       <c r="P7" s="42"/>
       <c r="Q7" s="42"/>
@@ -7067,8 +7244,12 @@
         <v>0</v>
       </c>
       <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
+      <c r="M9" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="N9" s="51" t="s">
+        <v>0</v>
+      </c>
       <c r="O9" s="42"/>
       <c r="P9" s="42"/>
       <c r="Q9" s="42"/>
@@ -7113,8 +7294,12 @@
         <v>0</v>
       </c>
       <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
+      <c r="M10" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="N10" s="51" t="s">
+        <v>0</v>
+      </c>
       <c r="O10" s="42"/>
       <c r="P10" s="42"/>
       <c r="Q10" s="42"/>
@@ -7159,8 +7344,12 @@
         <v>0</v>
       </c>
       <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
+      <c r="M11" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="N11" s="51" t="s">
+        <v>0</v>
+      </c>
       <c r="O11" s="42"/>
       <c r="P11" s="42"/>
       <c r="Q11" s="42"/>
@@ -7205,8 +7394,12 @@
         <v>0</v>
       </c>
       <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
+      <c r="M12" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="N12" s="51" t="s">
+        <v>0</v>
+      </c>
       <c r="O12" s="42"/>
       <c r="P12" s="42"/>
       <c r="Q12" s="42"/>
@@ -7253,8 +7446,12 @@
         <v>0</v>
       </c>
       <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
+      <c r="M13" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" s="51" t="s">
+        <v>0</v>
+      </c>
       <c r="O13" s="42"/>
       <c r="P13" s="42"/>
       <c r="Q13" s="42"/>
@@ -7381,11 +7578,12 @@
     <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="TOEIC 300-500 K1" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="133">
   <si>
     <t>x</t>
   </si>
@@ -418,6 +418,9 @@
   </si>
   <si>
     <t>8/5-Lesson 4</t>
+  </si>
+  <si>
+    <t>9/5-Lesson 4</t>
   </si>
 </sst>
 </file>
@@ -684,7 +687,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -811,6 +814,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -823,6 +829,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -830,12 +842,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1197,30 +1203,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54" t="s">
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="52" t="s">
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="52" t="s">
+      <c r="O2" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="52" t="s">
+      <c r="P2" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="52" t="s">
+      <c r="Q2" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="52" t="s">
+      <c r="R2" s="53" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1264,11 +1270,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -1521,30 +1527,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54" t="s">
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="52" t="s">
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="52" t="s">
+      <c r="O2" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="52" t="s">
+      <c r="P2" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="52" t="s">
+      <c r="Q2" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="55" t="s">
+      <c r="R2" s="56" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1588,11 +1594,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="55"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="56"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -2567,30 +2573,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54" t="s">
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="52" t="s">
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="52" t="s">
+      <c r="O2" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="52" t="s">
+      <c r="P2" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="52" t="s">
+      <c r="Q2" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="52" t="s">
+      <c r="R2" s="53" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2634,11 +2640,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -2948,30 +2954,30 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I2" s="53" t="s">
+      <c r="I2" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="54" t="s">
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="52" t="s">
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="52" t="s">
+      <c r="Q2" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="52" t="s">
+      <c r="R2" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="52" t="s">
+      <c r="S2" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="52" t="s">
+      <c r="T2" s="53" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3021,11 +3027,11 @@
       <c r="O3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
     </row>
     <row r="4" spans="1:20" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -3662,151 +3668,151 @@
       </c>
     </row>
     <row r="3" spans="1:84" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59" t="s">
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59" t="s">
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59" t="s">
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59" t="s">
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59" t="s">
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59" t="s">
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59" t="s">
+      <c r="W3" s="57"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59" t="s">
+      <c r="Z3" s="57"/>
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="59" t="s">
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="57"/>
+      <c r="AE3" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="59"/>
-      <c r="AH3" s="59" t="s">
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="57"/>
+      <c r="AH3" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="59"/>
-      <c r="AK3" s="59" t="s">
+      <c r="AI3" s="57"/>
+      <c r="AJ3" s="57"/>
+      <c r="AK3" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="AL3" s="59"/>
-      <c r="AM3" s="59"/>
-      <c r="AN3" s="59" t="s">
+      <c r="AL3" s="57"/>
+      <c r="AM3" s="57"/>
+      <c r="AN3" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="AO3" s="59"/>
-      <c r="AP3" s="59"/>
-      <c r="AQ3" s="59" t="s">
+      <c r="AO3" s="57"/>
+      <c r="AP3" s="57"/>
+      <c r="AQ3" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="AR3" s="59"/>
-      <c r="AS3" s="59"/>
-      <c r="AT3" s="59" t="s">
+      <c r="AR3" s="57"/>
+      <c r="AS3" s="57"/>
+      <c r="AT3" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="AU3" s="59"/>
-      <c r="AV3" s="59"/>
-      <c r="AW3" s="59" t="s">
+      <c r="AU3" s="57"/>
+      <c r="AV3" s="57"/>
+      <c r="AW3" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="AX3" s="59"/>
-      <c r="AY3" s="59"/>
-      <c r="AZ3" s="59" t="s">
+      <c r="AX3" s="57"/>
+      <c r="AY3" s="57"/>
+      <c r="AZ3" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="BA3" s="59"/>
-      <c r="BB3" s="59"/>
-      <c r="BC3" s="59" t="s">
+      <c r="BA3" s="57"/>
+      <c r="BB3" s="57"/>
+      <c r="BC3" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="BD3" s="59"/>
-      <c r="BE3" s="59"/>
-      <c r="BF3" s="59" t="s">
+      <c r="BD3" s="57"/>
+      <c r="BE3" s="57"/>
+      <c r="BF3" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="BG3" s="59"/>
-      <c r="BH3" s="59"/>
-      <c r="BI3" s="59" t="s">
+      <c r="BG3" s="57"/>
+      <c r="BH3" s="57"/>
+      <c r="BI3" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="BJ3" s="59"/>
-      <c r="BK3" s="59"/>
-      <c r="BL3" s="59" t="s">
+      <c r="BJ3" s="57"/>
+      <c r="BK3" s="57"/>
+      <c r="BL3" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="BM3" s="59"/>
-      <c r="BN3" s="59"/>
-      <c r="BO3" s="59" t="s">
+      <c r="BM3" s="57"/>
+      <c r="BN3" s="57"/>
+      <c r="BO3" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="BP3" s="59"/>
-      <c r="BQ3" s="59"/>
-      <c r="BR3" s="59" t="s">
+      <c r="BP3" s="57"/>
+      <c r="BQ3" s="57"/>
+      <c r="BR3" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="BS3" s="59"/>
-      <c r="BT3" s="59"/>
-      <c r="BU3" s="56" t="s">
+      <c r="BS3" s="57"/>
+      <c r="BT3" s="57"/>
+      <c r="BU3" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="BV3" s="57"/>
-      <c r="BW3" s="58"/>
-      <c r="BX3" s="56" t="s">
+      <c r="BV3" s="60"/>
+      <c r="BW3" s="61"/>
+      <c r="BX3" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="BY3" s="57"/>
-      <c r="BZ3" s="58"/>
-      <c r="CA3" s="56"/>
-      <c r="CB3" s="57"/>
-      <c r="CC3" s="58"/>
-      <c r="CD3" s="56"/>
-      <c r="CE3" s="57"/>
-      <c r="CF3" s="58"/>
+      <c r="BY3" s="60"/>
+      <c r="BZ3" s="61"/>
+      <c r="CA3" s="59"/>
+      <c r="CB3" s="60"/>
+      <c r="CC3" s="61"/>
+      <c r="CD3" s="59"/>
+      <c r="CE3" s="60"/>
+      <c r="CF3" s="61"/>
     </row>
     <row r="4" spans="1:84" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="60"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
       <c r="D4" s="34" t="s">
         <v>66</v>
       </c>
@@ -5493,18 +5499,13 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BK3"/>
-    <mergeCell ref="AQ3:AS3"/>
-    <mergeCell ref="AT3:AV3"/>
-    <mergeCell ref="AW3:AY3"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AK3:AM3"/>
-    <mergeCell ref="AN3:AP3"/>
+    <mergeCell ref="CA3:CC3"/>
+    <mergeCell ref="CD3:CF3"/>
+    <mergeCell ref="BL3:BN3"/>
+    <mergeCell ref="BO3:BQ3"/>
+    <mergeCell ref="BR3:BT3"/>
+    <mergeCell ref="BU3:BW3"/>
+    <mergeCell ref="BX3:BZ3"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="A3:A4"/>
@@ -5516,13 +5517,18 @@
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:U3"/>
-    <mergeCell ref="CA3:CC3"/>
-    <mergeCell ref="CD3:CF3"/>
-    <mergeCell ref="BL3:BN3"/>
-    <mergeCell ref="BO3:BQ3"/>
-    <mergeCell ref="BR3:BT3"/>
-    <mergeCell ref="BU3:BW3"/>
-    <mergeCell ref="BX3:BZ3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="AN3:AP3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BK3"/>
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="AT3:AV3"/>
+    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="BC3:BE3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5563,30 +5569,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54" t="s">
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="52" t="s">
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="52" t="s">
+      <c r="O2" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="52" t="s">
+      <c r="P2" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="52" t="s">
+      <c r="Q2" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="52" t="s">
+      <c r="R2" s="53" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5630,11 +5636,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -5892,7 +5898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
@@ -5914,10 +5920,10 @@
       </c>
     </row>
     <row r="3" spans="1:22" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="65" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="34" t="s">
@@ -5932,34 +5938,34 @@
       <c r="F3" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="65" t="s">
+      <c r="G3" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="61" t="s">
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="K3" s="62"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="61" t="s">
+      <c r="K3" s="63"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="N3" s="62"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="61" t="s">
+      <c r="N3" s="63"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="64"/>
       <c r="V3" s="35"/>
     </row>
     <row r="4" spans="1:22" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="65"/>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
@@ -6488,30 +6494,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54" t="s">
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="52" t="s">
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="52" t="s">
+      <c r="O2" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="52" t="s">
+      <c r="P2" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="52" t="s">
+      <c r="Q2" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="52" t="s">
+      <c r="R2" s="53" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6555,11 +6561,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -6900,12 +6906,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="BA9" sqref="BA9"/>
       <selection pane="topRight" activeCell="BA9" sqref="BA9"/>
       <selection pane="bottomLeft" activeCell="BA9" sqref="BA9"/>
-      <selection pane="bottomRight" activeCell="Q13" sqref="Q13"/>
+      <selection pane="bottomRight" activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6924,10 +6930,10 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="65" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="42" t="s">
@@ -6942,24 +6948,26 @@
       <c r="F3" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="G3" s="65" t="s">
+      <c r="G3" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="61" t="s">
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="K3" s="62"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="61" t="s">
+      <c r="K3" s="63"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="N3" s="62"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="64"/>
       <c r="S3" s="42"/>
       <c r="T3" s="42"/>
       <c r="U3" s="35"/>
@@ -6974,8 +6982,8 @@
       <c r="AD3" s="35"/>
     </row>
     <row r="4" spans="1:30" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="65"/>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
@@ -7067,8 +7075,12 @@
         <v>0</v>
       </c>
       <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
+      <c r="P5" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="52" t="s">
+        <v>0</v>
+      </c>
       <c r="R5" s="42"/>
       <c r="S5" s="42"/>
       <c r="T5" s="42"/>
@@ -7117,8 +7129,12 @@
         <v>0</v>
       </c>
       <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
+      <c r="P6" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="52" t="s">
+        <v>0</v>
+      </c>
       <c r="R6" s="42"/>
       <c r="S6" s="42"/>
       <c r="T6" s="42"/>
@@ -7147,22 +7163,20 @@
       <c r="G7" s="42"/>
       <c r="H7" s="42"/>
       <c r="I7" s="42"/>
-      <c r="J7" s="49" t="s">
-        <v>0</v>
-      </c>
+      <c r="J7" s="49"/>
       <c r="K7" s="49" t="s">
         <v>0</v>
       </c>
       <c r="L7" s="42"/>
-      <c r="M7" s="51" t="s">
-        <v>0</v>
-      </c>
+      <c r="M7" s="51"/>
       <c r="N7" s="51" t="s">
         <v>0</v>
       </c>
       <c r="O7" s="42"/>
       <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
+      <c r="Q7" s="42" t="s">
+        <v>0</v>
+      </c>
       <c r="R7" s="42"/>
       <c r="S7" s="42"/>
       <c r="T7" s="42"/>
@@ -7251,8 +7265,12 @@
         <v>0</v>
       </c>
       <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
+      <c r="P9" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="52" t="s">
+        <v>0</v>
+      </c>
       <c r="R9" s="42"/>
       <c r="S9" s="42"/>
       <c r="T9" s="42"/>
@@ -7301,8 +7319,12 @@
         <v>0</v>
       </c>
       <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
+      <c r="P10" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="52" t="s">
+        <v>0</v>
+      </c>
       <c r="R10" s="42"/>
       <c r="S10" s="42"/>
       <c r="T10" s="42"/>
@@ -7351,8 +7373,12 @@
         <v>0</v>
       </c>
       <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="42"/>
+      <c r="P11" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="52" t="s">
+        <v>0</v>
+      </c>
       <c r="R11" s="42"/>
       <c r="S11" s="42"/>
       <c r="T11" s="42"/>
@@ -7401,8 +7427,12 @@
         <v>0</v>
       </c>
       <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
+      <c r="P12" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="52" t="s">
+        <v>0</v>
+      </c>
       <c r="R12" s="42"/>
       <c r="S12" s="42"/>
       <c r="T12" s="42"/>
@@ -7453,8 +7483,12 @@
         <v>0</v>
       </c>
       <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
+      <c r="P13" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="52" t="s">
+        <v>0</v>
+      </c>
       <c r="R13" s="42"/>
       <c r="S13" s="42"/>
       <c r="T13" s="42"/>
@@ -7578,7 +7612,8 @@
     <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="P3:R3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="G3:I3"/>

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TOEIC 300-500 K1" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="135">
   <si>
     <t>x</t>
   </si>
@@ -421,6 +421,12 @@
   </si>
   <si>
     <t>9/5-Lesson 4</t>
+  </si>
+  <si>
+    <t>10/5-Lesson 25</t>
+  </si>
+  <si>
+    <t>10/5-Lesson 5</t>
   </si>
 </sst>
 </file>
@@ -687,7 +693,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -817,6 +823,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -829,12 +838,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -842,6 +845,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1203,30 +1212,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55" t="s">
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="53" t="s">
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="53" t="s">
+      <c r="O2" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="53" t="s">
+      <c r="P2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="53" t="s">
+      <c r="Q2" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="53" t="s">
+      <c r="R2" s="54" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1270,11 +1279,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -1527,30 +1536,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55" t="s">
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="53" t="s">
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="53" t="s">
+      <c r="O2" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="53" t="s">
+      <c r="P2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="53" t="s">
+      <c r="Q2" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="56" t="s">
+      <c r="R2" s="57" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1594,11 +1603,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="56"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="57"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -2573,30 +2582,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55" t="s">
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="53" t="s">
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="53" t="s">
+      <c r="O2" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="53" t="s">
+      <c r="P2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="53" t="s">
+      <c r="Q2" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="53" t="s">
+      <c r="R2" s="54" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2640,11 +2649,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -2954,30 +2963,30 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="55" t="s">
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="53" t="s">
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="53" t="s">
+      <c r="Q2" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="53" t="s">
+      <c r="R2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="53" t="s">
+      <c r="S2" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="53" t="s">
+      <c r="T2" s="54" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3027,11 +3036,11 @@
       <c r="O3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
     </row>
     <row r="4" spans="1:20" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -3633,7 +3642,7 @@
   <dimension ref="A1:CF12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="BL7" sqref="BL7"/>
+      <selection activeCell="CD9" sqref="CD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3668,151 +3677,153 @@
       </c>
     </row>
     <row r="3" spans="1:84" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57" t="s">
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57" t="s">
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57" t="s">
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57" t="s">
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57" t="s">
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57"/>
-      <c r="V3" s="57" t="s">
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="W3" s="57"/>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="57" t="s">
+      <c r="W3" s="61"/>
+      <c r="X3" s="61"/>
+      <c r="Y3" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="Z3" s="57"/>
-      <c r="AA3" s="57"/>
-      <c r="AB3" s="57" t="s">
+      <c r="Z3" s="61"/>
+      <c r="AA3" s="61"/>
+      <c r="AB3" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="AC3" s="57"/>
-      <c r="AD3" s="57"/>
-      <c r="AE3" s="57" t="s">
+      <c r="AC3" s="61"/>
+      <c r="AD3" s="61"/>
+      <c r="AE3" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="AF3" s="57"/>
-      <c r="AG3" s="57"/>
-      <c r="AH3" s="57" t="s">
+      <c r="AF3" s="61"/>
+      <c r="AG3" s="61"/>
+      <c r="AH3" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="AI3" s="57"/>
-      <c r="AJ3" s="57"/>
-      <c r="AK3" s="57" t="s">
+      <c r="AI3" s="61"/>
+      <c r="AJ3" s="61"/>
+      <c r="AK3" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="AL3" s="57"/>
-      <c r="AM3" s="57"/>
-      <c r="AN3" s="57" t="s">
+      <c r="AL3" s="61"/>
+      <c r="AM3" s="61"/>
+      <c r="AN3" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="AO3" s="57"/>
-      <c r="AP3" s="57"/>
-      <c r="AQ3" s="57" t="s">
+      <c r="AO3" s="61"/>
+      <c r="AP3" s="61"/>
+      <c r="AQ3" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="AR3" s="57"/>
-      <c r="AS3" s="57"/>
-      <c r="AT3" s="57" t="s">
+      <c r="AR3" s="61"/>
+      <c r="AS3" s="61"/>
+      <c r="AT3" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="AU3" s="57"/>
-      <c r="AV3" s="57"/>
-      <c r="AW3" s="57" t="s">
+      <c r="AU3" s="61"/>
+      <c r="AV3" s="61"/>
+      <c r="AW3" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="AX3" s="57"/>
-      <c r="AY3" s="57"/>
-      <c r="AZ3" s="57" t="s">
+      <c r="AX3" s="61"/>
+      <c r="AY3" s="61"/>
+      <c r="AZ3" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="BA3" s="57"/>
-      <c r="BB3" s="57"/>
-      <c r="BC3" s="57" t="s">
+      <c r="BA3" s="61"/>
+      <c r="BB3" s="61"/>
+      <c r="BC3" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="BD3" s="57"/>
-      <c r="BE3" s="57"/>
-      <c r="BF3" s="57" t="s">
+      <c r="BD3" s="61"/>
+      <c r="BE3" s="61"/>
+      <c r="BF3" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="BG3" s="57"/>
-      <c r="BH3" s="57"/>
-      <c r="BI3" s="57" t="s">
+      <c r="BG3" s="61"/>
+      <c r="BH3" s="61"/>
+      <c r="BI3" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="BJ3" s="57"/>
-      <c r="BK3" s="57"/>
-      <c r="BL3" s="57" t="s">
+      <c r="BJ3" s="61"/>
+      <c r="BK3" s="61"/>
+      <c r="BL3" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="BM3" s="57"/>
-      <c r="BN3" s="57"/>
-      <c r="BO3" s="57" t="s">
+      <c r="BM3" s="61"/>
+      <c r="BN3" s="61"/>
+      <c r="BO3" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="BP3" s="57"/>
-      <c r="BQ3" s="57"/>
-      <c r="BR3" s="57" t="s">
+      <c r="BP3" s="61"/>
+      <c r="BQ3" s="61"/>
+      <c r="BR3" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="BS3" s="57"/>
-      <c r="BT3" s="57"/>
-      <c r="BU3" s="59" t="s">
+      <c r="BS3" s="61"/>
+      <c r="BT3" s="61"/>
+      <c r="BU3" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="BV3" s="60"/>
-      <c r="BW3" s="61"/>
-      <c r="BX3" s="59" t="s">
+      <c r="BV3" s="59"/>
+      <c r="BW3" s="60"/>
+      <c r="BX3" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="BY3" s="60"/>
-      <c r="BZ3" s="61"/>
-      <c r="CA3" s="59"/>
-      <c r="CB3" s="60"/>
-      <c r="CC3" s="61"/>
-      <c r="CD3" s="59"/>
-      <c r="CE3" s="60"/>
-      <c r="CF3" s="61"/>
+      <c r="BY3" s="59"/>
+      <c r="BZ3" s="60"/>
+      <c r="CA3" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="CB3" s="59"/>
+      <c r="CC3" s="60"/>
+      <c r="CD3" s="58"/>
+      <c r="CE3" s="59"/>
+      <c r="CF3" s="60"/>
     </row>
     <row r="4" spans="1:84" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
       <c r="D4" s="34" t="s">
         <v>66</v>
       </c>
@@ -4248,9 +4259,15 @@
       <c r="BZ5" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="CA5" s="41"/>
-      <c r="CB5" s="41"/>
-      <c r="CC5" s="41"/>
+      <c r="CA5" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB5" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC5" s="53" t="s">
+        <v>0</v>
+      </c>
       <c r="CD5" s="41"/>
       <c r="CE5" s="41"/>
       <c r="CF5" s="41"/>
@@ -4426,8 +4443,12 @@
         <v>0</v>
       </c>
       <c r="BZ6" s="40"/>
-      <c r="CA6" s="40"/>
-      <c r="CB6" s="40"/>
+      <c r="CA6" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB6" s="40" t="s">
+        <v>0</v>
+      </c>
       <c r="CC6" s="40"/>
       <c r="CD6" s="40"/>
       <c r="CE6" s="40"/>
@@ -4588,9 +4609,15 @@
       <c r="BZ7" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="CA7" s="40"/>
-      <c r="CB7" s="40"/>
-      <c r="CC7" s="40"/>
+      <c r="CA7" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB7" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC7" s="53" t="s">
+        <v>0</v>
+      </c>
       <c r="CD7" s="40"/>
       <c r="CE7" s="40"/>
       <c r="CF7" s="40"/>
@@ -4776,9 +4803,15 @@
       <c r="BZ8" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="CA8" s="40"/>
-      <c r="CB8" s="40"/>
-      <c r="CC8" s="40"/>
+      <c r="CA8" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB8" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC8" s="53" t="s">
+        <v>0</v>
+      </c>
       <c r="CD8" s="40"/>
       <c r="CE8" s="40"/>
       <c r="CF8" s="40"/>
@@ -4956,9 +4989,15 @@
         <v>0</v>
       </c>
       <c r="BZ9" s="40"/>
-      <c r="CA9" s="40"/>
-      <c r="CB9" s="40"/>
-      <c r="CC9" s="40"/>
+      <c r="CA9" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB9" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC9" s="53" t="s">
+        <v>0</v>
+      </c>
       <c r="CD9" s="40"/>
       <c r="CE9" s="40"/>
       <c r="CF9" s="40"/>
@@ -5140,9 +5179,15 @@
       <c r="BZ10" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="CA10" s="40"/>
-      <c r="CB10" s="40"/>
-      <c r="CC10" s="40"/>
+      <c r="CA10" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB10" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC10" s="53" t="s">
+        <v>0</v>
+      </c>
       <c r="CD10" s="40"/>
       <c r="CE10" s="40"/>
       <c r="CF10" s="40"/>
@@ -5306,8 +5351,12 @@
         <v>0</v>
       </c>
       <c r="BZ11" s="40"/>
-      <c r="CA11" s="40"/>
-      <c r="CB11" s="40"/>
+      <c r="CA11" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB11" s="40" t="s">
+        <v>0</v>
+      </c>
       <c r="CC11" s="40"/>
       <c r="CD11" s="40"/>
       <c r="CE11" s="40"/>
@@ -5490,22 +5539,33 @@
       <c r="BZ12" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="CA12" s="40"/>
-      <c r="CB12" s="40"/>
-      <c r="CC12" s="40"/>
+      <c r="CA12" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB12" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC12" s="53" t="s">
+        <v>0</v>
+      </c>
       <c r="CD12" s="40"/>
       <c r="CE12" s="40"/>
       <c r="CF12" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="CA3:CC3"/>
-    <mergeCell ref="CD3:CF3"/>
-    <mergeCell ref="BL3:BN3"/>
-    <mergeCell ref="BO3:BQ3"/>
-    <mergeCell ref="BR3:BT3"/>
-    <mergeCell ref="BU3:BW3"/>
-    <mergeCell ref="BX3:BZ3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BK3"/>
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="AT3:AV3"/>
+    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="AN3:AP3"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="A3:A4"/>
@@ -5517,18 +5577,13 @@
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:U3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AK3:AM3"/>
-    <mergeCell ref="AN3:AP3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BK3"/>
-    <mergeCell ref="AQ3:AS3"/>
-    <mergeCell ref="AT3:AV3"/>
-    <mergeCell ref="AW3:AY3"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="CA3:CC3"/>
+    <mergeCell ref="CD3:CF3"/>
+    <mergeCell ref="BL3:BN3"/>
+    <mergeCell ref="BO3:BQ3"/>
+    <mergeCell ref="BR3:BT3"/>
+    <mergeCell ref="BU3:BW3"/>
+    <mergeCell ref="BX3:BZ3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5569,30 +5624,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55" t="s">
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="53" t="s">
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="53" t="s">
+      <c r="O2" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="53" t="s">
+      <c r="P2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="53" t="s">
+      <c r="Q2" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="53" t="s">
+      <c r="R2" s="54" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5636,11 +5691,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -5898,8 +5953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5920,10 +5975,10 @@
       </c>
     </row>
     <row r="3" spans="1:22" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="66" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="34" t="s">
@@ -5938,34 +5993,36 @@
       <c r="F3" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="66" t="s">
+      <c r="G3" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="62" t="s">
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="K3" s="63"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="62" t="s">
+      <c r="K3" s="64"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="N3" s="63"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="62" t="s">
+      <c r="N3" s="64"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="T3" s="64"/>
+      <c r="U3" s="65"/>
       <c r="V3" s="35"/>
     </row>
     <row r="4" spans="1:22" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65"/>
-      <c r="B4" s="65"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="66"/>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
@@ -6132,8 +6189,12 @@
         <v>0</v>
       </c>
       <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="35"/>
+      <c r="S7" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="T7" s="53" t="s">
+        <v>0</v>
+      </c>
       <c r="U7" s="35"/>
       <c r="V7" s="35"/>
     </row>
@@ -6230,8 +6291,10 @@
         <v>0</v>
       </c>
       <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="35"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="53" t="s">
+        <v>0</v>
+      </c>
       <c r="U9" s="35"/>
       <c r="V9" s="35"/>
     </row>
@@ -6288,8 +6351,12 @@
       <c r="R10" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="S10" s="51"/>
-      <c r="T10" s="35"/>
+      <c r="S10" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="T10" s="53" t="s">
+        <v>0</v>
+      </c>
       <c r="U10" s="35"/>
       <c r="V10" s="35"/>
     </row>
@@ -6494,30 +6561,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55" t="s">
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="53" t="s">
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="53" t="s">
+      <c r="O2" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="53" t="s">
+      <c r="P2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="53" t="s">
+      <c r="Q2" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="53" t="s">
+      <c r="R2" s="54" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6561,11 +6628,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -6906,7 +6973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="BA9" sqref="BA9"/>
       <selection pane="topRight" activeCell="BA9" sqref="BA9"/>
@@ -6930,10 +6997,10 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="66" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="42" t="s">
@@ -6948,26 +7015,26 @@
       <c r="F3" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="G3" s="66" t="s">
+      <c r="G3" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="62" t="s">
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="K3" s="63"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="62" t="s">
+      <c r="K3" s="64"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="N3" s="63"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="62" t="s">
+      <c r="N3" s="64"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="65"/>
       <c r="S3" s="42"/>
       <c r="T3" s="42"/>
       <c r="U3" s="35"/>
@@ -6982,8 +7049,8 @@
       <c r="AD3" s="35"/>
     </row>
     <row r="4" spans="1:30" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65"/>
-      <c r="B4" s="65"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="66"/>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="TOEIC 300-500 K1" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="136">
   <si>
     <t>x</t>
   </si>
@@ -427,6 +427,9 @@
   </si>
   <si>
     <t>10/5-Lesson 5</t>
+  </si>
+  <si>
+    <t>11/5-Lesson 5</t>
   </si>
 </sst>
 </file>
@@ -693,7 +696,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -826,6 +829,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -838,6 +844,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -845,12 +857,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1212,30 +1218,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56" t="s">
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="54" t="s">
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="54" t="s">
+      <c r="O2" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="54" t="s">
+      <c r="P2" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="54" t="s">
+      <c r="Q2" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="54" t="s">
+      <c r="R2" s="55" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1279,11 +1285,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -1536,30 +1542,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56" t="s">
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="54" t="s">
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="54" t="s">
+      <c r="O2" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="54" t="s">
+      <c r="P2" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="54" t="s">
+      <c r="Q2" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="57" t="s">
+      <c r="R2" s="58" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1603,11 +1609,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="57"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="58"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -2582,30 +2588,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56" t="s">
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="54" t="s">
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="54" t="s">
+      <c r="O2" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="54" t="s">
+      <c r="P2" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="54" t="s">
+      <c r="Q2" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="54" t="s">
+      <c r="R2" s="55" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2649,11 +2655,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -2963,30 +2969,30 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="56" t="s">
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="54" t="s">
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="54" t="s">
+      <c r="Q2" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="54" t="s">
+      <c r="R2" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="54" t="s">
+      <c r="S2" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="54" t="s">
+      <c r="T2" s="55" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3036,11 +3042,11 @@
       <c r="O3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="55"/>
     </row>
     <row r="4" spans="1:20" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -3677,153 +3683,153 @@
       </c>
     </row>
     <row r="3" spans="1:84" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61" t="s">
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61" t="s">
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61" t="s">
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61" t="s">
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61" t="s">
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61" t="s">
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="W3" s="61"/>
-      <c r="X3" s="61"/>
-      <c r="Y3" s="61" t="s">
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="Z3" s="61"/>
-      <c r="AA3" s="61"/>
-      <c r="AB3" s="61" t="s">
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="AC3" s="61"/>
-      <c r="AD3" s="61"/>
-      <c r="AE3" s="61" t="s">
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="AF3" s="61"/>
-      <c r="AG3" s="61"/>
-      <c r="AH3" s="61" t="s">
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="AI3" s="61"/>
-      <c r="AJ3" s="61"/>
-      <c r="AK3" s="61" t="s">
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="59"/>
+      <c r="AK3" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="AL3" s="61"/>
-      <c r="AM3" s="61"/>
-      <c r="AN3" s="61" t="s">
+      <c r="AL3" s="59"/>
+      <c r="AM3" s="59"/>
+      <c r="AN3" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="AO3" s="61"/>
-      <c r="AP3" s="61"/>
-      <c r="AQ3" s="61" t="s">
+      <c r="AO3" s="59"/>
+      <c r="AP3" s="59"/>
+      <c r="AQ3" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="AR3" s="61"/>
-      <c r="AS3" s="61"/>
-      <c r="AT3" s="61" t="s">
+      <c r="AR3" s="59"/>
+      <c r="AS3" s="59"/>
+      <c r="AT3" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="AU3" s="61"/>
-      <c r="AV3" s="61"/>
-      <c r="AW3" s="61" t="s">
+      <c r="AU3" s="59"/>
+      <c r="AV3" s="59"/>
+      <c r="AW3" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="AX3" s="61"/>
-      <c r="AY3" s="61"/>
-      <c r="AZ3" s="61" t="s">
+      <c r="AX3" s="59"/>
+      <c r="AY3" s="59"/>
+      <c r="AZ3" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="BA3" s="61"/>
-      <c r="BB3" s="61"/>
-      <c r="BC3" s="61" t="s">
+      <c r="BA3" s="59"/>
+      <c r="BB3" s="59"/>
+      <c r="BC3" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="BD3" s="61"/>
-      <c r="BE3" s="61"/>
-      <c r="BF3" s="61" t="s">
+      <c r="BD3" s="59"/>
+      <c r="BE3" s="59"/>
+      <c r="BF3" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="BG3" s="61"/>
-      <c r="BH3" s="61"/>
-      <c r="BI3" s="61" t="s">
+      <c r="BG3" s="59"/>
+      <c r="BH3" s="59"/>
+      <c r="BI3" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="BJ3" s="61"/>
-      <c r="BK3" s="61"/>
-      <c r="BL3" s="61" t="s">
+      <c r="BJ3" s="59"/>
+      <c r="BK3" s="59"/>
+      <c r="BL3" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="BM3" s="61"/>
-      <c r="BN3" s="61"/>
-      <c r="BO3" s="61" t="s">
+      <c r="BM3" s="59"/>
+      <c r="BN3" s="59"/>
+      <c r="BO3" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="BP3" s="61"/>
-      <c r="BQ3" s="61"/>
-      <c r="BR3" s="61" t="s">
+      <c r="BP3" s="59"/>
+      <c r="BQ3" s="59"/>
+      <c r="BR3" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="BS3" s="61"/>
-      <c r="BT3" s="61"/>
-      <c r="BU3" s="58" t="s">
+      <c r="BS3" s="59"/>
+      <c r="BT3" s="59"/>
+      <c r="BU3" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="BV3" s="59"/>
-      <c r="BW3" s="60"/>
-      <c r="BX3" s="58" t="s">
+      <c r="BV3" s="62"/>
+      <c r="BW3" s="63"/>
+      <c r="BX3" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="BY3" s="59"/>
-      <c r="BZ3" s="60"/>
-      <c r="CA3" s="58" t="s">
+      <c r="BY3" s="62"/>
+      <c r="BZ3" s="63"/>
+      <c r="CA3" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="CB3" s="59"/>
-      <c r="CC3" s="60"/>
-      <c r="CD3" s="58"/>
-      <c r="CE3" s="59"/>
-      <c r="CF3" s="60"/>
+      <c r="CB3" s="62"/>
+      <c r="CC3" s="63"/>
+      <c r="CD3" s="61"/>
+      <c r="CE3" s="62"/>
+      <c r="CF3" s="63"/>
     </row>
     <row r="4" spans="1:84" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="62"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
       <c r="D4" s="34" t="s">
         <v>66</v>
       </c>
@@ -5554,18 +5560,13 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BK3"/>
-    <mergeCell ref="AQ3:AS3"/>
-    <mergeCell ref="AT3:AV3"/>
-    <mergeCell ref="AW3:AY3"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AK3:AM3"/>
-    <mergeCell ref="AN3:AP3"/>
+    <mergeCell ref="CA3:CC3"/>
+    <mergeCell ref="CD3:CF3"/>
+    <mergeCell ref="BL3:BN3"/>
+    <mergeCell ref="BO3:BQ3"/>
+    <mergeCell ref="BR3:BT3"/>
+    <mergeCell ref="BU3:BW3"/>
+    <mergeCell ref="BX3:BZ3"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="A3:A4"/>
@@ -5577,13 +5578,18 @@
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:U3"/>
-    <mergeCell ref="CA3:CC3"/>
-    <mergeCell ref="CD3:CF3"/>
-    <mergeCell ref="BL3:BN3"/>
-    <mergeCell ref="BO3:BQ3"/>
-    <mergeCell ref="BR3:BT3"/>
-    <mergeCell ref="BU3:BW3"/>
-    <mergeCell ref="BX3:BZ3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="AN3:AP3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BK3"/>
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="AT3:AV3"/>
+    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="BC3:BE3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5624,30 +5630,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56" t="s">
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="54" t="s">
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="54" t="s">
+      <c r="O2" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="54" t="s">
+      <c r="P2" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="54" t="s">
+      <c r="Q2" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="54" t="s">
+      <c r="R2" s="55" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5691,11 +5697,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -5953,7 +5959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
@@ -5975,10 +5981,10 @@
       </c>
     </row>
     <row r="3" spans="1:22" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="67" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="34" t="s">
@@ -5993,36 +5999,36 @@
       <c r="F3" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="67" t="s">
+      <c r="G3" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="63" t="s">
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="K3" s="64"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="63" t="s">
+      <c r="K3" s="65"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="N3" s="64"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="63" t="s">
+      <c r="N3" s="65"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="63" t="s">
+      <c r="Q3" s="65"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="T3" s="64"/>
-      <c r="U3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="66"/>
       <c r="V3" s="35"/>
     </row>
     <row r="4" spans="1:22" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="66"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
@@ -6561,30 +6567,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56" t="s">
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="54" t="s">
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="54" t="s">
+      <c r="O2" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="54" t="s">
+      <c r="P2" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="54" t="s">
+      <c r="Q2" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="54" t="s">
+      <c r="R2" s="55" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6628,11 +6634,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -6973,12 +6979,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="BA9" sqref="BA9"/>
       <selection pane="topRight" activeCell="BA9" sqref="BA9"/>
       <selection pane="bottomLeft" activeCell="BA9" sqref="BA9"/>
-      <selection pane="bottomRight" activeCell="P14" sqref="P14"/>
+      <selection pane="bottomRight" activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6997,10 +7003,10 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="67" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="42" t="s">
@@ -7015,29 +7021,31 @@
       <c r="F3" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="G3" s="67" t="s">
+      <c r="G3" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="63" t="s">
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="K3" s="64"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="63" t="s">
+      <c r="K3" s="65"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="N3" s="64"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="63" t="s">
+      <c r="N3" s="65"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="35"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="64" t="s">
+        <v>135</v>
+      </c>
+      <c r="T3" s="65"/>
+      <c r="U3" s="66"/>
       <c r="V3" s="35"/>
       <c r="W3" s="35"/>
       <c r="X3" s="35"/>
@@ -7049,8 +7057,8 @@
       <c r="AD3" s="35"/>
     </row>
     <row r="4" spans="1:30" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="66"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
@@ -7149,18 +7157,22 @@
         <v>0</v>
       </c>
       <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="35"/>
-      <c r="W5" s="35"/>
-      <c r="X5" s="35"/>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="35"/>
-      <c r="AA5" s="35"/>
-      <c r="AB5" s="35"/>
-      <c r="AC5" s="35"/>
-      <c r="AD5" s="35"/>
+      <c r="S5" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="T5" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="U5" s="54"/>
+      <c r="V5" s="54"/>
+      <c r="W5" s="54"/>
+      <c r="X5" s="54"/>
+      <c r="Y5" s="54"/>
+      <c r="Z5" s="54"/>
+      <c r="AA5" s="54"/>
+      <c r="AB5" s="54"/>
+      <c r="AC5" s="54"/>
+      <c r="AD5" s="54"/>
     </row>
     <row r="6" spans="1:30" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="42">
@@ -7203,18 +7215,22 @@
         <v>0</v>
       </c>
       <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="42"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="35"/>
-      <c r="Y6" s="35"/>
-      <c r="Z6" s="35"/>
-      <c r="AA6" s="35"/>
-      <c r="AB6" s="35"/>
-      <c r="AC6" s="35"/>
-      <c r="AD6" s="35"/>
+      <c r="S6" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="T6" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="U6" s="54"/>
+      <c r="V6" s="54"/>
+      <c r="W6" s="54"/>
+      <c r="X6" s="54"/>
+      <c r="Y6" s="54"/>
+      <c r="Z6" s="54"/>
+      <c r="AA6" s="54"/>
+      <c r="AB6" s="54"/>
+      <c r="AC6" s="54"/>
+      <c r="AD6" s="54"/>
     </row>
     <row r="7" spans="1:30" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="42">
@@ -7246,17 +7262,19 @@
       </c>
       <c r="R7" s="42"/>
       <c r="S7" s="42"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="35"/>
-      <c r="W7" s="35"/>
-      <c r="X7" s="35"/>
-      <c r="Y7" s="35"/>
-      <c r="Z7" s="35"/>
-      <c r="AA7" s="35"/>
-      <c r="AB7" s="35"/>
-      <c r="AC7" s="35"/>
-      <c r="AD7" s="35"/>
+      <c r="T7" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="U7" s="54"/>
+      <c r="V7" s="54"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="54"/>
+      <c r="Y7" s="54"/>
+      <c r="Z7" s="54"/>
+      <c r="AA7" s="54"/>
+      <c r="AB7" s="54"/>
+      <c r="AC7" s="54"/>
+      <c r="AD7" s="54"/>
     </row>
     <row r="8" spans="1:30" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="42">
@@ -7285,18 +7303,22 @@
       <c r="P8" s="42"/>
       <c r="Q8" s="42"/>
       <c r="R8" s="42"/>
-      <c r="S8" s="42"/>
-      <c r="T8" s="42"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="35"/>
-      <c r="W8" s="35"/>
-      <c r="X8" s="35"/>
-      <c r="Y8" s="35"/>
-      <c r="Z8" s="35"/>
-      <c r="AA8" s="35"/>
-      <c r="AB8" s="35"/>
-      <c r="AC8" s="35"/>
-      <c r="AD8" s="35"/>
+      <c r="S8" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="T8" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="U8" s="54"/>
+      <c r="V8" s="54"/>
+      <c r="W8" s="54"/>
+      <c r="X8" s="54"/>
+      <c r="Y8" s="54"/>
+      <c r="Z8" s="54"/>
+      <c r="AA8" s="54"/>
+      <c r="AB8" s="54"/>
+      <c r="AC8" s="54"/>
+      <c r="AD8" s="54"/>
     </row>
     <row r="9" spans="1:30" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="42">
@@ -7339,18 +7361,22 @@
         <v>0</v>
       </c>
       <c r="R9" s="42"/>
-      <c r="S9" s="42"/>
-      <c r="T9" s="42"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="35"/>
-      <c r="W9" s="35"/>
-      <c r="X9" s="35"/>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="35"/>
-      <c r="AA9" s="35"/>
-      <c r="AB9" s="35"/>
-      <c r="AC9" s="35"/>
-      <c r="AD9" s="35"/>
+      <c r="S9" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="T9" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="U9" s="54"/>
+      <c r="V9" s="54"/>
+      <c r="W9" s="54"/>
+      <c r="X9" s="54"/>
+      <c r="Y9" s="54"/>
+      <c r="Z9" s="54"/>
+      <c r="AA9" s="54"/>
+      <c r="AB9" s="54"/>
+      <c r="AC9" s="54"/>
+      <c r="AD9" s="54"/>
     </row>
     <row r="10" spans="1:30" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="42">
@@ -7393,18 +7419,22 @@
         <v>0</v>
       </c>
       <c r="R10" s="42"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="42"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="35"/>
-      <c r="W10" s="35"/>
-      <c r="X10" s="35"/>
-      <c r="Y10" s="35"/>
-      <c r="Z10" s="35"/>
-      <c r="AA10" s="35"/>
-      <c r="AB10" s="35"/>
-      <c r="AC10" s="35"/>
-      <c r="AD10" s="35"/>
+      <c r="S10" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="T10" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="U10" s="54"/>
+      <c r="V10" s="54"/>
+      <c r="W10" s="54"/>
+      <c r="X10" s="54"/>
+      <c r="Y10" s="54"/>
+      <c r="Z10" s="54"/>
+      <c r="AA10" s="54"/>
+      <c r="AB10" s="54"/>
+      <c r="AC10" s="54"/>
+      <c r="AD10" s="54"/>
     </row>
     <row r="11" spans="1:30" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="42">
@@ -7447,18 +7477,24 @@
         <v>0</v>
       </c>
       <c r="R11" s="42"/>
-      <c r="S11" s="42"/>
-      <c r="T11" s="42"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="35"/>
-      <c r="W11" s="35"/>
-      <c r="X11" s="35"/>
-      <c r="Y11" s="35"/>
-      <c r="Z11" s="35"/>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="35"/>
-      <c r="AC11" s="35"/>
-      <c r="AD11" s="35"/>
+      <c r="S11" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="T11" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="U11" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="V11" s="54"/>
+      <c r="W11" s="54"/>
+      <c r="X11" s="54"/>
+      <c r="Y11" s="54"/>
+      <c r="Z11" s="54"/>
+      <c r="AA11" s="54"/>
+      <c r="AB11" s="54"/>
+      <c r="AC11" s="54"/>
+      <c r="AD11" s="54"/>
     </row>
     <row r="12" spans="1:30" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="42">
@@ -7501,18 +7537,22 @@
         <v>0</v>
       </c>
       <c r="R12" s="42"/>
-      <c r="S12" s="42"/>
-      <c r="T12" s="42"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="35"/>
-      <c r="X12" s="35"/>
-      <c r="Y12" s="35"/>
-      <c r="Z12" s="35"/>
-      <c r="AA12" s="35"/>
-      <c r="AB12" s="35"/>
-      <c r="AC12" s="35"/>
-      <c r="AD12" s="35"/>
+      <c r="S12" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="T12" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="U12" s="54"/>
+      <c r="V12" s="54"/>
+      <c r="W12" s="54"/>
+      <c r="X12" s="54"/>
+      <c r="Y12" s="54"/>
+      <c r="Z12" s="54"/>
+      <c r="AA12" s="54"/>
+      <c r="AB12" s="54"/>
+      <c r="AC12" s="54"/>
+      <c r="AD12" s="54"/>
     </row>
     <row r="13" spans="1:30" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="42">
@@ -7557,18 +7597,22 @@
         <v>0</v>
       </c>
       <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="42"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="35"/>
-      <c r="W13" s="35"/>
-      <c r="X13" s="35"/>
-      <c r="Y13" s="35"/>
-      <c r="Z13" s="35"/>
-      <c r="AA13" s="35"/>
-      <c r="AB13" s="35"/>
-      <c r="AC13" s="35"/>
-      <c r="AD13" s="35"/>
+      <c r="S13" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="T13" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="U13" s="54"/>
+      <c r="V13" s="54"/>
+      <c r="W13" s="54"/>
+      <c r="X13" s="54"/>
+      <c r="Y13" s="54"/>
+      <c r="Z13" s="54"/>
+      <c r="AA13" s="54"/>
+      <c r="AB13" s="54"/>
+      <c r="AC13" s="54"/>
+      <c r="AD13" s="54"/>
     </row>
     <row r="14" spans="1:30" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="42">
@@ -7601,16 +7645,16 @@
       <c r="R14" s="42"/>
       <c r="S14" s="42"/>
       <c r="T14" s="42"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="35"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="35"/>
-      <c r="Y14" s="35"/>
-      <c r="Z14" s="35"/>
-      <c r="AA14" s="35"/>
-      <c r="AB14" s="35"/>
-      <c r="AC14" s="35"/>
-      <c r="AD14" s="35"/>
+      <c r="U14" s="54"/>
+      <c r="V14" s="54"/>
+      <c r="W14" s="54"/>
+      <c r="X14" s="54"/>
+      <c r="Y14" s="54"/>
+      <c r="Z14" s="54"/>
+      <c r="AA14" s="54"/>
+      <c r="AB14" s="54"/>
+      <c r="AC14" s="54"/>
+      <c r="AD14" s="54"/>
     </row>
     <row r="15" spans="1:30" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="42">
@@ -7643,16 +7687,16 @@
       <c r="R15" s="44"/>
       <c r="S15" s="44"/>
       <c r="T15" s="44"/>
-      <c r="U15" s="45"/>
-      <c r="V15" s="45"/>
-      <c r="W15" s="45"/>
-      <c r="X15" s="45"/>
-      <c r="Y15" s="45"/>
-      <c r="Z15" s="45"/>
-      <c r="AA15" s="45"/>
-      <c r="AB15" s="45"/>
-      <c r="AC15" s="45"/>
-      <c r="AD15" s="45"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="44"/>
+      <c r="X15" s="44"/>
+      <c r="Y15" s="44"/>
+      <c r="Z15" s="44"/>
+      <c r="AA15" s="44"/>
+      <c r="AB15" s="44"/>
+      <c r="AC15" s="44"/>
+      <c r="AD15" s="44"/>
     </row>
     <row r="16" spans="1:30" s="46" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="47"/>
@@ -7679,7 +7723,8 @@
     <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="S3:U3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="139">
   <si>
     <t>x</t>
   </si>
@@ -430,6 +430,15 @@
   </si>
   <si>
     <t>11/5-Lesson 5</t>
+  </si>
+  <si>
+    <t>13/5-Lesson 6</t>
+  </si>
+  <si>
+    <t>12/5-Lesson 6</t>
+  </si>
+  <si>
+    <t>12/5-Lesson 26</t>
   </si>
 </sst>
 </file>
@@ -696,7 +705,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -794,9 +803,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -809,6 +815,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1218,30 +1230,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57" t="s">
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="55" t="s">
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="55" t="s">
+      <c r="O2" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="55" t="s">
+      <c r="P2" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="55" t="s">
+      <c r="Q2" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="55" t="s">
+      <c r="R2" s="56" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1285,11 +1297,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="55"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -1542,30 +1554,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57" t="s">
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="55" t="s">
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="55" t="s">
+      <c r="O2" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="55" t="s">
+      <c r="P2" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="55" t="s">
+      <c r="Q2" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="58" t="s">
+      <c r="R2" s="59" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1609,11 +1621,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="58"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="59"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -2588,30 +2600,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57" t="s">
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="55" t="s">
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="55" t="s">
+      <c r="O2" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="55" t="s">
+      <c r="P2" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="55" t="s">
+      <c r="Q2" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="55" t="s">
+      <c r="R2" s="56" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2655,11 +2667,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="55"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -2969,30 +2981,30 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I2" s="56" t="s">
+      <c r="I2" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="57" t="s">
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="55" t="s">
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="55" t="s">
+      <c r="Q2" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="55" t="s">
+      <c r="R2" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="55" t="s">
+      <c r="S2" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="55" t="s">
+      <c r="T2" s="56" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3042,11 +3054,11 @@
       <c r="O3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="55"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
     </row>
     <row r="4" spans="1:20" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -3647,8 +3659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CF12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="CD9" sqref="CD9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="CF9" sqref="CF9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3683,153 +3695,155 @@
       </c>
     </row>
     <row r="3" spans="1:84" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59" t="s">
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59" t="s">
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59" t="s">
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59" t="s">
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59" t="s">
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59" t="s">
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59" t="s">
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59" t="s">
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="59" t="s">
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="59"/>
-      <c r="AH3" s="59" t="s">
+      <c r="AF3" s="60"/>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="59"/>
-      <c r="AK3" s="59" t="s">
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="60"/>
+      <c r="AK3" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="AL3" s="59"/>
-      <c r="AM3" s="59"/>
-      <c r="AN3" s="59" t="s">
+      <c r="AL3" s="60"/>
+      <c r="AM3" s="60"/>
+      <c r="AN3" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="AO3" s="59"/>
-      <c r="AP3" s="59"/>
-      <c r="AQ3" s="59" t="s">
+      <c r="AO3" s="60"/>
+      <c r="AP3" s="60"/>
+      <c r="AQ3" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="AR3" s="59"/>
-      <c r="AS3" s="59"/>
-      <c r="AT3" s="59" t="s">
+      <c r="AR3" s="60"/>
+      <c r="AS3" s="60"/>
+      <c r="AT3" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="AU3" s="59"/>
-      <c r="AV3" s="59"/>
-      <c r="AW3" s="59" t="s">
+      <c r="AU3" s="60"/>
+      <c r="AV3" s="60"/>
+      <c r="AW3" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="AX3" s="59"/>
-      <c r="AY3" s="59"/>
-      <c r="AZ3" s="59" t="s">
+      <c r="AX3" s="60"/>
+      <c r="AY3" s="60"/>
+      <c r="AZ3" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="BA3" s="59"/>
-      <c r="BB3" s="59"/>
-      <c r="BC3" s="59" t="s">
+      <c r="BA3" s="60"/>
+      <c r="BB3" s="60"/>
+      <c r="BC3" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="BD3" s="59"/>
-      <c r="BE3" s="59"/>
-      <c r="BF3" s="59" t="s">
+      <c r="BD3" s="60"/>
+      <c r="BE3" s="60"/>
+      <c r="BF3" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="BG3" s="59"/>
-      <c r="BH3" s="59"/>
-      <c r="BI3" s="59" t="s">
+      <c r="BG3" s="60"/>
+      <c r="BH3" s="60"/>
+      <c r="BI3" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="BJ3" s="59"/>
-      <c r="BK3" s="59"/>
-      <c r="BL3" s="59" t="s">
+      <c r="BJ3" s="60"/>
+      <c r="BK3" s="60"/>
+      <c r="BL3" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="BM3" s="59"/>
-      <c r="BN3" s="59"/>
-      <c r="BO3" s="59" t="s">
+      <c r="BM3" s="60"/>
+      <c r="BN3" s="60"/>
+      <c r="BO3" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="BP3" s="59"/>
-      <c r="BQ3" s="59"/>
-      <c r="BR3" s="59" t="s">
+      <c r="BP3" s="60"/>
+      <c r="BQ3" s="60"/>
+      <c r="BR3" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="BS3" s="59"/>
-      <c r="BT3" s="59"/>
-      <c r="BU3" s="61" t="s">
+      <c r="BS3" s="60"/>
+      <c r="BT3" s="60"/>
+      <c r="BU3" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="BV3" s="62"/>
-      <c r="BW3" s="63"/>
-      <c r="BX3" s="61" t="s">
+      <c r="BV3" s="63"/>
+      <c r="BW3" s="64"/>
+      <c r="BX3" s="62" t="s">
         <v>127</v>
       </c>
-      <c r="BY3" s="62"/>
-      <c r="BZ3" s="63"/>
-      <c r="CA3" s="61" t="s">
+      <c r="BY3" s="63"/>
+      <c r="BZ3" s="64"/>
+      <c r="CA3" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="CB3" s="62"/>
-      <c r="CC3" s="63"/>
-      <c r="CD3" s="61"/>
-      <c r="CE3" s="62"/>
-      <c r="CF3" s="63"/>
+      <c r="CB3" s="63"/>
+      <c r="CC3" s="64"/>
+      <c r="CD3" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="CE3" s="63"/>
+      <c r="CF3" s="64"/>
     </row>
     <row r="4" spans="1:84" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="60"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
       <c r="D4" s="34" t="s">
         <v>66</v>
       </c>
@@ -4229,54 +4243,60 @@
       <c r="BN5" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="BO5" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP5" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ5" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR5" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="BS5" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT5" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="BU5" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="BV5" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW5" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="BX5" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="BY5" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ5" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="CA5" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="CB5" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="CC5" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="CD5" s="41"/>
-      <c r="CE5" s="41"/>
-      <c r="CF5" s="41"/>
+      <c r="BO5" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP5" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ5" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR5" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS5" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT5" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU5" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV5" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW5" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX5" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY5" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ5" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA5" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB5" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC5" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD5" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE5" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF5" s="54" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:84" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34">
@@ -4428,13 +4448,13 @@
         <v>0</v>
       </c>
       <c r="BQ6" s="40"/>
-      <c r="BR6" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="BS6" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT6" s="48"/>
+      <c r="BR6" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS6" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT6" s="47"/>
       <c r="BU6" s="40" t="s">
         <v>0</v>
       </c>
@@ -4456,9 +4476,15 @@
         <v>0</v>
       </c>
       <c r="CC6" s="40"/>
-      <c r="CD6" s="40"/>
-      <c r="CE6" s="40"/>
-      <c r="CF6" s="40"/>
+      <c r="CD6" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE6" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF6" s="54" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:84" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="34">
@@ -4588,45 +4614,51 @@
         <v>0</v>
       </c>
       <c r="BQ7" s="40"/>
-      <c r="BR7" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="BS7" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT7" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="BU7" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="BV7" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW7" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="BX7" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="BY7" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ7" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="CA7" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="CB7" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="CC7" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="CD7" s="40"/>
-      <c r="CE7" s="40"/>
-      <c r="CF7" s="40"/>
+      <c r="BR7" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS7" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT7" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU7" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV7" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW7" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX7" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY7" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ7" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA7" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB7" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC7" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD7" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE7" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF7" s="54" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:84" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="34">
@@ -4773,54 +4805,60 @@
       <c r="BN8" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="BO8" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP8" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ8" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR8" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="BS8" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT8" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="BU8" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="BV8" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW8" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="BX8" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="BY8" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ8" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="CA8" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="CB8" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="CC8" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="CD8" s="40"/>
-      <c r="CE8" s="40"/>
-      <c r="CF8" s="40"/>
+      <c r="BO8" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP8" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ8" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR8" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS8" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT8" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU8" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV8" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW8" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX8" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY8" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ8" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA8" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB8" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC8" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD8" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE8" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF8" s="54" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:84" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34">
@@ -4963,22 +5001,22 @@
       <c r="BN9" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="BO9" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP9" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ9" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR9" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="BS9" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT9" s="48" t="s">
+      <c r="BO9" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP9" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ9" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR9" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS9" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT9" s="47" t="s">
         <v>0</v>
       </c>
       <c r="BU9" s="40" t="s">
@@ -4995,18 +5033,24 @@
         <v>0</v>
       </c>
       <c r="BZ9" s="40"/>
-      <c r="CA9" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="CB9" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="CC9" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="CD9" s="40"/>
-      <c r="CE9" s="40"/>
-      <c r="CF9" s="40"/>
+      <c r="CA9" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB9" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC9" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD9" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE9" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF9" s="54" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:84" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="34">
@@ -5153,22 +5197,22 @@
         <v>0</v>
       </c>
       <c r="BN10" s="40"/>
-      <c r="BO10" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP10" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ10" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR10" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="BS10" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT10" s="48"/>
+      <c r="BO10" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP10" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ10" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR10" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS10" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT10" s="47"/>
       <c r="BU10" s="40" t="s">
         <v>0</v>
       </c>
@@ -5176,26 +5220,30 @@
         <v>0</v>
       </c>
       <c r="BW10" s="40"/>
-      <c r="BX10" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="BY10" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ10" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="CA10" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="CB10" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="CC10" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="CD10" s="40"/>
-      <c r="CE10" s="40"/>
+      <c r="BX10" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY10" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ10" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA10" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB10" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC10" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD10" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE10" s="40" t="s">
+        <v>0</v>
+      </c>
       <c r="CF10" s="40"/>
     </row>
     <row r="11" spans="1:84" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5336,13 +5384,13 @@
         <v>0</v>
       </c>
       <c r="BQ11" s="40"/>
-      <c r="BR11" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="BS11" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT11" s="48"/>
+      <c r="BR11" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS11" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT11" s="47"/>
       <c r="BU11" s="40" t="s">
         <v>0</v>
       </c>
@@ -5364,8 +5412,12 @@
         <v>0</v>
       </c>
       <c r="CC11" s="40"/>
-      <c r="CD11" s="40"/>
-      <c r="CE11" s="40"/>
+      <c r="CD11" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE11" s="40" t="s">
+        <v>0</v>
+      </c>
       <c r="CF11" s="40"/>
     </row>
     <row r="12" spans="1:84" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5511,22 +5563,22 @@
       <c r="BN12" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="BO12" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP12" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ12" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR12" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="BS12" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT12" s="48" t="s">
+      <c r="BO12" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP12" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ12" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR12" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS12" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT12" s="47" t="s">
         <v>0</v>
       </c>
       <c r="BU12" s="40" t="s">
@@ -5536,27 +5588,33 @@
         <v>0</v>
       </c>
       <c r="BW12" s="40"/>
-      <c r="BX12" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="BY12" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ12" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="CA12" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="CB12" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="CC12" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="CD12" s="40"/>
-      <c r="CE12" s="40"/>
-      <c r="CF12" s="40"/>
+      <c r="BX12" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY12" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ12" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA12" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB12" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC12" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD12" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE12" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF12" s="54" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -5630,30 +5688,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57" t="s">
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="55" t="s">
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="55" t="s">
+      <c r="O2" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="55" t="s">
+      <c r="P2" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="55" t="s">
+      <c r="Q2" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="55" t="s">
+      <c r="R2" s="56" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5697,11 +5755,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="55"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -5957,10 +6015,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:BC18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5970,9 +6028,10 @@
     <col min="3" max="6" width="6.7109375" style="17" customWidth="1"/>
     <col min="7" max="19" width="5.85546875" style="17" customWidth="1"/>
     <col min="20" max="22" width="5.85546875" customWidth="1"/>
+    <col min="23" max="55" width="5.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:55" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B1" s="6" t="s">
         <v>91</v>
       </c>
@@ -5980,11 +6039,11 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+    <row r="3" spans="1:55" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="68" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="34" t="s">
@@ -5999,36 +6058,71 @@
       <c r="F3" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="68" t="s">
+      <c r="G3" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="64" t="s">
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="K3" s="65"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="64" t="s">
+      <c r="K3" s="66"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="N3" s="65"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="64" t="s">
+      <c r="N3" s="66"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="64" t="s">
+      <c r="Q3" s="66"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="T3" s="65"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="35"/>
-    </row>
-    <row r="4" spans="1:22" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67"/>
-      <c r="B4" s="67"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="W3" s="66"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="54"/>
+      <c r="AQ3" s="54"/>
+      <c r="AR3" s="54"/>
+      <c r="AS3" s="54"/>
+      <c r="AT3" s="54"/>
+      <c r="AU3" s="54"/>
+      <c r="AV3" s="54"/>
+      <c r="AW3" s="54"/>
+      <c r="AX3" s="54"/>
+      <c r="AY3" s="54"/>
+      <c r="AZ3" s="54"/>
+      <c r="BA3" s="54"/>
+      <c r="BB3" s="54"/>
+      <c r="BC3" s="54"/>
+    </row>
+    <row r="4" spans="1:55" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
@@ -6042,45 +6136,84 @@
       <c r="I4" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="J4" s="43" t="s">
+      <c r="J4" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="K4" s="43" t="s">
+      <c r="K4" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="L4" s="43" t="s">
+      <c r="L4" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="M4" s="43" t="s">
+      <c r="M4" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="N4" s="43" t="s">
+      <c r="N4" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="O4" s="43" t="s">
+      <c r="O4" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="P4" s="43" t="s">
+      <c r="P4" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="Q4" s="43" t="s">
+      <c r="Q4" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="R4" s="43" t="s">
+      <c r="R4" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="S4" s="43" t="s">
+      <c r="S4" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="T4" s="43" t="s">
+      <c r="T4" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="U4" s="43" t="s">
+      <c r="U4" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="V4" s="35"/>
-    </row>
-    <row r="5" spans="1:22" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V4" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="W4" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="X4" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="54"/>
+      <c r="AQ4" s="54"/>
+      <c r="AR4" s="54"/>
+      <c r="AS4" s="54"/>
+      <c r="AT4" s="54"/>
+      <c r="AU4" s="54"/>
+      <c r="AV4" s="54"/>
+      <c r="AW4" s="54"/>
+      <c r="AX4" s="54"/>
+      <c r="AY4" s="54"/>
+      <c r="AZ4" s="54"/>
+      <c r="BA4" s="54"/>
+      <c r="BB4" s="54"/>
+      <c r="BC4" s="54"/>
+    </row>
+    <row r="5" spans="1:55" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="34">
         <v>1</v>
       </c>
@@ -6094,33 +6227,70 @@
       <c r="G5" s="34"/>
       <c r="H5" s="34"/>
       <c r="I5" s="34"/>
-      <c r="J5" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="43" t="s">
+      <c r="J5" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="42" t="s">
         <v>0</v>
       </c>
       <c r="L5" s="34"/>
-      <c r="M5" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="N5" s="51" t="s">
+      <c r="M5" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="50" t="s">
         <v>0</v>
       </c>
       <c r="O5" s="34"/>
-      <c r="P5" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="51" t="s">
+      <c r="P5" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="50" t="s">
         <v>0</v>
       </c>
       <c r="R5" s="34"/>
       <c r="S5" s="34"/>
       <c r="T5" s="35"/>
       <c r="U5" s="35"/>
-      <c r="V5" s="35"/>
-    </row>
-    <row r="6" spans="1:22" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V5" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="W5" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="X5" s="54"/>
+      <c r="Y5" s="54"/>
+      <c r="Z5" s="54"/>
+      <c r="AA5" s="54"/>
+      <c r="AB5" s="54"/>
+      <c r="AC5" s="54"/>
+      <c r="AD5" s="54"/>
+      <c r="AE5" s="54"/>
+      <c r="AF5" s="54"/>
+      <c r="AG5" s="54"/>
+      <c r="AH5" s="54"/>
+      <c r="AI5" s="54"/>
+      <c r="AJ5" s="54"/>
+      <c r="AK5" s="54"/>
+      <c r="AL5" s="54"/>
+      <c r="AM5" s="54"/>
+      <c r="AN5" s="54"/>
+      <c r="AO5" s="54"/>
+      <c r="AP5" s="54"/>
+      <c r="AQ5" s="54"/>
+      <c r="AR5" s="54"/>
+      <c r="AS5" s="54"/>
+      <c r="AT5" s="54"/>
+      <c r="AU5" s="54"/>
+      <c r="AV5" s="54"/>
+      <c r="AW5" s="54"/>
+      <c r="AX5" s="54"/>
+      <c r="AY5" s="54"/>
+      <c r="AZ5" s="54"/>
+      <c r="BA5" s="54"/>
+      <c r="BB5" s="54"/>
+      <c r="BC5" s="54"/>
+    </row>
+    <row r="6" spans="1:55" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34">
         <v>2</v>
       </c>
@@ -6137,10 +6307,10 @@
       <c r="J6" s="34"/>
       <c r="K6" s="34"/>
       <c r="L6" s="34"/>
-      <c r="M6" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="N6" s="51" t="s">
+      <c r="M6" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" s="50" t="s">
         <v>0</v>
       </c>
       <c r="O6" s="34"/>
@@ -6150,9 +6320,48 @@
       <c r="S6" s="34"/>
       <c r="T6" s="35"/>
       <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
-    </row>
-    <row r="7" spans="1:22" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V6" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="W6" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="X6" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="54"/>
+      <c r="Z6" s="54"/>
+      <c r="AA6" s="54"/>
+      <c r="AB6" s="54"/>
+      <c r="AC6" s="54"/>
+      <c r="AD6" s="54"/>
+      <c r="AE6" s="54"/>
+      <c r="AF6" s="54"/>
+      <c r="AG6" s="54"/>
+      <c r="AH6" s="54"/>
+      <c r="AI6" s="54"/>
+      <c r="AJ6" s="54"/>
+      <c r="AK6" s="54"/>
+      <c r="AL6" s="54"/>
+      <c r="AM6" s="54"/>
+      <c r="AN6" s="54"/>
+      <c r="AO6" s="54"/>
+      <c r="AP6" s="54"/>
+      <c r="AQ6" s="54"/>
+      <c r="AR6" s="54"/>
+      <c r="AS6" s="54"/>
+      <c r="AT6" s="54"/>
+      <c r="AU6" s="54"/>
+      <c r="AV6" s="54"/>
+      <c r="AW6" s="54"/>
+      <c r="AX6" s="54"/>
+      <c r="AY6" s="54"/>
+      <c r="AZ6" s="54"/>
+      <c r="BA6" s="54"/>
+      <c r="BB6" s="54"/>
+      <c r="BC6" s="54"/>
+    </row>
+    <row r="7" spans="1:55" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="34">
         <v>3</v>
       </c>
@@ -6181,30 +6390,69 @@
       <c r="L7" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="M7" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="N7" s="51" t="s">
+      <c r="M7" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" s="50" t="s">
         <v>0</v>
       </c>
       <c r="O7" s="34"/>
-      <c r="P7" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="51" t="s">
+      <c r="P7" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="50" t="s">
         <v>0</v>
       </c>
       <c r="R7" s="34"/>
-      <c r="S7" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="T7" s="53" t="s">
+      <c r="S7" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="T7" s="52" t="s">
         <v>0</v>
       </c>
       <c r="U7" s="35"/>
-      <c r="V7" s="35"/>
-    </row>
-    <row r="8" spans="1:22" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V7" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="W7" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="X7" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="54"/>
+      <c r="Z7" s="54"/>
+      <c r="AA7" s="54"/>
+      <c r="AB7" s="54"/>
+      <c r="AC7" s="54"/>
+      <c r="AD7" s="54"/>
+      <c r="AE7" s="54"/>
+      <c r="AF7" s="54"/>
+      <c r="AG7" s="54"/>
+      <c r="AH7" s="54"/>
+      <c r="AI7" s="54"/>
+      <c r="AJ7" s="54"/>
+      <c r="AK7" s="54"/>
+      <c r="AL7" s="54"/>
+      <c r="AM7" s="54"/>
+      <c r="AN7" s="54"/>
+      <c r="AO7" s="54"/>
+      <c r="AP7" s="54"/>
+      <c r="AQ7" s="54"/>
+      <c r="AR7" s="54"/>
+      <c r="AS7" s="54"/>
+      <c r="AT7" s="54"/>
+      <c r="AU7" s="54"/>
+      <c r="AV7" s="54"/>
+      <c r="AW7" s="54"/>
+      <c r="AX7" s="54"/>
+      <c r="AY7" s="54"/>
+      <c r="AZ7" s="54"/>
+      <c r="BA7" s="54"/>
+      <c r="BB7" s="54"/>
+      <c r="BC7" s="54"/>
+    </row>
+    <row r="8" spans="1:55" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="34">
         <v>4</v>
       </c>
@@ -6224,28 +6472,28 @@
         <v>0</v>
       </c>
       <c r="I8" s="34"/>
-      <c r="J8" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="K8" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="L8" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="M8" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="N8" s="51" t="s">
+      <c r="J8" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8" s="50" t="s">
         <v>0</v>
       </c>
       <c r="O8" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="P8" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="51" t="s">
+      <c r="P8" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="50" t="s">
         <v>0</v>
       </c>
       <c r="R8" s="34" t="s">
@@ -6254,9 +6502,48 @@
       <c r="S8" s="34"/>
       <c r="T8" s="35"/>
       <c r="U8" s="35"/>
-      <c r="V8" s="35"/>
-    </row>
-    <row r="9" spans="1:22" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V8" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="W8" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="X8" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="54"/>
+      <c r="Z8" s="54"/>
+      <c r="AA8" s="54"/>
+      <c r="AB8" s="54"/>
+      <c r="AC8" s="54"/>
+      <c r="AD8" s="54"/>
+      <c r="AE8" s="54"/>
+      <c r="AF8" s="54"/>
+      <c r="AG8" s="54"/>
+      <c r="AH8" s="54"/>
+      <c r="AI8" s="54"/>
+      <c r="AJ8" s="54"/>
+      <c r="AK8" s="54"/>
+      <c r="AL8" s="54"/>
+      <c r="AM8" s="54"/>
+      <c r="AN8" s="54"/>
+      <c r="AO8" s="54"/>
+      <c r="AP8" s="54"/>
+      <c r="AQ8" s="54"/>
+      <c r="AR8" s="54"/>
+      <c r="AS8" s="54"/>
+      <c r="AT8" s="54"/>
+      <c r="AU8" s="54"/>
+      <c r="AV8" s="54"/>
+      <c r="AW8" s="54"/>
+      <c r="AX8" s="54"/>
+      <c r="AY8" s="54"/>
+      <c r="AZ8" s="54"/>
+      <c r="BA8" s="54"/>
+      <c r="BB8" s="54"/>
+      <c r="BC8" s="54"/>
+    </row>
+    <row r="9" spans="1:55" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34">
         <v>5</v>
       </c>
@@ -6283,90 +6570,168 @@
         <v>0</v>
       </c>
       <c r="L9" s="34"/>
-      <c r="M9" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="N9" s="51" t="s">
+      <c r="M9" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="N9" s="50" t="s">
         <v>0</v>
       </c>
       <c r="O9" s="34"/>
-      <c r="P9" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="51" t="s">
+      <c r="P9" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="50" t="s">
         <v>0</v>
       </c>
       <c r="R9" s="34"/>
-      <c r="S9" s="53"/>
-      <c r="T9" s="53" t="s">
+      <c r="S9" s="52"/>
+      <c r="T9" s="52" t="s">
         <v>0</v>
       </c>
       <c r="U9" s="35"/>
-      <c r="V9" s="35"/>
-    </row>
-    <row r="10" spans="1:22" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="51">
+      <c r="V9" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="W9" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="X9" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="54"/>
+      <c r="Z9" s="54"/>
+      <c r="AA9" s="54"/>
+      <c r="AB9" s="54"/>
+      <c r="AC9" s="54"/>
+      <c r="AD9" s="54"/>
+      <c r="AE9" s="54"/>
+      <c r="AF9" s="54"/>
+      <c r="AG9" s="54"/>
+      <c r="AH9" s="54"/>
+      <c r="AI9" s="54"/>
+      <c r="AJ9" s="54"/>
+      <c r="AK9" s="54"/>
+      <c r="AL9" s="54"/>
+      <c r="AM9" s="54"/>
+      <c r="AN9" s="54"/>
+      <c r="AO9" s="54"/>
+      <c r="AP9" s="54"/>
+      <c r="AQ9" s="54"/>
+      <c r="AR9" s="54"/>
+      <c r="AS9" s="54"/>
+      <c r="AT9" s="54"/>
+      <c r="AU9" s="54"/>
+      <c r="AV9" s="54"/>
+      <c r="AW9" s="54"/>
+      <c r="AX9" s="54"/>
+      <c r="AY9" s="54"/>
+      <c r="AZ9" s="54"/>
+      <c r="BA9" s="54"/>
+      <c r="BB9" s="54"/>
+      <c r="BC9" s="54"/>
+    </row>
+    <row r="10" spans="1:55" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="50">
         <v>6</v>
       </c>
       <c r="B10" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="C10" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="K10" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="L10" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="M10" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="N10" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="R10" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="S10" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="T10" s="53" t="s">
+      <c r="C10" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="M10" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="N10" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="R10" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="S10" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="T10" s="52" t="s">
         <v>0</v>
       </c>
       <c r="U10" s="35"/>
-      <c r="V10" s="35"/>
-    </row>
-    <row r="11" spans="1:22" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V10" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="W10" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="X10" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="54"/>
+      <c r="Z10" s="54"/>
+      <c r="AA10" s="54"/>
+      <c r="AB10" s="54"/>
+      <c r="AC10" s="54"/>
+      <c r="AD10" s="54"/>
+      <c r="AE10" s="54"/>
+      <c r="AF10" s="54"/>
+      <c r="AG10" s="54"/>
+      <c r="AH10" s="54"/>
+      <c r="AI10" s="54"/>
+      <c r="AJ10" s="54"/>
+      <c r="AK10" s="54"/>
+      <c r="AL10" s="54"/>
+      <c r="AM10" s="54"/>
+      <c r="AN10" s="54"/>
+      <c r="AO10" s="54"/>
+      <c r="AP10" s="54"/>
+      <c r="AQ10" s="54"/>
+      <c r="AR10" s="54"/>
+      <c r="AS10" s="54"/>
+      <c r="AT10" s="54"/>
+      <c r="AU10" s="54"/>
+      <c r="AV10" s="54"/>
+      <c r="AW10" s="54"/>
+      <c r="AX10" s="54"/>
+      <c r="AY10" s="54"/>
+      <c r="AZ10" s="54"/>
+      <c r="BA10" s="54"/>
+      <c r="BB10" s="54"/>
+      <c r="BC10" s="54"/>
+    </row>
+    <row r="11" spans="1:55" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -6385,7 +6750,7 @@
       <c r="R11" s="14"/>
       <c r="S11" s="14"/>
     </row>
-    <row r="12" spans="1:22" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:55" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
@@ -6404,7 +6769,7 @@
       <c r="R12" s="14"/>
       <c r="S12" s="14"/>
     </row>
-    <row r="13" spans="1:22" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
@@ -6423,7 +6788,7 @@
       <c r="R13" s="14"/>
       <c r="S13" s="14"/>
     </row>
-    <row r="14" spans="1:22" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:55" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
@@ -6442,7 +6807,7 @@
       <c r="R14" s="14"/>
       <c r="S14" s="14"/>
     </row>
-    <row r="15" spans="1:22" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:55" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
@@ -6461,7 +6826,7 @@
       <c r="R15" s="14"/>
       <c r="S15" s="14"/>
     </row>
-    <row r="16" spans="1:22" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:55" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
@@ -6519,7 +6884,8 @@
       <c r="S18" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="V3:X3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:U3"/>
     <mergeCell ref="A3:A4"/>
@@ -6567,30 +6933,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57" t="s">
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="55" t="s">
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="55" t="s">
+      <c r="O2" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="55" t="s">
+      <c r="P2" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="55" t="s">
+      <c r="Q2" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="55" t="s">
+      <c r="R2" s="56" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6634,11 +7000,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="55"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -6984,7 +7350,7 @@
       <selection activeCell="BA9" sqref="BA9"/>
       <selection pane="topRight" activeCell="BA9" sqref="BA9"/>
       <selection pane="bottomLeft" activeCell="BA9" sqref="BA9"/>
-      <selection pane="bottomRight" activeCell="U6" sqref="U6"/>
+      <selection pane="bottomRight" activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6995,6 +7361,7 @@
     <col min="6" max="6" width="5.5703125" style="17" customWidth="1"/>
     <col min="7" max="20" width="6.28515625" style="17" customWidth="1"/>
     <col min="21" max="21" width="6.28515625" customWidth="1"/>
+    <col min="22" max="30" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="26.25" x14ac:dyDescent="0.4">
@@ -7003,52 +7370,54 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="G3" s="68" t="s">
+      <c r="G3" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="64" t="s">
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="K3" s="65"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="64" t="s">
+      <c r="K3" s="66"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="N3" s="65"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="64" t="s">
+      <c r="N3" s="66"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="64" t="s">
+      <c r="Q3" s="66"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="T3" s="65"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="35"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="W3" s="66"/>
+      <c r="X3" s="67"/>
       <c r="Y3" s="35"/>
       <c r="Z3" s="35"/>
       <c r="AA3" s="35"/>
@@ -7057,60 +7426,66 @@
       <c r="AD3" s="35"/>
     </row>
     <row r="4" spans="1:30" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67"/>
-      <c r="B4" s="67"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
       <c r="F4" s="35"/>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="42" t="s">
+      <c r="H4" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="I4" s="42" t="s">
+      <c r="I4" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="J4" s="49" t="s">
+      <c r="J4" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="K4" s="49" t="s">
+      <c r="K4" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="L4" s="49" t="s">
+      <c r="L4" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="M4" s="51" t="s">
+      <c r="M4" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="N4" s="51" t="s">
+      <c r="N4" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="O4" s="51" t="s">
+      <c r="O4" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="P4" s="51" t="s">
+      <c r="P4" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="Q4" s="51" t="s">
+      <c r="Q4" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="R4" s="51" t="s">
+      <c r="R4" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="S4" s="51" t="s">
+      <c r="S4" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="T4" s="51" t="s">
+      <c r="T4" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="U4" s="51" t="s">
+      <c r="U4" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
+      <c r="V4" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="W4" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="X4" s="54" t="s">
+        <v>64</v>
+      </c>
       <c r="Y4" s="35"/>
       <c r="Z4" s="35"/>
       <c r="AA4" s="35"/>
@@ -7119,611 +7494,650 @@
       <c r="AD4" s="35"/>
     </row>
     <row r="5" spans="1:30" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42">
+      <c r="A5" s="41">
         <v>1</v>
       </c>
       <c r="B5" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="42"/>
-      <c r="J5" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="L5" s="42"/>
-      <c r="M5" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="N5" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="O5" s="42"/>
-      <c r="P5" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="T5" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="U5" s="54"/>
-      <c r="V5" s="54"/>
-      <c r="W5" s="54"/>
-      <c r="X5" s="54"/>
-      <c r="Y5" s="54"/>
-      <c r="Z5" s="54"/>
-      <c r="AA5" s="54"/>
-      <c r="AB5" s="54"/>
-      <c r="AC5" s="54"/>
-      <c r="AD5" s="54"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="41"/>
+      <c r="J5" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="41"/>
+      <c r="M5" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="O5" s="41"/>
+      <c r="P5" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="T5" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="W5" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="53"/>
+      <c r="AA5" s="53"/>
+      <c r="AB5" s="53"/>
+      <c r="AC5" s="53"/>
+      <c r="AD5" s="53"/>
     </row>
     <row r="6" spans="1:30" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42">
+      <c r="A6" s="41">
         <v>2</v>
       </c>
       <c r="B6" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="42"/>
-      <c r="J6" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="K6" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="L6" s="42"/>
-      <c r="M6" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="N6" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="O6" s="42"/>
-      <c r="P6" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="T6" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="U6" s="54"/>
-      <c r="V6" s="54"/>
-      <c r="W6" s="54"/>
-      <c r="X6" s="54"/>
-      <c r="Y6" s="54"/>
-      <c r="Z6" s="54"/>
-      <c r="AA6" s="54"/>
-      <c r="AB6" s="54"/>
-      <c r="AC6" s="54"/>
-      <c r="AD6" s="54"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="41"/>
+      <c r="J6" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="41"/>
+      <c r="M6" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" s="41"/>
+      <c r="P6" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="T6" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="U6" s="53"/>
+      <c r="V6" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="W6" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="X6" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="53"/>
+      <c r="AA6" s="53"/>
+      <c r="AB6" s="53"/>
+      <c r="AC6" s="53"/>
+      <c r="AD6" s="53"/>
     </row>
     <row r="7" spans="1:30" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="42">
+      <c r="A7" s="41">
         <v>3</v>
       </c>
       <c r="B7" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="L7" s="42"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="U7" s="54"/>
-      <c r="V7" s="54"/>
-      <c r="W7" s="54"/>
-      <c r="X7" s="54"/>
-      <c r="Y7" s="54"/>
-      <c r="Z7" s="54"/>
-      <c r="AA7" s="54"/>
-      <c r="AB7" s="54"/>
-      <c r="AC7" s="54"/>
-      <c r="AD7" s="54"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="41"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="X7" s="53"/>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="53"/>
+      <c r="AA7" s="53"/>
+      <c r="AB7" s="53"/>
+      <c r="AC7" s="53"/>
+      <c r="AD7" s="53"/>
     </row>
     <row r="8" spans="1:30" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42">
+      <c r="A8" s="41">
         <v>4</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="K8" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="T8" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="U8" s="54"/>
-      <c r="V8" s="54"/>
-      <c r="W8" s="54"/>
-      <c r="X8" s="54"/>
-      <c r="Y8" s="54"/>
-      <c r="Z8" s="54"/>
-      <c r="AA8" s="54"/>
-      <c r="AB8" s="54"/>
-      <c r="AC8" s="54"/>
-      <c r="AD8" s="54"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="T8" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="U8" s="53"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="53"/>
+      <c r="AB8" s="53"/>
+      <c r="AC8" s="53"/>
+      <c r="AD8" s="53"/>
     </row>
     <row r="9" spans="1:30" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="42">
+      <c r="A9" s="41">
         <v>5</v>
       </c>
       <c r="B9" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="K9" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="L9" s="42"/>
-      <c r="M9" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="N9" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="O9" s="42"/>
-      <c r="P9" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="R9" s="42"/>
-      <c r="S9" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="T9" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="U9" s="54"/>
-      <c r="V9" s="54"/>
-      <c r="W9" s="54"/>
-      <c r="X9" s="54"/>
-      <c r="Y9" s="54"/>
-      <c r="Z9" s="54"/>
-      <c r="AA9" s="54"/>
-      <c r="AB9" s="54"/>
-      <c r="AC9" s="54"/>
-      <c r="AD9" s="54"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="41"/>
+      <c r="M9" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="N9" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="O9" s="41"/>
+      <c r="P9" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="T9" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="U9" s="53"/>
+      <c r="V9" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="W9" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="X9" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="53"/>
+      <c r="AC9" s="53"/>
+      <c r="AD9" s="53"/>
     </row>
     <row r="10" spans="1:30" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="42">
+      <c r="A10" s="41">
         <v>6</v>
       </c>
       <c r="B10" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="K10" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="L10" s="42"/>
-      <c r="M10" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="N10" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="O10" s="42"/>
-      <c r="P10" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="R10" s="42"/>
-      <c r="S10" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="T10" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="U10" s="54"/>
-      <c r="V10" s="54"/>
-      <c r="W10" s="54"/>
-      <c r="X10" s="54"/>
-      <c r="Y10" s="54"/>
-      <c r="Z10" s="54"/>
-      <c r="AA10" s="54"/>
-      <c r="AB10" s="54"/>
-      <c r="AC10" s="54"/>
-      <c r="AD10" s="54"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" s="41"/>
+      <c r="M10" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="N10" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="O10" s="41"/>
+      <c r="P10" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="R10" s="41"/>
+      <c r="S10" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="T10" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="U10" s="53"/>
+      <c r="V10" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="W10" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="X10" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="53"/>
+      <c r="Z10" s="53"/>
+      <c r="AA10" s="53"/>
+      <c r="AB10" s="53"/>
+      <c r="AC10" s="53"/>
+      <c r="AD10" s="53"/>
     </row>
     <row r="11" spans="1:30" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="42">
+      <c r="A11" s="41">
         <v>7</v>
       </c>
       <c r="B11" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="K11" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="L11" s="42"/>
-      <c r="M11" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="N11" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="O11" s="42"/>
-      <c r="P11" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="R11" s="42"/>
-      <c r="S11" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="T11" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="U11" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="V11" s="54"/>
-      <c r="W11" s="54"/>
-      <c r="X11" s="54"/>
-      <c r="Y11" s="54"/>
-      <c r="Z11" s="54"/>
-      <c r="AA11" s="54"/>
-      <c r="AB11" s="54"/>
-      <c r="AC11" s="54"/>
-      <c r="AD11" s="54"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="41"/>
+      <c r="M11" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="N11" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="O11" s="41"/>
+      <c r="P11" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="R11" s="41"/>
+      <c r="S11" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="T11" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="U11" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="V11" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="W11" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="X11" s="53"/>
+      <c r="Y11" s="53"/>
+      <c r="Z11" s="53"/>
+      <c r="AA11" s="53"/>
+      <c r="AB11" s="53"/>
+      <c r="AC11" s="53"/>
+      <c r="AD11" s="53"/>
     </row>
     <row r="12" spans="1:30" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="42">
+      <c r="A12" s="41">
         <v>8</v>
       </c>
       <c r="B12" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="42"/>
-      <c r="J12" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="K12" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="L12" s="42"/>
-      <c r="M12" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="N12" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="O12" s="42"/>
-      <c r="P12" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="R12" s="42"/>
-      <c r="S12" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="T12" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="U12" s="54"/>
-      <c r="V12" s="54"/>
-      <c r="W12" s="54"/>
-      <c r="X12" s="54"/>
-      <c r="Y12" s="54"/>
-      <c r="Z12" s="54"/>
-      <c r="AA12" s="54"/>
-      <c r="AB12" s="54"/>
-      <c r="AC12" s="54"/>
-      <c r="AD12" s="54"/>
+      <c r="C12" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="41"/>
+      <c r="J12" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="41"/>
+      <c r="M12" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="N12" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="O12" s="41"/>
+      <c r="P12" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="R12" s="41"/>
+      <c r="S12" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="T12" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="U12" s="53"/>
+      <c r="V12" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="W12" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="X12" s="53"/>
+      <c r="Y12" s="53"/>
+      <c r="Z12" s="53"/>
+      <c r="AA12" s="53"/>
+      <c r="AB12" s="53"/>
+      <c r="AC12" s="53"/>
+      <c r="AD12" s="53"/>
     </row>
     <row r="13" spans="1:30" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="42">
+      <c r="A13" s="41">
         <v>9</v>
       </c>
       <c r="B13" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="C13" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="42"/>
-      <c r="J13" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="K13" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="L13" s="42"/>
-      <c r="M13" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="N13" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="O13" s="42"/>
-      <c r="P13" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="R13" s="42"/>
-      <c r="S13" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="T13" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="U13" s="54"/>
-      <c r="V13" s="54"/>
-      <c r="W13" s="54"/>
-      <c r="X13" s="54"/>
-      <c r="Y13" s="54"/>
-      <c r="Z13" s="54"/>
-      <c r="AA13" s="54"/>
-      <c r="AB13" s="54"/>
-      <c r="AC13" s="54"/>
-      <c r="AD13" s="54"/>
+      <c r="C13" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="41"/>
+      <c r="J13" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="41"/>
+      <c r="M13" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="O13" s="41"/>
+      <c r="P13" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="T13" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="W13" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="X13" s="53"/>
+      <c r="Y13" s="53"/>
+      <c r="Z13" s="53"/>
+      <c r="AA13" s="53"/>
+      <c r="AB13" s="53"/>
+      <c r="AC13" s="53"/>
+      <c r="AD13" s="53"/>
     </row>
     <row r="14" spans="1:30" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="42">
+      <c r="A14" s="41">
         <v>10</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="42"/>
-      <c r="U14" s="54"/>
-      <c r="V14" s="54"/>
-      <c r="W14" s="54"/>
-      <c r="X14" s="54"/>
-      <c r="Y14" s="54"/>
-      <c r="Z14" s="54"/>
-      <c r="AA14" s="54"/>
-      <c r="AB14" s="54"/>
-      <c r="AC14" s="54"/>
-      <c r="AD14" s="54"/>
+      <c r="C14" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="53"/>
+      <c r="W14" s="53"/>
+      <c r="X14" s="53"/>
+      <c r="Y14" s="53"/>
+      <c r="Z14" s="53"/>
+      <c r="AA14" s="53"/>
+      <c r="AB14" s="53"/>
+      <c r="AC14" s="53"/>
+      <c r="AD14" s="53"/>
     </row>
     <row r="15" spans="1:30" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="42">
+      <c r="A15" s="41">
         <v>11</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="44"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="44"/>
-      <c r="U15" s="44"/>
-      <c r="V15" s="44"/>
-      <c r="W15" s="44"/>
-      <c r="X15" s="44"/>
-      <c r="Y15" s="44"/>
-      <c r="Z15" s="44"/>
-      <c r="AA15" s="44"/>
-      <c r="AB15" s="44"/>
-      <c r="AC15" s="44"/>
-      <c r="AD15" s="44"/>
-    </row>
-    <row r="16" spans="1:30" s="46" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="47"/>
-      <c r="T16" s="47"/>
+      <c r="C15" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="43"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="43"/>
+      <c r="X15" s="43"/>
+      <c r="Y15" s="43"/>
+      <c r="Z15" s="43"/>
+      <c r="AA15" s="43"/>
+      <c r="AB15" s="43"/>
+      <c r="AC15" s="43"/>
+      <c r="AD15" s="43"/>
+    </row>
+    <row r="16" spans="1:30" s="45" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="46"/>
     </row>
     <row r="17" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="V3:X3"/>
     <mergeCell ref="S3:U3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="A3:A4"/>

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -856,12 +856,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -869,6 +863,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3695,155 +3695,155 @@
       </c>
     </row>
     <row r="3" spans="1:84" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60" t="s">
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60" t="s">
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60" t="s">
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60" t="s">
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60" t="s">
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60" t="s">
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60" t="s">
+      <c r="W3" s="63"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60" t="s">
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="AC3" s="60"/>
-      <c r="AD3" s="60"/>
-      <c r="AE3" s="60" t="s">
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="63"/>
+      <c r="AE3" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="AF3" s="60"/>
-      <c r="AG3" s="60"/>
-      <c r="AH3" s="60" t="s">
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="63"/>
+      <c r="AH3" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="AI3" s="60"/>
-      <c r="AJ3" s="60"/>
-      <c r="AK3" s="60" t="s">
+      <c r="AI3" s="63"/>
+      <c r="AJ3" s="63"/>
+      <c r="AK3" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="AL3" s="60"/>
-      <c r="AM3" s="60"/>
-      <c r="AN3" s="60" t="s">
+      <c r="AL3" s="63"/>
+      <c r="AM3" s="63"/>
+      <c r="AN3" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="AO3" s="60"/>
-      <c r="AP3" s="60"/>
-      <c r="AQ3" s="60" t="s">
+      <c r="AO3" s="63"/>
+      <c r="AP3" s="63"/>
+      <c r="AQ3" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="AR3" s="60"/>
-      <c r="AS3" s="60"/>
-      <c r="AT3" s="60" t="s">
+      <c r="AR3" s="63"/>
+      <c r="AS3" s="63"/>
+      <c r="AT3" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="AU3" s="60"/>
-      <c r="AV3" s="60"/>
-      <c r="AW3" s="60" t="s">
+      <c r="AU3" s="63"/>
+      <c r="AV3" s="63"/>
+      <c r="AW3" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="AX3" s="60"/>
-      <c r="AY3" s="60"/>
-      <c r="AZ3" s="60" t="s">
+      <c r="AX3" s="63"/>
+      <c r="AY3" s="63"/>
+      <c r="AZ3" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="BA3" s="60"/>
-      <c r="BB3" s="60"/>
-      <c r="BC3" s="60" t="s">
+      <c r="BA3" s="63"/>
+      <c r="BB3" s="63"/>
+      <c r="BC3" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="BD3" s="60"/>
-      <c r="BE3" s="60"/>
-      <c r="BF3" s="60" t="s">
+      <c r="BD3" s="63"/>
+      <c r="BE3" s="63"/>
+      <c r="BF3" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="BG3" s="60"/>
-      <c r="BH3" s="60"/>
-      <c r="BI3" s="60" t="s">
+      <c r="BG3" s="63"/>
+      <c r="BH3" s="63"/>
+      <c r="BI3" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="BJ3" s="60"/>
-      <c r="BK3" s="60"/>
-      <c r="BL3" s="60" t="s">
+      <c r="BJ3" s="63"/>
+      <c r="BK3" s="63"/>
+      <c r="BL3" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="BM3" s="60"/>
-      <c r="BN3" s="60"/>
-      <c r="BO3" s="60" t="s">
+      <c r="BM3" s="63"/>
+      <c r="BN3" s="63"/>
+      <c r="BO3" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="BP3" s="60"/>
-      <c r="BQ3" s="60"/>
-      <c r="BR3" s="60" t="s">
+      <c r="BP3" s="63"/>
+      <c r="BQ3" s="63"/>
+      <c r="BR3" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="BS3" s="60"/>
-      <c r="BT3" s="60"/>
-      <c r="BU3" s="62" t="s">
+      <c r="BS3" s="63"/>
+      <c r="BT3" s="63"/>
+      <c r="BU3" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="BV3" s="63"/>
-      <c r="BW3" s="64"/>
-      <c r="BX3" s="62" t="s">
+      <c r="BV3" s="61"/>
+      <c r="BW3" s="62"/>
+      <c r="BX3" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="BY3" s="63"/>
-      <c r="BZ3" s="64"/>
-      <c r="CA3" s="62" t="s">
+      <c r="BY3" s="61"/>
+      <c r="BZ3" s="62"/>
+      <c r="CA3" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="CB3" s="63"/>
-      <c r="CC3" s="64"/>
-      <c r="CD3" s="62" t="s">
+      <c r="CB3" s="61"/>
+      <c r="CC3" s="62"/>
+      <c r="CD3" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="CE3" s="63"/>
-      <c r="CF3" s="64"/>
+      <c r="CE3" s="61"/>
+      <c r="CF3" s="62"/>
     </row>
     <row r="4" spans="1:84" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="61"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="34" t="s">
         <v>66</v>
       </c>
@@ -5618,13 +5618,18 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="CA3:CC3"/>
-    <mergeCell ref="CD3:CF3"/>
-    <mergeCell ref="BL3:BN3"/>
-    <mergeCell ref="BO3:BQ3"/>
-    <mergeCell ref="BR3:BT3"/>
-    <mergeCell ref="BU3:BW3"/>
-    <mergeCell ref="BX3:BZ3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BK3"/>
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="AT3:AV3"/>
+    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="AN3:AP3"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="A3:A4"/>
@@ -5636,18 +5641,13 @@
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:U3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AK3:AM3"/>
-    <mergeCell ref="AN3:AP3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BK3"/>
-    <mergeCell ref="AQ3:AS3"/>
-    <mergeCell ref="AT3:AV3"/>
-    <mergeCell ref="AW3:AY3"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="CA3:CC3"/>
+    <mergeCell ref="CD3:CF3"/>
+    <mergeCell ref="BL3:BN3"/>
+    <mergeCell ref="BO3:BQ3"/>
+    <mergeCell ref="BR3:BT3"/>
+    <mergeCell ref="BU3:BW3"/>
+    <mergeCell ref="BX3:BZ3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7346,11 +7346,11 @@
   <dimension ref="A1:AD20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="BA9" sqref="BA9"/>
       <selection pane="topRight" activeCell="BA9" sqref="BA9"/>
       <selection pane="bottomLeft" activeCell="BA9" sqref="BA9"/>
-      <selection pane="bottomRight" activeCell="X15" sqref="X15"/>
+      <selection pane="bottomRight" activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7418,12 +7418,12 @@
       </c>
       <c r="W3" s="66"/>
       <c r="X3" s="67"/>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="35"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="67"/>
     </row>
     <row r="4" spans="1:30" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="68"/>
@@ -8136,7 +8136,9 @@
     <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="AB3:AD3"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="S3:U3"/>
     <mergeCell ref="P3:R3"/>

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TOEIC 300-500 K1" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="141">
   <si>
     <t>x</t>
   </si>
@@ -439,6 +439,12 @@
   </si>
   <si>
     <t>12/5-Lesson 26</t>
+  </si>
+  <si>
+    <t>15/5-Lesson 27</t>
+  </si>
+  <si>
+    <t>15/5-Lesson 7</t>
   </si>
 </sst>
 </file>
@@ -705,7 +711,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -844,6 +850,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -856,6 +865,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -863,12 +878,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -886,6 +895,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
@@ -1230,30 +1241,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="58" t="s">
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="56" t="s">
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="56" t="s">
+      <c r="O2" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="56" t="s">
+      <c r="P2" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="56" t="s">
+      <c r="Q2" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="56" t="s">
+      <c r="R2" s="57" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1297,11 +1308,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -1554,30 +1565,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="58" t="s">
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="56" t="s">
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="56" t="s">
+      <c r="O2" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="56" t="s">
+      <c r="P2" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="56" t="s">
+      <c r="Q2" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="59" t="s">
+      <c r="R2" s="60" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1621,11 +1632,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="59"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="60"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -2600,30 +2611,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="58" t="s">
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="56" t="s">
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="56" t="s">
+      <c r="O2" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="56" t="s">
+      <c r="P2" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="56" t="s">
+      <c r="Q2" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="56" t="s">
+      <c r="R2" s="57" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2667,11 +2678,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -2981,30 +2992,30 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I2" s="57" t="s">
+      <c r="I2" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="58" t="s">
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="56" t="s">
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="56" t="s">
+      <c r="Q2" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="56" t="s">
+      <c r="R2" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="56" t="s">
+      <c r="S2" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="56" t="s">
+      <c r="T2" s="57" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3054,11 +3065,11 @@
       <c r="O3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
     </row>
     <row r="4" spans="1:20" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -3657,10 +3668,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CF12"/>
+  <dimension ref="A1:DH12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="CF9" sqref="CF9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="CG7" sqref="CG7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3681,12 +3692,16 @@
     <col min="48" max="48" width="7.28515625" hidden="1" customWidth="1"/>
     <col min="49" max="50" width="5.42578125" hidden="1" customWidth="1"/>
     <col min="51" max="51" width="6.28515625" hidden="1" customWidth="1"/>
-    <col min="52" max="60" width="5.42578125" hidden="1" customWidth="1"/>
-    <col min="61" max="63" width="5.42578125" customWidth="1"/>
-    <col min="64" max="95" width="5.5703125" customWidth="1"/>
+    <col min="52" max="63" width="5.42578125" hidden="1" customWidth="1"/>
+    <col min="64" max="78" width="5.5703125" hidden="1" customWidth="1"/>
+    <col min="79" max="85" width="5.5703125" customWidth="1"/>
+    <col min="86" max="86" width="6.140625" customWidth="1"/>
+    <col min="87" max="87" width="6.28515625" customWidth="1"/>
+    <col min="88" max="103" width="5.140625" customWidth="1"/>
+    <col min="104" max="121" width="5.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:112" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
@@ -3694,156 +3709,186 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:84" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="64" t="s">
+    <row r="3" spans="1:112" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63" t="s">
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63" t="s">
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63" t="s">
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63" t="s">
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63" t="s">
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63" t="s">
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="W3" s="63"/>
-      <c r="X3" s="63"/>
-      <c r="Y3" s="63" t="s">
+      <c r="W3" s="61"/>
+      <c r="X3" s="61"/>
+      <c r="Y3" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="Z3" s="63"/>
-      <c r="AA3" s="63"/>
-      <c r="AB3" s="63" t="s">
+      <c r="Z3" s="61"/>
+      <c r="AA3" s="61"/>
+      <c r="AB3" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="AC3" s="63"/>
-      <c r="AD3" s="63"/>
-      <c r="AE3" s="63" t="s">
+      <c r="AC3" s="61"/>
+      <c r="AD3" s="61"/>
+      <c r="AE3" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="AF3" s="63"/>
-      <c r="AG3" s="63"/>
-      <c r="AH3" s="63" t="s">
+      <c r="AF3" s="61"/>
+      <c r="AG3" s="61"/>
+      <c r="AH3" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="AI3" s="63"/>
-      <c r="AJ3" s="63"/>
-      <c r="AK3" s="63" t="s">
+      <c r="AI3" s="61"/>
+      <c r="AJ3" s="61"/>
+      <c r="AK3" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="AL3" s="63"/>
-      <c r="AM3" s="63"/>
-      <c r="AN3" s="63" t="s">
+      <c r="AL3" s="61"/>
+      <c r="AM3" s="61"/>
+      <c r="AN3" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="AO3" s="63"/>
-      <c r="AP3" s="63"/>
-      <c r="AQ3" s="63" t="s">
+      <c r="AO3" s="61"/>
+      <c r="AP3" s="61"/>
+      <c r="AQ3" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="AR3" s="63"/>
-      <c r="AS3" s="63"/>
-      <c r="AT3" s="63" t="s">
+      <c r="AR3" s="61"/>
+      <c r="AS3" s="61"/>
+      <c r="AT3" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="AU3" s="63"/>
-      <c r="AV3" s="63"/>
-      <c r="AW3" s="63" t="s">
+      <c r="AU3" s="61"/>
+      <c r="AV3" s="61"/>
+      <c r="AW3" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="AX3" s="63"/>
-      <c r="AY3" s="63"/>
-      <c r="AZ3" s="63" t="s">
+      <c r="AX3" s="61"/>
+      <c r="AY3" s="61"/>
+      <c r="AZ3" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="BA3" s="63"/>
-      <c r="BB3" s="63"/>
-      <c r="BC3" s="63" t="s">
+      <c r="BA3" s="61"/>
+      <c r="BB3" s="61"/>
+      <c r="BC3" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="BD3" s="63"/>
-      <c r="BE3" s="63"/>
-      <c r="BF3" s="63" t="s">
+      <c r="BD3" s="61"/>
+      <c r="BE3" s="61"/>
+      <c r="BF3" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="BG3" s="63"/>
-      <c r="BH3" s="63"/>
-      <c r="BI3" s="63" t="s">
+      <c r="BG3" s="61"/>
+      <c r="BH3" s="61"/>
+      <c r="BI3" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="BJ3" s="63"/>
-      <c r="BK3" s="63"/>
-      <c r="BL3" s="63" t="s">
+      <c r="BJ3" s="61"/>
+      <c r="BK3" s="61"/>
+      <c r="BL3" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="BM3" s="63"/>
-      <c r="BN3" s="63"/>
-      <c r="BO3" s="63" t="s">
+      <c r="BM3" s="61"/>
+      <c r="BN3" s="61"/>
+      <c r="BO3" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="BP3" s="63"/>
-      <c r="BQ3" s="63"/>
-      <c r="BR3" s="63" t="s">
+      <c r="BP3" s="61"/>
+      <c r="BQ3" s="61"/>
+      <c r="BR3" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="BS3" s="63"/>
-      <c r="BT3" s="63"/>
-      <c r="BU3" s="60" t="s">
+      <c r="BS3" s="61"/>
+      <c r="BT3" s="61"/>
+      <c r="BU3" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="BV3" s="61"/>
-      <c r="BW3" s="62"/>
-      <c r="BX3" s="60" t="s">
+      <c r="BV3" s="64"/>
+      <c r="BW3" s="65"/>
+      <c r="BX3" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="BY3" s="61"/>
-      <c r="BZ3" s="62"/>
-      <c r="CA3" s="60" t="s">
+      <c r="BY3" s="64"/>
+      <c r="BZ3" s="65"/>
+      <c r="CA3" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="CB3" s="61"/>
-      <c r="CC3" s="62"/>
-      <c r="CD3" s="60" t="s">
+      <c r="CB3" s="64"/>
+      <c r="CC3" s="65"/>
+      <c r="CD3" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="CE3" s="61"/>
-      <c r="CF3" s="62"/>
-    </row>
-    <row r="4" spans="1:84" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
+      <c r="CE3" s="64"/>
+      <c r="CF3" s="65"/>
+      <c r="CG3" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="CH3" s="64"/>
+      <c r="CI3" s="65"/>
+      <c r="CJ3" s="71"/>
+      <c r="CK3" s="71"/>
+      <c r="CL3" s="71"/>
+      <c r="CM3" s="71"/>
+      <c r="CN3" s="71"/>
+      <c r="CO3" s="71"/>
+      <c r="CP3" s="71"/>
+      <c r="CQ3" s="71"/>
+      <c r="CR3" s="71"/>
+      <c r="CS3" s="71"/>
+      <c r="CT3" s="71"/>
+      <c r="CU3" s="71"/>
+      <c r="CV3" s="71"/>
+      <c r="CW3" s="71"/>
+      <c r="CX3" s="71"/>
+      <c r="CY3" s="71"/>
+      <c r="CZ3" s="71"/>
+      <c r="DA3" s="71"/>
+      <c r="DB3" s="71"/>
+      <c r="DC3" s="71"/>
+      <c r="DD3" s="71"/>
+      <c r="DE3" s="71"/>
+      <c r="DF3" s="71"/>
+      <c r="DG3" s="71"/>
+      <c r="DH3" s="71"/>
+    </row>
+    <row r="4" spans="1:112" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
       <c r="D4" s="34" t="s">
         <v>66</v>
       </c>
@@ -4087,8 +4132,42 @@
       <c r="CF4" s="34" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="5" spans="1:84" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="CG4" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="CH4" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="CI4" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="CJ4" s="71"/>
+      <c r="CK4" s="71"/>
+      <c r="CL4" s="71"/>
+      <c r="CM4" s="71"/>
+      <c r="CN4" s="71"/>
+      <c r="CO4" s="71"/>
+      <c r="CP4" s="71"/>
+      <c r="CQ4" s="71"/>
+      <c r="CR4" s="71"/>
+      <c r="CS4" s="71"/>
+      <c r="CT4" s="71"/>
+      <c r="CU4" s="71"/>
+      <c r="CV4" s="71"/>
+      <c r="CW4" s="71"/>
+      <c r="CX4" s="71"/>
+      <c r="CY4" s="71"/>
+      <c r="CZ4" s="71"/>
+      <c r="DA4" s="71"/>
+      <c r="DB4" s="71"/>
+      <c r="DC4" s="71"/>
+      <c r="DD4" s="71"/>
+      <c r="DE4" s="71"/>
+      <c r="DF4" s="71"/>
+      <c r="DG4" s="71"/>
+      <c r="DH4" s="71"/>
+    </row>
+    <row r="5" spans="1:112" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="34">
         <v>1</v>
       </c>
@@ -4297,8 +4376,42 @@
       <c r="CF5" s="54" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:84" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CG5" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH5" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI5" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ5" s="71"/>
+      <c r="CK5" s="71"/>
+      <c r="CL5" s="71"/>
+      <c r="CM5" s="71"/>
+      <c r="CN5" s="71"/>
+      <c r="CO5" s="71"/>
+      <c r="CP5" s="71"/>
+      <c r="CQ5" s="71"/>
+      <c r="CR5" s="71"/>
+      <c r="CS5" s="71"/>
+      <c r="CT5" s="71"/>
+      <c r="CU5" s="71"/>
+      <c r="CV5" s="71"/>
+      <c r="CW5" s="71"/>
+      <c r="CX5" s="71"/>
+      <c r="CY5" s="71"/>
+      <c r="CZ5" s="71"/>
+      <c r="DA5" s="71"/>
+      <c r="DB5" s="71"/>
+      <c r="DC5" s="71"/>
+      <c r="DD5" s="71"/>
+      <c r="DE5" s="71"/>
+      <c r="DF5" s="71"/>
+      <c r="DG5" s="71"/>
+      <c r="DH5" s="71"/>
+    </row>
+    <row r="6" spans="1:112" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34">
         <v>2</v>
       </c>
@@ -4485,8 +4598,40 @@
       <c r="CF6" s="54" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:84" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CG6" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH6" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI6" s="72"/>
+      <c r="CJ6" s="72"/>
+      <c r="CK6" s="72"/>
+      <c r="CL6" s="72"/>
+      <c r="CM6" s="72"/>
+      <c r="CN6" s="72"/>
+      <c r="CO6" s="72"/>
+      <c r="CP6" s="72"/>
+      <c r="CQ6" s="72"/>
+      <c r="CR6" s="72"/>
+      <c r="CS6" s="72"/>
+      <c r="CT6" s="72"/>
+      <c r="CU6" s="72"/>
+      <c r="CV6" s="72"/>
+      <c r="CW6" s="72"/>
+      <c r="CX6" s="72"/>
+      <c r="CY6" s="72"/>
+      <c r="CZ6" s="72"/>
+      <c r="DA6" s="72"/>
+      <c r="DB6" s="72"/>
+      <c r="DC6" s="72"/>
+      <c r="DD6" s="72"/>
+      <c r="DE6" s="72"/>
+      <c r="DF6" s="72"/>
+      <c r="DG6" s="72"/>
+      <c r="DH6" s="72"/>
+    </row>
+    <row r="7" spans="1:112" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="34">
         <v>3</v>
       </c>
@@ -4659,8 +4804,42 @@
       <c r="CF7" s="54" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:84" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CG7" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH7" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI7" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ7" s="72"/>
+      <c r="CK7" s="72"/>
+      <c r="CL7" s="72"/>
+      <c r="CM7" s="72"/>
+      <c r="CN7" s="72"/>
+      <c r="CO7" s="72"/>
+      <c r="CP7" s="72"/>
+      <c r="CQ7" s="72"/>
+      <c r="CR7" s="72"/>
+      <c r="CS7" s="72"/>
+      <c r="CT7" s="72"/>
+      <c r="CU7" s="72"/>
+      <c r="CV7" s="72"/>
+      <c r="CW7" s="72"/>
+      <c r="CX7" s="72"/>
+      <c r="CY7" s="72"/>
+      <c r="CZ7" s="72"/>
+      <c r="DA7" s="72"/>
+      <c r="DB7" s="72"/>
+      <c r="DC7" s="72"/>
+      <c r="DD7" s="72"/>
+      <c r="DE7" s="72"/>
+      <c r="DF7" s="72"/>
+      <c r="DG7" s="72"/>
+      <c r="DH7" s="72"/>
+    </row>
+    <row r="8" spans="1:112" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="34">
         <v>4</v>
       </c>
@@ -4859,8 +5038,42 @@
       <c r="CF8" s="54" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:84" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CG8" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH8" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI8" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ8" s="72"/>
+      <c r="CK8" s="72"/>
+      <c r="CL8" s="72"/>
+      <c r="CM8" s="72"/>
+      <c r="CN8" s="72"/>
+      <c r="CO8" s="72"/>
+      <c r="CP8" s="72"/>
+      <c r="CQ8" s="72"/>
+      <c r="CR8" s="72"/>
+      <c r="CS8" s="72"/>
+      <c r="CT8" s="72"/>
+      <c r="CU8" s="72"/>
+      <c r="CV8" s="72"/>
+      <c r="CW8" s="72"/>
+      <c r="CX8" s="72"/>
+      <c r="CY8" s="72"/>
+      <c r="CZ8" s="72"/>
+      <c r="DA8" s="72"/>
+      <c r="DB8" s="72"/>
+      <c r="DC8" s="72"/>
+      <c r="DD8" s="72"/>
+      <c r="DE8" s="72"/>
+      <c r="DF8" s="72"/>
+      <c r="DG8" s="72"/>
+      <c r="DH8" s="72"/>
+    </row>
+    <row r="9" spans="1:112" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34">
         <v>5</v>
       </c>
@@ -5051,8 +5264,40 @@
       <c r="CF9" s="54" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:84" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CG9" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH9" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI9" s="72"/>
+      <c r="CJ9" s="72"/>
+      <c r="CK9" s="72"/>
+      <c r="CL9" s="72"/>
+      <c r="CM9" s="72"/>
+      <c r="CN9" s="72"/>
+      <c r="CO9" s="72"/>
+      <c r="CP9" s="72"/>
+      <c r="CQ9" s="72"/>
+      <c r="CR9" s="72"/>
+      <c r="CS9" s="72"/>
+      <c r="CT9" s="72"/>
+      <c r="CU9" s="72"/>
+      <c r="CV9" s="72"/>
+      <c r="CW9" s="72"/>
+      <c r="CX9" s="72"/>
+      <c r="CY9" s="72"/>
+      <c r="CZ9" s="72"/>
+      <c r="DA9" s="72"/>
+      <c r="DB9" s="72"/>
+      <c r="DC9" s="72"/>
+      <c r="DD9" s="72"/>
+      <c r="DE9" s="72"/>
+      <c r="DF9" s="72"/>
+      <c r="DG9" s="72"/>
+      <c r="DH9" s="72"/>
+    </row>
+    <row r="10" spans="1:112" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="34">
         <v>6</v>
       </c>
@@ -5245,8 +5490,42 @@
         <v>0</v>
       </c>
       <c r="CF10" s="40"/>
-    </row>
-    <row r="11" spans="1:84" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CG10" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH10" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI10" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ10" s="72"/>
+      <c r="CK10" s="72"/>
+      <c r="CL10" s="72"/>
+      <c r="CM10" s="72"/>
+      <c r="CN10" s="72"/>
+      <c r="CO10" s="72"/>
+      <c r="CP10" s="72"/>
+      <c r="CQ10" s="72"/>
+      <c r="CR10" s="72"/>
+      <c r="CS10" s="72"/>
+      <c r="CT10" s="72"/>
+      <c r="CU10" s="72"/>
+      <c r="CV10" s="72"/>
+      <c r="CW10" s="72"/>
+      <c r="CX10" s="72"/>
+      <c r="CY10" s="72"/>
+      <c r="CZ10" s="72"/>
+      <c r="DA10" s="72"/>
+      <c r="DB10" s="72"/>
+      <c r="DC10" s="72"/>
+      <c r="DD10" s="72"/>
+      <c r="DE10" s="72"/>
+      <c r="DF10" s="72"/>
+      <c r="DG10" s="72"/>
+      <c r="DH10" s="72"/>
+    </row>
+    <row r="11" spans="1:112" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="34">
         <v>7</v>
       </c>
@@ -5419,8 +5698,40 @@
         <v>0</v>
       </c>
       <c r="CF11" s="40"/>
-    </row>
-    <row r="12" spans="1:84" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CG11" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH11" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI11" s="72"/>
+      <c r="CJ11" s="72"/>
+      <c r="CK11" s="72"/>
+      <c r="CL11" s="72"/>
+      <c r="CM11" s="72"/>
+      <c r="CN11" s="72"/>
+      <c r="CO11" s="72"/>
+      <c r="CP11" s="72"/>
+      <c r="CQ11" s="72"/>
+      <c r="CR11" s="72"/>
+      <c r="CS11" s="72"/>
+      <c r="CT11" s="72"/>
+      <c r="CU11" s="72"/>
+      <c r="CV11" s="72"/>
+      <c r="CW11" s="72"/>
+      <c r="CX11" s="72"/>
+      <c r="CY11" s="72"/>
+      <c r="CZ11" s="72"/>
+      <c r="DA11" s="72"/>
+      <c r="DB11" s="72"/>
+      <c r="DC11" s="72"/>
+      <c r="DD11" s="72"/>
+      <c r="DE11" s="72"/>
+      <c r="DF11" s="72"/>
+      <c r="DG11" s="72"/>
+      <c r="DH11" s="72"/>
+    </row>
+    <row r="12" spans="1:112" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="34">
         <v>8</v>
       </c>
@@ -5615,21 +5926,49 @@
       <c r="CF12" s="54" t="s">
         <v>0</v>
       </c>
+      <c r="CG12" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH12" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI12" s="72"/>
+      <c r="CJ12" s="72"/>
+      <c r="CK12" s="72"/>
+      <c r="CL12" s="72"/>
+      <c r="CM12" s="72"/>
+      <c r="CN12" s="72"/>
+      <c r="CO12" s="72"/>
+      <c r="CP12" s="72"/>
+      <c r="CQ12" s="72"/>
+      <c r="CR12" s="72"/>
+      <c r="CS12" s="72"/>
+      <c r="CT12" s="72"/>
+      <c r="CU12" s="72"/>
+      <c r="CV12" s="72"/>
+      <c r="CW12" s="72"/>
+      <c r="CX12" s="72"/>
+      <c r="CY12" s="72"/>
+      <c r="CZ12" s="72"/>
+      <c r="DA12" s="72"/>
+      <c r="DB12" s="72"/>
+      <c r="DC12" s="72"/>
+      <c r="DD12" s="72"/>
+      <c r="DE12" s="72"/>
+      <c r="DF12" s="72"/>
+      <c r="DG12" s="72"/>
+      <c r="DH12" s="72"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BK3"/>
-    <mergeCell ref="AQ3:AS3"/>
-    <mergeCell ref="AT3:AV3"/>
-    <mergeCell ref="AW3:AY3"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AK3:AM3"/>
-    <mergeCell ref="AN3:AP3"/>
+  <mergeCells count="31">
+    <mergeCell ref="CG3:CI3"/>
+    <mergeCell ref="CA3:CC3"/>
+    <mergeCell ref="CD3:CF3"/>
+    <mergeCell ref="BL3:BN3"/>
+    <mergeCell ref="BO3:BQ3"/>
+    <mergeCell ref="BR3:BT3"/>
+    <mergeCell ref="BU3:BW3"/>
+    <mergeCell ref="BX3:BZ3"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="A3:A4"/>
@@ -5641,13 +5980,18 @@
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:U3"/>
-    <mergeCell ref="CA3:CC3"/>
-    <mergeCell ref="CD3:CF3"/>
-    <mergeCell ref="BL3:BN3"/>
-    <mergeCell ref="BO3:BQ3"/>
-    <mergeCell ref="BR3:BT3"/>
-    <mergeCell ref="BU3:BW3"/>
-    <mergeCell ref="BX3:BZ3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="AN3:AP3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BK3"/>
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="AT3:AV3"/>
+    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="BC3:BE3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5688,30 +6032,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="58" t="s">
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="56" t="s">
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="56" t="s">
+      <c r="O2" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="56" t="s">
+      <c r="P2" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="56" t="s">
+      <c r="Q2" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="56" t="s">
+      <c r="R2" s="57" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5755,11 +6099,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -6017,17 +6361,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB10" sqref="AB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
     <col min="2" max="2" width="26.5703125" customWidth="1"/>
-    <col min="3" max="6" width="6.7109375" style="17" customWidth="1"/>
-    <col min="7" max="19" width="5.85546875" style="17" customWidth="1"/>
-    <col min="20" max="22" width="5.85546875" customWidth="1"/>
+    <col min="3" max="6" width="6.7109375" style="17" hidden="1" customWidth="1"/>
+    <col min="7" max="19" width="5.85546875" style="17" hidden="1" customWidth="1"/>
+    <col min="20" max="21" width="5.85546875" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="5.85546875" customWidth="1"/>
     <col min="23" max="55" width="5.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6040,10 +6385,10 @@
       </c>
     </row>
     <row r="3" spans="1:55" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="69" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="34" t="s">
@@ -6058,39 +6403,41 @@
       <c r="F3" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="69" t="s">
+      <c r="G3" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="65" t="s">
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="K3" s="66"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="65" t="s">
+      <c r="K3" s="67"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="N3" s="66"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="65" t="s">
+      <c r="N3" s="67"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="66" t="s">
         <v>131</v>
       </c>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="65" t="s">
+      <c r="Q3" s="67"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="T3" s="66"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="65" t="s">
+      <c r="T3" s="67"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="W3" s="66"/>
-      <c r="X3" s="67"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="68"/>
+      <c r="Y3" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="68"/>
       <c r="AB3" s="54"/>
       <c r="AC3" s="54"/>
       <c r="AD3" s="54"/>
@@ -6121,8 +6468,8 @@
       <c r="BC3" s="54"/>
     </row>
     <row r="4" spans="1:55" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
@@ -6181,9 +6528,15 @@
       <c r="X4" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
+      <c r="Y4" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z4" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA4" s="56" t="s">
+        <v>64</v>
+      </c>
       <c r="AB4" s="54"/>
       <c r="AC4" s="54"/>
       <c r="AD4" s="54"/>
@@ -6258,9 +6611,15 @@
         <v>0</v>
       </c>
       <c r="X5" s="54"/>
-      <c r="Y5" s="54"/>
-      <c r="Z5" s="54"/>
-      <c r="AA5" s="54"/>
+      <c r="Y5" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="56" t="s">
+        <v>0</v>
+      </c>
       <c r="AB5" s="54"/>
       <c r="AC5" s="54"/>
       <c r="AD5" s="54"/>
@@ -6329,9 +6688,15 @@
       <c r="X6" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="Y6" s="54"/>
-      <c r="Z6" s="54"/>
-      <c r="AA6" s="54"/>
+      <c r="Y6" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="56" t="s">
+        <v>0</v>
+      </c>
       <c r="AB6" s="54"/>
       <c r="AC6" s="54"/>
       <c r="AD6" s="54"/>
@@ -6420,9 +6785,15 @@
       <c r="X7" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="Y7" s="54"/>
-      <c r="Z7" s="54"/>
-      <c r="AA7" s="54"/>
+      <c r="Y7" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="56" t="s">
+        <v>0</v>
+      </c>
       <c r="AB7" s="54"/>
       <c r="AC7" s="54"/>
       <c r="AD7" s="54"/>
@@ -6511,9 +6882,15 @@
       <c r="X8" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="Y8" s="54"/>
-      <c r="Z8" s="54"/>
-      <c r="AA8" s="54"/>
+      <c r="Y8" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="56" t="s">
+        <v>0</v>
+      </c>
       <c r="AB8" s="54"/>
       <c r="AC8" s="54"/>
       <c r="AD8" s="54"/>
@@ -6598,8 +6975,12 @@
       <c r="X9" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="Y9" s="54"/>
-      <c r="Z9" s="54"/>
+      <c r="Y9" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="56" t="s">
+        <v>0</v>
+      </c>
       <c r="AA9" s="54"/>
       <c r="AB9" s="54"/>
       <c r="AC9" s="54"/>
@@ -6699,8 +7080,12 @@
       <c r="X10" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="Y10" s="54"/>
-      <c r="Z10" s="54"/>
+      <c r="Y10" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="56" t="s">
+        <v>0</v>
+      </c>
       <c r="AA10" s="54"/>
       <c r="AB10" s="54"/>
       <c r="AC10" s="54"/>
@@ -6884,7 +7269,8 @@
       <c r="S18" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:U3"/>
@@ -6933,30 +7319,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="58" t="s">
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="56" t="s">
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="56" t="s">
+      <c r="O2" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="56" t="s">
+      <c r="P2" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="56" t="s">
+      <c r="Q2" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="56" t="s">
+      <c r="R2" s="57" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7000,11 +7386,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -7345,7 +7731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="BA9" sqref="BA9"/>
       <selection pane="topRight" activeCell="BA9" sqref="BA9"/>
@@ -7370,10 +7756,10 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="69" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="41" t="s">
@@ -7388,46 +7774,46 @@
       <c r="F3" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="G3" s="69" t="s">
+      <c r="G3" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="65" t="s">
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="K3" s="66"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="65" t="s">
+      <c r="K3" s="67"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="N3" s="66"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="65" t="s">
+      <c r="N3" s="67"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="66" t="s">
         <v>132</v>
       </c>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="65" t="s">
+      <c r="Q3" s="67"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="T3" s="66"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="65" t="s">
+      <c r="T3" s="67"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="W3" s="66"/>
-      <c r="X3" s="67"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="67"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="68"/>
+      <c r="Y3" s="66"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="68"/>
+      <c r="AB3" s="66"/>
+      <c r="AC3" s="67"/>
+      <c r="AD3" s="68"/>
     </row>
     <row r="4" spans="1:30" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
@@ -8137,16 +8523,16 @@
     <row r="20" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
     <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="AB3:AD3"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="S3:U3"/>
     <mergeCell ref="P3:R3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="TOEIC 300-500 K1" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="142">
   <si>
     <t>x</t>
   </si>
@@ -445,6 +445,9 @@
   </si>
   <si>
     <t>15/5-Lesson 7</t>
+  </si>
+  <si>
+    <t>16/5-Lesson 7</t>
   </si>
 </sst>
 </file>
@@ -711,7 +714,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -853,6 +856,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -865,12 +873,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -878,6 +880,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -895,8 +903,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
@@ -1241,30 +1247,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="59" t="s">
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="57" t="s">
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="57" t="s">
+      <c r="O2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="57" t="s">
+      <c r="P2" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="57" t="s">
+      <c r="Q2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="57" t="s">
+      <c r="R2" s="60" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1308,11 +1314,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -1565,30 +1571,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="59" t="s">
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="57" t="s">
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="57" t="s">
+      <c r="O2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="57" t="s">
+      <c r="P2" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="57" t="s">
+      <c r="Q2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="60" t="s">
+      <c r="R2" s="63" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1632,11 +1638,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="63"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -2611,30 +2617,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="59" t="s">
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="57" t="s">
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="57" t="s">
+      <c r="O2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="57" t="s">
+      <c r="P2" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="57" t="s">
+      <c r="Q2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="57" t="s">
+      <c r="R2" s="60" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2678,11 +2684,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -2992,30 +2998,30 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I2" s="58" t="s">
+      <c r="I2" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="59" t="s">
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="57" t="s">
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="57" t="s">
+      <c r="Q2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="57" t="s">
+      <c r="R2" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="57" t="s">
+      <c r="S2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="57" t="s">
+      <c r="T2" s="60" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3065,11 +3071,11 @@
       <c r="O3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
     </row>
     <row r="4" spans="1:20" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -3710,185 +3716,185 @@
       </c>
     </row>
     <row r="3" spans="1:112" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61" t="s">
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61" t="s">
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61" t="s">
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61" t="s">
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61" t="s">
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61" t="s">
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="W3" s="61"/>
-      <c r="X3" s="61"/>
-      <c r="Y3" s="61" t="s">
+      <c r="W3" s="67"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="Z3" s="61"/>
-      <c r="AA3" s="61"/>
-      <c r="AB3" s="61" t="s">
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="AC3" s="61"/>
-      <c r="AD3" s="61"/>
-      <c r="AE3" s="61" t="s">
+      <c r="AC3" s="67"/>
+      <c r="AD3" s="67"/>
+      <c r="AE3" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="AF3" s="61"/>
-      <c r="AG3" s="61"/>
-      <c r="AH3" s="61" t="s">
+      <c r="AF3" s="67"/>
+      <c r="AG3" s="67"/>
+      <c r="AH3" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="AI3" s="61"/>
-      <c r="AJ3" s="61"/>
-      <c r="AK3" s="61" t="s">
+      <c r="AI3" s="67"/>
+      <c r="AJ3" s="67"/>
+      <c r="AK3" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="AL3" s="61"/>
-      <c r="AM3" s="61"/>
-      <c r="AN3" s="61" t="s">
+      <c r="AL3" s="67"/>
+      <c r="AM3" s="67"/>
+      <c r="AN3" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="AO3" s="61"/>
-      <c r="AP3" s="61"/>
-      <c r="AQ3" s="61" t="s">
+      <c r="AO3" s="67"/>
+      <c r="AP3" s="67"/>
+      <c r="AQ3" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="AR3" s="61"/>
-      <c r="AS3" s="61"/>
-      <c r="AT3" s="61" t="s">
+      <c r="AR3" s="67"/>
+      <c r="AS3" s="67"/>
+      <c r="AT3" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="AU3" s="61"/>
-      <c r="AV3" s="61"/>
-      <c r="AW3" s="61" t="s">
+      <c r="AU3" s="67"/>
+      <c r="AV3" s="67"/>
+      <c r="AW3" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="AX3" s="61"/>
-      <c r="AY3" s="61"/>
-      <c r="AZ3" s="61" t="s">
+      <c r="AX3" s="67"/>
+      <c r="AY3" s="67"/>
+      <c r="AZ3" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="BA3" s="61"/>
-      <c r="BB3" s="61"/>
-      <c r="BC3" s="61" t="s">
+      <c r="BA3" s="67"/>
+      <c r="BB3" s="67"/>
+      <c r="BC3" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="BD3" s="61"/>
-      <c r="BE3" s="61"/>
-      <c r="BF3" s="61" t="s">
+      <c r="BD3" s="67"/>
+      <c r="BE3" s="67"/>
+      <c r="BF3" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="BG3" s="61"/>
-      <c r="BH3" s="61"/>
-      <c r="BI3" s="61" t="s">
+      <c r="BG3" s="67"/>
+      <c r="BH3" s="67"/>
+      <c r="BI3" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="BJ3" s="61"/>
-      <c r="BK3" s="61"/>
-      <c r="BL3" s="61" t="s">
+      <c r="BJ3" s="67"/>
+      <c r="BK3" s="67"/>
+      <c r="BL3" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="BM3" s="61"/>
-      <c r="BN3" s="61"/>
-      <c r="BO3" s="61" t="s">
+      <c r="BM3" s="67"/>
+      <c r="BN3" s="67"/>
+      <c r="BO3" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="BP3" s="61"/>
-      <c r="BQ3" s="61"/>
-      <c r="BR3" s="61" t="s">
+      <c r="BP3" s="67"/>
+      <c r="BQ3" s="67"/>
+      <c r="BR3" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="BS3" s="61"/>
-      <c r="BT3" s="61"/>
-      <c r="BU3" s="63" t="s">
+      <c r="BS3" s="67"/>
+      <c r="BT3" s="67"/>
+      <c r="BU3" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="BV3" s="64"/>
-      <c r="BW3" s="65"/>
-      <c r="BX3" s="63" t="s">
+      <c r="BV3" s="65"/>
+      <c r="BW3" s="66"/>
+      <c r="BX3" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="BY3" s="64"/>
-      <c r="BZ3" s="65"/>
-      <c r="CA3" s="63" t="s">
+      <c r="BY3" s="65"/>
+      <c r="BZ3" s="66"/>
+      <c r="CA3" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="CB3" s="64"/>
-      <c r="CC3" s="65"/>
-      <c r="CD3" s="63" t="s">
+      <c r="CB3" s="65"/>
+      <c r="CC3" s="66"/>
+      <c r="CD3" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="CE3" s="64"/>
-      <c r="CF3" s="65"/>
-      <c r="CG3" s="63" t="s">
+      <c r="CE3" s="65"/>
+      <c r="CF3" s="66"/>
+      <c r="CG3" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="CH3" s="64"/>
-      <c r="CI3" s="65"/>
-      <c r="CJ3" s="71"/>
-      <c r="CK3" s="71"/>
-      <c r="CL3" s="71"/>
-      <c r="CM3" s="71"/>
-      <c r="CN3" s="71"/>
-      <c r="CO3" s="71"/>
-      <c r="CP3" s="71"/>
-      <c r="CQ3" s="71"/>
-      <c r="CR3" s="71"/>
-      <c r="CS3" s="71"/>
-      <c r="CT3" s="71"/>
-      <c r="CU3" s="71"/>
-      <c r="CV3" s="71"/>
-      <c r="CW3" s="71"/>
-      <c r="CX3" s="71"/>
-      <c r="CY3" s="71"/>
-      <c r="CZ3" s="71"/>
-      <c r="DA3" s="71"/>
-      <c r="DB3" s="71"/>
-      <c r="DC3" s="71"/>
-      <c r="DD3" s="71"/>
-      <c r="DE3" s="71"/>
-      <c r="DF3" s="71"/>
-      <c r="DG3" s="71"/>
-      <c r="DH3" s="71"/>
+      <c r="CH3" s="65"/>
+      <c r="CI3" s="66"/>
+      <c r="CJ3" s="58"/>
+      <c r="CK3" s="58"/>
+      <c r="CL3" s="58"/>
+      <c r="CM3" s="58"/>
+      <c r="CN3" s="58"/>
+      <c r="CO3" s="58"/>
+      <c r="CP3" s="58"/>
+      <c r="CQ3" s="58"/>
+      <c r="CR3" s="58"/>
+      <c r="CS3" s="58"/>
+      <c r="CT3" s="58"/>
+      <c r="CU3" s="58"/>
+      <c r="CV3" s="58"/>
+      <c r="CW3" s="58"/>
+      <c r="CX3" s="58"/>
+      <c r="CY3" s="58"/>
+      <c r="CZ3" s="58"/>
+      <c r="DA3" s="58"/>
+      <c r="DB3" s="58"/>
+      <c r="DC3" s="58"/>
+      <c r="DD3" s="58"/>
+      <c r="DE3" s="58"/>
+      <c r="DF3" s="58"/>
+      <c r="DG3" s="58"/>
+      <c r="DH3" s="58"/>
     </row>
     <row r="4" spans="1:112" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="62"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
       <c r="D4" s="34" t="s">
         <v>66</v>
       </c>
@@ -4141,31 +4147,31 @@
       <c r="CI4" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="CJ4" s="71"/>
-      <c r="CK4" s="71"/>
-      <c r="CL4" s="71"/>
-      <c r="CM4" s="71"/>
-      <c r="CN4" s="71"/>
-      <c r="CO4" s="71"/>
-      <c r="CP4" s="71"/>
-      <c r="CQ4" s="71"/>
-      <c r="CR4" s="71"/>
-      <c r="CS4" s="71"/>
-      <c r="CT4" s="71"/>
-      <c r="CU4" s="71"/>
-      <c r="CV4" s="71"/>
-      <c r="CW4" s="71"/>
-      <c r="CX4" s="71"/>
-      <c r="CY4" s="71"/>
-      <c r="CZ4" s="71"/>
-      <c r="DA4" s="71"/>
-      <c r="DB4" s="71"/>
-      <c r="DC4" s="71"/>
-      <c r="DD4" s="71"/>
-      <c r="DE4" s="71"/>
-      <c r="DF4" s="71"/>
-      <c r="DG4" s="71"/>
-      <c r="DH4" s="71"/>
+      <c r="CJ4" s="58"/>
+      <c r="CK4" s="58"/>
+      <c r="CL4" s="58"/>
+      <c r="CM4" s="58"/>
+      <c r="CN4" s="58"/>
+      <c r="CO4" s="58"/>
+      <c r="CP4" s="58"/>
+      <c r="CQ4" s="58"/>
+      <c r="CR4" s="58"/>
+      <c r="CS4" s="58"/>
+      <c r="CT4" s="58"/>
+      <c r="CU4" s="58"/>
+      <c r="CV4" s="58"/>
+      <c r="CW4" s="58"/>
+      <c r="CX4" s="58"/>
+      <c r="CY4" s="58"/>
+      <c r="CZ4" s="58"/>
+      <c r="DA4" s="58"/>
+      <c r="DB4" s="58"/>
+      <c r="DC4" s="58"/>
+      <c r="DD4" s="58"/>
+      <c r="DE4" s="58"/>
+      <c r="DF4" s="58"/>
+      <c r="DG4" s="58"/>
+      <c r="DH4" s="58"/>
     </row>
     <row r="5" spans="1:112" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="34">
@@ -4385,31 +4391,31 @@
       <c r="CI5" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="CJ5" s="71"/>
-      <c r="CK5" s="71"/>
-      <c r="CL5" s="71"/>
-      <c r="CM5" s="71"/>
-      <c r="CN5" s="71"/>
-      <c r="CO5" s="71"/>
-      <c r="CP5" s="71"/>
-      <c r="CQ5" s="71"/>
-      <c r="CR5" s="71"/>
-      <c r="CS5" s="71"/>
-      <c r="CT5" s="71"/>
-      <c r="CU5" s="71"/>
-      <c r="CV5" s="71"/>
-      <c r="CW5" s="71"/>
-      <c r="CX5" s="71"/>
-      <c r="CY5" s="71"/>
-      <c r="CZ5" s="71"/>
-      <c r="DA5" s="71"/>
-      <c r="DB5" s="71"/>
-      <c r="DC5" s="71"/>
-      <c r="DD5" s="71"/>
-      <c r="DE5" s="71"/>
-      <c r="DF5" s="71"/>
-      <c r="DG5" s="71"/>
-      <c r="DH5" s="71"/>
+      <c r="CJ5" s="58"/>
+      <c r="CK5" s="58"/>
+      <c r="CL5" s="58"/>
+      <c r="CM5" s="58"/>
+      <c r="CN5" s="58"/>
+      <c r="CO5" s="58"/>
+      <c r="CP5" s="58"/>
+      <c r="CQ5" s="58"/>
+      <c r="CR5" s="58"/>
+      <c r="CS5" s="58"/>
+      <c r="CT5" s="58"/>
+      <c r="CU5" s="58"/>
+      <c r="CV5" s="58"/>
+      <c r="CW5" s="58"/>
+      <c r="CX5" s="58"/>
+      <c r="CY5" s="58"/>
+      <c r="CZ5" s="58"/>
+      <c r="DA5" s="58"/>
+      <c r="DB5" s="58"/>
+      <c r="DC5" s="58"/>
+      <c r="DD5" s="58"/>
+      <c r="DE5" s="58"/>
+      <c r="DF5" s="58"/>
+      <c r="DG5" s="58"/>
+      <c r="DH5" s="58"/>
     </row>
     <row r="6" spans="1:112" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34">
@@ -4604,32 +4610,32 @@
       <c r="CH6" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="CI6" s="72"/>
-      <c r="CJ6" s="72"/>
-      <c r="CK6" s="72"/>
-      <c r="CL6" s="72"/>
-      <c r="CM6" s="72"/>
-      <c r="CN6" s="72"/>
-      <c r="CO6" s="72"/>
-      <c r="CP6" s="72"/>
-      <c r="CQ6" s="72"/>
-      <c r="CR6" s="72"/>
-      <c r="CS6" s="72"/>
-      <c r="CT6" s="72"/>
-      <c r="CU6" s="72"/>
-      <c r="CV6" s="72"/>
-      <c r="CW6" s="72"/>
-      <c r="CX6" s="72"/>
-      <c r="CY6" s="72"/>
-      <c r="CZ6" s="72"/>
-      <c r="DA6" s="72"/>
-      <c r="DB6" s="72"/>
-      <c r="DC6" s="72"/>
-      <c r="DD6" s="72"/>
-      <c r="DE6" s="72"/>
-      <c r="DF6" s="72"/>
-      <c r="DG6" s="72"/>
-      <c r="DH6" s="72"/>
+      <c r="CI6" s="59"/>
+      <c r="CJ6" s="59"/>
+      <c r="CK6" s="59"/>
+      <c r="CL6" s="59"/>
+      <c r="CM6" s="59"/>
+      <c r="CN6" s="59"/>
+      <c r="CO6" s="59"/>
+      <c r="CP6" s="59"/>
+      <c r="CQ6" s="59"/>
+      <c r="CR6" s="59"/>
+      <c r="CS6" s="59"/>
+      <c r="CT6" s="59"/>
+      <c r="CU6" s="59"/>
+      <c r="CV6" s="59"/>
+      <c r="CW6" s="59"/>
+      <c r="CX6" s="59"/>
+      <c r="CY6" s="59"/>
+      <c r="CZ6" s="59"/>
+      <c r="DA6" s="59"/>
+      <c r="DB6" s="59"/>
+      <c r="DC6" s="59"/>
+      <c r="DD6" s="59"/>
+      <c r="DE6" s="59"/>
+      <c r="DF6" s="59"/>
+      <c r="DG6" s="59"/>
+      <c r="DH6" s="59"/>
     </row>
     <row r="7" spans="1:112" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="34">
@@ -4813,31 +4819,31 @@
       <c r="CI7" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="CJ7" s="72"/>
-      <c r="CK7" s="72"/>
-      <c r="CL7" s="72"/>
-      <c r="CM7" s="72"/>
-      <c r="CN7" s="72"/>
-      <c r="CO7" s="72"/>
-      <c r="CP7" s="72"/>
-      <c r="CQ7" s="72"/>
-      <c r="CR7" s="72"/>
-      <c r="CS7" s="72"/>
-      <c r="CT7" s="72"/>
-      <c r="CU7" s="72"/>
-      <c r="CV7" s="72"/>
-      <c r="CW7" s="72"/>
-      <c r="CX7" s="72"/>
-      <c r="CY7" s="72"/>
-      <c r="CZ7" s="72"/>
-      <c r="DA7" s="72"/>
-      <c r="DB7" s="72"/>
-      <c r="DC7" s="72"/>
-      <c r="DD7" s="72"/>
-      <c r="DE7" s="72"/>
-      <c r="DF7" s="72"/>
-      <c r="DG7" s="72"/>
-      <c r="DH7" s="72"/>
+      <c r="CJ7" s="59"/>
+      <c r="CK7" s="59"/>
+      <c r="CL7" s="59"/>
+      <c r="CM7" s="59"/>
+      <c r="CN7" s="59"/>
+      <c r="CO7" s="59"/>
+      <c r="CP7" s="59"/>
+      <c r="CQ7" s="59"/>
+      <c r="CR7" s="59"/>
+      <c r="CS7" s="59"/>
+      <c r="CT7" s="59"/>
+      <c r="CU7" s="59"/>
+      <c r="CV7" s="59"/>
+      <c r="CW7" s="59"/>
+      <c r="CX7" s="59"/>
+      <c r="CY7" s="59"/>
+      <c r="CZ7" s="59"/>
+      <c r="DA7" s="59"/>
+      <c r="DB7" s="59"/>
+      <c r="DC7" s="59"/>
+      <c r="DD7" s="59"/>
+      <c r="DE7" s="59"/>
+      <c r="DF7" s="59"/>
+      <c r="DG7" s="59"/>
+      <c r="DH7" s="59"/>
     </row>
     <row r="8" spans="1:112" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="34">
@@ -5047,31 +5053,31 @@
       <c r="CI8" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="CJ8" s="72"/>
-      <c r="CK8" s="72"/>
-      <c r="CL8" s="72"/>
-      <c r="CM8" s="72"/>
-      <c r="CN8" s="72"/>
-      <c r="CO8" s="72"/>
-      <c r="CP8" s="72"/>
-      <c r="CQ8" s="72"/>
-      <c r="CR8" s="72"/>
-      <c r="CS8" s="72"/>
-      <c r="CT8" s="72"/>
-      <c r="CU8" s="72"/>
-      <c r="CV8" s="72"/>
-      <c r="CW8" s="72"/>
-      <c r="CX8" s="72"/>
-      <c r="CY8" s="72"/>
-      <c r="CZ8" s="72"/>
-      <c r="DA8" s="72"/>
-      <c r="DB8" s="72"/>
-      <c r="DC8" s="72"/>
-      <c r="DD8" s="72"/>
-      <c r="DE8" s="72"/>
-      <c r="DF8" s="72"/>
-      <c r="DG8" s="72"/>
-      <c r="DH8" s="72"/>
+      <c r="CJ8" s="59"/>
+      <c r="CK8" s="59"/>
+      <c r="CL8" s="59"/>
+      <c r="CM8" s="59"/>
+      <c r="CN8" s="59"/>
+      <c r="CO8" s="59"/>
+      <c r="CP8" s="59"/>
+      <c r="CQ8" s="59"/>
+      <c r="CR8" s="59"/>
+      <c r="CS8" s="59"/>
+      <c r="CT8" s="59"/>
+      <c r="CU8" s="59"/>
+      <c r="CV8" s="59"/>
+      <c r="CW8" s="59"/>
+      <c r="CX8" s="59"/>
+      <c r="CY8" s="59"/>
+      <c r="CZ8" s="59"/>
+      <c r="DA8" s="59"/>
+      <c r="DB8" s="59"/>
+      <c r="DC8" s="59"/>
+      <c r="DD8" s="59"/>
+      <c r="DE8" s="59"/>
+      <c r="DF8" s="59"/>
+      <c r="DG8" s="59"/>
+      <c r="DH8" s="59"/>
     </row>
     <row r="9" spans="1:112" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34">
@@ -5270,32 +5276,32 @@
       <c r="CH9" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="CI9" s="72"/>
-      <c r="CJ9" s="72"/>
-      <c r="CK9" s="72"/>
-      <c r="CL9" s="72"/>
-      <c r="CM9" s="72"/>
-      <c r="CN9" s="72"/>
-      <c r="CO9" s="72"/>
-      <c r="CP9" s="72"/>
-      <c r="CQ9" s="72"/>
-      <c r="CR9" s="72"/>
-      <c r="CS9" s="72"/>
-      <c r="CT9" s="72"/>
-      <c r="CU9" s="72"/>
-      <c r="CV9" s="72"/>
-      <c r="CW9" s="72"/>
-      <c r="CX9" s="72"/>
-      <c r="CY9" s="72"/>
-      <c r="CZ9" s="72"/>
-      <c r="DA9" s="72"/>
-      <c r="DB9" s="72"/>
-      <c r="DC9" s="72"/>
-      <c r="DD9" s="72"/>
-      <c r="DE9" s="72"/>
-      <c r="DF9" s="72"/>
-      <c r="DG9" s="72"/>
-      <c r="DH9" s="72"/>
+      <c r="CI9" s="59"/>
+      <c r="CJ9" s="59"/>
+      <c r="CK9" s="59"/>
+      <c r="CL9" s="59"/>
+      <c r="CM9" s="59"/>
+      <c r="CN9" s="59"/>
+      <c r="CO9" s="59"/>
+      <c r="CP9" s="59"/>
+      <c r="CQ9" s="59"/>
+      <c r="CR9" s="59"/>
+      <c r="CS9" s="59"/>
+      <c r="CT9" s="59"/>
+      <c r="CU9" s="59"/>
+      <c r="CV9" s="59"/>
+      <c r="CW9" s="59"/>
+      <c r="CX9" s="59"/>
+      <c r="CY9" s="59"/>
+      <c r="CZ9" s="59"/>
+      <c r="DA9" s="59"/>
+      <c r="DB9" s="59"/>
+      <c r="DC9" s="59"/>
+      <c r="DD9" s="59"/>
+      <c r="DE9" s="59"/>
+      <c r="DF9" s="59"/>
+      <c r="DG9" s="59"/>
+      <c r="DH9" s="59"/>
     </row>
     <row r="10" spans="1:112" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="34">
@@ -5499,31 +5505,31 @@
       <c r="CI10" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="CJ10" s="72"/>
-      <c r="CK10" s="72"/>
-      <c r="CL10" s="72"/>
-      <c r="CM10" s="72"/>
-      <c r="CN10" s="72"/>
-      <c r="CO10" s="72"/>
-      <c r="CP10" s="72"/>
-      <c r="CQ10" s="72"/>
-      <c r="CR10" s="72"/>
-      <c r="CS10" s="72"/>
-      <c r="CT10" s="72"/>
-      <c r="CU10" s="72"/>
-      <c r="CV10" s="72"/>
-      <c r="CW10" s="72"/>
-      <c r="CX10" s="72"/>
-      <c r="CY10" s="72"/>
-      <c r="CZ10" s="72"/>
-      <c r="DA10" s="72"/>
-      <c r="DB10" s="72"/>
-      <c r="DC10" s="72"/>
-      <c r="DD10" s="72"/>
-      <c r="DE10" s="72"/>
-      <c r="DF10" s="72"/>
-      <c r="DG10" s="72"/>
-      <c r="DH10" s="72"/>
+      <c r="CJ10" s="59"/>
+      <c r="CK10" s="59"/>
+      <c r="CL10" s="59"/>
+      <c r="CM10" s="59"/>
+      <c r="CN10" s="59"/>
+      <c r="CO10" s="59"/>
+      <c r="CP10" s="59"/>
+      <c r="CQ10" s="59"/>
+      <c r="CR10" s="59"/>
+      <c r="CS10" s="59"/>
+      <c r="CT10" s="59"/>
+      <c r="CU10" s="59"/>
+      <c r="CV10" s="59"/>
+      <c r="CW10" s="59"/>
+      <c r="CX10" s="59"/>
+      <c r="CY10" s="59"/>
+      <c r="CZ10" s="59"/>
+      <c r="DA10" s="59"/>
+      <c r="DB10" s="59"/>
+      <c r="DC10" s="59"/>
+      <c r="DD10" s="59"/>
+      <c r="DE10" s="59"/>
+      <c r="DF10" s="59"/>
+      <c r="DG10" s="59"/>
+      <c r="DH10" s="59"/>
     </row>
     <row r="11" spans="1:112" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="34">
@@ -5704,32 +5710,32 @@
       <c r="CH11" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="CI11" s="72"/>
-      <c r="CJ11" s="72"/>
-      <c r="CK11" s="72"/>
-      <c r="CL11" s="72"/>
-      <c r="CM11" s="72"/>
-      <c r="CN11" s="72"/>
-      <c r="CO11" s="72"/>
-      <c r="CP11" s="72"/>
-      <c r="CQ11" s="72"/>
-      <c r="CR11" s="72"/>
-      <c r="CS11" s="72"/>
-      <c r="CT11" s="72"/>
-      <c r="CU11" s="72"/>
-      <c r="CV11" s="72"/>
-      <c r="CW11" s="72"/>
-      <c r="CX11" s="72"/>
-      <c r="CY11" s="72"/>
-      <c r="CZ11" s="72"/>
-      <c r="DA11" s="72"/>
-      <c r="DB11" s="72"/>
-      <c r="DC11" s="72"/>
-      <c r="DD11" s="72"/>
-      <c r="DE11" s="72"/>
-      <c r="DF11" s="72"/>
-      <c r="DG11" s="72"/>
-      <c r="DH11" s="72"/>
+      <c r="CI11" s="59"/>
+      <c r="CJ11" s="59"/>
+      <c r="CK11" s="59"/>
+      <c r="CL11" s="59"/>
+      <c r="CM11" s="59"/>
+      <c r="CN11" s="59"/>
+      <c r="CO11" s="59"/>
+      <c r="CP11" s="59"/>
+      <c r="CQ11" s="59"/>
+      <c r="CR11" s="59"/>
+      <c r="CS11" s="59"/>
+      <c r="CT11" s="59"/>
+      <c r="CU11" s="59"/>
+      <c r="CV11" s="59"/>
+      <c r="CW11" s="59"/>
+      <c r="CX11" s="59"/>
+      <c r="CY11" s="59"/>
+      <c r="CZ11" s="59"/>
+      <c r="DA11" s="59"/>
+      <c r="DB11" s="59"/>
+      <c r="DC11" s="59"/>
+      <c r="DD11" s="59"/>
+      <c r="DE11" s="59"/>
+      <c r="DF11" s="59"/>
+      <c r="DG11" s="59"/>
+      <c r="DH11" s="59"/>
     </row>
     <row r="12" spans="1:112" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="34">
@@ -5932,43 +5938,47 @@
       <c r="CH12" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="CI12" s="72"/>
-      <c r="CJ12" s="72"/>
-      <c r="CK12" s="72"/>
-      <c r="CL12" s="72"/>
-      <c r="CM12" s="72"/>
-      <c r="CN12" s="72"/>
-      <c r="CO12" s="72"/>
-      <c r="CP12" s="72"/>
-      <c r="CQ12" s="72"/>
-      <c r="CR12" s="72"/>
-      <c r="CS12" s="72"/>
-      <c r="CT12" s="72"/>
-      <c r="CU12" s="72"/>
-      <c r="CV12" s="72"/>
-      <c r="CW12" s="72"/>
-      <c r="CX12" s="72"/>
-      <c r="CY12" s="72"/>
-      <c r="CZ12" s="72"/>
-      <c r="DA12" s="72"/>
-      <c r="DB12" s="72"/>
-      <c r="DC12" s="72"/>
-      <c r="DD12" s="72"/>
-      <c r="DE12" s="72"/>
-      <c r="DF12" s="72"/>
-      <c r="DG12" s="72"/>
-      <c r="DH12" s="72"/>
+      <c r="CI12" s="59"/>
+      <c r="CJ12" s="59"/>
+      <c r="CK12" s="59"/>
+      <c r="CL12" s="59"/>
+      <c r="CM12" s="59"/>
+      <c r="CN12" s="59"/>
+      <c r="CO12" s="59"/>
+      <c r="CP12" s="59"/>
+      <c r="CQ12" s="59"/>
+      <c r="CR12" s="59"/>
+      <c r="CS12" s="59"/>
+      <c r="CT12" s="59"/>
+      <c r="CU12" s="59"/>
+      <c r="CV12" s="59"/>
+      <c r="CW12" s="59"/>
+      <c r="CX12" s="59"/>
+      <c r="CY12" s="59"/>
+      <c r="CZ12" s="59"/>
+      <c r="DA12" s="59"/>
+      <c r="DB12" s="59"/>
+      <c r="DC12" s="59"/>
+      <c r="DD12" s="59"/>
+      <c r="DE12" s="59"/>
+      <c r="DF12" s="59"/>
+      <c r="DG12" s="59"/>
+      <c r="DH12" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="CG3:CI3"/>
-    <mergeCell ref="CA3:CC3"/>
-    <mergeCell ref="CD3:CF3"/>
-    <mergeCell ref="BL3:BN3"/>
-    <mergeCell ref="BO3:BQ3"/>
-    <mergeCell ref="BR3:BT3"/>
-    <mergeCell ref="BU3:BW3"/>
-    <mergeCell ref="BX3:BZ3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BK3"/>
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="AT3:AV3"/>
+    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="AN3:AP3"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="A3:A4"/>
@@ -5980,18 +5990,14 @@
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:U3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AK3:AM3"/>
-    <mergeCell ref="AN3:AP3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BK3"/>
-    <mergeCell ref="AQ3:AS3"/>
-    <mergeCell ref="AT3:AV3"/>
-    <mergeCell ref="AW3:AY3"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="CG3:CI3"/>
+    <mergeCell ref="CA3:CC3"/>
+    <mergeCell ref="CD3:CF3"/>
+    <mergeCell ref="BL3:BN3"/>
+    <mergeCell ref="BO3:BQ3"/>
+    <mergeCell ref="BR3:BT3"/>
+    <mergeCell ref="BU3:BW3"/>
+    <mergeCell ref="BX3:BZ3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6032,30 +6038,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="59" t="s">
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="57" t="s">
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="57" t="s">
+      <c r="O2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="57" t="s">
+      <c r="P2" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="57" t="s">
+      <c r="Q2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="57" t="s">
+      <c r="R2" s="60" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6099,11 +6105,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -6361,7 +6367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AB10" sqref="AB10"/>
     </sheetView>
   </sheetViews>
@@ -6385,10 +6391,10 @@
       </c>
     </row>
     <row r="3" spans="1:55" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="72" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="34" t="s">
@@ -6403,41 +6409,41 @@
       <c r="F3" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="70" t="s">
+      <c r="G3" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="66" t="s">
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="69" t="s">
         <v>123</v>
       </c>
-      <c r="K3" s="67"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="66" t="s">
+      <c r="K3" s="70"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="N3" s="67"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="66" t="s">
+      <c r="N3" s="70"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="66" t="s">
+      <c r="Q3" s="70"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="T3" s="67"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="66" t="s">
+      <c r="T3" s="70"/>
+      <c r="U3" s="71"/>
+      <c r="V3" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="W3" s="67"/>
-      <c r="X3" s="68"/>
-      <c r="Y3" s="66" t="s">
+      <c r="W3" s="70"/>
+      <c r="X3" s="71"/>
+      <c r="Y3" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="68"/>
+      <c r="Z3" s="70"/>
+      <c r="AA3" s="71"/>
       <c r="AB3" s="54"/>
       <c r="AC3" s="54"/>
       <c r="AD3" s="54"/>
@@ -6468,8 +6474,8 @@
       <c r="BC3" s="54"/>
     </row>
     <row r="4" spans="1:55" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="72"/>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
@@ -7319,30 +7325,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="59" t="s">
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="57" t="s">
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="57" t="s">
+      <c r="O2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="57" t="s">
+      <c r="P2" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="57" t="s">
+      <c r="Q2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="57" t="s">
+      <c r="R2" s="60" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7386,11 +7392,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -7729,37 +7735,39 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD20"/>
+  <dimension ref="A1:AY20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="V5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="BA9" sqref="BA9"/>
       <selection pane="topRight" activeCell="BA9" sqref="BA9"/>
       <selection pane="bottomLeft" activeCell="BA9" sqref="BA9"/>
-      <selection pane="bottomRight" activeCell="Z9" sqref="Z9"/>
+      <selection pane="bottomRight" activeCell="AD11" sqref="AD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="26.5703125" customWidth="1"/>
-    <col min="3" max="5" width="6.140625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" style="17" customWidth="1"/>
-    <col min="7" max="20" width="6.28515625" style="17" customWidth="1"/>
-    <col min="21" max="21" width="6.28515625" customWidth="1"/>
+    <col min="3" max="4" width="6.140625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="17" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" style="17" hidden="1" customWidth="1"/>
+    <col min="7" max="20" width="6.28515625" style="17" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="6.28515625" hidden="1" customWidth="1"/>
     <col min="22" max="30" width="5.42578125" customWidth="1"/>
+    <col min="31" max="52" width="5.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:51" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B1" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
+    <row r="3" spans="1:51" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="72" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="41" t="s">
@@ -7774,46 +7782,69 @@
       <c r="F3" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="G3" s="70" t="s">
+      <c r="G3" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="66" t="s">
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="K3" s="67"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="66" t="s">
+      <c r="K3" s="70"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="N3" s="67"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="66" t="s">
+      <c r="N3" s="70"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="66" t="s">
+      <c r="Q3" s="70"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="T3" s="67"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="66" t="s">
+      <c r="T3" s="70"/>
+      <c r="U3" s="71"/>
+      <c r="V3" s="69" t="s">
         <v>136</v>
       </c>
-      <c r="W3" s="67"/>
-      <c r="X3" s="68"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="67"/>
-      <c r="AD3" s="68"/>
-    </row>
-    <row r="4" spans="1:30" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
+      <c r="W3" s="70"/>
+      <c r="X3" s="71"/>
+      <c r="Y3" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z3" s="70"/>
+      <c r="AA3" s="71"/>
+      <c r="AB3" s="69"/>
+      <c r="AC3" s="70"/>
+      <c r="AD3" s="71"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="35"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="35"/>
+      <c r="AK3" s="35"/>
+      <c r="AL3" s="35"/>
+      <c r="AM3" s="35"/>
+      <c r="AN3" s="35"/>
+      <c r="AO3" s="35"/>
+      <c r="AP3" s="35"/>
+      <c r="AQ3" s="35"/>
+      <c r="AR3" s="35"/>
+      <c r="AS3" s="35"/>
+      <c r="AT3" s="35"/>
+      <c r="AU3" s="35"/>
+      <c r="AV3" s="35"/>
+      <c r="AW3" s="35"/>
+      <c r="AX3" s="35"/>
+      <c r="AY3" s="35"/>
+    </row>
+    <row r="4" spans="1:51" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="72"/>
+      <c r="B4" s="72"/>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
@@ -7872,14 +7903,41 @@
       <c r="X4" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35"/>
+      <c r="Y4" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z4" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA4" s="57" t="s">
+        <v>64</v>
+      </c>
       <c r="AB4" s="35"/>
       <c r="AC4" s="35"/>
       <c r="AD4" s="35"/>
-    </row>
-    <row r="5" spans="1:30" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="35"/>
+      <c r="AJ4" s="35"/>
+      <c r="AK4" s="35"/>
+      <c r="AL4" s="35"/>
+      <c r="AM4" s="35"/>
+      <c r="AN4" s="35"/>
+      <c r="AO4" s="35"/>
+      <c r="AP4" s="35"/>
+      <c r="AQ4" s="35"/>
+      <c r="AR4" s="35"/>
+      <c r="AS4" s="35"/>
+      <c r="AT4" s="35"/>
+      <c r="AU4" s="35"/>
+      <c r="AV4" s="35"/>
+      <c r="AW4" s="35"/>
+      <c r="AX4" s="35"/>
+      <c r="AY4" s="35"/>
+    </row>
+    <row r="5" spans="1:51" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="41">
         <v>1</v>
       </c>
@@ -7932,14 +7990,39 @@
         <v>0</v>
       </c>
       <c r="X5" s="53"/>
-      <c r="Y5" s="53"/>
-      <c r="Z5" s="53"/>
+      <c r="Y5" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="57" t="s">
+        <v>0</v>
+      </c>
       <c r="AA5" s="53"/>
       <c r="AB5" s="53"/>
       <c r="AC5" s="53"/>
       <c r="AD5" s="53"/>
-    </row>
-    <row r="6" spans="1:30" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE5" s="35"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="35"/>
+      <c r="AH5" s="35"/>
+      <c r="AI5" s="35"/>
+      <c r="AJ5" s="35"/>
+      <c r="AK5" s="35"/>
+      <c r="AL5" s="35"/>
+      <c r="AM5" s="35"/>
+      <c r="AN5" s="35"/>
+      <c r="AO5" s="35"/>
+      <c r="AP5" s="35"/>
+      <c r="AQ5" s="35"/>
+      <c r="AR5" s="35"/>
+      <c r="AS5" s="35"/>
+      <c r="AT5" s="35"/>
+      <c r="AU5" s="35"/>
+      <c r="AV5" s="35"/>
+      <c r="AW5" s="35"/>
+      <c r="AX5" s="35"/>
+      <c r="AY5" s="35"/>
+    </row>
+    <row r="6" spans="1:51" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="41">
         <v>2</v>
       </c>
@@ -7996,14 +8079,39 @@
       <c r="X6" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="Y6" s="53"/>
-      <c r="Z6" s="53"/>
+      <c r="Y6" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="57" t="s">
+        <v>0</v>
+      </c>
       <c r="AA6" s="53"/>
       <c r="AB6" s="53"/>
       <c r="AC6" s="53"/>
       <c r="AD6" s="53"/>
-    </row>
-    <row r="7" spans="1:30" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE6" s="35"/>
+      <c r="AF6" s="35"/>
+      <c r="AG6" s="35"/>
+      <c r="AH6" s="35"/>
+      <c r="AI6" s="35"/>
+      <c r="AJ6" s="35"/>
+      <c r="AK6" s="35"/>
+      <c r="AL6" s="35"/>
+      <c r="AM6" s="35"/>
+      <c r="AN6" s="35"/>
+      <c r="AO6" s="35"/>
+      <c r="AP6" s="35"/>
+      <c r="AQ6" s="35"/>
+      <c r="AR6" s="35"/>
+      <c r="AS6" s="35"/>
+      <c r="AT6" s="35"/>
+      <c r="AU6" s="35"/>
+      <c r="AV6" s="35"/>
+      <c r="AW6" s="35"/>
+      <c r="AX6" s="35"/>
+      <c r="AY6" s="35"/>
+    </row>
+    <row r="7" spans="1:51" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="41">
         <v>3</v>
       </c>
@@ -8043,13 +8151,36 @@
       </c>
       <c r="X7" s="53"/>
       <c r="Y7" s="53"/>
-      <c r="Z7" s="53"/>
+      <c r="Z7" s="53" t="s">
+        <v>0</v>
+      </c>
       <c r="AA7" s="53"/>
       <c r="AB7" s="53"/>
       <c r="AC7" s="53"/>
       <c r="AD7" s="53"/>
-    </row>
-    <row r="8" spans="1:30" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE7" s="35"/>
+      <c r="AF7" s="35"/>
+      <c r="AG7" s="35"/>
+      <c r="AH7" s="35"/>
+      <c r="AI7" s="35"/>
+      <c r="AJ7" s="35"/>
+      <c r="AK7" s="35"/>
+      <c r="AL7" s="35"/>
+      <c r="AM7" s="35"/>
+      <c r="AN7" s="35"/>
+      <c r="AO7" s="35"/>
+      <c r="AP7" s="35"/>
+      <c r="AQ7" s="35"/>
+      <c r="AR7" s="35"/>
+      <c r="AS7" s="35"/>
+      <c r="AT7" s="35"/>
+      <c r="AU7" s="35"/>
+      <c r="AV7" s="35"/>
+      <c r="AW7" s="35"/>
+      <c r="AX7" s="35"/>
+      <c r="AY7" s="35"/>
+    </row>
+    <row r="8" spans="1:51" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="41">
         <v>4</v>
       </c>
@@ -8089,13 +8220,36 @@
       </c>
       <c r="X8" s="53"/>
       <c r="Y8" s="53"/>
-      <c r="Z8" s="53"/>
+      <c r="Z8" s="53" t="s">
+        <v>0</v>
+      </c>
       <c r="AA8" s="53"/>
       <c r="AB8" s="53"/>
       <c r="AC8" s="53"/>
       <c r="AD8" s="53"/>
-    </row>
-    <row r="9" spans="1:30" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE8" s="35"/>
+      <c r="AF8" s="35"/>
+      <c r="AG8" s="35"/>
+      <c r="AH8" s="35"/>
+      <c r="AI8" s="35"/>
+      <c r="AJ8" s="35"/>
+      <c r="AK8" s="35"/>
+      <c r="AL8" s="35"/>
+      <c r="AM8" s="35"/>
+      <c r="AN8" s="35"/>
+      <c r="AO8" s="35"/>
+      <c r="AP8" s="35"/>
+      <c r="AQ8" s="35"/>
+      <c r="AR8" s="35"/>
+      <c r="AS8" s="35"/>
+      <c r="AT8" s="35"/>
+      <c r="AU8" s="35"/>
+      <c r="AV8" s="35"/>
+      <c r="AW8" s="35"/>
+      <c r="AX8" s="35"/>
+      <c r="AY8" s="35"/>
+    </row>
+    <row r="9" spans="1:51" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="41">
         <v>5</v>
       </c>
@@ -8152,14 +8306,39 @@
       <c r="X9" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="Y9" s="53"/>
-      <c r="Z9" s="53"/>
+      <c r="Y9" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="57" t="s">
+        <v>0</v>
+      </c>
       <c r="AA9" s="53"/>
       <c r="AB9" s="53"/>
       <c r="AC9" s="53"/>
       <c r="AD9" s="53"/>
-    </row>
-    <row r="10" spans="1:30" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE9" s="35"/>
+      <c r="AF9" s="35"/>
+      <c r="AG9" s="35"/>
+      <c r="AH9" s="35"/>
+      <c r="AI9" s="35"/>
+      <c r="AJ9" s="35"/>
+      <c r="AK9" s="35"/>
+      <c r="AL9" s="35"/>
+      <c r="AM9" s="35"/>
+      <c r="AN9" s="35"/>
+      <c r="AO9" s="35"/>
+      <c r="AP9" s="35"/>
+      <c r="AQ9" s="35"/>
+      <c r="AR9" s="35"/>
+      <c r="AS9" s="35"/>
+      <c r="AT9" s="35"/>
+      <c r="AU9" s="35"/>
+      <c r="AV9" s="35"/>
+      <c r="AW9" s="35"/>
+      <c r="AX9" s="35"/>
+      <c r="AY9" s="35"/>
+    </row>
+    <row r="10" spans="1:51" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="41">
         <v>6</v>
       </c>
@@ -8216,14 +8395,39 @@
       <c r="X10" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="Y10" s="53"/>
-      <c r="Z10" s="53"/>
+      <c r="Y10" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="57" t="s">
+        <v>0</v>
+      </c>
       <c r="AA10" s="53"/>
       <c r="AB10" s="53"/>
       <c r="AC10" s="53"/>
       <c r="AD10" s="53"/>
-    </row>
-    <row r="11" spans="1:30" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE10" s="35"/>
+      <c r="AF10" s="35"/>
+      <c r="AG10" s="35"/>
+      <c r="AH10" s="35"/>
+      <c r="AI10" s="35"/>
+      <c r="AJ10" s="35"/>
+      <c r="AK10" s="35"/>
+      <c r="AL10" s="35"/>
+      <c r="AM10" s="35"/>
+      <c r="AN10" s="35"/>
+      <c r="AO10" s="35"/>
+      <c r="AP10" s="35"/>
+      <c r="AQ10" s="35"/>
+      <c r="AR10" s="35"/>
+      <c r="AS10" s="35"/>
+      <c r="AT10" s="35"/>
+      <c r="AU10" s="35"/>
+      <c r="AV10" s="35"/>
+      <c r="AW10" s="35"/>
+      <c r="AX10" s="35"/>
+      <c r="AY10" s="35"/>
+    </row>
+    <row r="11" spans="1:51" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="41">
         <v>7</v>
       </c>
@@ -8280,14 +8484,39 @@
         <v>0</v>
       </c>
       <c r="X11" s="53"/>
-      <c r="Y11" s="53"/>
-      <c r="Z11" s="53"/>
+      <c r="Y11" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="57" t="s">
+        <v>0</v>
+      </c>
       <c r="AA11" s="53"/>
       <c r="AB11" s="53"/>
       <c r="AC11" s="53"/>
       <c r="AD11" s="53"/>
-    </row>
-    <row r="12" spans="1:30" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE11" s="35"/>
+      <c r="AF11" s="35"/>
+      <c r="AG11" s="35"/>
+      <c r="AH11" s="35"/>
+      <c r="AI11" s="35"/>
+      <c r="AJ11" s="35"/>
+      <c r="AK11" s="35"/>
+      <c r="AL11" s="35"/>
+      <c r="AM11" s="35"/>
+      <c r="AN11" s="35"/>
+      <c r="AO11" s="35"/>
+      <c r="AP11" s="35"/>
+      <c r="AQ11" s="35"/>
+      <c r="AR11" s="35"/>
+      <c r="AS11" s="35"/>
+      <c r="AT11" s="35"/>
+      <c r="AU11" s="35"/>
+      <c r="AV11" s="35"/>
+      <c r="AW11" s="35"/>
+      <c r="AX11" s="35"/>
+      <c r="AY11" s="35"/>
+    </row>
+    <row r="12" spans="1:51" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="41">
         <v>8</v>
       </c>
@@ -8342,14 +8571,39 @@
         <v>0</v>
       </c>
       <c r="X12" s="53"/>
-      <c r="Y12" s="53"/>
-      <c r="Z12" s="53"/>
+      <c r="Y12" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="53" t="s">
+        <v>0</v>
+      </c>
       <c r="AA12" s="53"/>
       <c r="AB12" s="53"/>
       <c r="AC12" s="53"/>
       <c r="AD12" s="53"/>
-    </row>
-    <row r="13" spans="1:30" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE12" s="35"/>
+      <c r="AF12" s="35"/>
+      <c r="AG12" s="35"/>
+      <c r="AH12" s="35"/>
+      <c r="AI12" s="35"/>
+      <c r="AJ12" s="35"/>
+      <c r="AK12" s="35"/>
+      <c r="AL12" s="35"/>
+      <c r="AM12" s="35"/>
+      <c r="AN12" s="35"/>
+      <c r="AO12" s="35"/>
+      <c r="AP12" s="35"/>
+      <c r="AQ12" s="35"/>
+      <c r="AR12" s="35"/>
+      <c r="AS12" s="35"/>
+      <c r="AT12" s="35"/>
+      <c r="AU12" s="35"/>
+      <c r="AV12" s="35"/>
+      <c r="AW12" s="35"/>
+      <c r="AX12" s="35"/>
+      <c r="AY12" s="35"/>
+    </row>
+    <row r="13" spans="1:51" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="41">
         <v>9</v>
       </c>
@@ -8405,15 +8659,42 @@
       <c r="W13" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="X13" s="53"/>
-      <c r="Y13" s="53"/>
-      <c r="Z13" s="53"/>
+      <c r="X13" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="57" t="s">
+        <v>0</v>
+      </c>
       <c r="AA13" s="53"/>
       <c r="AB13" s="53"/>
       <c r="AC13" s="53"/>
       <c r="AD13" s="53"/>
-    </row>
-    <row r="14" spans="1:30" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE13" s="35"/>
+      <c r="AF13" s="35"/>
+      <c r="AG13" s="35"/>
+      <c r="AH13" s="35"/>
+      <c r="AI13" s="35"/>
+      <c r="AJ13" s="35"/>
+      <c r="AK13" s="35"/>
+      <c r="AL13" s="35"/>
+      <c r="AM13" s="35"/>
+      <c r="AN13" s="35"/>
+      <c r="AO13" s="35"/>
+      <c r="AP13" s="35"/>
+      <c r="AQ13" s="35"/>
+      <c r="AR13" s="35"/>
+      <c r="AS13" s="35"/>
+      <c r="AT13" s="35"/>
+      <c r="AU13" s="35"/>
+      <c r="AV13" s="35"/>
+      <c r="AW13" s="35"/>
+      <c r="AX13" s="35"/>
+      <c r="AY13" s="35"/>
+    </row>
+    <row r="14" spans="1:51" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="41">
         <v>10</v>
       </c>
@@ -8454,8 +8735,29 @@
       <c r="AB14" s="53"/>
       <c r="AC14" s="53"/>
       <c r="AD14" s="53"/>
-    </row>
-    <row r="15" spans="1:30" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE14" s="35"/>
+      <c r="AF14" s="35"/>
+      <c r="AG14" s="35"/>
+      <c r="AH14" s="35"/>
+      <c r="AI14" s="35"/>
+      <c r="AJ14" s="35"/>
+      <c r="AK14" s="35"/>
+      <c r="AL14" s="35"/>
+      <c r="AM14" s="35"/>
+      <c r="AN14" s="35"/>
+      <c r="AO14" s="35"/>
+      <c r="AP14" s="35"/>
+      <c r="AQ14" s="35"/>
+      <c r="AR14" s="35"/>
+      <c r="AS14" s="35"/>
+      <c r="AT14" s="35"/>
+      <c r="AU14" s="35"/>
+      <c r="AV14" s="35"/>
+      <c r="AW14" s="35"/>
+      <c r="AX14" s="35"/>
+      <c r="AY14" s="35"/>
+    </row>
+    <row r="15" spans="1:51" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="41">
         <v>11</v>
       </c>
@@ -8490,14 +8792,39 @@
       <c r="V15" s="43"/>
       <c r="W15" s="43"/>
       <c r="X15" s="43"/>
-      <c r="Y15" s="43"/>
-      <c r="Z15" s="43"/>
+      <c r="Y15" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="57" t="s">
+        <v>0</v>
+      </c>
       <c r="AA15" s="43"/>
       <c r="AB15" s="43"/>
       <c r="AC15" s="43"/>
       <c r="AD15" s="43"/>
-    </row>
-    <row r="16" spans="1:30" s="45" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE15" s="35"/>
+      <c r="AF15" s="35"/>
+      <c r="AG15" s="35"/>
+      <c r="AH15" s="35"/>
+      <c r="AI15" s="35"/>
+      <c r="AJ15" s="35"/>
+      <c r="AK15" s="35"/>
+      <c r="AL15" s="35"/>
+      <c r="AM15" s="35"/>
+      <c r="AN15" s="35"/>
+      <c r="AO15" s="35"/>
+      <c r="AP15" s="35"/>
+      <c r="AQ15" s="35"/>
+      <c r="AR15" s="35"/>
+      <c r="AS15" s="35"/>
+      <c r="AT15" s="35"/>
+      <c r="AU15" s="35"/>
+      <c r="AV15" s="35"/>
+      <c r="AW15" s="35"/>
+      <c r="AX15" s="35"/>
+      <c r="AY15" s="35"/>
+    </row>
+    <row r="16" spans="1:51" s="45" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
       <c r="E16" s="46"/>
@@ -8523,16 +8850,16 @@
     <row r="20" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="P3:R3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="M3:O3"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="P3:R3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TOEIC 300-500 K1" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="144">
   <si>
     <t>x</t>
   </si>
@@ -448,6 +448,12 @@
   </si>
   <si>
     <t>16/5-Lesson 7</t>
+  </si>
+  <si>
+    <t>17/5-Lesson 28</t>
+  </si>
+  <si>
+    <t>17/5-Lesson 8</t>
   </si>
 </sst>
 </file>
@@ -714,7 +720,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -861,6 +867,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -873,6 +882,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -880,12 +895,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1247,30 +1256,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="61" t="s">
+      <c r="G2" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="62" t="s">
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="60" t="s">
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="60" t="s">
+      <c r="O2" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="60" t="s">
+      <c r="P2" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="60" t="s">
+      <c r="Q2" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="60" t="s">
+      <c r="R2" s="61" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1314,11 +1323,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -1571,30 +1580,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="61" t="s">
+      <c r="G2" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="62" t="s">
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="60" t="s">
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="60" t="s">
+      <c r="O2" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="60" t="s">
+      <c r="P2" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="60" t="s">
+      <c r="Q2" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="63" t="s">
+      <c r="R2" s="64" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1638,11 +1647,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="63"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="64"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -2617,30 +2626,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="61" t="s">
+      <c r="G2" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="62" t="s">
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="60" t="s">
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="60" t="s">
+      <c r="O2" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="60" t="s">
+      <c r="P2" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="60" t="s">
+      <c r="Q2" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="60" t="s">
+      <c r="R2" s="61" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2684,11 +2693,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -2971,7 +2980,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="R9" sqref="R9"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2998,30 +3007,30 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="62" t="s">
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="60" t="s">
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="60" t="s">
+      <c r="Q2" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="60" t="s">
+      <c r="R2" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="60" t="s">
+      <c r="S2" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="60" t="s">
+      <c r="T2" s="61" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3071,11 +3080,11 @@
       <c r="O3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
     </row>
     <row r="4" spans="1:20" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -3677,7 +3686,7 @@
   <dimension ref="A1:DH12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="CG7" sqref="CG7"/>
+      <selection activeCell="CL11" sqref="CL11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3716,185 +3725,187 @@
       </c>
     </row>
     <row r="3" spans="1:112" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67" t="s">
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67" t="s">
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67" t="s">
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67" t="s">
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67" t="s">
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67" t="s">
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="W3" s="67"/>
-      <c r="X3" s="67"/>
-      <c r="Y3" s="67" t="s">
+      <c r="W3" s="65"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="67" t="s">
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="AC3" s="67"/>
-      <c r="AD3" s="67"/>
-      <c r="AE3" s="67" t="s">
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="AF3" s="67"/>
-      <c r="AG3" s="67"/>
-      <c r="AH3" s="67" t="s">
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="AI3" s="67"/>
-      <c r="AJ3" s="67"/>
-      <c r="AK3" s="67" t="s">
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="AL3" s="67"/>
-      <c r="AM3" s="67"/>
-      <c r="AN3" s="67" t="s">
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="AO3" s="67"/>
-      <c r="AP3" s="67"/>
-      <c r="AQ3" s="67" t="s">
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="65"/>
+      <c r="AQ3" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="AR3" s="67"/>
-      <c r="AS3" s="67"/>
-      <c r="AT3" s="67" t="s">
+      <c r="AR3" s="65"/>
+      <c r="AS3" s="65"/>
+      <c r="AT3" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="AU3" s="67"/>
-      <c r="AV3" s="67"/>
-      <c r="AW3" s="67" t="s">
+      <c r="AU3" s="65"/>
+      <c r="AV3" s="65"/>
+      <c r="AW3" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="AX3" s="67"/>
-      <c r="AY3" s="67"/>
-      <c r="AZ3" s="67" t="s">
+      <c r="AX3" s="65"/>
+      <c r="AY3" s="65"/>
+      <c r="AZ3" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="BA3" s="67"/>
-      <c r="BB3" s="67"/>
-      <c r="BC3" s="67" t="s">
+      <c r="BA3" s="65"/>
+      <c r="BB3" s="65"/>
+      <c r="BC3" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="BD3" s="67"/>
-      <c r="BE3" s="67"/>
-      <c r="BF3" s="67" t="s">
+      <c r="BD3" s="65"/>
+      <c r="BE3" s="65"/>
+      <c r="BF3" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="BG3" s="67"/>
-      <c r="BH3" s="67"/>
-      <c r="BI3" s="67" t="s">
+      <c r="BG3" s="65"/>
+      <c r="BH3" s="65"/>
+      <c r="BI3" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="BJ3" s="67"/>
-      <c r="BK3" s="67"/>
-      <c r="BL3" s="67" t="s">
+      <c r="BJ3" s="65"/>
+      <c r="BK3" s="65"/>
+      <c r="BL3" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="BM3" s="67"/>
-      <c r="BN3" s="67"/>
-      <c r="BO3" s="67" t="s">
+      <c r="BM3" s="65"/>
+      <c r="BN3" s="65"/>
+      <c r="BO3" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="BP3" s="67"/>
-      <c r="BQ3" s="67"/>
-      <c r="BR3" s="67" t="s">
+      <c r="BP3" s="65"/>
+      <c r="BQ3" s="65"/>
+      <c r="BR3" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="BS3" s="67"/>
-      <c r="BT3" s="67"/>
-      <c r="BU3" s="64" t="s">
+      <c r="BS3" s="65"/>
+      <c r="BT3" s="65"/>
+      <c r="BU3" s="67" t="s">
         <v>126</v>
       </c>
-      <c r="BV3" s="65"/>
-      <c r="BW3" s="66"/>
-      <c r="BX3" s="64" t="s">
+      <c r="BV3" s="68"/>
+      <c r="BW3" s="69"/>
+      <c r="BX3" s="67" t="s">
         <v>127</v>
       </c>
-      <c r="BY3" s="65"/>
-      <c r="BZ3" s="66"/>
-      <c r="CA3" s="64" t="s">
+      <c r="BY3" s="68"/>
+      <c r="BZ3" s="69"/>
+      <c r="CA3" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="CB3" s="65"/>
-      <c r="CC3" s="66"/>
-      <c r="CD3" s="64" t="s">
+      <c r="CB3" s="68"/>
+      <c r="CC3" s="69"/>
+      <c r="CD3" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="CE3" s="65"/>
-      <c r="CF3" s="66"/>
-      <c r="CG3" s="64" t="s">
+      <c r="CE3" s="68"/>
+      <c r="CF3" s="69"/>
+      <c r="CG3" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="CH3" s="65"/>
-      <c r="CI3" s="66"/>
-      <c r="CJ3" s="58"/>
-      <c r="CK3" s="58"/>
-      <c r="CL3" s="58"/>
-      <c r="CM3" s="58"/>
-      <c r="CN3" s="58"/>
-      <c r="CO3" s="58"/>
-      <c r="CP3" s="58"/>
-      <c r="CQ3" s="58"/>
-      <c r="CR3" s="58"/>
-      <c r="CS3" s="58"/>
-      <c r="CT3" s="58"/>
-      <c r="CU3" s="58"/>
-      <c r="CV3" s="58"/>
-      <c r="CW3" s="58"/>
-      <c r="CX3" s="58"/>
-      <c r="CY3" s="58"/>
-      <c r="CZ3" s="58"/>
-      <c r="DA3" s="58"/>
-      <c r="DB3" s="58"/>
-      <c r="DC3" s="58"/>
-      <c r="DD3" s="58"/>
-      <c r="DE3" s="58"/>
-      <c r="DF3" s="58"/>
-      <c r="DG3" s="58"/>
+      <c r="CH3" s="68"/>
+      <c r="CI3" s="69"/>
+      <c r="CJ3" s="70" t="s">
+        <v>142</v>
+      </c>
+      <c r="CK3" s="71"/>
+      <c r="CL3" s="72"/>
+      <c r="CM3" s="35"/>
+      <c r="CN3" s="35"/>
+      <c r="CO3" s="35"/>
+      <c r="CP3" s="35"/>
+      <c r="CQ3" s="35"/>
+      <c r="CR3" s="35"/>
+      <c r="CS3" s="35"/>
+      <c r="CT3" s="35"/>
+      <c r="CU3" s="35"/>
+      <c r="CV3" s="35"/>
+      <c r="CW3" s="35"/>
+      <c r="CX3" s="35"/>
+      <c r="CY3" s="35"/>
+      <c r="CZ3" s="35"/>
+      <c r="DA3" s="35"/>
+      <c r="DB3" s="35"/>
+      <c r="DC3" s="35"/>
+      <c r="DD3" s="35"/>
+      <c r="DE3" s="35"/>
+      <c r="DF3" s="35"/>
+      <c r="DG3" s="35"/>
       <c r="DH3" s="58"/>
     </row>
     <row r="4" spans="1:112" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
       <c r="D4" s="34" t="s">
         <v>66</v>
       </c>
@@ -4147,30 +4158,36 @@
       <c r="CI4" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="CJ4" s="58"/>
-      <c r="CK4" s="58"/>
-      <c r="CL4" s="58"/>
-      <c r="CM4" s="58"/>
-      <c r="CN4" s="58"/>
-      <c r="CO4" s="58"/>
-      <c r="CP4" s="58"/>
-      <c r="CQ4" s="58"/>
-      <c r="CR4" s="58"/>
-      <c r="CS4" s="58"/>
-      <c r="CT4" s="58"/>
-      <c r="CU4" s="58"/>
-      <c r="CV4" s="58"/>
-      <c r="CW4" s="58"/>
-      <c r="CX4" s="58"/>
-      <c r="CY4" s="58"/>
-      <c r="CZ4" s="58"/>
-      <c r="DA4" s="58"/>
-      <c r="DB4" s="58"/>
-      <c r="DC4" s="58"/>
-      <c r="DD4" s="58"/>
-      <c r="DE4" s="58"/>
-      <c r="DF4" s="58"/>
-      <c r="DG4" s="58"/>
+      <c r="CJ4" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="CK4" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="CL4" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="CM4" s="60"/>
+      <c r="CN4" s="60"/>
+      <c r="CO4" s="60"/>
+      <c r="CP4" s="60"/>
+      <c r="CQ4" s="60"/>
+      <c r="CR4" s="60"/>
+      <c r="CS4" s="60"/>
+      <c r="CT4" s="60"/>
+      <c r="CU4" s="60"/>
+      <c r="CV4" s="60"/>
+      <c r="CW4" s="60"/>
+      <c r="CX4" s="60"/>
+      <c r="CY4" s="60"/>
+      <c r="CZ4" s="60"/>
+      <c r="DA4" s="60"/>
+      <c r="DB4" s="60"/>
+      <c r="DC4" s="60"/>
+      <c r="DD4" s="60"/>
+      <c r="DE4" s="60"/>
+      <c r="DF4" s="60"/>
+      <c r="DG4" s="60"/>
       <c r="DH4" s="58"/>
     </row>
     <row r="5" spans="1:112" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4391,30 +4408,30 @@
       <c r="CI5" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="CJ5" s="58"/>
-      <c r="CK5" s="58"/>
-      <c r="CL5" s="58"/>
-      <c r="CM5" s="58"/>
-      <c r="CN5" s="58"/>
-      <c r="CO5" s="58"/>
-      <c r="CP5" s="58"/>
-      <c r="CQ5" s="58"/>
-      <c r="CR5" s="58"/>
-      <c r="CS5" s="58"/>
-      <c r="CT5" s="58"/>
-      <c r="CU5" s="58"/>
-      <c r="CV5" s="58"/>
-      <c r="CW5" s="58"/>
-      <c r="CX5" s="58"/>
-      <c r="CY5" s="58"/>
-      <c r="CZ5" s="58"/>
-      <c r="DA5" s="58"/>
-      <c r="DB5" s="58"/>
-      <c r="DC5" s="58"/>
-      <c r="DD5" s="58"/>
-      <c r="DE5" s="58"/>
-      <c r="DF5" s="58"/>
-      <c r="DG5" s="58"/>
+      <c r="CJ5" s="60"/>
+      <c r="CK5" s="60"/>
+      <c r="CL5" s="60"/>
+      <c r="CM5" s="60"/>
+      <c r="CN5" s="60"/>
+      <c r="CO5" s="60"/>
+      <c r="CP5" s="60"/>
+      <c r="CQ5" s="60"/>
+      <c r="CR5" s="60"/>
+      <c r="CS5" s="60"/>
+      <c r="CT5" s="60"/>
+      <c r="CU5" s="60"/>
+      <c r="CV5" s="60"/>
+      <c r="CW5" s="60"/>
+      <c r="CX5" s="60"/>
+      <c r="CY5" s="60"/>
+      <c r="CZ5" s="60"/>
+      <c r="DA5" s="60"/>
+      <c r="DB5" s="60"/>
+      <c r="DC5" s="60"/>
+      <c r="DD5" s="60"/>
+      <c r="DE5" s="60"/>
+      <c r="DF5" s="60"/>
+      <c r="DG5" s="60"/>
       <c r="DH5" s="58"/>
     </row>
     <row r="6" spans="1:112" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4611,30 +4628,34 @@
         <v>0</v>
       </c>
       <c r="CI6" s="59"/>
-      <c r="CJ6" s="59"/>
-      <c r="CK6" s="59"/>
-      <c r="CL6" s="59"/>
-      <c r="CM6" s="59"/>
-      <c r="CN6" s="59"/>
-      <c r="CO6" s="59"/>
-      <c r="CP6" s="59"/>
-      <c r="CQ6" s="59"/>
-      <c r="CR6" s="59"/>
-      <c r="CS6" s="59"/>
-      <c r="CT6" s="59"/>
-      <c r="CU6" s="59"/>
-      <c r="CV6" s="59"/>
-      <c r="CW6" s="59"/>
-      <c r="CX6" s="59"/>
-      <c r="CY6" s="59"/>
-      <c r="CZ6" s="59"/>
-      <c r="DA6" s="59"/>
-      <c r="DB6" s="59"/>
-      <c r="DC6" s="59"/>
-      <c r="DD6" s="59"/>
-      <c r="DE6" s="59"/>
-      <c r="DF6" s="59"/>
-      <c r="DG6" s="59"/>
+      <c r="CJ6" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK6" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL6" s="60"/>
+      <c r="CM6" s="60"/>
+      <c r="CN6" s="60"/>
+      <c r="CO6" s="60"/>
+      <c r="CP6" s="60"/>
+      <c r="CQ6" s="60"/>
+      <c r="CR6" s="60"/>
+      <c r="CS6" s="60"/>
+      <c r="CT6" s="60"/>
+      <c r="CU6" s="60"/>
+      <c r="CV6" s="60"/>
+      <c r="CW6" s="60"/>
+      <c r="CX6" s="60"/>
+      <c r="CY6" s="60"/>
+      <c r="CZ6" s="60"/>
+      <c r="DA6" s="60"/>
+      <c r="DB6" s="60"/>
+      <c r="DC6" s="60"/>
+      <c r="DD6" s="60"/>
+      <c r="DE6" s="60"/>
+      <c r="DF6" s="60"/>
+      <c r="DG6" s="60"/>
       <c r="DH6" s="59"/>
     </row>
     <row r="7" spans="1:112" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4819,30 +4840,34 @@
       <c r="CI7" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="CJ7" s="59"/>
-      <c r="CK7" s="59"/>
-      <c r="CL7" s="59"/>
-      <c r="CM7" s="59"/>
-      <c r="CN7" s="59"/>
-      <c r="CO7" s="59"/>
-      <c r="CP7" s="59"/>
-      <c r="CQ7" s="59"/>
-      <c r="CR7" s="59"/>
-      <c r="CS7" s="59"/>
-      <c r="CT7" s="59"/>
-      <c r="CU7" s="59"/>
-      <c r="CV7" s="59"/>
-      <c r="CW7" s="59"/>
-      <c r="CX7" s="59"/>
-      <c r="CY7" s="59"/>
-      <c r="CZ7" s="59"/>
-      <c r="DA7" s="59"/>
-      <c r="DB7" s="59"/>
-      <c r="DC7" s="59"/>
-      <c r="DD7" s="59"/>
-      <c r="DE7" s="59"/>
-      <c r="DF7" s="59"/>
-      <c r="DG7" s="59"/>
+      <c r="CJ7" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK7" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL7" s="60"/>
+      <c r="CM7" s="60"/>
+      <c r="CN7" s="60"/>
+      <c r="CO7" s="60"/>
+      <c r="CP7" s="60"/>
+      <c r="CQ7" s="60"/>
+      <c r="CR7" s="60"/>
+      <c r="CS7" s="60"/>
+      <c r="CT7" s="60"/>
+      <c r="CU7" s="60"/>
+      <c r="CV7" s="60"/>
+      <c r="CW7" s="60"/>
+      <c r="CX7" s="60"/>
+      <c r="CY7" s="60"/>
+      <c r="CZ7" s="60"/>
+      <c r="DA7" s="60"/>
+      <c r="DB7" s="60"/>
+      <c r="DC7" s="60"/>
+      <c r="DD7" s="60"/>
+      <c r="DE7" s="60"/>
+      <c r="DF7" s="60"/>
+      <c r="DG7" s="60"/>
       <c r="DH7" s="59"/>
     </row>
     <row r="8" spans="1:112" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5053,30 +5078,30 @@
       <c r="CI8" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="CJ8" s="59"/>
-      <c r="CK8" s="59"/>
-      <c r="CL8" s="59"/>
-      <c r="CM8" s="59"/>
-      <c r="CN8" s="59"/>
-      <c r="CO8" s="59"/>
-      <c r="CP8" s="59"/>
-      <c r="CQ8" s="59"/>
-      <c r="CR8" s="59"/>
-      <c r="CS8" s="59"/>
-      <c r="CT8" s="59"/>
-      <c r="CU8" s="59"/>
-      <c r="CV8" s="59"/>
-      <c r="CW8" s="59"/>
-      <c r="CX8" s="59"/>
-      <c r="CY8" s="59"/>
-      <c r="CZ8" s="59"/>
-      <c r="DA8" s="59"/>
-      <c r="DB8" s="59"/>
-      <c r="DC8" s="59"/>
-      <c r="DD8" s="59"/>
-      <c r="DE8" s="59"/>
-      <c r="DF8" s="59"/>
-      <c r="DG8" s="59"/>
+      <c r="CJ8" s="60"/>
+      <c r="CK8" s="60"/>
+      <c r="CL8" s="60"/>
+      <c r="CM8" s="60"/>
+      <c r="CN8" s="60"/>
+      <c r="CO8" s="60"/>
+      <c r="CP8" s="60"/>
+      <c r="CQ8" s="60"/>
+      <c r="CR8" s="60"/>
+      <c r="CS8" s="60"/>
+      <c r="CT8" s="60"/>
+      <c r="CU8" s="60"/>
+      <c r="CV8" s="60"/>
+      <c r="CW8" s="60"/>
+      <c r="CX8" s="60"/>
+      <c r="CY8" s="60"/>
+      <c r="CZ8" s="60"/>
+      <c r="DA8" s="60"/>
+      <c r="DB8" s="60"/>
+      <c r="DC8" s="60"/>
+      <c r="DD8" s="60"/>
+      <c r="DE8" s="60"/>
+      <c r="DF8" s="60"/>
+      <c r="DG8" s="60"/>
       <c r="DH8" s="59"/>
     </row>
     <row r="9" spans="1:112" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5277,30 +5302,34 @@
         <v>0</v>
       </c>
       <c r="CI9" s="59"/>
-      <c r="CJ9" s="59"/>
-      <c r="CK9" s="59"/>
-      <c r="CL9" s="59"/>
-      <c r="CM9" s="59"/>
-      <c r="CN9" s="59"/>
-      <c r="CO9" s="59"/>
-      <c r="CP9" s="59"/>
-      <c r="CQ9" s="59"/>
-      <c r="CR9" s="59"/>
-      <c r="CS9" s="59"/>
-      <c r="CT9" s="59"/>
-      <c r="CU9" s="59"/>
-      <c r="CV9" s="59"/>
-      <c r="CW9" s="59"/>
-      <c r="CX9" s="59"/>
-      <c r="CY9" s="59"/>
-      <c r="CZ9" s="59"/>
-      <c r="DA9" s="59"/>
-      <c r="DB9" s="59"/>
-      <c r="DC9" s="59"/>
-      <c r="DD9" s="59"/>
-      <c r="DE9" s="59"/>
-      <c r="DF9" s="59"/>
-      <c r="DG9" s="59"/>
+      <c r="CJ9" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK9" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL9" s="60"/>
+      <c r="CM9" s="60"/>
+      <c r="CN9" s="60"/>
+      <c r="CO9" s="60"/>
+      <c r="CP9" s="60"/>
+      <c r="CQ9" s="60"/>
+      <c r="CR9" s="60"/>
+      <c r="CS9" s="60"/>
+      <c r="CT9" s="60"/>
+      <c r="CU9" s="60"/>
+      <c r="CV9" s="60"/>
+      <c r="CW9" s="60"/>
+      <c r="CX9" s="60"/>
+      <c r="CY9" s="60"/>
+      <c r="CZ9" s="60"/>
+      <c r="DA9" s="60"/>
+      <c r="DB9" s="60"/>
+      <c r="DC9" s="60"/>
+      <c r="DD9" s="60"/>
+      <c r="DE9" s="60"/>
+      <c r="DF9" s="60"/>
+      <c r="DG9" s="60"/>
       <c r="DH9" s="59"/>
     </row>
     <row r="10" spans="1:112" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5505,30 +5534,34 @@
       <c r="CI10" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="CJ10" s="59"/>
-      <c r="CK10" s="59"/>
-      <c r="CL10" s="59"/>
-      <c r="CM10" s="59"/>
-      <c r="CN10" s="59"/>
-      <c r="CO10" s="59"/>
-      <c r="CP10" s="59"/>
-      <c r="CQ10" s="59"/>
-      <c r="CR10" s="59"/>
-      <c r="CS10" s="59"/>
-      <c r="CT10" s="59"/>
-      <c r="CU10" s="59"/>
-      <c r="CV10" s="59"/>
-      <c r="CW10" s="59"/>
-      <c r="CX10" s="59"/>
-      <c r="CY10" s="59"/>
-      <c r="CZ10" s="59"/>
-      <c r="DA10" s="59"/>
-      <c r="DB10" s="59"/>
-      <c r="DC10" s="59"/>
-      <c r="DD10" s="59"/>
-      <c r="DE10" s="59"/>
-      <c r="DF10" s="59"/>
-      <c r="DG10" s="59"/>
+      <c r="CJ10" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK10" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL10" s="60"/>
+      <c r="CM10" s="60"/>
+      <c r="CN10" s="60"/>
+      <c r="CO10" s="60"/>
+      <c r="CP10" s="60"/>
+      <c r="CQ10" s="60"/>
+      <c r="CR10" s="60"/>
+      <c r="CS10" s="60"/>
+      <c r="CT10" s="60"/>
+      <c r="CU10" s="60"/>
+      <c r="CV10" s="60"/>
+      <c r="CW10" s="60"/>
+      <c r="CX10" s="60"/>
+      <c r="CY10" s="60"/>
+      <c r="CZ10" s="60"/>
+      <c r="DA10" s="60"/>
+      <c r="DB10" s="60"/>
+      <c r="DC10" s="60"/>
+      <c r="DD10" s="60"/>
+      <c r="DE10" s="60"/>
+      <c r="DF10" s="60"/>
+      <c r="DG10" s="60"/>
       <c r="DH10" s="59"/>
     </row>
     <row r="11" spans="1:112" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5711,30 +5744,34 @@
         <v>0</v>
       </c>
       <c r="CI11" s="59"/>
-      <c r="CJ11" s="59"/>
-      <c r="CK11" s="59"/>
-      <c r="CL11" s="59"/>
-      <c r="CM11" s="59"/>
-      <c r="CN11" s="59"/>
-      <c r="CO11" s="59"/>
-      <c r="CP11" s="59"/>
-      <c r="CQ11" s="59"/>
-      <c r="CR11" s="59"/>
-      <c r="CS11" s="59"/>
-      <c r="CT11" s="59"/>
-      <c r="CU11" s="59"/>
-      <c r="CV11" s="59"/>
-      <c r="CW11" s="59"/>
-      <c r="CX11" s="59"/>
-      <c r="CY11" s="59"/>
-      <c r="CZ11" s="59"/>
-      <c r="DA11" s="59"/>
-      <c r="DB11" s="59"/>
-      <c r="DC11" s="59"/>
-      <c r="DD11" s="59"/>
-      <c r="DE11" s="59"/>
-      <c r="DF11" s="59"/>
-      <c r="DG11" s="59"/>
+      <c r="CJ11" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK11" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL11" s="60"/>
+      <c r="CM11" s="60"/>
+      <c r="CN11" s="60"/>
+      <c r="CO11" s="60"/>
+      <c r="CP11" s="60"/>
+      <c r="CQ11" s="60"/>
+      <c r="CR11" s="60"/>
+      <c r="CS11" s="60"/>
+      <c r="CT11" s="60"/>
+      <c r="CU11" s="60"/>
+      <c r="CV11" s="60"/>
+      <c r="CW11" s="60"/>
+      <c r="CX11" s="60"/>
+      <c r="CY11" s="60"/>
+      <c r="CZ11" s="60"/>
+      <c r="DA11" s="60"/>
+      <c r="DB11" s="60"/>
+      <c r="DC11" s="60"/>
+      <c r="DD11" s="60"/>
+      <c r="DE11" s="60"/>
+      <c r="DF11" s="60"/>
+      <c r="DG11" s="60"/>
       <c r="DH11" s="59"/>
     </row>
     <row r="12" spans="1:112" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5939,46 +5976,43 @@
         <v>0</v>
       </c>
       <c r="CI12" s="59"/>
-      <c r="CJ12" s="59"/>
-      <c r="CK12" s="59"/>
-      <c r="CL12" s="59"/>
-      <c r="CM12" s="59"/>
-      <c r="CN12" s="59"/>
-      <c r="CO12" s="59"/>
-      <c r="CP12" s="59"/>
-      <c r="CQ12" s="59"/>
-      <c r="CR12" s="59"/>
-      <c r="CS12" s="59"/>
-      <c r="CT12" s="59"/>
-      <c r="CU12" s="59"/>
-      <c r="CV12" s="59"/>
-      <c r="CW12" s="59"/>
-      <c r="CX12" s="59"/>
-      <c r="CY12" s="59"/>
-      <c r="CZ12" s="59"/>
-      <c r="DA12" s="59"/>
-      <c r="DB12" s="59"/>
-      <c r="DC12" s="59"/>
-      <c r="DD12" s="59"/>
-      <c r="DE12" s="59"/>
-      <c r="DF12" s="59"/>
-      <c r="DG12" s="59"/>
+      <c r="CJ12" s="60"/>
+      <c r="CK12" s="60"/>
+      <c r="CL12" s="60"/>
+      <c r="CM12" s="60"/>
+      <c r="CN12" s="60"/>
+      <c r="CO12" s="60"/>
+      <c r="CP12" s="60"/>
+      <c r="CQ12" s="60"/>
+      <c r="CR12" s="60"/>
+      <c r="CS12" s="60"/>
+      <c r="CT12" s="60"/>
+      <c r="CU12" s="60"/>
+      <c r="CV12" s="60"/>
+      <c r="CW12" s="60"/>
+      <c r="CX12" s="60"/>
+      <c r="CY12" s="60"/>
+      <c r="CZ12" s="60"/>
+      <c r="DA12" s="60"/>
+      <c r="DB12" s="60"/>
+      <c r="DC12" s="60"/>
+      <c r="DD12" s="60"/>
+      <c r="DE12" s="60"/>
+      <c r="DF12" s="60"/>
+      <c r="DG12" s="60"/>
       <c r="DH12" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BK3"/>
-    <mergeCell ref="AQ3:AS3"/>
-    <mergeCell ref="AT3:AV3"/>
-    <mergeCell ref="AW3:AY3"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AK3:AM3"/>
-    <mergeCell ref="AN3:AP3"/>
+  <mergeCells count="32">
+    <mergeCell ref="CJ3:CL3"/>
+    <mergeCell ref="CG3:CI3"/>
+    <mergeCell ref="CA3:CC3"/>
+    <mergeCell ref="CD3:CF3"/>
+    <mergeCell ref="BL3:BN3"/>
+    <mergeCell ref="BO3:BQ3"/>
+    <mergeCell ref="BR3:BT3"/>
+    <mergeCell ref="BU3:BW3"/>
+    <mergeCell ref="BX3:BZ3"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="A3:A4"/>
@@ -5990,14 +6024,18 @@
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:U3"/>
-    <mergeCell ref="CG3:CI3"/>
-    <mergeCell ref="CA3:CC3"/>
-    <mergeCell ref="CD3:CF3"/>
-    <mergeCell ref="BL3:BN3"/>
-    <mergeCell ref="BO3:BQ3"/>
-    <mergeCell ref="BR3:BT3"/>
-    <mergeCell ref="BU3:BW3"/>
-    <mergeCell ref="BX3:BZ3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="AN3:AP3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BK3"/>
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="AT3:AV3"/>
+    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="BC3:BE3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6038,30 +6076,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="61" t="s">
+      <c r="G2" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="62" t="s">
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="60" t="s">
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="60" t="s">
+      <c r="O2" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="60" t="s">
+      <c r="P2" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="60" t="s">
+      <c r="Q2" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="60" t="s">
+      <c r="R2" s="61" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6105,11 +6143,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -6367,8 +6405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AB10" sqref="AB10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AG8" sqref="AG8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6391,10 +6429,10 @@
       </c>
     </row>
     <row r="3" spans="1:55" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="73" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="34" t="s">
@@ -6409,44 +6447,46 @@
       <c r="F3" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="73" t="s">
+      <c r="G3" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="69" t="s">
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="K3" s="70"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="69" t="s">
+      <c r="K3" s="71"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="N3" s="70"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="69" t="s">
+      <c r="N3" s="71"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="70" t="s">
         <v>131</v>
       </c>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="69" t="s">
+      <c r="Q3" s="71"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="T3" s="70"/>
-      <c r="U3" s="71"/>
-      <c r="V3" s="69" t="s">
+      <c r="T3" s="71"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="70" t="s">
         <v>137</v>
       </c>
-      <c r="W3" s="70"/>
-      <c r="X3" s="71"/>
-      <c r="Y3" s="69" t="s">
+      <c r="W3" s="71"/>
+      <c r="X3" s="72"/>
+      <c r="Y3" s="70" t="s">
         <v>140</v>
       </c>
-      <c r="Z3" s="70"/>
-      <c r="AA3" s="71"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
+      <c r="Z3" s="71"/>
+      <c r="AA3" s="72"/>
+      <c r="AB3" s="70" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC3" s="71"/>
+      <c r="AD3" s="72"/>
       <c r="AE3" s="54"/>
       <c r="AF3" s="54"/>
       <c r="AG3" s="54"/>
@@ -6474,8 +6514,8 @@
       <c r="BC3" s="54"/>
     </row>
     <row r="4" spans="1:55" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72"/>
-      <c r="B4" s="72"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
@@ -6543,9 +6583,15 @@
       <c r="AA4" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
+      <c r="AB4" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC4" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD4" s="60" t="s">
+        <v>64</v>
+      </c>
       <c r="AE4" s="54"/>
       <c r="AF4" s="54"/>
       <c r="AG4" s="54"/>
@@ -6626,9 +6672,15 @@
       <c r="AA5" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="AB5" s="54"/>
-      <c r="AC5" s="54"/>
-      <c r="AD5" s="54"/>
+      <c r="AB5" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="60" t="s">
+        <v>0</v>
+      </c>
       <c r="AE5" s="54"/>
       <c r="AF5" s="54"/>
       <c r="AG5" s="54"/>
@@ -6703,8 +6755,12 @@
       <c r="AA6" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="AB6" s="54"/>
-      <c r="AC6" s="54"/>
+      <c r="AB6" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="60" t="s">
+        <v>0</v>
+      </c>
       <c r="AD6" s="54"/>
       <c r="AE6" s="54"/>
       <c r="AF6" s="54"/>
@@ -6800,8 +6856,12 @@
       <c r="AA7" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="AB7" s="54"/>
-      <c r="AC7" s="54"/>
+      <c r="AB7" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="60" t="s">
+        <v>0</v>
+      </c>
       <c r="AD7" s="54"/>
       <c r="AE7" s="54"/>
       <c r="AF7" s="54"/>
@@ -6897,9 +6957,15 @@
       <c r="AA8" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="AB8" s="54"/>
-      <c r="AC8" s="54"/>
-      <c r="AD8" s="54"/>
+      <c r="AB8" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="60" t="s">
+        <v>0</v>
+      </c>
       <c r="AE8" s="54"/>
       <c r="AF8" s="54"/>
       <c r="AG8" s="54"/>
@@ -6988,8 +7054,12 @@
         <v>0</v>
       </c>
       <c r="AA9" s="54"/>
-      <c r="AB9" s="54"/>
-      <c r="AC9" s="54"/>
+      <c r="AB9" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="60" t="s">
+        <v>0</v>
+      </c>
       <c r="AD9" s="54"/>
       <c r="AE9" s="54"/>
       <c r="AF9" s="54"/>
@@ -7093,9 +7163,15 @@
         <v>0</v>
       </c>
       <c r="AA10" s="54"/>
-      <c r="AB10" s="54"/>
-      <c r="AC10" s="54"/>
-      <c r="AD10" s="54"/>
+      <c r="AB10" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="60" t="s">
+        <v>0</v>
+      </c>
       <c r="AE10" s="54"/>
       <c r="AF10" s="54"/>
       <c r="AG10" s="54"/>
@@ -7275,7 +7351,8 @@
       <c r="S18" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="AB3:AD3"/>
     <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="P3:R3"/>
@@ -7325,30 +7402,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="61" t="s">
+      <c r="G2" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="62" t="s">
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="60" t="s">
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="60" t="s">
+      <c r="O2" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="60" t="s">
+      <c r="P2" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="60" t="s">
+      <c r="Q2" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="60" t="s">
+      <c r="R2" s="61" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7392,11 +7469,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -7737,7 +7814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="V5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="BA9" sqref="BA9"/>
       <selection pane="topRight" activeCell="BA9" sqref="BA9"/>
@@ -7764,10 +7841,10 @@
       </c>
     </row>
     <row r="3" spans="1:51" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="73" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="41" t="s">
@@ -7782,44 +7859,44 @@
       <c r="F3" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="G3" s="73" t="s">
+      <c r="G3" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="69" t="s">
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="K3" s="70"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="69" t="s">
+      <c r="K3" s="71"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="N3" s="70"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="69" t="s">
+      <c r="N3" s="71"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="70" t="s">
         <v>132</v>
       </c>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="69" t="s">
+      <c r="Q3" s="71"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="T3" s="70"/>
-      <c r="U3" s="71"/>
-      <c r="V3" s="69" t="s">
+      <c r="T3" s="71"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="W3" s="70"/>
-      <c r="X3" s="71"/>
-      <c r="Y3" s="69" t="s">
+      <c r="W3" s="71"/>
+      <c r="X3" s="72"/>
+      <c r="Y3" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="Z3" s="70"/>
-      <c r="AA3" s="71"/>
-      <c r="AB3" s="69"/>
-      <c r="AC3" s="70"/>
-      <c r="AD3" s="71"/>
+      <c r="Z3" s="71"/>
+      <c r="AA3" s="72"/>
+      <c r="AB3" s="70"/>
+      <c r="AC3" s="71"/>
+      <c r="AD3" s="72"/>
       <c r="AE3" s="35"/>
       <c r="AF3" s="35"/>
       <c r="AG3" s="35"/>
@@ -7843,8 +7920,8 @@
       <c r="AY3" s="35"/>
     </row>
     <row r="4" spans="1:51" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72"/>
-      <c r="B4" s="72"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
@@ -8850,16 +8927,16 @@
     <row r="20" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
     <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="AB3:AD3"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="S3:U3"/>
     <mergeCell ref="P3:R3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TOEIC 300-500 K1" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="145">
   <si>
     <t>x</t>
   </si>
@@ -454,6 +454,9 @@
   </si>
   <si>
     <t>17/5-Lesson 8</t>
+  </si>
+  <si>
+    <t>19/5-Lesson 9</t>
   </si>
 </sst>
 </file>
@@ -720,7 +723,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -870,6 +873,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -882,10 +888,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -897,13 +906,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1256,30 +1262,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="62" t="s">
+      <c r="G2" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63" t="s">
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="61" t="s">
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="61" t="s">
+      <c r="O2" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="61" t="s">
+      <c r="P2" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="61" t="s">
+      <c r="Q2" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="61" t="s">
+      <c r="R2" s="62" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1323,11 +1329,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -1580,30 +1586,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="62" t="s">
+      <c r="G2" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63" t="s">
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="61" t="s">
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="61" t="s">
+      <c r="O2" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="61" t="s">
+      <c r="P2" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="61" t="s">
+      <c r="Q2" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="64" t="s">
+      <c r="R2" s="65" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1647,11 +1653,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="64"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="65"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -2626,30 +2632,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="62" t="s">
+      <c r="G2" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63" t="s">
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="61" t="s">
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="61" t="s">
+      <c r="O2" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="61" t="s">
+      <c r="P2" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="61" t="s">
+      <c r="Q2" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="61" t="s">
+      <c r="R2" s="62" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2693,11 +2699,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -3007,30 +3013,30 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I2" s="62" t="s">
+      <c r="I2" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="63" t="s">
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="61" t="s">
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="61" t="s">
+      <c r="Q2" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="61" t="s">
+      <c r="R2" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="61" t="s">
+      <c r="S2" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="61" t="s">
+      <c r="T2" s="62" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3080,11 +3086,11 @@
       <c r="O3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
     </row>
     <row r="4" spans="1:20" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -3725,160 +3731,160 @@
       </c>
     </row>
     <row r="3" spans="1:112" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65" t="s">
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65" t="s">
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65" t="s">
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65" t="s">
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65" t="s">
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65" t="s">
+      <c r="T3" s="72"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65" t="s">
+      <c r="W3" s="72"/>
+      <c r="X3" s="72"/>
+      <c r="Y3" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65" t="s">
+      <c r="Z3" s="72"/>
+      <c r="AA3" s="72"/>
+      <c r="AB3" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65" t="s">
+      <c r="AC3" s="72"/>
+      <c r="AD3" s="72"/>
+      <c r="AE3" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65" t="s">
+      <c r="AF3" s="72"/>
+      <c r="AG3" s="72"/>
+      <c r="AH3" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65" t="s">
+      <c r="AI3" s="72"/>
+      <c r="AJ3" s="72"/>
+      <c r="AK3" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65" t="s">
+      <c r="AL3" s="72"/>
+      <c r="AM3" s="72"/>
+      <c r="AN3" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="65"/>
-      <c r="AQ3" s="65" t="s">
+      <c r="AO3" s="72"/>
+      <c r="AP3" s="72"/>
+      <c r="AQ3" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="AR3" s="65"/>
-      <c r="AS3" s="65"/>
-      <c r="AT3" s="65" t="s">
+      <c r="AR3" s="72"/>
+      <c r="AS3" s="72"/>
+      <c r="AT3" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="AU3" s="65"/>
-      <c r="AV3" s="65"/>
-      <c r="AW3" s="65" t="s">
+      <c r="AU3" s="72"/>
+      <c r="AV3" s="72"/>
+      <c r="AW3" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="AX3" s="65"/>
-      <c r="AY3" s="65"/>
-      <c r="AZ3" s="65" t="s">
+      <c r="AX3" s="72"/>
+      <c r="AY3" s="72"/>
+      <c r="AZ3" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="BA3" s="65"/>
-      <c r="BB3" s="65"/>
-      <c r="BC3" s="65" t="s">
+      <c r="BA3" s="72"/>
+      <c r="BB3" s="72"/>
+      <c r="BC3" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="BD3" s="65"/>
-      <c r="BE3" s="65"/>
-      <c r="BF3" s="65" t="s">
+      <c r="BD3" s="72"/>
+      <c r="BE3" s="72"/>
+      <c r="BF3" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="BG3" s="65"/>
-      <c r="BH3" s="65"/>
-      <c r="BI3" s="65" t="s">
+      <c r="BG3" s="72"/>
+      <c r="BH3" s="72"/>
+      <c r="BI3" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="BJ3" s="65"/>
-      <c r="BK3" s="65"/>
-      <c r="BL3" s="65" t="s">
+      <c r="BJ3" s="72"/>
+      <c r="BK3" s="72"/>
+      <c r="BL3" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="BM3" s="65"/>
-      <c r="BN3" s="65"/>
-      <c r="BO3" s="65" t="s">
+      <c r="BM3" s="72"/>
+      <c r="BN3" s="72"/>
+      <c r="BO3" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="BP3" s="65"/>
-      <c r="BQ3" s="65"/>
-      <c r="BR3" s="65" t="s">
+      <c r="BP3" s="72"/>
+      <c r="BQ3" s="72"/>
+      <c r="BR3" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="BS3" s="65"/>
-      <c r="BT3" s="65"/>
-      <c r="BU3" s="67" t="s">
+      <c r="BS3" s="72"/>
+      <c r="BT3" s="72"/>
+      <c r="BU3" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="BV3" s="68"/>
-      <c r="BW3" s="69"/>
-      <c r="BX3" s="67" t="s">
+      <c r="BV3" s="70"/>
+      <c r="BW3" s="71"/>
+      <c r="BX3" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="BY3" s="68"/>
-      <c r="BZ3" s="69"/>
-      <c r="CA3" s="67" t="s">
+      <c r="BY3" s="70"/>
+      <c r="BZ3" s="71"/>
+      <c r="CA3" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="CB3" s="68"/>
-      <c r="CC3" s="69"/>
-      <c r="CD3" s="67" t="s">
+      <c r="CB3" s="70"/>
+      <c r="CC3" s="71"/>
+      <c r="CD3" s="69" t="s">
         <v>138</v>
       </c>
-      <c r="CE3" s="68"/>
-      <c r="CF3" s="69"/>
-      <c r="CG3" s="67" t="s">
+      <c r="CE3" s="70"/>
+      <c r="CF3" s="71"/>
+      <c r="CG3" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="CH3" s="68"/>
-      <c r="CI3" s="69"/>
-      <c r="CJ3" s="70" t="s">
+      <c r="CH3" s="70"/>
+      <c r="CI3" s="71"/>
+      <c r="CJ3" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="CK3" s="71"/>
-      <c r="CL3" s="72"/>
+      <c r="CK3" s="67"/>
+      <c r="CL3" s="68"/>
       <c r="CM3" s="35"/>
       <c r="CN3" s="35"/>
       <c r="CO3" s="35"/>
@@ -3903,9 +3909,9 @@
       <c r="DH3" s="58"/>
     </row>
     <row r="4" spans="1:112" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="66"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
       <c r="D4" s="34" t="s">
         <v>66</v>
       </c>
@@ -6004,15 +6010,18 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="CJ3:CL3"/>
-    <mergeCell ref="CG3:CI3"/>
-    <mergeCell ref="CA3:CC3"/>
-    <mergeCell ref="CD3:CF3"/>
-    <mergeCell ref="BL3:BN3"/>
-    <mergeCell ref="BO3:BQ3"/>
-    <mergeCell ref="BR3:BT3"/>
-    <mergeCell ref="BU3:BW3"/>
-    <mergeCell ref="BX3:BZ3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BK3"/>
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="AT3:AV3"/>
+    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="AN3:AP3"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="A3:A4"/>
@@ -6024,18 +6033,15 @@
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:U3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AK3:AM3"/>
-    <mergeCell ref="AN3:AP3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BK3"/>
-    <mergeCell ref="AQ3:AS3"/>
-    <mergeCell ref="AT3:AV3"/>
-    <mergeCell ref="AW3:AY3"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="CJ3:CL3"/>
+    <mergeCell ref="CG3:CI3"/>
+    <mergeCell ref="CA3:CC3"/>
+    <mergeCell ref="CD3:CF3"/>
+    <mergeCell ref="BL3:BN3"/>
+    <mergeCell ref="BO3:BQ3"/>
+    <mergeCell ref="BR3:BT3"/>
+    <mergeCell ref="BU3:BW3"/>
+    <mergeCell ref="BX3:BZ3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6076,30 +6082,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="62" t="s">
+      <c r="G2" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63" t="s">
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="61" t="s">
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="61" t="s">
+      <c r="O2" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="61" t="s">
+      <c r="P2" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="61" t="s">
+      <c r="Q2" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="61" t="s">
+      <c r="R2" s="62" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6143,11 +6149,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -6406,7 +6412,7 @@
   <dimension ref="A1:BC18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG8" sqref="AG8"/>
+      <selection activeCell="AI6" sqref="AI6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6429,10 +6435,10 @@
       </c>
     </row>
     <row r="3" spans="1:55" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="74" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="34" t="s">
@@ -6447,49 +6453,51 @@
       <c r="F3" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="74" t="s">
+      <c r="G3" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="70" t="s">
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="K3" s="71"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="70" t="s">
+      <c r="K3" s="67"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="N3" s="71"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="70" t="s">
+      <c r="N3" s="67"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="66" t="s">
         <v>131</v>
       </c>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="70" t="s">
+      <c r="Q3" s="67"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="T3" s="71"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="70" t="s">
+      <c r="T3" s="67"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="W3" s="71"/>
-      <c r="X3" s="72"/>
-      <c r="Y3" s="70" t="s">
+      <c r="W3" s="67"/>
+      <c r="X3" s="68"/>
+      <c r="Y3" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="Z3" s="71"/>
-      <c r="AA3" s="72"/>
-      <c r="AB3" s="70" t="s">
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="68"/>
+      <c r="AB3" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="AC3" s="71"/>
-      <c r="AD3" s="72"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
+      <c r="AC3" s="67"/>
+      <c r="AD3" s="68"/>
+      <c r="AE3" s="66" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF3" s="67"/>
+      <c r="AG3" s="68"/>
       <c r="AH3" s="54"/>
       <c r="AI3" s="54"/>
       <c r="AJ3" s="54"/>
@@ -6514,8 +6522,8 @@
       <c r="BC3" s="54"/>
     </row>
     <row r="4" spans="1:55" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73"/>
-      <c r="B4" s="73"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
@@ -6592,9 +6600,15 @@
       <c r="AD4" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
+      <c r="AE4" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF4" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="AG4" s="61" t="s">
+        <v>64</v>
+      </c>
       <c r="AH4" s="54"/>
       <c r="AI4" s="54"/>
       <c r="AJ4" s="54"/>
@@ -6681,8 +6695,12 @@
       <c r="AD5" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="AE5" s="54"/>
-      <c r="AF5" s="54"/>
+      <c r="AE5" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="61" t="s">
+        <v>0</v>
+      </c>
       <c r="AG5" s="54"/>
       <c r="AH5" s="54"/>
       <c r="AI5" s="54"/>
@@ -6762,8 +6780,12 @@
         <v>0</v>
       </c>
       <c r="AD6" s="54"/>
-      <c r="AE6" s="54"/>
-      <c r="AF6" s="54"/>
+      <c r="AE6" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="61" t="s">
+        <v>0</v>
+      </c>
       <c r="AG6" s="54"/>
       <c r="AH6" s="54"/>
       <c r="AI6" s="54"/>
@@ -6863,9 +6885,15 @@
         <v>0</v>
       </c>
       <c r="AD7" s="54"/>
-      <c r="AE7" s="54"/>
-      <c r="AF7" s="54"/>
-      <c r="AG7" s="54"/>
+      <c r="AE7" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="61" t="s">
+        <v>0</v>
+      </c>
       <c r="AH7" s="54"/>
       <c r="AI7" s="54"/>
       <c r="AJ7" s="54"/>
@@ -6966,9 +6994,15 @@
       <c r="AD8" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="AE8" s="54"/>
-      <c r="AF8" s="54"/>
-      <c r="AG8" s="54"/>
+      <c r="AE8" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="61" t="s">
+        <v>0</v>
+      </c>
       <c r="AH8" s="54"/>
       <c r="AI8" s="54"/>
       <c r="AJ8" s="54"/>
@@ -7061,8 +7095,12 @@
         <v>0</v>
       </c>
       <c r="AD9" s="54"/>
-      <c r="AE9" s="54"/>
-      <c r="AF9" s="54"/>
+      <c r="AE9" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="61" t="s">
+        <v>0</v>
+      </c>
       <c r="AG9" s="54"/>
       <c r="AH9" s="54"/>
       <c r="AI9" s="54"/>
@@ -7172,9 +7210,15 @@
       <c r="AD10" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="AE10" s="54"/>
-      <c r="AF10" s="54"/>
-      <c r="AG10" s="54"/>
+      <c r="AE10" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="61" t="s">
+        <v>0</v>
+      </c>
       <c r="AH10" s="54"/>
       <c r="AI10" s="54"/>
       <c r="AJ10" s="54"/>
@@ -7351,17 +7395,18 @@
       <c r="S18" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
     <mergeCell ref="AB3:AD3"/>
     <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:U3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7402,30 +7447,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="62" t="s">
+      <c r="G2" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63" t="s">
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="61" t="s">
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="61" t="s">
+      <c r="O2" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="61" t="s">
+      <c r="P2" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="61" t="s">
+      <c r="Q2" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="61" t="s">
+      <c r="R2" s="62" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7469,11 +7514,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -7841,10 +7886,10 @@
       </c>
     </row>
     <row r="3" spans="1:51" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="74" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="41" t="s">
@@ -7859,44 +7904,44 @@
       <c r="F3" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="G3" s="74" t="s">
+      <c r="G3" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="70" t="s">
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="K3" s="71"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="70" t="s">
+      <c r="K3" s="67"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="N3" s="71"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="70" t="s">
+      <c r="N3" s="67"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="66" t="s">
         <v>132</v>
       </c>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="70" t="s">
+      <c r="Q3" s="67"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="T3" s="71"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="70" t="s">
+      <c r="T3" s="67"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="W3" s="71"/>
-      <c r="X3" s="72"/>
-      <c r="Y3" s="70" t="s">
+      <c r="W3" s="67"/>
+      <c r="X3" s="68"/>
+      <c r="Y3" s="66" t="s">
         <v>141</v>
       </c>
-      <c r="Z3" s="71"/>
-      <c r="AA3" s="72"/>
-      <c r="AB3" s="70"/>
-      <c r="AC3" s="71"/>
-      <c r="AD3" s="72"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="68"/>
+      <c r="AB3" s="66"/>
+      <c r="AC3" s="67"/>
+      <c r="AD3" s="68"/>
       <c r="AE3" s="35"/>
       <c r="AF3" s="35"/>
       <c r="AG3" s="35"/>
@@ -7920,8 +7965,8 @@
       <c r="AY3" s="35"/>
     </row>
     <row r="4" spans="1:51" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73"/>
-      <c r="B4" s="73"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
@@ -8927,16 +8972,16 @@
     <row r="20" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="P3:R3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="M3:O3"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="P3:R3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TOEIC 300-500 K1" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="147">
   <si>
     <t>x</t>
   </si>
@@ -457,6 +457,12 @@
   </si>
   <si>
     <t>19/5-Lesson 9</t>
+  </si>
+  <si>
+    <t>20/5-Lesson 8</t>
+  </si>
+  <si>
+    <t>22/5-Lesson 29</t>
   </si>
 </sst>
 </file>
@@ -723,7 +729,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -870,6 +876,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1262,30 +1274,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="63" t="s">
+      <c r="G2" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="64" t="s">
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="62" t="s">
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="62" t="s">
+      <c r="O2" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="62" t="s">
+      <c r="P2" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="62" t="s">
+      <c r="Q2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="62" t="s">
+      <c r="R2" s="64" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1329,11 +1341,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -1586,30 +1598,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="63" t="s">
+      <c r="G2" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="64" t="s">
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="62" t="s">
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="62" t="s">
+      <c r="O2" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="62" t="s">
+      <c r="P2" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="62" t="s">
+      <c r="Q2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="65" t="s">
+      <c r="R2" s="67" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1653,11 +1665,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="65"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="67"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -2632,30 +2644,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="63" t="s">
+      <c r="G2" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="64" t="s">
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="62" t="s">
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="62" t="s">
+      <c r="O2" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="62" t="s">
+      <c r="P2" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="62" t="s">
+      <c r="Q2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="62" t="s">
+      <c r="R2" s="64" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2699,11 +2711,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -3013,30 +3025,30 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I2" s="63" t="s">
+      <c r="I2" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="64" t="s">
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="62" t="s">
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="62" t="s">
+      <c r="Q2" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="62" t="s">
+      <c r="R2" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="62" t="s">
+      <c r="S2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="62" t="s">
+      <c r="T2" s="64" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3086,11 +3098,11 @@
       <c r="O3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
     </row>
     <row r="4" spans="1:20" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -3691,8 +3703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DH12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="CL11" sqref="CL11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="CR8" sqref="CR8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3717,7 +3729,7 @@
     <col min="64" max="78" width="5.5703125" hidden="1" customWidth="1"/>
     <col min="79" max="85" width="5.5703125" customWidth="1"/>
     <col min="86" max="86" width="6.140625" customWidth="1"/>
-    <col min="87" max="87" width="6.28515625" customWidth="1"/>
+    <col min="87" max="87" width="5.42578125" customWidth="1"/>
     <col min="88" max="103" width="5.140625" customWidth="1"/>
     <col min="104" max="121" width="5.28515625" customWidth="1"/>
   </cols>
@@ -3731,163 +3743,165 @@
       </c>
     </row>
     <row r="3" spans="1:112" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72" t="s">
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72" t="s">
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72" t="s">
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72" t="s">
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72" t="s">
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="T3" s="72"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="72" t="s">
+      <c r="T3" s="74"/>
+      <c r="U3" s="74"/>
+      <c r="V3" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="W3" s="72"/>
-      <c r="X3" s="72"/>
-      <c r="Y3" s="72" t="s">
+      <c r="W3" s="74"/>
+      <c r="X3" s="74"/>
+      <c r="Y3" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="Z3" s="72"/>
-      <c r="AA3" s="72"/>
-      <c r="AB3" s="72" t="s">
+      <c r="Z3" s="74"/>
+      <c r="AA3" s="74"/>
+      <c r="AB3" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="AC3" s="72"/>
-      <c r="AD3" s="72"/>
-      <c r="AE3" s="72" t="s">
+      <c r="AC3" s="74"/>
+      <c r="AD3" s="74"/>
+      <c r="AE3" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="AF3" s="72"/>
-      <c r="AG3" s="72"/>
-      <c r="AH3" s="72" t="s">
+      <c r="AF3" s="74"/>
+      <c r="AG3" s="74"/>
+      <c r="AH3" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="AI3" s="72"/>
-      <c r="AJ3" s="72"/>
-      <c r="AK3" s="72" t="s">
+      <c r="AI3" s="74"/>
+      <c r="AJ3" s="74"/>
+      <c r="AK3" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="AL3" s="72"/>
-      <c r="AM3" s="72"/>
-      <c r="AN3" s="72" t="s">
+      <c r="AL3" s="74"/>
+      <c r="AM3" s="74"/>
+      <c r="AN3" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="AO3" s="72"/>
-      <c r="AP3" s="72"/>
-      <c r="AQ3" s="72" t="s">
+      <c r="AO3" s="74"/>
+      <c r="AP3" s="74"/>
+      <c r="AQ3" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="AR3" s="72"/>
-      <c r="AS3" s="72"/>
-      <c r="AT3" s="72" t="s">
+      <c r="AR3" s="74"/>
+      <c r="AS3" s="74"/>
+      <c r="AT3" s="74" t="s">
         <v>84</v>
       </c>
-      <c r="AU3" s="72"/>
-      <c r="AV3" s="72"/>
-      <c r="AW3" s="72" t="s">
+      <c r="AU3" s="74"/>
+      <c r="AV3" s="74"/>
+      <c r="AW3" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="AX3" s="72"/>
-      <c r="AY3" s="72"/>
-      <c r="AZ3" s="72" t="s">
+      <c r="AX3" s="74"/>
+      <c r="AY3" s="74"/>
+      <c r="AZ3" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="BA3" s="72"/>
-      <c r="BB3" s="72"/>
-      <c r="BC3" s="72" t="s">
+      <c r="BA3" s="74"/>
+      <c r="BB3" s="74"/>
+      <c r="BC3" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="BD3" s="72"/>
-      <c r="BE3" s="72"/>
-      <c r="BF3" s="72" t="s">
+      <c r="BD3" s="74"/>
+      <c r="BE3" s="74"/>
+      <c r="BF3" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="BG3" s="72"/>
-      <c r="BH3" s="72"/>
-      <c r="BI3" s="72" t="s">
+      <c r="BG3" s="74"/>
+      <c r="BH3" s="74"/>
+      <c r="BI3" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="BJ3" s="72"/>
-      <c r="BK3" s="72"/>
-      <c r="BL3" s="72" t="s">
+      <c r="BJ3" s="74"/>
+      <c r="BK3" s="74"/>
+      <c r="BL3" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="BM3" s="72"/>
-      <c r="BN3" s="72"/>
-      <c r="BO3" s="72" t="s">
+      <c r="BM3" s="74"/>
+      <c r="BN3" s="74"/>
+      <c r="BO3" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="BP3" s="72"/>
-      <c r="BQ3" s="72"/>
-      <c r="BR3" s="72" t="s">
+      <c r="BP3" s="74"/>
+      <c r="BQ3" s="74"/>
+      <c r="BR3" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="BS3" s="72"/>
-      <c r="BT3" s="72"/>
-      <c r="BU3" s="69" t="s">
+      <c r="BS3" s="74"/>
+      <c r="BT3" s="74"/>
+      <c r="BU3" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="BV3" s="70"/>
-      <c r="BW3" s="71"/>
-      <c r="BX3" s="69" t="s">
+      <c r="BV3" s="72"/>
+      <c r="BW3" s="73"/>
+      <c r="BX3" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="BY3" s="70"/>
-      <c r="BZ3" s="71"/>
-      <c r="CA3" s="69" t="s">
+      <c r="BY3" s="72"/>
+      <c r="BZ3" s="73"/>
+      <c r="CA3" s="71" t="s">
         <v>133</v>
       </c>
-      <c r="CB3" s="70"/>
-      <c r="CC3" s="71"/>
-      <c r="CD3" s="69" t="s">
+      <c r="CB3" s="72"/>
+      <c r="CC3" s="73"/>
+      <c r="CD3" s="71" t="s">
         <v>138</v>
       </c>
-      <c r="CE3" s="70"/>
-      <c r="CF3" s="71"/>
-      <c r="CG3" s="69" t="s">
+      <c r="CE3" s="72"/>
+      <c r="CF3" s="73"/>
+      <c r="CG3" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="CH3" s="70"/>
-      <c r="CI3" s="71"/>
-      <c r="CJ3" s="66" t="s">
+      <c r="CH3" s="72"/>
+      <c r="CI3" s="73"/>
+      <c r="CJ3" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="CK3" s="67"/>
-      <c r="CL3" s="68"/>
-      <c r="CM3" s="35"/>
-      <c r="CN3" s="35"/>
-      <c r="CO3" s="35"/>
+      <c r="CK3" s="69"/>
+      <c r="CL3" s="70"/>
+      <c r="CM3" s="68" t="s">
+        <v>146</v>
+      </c>
+      <c r="CN3" s="69"/>
+      <c r="CO3" s="70"/>
       <c r="CP3" s="35"/>
       <c r="CQ3" s="35"/>
       <c r="CR3" s="35"/>
@@ -3909,9 +3923,9 @@
       <c r="DH3" s="58"/>
     </row>
     <row r="4" spans="1:112" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="73"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
       <c r="D4" s="34" t="s">
         <v>66</v>
       </c>
@@ -4173,9 +4187,15 @@
       <c r="CL4" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="CM4" s="60"/>
-      <c r="CN4" s="60"/>
-      <c r="CO4" s="60"/>
+      <c r="CM4" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="CN4" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="CO4" s="63" t="s">
+        <v>64</v>
+      </c>
       <c r="CP4" s="60"/>
       <c r="CQ4" s="60"/>
       <c r="CR4" s="60"/>
@@ -4414,12 +4434,24 @@
       <c r="CI5" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="CJ5" s="60"/>
-      <c r="CK5" s="60"/>
-      <c r="CL5" s="60"/>
-      <c r="CM5" s="60"/>
-      <c r="CN5" s="60"/>
-      <c r="CO5" s="60"/>
+      <c r="CJ5" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK5" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL5" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM5" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN5" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO5" s="63" t="s">
+        <v>0</v>
+      </c>
       <c r="CP5" s="60"/>
       <c r="CQ5" s="60"/>
       <c r="CR5" s="60"/>
@@ -4641,8 +4673,12 @@
         <v>0</v>
       </c>
       <c r="CL6" s="60"/>
-      <c r="CM6" s="60"/>
-      <c r="CN6" s="60"/>
+      <c r="CM6" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN6" s="40" t="s">
+        <v>0</v>
+      </c>
       <c r="CO6" s="60"/>
       <c r="CP6" s="60"/>
       <c r="CQ6" s="60"/>
@@ -4853,8 +4889,12 @@
         <v>0</v>
       </c>
       <c r="CL7" s="60"/>
-      <c r="CM7" s="60"/>
-      <c r="CN7" s="60"/>
+      <c r="CM7" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN7" s="40" t="s">
+        <v>0</v>
+      </c>
       <c r="CO7" s="60"/>
       <c r="CP7" s="60"/>
       <c r="CQ7" s="60"/>
@@ -5084,12 +5124,24 @@
       <c r="CI8" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="CJ8" s="60"/>
-      <c r="CK8" s="60"/>
-      <c r="CL8" s="60"/>
-      <c r="CM8" s="60"/>
-      <c r="CN8" s="60"/>
-      <c r="CO8" s="60"/>
+      <c r="CJ8" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK8" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL8" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM8" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN8" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO8" s="63" t="s">
+        <v>0</v>
+      </c>
       <c r="CP8" s="60"/>
       <c r="CQ8" s="60"/>
       <c r="CR8" s="60"/>
@@ -5315,9 +5367,15 @@
         <v>0</v>
       </c>
       <c r="CL9" s="60"/>
-      <c r="CM9" s="60"/>
-      <c r="CN9" s="60"/>
-      <c r="CO9" s="60"/>
+      <c r="CM9" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN9" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO9" s="63" t="s">
+        <v>0</v>
+      </c>
       <c r="CP9" s="60"/>
       <c r="CQ9" s="60"/>
       <c r="CR9" s="60"/>
@@ -5547,9 +5605,15 @@
         <v>0</v>
       </c>
       <c r="CL10" s="60"/>
-      <c r="CM10" s="60"/>
-      <c r="CN10" s="60"/>
-      <c r="CO10" s="60"/>
+      <c r="CM10" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN10" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO10" s="63" t="s">
+        <v>0</v>
+      </c>
       <c r="CP10" s="60"/>
       <c r="CQ10" s="60"/>
       <c r="CR10" s="60"/>
@@ -5757,8 +5821,12 @@
         <v>0</v>
       </c>
       <c r="CL11" s="60"/>
-      <c r="CM11" s="60"/>
-      <c r="CN11" s="60"/>
+      <c r="CM11" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN11" s="40" t="s">
+        <v>0</v>
+      </c>
       <c r="CO11" s="60"/>
       <c r="CP11" s="60"/>
       <c r="CQ11" s="60"/>
@@ -5981,12 +6049,22 @@
       <c r="CH12" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="CI12" s="59"/>
-      <c r="CJ12" s="60"/>
-      <c r="CK12" s="60"/>
+      <c r="CI12" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ12" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK12" s="63" t="s">
+        <v>0</v>
+      </c>
       <c r="CL12" s="60"/>
-      <c r="CM12" s="60"/>
-      <c r="CN12" s="60"/>
+      <c r="CM12" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN12" s="40" t="s">
+        <v>0</v>
+      </c>
       <c r="CO12" s="60"/>
       <c r="CP12" s="60"/>
       <c r="CQ12" s="60"/>
@@ -6009,7 +6087,8 @@
       <c r="DH12" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="33">
+    <mergeCell ref="CM3:CO3"/>
     <mergeCell ref="BF3:BH3"/>
     <mergeCell ref="BI3:BK3"/>
     <mergeCell ref="AQ3:AS3"/>
@@ -6082,30 +6161,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="63" t="s">
+      <c r="G2" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="64" t="s">
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="62" t="s">
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="62" t="s">
+      <c r="O2" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="62" t="s">
+      <c r="P2" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="62" t="s">
+      <c r="Q2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="62" t="s">
+      <c r="R2" s="64" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6149,11 +6228,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -6411,7 +6490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AI6" sqref="AI6"/>
     </sheetView>
   </sheetViews>
@@ -6435,10 +6514,10 @@
       </c>
     </row>
     <row r="3" spans="1:55" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="76" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="34" t="s">
@@ -6453,51 +6532,51 @@
       <c r="F3" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="75" t="s">
+      <c r="G3" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="66" t="s">
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="K3" s="67"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="66" t="s">
+      <c r="K3" s="69"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="N3" s="67"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="66" t="s">
+      <c r="N3" s="69"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="66" t="s">
+      <c r="Q3" s="69"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="68" t="s">
         <v>134</v>
       </c>
-      <c r="T3" s="67"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="66" t="s">
+      <c r="T3" s="69"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="W3" s="67"/>
-      <c r="X3" s="68"/>
-      <c r="Y3" s="66" t="s">
+      <c r="W3" s="69"/>
+      <c r="X3" s="70"/>
+      <c r="Y3" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="66" t="s">
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="70"/>
+      <c r="AB3" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="AC3" s="67"/>
-      <c r="AD3" s="68"/>
-      <c r="AE3" s="66" t="s">
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="70"/>
+      <c r="AE3" s="68" t="s">
         <v>144</v>
       </c>
-      <c r="AF3" s="67"/>
-      <c r="AG3" s="68"/>
+      <c r="AF3" s="69"/>
+      <c r="AG3" s="70"/>
       <c r="AH3" s="54"/>
       <c r="AI3" s="54"/>
       <c r="AJ3" s="54"/>
@@ -6522,8 +6601,8 @@
       <c r="BC3" s="54"/>
     </row>
     <row r="4" spans="1:55" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74"/>
-      <c r="B4" s="74"/>
+      <c r="A4" s="76"/>
+      <c r="B4" s="76"/>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
@@ -7447,30 +7526,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="63" t="s">
+      <c r="G2" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="64" t="s">
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="62" t="s">
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="62" t="s">
+      <c r="O2" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="62" t="s">
+      <c r="P2" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="62" t="s">
+      <c r="Q2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="62" t="s">
+      <c r="R2" s="64" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7514,11 +7593,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -7864,7 +7943,7 @@
       <selection activeCell="BA9" sqref="BA9"/>
       <selection pane="topRight" activeCell="BA9" sqref="BA9"/>
       <selection pane="bottomLeft" activeCell="BA9" sqref="BA9"/>
-      <selection pane="bottomRight" activeCell="AD11" sqref="AD11"/>
+      <selection pane="bottomRight" activeCell="AD8" sqref="AD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7886,10 +7965,10 @@
       </c>
     </row>
     <row r="3" spans="1:51" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="76" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="41" t="s">
@@ -7904,44 +7983,46 @@
       <c r="F3" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="G3" s="75" t="s">
+      <c r="G3" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="66" t="s">
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="K3" s="67"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="66" t="s">
+      <c r="K3" s="69"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="N3" s="67"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="66" t="s">
+      <c r="N3" s="69"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="66" t="s">
+      <c r="Q3" s="69"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="68" t="s">
         <v>135</v>
       </c>
-      <c r="T3" s="67"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="66" t="s">
+      <c r="T3" s="69"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="W3" s="67"/>
-      <c r="X3" s="68"/>
-      <c r="Y3" s="66" t="s">
+      <c r="W3" s="69"/>
+      <c r="X3" s="70"/>
+      <c r="Y3" s="68" t="s">
         <v>141</v>
       </c>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="67"/>
-      <c r="AD3" s="68"/>
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="70"/>
+      <c r="AB3" s="68" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="70"/>
       <c r="AE3" s="35"/>
       <c r="AF3" s="35"/>
       <c r="AG3" s="35"/>
@@ -7965,8 +8046,8 @@
       <c r="AY3" s="35"/>
     </row>
     <row r="4" spans="1:51" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74"/>
-      <c r="B4" s="74"/>
+      <c r="A4" s="76"/>
+      <c r="B4" s="76"/>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
@@ -8034,9 +8115,15 @@
       <c r="AA4" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="35"/>
+      <c r="AB4" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC4" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD4" s="62" t="s">
+        <v>64</v>
+      </c>
       <c r="AE4" s="35"/>
       <c r="AF4" s="35"/>
       <c r="AG4" s="35"/>
@@ -8119,8 +8206,12 @@
         <v>0</v>
       </c>
       <c r="AA5" s="53"/>
-      <c r="AB5" s="53"/>
-      <c r="AC5" s="53"/>
+      <c r="AB5" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="62" t="s">
+        <v>0</v>
+      </c>
       <c r="AD5" s="53"/>
       <c r="AE5" s="35"/>
       <c r="AF5" s="35"/>
@@ -8208,8 +8299,12 @@
         <v>0</v>
       </c>
       <c r="AA6" s="53"/>
-      <c r="AB6" s="53"/>
-      <c r="AC6" s="53"/>
+      <c r="AB6" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="62" t="s">
+        <v>0</v>
+      </c>
       <c r="AD6" s="53"/>
       <c r="AE6" s="35"/>
       <c r="AF6" s="35"/>
@@ -8278,7 +8373,9 @@
       </c>
       <c r="AA7" s="53"/>
       <c r="AB7" s="53"/>
-      <c r="AC7" s="53"/>
+      <c r="AC7" s="53" t="s">
+        <v>0</v>
+      </c>
       <c r="AD7" s="53"/>
       <c r="AE7" s="35"/>
       <c r="AF7" s="35"/>
@@ -8347,7 +8444,9 @@
       </c>
       <c r="AA8" s="53"/>
       <c r="AB8" s="53"/>
-      <c r="AC8" s="53"/>
+      <c r="AC8" s="53" t="s">
+        <v>0</v>
+      </c>
       <c r="AD8" s="53"/>
       <c r="AE8" s="35"/>
       <c r="AF8" s="35"/>
@@ -8435,8 +8534,12 @@
         <v>0</v>
       </c>
       <c r="AA9" s="53"/>
-      <c r="AB9" s="53"/>
-      <c r="AC9" s="53"/>
+      <c r="AB9" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="62" t="s">
+        <v>0</v>
+      </c>
       <c r="AD9" s="53"/>
       <c r="AE9" s="35"/>
       <c r="AF9" s="35"/>
@@ -8524,8 +8627,12 @@
         <v>0</v>
       </c>
       <c r="AA10" s="53"/>
-      <c r="AB10" s="53"/>
-      <c r="AC10" s="53"/>
+      <c r="AB10" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="62" t="s">
+        <v>0</v>
+      </c>
       <c r="AD10" s="53"/>
       <c r="AE10" s="35"/>
       <c r="AF10" s="35"/>
@@ -8613,8 +8720,12 @@
         <v>0</v>
       </c>
       <c r="AA11" s="53"/>
-      <c r="AB11" s="53"/>
-      <c r="AC11" s="53"/>
+      <c r="AB11" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="62" t="s">
+        <v>0</v>
+      </c>
       <c r="AD11" s="53"/>
       <c r="AE11" s="35"/>
       <c r="AF11" s="35"/>
@@ -8700,9 +8811,15 @@
         <v>0</v>
       </c>
       <c r="AA12" s="53"/>
-      <c r="AB12" s="53"/>
-      <c r="AC12" s="53"/>
-      <c r="AD12" s="53"/>
+      <c r="AB12" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="62" t="s">
+        <v>0</v>
+      </c>
       <c r="AE12" s="35"/>
       <c r="AF12" s="35"/>
       <c r="AG12" s="35"/>
@@ -8791,8 +8908,12 @@
         <v>0</v>
       </c>
       <c r="AA13" s="53"/>
-      <c r="AB13" s="53"/>
-      <c r="AC13" s="53"/>
+      <c r="AB13" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="62" t="s">
+        <v>0</v>
+      </c>
       <c r="AD13" s="53"/>
       <c r="AE13" s="35"/>
       <c r="AF13" s="35"/>
@@ -8921,9 +9042,15 @@
         <v>0</v>
       </c>
       <c r="AA15" s="43"/>
-      <c r="AB15" s="43"/>
-      <c r="AC15" s="43"/>
-      <c r="AD15" s="43"/>
+      <c r="AB15" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="62" t="s">
+        <v>0</v>
+      </c>
       <c r="AE15" s="35"/>
       <c r="AF15" s="35"/>
       <c r="AG15" s="35"/>

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="TOEIC 300-500 K1" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="153">
   <si>
     <t>x</t>
   </si>
@@ -463,6 +463,24 @@
   </si>
   <si>
     <t>22/5-Lesson 29</t>
+  </si>
+  <si>
+    <t>24/5-Lesson 30</t>
+  </si>
+  <si>
+    <t>23/5-Lesson 9</t>
+  </si>
+  <si>
+    <t>22/5-Lesson 10</t>
+  </si>
+  <si>
+    <t>24/5-Lesson 11</t>
+  </si>
+  <si>
+    <t>26/5-Lesson 12</t>
+  </si>
+  <si>
+    <t>27/5-Lesson 10</t>
   </si>
 </sst>
 </file>
@@ -729,7 +747,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -888,6 +906,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -900,13 +930,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -918,10 +945,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1274,30 +1304,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="65" t="s">
+      <c r="G2" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="66" t="s">
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="64" t="s">
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="64" t="s">
+      <c r="O2" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="64" t="s">
+      <c r="P2" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="64" t="s">
+      <c r="Q2" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="64" t="s">
+      <c r="R2" s="68" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1341,11 +1371,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -1598,30 +1628,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="65" t="s">
+      <c r="G2" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="66" t="s">
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="64" t="s">
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="64" t="s">
+      <c r="O2" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="64" t="s">
+      <c r="P2" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="64" t="s">
+      <c r="Q2" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="67" t="s">
+      <c r="R2" s="71" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1665,11 +1695,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="67"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="71"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -2644,30 +2674,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="65" t="s">
+      <c r="G2" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="66" t="s">
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="64" t="s">
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="64" t="s">
+      <c r="O2" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="64" t="s">
+      <c r="P2" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="64" t="s">
+      <c r="Q2" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="64" t="s">
+      <c r="R2" s="68" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2711,11 +2741,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -3025,30 +3055,30 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I2" s="65" t="s">
+      <c r="I2" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66" t="s">
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="64" t="s">
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="64" t="s">
+      <c r="Q2" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="64" t="s">
+      <c r="R2" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="64" t="s">
+      <c r="S2" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="64" t="s">
+      <c r="T2" s="68" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3098,11 +3128,11 @@
       <c r="O3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
     </row>
     <row r="4" spans="1:20" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -3703,8 +3733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DH12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CR8" sqref="CR8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="CT6" sqref="CT6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3743,168 +3773,170 @@
       </c>
     </row>
     <row r="3" spans="1:112" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="74" t="s">
+      <c r="D3" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74" t="s">
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74" t="s">
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74" t="s">
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74" t="s">
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="74" t="s">
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="T3" s="74"/>
-      <c r="U3" s="74"/>
-      <c r="V3" s="74" t="s">
+      <c r="T3" s="72"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="W3" s="74"/>
-      <c r="X3" s="74"/>
-      <c r="Y3" s="74" t="s">
+      <c r="W3" s="72"/>
+      <c r="X3" s="72"/>
+      <c r="Y3" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="Z3" s="74"/>
-      <c r="AA3" s="74"/>
-      <c r="AB3" s="74" t="s">
+      <c r="Z3" s="72"/>
+      <c r="AA3" s="72"/>
+      <c r="AB3" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="AC3" s="74"/>
-      <c r="AD3" s="74"/>
-      <c r="AE3" s="74" t="s">
+      <c r="AC3" s="72"/>
+      <c r="AD3" s="72"/>
+      <c r="AE3" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="AF3" s="74"/>
-      <c r="AG3" s="74"/>
-      <c r="AH3" s="74" t="s">
+      <c r="AF3" s="72"/>
+      <c r="AG3" s="72"/>
+      <c r="AH3" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="AI3" s="74"/>
-      <c r="AJ3" s="74"/>
-      <c r="AK3" s="74" t="s">
+      <c r="AI3" s="72"/>
+      <c r="AJ3" s="72"/>
+      <c r="AK3" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="AL3" s="74"/>
-      <c r="AM3" s="74"/>
-      <c r="AN3" s="74" t="s">
+      <c r="AL3" s="72"/>
+      <c r="AM3" s="72"/>
+      <c r="AN3" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="AO3" s="74"/>
-      <c r="AP3" s="74"/>
-      <c r="AQ3" s="74" t="s">
+      <c r="AO3" s="72"/>
+      <c r="AP3" s="72"/>
+      <c r="AQ3" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="AR3" s="74"/>
-      <c r="AS3" s="74"/>
-      <c r="AT3" s="74" t="s">
+      <c r="AR3" s="72"/>
+      <c r="AS3" s="72"/>
+      <c r="AT3" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="AU3" s="74"/>
-      <c r="AV3" s="74"/>
-      <c r="AW3" s="74" t="s">
+      <c r="AU3" s="72"/>
+      <c r="AV3" s="72"/>
+      <c r="AW3" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="AX3" s="74"/>
-      <c r="AY3" s="74"/>
-      <c r="AZ3" s="74" t="s">
+      <c r="AX3" s="72"/>
+      <c r="AY3" s="72"/>
+      <c r="AZ3" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="BA3" s="74"/>
-      <c r="BB3" s="74"/>
-      <c r="BC3" s="74" t="s">
+      <c r="BA3" s="72"/>
+      <c r="BB3" s="72"/>
+      <c r="BC3" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="BD3" s="74"/>
-      <c r="BE3" s="74"/>
-      <c r="BF3" s="74" t="s">
+      <c r="BD3" s="72"/>
+      <c r="BE3" s="72"/>
+      <c r="BF3" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="BG3" s="74"/>
-      <c r="BH3" s="74"/>
-      <c r="BI3" s="74" t="s">
+      <c r="BG3" s="72"/>
+      <c r="BH3" s="72"/>
+      <c r="BI3" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="BJ3" s="74"/>
-      <c r="BK3" s="74"/>
-      <c r="BL3" s="74" t="s">
+      <c r="BJ3" s="72"/>
+      <c r="BK3" s="72"/>
+      <c r="BL3" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="BM3" s="74"/>
-      <c r="BN3" s="74"/>
-      <c r="BO3" s="74" t="s">
+      <c r="BM3" s="72"/>
+      <c r="BN3" s="72"/>
+      <c r="BO3" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="BP3" s="74"/>
-      <c r="BQ3" s="74"/>
-      <c r="BR3" s="74" t="s">
+      <c r="BP3" s="72"/>
+      <c r="BQ3" s="72"/>
+      <c r="BR3" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="BS3" s="74"/>
-      <c r="BT3" s="74"/>
-      <c r="BU3" s="71" t="s">
+      <c r="BS3" s="72"/>
+      <c r="BT3" s="72"/>
+      <c r="BU3" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="BV3" s="72"/>
-      <c r="BW3" s="73"/>
-      <c r="BX3" s="71" t="s">
+      <c r="BV3" s="75"/>
+      <c r="BW3" s="76"/>
+      <c r="BX3" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="BY3" s="72"/>
-      <c r="BZ3" s="73"/>
-      <c r="CA3" s="71" t="s">
+      <c r="BY3" s="75"/>
+      <c r="BZ3" s="76"/>
+      <c r="CA3" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="CB3" s="72"/>
-      <c r="CC3" s="73"/>
-      <c r="CD3" s="71" t="s">
+      <c r="CB3" s="75"/>
+      <c r="CC3" s="76"/>
+      <c r="CD3" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="CE3" s="72"/>
-      <c r="CF3" s="73"/>
-      <c r="CG3" s="71" t="s">
+      <c r="CE3" s="75"/>
+      <c r="CF3" s="76"/>
+      <c r="CG3" s="74" t="s">
         <v>139</v>
       </c>
-      <c r="CH3" s="72"/>
-      <c r="CI3" s="73"/>
-      <c r="CJ3" s="68" t="s">
+      <c r="CH3" s="75"/>
+      <c r="CI3" s="76"/>
+      <c r="CJ3" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="CK3" s="69"/>
-      <c r="CL3" s="70"/>
-      <c r="CM3" s="68" t="s">
+      <c r="CK3" s="78"/>
+      <c r="CL3" s="79"/>
+      <c r="CM3" s="77" t="s">
         <v>146</v>
       </c>
-      <c r="CN3" s="69"/>
-      <c r="CO3" s="70"/>
-      <c r="CP3" s="35"/>
-      <c r="CQ3" s="35"/>
-      <c r="CR3" s="35"/>
+      <c r="CN3" s="78"/>
+      <c r="CO3" s="79"/>
+      <c r="CP3" s="77" t="s">
+        <v>147</v>
+      </c>
+      <c r="CQ3" s="78"/>
+      <c r="CR3" s="79"/>
       <c r="CS3" s="35"/>
       <c r="CT3" s="35"/>
       <c r="CU3" s="35"/>
@@ -3923,9 +3955,9 @@
       <c r="DH3" s="58"/>
     </row>
     <row r="4" spans="1:112" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="75"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
       <c r="D4" s="34" t="s">
         <v>66</v>
       </c>
@@ -4196,9 +4228,15 @@
       <c r="CO4" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="CP4" s="60"/>
-      <c r="CQ4" s="60"/>
-      <c r="CR4" s="60"/>
+      <c r="CP4" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="CQ4" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="CR4" s="64" t="s">
+        <v>64</v>
+      </c>
       <c r="CS4" s="60"/>
       <c r="CT4" s="60"/>
       <c r="CU4" s="60"/>
@@ -4452,9 +4490,15 @@
       <c r="CO5" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="CP5" s="60"/>
-      <c r="CQ5" s="60"/>
-      <c r="CR5" s="60"/>
+      <c r="CP5" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="CQ5" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="CR5" s="64" t="s">
+        <v>0</v>
+      </c>
       <c r="CS5" s="60"/>
       <c r="CT5" s="60"/>
       <c r="CU5" s="60"/>
@@ -4680,8 +4724,12 @@
         <v>0</v>
       </c>
       <c r="CO6" s="60"/>
-      <c r="CP6" s="60"/>
-      <c r="CQ6" s="60"/>
+      <c r="CP6" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="CQ6" s="40" t="s">
+        <v>0</v>
+      </c>
       <c r="CR6" s="60"/>
       <c r="CS6" s="60"/>
       <c r="CT6" s="60"/>
@@ -4896,9 +4944,15 @@
         <v>0</v>
       </c>
       <c r="CO7" s="60"/>
-      <c r="CP7" s="60"/>
-      <c r="CQ7" s="60"/>
-      <c r="CR7" s="60"/>
+      <c r="CP7" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="CQ7" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="CR7" s="64" t="s">
+        <v>0</v>
+      </c>
       <c r="CS7" s="60"/>
       <c r="CT7" s="60"/>
       <c r="CU7" s="60"/>
@@ -5142,9 +5196,15 @@
       <c r="CO8" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="CP8" s="60"/>
-      <c r="CQ8" s="60"/>
-      <c r="CR8" s="60"/>
+      <c r="CP8" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="CQ8" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="CR8" s="64" t="s">
+        <v>0</v>
+      </c>
       <c r="CS8" s="60"/>
       <c r="CT8" s="60"/>
       <c r="CU8" s="60"/>
@@ -5376,8 +5436,12 @@
       <c r="CO9" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="CP9" s="60"/>
-      <c r="CQ9" s="60"/>
+      <c r="CP9" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="CQ9" s="40" t="s">
+        <v>0</v>
+      </c>
       <c r="CR9" s="60"/>
       <c r="CS9" s="60"/>
       <c r="CT9" s="60"/>
@@ -5614,9 +5678,15 @@
       <c r="CO10" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="CP10" s="60"/>
-      <c r="CQ10" s="60"/>
-      <c r="CR10" s="60"/>
+      <c r="CP10" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="CQ10" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="CR10" s="64" t="s">
+        <v>0</v>
+      </c>
       <c r="CS10" s="60"/>
       <c r="CT10" s="60"/>
       <c r="CU10" s="60"/>
@@ -5828,8 +5898,12 @@
         <v>0</v>
       </c>
       <c r="CO11" s="60"/>
-      <c r="CP11" s="60"/>
-      <c r="CQ11" s="60"/>
+      <c r="CP11" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="CQ11" s="40" t="s">
+        <v>0</v>
+      </c>
       <c r="CR11" s="60"/>
       <c r="CS11" s="60"/>
       <c r="CT11" s="60"/>
@@ -6066,8 +6140,12 @@
         <v>0</v>
       </c>
       <c r="CO12" s="60"/>
-      <c r="CP12" s="60"/>
-      <c r="CQ12" s="60"/>
+      <c r="CP12" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="CQ12" s="40" t="s">
+        <v>0</v>
+      </c>
       <c r="CR12" s="60"/>
       <c r="CS12" s="60"/>
       <c r="CT12" s="60"/>
@@ -6087,22 +6165,31 @@
       <c r="DH12" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="34">
+    <mergeCell ref="AT3:AV3"/>
+    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="CJ3:CL3"/>
+    <mergeCell ref="CG3:CI3"/>
+    <mergeCell ref="CA3:CC3"/>
+    <mergeCell ref="CD3:CF3"/>
+    <mergeCell ref="BL3:BN3"/>
+    <mergeCell ref="BO3:BQ3"/>
+    <mergeCell ref="BX3:BZ3"/>
+    <mergeCell ref="CP3:CR3"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="BR3:BT3"/>
+    <mergeCell ref="BU3:BW3"/>
+    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="AN3:AP3"/>
     <mergeCell ref="CM3:CO3"/>
     <mergeCell ref="BF3:BH3"/>
     <mergeCell ref="BI3:BK3"/>
     <mergeCell ref="AQ3:AS3"/>
-    <mergeCell ref="AT3:AV3"/>
-    <mergeCell ref="AW3:AY3"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AK3:AM3"/>
-    <mergeCell ref="AN3:AP3"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -6112,15 +6199,7 @@
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:U3"/>
-    <mergeCell ref="CJ3:CL3"/>
-    <mergeCell ref="CG3:CI3"/>
-    <mergeCell ref="CA3:CC3"/>
-    <mergeCell ref="CD3:CF3"/>
-    <mergeCell ref="BL3:BN3"/>
-    <mergeCell ref="BO3:BQ3"/>
-    <mergeCell ref="BR3:BT3"/>
-    <mergeCell ref="BU3:BW3"/>
-    <mergeCell ref="BX3:BZ3"/>
+    <mergeCell ref="AB3:AD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6161,30 +6240,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="65" t="s">
+      <c r="G2" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="66" t="s">
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="64" t="s">
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="64" t="s">
+      <c r="O2" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="64" t="s">
+      <c r="P2" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="64" t="s">
+      <c r="Q2" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="64" t="s">
+      <c r="R2" s="68" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6228,11 +6307,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -6491,7 +6570,7 @@
   <dimension ref="A1:BC18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AI6" sqref="AI6"/>
+      <selection activeCell="AQ3" sqref="AQ3:AS3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6514,10 +6593,10 @@
       </c>
     </row>
     <row r="3" spans="1:55" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="80" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="34" t="s">
@@ -6532,63 +6611,69 @@
       <c r="F3" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="77" t="s">
+      <c r="G3" s="81" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="68" t="s">
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="K3" s="69"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="68" t="s">
+      <c r="K3" s="78"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="N3" s="69"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="68" t="s">
+      <c r="N3" s="78"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="70"/>
-      <c r="S3" s="68" t="s">
+      <c r="Q3" s="78"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="T3" s="69"/>
-      <c r="U3" s="70"/>
-      <c r="V3" s="68" t="s">
+      <c r="T3" s="78"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="W3" s="69"/>
-      <c r="X3" s="70"/>
-      <c r="Y3" s="68" t="s">
+      <c r="W3" s="78"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="Z3" s="69"/>
-      <c r="AA3" s="70"/>
-      <c r="AB3" s="68" t="s">
+      <c r="Z3" s="78"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="77" t="s">
         <v>143</v>
       </c>
-      <c r="AC3" s="69"/>
-      <c r="AD3" s="70"/>
-      <c r="AE3" s="68" t="s">
+      <c r="AC3" s="78"/>
+      <c r="AD3" s="79"/>
+      <c r="AE3" s="77" t="s">
         <v>144</v>
       </c>
-      <c r="AF3" s="69"/>
-      <c r="AG3" s="70"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="54"/>
-      <c r="AQ3" s="54"/>
-      <c r="AR3" s="54"/>
-      <c r="AS3" s="54"/>
+      <c r="AF3" s="78"/>
+      <c r="AG3" s="79"/>
+      <c r="AH3" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI3" s="78"/>
+      <c r="AJ3" s="79"/>
+      <c r="AK3" s="77" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL3" s="78"/>
+      <c r="AM3" s="79"/>
+      <c r="AN3" s="77" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO3" s="78"/>
+      <c r="AP3" s="79"/>
+      <c r="AQ3" s="77"/>
+      <c r="AR3" s="78"/>
+      <c r="AS3" s="79"/>
       <c r="AT3" s="54"/>
       <c r="AU3" s="54"/>
       <c r="AV3" s="54"/>
@@ -6601,8 +6686,8 @@
       <c r="BC3" s="54"/>
     </row>
     <row r="4" spans="1:55" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76"/>
-      <c r="B4" s="76"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="80"/>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
@@ -6688,15 +6773,33 @@
       <c r="AG4" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="54"/>
+      <c r="AH4" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI4" s="65" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ4" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK4" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL4" s="65" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM4" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN4" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO4" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP4" s="66" t="s">
+        <v>64</v>
+      </c>
       <c r="AQ4" s="54"/>
       <c r="AR4" s="54"/>
       <c r="AS4" s="54"/>
@@ -6781,15 +6884,31 @@
         <v>0</v>
       </c>
       <c r="AG5" s="54"/>
-      <c r="AH5" s="54"/>
-      <c r="AI5" s="54"/>
+      <c r="AH5" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="65" t="s">
+        <v>0</v>
+      </c>
       <c r="AJ5" s="54"/>
-      <c r="AK5" s="54"/>
-      <c r="AL5" s="54"/>
-      <c r="AM5" s="54"/>
-      <c r="AN5" s="54"/>
-      <c r="AO5" s="54"/>
-      <c r="AP5" s="54"/>
+      <c r="AK5" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="66" t="s">
+        <v>0</v>
+      </c>
       <c r="AQ5" s="54"/>
       <c r="AR5" s="54"/>
       <c r="AS5" s="54"/>
@@ -6973,14 +7092,28 @@
       <c r="AG7" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="AH7" s="54"/>
-      <c r="AI7" s="54"/>
+      <c r="AH7" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="65" t="s">
+        <v>0</v>
+      </c>
       <c r="AJ7" s="54"/>
-      <c r="AK7" s="54"/>
-      <c r="AL7" s="54"/>
-      <c r="AM7" s="54"/>
-      <c r="AN7" s="54"/>
-      <c r="AO7" s="54"/>
+      <c r="AK7" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="66" t="s">
+        <v>0</v>
+      </c>
       <c r="AP7" s="54"/>
       <c r="AQ7" s="54"/>
       <c r="AR7" s="54"/>
@@ -7082,15 +7215,33 @@
       <c r="AG8" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="AH8" s="54"/>
-      <c r="AI8" s="54"/>
-      <c r="AJ8" s="54"/>
-      <c r="AK8" s="54"/>
-      <c r="AL8" s="54"/>
-      <c r="AM8" s="54"/>
-      <c r="AN8" s="54"/>
-      <c r="AO8" s="54"/>
-      <c r="AP8" s="54"/>
+      <c r="AH8" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="66" t="s">
+        <v>0</v>
+      </c>
       <c r="AQ8" s="54"/>
       <c r="AR8" s="54"/>
       <c r="AS8" s="54"/>
@@ -7181,14 +7332,24 @@
         <v>0</v>
       </c>
       <c r="AG9" s="54"/>
-      <c r="AH9" s="54"/>
-      <c r="AI9" s="54"/>
+      <c r="AH9" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="65" t="s">
+        <v>0</v>
+      </c>
       <c r="AJ9" s="54"/>
-      <c r="AK9" s="54"/>
-      <c r="AL9" s="54"/>
+      <c r="AK9" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="65" t="s">
+        <v>0</v>
+      </c>
       <c r="AM9" s="54"/>
       <c r="AN9" s="54"/>
-      <c r="AO9" s="54"/>
+      <c r="AO9" s="54" t="s">
+        <v>0</v>
+      </c>
       <c r="AP9" s="54"/>
       <c r="AQ9" s="54"/>
       <c r="AR9" s="54"/>
@@ -7298,15 +7459,29 @@
       <c r="AG10" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="AH10" s="54"/>
-      <c r="AI10" s="54"/>
+      <c r="AH10" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="65" t="s">
+        <v>0</v>
+      </c>
       <c r="AJ10" s="54"/>
-      <c r="AK10" s="54"/>
-      <c r="AL10" s="54"/>
+      <c r="AK10" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="65" t="s">
+        <v>0</v>
+      </c>
       <c r="AM10" s="54"/>
-      <c r="AN10" s="54"/>
-      <c r="AO10" s="54"/>
-      <c r="AP10" s="54"/>
+      <c r="AN10" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="66" t="s">
+        <v>0</v>
+      </c>
       <c r="AQ10" s="54"/>
       <c r="AR10" s="54"/>
       <c r="AS10" s="54"/>
@@ -7474,7 +7649,11 @@
       <c r="S18" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="15">
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="AN3:AP3"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AM3"/>
     <mergeCell ref="AE3:AG3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -7526,30 +7705,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="65" t="s">
+      <c r="G2" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="66" t="s">
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="64" t="s">
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="64" t="s">
+      <c r="O2" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="64" t="s">
+      <c r="P2" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="64" t="s">
+      <c r="Q2" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="64" t="s">
+      <c r="R2" s="68" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7593,11 +7772,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -7938,12 +8117,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="V5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="BA9" sqref="BA9"/>
       <selection pane="topRight" activeCell="BA9" sqref="BA9"/>
       <selection pane="bottomLeft" activeCell="BA9" sqref="BA9"/>
-      <selection pane="bottomRight" activeCell="AD8" sqref="AD8"/>
+      <selection pane="bottomRight" activeCell="AN10" sqref="AN10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7965,10 +8144,10 @@
       </c>
     </row>
     <row r="3" spans="1:51" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="80" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="41" t="s">
@@ -7983,52 +8162,56 @@
       <c r="F3" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="G3" s="77" t="s">
+      <c r="G3" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="68" t="s">
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="K3" s="69"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="68" t="s">
+      <c r="K3" s="78"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="N3" s="69"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="68" t="s">
+      <c r="N3" s="78"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="70"/>
-      <c r="S3" s="68" t="s">
+      <c r="Q3" s="78"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="77" t="s">
         <v>135</v>
       </c>
-      <c r="T3" s="69"/>
-      <c r="U3" s="70"/>
-      <c r="V3" s="68" t="s">
+      <c r="T3" s="78"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="W3" s="69"/>
-      <c r="X3" s="70"/>
-      <c r="Y3" s="68" t="s">
+      <c r="W3" s="78"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="77" t="s">
         <v>141</v>
       </c>
-      <c r="Z3" s="69"/>
-      <c r="AA3" s="70"/>
-      <c r="AB3" s="68" t="s">
+      <c r="Z3" s="78"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="77" t="s">
         <v>145</v>
       </c>
-      <c r="AC3" s="69"/>
-      <c r="AD3" s="70"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="35"/>
-      <c r="AG3" s="35"/>
-      <c r="AH3" s="35"/>
-      <c r="AI3" s="35"/>
-      <c r="AJ3" s="35"/>
+      <c r="AC3" s="78"/>
+      <c r="AD3" s="79"/>
+      <c r="AE3" s="77" t="s">
+        <v>148</v>
+      </c>
+      <c r="AF3" s="78"/>
+      <c r="AG3" s="79"/>
+      <c r="AH3" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="AI3" s="78"/>
+      <c r="AJ3" s="79"/>
       <c r="AK3" s="35"/>
       <c r="AL3" s="35"/>
       <c r="AM3" s="35"/>
@@ -8046,8 +8229,8 @@
       <c r="AY3" s="35"/>
     </row>
     <row r="4" spans="1:51" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76"/>
-      <c r="B4" s="76"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="80"/>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
@@ -8124,12 +8307,24 @@
       <c r="AD4" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
-      <c r="AG4" s="35"/>
-      <c r="AH4" s="35"/>
-      <c r="AI4" s="35"/>
-      <c r="AJ4" s="35"/>
+      <c r="AE4" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF4" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG4" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH4" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI4" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ4" s="67" t="s">
+        <v>64</v>
+      </c>
       <c r="AK4" s="35"/>
       <c r="AL4" s="35"/>
       <c r="AM4" s="35"/>
@@ -8213,25 +8408,33 @@
         <v>0</v>
       </c>
       <c r="AD5" s="53"/>
-      <c r="AE5" s="35"/>
-      <c r="AF5" s="35"/>
+      <c r="AE5" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="64" t="s">
+        <v>0</v>
+      </c>
       <c r="AG5" s="35"/>
-      <c r="AH5" s="35"/>
-      <c r="AI5" s="35"/>
-      <c r="AJ5" s="35"/>
-      <c r="AK5" s="35"/>
-      <c r="AL5" s="35"/>
-      <c r="AM5" s="35"/>
-      <c r="AN5" s="35"/>
-      <c r="AO5" s="35"/>
-      <c r="AP5" s="35"/>
-      <c r="AQ5" s="35"/>
-      <c r="AR5" s="35"/>
-      <c r="AS5" s="35"/>
-      <c r="AT5" s="35"/>
-      <c r="AU5" s="35"/>
-      <c r="AV5" s="35"/>
-      <c r="AW5" s="35"/>
+      <c r="AH5" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="67"/>
+      <c r="AL5" s="67"/>
+      <c r="AM5" s="67"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="67"/>
+      <c r="AP5" s="67"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="67"/>
+      <c r="AS5" s="67"/>
+      <c r="AT5" s="67"/>
+      <c r="AU5" s="67"/>
+      <c r="AV5" s="67"/>
+      <c r="AW5" s="67"/>
       <c r="AX5" s="35"/>
       <c r="AY5" s="35"/>
     </row>
@@ -8306,25 +8509,35 @@
         <v>0</v>
       </c>
       <c r="AD6" s="53"/>
-      <c r="AE6" s="35"/>
-      <c r="AF6" s="35"/>
+      <c r="AE6" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="64" t="s">
+        <v>0</v>
+      </c>
       <c r="AG6" s="35"/>
-      <c r="AH6" s="35"/>
-      <c r="AI6" s="35"/>
-      <c r="AJ6" s="35"/>
-      <c r="AK6" s="35"/>
-      <c r="AL6" s="35"/>
-      <c r="AM6" s="35"/>
-      <c r="AN6" s="35"/>
-      <c r="AO6" s="35"/>
-      <c r="AP6" s="35"/>
-      <c r="AQ6" s="35"/>
-      <c r="AR6" s="35"/>
-      <c r="AS6" s="35"/>
-      <c r="AT6" s="35"/>
-      <c r="AU6" s="35"/>
-      <c r="AV6" s="35"/>
-      <c r="AW6" s="35"/>
+      <c r="AH6" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="67"/>
+      <c r="AL6" s="67"/>
+      <c r="AM6" s="67"/>
+      <c r="AN6" s="67"/>
+      <c r="AO6" s="67"/>
+      <c r="AP6" s="67"/>
+      <c r="AQ6" s="67"/>
+      <c r="AR6" s="67"/>
+      <c r="AS6" s="67"/>
+      <c r="AT6" s="67"/>
+      <c r="AU6" s="67"/>
+      <c r="AV6" s="67"/>
+      <c r="AW6" s="67"/>
       <c r="AX6" s="35"/>
       <c r="AY6" s="35"/>
     </row>
@@ -8378,24 +8591,28 @@
       </c>
       <c r="AD7" s="53"/>
       <c r="AE7" s="35"/>
-      <c r="AF7" s="35"/>
+      <c r="AF7" s="35" t="s">
+        <v>0</v>
+      </c>
       <c r="AG7" s="35"/>
       <c r="AH7" s="35"/>
-      <c r="AI7" s="35"/>
-      <c r="AJ7" s="35"/>
-      <c r="AK7" s="35"/>
-      <c r="AL7" s="35"/>
-      <c r="AM7" s="35"/>
-      <c r="AN7" s="35"/>
-      <c r="AO7" s="35"/>
-      <c r="AP7" s="35"/>
-      <c r="AQ7" s="35"/>
-      <c r="AR7" s="35"/>
-      <c r="AS7" s="35"/>
-      <c r="AT7" s="35"/>
-      <c r="AU7" s="35"/>
-      <c r="AV7" s="35"/>
-      <c r="AW7" s="35"/>
+      <c r="AI7" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="67"/>
+      <c r="AK7" s="67"/>
+      <c r="AL7" s="67"/>
+      <c r="AM7" s="67"/>
+      <c r="AN7" s="67"/>
+      <c r="AO7" s="67"/>
+      <c r="AP7" s="67"/>
+      <c r="AQ7" s="67"/>
+      <c r="AR7" s="67"/>
+      <c r="AS7" s="67"/>
+      <c r="AT7" s="67"/>
+      <c r="AU7" s="67"/>
+      <c r="AV7" s="67"/>
+      <c r="AW7" s="67"/>
       <c r="AX7" s="35"/>
       <c r="AY7" s="35"/>
     </row>
@@ -8448,25 +8665,31 @@
         <v>0</v>
       </c>
       <c r="AD8" s="53"/>
-      <c r="AE8" s="35"/>
-      <c r="AF8" s="35"/>
+      <c r="AE8" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="64" t="s">
+        <v>0</v>
+      </c>
       <c r="AG8" s="35"/>
       <c r="AH8" s="35"/>
-      <c r="AI8" s="35"/>
-      <c r="AJ8" s="35"/>
-      <c r="AK8" s="35"/>
-      <c r="AL8" s="35"/>
-      <c r="AM8" s="35"/>
-      <c r="AN8" s="35"/>
-      <c r="AO8" s="35"/>
-      <c r="AP8" s="35"/>
-      <c r="AQ8" s="35"/>
-      <c r="AR8" s="35"/>
-      <c r="AS8" s="35"/>
-      <c r="AT8" s="35"/>
-      <c r="AU8" s="35"/>
-      <c r="AV8" s="35"/>
-      <c r="AW8" s="35"/>
+      <c r="AI8" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="67"/>
+      <c r="AK8" s="67"/>
+      <c r="AL8" s="67"/>
+      <c r="AM8" s="67"/>
+      <c r="AN8" s="67"/>
+      <c r="AO8" s="67"/>
+      <c r="AP8" s="67"/>
+      <c r="AQ8" s="67"/>
+      <c r="AR8" s="67"/>
+      <c r="AS8" s="67"/>
+      <c r="AT8" s="67"/>
+      <c r="AU8" s="67"/>
+      <c r="AV8" s="67"/>
+      <c r="AW8" s="67"/>
       <c r="AX8" s="35"/>
       <c r="AY8" s="35"/>
     </row>
@@ -8541,25 +8764,33 @@
         <v>0</v>
       </c>
       <c r="AD9" s="53"/>
-      <c r="AE9" s="35"/>
-      <c r="AF9" s="35"/>
+      <c r="AE9" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="64" t="s">
+        <v>0</v>
+      </c>
       <c r="AG9" s="35"/>
-      <c r="AH9" s="35"/>
-      <c r="AI9" s="35"/>
-      <c r="AJ9" s="35"/>
-      <c r="AK9" s="35"/>
-      <c r="AL9" s="35"/>
-      <c r="AM9" s="35"/>
-      <c r="AN9" s="35"/>
-      <c r="AO9" s="35"/>
-      <c r="AP9" s="35"/>
-      <c r="AQ9" s="35"/>
-      <c r="AR9" s="35"/>
-      <c r="AS9" s="35"/>
-      <c r="AT9" s="35"/>
-      <c r="AU9" s="35"/>
-      <c r="AV9" s="35"/>
-      <c r="AW9" s="35"/>
+      <c r="AH9" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="67"/>
+      <c r="AK9" s="67"/>
+      <c r="AL9" s="67"/>
+      <c r="AM9" s="67"/>
+      <c r="AN9" s="67"/>
+      <c r="AO9" s="67"/>
+      <c r="AP9" s="67"/>
+      <c r="AQ9" s="67"/>
+      <c r="AR9" s="67"/>
+      <c r="AS9" s="67"/>
+      <c r="AT9" s="67"/>
+      <c r="AU9" s="67"/>
+      <c r="AV9" s="67"/>
+      <c r="AW9" s="67"/>
       <c r="AX9" s="35"/>
       <c r="AY9" s="35"/>
     </row>
@@ -8634,25 +8865,31 @@
         <v>0</v>
       </c>
       <c r="AD10" s="53"/>
-      <c r="AE10" s="35"/>
-      <c r="AF10" s="35"/>
+      <c r="AE10" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="64" t="s">
+        <v>0</v>
+      </c>
       <c r="AG10" s="35"/>
       <c r="AH10" s="35"/>
-      <c r="AI10" s="35"/>
-      <c r="AJ10" s="35"/>
-      <c r="AK10" s="35"/>
-      <c r="AL10" s="35"/>
-      <c r="AM10" s="35"/>
-      <c r="AN10" s="35"/>
-      <c r="AO10" s="35"/>
-      <c r="AP10" s="35"/>
-      <c r="AQ10" s="35"/>
-      <c r="AR10" s="35"/>
-      <c r="AS10" s="35"/>
-      <c r="AT10" s="35"/>
-      <c r="AU10" s="35"/>
-      <c r="AV10" s="35"/>
-      <c r="AW10" s="35"/>
+      <c r="AI10" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="67"/>
+      <c r="AK10" s="67"/>
+      <c r="AL10" s="67"/>
+      <c r="AM10" s="67"/>
+      <c r="AN10" s="67"/>
+      <c r="AO10" s="67"/>
+      <c r="AP10" s="67"/>
+      <c r="AQ10" s="67"/>
+      <c r="AR10" s="67"/>
+      <c r="AS10" s="67"/>
+      <c r="AT10" s="67"/>
+      <c r="AU10" s="67"/>
+      <c r="AV10" s="67"/>
+      <c r="AW10" s="67"/>
       <c r="AX10" s="35"/>
       <c r="AY10" s="35"/>
     </row>
@@ -8727,25 +8964,35 @@
         <v>0</v>
       </c>
       <c r="AD11" s="53"/>
-      <c r="AE11" s="35"/>
-      <c r="AF11" s="35"/>
-      <c r="AG11" s="35"/>
-      <c r="AH11" s="35"/>
-      <c r="AI11" s="35"/>
-      <c r="AJ11" s="35"/>
-      <c r="AK11" s="35"/>
-      <c r="AL11" s="35"/>
-      <c r="AM11" s="35"/>
-      <c r="AN11" s="35"/>
-      <c r="AO11" s="35"/>
-      <c r="AP11" s="35"/>
-      <c r="AQ11" s="35"/>
-      <c r="AR11" s="35"/>
-      <c r="AS11" s="35"/>
-      <c r="AT11" s="35"/>
-      <c r="AU11" s="35"/>
-      <c r="AV11" s="35"/>
-      <c r="AW11" s="35"/>
+      <c r="AE11" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="67"/>
+      <c r="AK11" s="67"/>
+      <c r="AL11" s="67"/>
+      <c r="AM11" s="67"/>
+      <c r="AN11" s="67"/>
+      <c r="AO11" s="67"/>
+      <c r="AP11" s="67"/>
+      <c r="AQ11" s="67"/>
+      <c r="AR11" s="67"/>
+      <c r="AS11" s="67"/>
+      <c r="AT11" s="67"/>
+      <c r="AU11" s="67"/>
+      <c r="AV11" s="67"/>
+      <c r="AW11" s="67"/>
       <c r="AX11" s="35"/>
       <c r="AY11" s="35"/>
     </row>
@@ -8820,25 +9067,33 @@
       <c r="AD12" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="AE12" s="35"/>
-      <c r="AF12" s="35"/>
+      <c r="AE12" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="64" t="s">
+        <v>0</v>
+      </c>
       <c r="AG12" s="35"/>
-      <c r="AH12" s="35"/>
-      <c r="AI12" s="35"/>
-      <c r="AJ12" s="35"/>
-      <c r="AK12" s="35"/>
-      <c r="AL12" s="35"/>
-      <c r="AM12" s="35"/>
-      <c r="AN12" s="35"/>
-      <c r="AO12" s="35"/>
-      <c r="AP12" s="35"/>
-      <c r="AQ12" s="35"/>
-      <c r="AR12" s="35"/>
-      <c r="AS12" s="35"/>
-      <c r="AT12" s="35"/>
-      <c r="AU12" s="35"/>
-      <c r="AV12" s="35"/>
-      <c r="AW12" s="35"/>
+      <c r="AH12" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="67"/>
+      <c r="AK12" s="67"/>
+      <c r="AL12" s="67"/>
+      <c r="AM12" s="67"/>
+      <c r="AN12" s="67"/>
+      <c r="AO12" s="67"/>
+      <c r="AP12" s="67"/>
+      <c r="AQ12" s="67"/>
+      <c r="AR12" s="67"/>
+      <c r="AS12" s="67"/>
+      <c r="AT12" s="67"/>
+      <c r="AU12" s="67"/>
+      <c r="AV12" s="67"/>
+      <c r="AW12" s="67"/>
       <c r="AX12" s="35"/>
       <c r="AY12" s="35"/>
     </row>
@@ -8915,25 +9170,37 @@
         <v>0</v>
       </c>
       <c r="AD13" s="53"/>
-      <c r="AE13" s="35"/>
-      <c r="AF13" s="35"/>
-      <c r="AG13" s="35"/>
-      <c r="AH13" s="35"/>
-      <c r="AI13" s="35"/>
-      <c r="AJ13" s="35"/>
-      <c r="AK13" s="35"/>
-      <c r="AL13" s="35"/>
-      <c r="AM13" s="35"/>
-      <c r="AN13" s="35"/>
-      <c r="AO13" s="35"/>
-      <c r="AP13" s="35"/>
-      <c r="AQ13" s="35"/>
-      <c r="AR13" s="35"/>
-      <c r="AS13" s="35"/>
-      <c r="AT13" s="35"/>
-      <c r="AU13" s="35"/>
-      <c r="AV13" s="35"/>
-      <c r="AW13" s="35"/>
+      <c r="AE13" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="67"/>
+      <c r="AL13" s="67"/>
+      <c r="AM13" s="67"/>
+      <c r="AN13" s="67"/>
+      <c r="AO13" s="67"/>
+      <c r="AP13" s="67"/>
+      <c r="AQ13" s="67"/>
+      <c r="AR13" s="67"/>
+      <c r="AS13" s="67"/>
+      <c r="AT13" s="67"/>
+      <c r="AU13" s="67"/>
+      <c r="AV13" s="67"/>
+      <c r="AW13" s="67"/>
       <c r="AX13" s="35"/>
       <c r="AY13" s="35"/>
     </row>
@@ -8978,25 +9245,31 @@
       <c r="AB14" s="53"/>
       <c r="AC14" s="53"/>
       <c r="AD14" s="53"/>
-      <c r="AE14" s="35"/>
-      <c r="AF14" s="35"/>
-      <c r="AG14" s="35"/>
+      <c r="AE14" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="64" t="s">
+        <v>0</v>
+      </c>
       <c r="AH14" s="35"/>
-      <c r="AI14" s="35"/>
-      <c r="AJ14" s="35"/>
-      <c r="AK14" s="35"/>
-      <c r="AL14" s="35"/>
-      <c r="AM14" s="35"/>
-      <c r="AN14" s="35"/>
-      <c r="AO14" s="35"/>
-      <c r="AP14" s="35"/>
-      <c r="AQ14" s="35"/>
-      <c r="AR14" s="35"/>
-      <c r="AS14" s="35"/>
-      <c r="AT14" s="35"/>
-      <c r="AU14" s="35"/>
-      <c r="AV14" s="35"/>
-      <c r="AW14" s="35"/>
+      <c r="AI14" s="67"/>
+      <c r="AJ14" s="67"/>
+      <c r="AK14" s="67"/>
+      <c r="AL14" s="67"/>
+      <c r="AM14" s="67"/>
+      <c r="AN14" s="67"/>
+      <c r="AO14" s="67"/>
+      <c r="AP14" s="67"/>
+      <c r="AQ14" s="67"/>
+      <c r="AR14" s="67"/>
+      <c r="AS14" s="67"/>
+      <c r="AT14" s="67"/>
+      <c r="AU14" s="67"/>
+      <c r="AV14" s="67"/>
+      <c r="AW14" s="67"/>
       <c r="AX14" s="35"/>
       <c r="AY14" s="35"/>
     </row>
@@ -9051,25 +9324,31 @@
       <c r="AD15" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="AE15" s="35"/>
-      <c r="AF15" s="35"/>
-      <c r="AG15" s="35"/>
+      <c r="AE15" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="64" t="s">
+        <v>0</v>
+      </c>
       <c r="AH15" s="35"/>
-      <c r="AI15" s="35"/>
-      <c r="AJ15" s="35"/>
-      <c r="AK15" s="35"/>
-      <c r="AL15" s="35"/>
-      <c r="AM15" s="35"/>
-      <c r="AN15" s="35"/>
-      <c r="AO15" s="35"/>
-      <c r="AP15" s="35"/>
-      <c r="AQ15" s="35"/>
-      <c r="AR15" s="35"/>
-      <c r="AS15" s="35"/>
-      <c r="AT15" s="35"/>
-      <c r="AU15" s="35"/>
-      <c r="AV15" s="35"/>
-      <c r="AW15" s="35"/>
+      <c r="AI15" s="67"/>
+      <c r="AJ15" s="67"/>
+      <c r="AK15" s="67"/>
+      <c r="AL15" s="67"/>
+      <c r="AM15" s="67"/>
+      <c r="AN15" s="67"/>
+      <c r="AO15" s="67"/>
+      <c r="AP15" s="67"/>
+      <c r="AQ15" s="67"/>
+      <c r="AR15" s="67"/>
+      <c r="AS15" s="67"/>
+      <c r="AT15" s="67"/>
+      <c r="AU15" s="67"/>
+      <c r="AV15" s="67"/>
+      <c r="AW15" s="67"/>
       <c r="AX15" s="35"/>
       <c r="AY15" s="35"/>
     </row>
@@ -9098,17 +9377,19 @@
     <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
     <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="AB3:AD3"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="S3:U3"/>
     <mergeCell ref="P3:R3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TOEIC 300-500 K1" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="142">
   <si>
     <t>x</t>
   </si>
@@ -448,39 +448,6 @@
   </si>
   <si>
     <t>16/5-Lesson 7</t>
-  </si>
-  <si>
-    <t>17/5-Lesson 28</t>
-  </si>
-  <si>
-    <t>17/5-Lesson 8</t>
-  </si>
-  <si>
-    <t>19/5-Lesson 9</t>
-  </si>
-  <si>
-    <t>20/5-Lesson 8</t>
-  </si>
-  <si>
-    <t>22/5-Lesson 29</t>
-  </si>
-  <si>
-    <t>24/5-Lesson 30</t>
-  </si>
-  <si>
-    <t>23/5-Lesson 9</t>
-  </si>
-  <si>
-    <t>22/5-Lesson 10</t>
-  </si>
-  <si>
-    <t>24/5-Lesson 11</t>
-  </si>
-  <si>
-    <t>26/5-Lesson 12</t>
-  </si>
-  <si>
-    <t>27/5-Lesson 10</t>
   </si>
 </sst>
 </file>
@@ -747,7 +714,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -894,30 +861,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -930,12 +873,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -943,6 +880,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1304,30 +1247,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="69" t="s">
+      <c r="G2" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="70" t="s">
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="68" t="s">
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="68" t="s">
+      <c r="O2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="68" t="s">
+      <c r="P2" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="68" t="s">
+      <c r="Q2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="68" t="s">
+      <c r="R2" s="60" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1371,11 +1314,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -1628,30 +1571,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="69" t="s">
+      <c r="G2" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="70" t="s">
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="68" t="s">
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="68" t="s">
+      <c r="O2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="68" t="s">
+      <c r="P2" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="68" t="s">
+      <c r="Q2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="71" t="s">
+      <c r="R2" s="63" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1695,11 +1638,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="71"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="63"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -2674,30 +2617,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="69" t="s">
+      <c r="G2" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="70" t="s">
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="68" t="s">
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="68" t="s">
+      <c r="O2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="68" t="s">
+      <c r="P2" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="68" t="s">
+      <c r="Q2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="68" t="s">
+      <c r="R2" s="60" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2741,11 +2684,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -3022,13 +2965,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3055,30 +2998,30 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I2" s="69" t="s">
+      <c r="I2" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="70" t="s">
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="68" t="s">
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="68" t="s">
+      <c r="Q2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="68" t="s">
+      <c r="R2" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="68" t="s">
+      <c r="S2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="68" t="s">
+      <c r="T2" s="60" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3128,11 +3071,11 @@
       <c r="O3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
     </row>
     <row r="4" spans="1:20" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -3184,10 +3127,10 @@
         <f t="shared" ref="Q4" si="1">SUM(M4:O4)</f>
         <v>26</v>
       </c>
-      <c r="R4" s="21">
+      <c r="R4" s="14">
         <v>185</v>
       </c>
-      <c r="S4" s="21">
+      <c r="S4" s="14">
         <v>65</v>
       </c>
       <c r="T4" s="30">
@@ -3238,11 +3181,11 @@
         <v>15</v>
       </c>
       <c r="P5" s="14">
-        <f t="shared" ref="P5:P11" si="3">SUM(I5:L5)</f>
+        <f t="shared" ref="P5:P14" si="3">SUM(I5:L5)</f>
         <v>34</v>
       </c>
       <c r="Q5" s="14">
-        <f t="shared" ref="Q5:Q11" si="4">SUM(M5:O5)</f>
+        <f t="shared" ref="Q5:Q16" si="4">SUM(M5:O5)</f>
         <v>29</v>
       </c>
       <c r="R5" s="14">
@@ -3252,465 +3195,583 @@
         <v>85</v>
       </c>
       <c r="T5" s="30">
-        <f t="shared" ref="T5:T11" si="5">R5+S5</f>
+        <f t="shared" ref="T5:T14" si="5">R5+S5</f>
         <v>235</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="38" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+    <row r="6" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="30">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="38" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
         <v>3</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B7" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="33" t="s">
+      <c r="C7" s="32"/>
+      <c r="D7" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="31" t="s">
+      <c r="E7" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="32"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31">
+      <c r="G7" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="32"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="31">
+      <c r="Q7" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="37">
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+    <row r="8" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
         <v>4</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B8" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="28" t="s">
+      <c r="C8" s="21"/>
+      <c r="D8" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="14" t="s">
+      <c r="E8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="14">
+      <c r="G8" s="14"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="14">
         <v>3</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J8" s="14">
         <v>15</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K8" s="14">
         <v>12</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L8" s="14">
         <v>13</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M8" s="14">
         <v>18</v>
       </c>
-      <c r="N7" s="14">
+      <c r="N8" s="14">
         <v>2</v>
       </c>
-      <c r="O7" s="14">
+      <c r="O8" s="14">
         <v>13</v>
       </c>
-      <c r="P7" s="14">
-        <f>SUM(I7:L7)</f>
+      <c r="P8" s="14">
+        <f>SUM(I8:L8)</f>
         <v>43</v>
       </c>
-      <c r="Q7" s="14">
+      <c r="Q8" s="14">
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
-      <c r="R7" s="21">
+      <c r="R8" s="14">
         <v>200</v>
       </c>
-      <c r="S7" s="21">
+      <c r="S8" s="14">
         <v>110</v>
       </c>
-      <c r="T7" s="30">
+      <c r="T8" s="30">
         <f t="shared" si="5"/>
         <v>310</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+    <row r="9" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14">
+        <v>15</v>
+      </c>
+      <c r="N9" s="14">
+        <v>8</v>
+      </c>
+      <c r="O9" s="14">
+        <v>29</v>
+      </c>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14">
+        <f t="shared" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14">
+        <v>225</v>
+      </c>
+      <c r="T9" s="30"/>
+    </row>
+    <row r="10" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
         <v>5</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B10" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C10" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D10" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="14" t="s">
+      <c r="E10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="I8" s="17">
+      <c r="G10" s="14"/>
+      <c r="I10" s="17">
         <v>2</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J10" s="17">
         <v>11</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K10" s="17">
         <v>8</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L10" s="17">
         <v>13</v>
       </c>
-      <c r="M8" s="17">
+      <c r="M10" s="17">
         <v>14</v>
       </c>
-      <c r="N8" s="17">
+      <c r="N10" s="17">
         <v>4</v>
       </c>
-      <c r="O8" s="17">
+      <c r="O10" s="17">
         <v>14</v>
       </c>
-      <c r="P8" s="14">
+      <c r="P10" s="14">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="Q8" s="14">
+      <c r="Q10" s="14">
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="R8" s="17">
+      <c r="R10" s="17">
         <v>150</v>
       </c>
-      <c r="S8" s="17">
+      <c r="S10" s="17">
         <v>100</v>
       </c>
-      <c r="T8" s="30">
+      <c r="T10" s="30">
         <f t="shared" si="5"/>
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+    <row r="11" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
         <v>6</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B11" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C11" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D11" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="14" t="s">
+      <c r="E11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="17">
+      <c r="G11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="17">
         <v>3</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J11" s="17">
         <v>14</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K11" s="17">
         <v>12</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L11" s="17">
         <v>8</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M11" s="17">
         <v>18</v>
       </c>
-      <c r="N9" s="17">
+      <c r="N11" s="17">
         <v>5</v>
       </c>
-      <c r="O9" s="17">
+      <c r="O11" s="17">
         <v>9</v>
       </c>
-      <c r="P9" s="14">
+      <c r="P11" s="14">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="Q11" s="14">
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="R9" s="17">
+      <c r="R11" s="17">
         <v>170</v>
       </c>
-      <c r="S9" s="17">
+      <c r="S11" s="17">
         <v>100</v>
       </c>
-      <c r="T9" s="30">
+      <c r="T11" s="30">
         <f t="shared" si="5"/>
         <v>270</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+    <row r="12" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
         <v>7</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B12" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C12" s="26">
         <v>35773</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D12" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="14" t="s">
+      <c r="E12" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="I10" s="17">
-        <v>0</v>
-      </c>
-      <c r="J10" s="17">
+      <c r="G12" s="14"/>
+      <c r="I12" s="17">
+        <v>0</v>
+      </c>
+      <c r="J12" s="17">
         <v>6</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K12" s="17">
         <v>6</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L12" s="17">
         <v>11</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M12" s="17">
         <v>24</v>
       </c>
-      <c r="N10" s="17">
+      <c r="N12" s="17">
         <v>8</v>
       </c>
-      <c r="O10" s="17">
+      <c r="O12" s="17">
         <v>16</v>
       </c>
-      <c r="P10" s="14">
+      <c r="P12" s="14">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="Q10" s="14">
+      <c r="Q12" s="14">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="R10" s="17">
+      <c r="R12" s="17">
         <v>90</v>
       </c>
-      <c r="S10" s="17">
+      <c r="S12" s="17">
         <v>200</v>
       </c>
-      <c r="T10" s="30">
+      <c r="T12" s="30">
         <f t="shared" si="5"/>
         <v>290</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+    <row r="13" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="M13" s="17">
+        <v>23</v>
+      </c>
+      <c r="N13" s="17">
+        <v>6</v>
+      </c>
+      <c r="O13" s="17">
+        <v>33</v>
+      </c>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17">
+        <v>285</v>
+      </c>
+      <c r="T13" s="30"/>
+    </row>
+    <row r="14" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
         <v>8</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B14" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C14" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D14" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="14" t="s">
+      <c r="E14" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="I11" s="17">
+      <c r="G14" s="14"/>
+      <c r="I14" s="17">
         <v>5</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J14" s="17">
         <v>8</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K14" s="17">
         <v>5</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L14" s="17">
         <v>6</v>
       </c>
-      <c r="M11" s="17">
+      <c r="M14" s="17">
         <v>15</v>
       </c>
-      <c r="N11" s="17">
+      <c r="N14" s="17">
         <v>3</v>
       </c>
-      <c r="O11" s="17">
+      <c r="O14" s="17">
         <v>12</v>
       </c>
-      <c r="P11" s="14">
+      <c r="P14" s="14">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="Q11" s="14">
+      <c r="Q14" s="14">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="R11" s="17">
+      <c r="R14" s="17">
         <v>95</v>
       </c>
-      <c r="S11" s="17">
+      <c r="S14" s="17">
         <v>90</v>
       </c>
-      <c r="T11" s="30">
+      <c r="T14" s="30">
         <f t="shared" si="5"/>
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+    <row r="15" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
         <v>9</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B15" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C15" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D15" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="14">
+      <c r="E15" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="14">
         <v>2</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J15" s="14">
         <v>9</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K15" s="14">
         <v>12</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L15" s="14">
         <v>11</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M15" s="14">
         <v>14</v>
       </c>
-      <c r="N12" s="14">
-        <v>0</v>
-      </c>
-      <c r="O12" s="14">
+      <c r="N15" s="14">
+        <v>0</v>
+      </c>
+      <c r="O15" s="14">
         <v>19</v>
       </c>
-      <c r="P12" s="14">
+      <c r="P15" s="14">
         <v>34</v>
       </c>
-      <c r="Q12" s="14">
+      <c r="Q15" s="14">
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
-      <c r="R12" s="14">
+      <c r="R15" s="14">
         <v>150</v>
       </c>
-      <c r="S12" s="14">
+      <c r="S15" s="14">
         <v>110</v>
       </c>
-      <c r="T12" s="30">
-        <f>R12+S12</f>
+      <c r="T15" s="30">
+        <f>R15+S15</f>
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
+    <row r="16" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14">
+        <v>19</v>
+      </c>
+      <c r="N16" s="14">
         <v>10</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="O16" s="14">
+        <v>39</v>
+      </c>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14">
+        <f t="shared" si="4"/>
+        <v>68</v>
+      </c>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14">
+        <v>325</v>
+      </c>
+      <c r="T16" s="30"/>
+    </row>
+    <row r="17" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <v>10</v>
+      </c>
+      <c r="B17" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="29" t="s">
+      <c r="C17" s="21"/>
+      <c r="D17" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="14">
+      <c r="E17" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="14">
         <v>4</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J17" s="14">
         <v>9</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K17" s="14">
         <v>15</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L17" s="14">
         <v>11</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M17" s="14">
         <v>17</v>
       </c>
-      <c r="N13" s="14">
+      <c r="N17" s="14">
         <v>4</v>
       </c>
-      <c r="O13" s="14">
+      <c r="O17" s="14">
         <v>14</v>
       </c>
-      <c r="P13" s="14">
-        <f>I13+J13+K13+L13</f>
+      <c r="P17" s="14">
+        <f>I17+J17+K17+L17</f>
         <v>39</v>
       </c>
-      <c r="Q13" s="14">
-        <f>M13+N13+O13</f>
+      <c r="Q17" s="14">
+        <f>M17+N17+O17</f>
         <v>35</v>
       </c>
-      <c r="R13" s="14">
+      <c r="R17" s="14">
         <v>180</v>
       </c>
-      <c r="S13" s="14">
+      <c r="S17" s="14">
         <v>120</v>
       </c>
-      <c r="T13" s="30">
-        <f>R13+S13</f>
+      <c r="T17" s="30">
+        <f>R17+S17</f>
         <v>300</v>
       </c>
     </row>
@@ -3734,7 +3795,7 @@
   <dimension ref="A1:DH12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="CT6" sqref="CT6"/>
+      <selection activeCell="CG7" sqref="CG7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3759,7 +3820,7 @@
     <col min="64" max="78" width="5.5703125" hidden="1" customWidth="1"/>
     <col min="79" max="85" width="5.5703125" customWidth="1"/>
     <col min="86" max="86" width="6.140625" customWidth="1"/>
-    <col min="87" max="87" width="5.42578125" customWidth="1"/>
+    <col min="87" max="87" width="6.28515625" customWidth="1"/>
     <col min="88" max="103" width="5.140625" customWidth="1"/>
     <col min="104" max="121" width="5.28515625" customWidth="1"/>
   </cols>
@@ -3773,191 +3834,185 @@
       </c>
     </row>
     <row r="3" spans="1:112" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72" t="s">
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72" t="s">
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72" t="s">
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72" t="s">
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72" t="s">
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="T3" s="72"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="72" t="s">
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="W3" s="72"/>
-      <c r="X3" s="72"/>
-      <c r="Y3" s="72" t="s">
+      <c r="W3" s="67"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="Z3" s="72"/>
-      <c r="AA3" s="72"/>
-      <c r="AB3" s="72" t="s">
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="AC3" s="72"/>
-      <c r="AD3" s="72"/>
-      <c r="AE3" s="72" t="s">
+      <c r="AC3" s="67"/>
+      <c r="AD3" s="67"/>
+      <c r="AE3" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="AF3" s="72"/>
-      <c r="AG3" s="72"/>
-      <c r="AH3" s="72" t="s">
+      <c r="AF3" s="67"/>
+      <c r="AG3" s="67"/>
+      <c r="AH3" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="AI3" s="72"/>
-      <c r="AJ3" s="72"/>
-      <c r="AK3" s="72" t="s">
+      <c r="AI3" s="67"/>
+      <c r="AJ3" s="67"/>
+      <c r="AK3" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="AL3" s="72"/>
-      <c r="AM3" s="72"/>
-      <c r="AN3" s="72" t="s">
+      <c r="AL3" s="67"/>
+      <c r="AM3" s="67"/>
+      <c r="AN3" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="AO3" s="72"/>
-      <c r="AP3" s="72"/>
-      <c r="AQ3" s="72" t="s">
+      <c r="AO3" s="67"/>
+      <c r="AP3" s="67"/>
+      <c r="AQ3" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="AR3" s="72"/>
-      <c r="AS3" s="72"/>
-      <c r="AT3" s="72" t="s">
+      <c r="AR3" s="67"/>
+      <c r="AS3" s="67"/>
+      <c r="AT3" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="AU3" s="72"/>
-      <c r="AV3" s="72"/>
-      <c r="AW3" s="72" t="s">
+      <c r="AU3" s="67"/>
+      <c r="AV3" s="67"/>
+      <c r="AW3" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="AX3" s="72"/>
-      <c r="AY3" s="72"/>
-      <c r="AZ3" s="72" t="s">
+      <c r="AX3" s="67"/>
+      <c r="AY3" s="67"/>
+      <c r="AZ3" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="BA3" s="72"/>
-      <c r="BB3" s="72"/>
-      <c r="BC3" s="72" t="s">
+      <c r="BA3" s="67"/>
+      <c r="BB3" s="67"/>
+      <c r="BC3" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="BD3" s="72"/>
-      <c r="BE3" s="72"/>
-      <c r="BF3" s="72" t="s">
+      <c r="BD3" s="67"/>
+      <c r="BE3" s="67"/>
+      <c r="BF3" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="BG3" s="72"/>
-      <c r="BH3" s="72"/>
-      <c r="BI3" s="72" t="s">
+      <c r="BG3" s="67"/>
+      <c r="BH3" s="67"/>
+      <c r="BI3" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="BJ3" s="72"/>
-      <c r="BK3" s="72"/>
-      <c r="BL3" s="72" t="s">
+      <c r="BJ3" s="67"/>
+      <c r="BK3" s="67"/>
+      <c r="BL3" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="BM3" s="72"/>
-      <c r="BN3" s="72"/>
-      <c r="BO3" s="72" t="s">
+      <c r="BM3" s="67"/>
+      <c r="BN3" s="67"/>
+      <c r="BO3" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="BP3" s="72"/>
-      <c r="BQ3" s="72"/>
-      <c r="BR3" s="72" t="s">
+      <c r="BP3" s="67"/>
+      <c r="BQ3" s="67"/>
+      <c r="BR3" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="BS3" s="72"/>
-      <c r="BT3" s="72"/>
-      <c r="BU3" s="74" t="s">
+      <c r="BS3" s="67"/>
+      <c r="BT3" s="67"/>
+      <c r="BU3" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="BV3" s="75"/>
-      <c r="BW3" s="76"/>
-      <c r="BX3" s="74" t="s">
+      <c r="BV3" s="65"/>
+      <c r="BW3" s="66"/>
+      <c r="BX3" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="BY3" s="75"/>
-      <c r="BZ3" s="76"/>
-      <c r="CA3" s="74" t="s">
+      <c r="BY3" s="65"/>
+      <c r="BZ3" s="66"/>
+      <c r="CA3" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="CB3" s="75"/>
-      <c r="CC3" s="76"/>
-      <c r="CD3" s="74" t="s">
+      <c r="CB3" s="65"/>
+      <c r="CC3" s="66"/>
+      <c r="CD3" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="CE3" s="75"/>
-      <c r="CF3" s="76"/>
-      <c r="CG3" s="74" t="s">
+      <c r="CE3" s="65"/>
+      <c r="CF3" s="66"/>
+      <c r="CG3" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="CH3" s="75"/>
-      <c r="CI3" s="76"/>
-      <c r="CJ3" s="77" t="s">
-        <v>142</v>
-      </c>
-      <c r="CK3" s="78"/>
-      <c r="CL3" s="79"/>
-      <c r="CM3" s="77" t="s">
-        <v>146</v>
-      </c>
-      <c r="CN3" s="78"/>
-      <c r="CO3" s="79"/>
-      <c r="CP3" s="77" t="s">
-        <v>147</v>
-      </c>
-      <c r="CQ3" s="78"/>
-      <c r="CR3" s="79"/>
-      <c r="CS3" s="35"/>
-      <c r="CT3" s="35"/>
-      <c r="CU3" s="35"/>
-      <c r="CV3" s="35"/>
-      <c r="CW3" s="35"/>
-      <c r="CX3" s="35"/>
-      <c r="CY3" s="35"/>
-      <c r="CZ3" s="35"/>
-      <c r="DA3" s="35"/>
-      <c r="DB3" s="35"/>
-      <c r="DC3" s="35"/>
-      <c r="DD3" s="35"/>
-      <c r="DE3" s="35"/>
-      <c r="DF3" s="35"/>
-      <c r="DG3" s="35"/>
+      <c r="CH3" s="65"/>
+      <c r="CI3" s="66"/>
+      <c r="CJ3" s="58"/>
+      <c r="CK3" s="58"/>
+      <c r="CL3" s="58"/>
+      <c r="CM3" s="58"/>
+      <c r="CN3" s="58"/>
+      <c r="CO3" s="58"/>
+      <c r="CP3" s="58"/>
+      <c r="CQ3" s="58"/>
+      <c r="CR3" s="58"/>
+      <c r="CS3" s="58"/>
+      <c r="CT3" s="58"/>
+      <c r="CU3" s="58"/>
+      <c r="CV3" s="58"/>
+      <c r="CW3" s="58"/>
+      <c r="CX3" s="58"/>
+      <c r="CY3" s="58"/>
+      <c r="CZ3" s="58"/>
+      <c r="DA3" s="58"/>
+      <c r="DB3" s="58"/>
+      <c r="DC3" s="58"/>
+      <c r="DD3" s="58"/>
+      <c r="DE3" s="58"/>
+      <c r="DF3" s="58"/>
+      <c r="DG3" s="58"/>
       <c r="DH3" s="58"/>
     </row>
     <row r="4" spans="1:112" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="73"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
       <c r="D4" s="34" t="s">
         <v>66</v>
       </c>
@@ -4210,48 +4265,30 @@
       <c r="CI4" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="CJ4" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="CK4" s="60" t="s">
-        <v>67</v>
-      </c>
-      <c r="CL4" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="CM4" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="CN4" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="CO4" s="63" t="s">
-        <v>64</v>
-      </c>
-      <c r="CP4" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="CQ4" s="64" t="s">
-        <v>67</v>
-      </c>
-      <c r="CR4" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="CS4" s="60"/>
-      <c r="CT4" s="60"/>
-      <c r="CU4" s="60"/>
-      <c r="CV4" s="60"/>
-      <c r="CW4" s="60"/>
-      <c r="CX4" s="60"/>
-      <c r="CY4" s="60"/>
-      <c r="CZ4" s="60"/>
-      <c r="DA4" s="60"/>
-      <c r="DB4" s="60"/>
-      <c r="DC4" s="60"/>
-      <c r="DD4" s="60"/>
-      <c r="DE4" s="60"/>
-      <c r="DF4" s="60"/>
-      <c r="DG4" s="60"/>
+      <c r="CJ4" s="58"/>
+      <c r="CK4" s="58"/>
+      <c r="CL4" s="58"/>
+      <c r="CM4" s="58"/>
+      <c r="CN4" s="58"/>
+      <c r="CO4" s="58"/>
+      <c r="CP4" s="58"/>
+      <c r="CQ4" s="58"/>
+      <c r="CR4" s="58"/>
+      <c r="CS4" s="58"/>
+      <c r="CT4" s="58"/>
+      <c r="CU4" s="58"/>
+      <c r="CV4" s="58"/>
+      <c r="CW4" s="58"/>
+      <c r="CX4" s="58"/>
+      <c r="CY4" s="58"/>
+      <c r="CZ4" s="58"/>
+      <c r="DA4" s="58"/>
+      <c r="DB4" s="58"/>
+      <c r="DC4" s="58"/>
+      <c r="DD4" s="58"/>
+      <c r="DE4" s="58"/>
+      <c r="DF4" s="58"/>
+      <c r="DG4" s="58"/>
       <c r="DH4" s="58"/>
     </row>
     <row r="5" spans="1:112" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4472,48 +4509,30 @@
       <c r="CI5" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="CJ5" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="CK5" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="CL5" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM5" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="CN5" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="CO5" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="CP5" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="CQ5" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="CR5" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="CS5" s="60"/>
-      <c r="CT5" s="60"/>
-      <c r="CU5" s="60"/>
-      <c r="CV5" s="60"/>
-      <c r="CW5" s="60"/>
-      <c r="CX5" s="60"/>
-      <c r="CY5" s="60"/>
-      <c r="CZ5" s="60"/>
-      <c r="DA5" s="60"/>
-      <c r="DB5" s="60"/>
-      <c r="DC5" s="60"/>
-      <c r="DD5" s="60"/>
-      <c r="DE5" s="60"/>
-      <c r="DF5" s="60"/>
-      <c r="DG5" s="60"/>
+      <c r="CJ5" s="58"/>
+      <c r="CK5" s="58"/>
+      <c r="CL5" s="58"/>
+      <c r="CM5" s="58"/>
+      <c r="CN5" s="58"/>
+      <c r="CO5" s="58"/>
+      <c r="CP5" s="58"/>
+      <c r="CQ5" s="58"/>
+      <c r="CR5" s="58"/>
+      <c r="CS5" s="58"/>
+      <c r="CT5" s="58"/>
+      <c r="CU5" s="58"/>
+      <c r="CV5" s="58"/>
+      <c r="CW5" s="58"/>
+      <c r="CX5" s="58"/>
+      <c r="CY5" s="58"/>
+      <c r="CZ5" s="58"/>
+      <c r="DA5" s="58"/>
+      <c r="DB5" s="58"/>
+      <c r="DC5" s="58"/>
+      <c r="DD5" s="58"/>
+      <c r="DE5" s="58"/>
+      <c r="DF5" s="58"/>
+      <c r="DG5" s="58"/>
       <c r="DH5" s="58"/>
     </row>
     <row r="6" spans="1:112" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4710,42 +4729,30 @@
         <v>0</v>
       </c>
       <c r="CI6" s="59"/>
-      <c r="CJ6" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="CK6" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="CL6" s="60"/>
-      <c r="CM6" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="CN6" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="CO6" s="60"/>
-      <c r="CP6" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="CQ6" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="CR6" s="60"/>
-      <c r="CS6" s="60"/>
-      <c r="CT6" s="60"/>
-      <c r="CU6" s="60"/>
-      <c r="CV6" s="60"/>
-      <c r="CW6" s="60"/>
-      <c r="CX6" s="60"/>
-      <c r="CY6" s="60"/>
-      <c r="CZ6" s="60"/>
-      <c r="DA6" s="60"/>
-      <c r="DB6" s="60"/>
-      <c r="DC6" s="60"/>
-      <c r="DD6" s="60"/>
-      <c r="DE6" s="60"/>
-      <c r="DF6" s="60"/>
-      <c r="DG6" s="60"/>
+      <c r="CJ6" s="59"/>
+      <c r="CK6" s="59"/>
+      <c r="CL6" s="59"/>
+      <c r="CM6" s="59"/>
+      <c r="CN6" s="59"/>
+      <c r="CO6" s="59"/>
+      <c r="CP6" s="59"/>
+      <c r="CQ6" s="59"/>
+      <c r="CR6" s="59"/>
+      <c r="CS6" s="59"/>
+      <c r="CT6" s="59"/>
+      <c r="CU6" s="59"/>
+      <c r="CV6" s="59"/>
+      <c r="CW6" s="59"/>
+      <c r="CX6" s="59"/>
+      <c r="CY6" s="59"/>
+      <c r="CZ6" s="59"/>
+      <c r="DA6" s="59"/>
+      <c r="DB6" s="59"/>
+      <c r="DC6" s="59"/>
+      <c r="DD6" s="59"/>
+      <c r="DE6" s="59"/>
+      <c r="DF6" s="59"/>
+      <c r="DG6" s="59"/>
       <c r="DH6" s="59"/>
     </row>
     <row r="7" spans="1:112" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4930,44 +4937,30 @@
       <c r="CI7" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="CJ7" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="CK7" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="CL7" s="60"/>
-      <c r="CM7" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="CN7" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="CO7" s="60"/>
-      <c r="CP7" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="CQ7" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="CR7" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="CS7" s="60"/>
-      <c r="CT7" s="60"/>
-      <c r="CU7" s="60"/>
-      <c r="CV7" s="60"/>
-      <c r="CW7" s="60"/>
-      <c r="CX7" s="60"/>
-      <c r="CY7" s="60"/>
-      <c r="CZ7" s="60"/>
-      <c r="DA7" s="60"/>
-      <c r="DB7" s="60"/>
-      <c r="DC7" s="60"/>
-      <c r="DD7" s="60"/>
-      <c r="DE7" s="60"/>
-      <c r="DF7" s="60"/>
-      <c r="DG7" s="60"/>
+      <c r="CJ7" s="59"/>
+      <c r="CK7" s="59"/>
+      <c r="CL7" s="59"/>
+      <c r="CM7" s="59"/>
+      <c r="CN7" s="59"/>
+      <c r="CO7" s="59"/>
+      <c r="CP7" s="59"/>
+      <c r="CQ7" s="59"/>
+      <c r="CR7" s="59"/>
+      <c r="CS7" s="59"/>
+      <c r="CT7" s="59"/>
+      <c r="CU7" s="59"/>
+      <c r="CV7" s="59"/>
+      <c r="CW7" s="59"/>
+      <c r="CX7" s="59"/>
+      <c r="CY7" s="59"/>
+      <c r="CZ7" s="59"/>
+      <c r="DA7" s="59"/>
+      <c r="DB7" s="59"/>
+      <c r="DC7" s="59"/>
+      <c r="DD7" s="59"/>
+      <c r="DE7" s="59"/>
+      <c r="DF7" s="59"/>
+      <c r="DG7" s="59"/>
       <c r="DH7" s="59"/>
     </row>
     <row r="8" spans="1:112" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5178,48 +5171,30 @@
       <c r="CI8" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="CJ8" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="CK8" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="CL8" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM8" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="CN8" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="CO8" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="CP8" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="CQ8" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="CR8" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="CS8" s="60"/>
-      <c r="CT8" s="60"/>
-      <c r="CU8" s="60"/>
-      <c r="CV8" s="60"/>
-      <c r="CW8" s="60"/>
-      <c r="CX8" s="60"/>
-      <c r="CY8" s="60"/>
-      <c r="CZ8" s="60"/>
-      <c r="DA8" s="60"/>
-      <c r="DB8" s="60"/>
-      <c r="DC8" s="60"/>
-      <c r="DD8" s="60"/>
-      <c r="DE8" s="60"/>
-      <c r="DF8" s="60"/>
-      <c r="DG8" s="60"/>
+      <c r="CJ8" s="59"/>
+      <c r="CK8" s="59"/>
+      <c r="CL8" s="59"/>
+      <c r="CM8" s="59"/>
+      <c r="CN8" s="59"/>
+      <c r="CO8" s="59"/>
+      <c r="CP8" s="59"/>
+      <c r="CQ8" s="59"/>
+      <c r="CR8" s="59"/>
+      <c r="CS8" s="59"/>
+      <c r="CT8" s="59"/>
+      <c r="CU8" s="59"/>
+      <c r="CV8" s="59"/>
+      <c r="CW8" s="59"/>
+      <c r="CX8" s="59"/>
+      <c r="CY8" s="59"/>
+      <c r="CZ8" s="59"/>
+      <c r="DA8" s="59"/>
+      <c r="DB8" s="59"/>
+      <c r="DC8" s="59"/>
+      <c r="DD8" s="59"/>
+      <c r="DE8" s="59"/>
+      <c r="DF8" s="59"/>
+      <c r="DG8" s="59"/>
       <c r="DH8" s="59"/>
     </row>
     <row r="9" spans="1:112" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5420,44 +5395,30 @@
         <v>0</v>
       </c>
       <c r="CI9" s="59"/>
-      <c r="CJ9" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="CK9" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="CL9" s="60"/>
-      <c r="CM9" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="CN9" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="CO9" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="CP9" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="CQ9" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="CR9" s="60"/>
-      <c r="CS9" s="60"/>
-      <c r="CT9" s="60"/>
-      <c r="CU9" s="60"/>
-      <c r="CV9" s="60"/>
-      <c r="CW9" s="60"/>
-      <c r="CX9" s="60"/>
-      <c r="CY9" s="60"/>
-      <c r="CZ9" s="60"/>
-      <c r="DA9" s="60"/>
-      <c r="DB9" s="60"/>
-      <c r="DC9" s="60"/>
-      <c r="DD9" s="60"/>
-      <c r="DE9" s="60"/>
-      <c r="DF9" s="60"/>
-      <c r="DG9" s="60"/>
+      <c r="CJ9" s="59"/>
+      <c r="CK9" s="59"/>
+      <c r="CL9" s="59"/>
+      <c r="CM9" s="59"/>
+      <c r="CN9" s="59"/>
+      <c r="CO9" s="59"/>
+      <c r="CP9" s="59"/>
+      <c r="CQ9" s="59"/>
+      <c r="CR9" s="59"/>
+      <c r="CS9" s="59"/>
+      <c r="CT9" s="59"/>
+      <c r="CU9" s="59"/>
+      <c r="CV9" s="59"/>
+      <c r="CW9" s="59"/>
+      <c r="CX9" s="59"/>
+      <c r="CY9" s="59"/>
+      <c r="CZ9" s="59"/>
+      <c r="DA9" s="59"/>
+      <c r="DB9" s="59"/>
+      <c r="DC9" s="59"/>
+      <c r="DD9" s="59"/>
+      <c r="DE9" s="59"/>
+      <c r="DF9" s="59"/>
+      <c r="DG9" s="59"/>
       <c r="DH9" s="59"/>
     </row>
     <row r="10" spans="1:112" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5662,46 +5623,30 @@
       <c r="CI10" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="CJ10" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="CK10" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="CL10" s="60"/>
-      <c r="CM10" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="CN10" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="CO10" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="CP10" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="CQ10" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="CR10" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="CS10" s="60"/>
-      <c r="CT10" s="60"/>
-      <c r="CU10" s="60"/>
-      <c r="CV10" s="60"/>
-      <c r="CW10" s="60"/>
-      <c r="CX10" s="60"/>
-      <c r="CY10" s="60"/>
-      <c r="CZ10" s="60"/>
-      <c r="DA10" s="60"/>
-      <c r="DB10" s="60"/>
-      <c r="DC10" s="60"/>
-      <c r="DD10" s="60"/>
-      <c r="DE10" s="60"/>
-      <c r="DF10" s="60"/>
-      <c r="DG10" s="60"/>
+      <c r="CJ10" s="59"/>
+      <c r="CK10" s="59"/>
+      <c r="CL10" s="59"/>
+      <c r="CM10" s="59"/>
+      <c r="CN10" s="59"/>
+      <c r="CO10" s="59"/>
+      <c r="CP10" s="59"/>
+      <c r="CQ10" s="59"/>
+      <c r="CR10" s="59"/>
+      <c r="CS10" s="59"/>
+      <c r="CT10" s="59"/>
+      <c r="CU10" s="59"/>
+      <c r="CV10" s="59"/>
+      <c r="CW10" s="59"/>
+      <c r="CX10" s="59"/>
+      <c r="CY10" s="59"/>
+      <c r="CZ10" s="59"/>
+      <c r="DA10" s="59"/>
+      <c r="DB10" s="59"/>
+      <c r="DC10" s="59"/>
+      <c r="DD10" s="59"/>
+      <c r="DE10" s="59"/>
+      <c r="DF10" s="59"/>
+      <c r="DG10" s="59"/>
       <c r="DH10" s="59"/>
     </row>
     <row r="11" spans="1:112" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5884,42 +5829,30 @@
         <v>0</v>
       </c>
       <c r="CI11" s="59"/>
-      <c r="CJ11" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="CK11" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="CL11" s="60"/>
-      <c r="CM11" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="CN11" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="CO11" s="60"/>
-      <c r="CP11" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="CQ11" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="CR11" s="60"/>
-      <c r="CS11" s="60"/>
-      <c r="CT11" s="60"/>
-      <c r="CU11" s="60"/>
-      <c r="CV11" s="60"/>
-      <c r="CW11" s="60"/>
-      <c r="CX11" s="60"/>
-      <c r="CY11" s="60"/>
-      <c r="CZ11" s="60"/>
-      <c r="DA11" s="60"/>
-      <c r="DB11" s="60"/>
-      <c r="DC11" s="60"/>
-      <c r="DD11" s="60"/>
-      <c r="DE11" s="60"/>
-      <c r="DF11" s="60"/>
-      <c r="DG11" s="60"/>
+      <c r="CJ11" s="59"/>
+      <c r="CK11" s="59"/>
+      <c r="CL11" s="59"/>
+      <c r="CM11" s="59"/>
+      <c r="CN11" s="59"/>
+      <c r="CO11" s="59"/>
+      <c r="CP11" s="59"/>
+      <c r="CQ11" s="59"/>
+      <c r="CR11" s="59"/>
+      <c r="CS11" s="59"/>
+      <c r="CT11" s="59"/>
+      <c r="CU11" s="59"/>
+      <c r="CV11" s="59"/>
+      <c r="CW11" s="59"/>
+      <c r="CX11" s="59"/>
+      <c r="CY11" s="59"/>
+      <c r="CZ11" s="59"/>
+      <c r="DA11" s="59"/>
+      <c r="DB11" s="59"/>
+      <c r="DC11" s="59"/>
+      <c r="DD11" s="59"/>
+      <c r="DE11" s="59"/>
+      <c r="DF11" s="59"/>
+      <c r="DG11" s="59"/>
       <c r="DH11" s="59"/>
     </row>
     <row r="12" spans="1:112" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6123,73 +6056,49 @@
       <c r="CH12" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="CI12" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="CJ12" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="CK12" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="CL12" s="60"/>
-      <c r="CM12" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="CN12" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="CO12" s="60"/>
-      <c r="CP12" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="CQ12" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="CR12" s="60"/>
-      <c r="CS12" s="60"/>
-      <c r="CT12" s="60"/>
-      <c r="CU12" s="60"/>
-      <c r="CV12" s="60"/>
-      <c r="CW12" s="60"/>
-      <c r="CX12" s="60"/>
-      <c r="CY12" s="60"/>
-      <c r="CZ12" s="60"/>
-      <c r="DA12" s="60"/>
-      <c r="DB12" s="60"/>
-      <c r="DC12" s="60"/>
-      <c r="DD12" s="60"/>
-      <c r="DE12" s="60"/>
-      <c r="DF12" s="60"/>
-      <c r="DG12" s="60"/>
+      <c r="CI12" s="59"/>
+      <c r="CJ12" s="59"/>
+      <c r="CK12" s="59"/>
+      <c r="CL12" s="59"/>
+      <c r="CM12" s="59"/>
+      <c r="CN12" s="59"/>
+      <c r="CO12" s="59"/>
+      <c r="CP12" s="59"/>
+      <c r="CQ12" s="59"/>
+      <c r="CR12" s="59"/>
+      <c r="CS12" s="59"/>
+      <c r="CT12" s="59"/>
+      <c r="CU12" s="59"/>
+      <c r="CV12" s="59"/>
+      <c r="CW12" s="59"/>
+      <c r="CX12" s="59"/>
+      <c r="CY12" s="59"/>
+      <c r="CZ12" s="59"/>
+      <c r="DA12" s="59"/>
+      <c r="DB12" s="59"/>
+      <c r="DC12" s="59"/>
+      <c r="DD12" s="59"/>
+      <c r="DE12" s="59"/>
+      <c r="DF12" s="59"/>
+      <c r="DG12" s="59"/>
       <c r="DH12" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="31">
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BK3"/>
+    <mergeCell ref="AQ3:AS3"/>
     <mergeCell ref="AT3:AV3"/>
     <mergeCell ref="AW3:AY3"/>
     <mergeCell ref="AZ3:BB3"/>
     <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="CJ3:CL3"/>
-    <mergeCell ref="CG3:CI3"/>
-    <mergeCell ref="CA3:CC3"/>
-    <mergeCell ref="CD3:CF3"/>
-    <mergeCell ref="BL3:BN3"/>
-    <mergeCell ref="BO3:BQ3"/>
-    <mergeCell ref="BX3:BZ3"/>
-    <mergeCell ref="CP3:CR3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="AN3:AP3"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="BR3:BT3"/>
-    <mergeCell ref="BU3:BW3"/>
-    <mergeCell ref="AK3:AM3"/>
-    <mergeCell ref="AN3:AP3"/>
-    <mergeCell ref="CM3:CO3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BK3"/>
-    <mergeCell ref="AQ3:AS3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -6199,7 +6108,14 @@
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:U3"/>
-    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="CG3:CI3"/>
+    <mergeCell ref="CA3:CC3"/>
+    <mergeCell ref="CD3:CF3"/>
+    <mergeCell ref="BL3:BN3"/>
+    <mergeCell ref="BO3:BQ3"/>
+    <mergeCell ref="BR3:BT3"/>
+    <mergeCell ref="BU3:BW3"/>
+    <mergeCell ref="BX3:BZ3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6240,30 +6156,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="69" t="s">
+      <c r="G2" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="70" t="s">
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="68" t="s">
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="68" t="s">
+      <c r="O2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="68" t="s">
+      <c r="P2" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="68" t="s">
+      <c r="Q2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="68" t="s">
+      <c r="R2" s="60" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6307,11 +6223,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -6570,7 +6486,7 @@
   <dimension ref="A1:BC18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AQ3" sqref="AQ3:AS3"/>
+      <selection activeCell="AB10" sqref="AB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6593,10 +6509,10 @@
       </c>
     </row>
     <row r="3" spans="1:55" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="72" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="34" t="s">
@@ -6611,69 +6527,59 @@
       <c r="F3" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="81" t="s">
+      <c r="G3" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="77" t="s">
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="69" t="s">
         <v>123</v>
       </c>
-      <c r="K3" s="78"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="77" t="s">
+      <c r="K3" s="70"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="N3" s="78"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="77" t="s">
+      <c r="N3" s="70"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="77" t="s">
+      <c r="Q3" s="70"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="T3" s="78"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="77" t="s">
+      <c r="T3" s="70"/>
+      <c r="U3" s="71"/>
+      <c r="V3" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="W3" s="78"/>
-      <c r="X3" s="79"/>
-      <c r="Y3" s="77" t="s">
+      <c r="W3" s="70"/>
+      <c r="X3" s="71"/>
+      <c r="Y3" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="Z3" s="78"/>
-      <c r="AA3" s="79"/>
-      <c r="AB3" s="77" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC3" s="78"/>
-      <c r="AD3" s="79"/>
-      <c r="AE3" s="77" t="s">
-        <v>144</v>
-      </c>
-      <c r="AF3" s="78"/>
-      <c r="AG3" s="79"/>
-      <c r="AH3" s="77" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI3" s="78"/>
-      <c r="AJ3" s="79"/>
-      <c r="AK3" s="77" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL3" s="78"/>
-      <c r="AM3" s="79"/>
-      <c r="AN3" s="77" t="s">
-        <v>151</v>
-      </c>
-      <c r="AO3" s="78"/>
-      <c r="AP3" s="79"/>
-      <c r="AQ3" s="77"/>
-      <c r="AR3" s="78"/>
-      <c r="AS3" s="79"/>
+      <c r="Z3" s="70"/>
+      <c r="AA3" s="71"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="54"/>
+      <c r="AQ3" s="54"/>
+      <c r="AR3" s="54"/>
+      <c r="AS3" s="54"/>
       <c r="AT3" s="54"/>
       <c r="AU3" s="54"/>
       <c r="AV3" s="54"/>
@@ -6686,8 +6592,8 @@
       <c r="BC3" s="54"/>
     </row>
     <row r="4" spans="1:55" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80"/>
-      <c r="B4" s="80"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="72"/>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
@@ -6755,51 +6661,21 @@
       <c r="AA4" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="AB4" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC4" s="60" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD4" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE4" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF4" s="61" t="s">
-        <v>119</v>
-      </c>
-      <c r="AG4" s="61" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH4" s="65" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI4" s="65" t="s">
-        <v>119</v>
-      </c>
-      <c r="AJ4" s="65" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK4" s="65" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL4" s="65" t="s">
-        <v>119</v>
-      </c>
-      <c r="AM4" s="65" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN4" s="66" t="s">
-        <v>66</v>
-      </c>
-      <c r="AO4" s="66" t="s">
-        <v>119</v>
-      </c>
-      <c r="AP4" s="66" t="s">
-        <v>64</v>
-      </c>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="54"/>
       <c r="AQ4" s="54"/>
       <c r="AR4" s="54"/>
       <c r="AS4" s="54"/>
@@ -6868,47 +6744,21 @@
       <c r="AA5" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="AB5" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="61" t="s">
-        <v>0</v>
-      </c>
+      <c r="AB5" s="54"/>
+      <c r="AC5" s="54"/>
+      <c r="AD5" s="54"/>
+      <c r="AE5" s="54"/>
+      <c r="AF5" s="54"/>
       <c r="AG5" s="54"/>
-      <c r="AH5" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="65" t="s">
-        <v>0</v>
-      </c>
+      <c r="AH5" s="54"/>
+      <c r="AI5" s="54"/>
       <c r="AJ5" s="54"/>
-      <c r="AK5" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="66" t="s">
-        <v>0</v>
-      </c>
+      <c r="AK5" s="54"/>
+      <c r="AL5" s="54"/>
+      <c r="AM5" s="54"/>
+      <c r="AN5" s="54"/>
+      <c r="AO5" s="54"/>
+      <c r="AP5" s="54"/>
       <c r="AQ5" s="54"/>
       <c r="AR5" s="54"/>
       <c r="AS5" s="54"/>
@@ -6971,19 +6821,11 @@
       <c r="AA6" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="AB6" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="60" t="s">
-        <v>0</v>
-      </c>
+      <c r="AB6" s="54"/>
+      <c r="AC6" s="54"/>
       <c r="AD6" s="54"/>
-      <c r="AE6" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="61" t="s">
-        <v>0</v>
-      </c>
+      <c r="AE6" s="54"/>
+      <c r="AF6" s="54"/>
       <c r="AG6" s="54"/>
       <c r="AH6" s="54"/>
       <c r="AI6" s="54"/>
@@ -7076,44 +6918,20 @@
       <c r="AA7" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="AB7" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="60" t="s">
-        <v>0</v>
-      </c>
+      <c r="AB7" s="54"/>
+      <c r="AC7" s="54"/>
       <c r="AD7" s="54"/>
-      <c r="AE7" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="65" t="s">
-        <v>0</v>
-      </c>
+      <c r="AE7" s="54"/>
+      <c r="AF7" s="54"/>
+      <c r="AG7" s="54"/>
+      <c r="AH7" s="54"/>
+      <c r="AI7" s="54"/>
       <c r="AJ7" s="54"/>
-      <c r="AK7" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="66" t="s">
-        <v>0</v>
-      </c>
+      <c r="AK7" s="54"/>
+      <c r="AL7" s="54"/>
+      <c r="AM7" s="54"/>
+      <c r="AN7" s="54"/>
+      <c r="AO7" s="54"/>
       <c r="AP7" s="54"/>
       <c r="AQ7" s="54"/>
       <c r="AR7" s="54"/>
@@ -7197,51 +7015,21 @@
       <c r="AA8" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="AB8" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="66" t="s">
-        <v>0</v>
-      </c>
+      <c r="AB8" s="54"/>
+      <c r="AC8" s="54"/>
+      <c r="AD8" s="54"/>
+      <c r="AE8" s="54"/>
+      <c r="AF8" s="54"/>
+      <c r="AG8" s="54"/>
+      <c r="AH8" s="54"/>
+      <c r="AI8" s="54"/>
+      <c r="AJ8" s="54"/>
+      <c r="AK8" s="54"/>
+      <c r="AL8" s="54"/>
+      <c r="AM8" s="54"/>
+      <c r="AN8" s="54"/>
+      <c r="AO8" s="54"/>
+      <c r="AP8" s="54"/>
       <c r="AQ8" s="54"/>
       <c r="AR8" s="54"/>
       <c r="AS8" s="54"/>
@@ -7318,38 +7106,20 @@
         <v>0</v>
       </c>
       <c r="AA9" s="54"/>
-      <c r="AB9" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="60" t="s">
-        <v>0</v>
-      </c>
+      <c r="AB9" s="54"/>
+      <c r="AC9" s="54"/>
       <c r="AD9" s="54"/>
-      <c r="AE9" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="61" t="s">
-        <v>0</v>
-      </c>
+      <c r="AE9" s="54"/>
+      <c r="AF9" s="54"/>
       <c r="AG9" s="54"/>
-      <c r="AH9" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="65" t="s">
-        <v>0</v>
-      </c>
+      <c r="AH9" s="54"/>
+      <c r="AI9" s="54"/>
       <c r="AJ9" s="54"/>
-      <c r="AK9" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="65" t="s">
-        <v>0</v>
-      </c>
+      <c r="AK9" s="54"/>
+      <c r="AL9" s="54"/>
       <c r="AM9" s="54"/>
       <c r="AN9" s="54"/>
-      <c r="AO9" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="AO9" s="54"/>
       <c r="AP9" s="54"/>
       <c r="AQ9" s="54"/>
       <c r="AR9" s="54"/>
@@ -7441,47 +7211,21 @@
         <v>0</v>
       </c>
       <c r="AA10" s="54"/>
-      <c r="AB10" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="65" t="s">
-        <v>0</v>
-      </c>
+      <c r="AB10" s="54"/>
+      <c r="AC10" s="54"/>
+      <c r="AD10" s="54"/>
+      <c r="AE10" s="54"/>
+      <c r="AF10" s="54"/>
+      <c r="AG10" s="54"/>
+      <c r="AH10" s="54"/>
+      <c r="AI10" s="54"/>
       <c r="AJ10" s="54"/>
-      <c r="AK10" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="65" t="s">
-        <v>0</v>
-      </c>
+      <c r="AK10" s="54"/>
+      <c r="AL10" s="54"/>
       <c r="AM10" s="54"/>
-      <c r="AN10" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO10" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP10" s="66" t="s">
-        <v>0</v>
-      </c>
+      <c r="AN10" s="54"/>
+      <c r="AO10" s="54"/>
+      <c r="AP10" s="54"/>
       <c r="AQ10" s="54"/>
       <c r="AR10" s="54"/>
       <c r="AS10" s="54"/>
@@ -7649,22 +7393,16 @@
       <c r="S18" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="AQ3:AS3"/>
-    <mergeCell ref="AN3:AP3"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AK3:AM3"/>
-    <mergeCell ref="AE3:AG3"/>
+  <mergeCells count="9">
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:U3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="M3:O3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:U3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7705,30 +7443,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="69" t="s">
+      <c r="G2" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="70" t="s">
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="68" t="s">
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="68" t="s">
+      <c r="O2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="68" t="s">
+      <c r="P2" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="68" t="s">
+      <c r="Q2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="68" t="s">
+      <c r="R2" s="60" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7772,11 +7510,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -8117,12 +7855,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="V5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="BA9" sqref="BA9"/>
       <selection pane="topRight" activeCell="BA9" sqref="BA9"/>
       <selection pane="bottomLeft" activeCell="BA9" sqref="BA9"/>
-      <selection pane="bottomRight" activeCell="AN10" sqref="AN10"/>
+      <selection pane="bottomRight" activeCell="AD11" sqref="AD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8144,10 +7882,10 @@
       </c>
     </row>
     <row r="3" spans="1:51" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="72" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="41" t="s">
@@ -8162,56 +7900,50 @@
       <c r="F3" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="G3" s="81" t="s">
+      <c r="G3" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="77" t="s">
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="K3" s="78"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="77" t="s">
+      <c r="K3" s="70"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="N3" s="78"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="77" t="s">
+      <c r="N3" s="70"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="77" t="s">
+      <c r="Q3" s="70"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="T3" s="78"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="77" t="s">
+      <c r="T3" s="70"/>
+      <c r="U3" s="71"/>
+      <c r="V3" s="69" t="s">
         <v>136</v>
       </c>
-      <c r="W3" s="78"/>
-      <c r="X3" s="79"/>
-      <c r="Y3" s="77" t="s">
+      <c r="W3" s="70"/>
+      <c r="X3" s="71"/>
+      <c r="Y3" s="69" t="s">
         <v>141</v>
       </c>
-      <c r="Z3" s="78"/>
-      <c r="AA3" s="79"/>
-      <c r="AB3" s="77" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC3" s="78"/>
-      <c r="AD3" s="79"/>
-      <c r="AE3" s="77" t="s">
-        <v>148</v>
-      </c>
-      <c r="AF3" s="78"/>
-      <c r="AG3" s="79"/>
-      <c r="AH3" s="77" t="s">
-        <v>152</v>
-      </c>
-      <c r="AI3" s="78"/>
-      <c r="AJ3" s="79"/>
+      <c r="Z3" s="70"/>
+      <c r="AA3" s="71"/>
+      <c r="AB3" s="69"/>
+      <c r="AC3" s="70"/>
+      <c r="AD3" s="71"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="35"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="35"/>
       <c r="AK3" s="35"/>
       <c r="AL3" s="35"/>
       <c r="AM3" s="35"/>
@@ -8229,8 +7961,8 @@
       <c r="AY3" s="35"/>
     </row>
     <row r="4" spans="1:51" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80"/>
-      <c r="B4" s="80"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="72"/>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
@@ -8298,33 +8030,15 @@
       <c r="AA4" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="AB4" s="62" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC4" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD4" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE4" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF4" s="64" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG4" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH4" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI4" s="67" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ4" s="67" t="s">
-        <v>64</v>
-      </c>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="35"/>
+      <c r="AJ4" s="35"/>
       <c r="AK4" s="35"/>
       <c r="AL4" s="35"/>
       <c r="AM4" s="35"/>
@@ -8401,40 +8115,28 @@
         <v>0</v>
       </c>
       <c r="AA5" s="53"/>
-      <c r="AB5" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="62" t="s">
-        <v>0</v>
-      </c>
+      <c r="AB5" s="53"/>
+      <c r="AC5" s="53"/>
       <c r="AD5" s="53"/>
-      <c r="AE5" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="64" t="s">
-        <v>0</v>
-      </c>
+      <c r="AE5" s="35"/>
+      <c r="AF5" s="35"/>
       <c r="AG5" s="35"/>
-      <c r="AH5" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="67"/>
-      <c r="AQ5" s="67"/>
-      <c r="AR5" s="67"/>
-      <c r="AS5" s="67"/>
-      <c r="AT5" s="67"/>
-      <c r="AU5" s="67"/>
-      <c r="AV5" s="67"/>
-      <c r="AW5" s="67"/>
+      <c r="AH5" s="35"/>
+      <c r="AI5" s="35"/>
+      <c r="AJ5" s="35"/>
+      <c r="AK5" s="35"/>
+      <c r="AL5" s="35"/>
+      <c r="AM5" s="35"/>
+      <c r="AN5" s="35"/>
+      <c r="AO5" s="35"/>
+      <c r="AP5" s="35"/>
+      <c r="AQ5" s="35"/>
+      <c r="AR5" s="35"/>
+      <c r="AS5" s="35"/>
+      <c r="AT5" s="35"/>
+      <c r="AU5" s="35"/>
+      <c r="AV5" s="35"/>
+      <c r="AW5" s="35"/>
       <c r="AX5" s="35"/>
       <c r="AY5" s="35"/>
     </row>
@@ -8502,42 +8204,28 @@
         <v>0</v>
       </c>
       <c r="AA6" s="53"/>
-      <c r="AB6" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="62" t="s">
-        <v>0</v>
-      </c>
+      <c r="AB6" s="53"/>
+      <c r="AC6" s="53"/>
       <c r="AD6" s="53"/>
-      <c r="AE6" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="64" t="s">
-        <v>0</v>
-      </c>
+      <c r="AE6" s="35"/>
+      <c r="AF6" s="35"/>
       <c r="AG6" s="35"/>
-      <c r="AH6" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="67"/>
-      <c r="AL6" s="67"/>
-      <c r="AM6" s="67"/>
-      <c r="AN6" s="67"/>
-      <c r="AO6" s="67"/>
-      <c r="AP6" s="67"/>
-      <c r="AQ6" s="67"/>
-      <c r="AR6" s="67"/>
-      <c r="AS6" s="67"/>
-      <c r="AT6" s="67"/>
-      <c r="AU6" s="67"/>
-      <c r="AV6" s="67"/>
-      <c r="AW6" s="67"/>
+      <c r="AH6" s="35"/>
+      <c r="AI6" s="35"/>
+      <c r="AJ6" s="35"/>
+      <c r="AK6" s="35"/>
+      <c r="AL6" s="35"/>
+      <c r="AM6" s="35"/>
+      <c r="AN6" s="35"/>
+      <c r="AO6" s="35"/>
+      <c r="AP6" s="35"/>
+      <c r="AQ6" s="35"/>
+      <c r="AR6" s="35"/>
+      <c r="AS6" s="35"/>
+      <c r="AT6" s="35"/>
+      <c r="AU6" s="35"/>
+      <c r="AV6" s="35"/>
+      <c r="AW6" s="35"/>
       <c r="AX6" s="35"/>
       <c r="AY6" s="35"/>
     </row>
@@ -8586,33 +8274,27 @@
       </c>
       <c r="AA7" s="53"/>
       <c r="AB7" s="53"/>
-      <c r="AC7" s="53" t="s">
-        <v>0</v>
-      </c>
+      <c r="AC7" s="53"/>
       <c r="AD7" s="53"/>
       <c r="AE7" s="35"/>
-      <c r="AF7" s="35" t="s">
-        <v>0</v>
-      </c>
+      <c r="AF7" s="35"/>
       <c r="AG7" s="35"/>
       <c r="AH7" s="35"/>
-      <c r="AI7" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="67"/>
-      <c r="AK7" s="67"/>
-      <c r="AL7" s="67"/>
-      <c r="AM7" s="67"/>
-      <c r="AN7" s="67"/>
-      <c r="AO7" s="67"/>
-      <c r="AP7" s="67"/>
-      <c r="AQ7" s="67"/>
-      <c r="AR7" s="67"/>
-      <c r="AS7" s="67"/>
-      <c r="AT7" s="67"/>
-      <c r="AU7" s="67"/>
-      <c r="AV7" s="67"/>
-      <c r="AW7" s="67"/>
+      <c r="AI7" s="35"/>
+      <c r="AJ7" s="35"/>
+      <c r="AK7" s="35"/>
+      <c r="AL7" s="35"/>
+      <c r="AM7" s="35"/>
+      <c r="AN7" s="35"/>
+      <c r="AO7" s="35"/>
+      <c r="AP7" s="35"/>
+      <c r="AQ7" s="35"/>
+      <c r="AR7" s="35"/>
+      <c r="AS7" s="35"/>
+      <c r="AT7" s="35"/>
+      <c r="AU7" s="35"/>
+      <c r="AV7" s="35"/>
+      <c r="AW7" s="35"/>
       <c r="AX7" s="35"/>
       <c r="AY7" s="35"/>
     </row>
@@ -8661,35 +8343,27 @@
       </c>
       <c r="AA8" s="53"/>
       <c r="AB8" s="53"/>
-      <c r="AC8" s="53" t="s">
-        <v>0</v>
-      </c>
+      <c r="AC8" s="53"/>
       <c r="AD8" s="53"/>
-      <c r="AE8" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="64" t="s">
-        <v>0</v>
-      </c>
+      <c r="AE8" s="35"/>
+      <c r="AF8" s="35"/>
       <c r="AG8" s="35"/>
       <c r="AH8" s="35"/>
-      <c r="AI8" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="67"/>
-      <c r="AK8" s="67"/>
-      <c r="AL8" s="67"/>
-      <c r="AM8" s="67"/>
-      <c r="AN8" s="67"/>
-      <c r="AO8" s="67"/>
-      <c r="AP8" s="67"/>
-      <c r="AQ8" s="67"/>
-      <c r="AR8" s="67"/>
-      <c r="AS8" s="67"/>
-      <c r="AT8" s="67"/>
-      <c r="AU8" s="67"/>
-      <c r="AV8" s="67"/>
-      <c r="AW8" s="67"/>
+      <c r="AI8" s="35"/>
+      <c r="AJ8" s="35"/>
+      <c r="AK8" s="35"/>
+      <c r="AL8" s="35"/>
+      <c r="AM8" s="35"/>
+      <c r="AN8" s="35"/>
+      <c r="AO8" s="35"/>
+      <c r="AP8" s="35"/>
+      <c r="AQ8" s="35"/>
+      <c r="AR8" s="35"/>
+      <c r="AS8" s="35"/>
+      <c r="AT8" s="35"/>
+      <c r="AU8" s="35"/>
+      <c r="AV8" s="35"/>
+      <c r="AW8" s="35"/>
       <c r="AX8" s="35"/>
       <c r="AY8" s="35"/>
     </row>
@@ -8757,40 +8431,28 @@
         <v>0</v>
       </c>
       <c r="AA9" s="53"/>
-      <c r="AB9" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="62" t="s">
-        <v>0</v>
-      </c>
+      <c r="AB9" s="53"/>
+      <c r="AC9" s="53"/>
       <c r="AD9" s="53"/>
-      <c r="AE9" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="64" t="s">
-        <v>0</v>
-      </c>
+      <c r="AE9" s="35"/>
+      <c r="AF9" s="35"/>
       <c r="AG9" s="35"/>
-      <c r="AH9" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="67"/>
-      <c r="AK9" s="67"/>
-      <c r="AL9" s="67"/>
-      <c r="AM9" s="67"/>
-      <c r="AN9" s="67"/>
-      <c r="AO9" s="67"/>
-      <c r="AP9" s="67"/>
-      <c r="AQ9" s="67"/>
-      <c r="AR9" s="67"/>
-      <c r="AS9" s="67"/>
-      <c r="AT9" s="67"/>
-      <c r="AU9" s="67"/>
-      <c r="AV9" s="67"/>
-      <c r="AW9" s="67"/>
+      <c r="AH9" s="35"/>
+      <c r="AI9" s="35"/>
+      <c r="AJ9" s="35"/>
+      <c r="AK9" s="35"/>
+      <c r="AL9" s="35"/>
+      <c r="AM9" s="35"/>
+      <c r="AN9" s="35"/>
+      <c r="AO9" s="35"/>
+      <c r="AP9" s="35"/>
+      <c r="AQ9" s="35"/>
+      <c r="AR9" s="35"/>
+      <c r="AS9" s="35"/>
+      <c r="AT9" s="35"/>
+      <c r="AU9" s="35"/>
+      <c r="AV9" s="35"/>
+      <c r="AW9" s="35"/>
       <c r="AX9" s="35"/>
       <c r="AY9" s="35"/>
     </row>
@@ -8858,38 +8520,28 @@
         <v>0</v>
       </c>
       <c r="AA10" s="53"/>
-      <c r="AB10" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="62" t="s">
-        <v>0</v>
-      </c>
+      <c r="AB10" s="53"/>
+      <c r="AC10" s="53"/>
       <c r="AD10" s="53"/>
-      <c r="AE10" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="64" t="s">
-        <v>0</v>
-      </c>
+      <c r="AE10" s="35"/>
+      <c r="AF10" s="35"/>
       <c r="AG10" s="35"/>
       <c r="AH10" s="35"/>
-      <c r="AI10" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="67"/>
-      <c r="AK10" s="67"/>
-      <c r="AL10" s="67"/>
-      <c r="AM10" s="67"/>
-      <c r="AN10" s="67"/>
-      <c r="AO10" s="67"/>
-      <c r="AP10" s="67"/>
-      <c r="AQ10" s="67"/>
-      <c r="AR10" s="67"/>
-      <c r="AS10" s="67"/>
-      <c r="AT10" s="67"/>
-      <c r="AU10" s="67"/>
-      <c r="AV10" s="67"/>
-      <c r="AW10" s="67"/>
+      <c r="AI10" s="35"/>
+      <c r="AJ10" s="35"/>
+      <c r="AK10" s="35"/>
+      <c r="AL10" s="35"/>
+      <c r="AM10" s="35"/>
+      <c r="AN10" s="35"/>
+      <c r="AO10" s="35"/>
+      <c r="AP10" s="35"/>
+      <c r="AQ10" s="35"/>
+      <c r="AR10" s="35"/>
+      <c r="AS10" s="35"/>
+      <c r="AT10" s="35"/>
+      <c r="AU10" s="35"/>
+      <c r="AV10" s="35"/>
+      <c r="AW10" s="35"/>
       <c r="AX10" s="35"/>
       <c r="AY10" s="35"/>
     </row>
@@ -8957,42 +8609,28 @@
         <v>0</v>
       </c>
       <c r="AA11" s="53"/>
-      <c r="AB11" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="62" t="s">
-        <v>0</v>
-      </c>
+      <c r="AB11" s="53"/>
+      <c r="AC11" s="53"/>
       <c r="AD11" s="53"/>
-      <c r="AE11" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="67"/>
-      <c r="AK11" s="67"/>
-      <c r="AL11" s="67"/>
-      <c r="AM11" s="67"/>
-      <c r="AN11" s="67"/>
-      <c r="AO11" s="67"/>
-      <c r="AP11" s="67"/>
-      <c r="AQ11" s="67"/>
-      <c r="AR11" s="67"/>
-      <c r="AS11" s="67"/>
-      <c r="AT11" s="67"/>
-      <c r="AU11" s="67"/>
-      <c r="AV11" s="67"/>
-      <c r="AW11" s="67"/>
+      <c r="AE11" s="35"/>
+      <c r="AF11" s="35"/>
+      <c r="AG11" s="35"/>
+      <c r="AH11" s="35"/>
+      <c r="AI11" s="35"/>
+      <c r="AJ11" s="35"/>
+      <c r="AK11" s="35"/>
+      <c r="AL11" s="35"/>
+      <c r="AM11" s="35"/>
+      <c r="AN11" s="35"/>
+      <c r="AO11" s="35"/>
+      <c r="AP11" s="35"/>
+      <c r="AQ11" s="35"/>
+      <c r="AR11" s="35"/>
+      <c r="AS11" s="35"/>
+      <c r="AT11" s="35"/>
+      <c r="AU11" s="35"/>
+      <c r="AV11" s="35"/>
+      <c r="AW11" s="35"/>
       <c r="AX11" s="35"/>
       <c r="AY11" s="35"/>
     </row>
@@ -9058,42 +8696,28 @@
         <v>0</v>
       </c>
       <c r="AA12" s="53"/>
-      <c r="AB12" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="64" t="s">
-        <v>0</v>
-      </c>
+      <c r="AB12" s="53"/>
+      <c r="AC12" s="53"/>
+      <c r="AD12" s="53"/>
+      <c r="AE12" s="35"/>
+      <c r="AF12" s="35"/>
       <c r="AG12" s="35"/>
-      <c r="AH12" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="67"/>
-      <c r="AK12" s="67"/>
-      <c r="AL12" s="67"/>
-      <c r="AM12" s="67"/>
-      <c r="AN12" s="67"/>
-      <c r="AO12" s="67"/>
-      <c r="AP12" s="67"/>
-      <c r="AQ12" s="67"/>
-      <c r="AR12" s="67"/>
-      <c r="AS12" s="67"/>
-      <c r="AT12" s="67"/>
-      <c r="AU12" s="67"/>
-      <c r="AV12" s="67"/>
-      <c r="AW12" s="67"/>
+      <c r="AH12" s="35"/>
+      <c r="AI12" s="35"/>
+      <c r="AJ12" s="35"/>
+      <c r="AK12" s="35"/>
+      <c r="AL12" s="35"/>
+      <c r="AM12" s="35"/>
+      <c r="AN12" s="35"/>
+      <c r="AO12" s="35"/>
+      <c r="AP12" s="35"/>
+      <c r="AQ12" s="35"/>
+      <c r="AR12" s="35"/>
+      <c r="AS12" s="35"/>
+      <c r="AT12" s="35"/>
+      <c r="AU12" s="35"/>
+      <c r="AV12" s="35"/>
+      <c r="AW12" s="35"/>
       <c r="AX12" s="35"/>
       <c r="AY12" s="35"/>
     </row>
@@ -9163,44 +8787,28 @@
         <v>0</v>
       </c>
       <c r="AA13" s="53"/>
-      <c r="AB13" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="62" t="s">
-        <v>0</v>
-      </c>
+      <c r="AB13" s="53"/>
+      <c r="AC13" s="53"/>
       <c r="AD13" s="53"/>
-      <c r="AE13" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="67"/>
-      <c r="AL13" s="67"/>
-      <c r="AM13" s="67"/>
-      <c r="AN13" s="67"/>
-      <c r="AO13" s="67"/>
-      <c r="AP13" s="67"/>
-      <c r="AQ13" s="67"/>
-      <c r="AR13" s="67"/>
-      <c r="AS13" s="67"/>
-      <c r="AT13" s="67"/>
-      <c r="AU13" s="67"/>
-      <c r="AV13" s="67"/>
-      <c r="AW13" s="67"/>
+      <c r="AE13" s="35"/>
+      <c r="AF13" s="35"/>
+      <c r="AG13" s="35"/>
+      <c r="AH13" s="35"/>
+      <c r="AI13" s="35"/>
+      <c r="AJ13" s="35"/>
+      <c r="AK13" s="35"/>
+      <c r="AL13" s="35"/>
+      <c r="AM13" s="35"/>
+      <c r="AN13" s="35"/>
+      <c r="AO13" s="35"/>
+      <c r="AP13" s="35"/>
+      <c r="AQ13" s="35"/>
+      <c r="AR13" s="35"/>
+      <c r="AS13" s="35"/>
+      <c r="AT13" s="35"/>
+      <c r="AU13" s="35"/>
+      <c r="AV13" s="35"/>
+      <c r="AW13" s="35"/>
       <c r="AX13" s="35"/>
       <c r="AY13" s="35"/>
     </row>
@@ -9245,31 +8853,25 @@
       <c r="AB14" s="53"/>
       <c r="AC14" s="53"/>
       <c r="AD14" s="53"/>
-      <c r="AE14" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="64" t="s">
-        <v>0</v>
-      </c>
+      <c r="AE14" s="35"/>
+      <c r="AF14" s="35"/>
+      <c r="AG14" s="35"/>
       <c r="AH14" s="35"/>
-      <c r="AI14" s="67"/>
-      <c r="AJ14" s="67"/>
-      <c r="AK14" s="67"/>
-      <c r="AL14" s="67"/>
-      <c r="AM14" s="67"/>
-      <c r="AN14" s="67"/>
-      <c r="AO14" s="67"/>
-      <c r="AP14" s="67"/>
-      <c r="AQ14" s="67"/>
-      <c r="AR14" s="67"/>
-      <c r="AS14" s="67"/>
-      <c r="AT14" s="67"/>
-      <c r="AU14" s="67"/>
-      <c r="AV14" s="67"/>
-      <c r="AW14" s="67"/>
+      <c r="AI14" s="35"/>
+      <c r="AJ14" s="35"/>
+      <c r="AK14" s="35"/>
+      <c r="AL14" s="35"/>
+      <c r="AM14" s="35"/>
+      <c r="AN14" s="35"/>
+      <c r="AO14" s="35"/>
+      <c r="AP14" s="35"/>
+      <c r="AQ14" s="35"/>
+      <c r="AR14" s="35"/>
+      <c r="AS14" s="35"/>
+      <c r="AT14" s="35"/>
+      <c r="AU14" s="35"/>
+      <c r="AV14" s="35"/>
+      <c r="AW14" s="35"/>
       <c r="AX14" s="35"/>
       <c r="AY14" s="35"/>
     </row>
@@ -9315,40 +8917,28 @@
         <v>0</v>
       </c>
       <c r="AA15" s="43"/>
-      <c r="AB15" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="64" t="s">
-        <v>0</v>
-      </c>
+      <c r="AB15" s="43"/>
+      <c r="AC15" s="43"/>
+      <c r="AD15" s="43"/>
+      <c r="AE15" s="35"/>
+      <c r="AF15" s="35"/>
+      <c r="AG15" s="35"/>
       <c r="AH15" s="35"/>
-      <c r="AI15" s="67"/>
-      <c r="AJ15" s="67"/>
-      <c r="AK15" s="67"/>
-      <c r="AL15" s="67"/>
-      <c r="AM15" s="67"/>
-      <c r="AN15" s="67"/>
-      <c r="AO15" s="67"/>
-      <c r="AP15" s="67"/>
-      <c r="AQ15" s="67"/>
-      <c r="AR15" s="67"/>
-      <c r="AS15" s="67"/>
-      <c r="AT15" s="67"/>
-      <c r="AU15" s="67"/>
-      <c r="AV15" s="67"/>
-      <c r="AW15" s="67"/>
+      <c r="AI15" s="35"/>
+      <c r="AJ15" s="35"/>
+      <c r="AK15" s="35"/>
+      <c r="AL15" s="35"/>
+      <c r="AM15" s="35"/>
+      <c r="AN15" s="35"/>
+      <c r="AO15" s="35"/>
+      <c r="AP15" s="35"/>
+      <c r="AQ15" s="35"/>
+      <c r="AR15" s="35"/>
+      <c r="AS15" s="35"/>
+      <c r="AT15" s="35"/>
+      <c r="AU15" s="35"/>
+      <c r="AV15" s="35"/>
+      <c r="AW15" s="35"/>
       <c r="AX15" s="35"/>
       <c r="AY15" s="35"/>
     </row>
@@ -9377,19 +8967,17 @@
     <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AE3:AG3"/>
+  <mergeCells count="10">
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="P3:R3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="M3:O3"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="P3:R3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TOEIC 300-500 K1" sheetId="2" r:id="rId1"/>
@@ -936,9 +936,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -948,6 +945,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -955,9 +958,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3028,13 +3028,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="M13" sqref="M13:S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3244,11 +3244,11 @@
         <v>15</v>
       </c>
       <c r="P5" s="14">
-        <f t="shared" ref="P5:P11" si="3">SUM(I5:L5)</f>
+        <f t="shared" ref="P5:P14" si="3">SUM(I5:L5)</f>
         <v>34</v>
       </c>
       <c r="Q5" s="14">
-        <f t="shared" ref="Q5:Q11" si="4">SUM(M5:O5)</f>
+        <f t="shared" ref="Q5:Q14" si="4">SUM(M5:O5)</f>
         <v>29</v>
       </c>
       <c r="R5" s="14">
@@ -3258,465 +3258,571 @@
         <v>85</v>
       </c>
       <c r="T5" s="30">
-        <f t="shared" ref="T5:T11" si="5">R5+S5</f>
+        <f t="shared" ref="T5:T14" si="5">R5+S5</f>
         <v>235</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="38" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+    <row r="6" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="30">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="38" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
         <v>3</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B7" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="33" t="s">
+      <c r="C7" s="32"/>
+      <c r="D7" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="31" t="s">
+      <c r="E7" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="32"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31">
+      <c r="G7" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="32"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="31">
+      <c r="Q7" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="37">
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+    <row r="8" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
         <v>4</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B8" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="28" t="s">
+      <c r="C8" s="21"/>
+      <c r="D8" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="14" t="s">
+      <c r="E8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="14">
+      <c r="G8" s="14"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="14">
         <v>3</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J8" s="14">
         <v>15</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K8" s="14">
         <v>12</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L8" s="14">
         <v>13</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M8" s="14">
         <v>18</v>
       </c>
-      <c r="N7" s="14">
+      <c r="N8" s="14">
         <v>2</v>
       </c>
-      <c r="O7" s="14">
+      <c r="O8" s="14">
         <v>13</v>
       </c>
-      <c r="P7" s="14">
-        <f>SUM(I7:L7)</f>
+      <c r="P8" s="14">
+        <f>SUM(I8:L8)</f>
         <v>43</v>
       </c>
-      <c r="Q7" s="14">
+      <c r="Q8" s="14">
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
-      <c r="R7" s="21">
+      <c r="R8" s="21">
         <v>200</v>
       </c>
-      <c r="S7" s="21">
+      <c r="S8" s="21">
         <v>110</v>
       </c>
-      <c r="T7" s="30">
+      <c r="T8" s="30">
         <f t="shared" si="5"/>
         <v>310</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+    <row r="9" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14">
+        <v>15</v>
+      </c>
+      <c r="N9" s="14">
+        <v>8</v>
+      </c>
+      <c r="O9" s="14">
+        <v>29</v>
+      </c>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14">
+        <f t="shared" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14">
+        <v>225</v>
+      </c>
+      <c r="T9" s="30"/>
+    </row>
+    <row r="10" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
         <v>5</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B10" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C10" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D10" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="14" t="s">
+      <c r="E10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="I8" s="17">
+      <c r="G10" s="14"/>
+      <c r="I10" s="17">
         <v>2</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J10" s="17">
         <v>11</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K10" s="17">
         <v>8</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L10" s="17">
         <v>13</v>
       </c>
-      <c r="M8" s="17">
+      <c r="M10" s="17">
         <v>14</v>
       </c>
-      <c r="N8" s="17">
+      <c r="N10" s="17">
         <v>4</v>
       </c>
-      <c r="O8" s="17">
+      <c r="O10" s="17">
         <v>14</v>
       </c>
-      <c r="P8" s="14">
+      <c r="P10" s="14">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="Q8" s="14">
+      <c r="Q10" s="14">
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="R8" s="17">
+      <c r="R10" s="17">
         <v>150</v>
       </c>
-      <c r="S8" s="17">
+      <c r="S10" s="17">
         <v>100</v>
       </c>
-      <c r="T8" s="30">
+      <c r="T10" s="30">
         <f t="shared" si="5"/>
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+    <row r="11" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
         <v>6</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B11" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C11" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D11" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="14" t="s">
+      <c r="E11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="17">
+      <c r="G11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="17">
         <v>3</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J11" s="17">
         <v>14</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K11" s="17">
         <v>12</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L11" s="17">
         <v>8</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M11" s="17">
         <v>18</v>
       </c>
-      <c r="N9" s="17">
+      <c r="N11" s="17">
         <v>5</v>
       </c>
-      <c r="O9" s="17">
+      <c r="O11" s="17">
         <v>9</v>
       </c>
-      <c r="P9" s="14">
+      <c r="P11" s="14">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="Q11" s="14">
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="R9" s="17">
+      <c r="R11" s="17">
         <v>170</v>
       </c>
-      <c r="S9" s="17">
+      <c r="S11" s="17">
         <v>100</v>
       </c>
-      <c r="T9" s="30">
+      <c r="T11" s="30">
         <f t="shared" si="5"/>
         <v>270</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+    <row r="12" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
         <v>7</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B12" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C12" s="26">
         <v>35773</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D12" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="14" t="s">
+      <c r="E12" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="I10" s="17">
-        <v>0</v>
-      </c>
-      <c r="J10" s="17">
+      <c r="G12" s="14"/>
+      <c r="I12" s="17">
+        <v>0</v>
+      </c>
+      <c r="J12" s="17">
         <v>6</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K12" s="17">
         <v>6</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L12" s="17">
         <v>11</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M12" s="17">
         <v>24</v>
       </c>
-      <c r="N10" s="17">
+      <c r="N12" s="17">
         <v>8</v>
       </c>
-      <c r="O10" s="17">
+      <c r="O12" s="17">
         <v>16</v>
       </c>
-      <c r="P10" s="14">
+      <c r="P12" s="14">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="Q10" s="14">
+      <c r="Q12" s="14">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="R10" s="17">
+      <c r="R12" s="17">
         <v>90</v>
       </c>
-      <c r="S10" s="17">
+      <c r="S12" s="17">
         <v>200</v>
       </c>
-      <c r="T10" s="30">
+      <c r="T12" s="30">
         <f t="shared" si="5"/>
         <v>290</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+    <row r="13" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="M13" s="17">
+        <v>23</v>
+      </c>
+      <c r="N13" s="17">
+        <v>6</v>
+      </c>
+      <c r="O13" s="17">
+        <v>33</v>
+      </c>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17">
+        <v>285</v>
+      </c>
+      <c r="T13" s="30"/>
+    </row>
+    <row r="14" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
         <v>8</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B14" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C14" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D14" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="14" t="s">
+      <c r="E14" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="I11" s="17">
+      <c r="G14" s="14"/>
+      <c r="I14" s="17">
         <v>5</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J14" s="17">
         <v>8</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K14" s="17">
         <v>5</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L14" s="17">
         <v>6</v>
       </c>
-      <c r="M11" s="17">
+      <c r="M14" s="17">
         <v>15</v>
       </c>
-      <c r="N11" s="17">
+      <c r="N14" s="17">
         <v>3</v>
       </c>
-      <c r="O11" s="17">
+      <c r="O14" s="17">
         <v>12</v>
       </c>
-      <c r="P11" s="14">
+      <c r="P14" s="14">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="Q11" s="14">
+      <c r="Q14" s="14">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="R11" s="17">
+      <c r="R14" s="17">
         <v>95</v>
       </c>
-      <c r="S11" s="17">
+      <c r="S14" s="17">
         <v>90</v>
       </c>
-      <c r="T11" s="30">
+      <c r="T14" s="30">
         <f t="shared" si="5"/>
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+    <row r="15" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
         <v>9</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B15" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C15" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D15" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="14">
+      <c r="E15" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="14">
         <v>2</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J15" s="14">
         <v>9</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K15" s="14">
         <v>12</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L15" s="14">
         <v>11</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M15" s="14">
         <v>14</v>
       </c>
-      <c r="N12" s="14">
-        <v>0</v>
-      </c>
-      <c r="O12" s="14">
+      <c r="N15" s="14">
+        <v>0</v>
+      </c>
+      <c r="O15" s="14">
         <v>19</v>
       </c>
-      <c r="P12" s="14">
+      <c r="P15" s="14">
         <v>34</v>
       </c>
-      <c r="Q12" s="14">
+      <c r="Q15" s="14">
         <v>33</v>
       </c>
-      <c r="R12" s="14">
+      <c r="R15" s="14">
         <v>150</v>
       </c>
-      <c r="S12" s="14">
+      <c r="S15" s="14">
         <v>110</v>
       </c>
-      <c r="T12" s="30">
-        <f>R12+S12</f>
+      <c r="T15" s="30">
+        <f>R15+S15</f>
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
+    <row r="16" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="30"/>
+    </row>
+    <row r="17" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
         <v>10</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B17" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="29" t="s">
+      <c r="C17" s="21"/>
+      <c r="D17" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="14">
+      <c r="E17" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="14">
         <v>4</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J17" s="14">
         <v>9</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K17" s="14">
         <v>15</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L17" s="14">
         <v>11</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M17" s="14">
         <v>17</v>
       </c>
-      <c r="N13" s="14">
+      <c r="N17" s="14">
         <v>4</v>
       </c>
-      <c r="O13" s="14">
+      <c r="O17" s="14">
         <v>14</v>
       </c>
-      <c r="P13" s="14">
-        <f>I13+J13+K13+L13</f>
+      <c r="P17" s="14">
+        <f>I17+J17+K17+L17</f>
         <v>39</v>
       </c>
-      <c r="Q13" s="14">
-        <f>M13+N13+O13</f>
+      <c r="Q17" s="14">
+        <f>M17+N17+O17</f>
         <v>35</v>
       </c>
-      <c r="R13" s="14">
+      <c r="R17" s="14">
         <v>180</v>
       </c>
-      <c r="S13" s="14">
+      <c r="S17" s="14">
         <v>120</v>
       </c>
-      <c r="T13" s="30">
-        <f>R13+S13</f>
+      <c r="T17" s="30">
+        <f>R17+S17</f>
         <v>300</v>
       </c>
     </row>
@@ -3779,175 +3885,175 @@
       </c>
     </row>
     <row r="3" spans="1:112" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73" t="s">
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73" t="s">
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73" t="s">
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73" t="s">
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73" t="s">
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73" t="s">
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="W3" s="73"/>
-      <c r="X3" s="73"/>
-      <c r="Y3" s="73" t="s">
+      <c r="W3" s="76"/>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="Z3" s="73"/>
-      <c r="AA3" s="73"/>
-      <c r="AB3" s="73" t="s">
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="AC3" s="73"/>
-      <c r="AD3" s="73"/>
-      <c r="AE3" s="73" t="s">
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="76"/>
+      <c r="AE3" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="AF3" s="73"/>
-      <c r="AG3" s="73"/>
-      <c r="AH3" s="73" t="s">
+      <c r="AF3" s="76"/>
+      <c r="AG3" s="76"/>
+      <c r="AH3" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="AI3" s="73"/>
-      <c r="AJ3" s="73"/>
-      <c r="AK3" s="73" t="s">
+      <c r="AI3" s="76"/>
+      <c r="AJ3" s="76"/>
+      <c r="AK3" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="AL3" s="73"/>
-      <c r="AM3" s="73"/>
-      <c r="AN3" s="73" t="s">
+      <c r="AL3" s="76"/>
+      <c r="AM3" s="76"/>
+      <c r="AN3" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="AO3" s="73"/>
-      <c r="AP3" s="73"/>
-      <c r="AQ3" s="73" t="s">
+      <c r="AO3" s="76"/>
+      <c r="AP3" s="76"/>
+      <c r="AQ3" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="AR3" s="73"/>
-      <c r="AS3" s="73"/>
-      <c r="AT3" s="73" t="s">
+      <c r="AR3" s="76"/>
+      <c r="AS3" s="76"/>
+      <c r="AT3" s="76" t="s">
         <v>84</v>
       </c>
-      <c r="AU3" s="73"/>
-      <c r="AV3" s="73"/>
-      <c r="AW3" s="73" t="s">
+      <c r="AU3" s="76"/>
+      <c r="AV3" s="76"/>
+      <c r="AW3" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="AX3" s="73"/>
-      <c r="AY3" s="73"/>
-      <c r="AZ3" s="73" t="s">
+      <c r="AX3" s="76"/>
+      <c r="AY3" s="76"/>
+      <c r="AZ3" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="BA3" s="73"/>
-      <c r="BB3" s="73"/>
-      <c r="BC3" s="73" t="s">
+      <c r="BA3" s="76"/>
+      <c r="BB3" s="76"/>
+      <c r="BC3" s="76" t="s">
         <v>101</v>
       </c>
-      <c r="BD3" s="73"/>
-      <c r="BE3" s="73"/>
-      <c r="BF3" s="73" t="s">
+      <c r="BD3" s="76"/>
+      <c r="BE3" s="76"/>
+      <c r="BF3" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="BG3" s="73"/>
-      <c r="BH3" s="73"/>
-      <c r="BI3" s="73" t="s">
+      <c r="BG3" s="76"/>
+      <c r="BH3" s="76"/>
+      <c r="BI3" s="76" t="s">
         <v>113</v>
       </c>
-      <c r="BJ3" s="73"/>
-      <c r="BK3" s="73"/>
-      <c r="BL3" s="73" t="s">
+      <c r="BJ3" s="76"/>
+      <c r="BK3" s="76"/>
+      <c r="BL3" s="76" t="s">
         <v>118</v>
       </c>
-      <c r="BM3" s="73"/>
-      <c r="BN3" s="73"/>
-      <c r="BO3" s="73" t="s">
+      <c r="BM3" s="76"/>
+      <c r="BN3" s="76"/>
+      <c r="BO3" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="BP3" s="73"/>
-      <c r="BQ3" s="73"/>
-      <c r="BR3" s="73" t="s">
+      <c r="BP3" s="76"/>
+      <c r="BQ3" s="76"/>
+      <c r="BR3" s="76" t="s">
         <v>124</v>
       </c>
-      <c r="BS3" s="73"/>
-      <c r="BT3" s="73"/>
-      <c r="BU3" s="77" t="s">
+      <c r="BS3" s="76"/>
+      <c r="BT3" s="76"/>
+      <c r="BU3" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="BV3" s="78"/>
-      <c r="BW3" s="79"/>
-      <c r="BX3" s="77" t="s">
+      <c r="BV3" s="79"/>
+      <c r="BW3" s="80"/>
+      <c r="BX3" s="78" t="s">
         <v>127</v>
       </c>
-      <c r="BY3" s="78"/>
-      <c r="BZ3" s="79"/>
-      <c r="CA3" s="77" t="s">
+      <c r="BY3" s="79"/>
+      <c r="BZ3" s="80"/>
+      <c r="CA3" s="78" t="s">
         <v>133</v>
       </c>
-      <c r="CB3" s="78"/>
-      <c r="CC3" s="79"/>
-      <c r="CD3" s="77" t="s">
+      <c r="CB3" s="79"/>
+      <c r="CC3" s="80"/>
+      <c r="CD3" s="78" t="s">
         <v>138</v>
       </c>
-      <c r="CE3" s="78"/>
-      <c r="CF3" s="79"/>
-      <c r="CG3" s="77" t="s">
+      <c r="CE3" s="79"/>
+      <c r="CF3" s="80"/>
+      <c r="CG3" s="78" t="s">
         <v>139</v>
       </c>
-      <c r="CH3" s="78"/>
-      <c r="CI3" s="79"/>
-      <c r="CJ3" s="74" t="s">
+      <c r="CH3" s="79"/>
+      <c r="CI3" s="80"/>
+      <c r="CJ3" s="73" t="s">
         <v>142</v>
       </c>
-      <c r="CK3" s="75"/>
-      <c r="CL3" s="76"/>
-      <c r="CM3" s="74" t="s">
+      <c r="CK3" s="74"/>
+      <c r="CL3" s="75"/>
+      <c r="CM3" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="CN3" s="75"/>
-      <c r="CO3" s="76"/>
-      <c r="CP3" s="74" t="s">
+      <c r="CN3" s="74"/>
+      <c r="CO3" s="75"/>
+      <c r="CP3" s="73" t="s">
         <v>147</v>
       </c>
-      <c r="CQ3" s="75"/>
-      <c r="CR3" s="76"/>
-      <c r="CS3" s="74" t="s">
+      <c r="CQ3" s="74"/>
+      <c r="CR3" s="75"/>
+      <c r="CS3" s="73" t="s">
         <v>153</v>
       </c>
-      <c r="CT3" s="75"/>
-      <c r="CU3" s="76"/>
+      <c r="CT3" s="74"/>
+      <c r="CU3" s="75"/>
       <c r="CV3" s="35"/>
       <c r="CW3" s="35"/>
       <c r="CX3" s="35"/>
@@ -3963,9 +4069,9 @@
       <c r="DH3" s="58"/>
     </row>
     <row r="4" spans="1:112" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="80"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
       <c r="D4" s="34" t="s">
         <v>66</v>
       </c>
@@ -6222,17 +6328,31 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="CJ3:CL3"/>
+    <mergeCell ref="CG3:CI3"/>
+    <mergeCell ref="CA3:CC3"/>
+    <mergeCell ref="CD3:CF3"/>
+    <mergeCell ref="BL3:BN3"/>
+    <mergeCell ref="BO3:BQ3"/>
+    <mergeCell ref="BX3:BZ3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BK3"/>
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="AT3:AV3"/>
+    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
     <mergeCell ref="CS3:CU3"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:U3"/>
     <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
     <mergeCell ref="CP3:CR3"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="Y3:AA3"/>
@@ -6243,20 +6363,6 @@
     <mergeCell ref="AK3:AM3"/>
     <mergeCell ref="AN3:AP3"/>
     <mergeCell ref="CM3:CO3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BK3"/>
-    <mergeCell ref="AQ3:AS3"/>
-    <mergeCell ref="AT3:AV3"/>
-    <mergeCell ref="AW3:AY3"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="CJ3:CL3"/>
-    <mergeCell ref="CG3:CI3"/>
-    <mergeCell ref="CA3:CC3"/>
-    <mergeCell ref="CD3:CF3"/>
-    <mergeCell ref="BL3:BN3"/>
-    <mergeCell ref="BO3:BQ3"/>
-    <mergeCell ref="BX3:BZ3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6673,64 +6779,64 @@
       </c>
       <c r="H3" s="82"/>
       <c r="I3" s="82"/>
-      <c r="J3" s="74" t="s">
+      <c r="J3" s="73" t="s">
         <v>123</v>
       </c>
-      <c r="K3" s="75"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="74" t="s">
+      <c r="K3" s="74"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="73" t="s">
         <v>129</v>
       </c>
-      <c r="N3" s="75"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="74" t="s">
+      <c r="N3" s="74"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="73" t="s">
         <v>131</v>
       </c>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="74" t="s">
+      <c r="Q3" s="74"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="73" t="s">
         <v>134</v>
       </c>
-      <c r="T3" s="75"/>
-      <c r="U3" s="76"/>
-      <c r="V3" s="74" t="s">
+      <c r="T3" s="74"/>
+      <c r="U3" s="75"/>
+      <c r="V3" s="73" t="s">
         <v>137</v>
       </c>
-      <c r="W3" s="75"/>
-      <c r="X3" s="76"/>
-      <c r="Y3" s="74" t="s">
+      <c r="W3" s="74"/>
+      <c r="X3" s="75"/>
+      <c r="Y3" s="73" t="s">
         <v>140</v>
       </c>
-      <c r="Z3" s="75"/>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="74" t="s">
+      <c r="Z3" s="74"/>
+      <c r="AA3" s="75"/>
+      <c r="AB3" s="73" t="s">
         <v>143</v>
       </c>
-      <c r="AC3" s="75"/>
-      <c r="AD3" s="76"/>
-      <c r="AE3" s="74" t="s">
+      <c r="AC3" s="74"/>
+      <c r="AD3" s="75"/>
+      <c r="AE3" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="AF3" s="75"/>
-      <c r="AG3" s="76"/>
-      <c r="AH3" s="74" t="s">
+      <c r="AF3" s="74"/>
+      <c r="AG3" s="75"/>
+      <c r="AH3" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="AI3" s="75"/>
-      <c r="AJ3" s="76"/>
-      <c r="AK3" s="74" t="s">
+      <c r="AI3" s="74"/>
+      <c r="AJ3" s="75"/>
+      <c r="AK3" s="73" t="s">
         <v>150</v>
       </c>
-      <c r="AL3" s="75"/>
-      <c r="AM3" s="76"/>
-      <c r="AN3" s="74" t="s">
+      <c r="AL3" s="74"/>
+      <c r="AM3" s="75"/>
+      <c r="AN3" s="73" t="s">
         <v>151</v>
       </c>
-      <c r="AO3" s="75"/>
-      <c r="AP3" s="76"/>
-      <c r="AQ3" s="74"/>
-      <c r="AR3" s="75"/>
-      <c r="AS3" s="76"/>
+      <c r="AO3" s="74"/>
+      <c r="AP3" s="75"/>
+      <c r="AQ3" s="73"/>
+      <c r="AR3" s="74"/>
+      <c r="AS3" s="75"/>
       <c r="AT3" s="54"/>
       <c r="AU3" s="54"/>
       <c r="AV3" s="54"/>
@@ -7707,21 +7813,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="AN3:AP3"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
     <mergeCell ref="AB3:AD3"/>
     <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:U3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="AQ3:AS3"/>
-    <mergeCell ref="AN3:AP3"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AK3:AM3"/>
-    <mergeCell ref="AE3:AG3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8174,7 +8280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="V5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="BA9" sqref="BA9"/>
       <selection pane="topRight" activeCell="BA9" sqref="BA9"/>
@@ -8224,51 +8330,51 @@
       </c>
       <c r="H3" s="82"/>
       <c r="I3" s="82"/>
-      <c r="J3" s="74" t="s">
+      <c r="J3" s="73" t="s">
         <v>125</v>
       </c>
-      <c r="K3" s="75"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="74" t="s">
+      <c r="K3" s="74"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="N3" s="75"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="74" t="s">
+      <c r="N3" s="74"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="73" t="s">
         <v>132</v>
       </c>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="74" t="s">
+      <c r="Q3" s="74"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="73" t="s">
         <v>135</v>
       </c>
-      <c r="T3" s="75"/>
-      <c r="U3" s="76"/>
-      <c r="V3" s="74" t="s">
+      <c r="T3" s="74"/>
+      <c r="U3" s="75"/>
+      <c r="V3" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="W3" s="75"/>
-      <c r="X3" s="76"/>
-      <c r="Y3" s="74" t="s">
+      <c r="W3" s="74"/>
+      <c r="X3" s="75"/>
+      <c r="Y3" s="73" t="s">
         <v>141</v>
       </c>
-      <c r="Z3" s="75"/>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="74" t="s">
+      <c r="Z3" s="74"/>
+      <c r="AA3" s="75"/>
+      <c r="AB3" s="73" t="s">
         <v>145</v>
       </c>
-      <c r="AC3" s="75"/>
-      <c r="AD3" s="76"/>
-      <c r="AE3" s="74" t="s">
+      <c r="AC3" s="74"/>
+      <c r="AD3" s="75"/>
+      <c r="AE3" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="AF3" s="75"/>
-      <c r="AG3" s="76"/>
-      <c r="AH3" s="74" t="s">
+      <c r="AF3" s="74"/>
+      <c r="AG3" s="75"/>
+      <c r="AH3" s="73" t="s">
         <v>152</v>
       </c>
-      <c r="AI3" s="75"/>
-      <c r="AJ3" s="76"/>
+      <c r="AI3" s="74"/>
+      <c r="AJ3" s="75"/>
       <c r="AK3" s="35"/>
       <c r="AL3" s="35"/>
       <c r="AM3" s="35"/>

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TOEIC 300-500 K1" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="155">
   <si>
     <t>x</t>
   </si>
@@ -484,6 +484,9 @@
   </si>
   <si>
     <t>29/5-Lesson 31</t>
+  </si>
+  <si>
+    <t>29/5-Lesson 13</t>
   </si>
 </sst>
 </file>
@@ -750,7 +753,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -924,6 +927,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -945,12 +951,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -958,6 +958,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1310,30 +1316,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="70" t="s">
+      <c r="G2" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="71" t="s">
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="69" t="s">
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="69" t="s">
+      <c r="O2" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="69" t="s">
+      <c r="P2" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="69" t="s">
+      <c r="Q2" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="69" t="s">
+      <c r="R2" s="70" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1377,11 +1383,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -1634,30 +1640,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="70" t="s">
+      <c r="G2" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="71" t="s">
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="69" t="s">
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="69" t="s">
+      <c r="O2" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="69" t="s">
+      <c r="P2" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="69" t="s">
+      <c r="Q2" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="72" t="s">
+      <c r="R2" s="73" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1701,11 +1707,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="72"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="73"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -2680,30 +2686,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="70" t="s">
+      <c r="G2" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="71" t="s">
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="69" t="s">
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="69" t="s">
+      <c r="O2" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="69" t="s">
+      <c r="P2" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="69" t="s">
+      <c r="Q2" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="69" t="s">
+      <c r="R2" s="70" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2747,11 +2753,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -3030,11 +3036,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="F13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M13" sqref="M13:S13"/>
+      <selection pane="bottomRight" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3061,30 +3067,30 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I2" s="70" t="s">
+      <c r="I2" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="71" t="s">
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="69" t="s">
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="69" t="s">
+      <c r="Q2" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="69" t="s">
+      <c r="R2" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="69" t="s">
+      <c r="S2" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="69" t="s">
+      <c r="T2" s="70" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3134,11 +3140,11 @@
       <c r="O3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
     </row>
     <row r="4" spans="1:20" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -3885,175 +3891,175 @@
       </c>
     </row>
     <row r="3" spans="1:112" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76" t="s">
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76" t="s">
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76" t="s">
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76" t="s">
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76" t="s">
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="T3" s="76"/>
-      <c r="U3" s="76"/>
-      <c r="V3" s="76" t="s">
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="W3" s="76"/>
-      <c r="X3" s="76"/>
-      <c r="Y3" s="76" t="s">
+      <c r="W3" s="80"/>
+      <c r="X3" s="80"/>
+      <c r="Y3" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="Z3" s="76"/>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="76" t="s">
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="AC3" s="76"/>
-      <c r="AD3" s="76"/>
-      <c r="AE3" s="76" t="s">
+      <c r="AC3" s="80"/>
+      <c r="AD3" s="80"/>
+      <c r="AE3" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="AF3" s="76"/>
-      <c r="AG3" s="76"/>
-      <c r="AH3" s="76" t="s">
+      <c r="AF3" s="80"/>
+      <c r="AG3" s="80"/>
+      <c r="AH3" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="AI3" s="76"/>
-      <c r="AJ3" s="76"/>
-      <c r="AK3" s="76" t="s">
+      <c r="AI3" s="80"/>
+      <c r="AJ3" s="80"/>
+      <c r="AK3" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="AL3" s="76"/>
-      <c r="AM3" s="76"/>
-      <c r="AN3" s="76" t="s">
+      <c r="AL3" s="80"/>
+      <c r="AM3" s="80"/>
+      <c r="AN3" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="AO3" s="76"/>
-      <c r="AP3" s="76"/>
-      <c r="AQ3" s="76" t="s">
+      <c r="AO3" s="80"/>
+      <c r="AP3" s="80"/>
+      <c r="AQ3" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="AR3" s="76"/>
-      <c r="AS3" s="76"/>
-      <c r="AT3" s="76" t="s">
+      <c r="AR3" s="80"/>
+      <c r="AS3" s="80"/>
+      <c r="AT3" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="AU3" s="76"/>
-      <c r="AV3" s="76"/>
-      <c r="AW3" s="76" t="s">
+      <c r="AU3" s="80"/>
+      <c r="AV3" s="80"/>
+      <c r="AW3" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="AX3" s="76"/>
-      <c r="AY3" s="76"/>
-      <c r="AZ3" s="76" t="s">
+      <c r="AX3" s="80"/>
+      <c r="AY3" s="80"/>
+      <c r="AZ3" s="80" t="s">
         <v>92</v>
       </c>
-      <c r="BA3" s="76"/>
-      <c r="BB3" s="76"/>
-      <c r="BC3" s="76" t="s">
+      <c r="BA3" s="80"/>
+      <c r="BB3" s="80"/>
+      <c r="BC3" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="BD3" s="76"/>
-      <c r="BE3" s="76"/>
-      <c r="BF3" s="76" t="s">
+      <c r="BD3" s="80"/>
+      <c r="BE3" s="80"/>
+      <c r="BF3" s="80" t="s">
         <v>103</v>
       </c>
-      <c r="BG3" s="76"/>
-      <c r="BH3" s="76"/>
-      <c r="BI3" s="76" t="s">
+      <c r="BG3" s="80"/>
+      <c r="BH3" s="80"/>
+      <c r="BI3" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="BJ3" s="76"/>
-      <c r="BK3" s="76"/>
-      <c r="BL3" s="76" t="s">
+      <c r="BJ3" s="80"/>
+      <c r="BK3" s="80"/>
+      <c r="BL3" s="80" t="s">
         <v>118</v>
       </c>
-      <c r="BM3" s="76"/>
-      <c r="BN3" s="76"/>
-      <c r="BO3" s="76" t="s">
+      <c r="BM3" s="80"/>
+      <c r="BN3" s="80"/>
+      <c r="BO3" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="BP3" s="76"/>
-      <c r="BQ3" s="76"/>
-      <c r="BR3" s="76" t="s">
+      <c r="BP3" s="80"/>
+      <c r="BQ3" s="80"/>
+      <c r="BR3" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="BS3" s="76"/>
-      <c r="BT3" s="76"/>
-      <c r="BU3" s="78" t="s">
+      <c r="BS3" s="80"/>
+      <c r="BT3" s="80"/>
+      <c r="BU3" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="BV3" s="79"/>
-      <c r="BW3" s="80"/>
-      <c r="BX3" s="78" t="s">
+      <c r="BV3" s="78"/>
+      <c r="BW3" s="79"/>
+      <c r="BX3" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="BY3" s="79"/>
-      <c r="BZ3" s="80"/>
-      <c r="CA3" s="78" t="s">
+      <c r="BY3" s="78"/>
+      <c r="BZ3" s="79"/>
+      <c r="CA3" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="CB3" s="79"/>
-      <c r="CC3" s="80"/>
-      <c r="CD3" s="78" t="s">
+      <c r="CB3" s="78"/>
+      <c r="CC3" s="79"/>
+      <c r="CD3" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="CE3" s="79"/>
-      <c r="CF3" s="80"/>
-      <c r="CG3" s="78" t="s">
+      <c r="CE3" s="78"/>
+      <c r="CF3" s="79"/>
+      <c r="CG3" s="77" t="s">
         <v>139</v>
       </c>
-      <c r="CH3" s="79"/>
-      <c r="CI3" s="80"/>
-      <c r="CJ3" s="73" t="s">
+      <c r="CH3" s="78"/>
+      <c r="CI3" s="79"/>
+      <c r="CJ3" s="74" t="s">
         <v>142</v>
       </c>
-      <c r="CK3" s="74"/>
-      <c r="CL3" s="75"/>
-      <c r="CM3" s="73" t="s">
+      <c r="CK3" s="75"/>
+      <c r="CL3" s="76"/>
+      <c r="CM3" s="74" t="s">
         <v>146</v>
       </c>
-      <c r="CN3" s="74"/>
-      <c r="CO3" s="75"/>
-      <c r="CP3" s="73" t="s">
+      <c r="CN3" s="75"/>
+      <c r="CO3" s="76"/>
+      <c r="CP3" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="CQ3" s="74"/>
-      <c r="CR3" s="75"/>
-      <c r="CS3" s="73" t="s">
+      <c r="CQ3" s="75"/>
+      <c r="CR3" s="76"/>
+      <c r="CS3" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="CT3" s="74"/>
-      <c r="CU3" s="75"/>
+      <c r="CT3" s="75"/>
+      <c r="CU3" s="76"/>
       <c r="CV3" s="35"/>
       <c r="CW3" s="35"/>
       <c r="CX3" s="35"/>
@@ -4069,9 +4075,9 @@
       <c r="DH3" s="58"/>
     </row>
     <row r="4" spans="1:112" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="77"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
       <c r="D4" s="34" t="s">
         <v>66</v>
       </c>
@@ -6328,25 +6334,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="CJ3:CL3"/>
-    <mergeCell ref="CG3:CI3"/>
-    <mergeCell ref="CA3:CC3"/>
-    <mergeCell ref="CD3:CF3"/>
-    <mergeCell ref="BL3:BN3"/>
-    <mergeCell ref="BO3:BQ3"/>
-    <mergeCell ref="BX3:BZ3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BK3"/>
-    <mergeCell ref="AQ3:AS3"/>
-    <mergeCell ref="AT3:AV3"/>
-    <mergeCell ref="AW3:AY3"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
     <mergeCell ref="CS3:CU3"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="M3:O3"/>
@@ -6363,6 +6350,25 @@
     <mergeCell ref="AK3:AM3"/>
     <mergeCell ref="AN3:AP3"/>
     <mergeCell ref="CM3:CO3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BK3"/>
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="AT3:AV3"/>
+    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="CJ3:CL3"/>
+    <mergeCell ref="CG3:CI3"/>
+    <mergeCell ref="CA3:CC3"/>
+    <mergeCell ref="CD3:CF3"/>
+    <mergeCell ref="BL3:BN3"/>
+    <mergeCell ref="BO3:BQ3"/>
+    <mergeCell ref="BX3:BZ3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6403,30 +6409,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="70" t="s">
+      <c r="G2" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="71" t="s">
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="69" t="s">
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="69" t="s">
+      <c r="O2" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="69" t="s">
+      <c r="P2" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="69" t="s">
+      <c r="Q2" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="69" t="s">
+      <c r="R2" s="70" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6470,11 +6476,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -6732,8 +6738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AQ3" sqref="AQ3:AS3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AS6" sqref="AS6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6756,10 +6762,10 @@
       </c>
     </row>
     <row r="3" spans="1:55" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="82" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="34" t="s">
@@ -6774,69 +6780,71 @@
       <c r="F3" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="82" t="s">
+      <c r="G3" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="73" t="s">
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="74" t="s">
         <v>123</v>
       </c>
-      <c r="K3" s="74"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="73" t="s">
+      <c r="K3" s="75"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="74" t="s">
         <v>129</v>
       </c>
-      <c r="N3" s="74"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="73" t="s">
+      <c r="N3" s="75"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="73" t="s">
+      <c r="Q3" s="75"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="74" t="s">
         <v>134</v>
       </c>
-      <c r="T3" s="74"/>
-      <c r="U3" s="75"/>
-      <c r="V3" s="73" t="s">
+      <c r="T3" s="75"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="74" t="s">
         <v>137</v>
       </c>
-      <c r="W3" s="74"/>
-      <c r="X3" s="75"/>
-      <c r="Y3" s="73" t="s">
+      <c r="W3" s="75"/>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="74" t="s">
         <v>140</v>
       </c>
-      <c r="Z3" s="74"/>
-      <c r="AA3" s="75"/>
-      <c r="AB3" s="73" t="s">
+      <c r="Z3" s="75"/>
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="74" t="s">
         <v>143</v>
       </c>
-      <c r="AC3" s="74"/>
-      <c r="AD3" s="75"/>
-      <c r="AE3" s="73" t="s">
+      <c r="AC3" s="75"/>
+      <c r="AD3" s="76"/>
+      <c r="AE3" s="74" t="s">
         <v>144</v>
       </c>
-      <c r="AF3" s="74"/>
-      <c r="AG3" s="75"/>
-      <c r="AH3" s="73" t="s">
+      <c r="AF3" s="75"/>
+      <c r="AG3" s="76"/>
+      <c r="AH3" s="74" t="s">
         <v>149</v>
       </c>
-      <c r="AI3" s="74"/>
-      <c r="AJ3" s="75"/>
-      <c r="AK3" s="73" t="s">
+      <c r="AI3" s="75"/>
+      <c r="AJ3" s="76"/>
+      <c r="AK3" s="74" t="s">
         <v>150</v>
       </c>
-      <c r="AL3" s="74"/>
-      <c r="AM3" s="75"/>
-      <c r="AN3" s="73" t="s">
+      <c r="AL3" s="75"/>
+      <c r="AM3" s="76"/>
+      <c r="AN3" s="74" t="s">
         <v>151</v>
       </c>
-      <c r="AO3" s="74"/>
-      <c r="AP3" s="75"/>
-      <c r="AQ3" s="73"/>
-      <c r="AR3" s="74"/>
-      <c r="AS3" s="75"/>
+      <c r="AO3" s="75"/>
+      <c r="AP3" s="76"/>
+      <c r="AQ3" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="AR3" s="75"/>
+      <c r="AS3" s="76"/>
       <c r="AT3" s="54"/>
       <c r="AU3" s="54"/>
       <c r="AV3" s="54"/>
@@ -6849,8 +6857,8 @@
       <c r="BC3" s="54"/>
     </row>
     <row r="4" spans="1:55" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81"/>
-      <c r="B4" s="81"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
@@ -6963,9 +6971,15 @@
       <c r="AP4" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="AQ4" s="54"/>
-      <c r="AR4" s="54"/>
-      <c r="AS4" s="54"/>
+      <c r="AQ4" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR4" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS4" s="69" t="s">
+        <v>64</v>
+      </c>
       <c r="AT4" s="54"/>
       <c r="AU4" s="54"/>
       <c r="AV4" s="54"/>
@@ -7072,8 +7086,12 @@
       <c r="AP5" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="AQ5" s="54"/>
-      <c r="AR5" s="54"/>
+      <c r="AQ5" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="69" t="s">
+        <v>0</v>
+      </c>
       <c r="AS5" s="54"/>
       <c r="AT5" s="54"/>
       <c r="AU5" s="54"/>
@@ -7278,8 +7296,12 @@
         <v>0</v>
       </c>
       <c r="AP7" s="54"/>
-      <c r="AQ7" s="54"/>
-      <c r="AR7" s="54"/>
+      <c r="AQ7" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="69" t="s">
+        <v>0</v>
+      </c>
       <c r="AS7" s="54"/>
       <c r="AT7" s="54"/>
       <c r="AU7" s="54"/>
@@ -7405,9 +7427,15 @@
       <c r="AP8" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="AQ8" s="54"/>
-      <c r="AR8" s="54"/>
-      <c r="AS8" s="54"/>
+      <c r="AQ8" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="69" t="s">
+        <v>0</v>
+      </c>
       <c r="AT8" s="54"/>
       <c r="AU8" s="54"/>
       <c r="AV8" s="54"/>
@@ -7514,9 +7542,15 @@
         <v>0</v>
       </c>
       <c r="AP9" s="54"/>
-      <c r="AQ9" s="54"/>
-      <c r="AR9" s="54"/>
-      <c r="AS9" s="54"/>
+      <c r="AQ9" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="69" t="s">
+        <v>0</v>
+      </c>
       <c r="AT9" s="54"/>
       <c r="AU9" s="54"/>
       <c r="AV9" s="54"/>
@@ -7645,8 +7679,12 @@
       <c r="AP10" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="AQ10" s="54"/>
-      <c r="AR10" s="54"/>
+      <c r="AQ10" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="69" t="s">
+        <v>0</v>
+      </c>
       <c r="AS10" s="54"/>
       <c r="AT10" s="54"/>
       <c r="AU10" s="54"/>
@@ -7813,21 +7851,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
     <mergeCell ref="AQ3:AS3"/>
     <mergeCell ref="AN3:AP3"/>
     <mergeCell ref="AH3:AJ3"/>
     <mergeCell ref="AK3:AM3"/>
     <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:U3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7868,30 +7906,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="70" t="s">
+      <c r="G2" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="71" t="s">
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="69" t="s">
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="69" t="s">
+      <c r="O2" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="69" t="s">
+      <c r="P2" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="69" t="s">
+      <c r="Q2" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="69" t="s">
+      <c r="R2" s="70" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7935,11 +7973,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -8307,10 +8345,10 @@
       </c>
     </row>
     <row r="3" spans="1:51" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="82" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="41" t="s">
@@ -8325,56 +8363,56 @@
       <c r="F3" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="G3" s="82" t="s">
+      <c r="G3" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="73" t="s">
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="74" t="s">
         <v>125</v>
       </c>
-      <c r="K3" s="74"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="73" t="s">
+      <c r="K3" s="75"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="N3" s="74"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="73" t="s">
+      <c r="N3" s="75"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="74" t="s">
         <v>132</v>
       </c>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="73" t="s">
+      <c r="Q3" s="75"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="T3" s="74"/>
-      <c r="U3" s="75"/>
-      <c r="V3" s="73" t="s">
+      <c r="T3" s="75"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="W3" s="74"/>
-      <c r="X3" s="75"/>
-      <c r="Y3" s="73" t="s">
+      <c r="W3" s="75"/>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="74" t="s">
         <v>141</v>
       </c>
-      <c r="Z3" s="74"/>
-      <c r="AA3" s="75"/>
-      <c r="AB3" s="73" t="s">
+      <c r="Z3" s="75"/>
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="74" t="s">
         <v>145</v>
       </c>
-      <c r="AC3" s="74"/>
-      <c r="AD3" s="75"/>
-      <c r="AE3" s="73" t="s">
+      <c r="AC3" s="75"/>
+      <c r="AD3" s="76"/>
+      <c r="AE3" s="74" t="s">
         <v>148</v>
       </c>
-      <c r="AF3" s="74"/>
-      <c r="AG3" s="75"/>
-      <c r="AH3" s="73" t="s">
+      <c r="AF3" s="75"/>
+      <c r="AG3" s="76"/>
+      <c r="AH3" s="74" t="s">
         <v>152</v>
       </c>
-      <c r="AI3" s="74"/>
-      <c r="AJ3" s="75"/>
+      <c r="AI3" s="75"/>
+      <c r="AJ3" s="76"/>
       <c r="AK3" s="35"/>
       <c r="AL3" s="35"/>
       <c r="AM3" s="35"/>
@@ -8392,8 +8430,8 @@
       <c r="AY3" s="35"/>
     </row>
     <row r="4" spans="1:51" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81"/>
-      <c r="B4" s="81"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="TOEIC 300-500 K1" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="156">
   <si>
     <t>x</t>
   </si>
@@ -487,6 +487,9 @@
   </si>
   <si>
     <t>29/5-Lesson 13</t>
+  </si>
+  <si>
+    <t>30/5-Lesson 11</t>
   </si>
 </sst>
 </file>
@@ -753,7 +756,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -930,6 +933,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -951,6 +957,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -958,9 +967,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1316,30 +1322,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="71" t="s">
+      <c r="G2" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="72" t="s">
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="70" t="s">
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="70" t="s">
+      <c r="O2" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="70" t="s">
+      <c r="P2" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="70" t="s">
+      <c r="Q2" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="70" t="s">
+      <c r="R2" s="71" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1383,11 +1389,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="70"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -1640,30 +1646,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="71" t="s">
+      <c r="G2" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="72" t="s">
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="70" t="s">
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="70" t="s">
+      <c r="O2" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="70" t="s">
+      <c r="P2" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="70" t="s">
+      <c r="Q2" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="73" t="s">
+      <c r="R2" s="74" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1707,11 +1713,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="73"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="74"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -2686,30 +2692,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="71" t="s">
+      <c r="G2" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="72" t="s">
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="70" t="s">
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="70" t="s">
+      <c r="O2" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="70" t="s">
+      <c r="P2" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="70" t="s">
+      <c r="Q2" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="70" t="s">
+      <c r="R2" s="71" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2753,11 +2759,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="70"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -3067,30 +3073,30 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I2" s="71" t="s">
+      <c r="I2" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="72" t="s">
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="70" t="s">
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="70" t="s">
+      <c r="Q2" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="70" t="s">
+      <c r="R2" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="70" t="s">
+      <c r="S2" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="70" t="s">
+      <c r="T2" s="71" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3140,11 +3146,11 @@
       <c r="O3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="70"/>
-      <c r="S3" s="70"/>
-      <c r="T3" s="70"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="71"/>
     </row>
     <row r="4" spans="1:20" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -3891,175 +3897,175 @@
       </c>
     </row>
     <row r="3" spans="1:112" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80" t="s">
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80" t="s">
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80" t="s">
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="N3" s="80"/>
-      <c r="O3" s="80"/>
-      <c r="P3" s="80" t="s">
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="80"/>
-      <c r="S3" s="80" t="s">
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="T3" s="80"/>
-      <c r="U3" s="80"/>
-      <c r="V3" s="80" t="s">
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="W3" s="80"/>
-      <c r="X3" s="80"/>
-      <c r="Y3" s="80" t="s">
+      <c r="W3" s="78"/>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="Z3" s="80"/>
-      <c r="AA3" s="80"/>
-      <c r="AB3" s="80" t="s">
+      <c r="Z3" s="78"/>
+      <c r="AA3" s="78"/>
+      <c r="AB3" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="AC3" s="80"/>
-      <c r="AD3" s="80"/>
-      <c r="AE3" s="80" t="s">
+      <c r="AC3" s="78"/>
+      <c r="AD3" s="78"/>
+      <c r="AE3" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="AF3" s="80"/>
-      <c r="AG3" s="80"/>
-      <c r="AH3" s="80" t="s">
+      <c r="AF3" s="78"/>
+      <c r="AG3" s="78"/>
+      <c r="AH3" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="AI3" s="80"/>
-      <c r="AJ3" s="80"/>
-      <c r="AK3" s="80" t="s">
+      <c r="AI3" s="78"/>
+      <c r="AJ3" s="78"/>
+      <c r="AK3" s="78" t="s">
         <v>81</v>
       </c>
-      <c r="AL3" s="80"/>
-      <c r="AM3" s="80"/>
-      <c r="AN3" s="80" t="s">
+      <c r="AL3" s="78"/>
+      <c r="AM3" s="78"/>
+      <c r="AN3" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="AO3" s="80"/>
-      <c r="AP3" s="80"/>
-      <c r="AQ3" s="80" t="s">
+      <c r="AO3" s="78"/>
+      <c r="AP3" s="78"/>
+      <c r="AQ3" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="AR3" s="80"/>
-      <c r="AS3" s="80"/>
-      <c r="AT3" s="80" t="s">
+      <c r="AR3" s="78"/>
+      <c r="AS3" s="78"/>
+      <c r="AT3" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="AU3" s="80"/>
-      <c r="AV3" s="80"/>
-      <c r="AW3" s="80" t="s">
+      <c r="AU3" s="78"/>
+      <c r="AV3" s="78"/>
+      <c r="AW3" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="AX3" s="80"/>
-      <c r="AY3" s="80"/>
-      <c r="AZ3" s="80" t="s">
+      <c r="AX3" s="78"/>
+      <c r="AY3" s="78"/>
+      <c r="AZ3" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="BA3" s="80"/>
-      <c r="BB3" s="80"/>
-      <c r="BC3" s="80" t="s">
+      <c r="BA3" s="78"/>
+      <c r="BB3" s="78"/>
+      <c r="BC3" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="BD3" s="80"/>
-      <c r="BE3" s="80"/>
-      <c r="BF3" s="80" t="s">
+      <c r="BD3" s="78"/>
+      <c r="BE3" s="78"/>
+      <c r="BF3" s="78" t="s">
         <v>103</v>
       </c>
-      <c r="BG3" s="80"/>
-      <c r="BH3" s="80"/>
-      <c r="BI3" s="80" t="s">
+      <c r="BG3" s="78"/>
+      <c r="BH3" s="78"/>
+      <c r="BI3" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="BJ3" s="80"/>
-      <c r="BK3" s="80"/>
-      <c r="BL3" s="80" t="s">
+      <c r="BJ3" s="78"/>
+      <c r="BK3" s="78"/>
+      <c r="BL3" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="BM3" s="80"/>
-      <c r="BN3" s="80"/>
-      <c r="BO3" s="80" t="s">
+      <c r="BM3" s="78"/>
+      <c r="BN3" s="78"/>
+      <c r="BO3" s="78" t="s">
         <v>122</v>
       </c>
-      <c r="BP3" s="80"/>
-      <c r="BQ3" s="80"/>
-      <c r="BR3" s="80" t="s">
+      <c r="BP3" s="78"/>
+      <c r="BQ3" s="78"/>
+      <c r="BR3" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="BS3" s="80"/>
-      <c r="BT3" s="80"/>
-      <c r="BU3" s="77" t="s">
+      <c r="BS3" s="78"/>
+      <c r="BT3" s="78"/>
+      <c r="BU3" s="79" t="s">
         <v>126</v>
       </c>
-      <c r="BV3" s="78"/>
-      <c r="BW3" s="79"/>
-      <c r="BX3" s="77" t="s">
+      <c r="BV3" s="80"/>
+      <c r="BW3" s="81"/>
+      <c r="BX3" s="79" t="s">
         <v>127</v>
       </c>
-      <c r="BY3" s="78"/>
-      <c r="BZ3" s="79"/>
-      <c r="CA3" s="77" t="s">
+      <c r="BY3" s="80"/>
+      <c r="BZ3" s="81"/>
+      <c r="CA3" s="79" t="s">
         <v>133</v>
       </c>
-      <c r="CB3" s="78"/>
-      <c r="CC3" s="79"/>
-      <c r="CD3" s="77" t="s">
+      <c r="CB3" s="80"/>
+      <c r="CC3" s="81"/>
+      <c r="CD3" s="79" t="s">
         <v>138</v>
       </c>
-      <c r="CE3" s="78"/>
-      <c r="CF3" s="79"/>
-      <c r="CG3" s="77" t="s">
+      <c r="CE3" s="80"/>
+      <c r="CF3" s="81"/>
+      <c r="CG3" s="79" t="s">
         <v>139</v>
       </c>
-      <c r="CH3" s="78"/>
-      <c r="CI3" s="79"/>
-      <c r="CJ3" s="74" t="s">
+      <c r="CH3" s="80"/>
+      <c r="CI3" s="81"/>
+      <c r="CJ3" s="75" t="s">
         <v>142</v>
       </c>
-      <c r="CK3" s="75"/>
-      <c r="CL3" s="76"/>
-      <c r="CM3" s="74" t="s">
+      <c r="CK3" s="76"/>
+      <c r="CL3" s="77"/>
+      <c r="CM3" s="75" t="s">
         <v>146</v>
       </c>
-      <c r="CN3" s="75"/>
-      <c r="CO3" s="76"/>
-      <c r="CP3" s="74" t="s">
+      <c r="CN3" s="76"/>
+      <c r="CO3" s="77"/>
+      <c r="CP3" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="CQ3" s="75"/>
-      <c r="CR3" s="76"/>
-      <c r="CS3" s="74" t="s">
+      <c r="CQ3" s="76"/>
+      <c r="CR3" s="77"/>
+      <c r="CS3" s="75" t="s">
         <v>153</v>
       </c>
-      <c r="CT3" s="75"/>
-      <c r="CU3" s="76"/>
+      <c r="CT3" s="76"/>
+      <c r="CU3" s="77"/>
       <c r="CV3" s="35"/>
       <c r="CW3" s="35"/>
       <c r="CX3" s="35"/>
@@ -4075,9 +4081,9 @@
       <c r="DH3" s="58"/>
     </row>
     <row r="4" spans="1:112" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="81"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
       <c r="D4" s="34" t="s">
         <v>66</v>
       </c>
@@ -6334,6 +6340,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="CJ3:CL3"/>
+    <mergeCell ref="CG3:CI3"/>
+    <mergeCell ref="CA3:CC3"/>
+    <mergeCell ref="CD3:CF3"/>
+    <mergeCell ref="BL3:BN3"/>
+    <mergeCell ref="BO3:BQ3"/>
+    <mergeCell ref="BX3:BZ3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BK3"/>
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="AT3:AV3"/>
+    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
     <mergeCell ref="CS3:CU3"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="M3:O3"/>
@@ -6350,25 +6375,6 @@
     <mergeCell ref="AK3:AM3"/>
     <mergeCell ref="AN3:AP3"/>
     <mergeCell ref="CM3:CO3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BK3"/>
-    <mergeCell ref="AQ3:AS3"/>
-    <mergeCell ref="AT3:AV3"/>
-    <mergeCell ref="AW3:AY3"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="CJ3:CL3"/>
-    <mergeCell ref="CG3:CI3"/>
-    <mergeCell ref="CA3:CC3"/>
-    <mergeCell ref="CD3:CF3"/>
-    <mergeCell ref="BL3:BN3"/>
-    <mergeCell ref="BO3:BQ3"/>
-    <mergeCell ref="BX3:BZ3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6409,30 +6415,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="71" t="s">
+      <c r="G2" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="72" t="s">
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="70" t="s">
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="70" t="s">
+      <c r="O2" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="70" t="s">
+      <c r="P2" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="70" t="s">
+      <c r="Q2" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="70" t="s">
+      <c r="R2" s="71" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6476,11 +6482,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="70"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -6738,7 +6744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AS6" sqref="AS6"/>
     </sheetView>
   </sheetViews>
@@ -6762,10 +6768,10 @@
       </c>
     </row>
     <row r="3" spans="1:55" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="83" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="34" t="s">
@@ -6780,71 +6786,71 @@
       <c r="F3" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="83" t="s">
+      <c r="G3" s="84" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="74" t="s">
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="K3" s="75"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="74" t="s">
+      <c r="K3" s="76"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="75" t="s">
         <v>129</v>
       </c>
-      <c r="N3" s="75"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="74" t="s">
+      <c r="N3" s="76"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="75" t="s">
         <v>131</v>
       </c>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="74" t="s">
+      <c r="Q3" s="76"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="75" t="s">
         <v>134</v>
       </c>
-      <c r="T3" s="75"/>
-      <c r="U3" s="76"/>
-      <c r="V3" s="74" t="s">
+      <c r="T3" s="76"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="75" t="s">
         <v>137</v>
       </c>
-      <c r="W3" s="75"/>
-      <c r="X3" s="76"/>
-      <c r="Y3" s="74" t="s">
+      <c r="W3" s="76"/>
+      <c r="X3" s="77"/>
+      <c r="Y3" s="75" t="s">
         <v>140</v>
       </c>
-      <c r="Z3" s="75"/>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="74" t="s">
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="75" t="s">
         <v>143</v>
       </c>
-      <c r="AC3" s="75"/>
-      <c r="AD3" s="76"/>
-      <c r="AE3" s="74" t="s">
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="77"/>
+      <c r="AE3" s="75" t="s">
         <v>144</v>
       </c>
-      <c r="AF3" s="75"/>
-      <c r="AG3" s="76"/>
-      <c r="AH3" s="74" t="s">
+      <c r="AF3" s="76"/>
+      <c r="AG3" s="77"/>
+      <c r="AH3" s="75" t="s">
         <v>149</v>
       </c>
-      <c r="AI3" s="75"/>
-      <c r="AJ3" s="76"/>
-      <c r="AK3" s="74" t="s">
+      <c r="AI3" s="76"/>
+      <c r="AJ3" s="77"/>
+      <c r="AK3" s="75" t="s">
         <v>150</v>
       </c>
-      <c r="AL3" s="75"/>
-      <c r="AM3" s="76"/>
-      <c r="AN3" s="74" t="s">
+      <c r="AL3" s="76"/>
+      <c r="AM3" s="77"/>
+      <c r="AN3" s="75" t="s">
         <v>151</v>
       </c>
-      <c r="AO3" s="75"/>
-      <c r="AP3" s="76"/>
-      <c r="AQ3" s="74" t="s">
+      <c r="AO3" s="76"/>
+      <c r="AP3" s="77"/>
+      <c r="AQ3" s="75" t="s">
         <v>154</v>
       </c>
-      <c r="AR3" s="75"/>
-      <c r="AS3" s="76"/>
+      <c r="AR3" s="76"/>
+      <c r="AS3" s="77"/>
       <c r="AT3" s="54"/>
       <c r="AU3" s="54"/>
       <c r="AV3" s="54"/>
@@ -6857,8 +6863,8 @@
       <c r="BC3" s="54"/>
     </row>
     <row r="4" spans="1:55" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82"/>
-      <c r="B4" s="82"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="83"/>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
@@ -7851,21 +7857,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="AN3:AP3"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
     <mergeCell ref="AB3:AD3"/>
     <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:U3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="AQ3:AS3"/>
-    <mergeCell ref="AN3:AP3"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AK3:AM3"/>
-    <mergeCell ref="AE3:AG3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7881,7 +7887,7 @@
       <selection activeCell="BA9" sqref="BA9"/>
       <selection pane="topRight" activeCell="BA9" sqref="BA9"/>
       <selection pane="bottomLeft" activeCell="BA9" sqref="BA9"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7906,30 +7912,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="71" t="s">
+      <c r="G2" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="72" t="s">
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="70" t="s">
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="70" t="s">
+      <c r="O2" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="70" t="s">
+      <c r="P2" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="70" t="s">
+      <c r="Q2" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="70" t="s">
+      <c r="R2" s="71" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7973,11 +7979,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="70"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -8318,12 +8324,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="V5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="BA9" sqref="BA9"/>
       <selection pane="topRight" activeCell="BA9" sqref="BA9"/>
       <selection pane="bottomLeft" activeCell="BA9" sqref="BA9"/>
-      <selection pane="bottomRight" activeCell="AK7" sqref="AK7"/>
+      <selection pane="bottomRight" activeCell="AP9" sqref="AP9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8345,10 +8351,10 @@
       </c>
     </row>
     <row r="3" spans="1:51" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="83" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="41" t="s">
@@ -8363,59 +8369,61 @@
       <c r="F3" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="G3" s="83" t="s">
+      <c r="G3" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="74" t="s">
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="75" t="s">
         <v>125</v>
       </c>
-      <c r="K3" s="75"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="74" t="s">
+      <c r="K3" s="76"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="N3" s="75"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="74" t="s">
+      <c r="N3" s="76"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="75" t="s">
         <v>132</v>
       </c>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="74" t="s">
+      <c r="Q3" s="76"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="75" t="s">
         <v>135</v>
       </c>
-      <c r="T3" s="75"/>
-      <c r="U3" s="76"/>
-      <c r="V3" s="74" t="s">
+      <c r="T3" s="76"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="75" t="s">
         <v>136</v>
       </c>
-      <c r="W3" s="75"/>
-      <c r="X3" s="76"/>
-      <c r="Y3" s="74" t="s">
+      <c r="W3" s="76"/>
+      <c r="X3" s="77"/>
+      <c r="Y3" s="75" t="s">
         <v>141</v>
       </c>
-      <c r="Z3" s="75"/>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="74" t="s">
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="75" t="s">
         <v>145</v>
       </c>
-      <c r="AC3" s="75"/>
-      <c r="AD3" s="76"/>
-      <c r="AE3" s="74" t="s">
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="77"/>
+      <c r="AE3" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="AF3" s="75"/>
-      <c r="AG3" s="76"/>
-      <c r="AH3" s="74" t="s">
+      <c r="AF3" s="76"/>
+      <c r="AG3" s="77"/>
+      <c r="AH3" s="75" t="s">
         <v>152</v>
       </c>
-      <c r="AI3" s="75"/>
-      <c r="AJ3" s="76"/>
-      <c r="AK3" s="35"/>
-      <c r="AL3" s="35"/>
-      <c r="AM3" s="35"/>
+      <c r="AI3" s="76"/>
+      <c r="AJ3" s="77"/>
+      <c r="AK3" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL3" s="76"/>
+      <c r="AM3" s="77"/>
       <c r="AN3" s="35"/>
       <c r="AO3" s="35"/>
       <c r="AP3" s="35"/>
@@ -8430,8 +8438,8 @@
       <c r="AY3" s="35"/>
     </row>
     <row r="4" spans="1:51" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82"/>
-      <c r="B4" s="82"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="83"/>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
@@ -8526,9 +8534,15 @@
       <c r="AJ4" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="AK4" s="35"/>
-      <c r="AL4" s="35"/>
-      <c r="AM4" s="35"/>
+      <c r="AK4" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL4" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM4" s="70" t="s">
+        <v>64</v>
+      </c>
       <c r="AN4" s="35"/>
       <c r="AO4" s="35"/>
       <c r="AP4" s="35"/>
@@ -8623,8 +8637,12 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
+      <c r="AK5" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="70" t="s">
+        <v>0</v>
+      </c>
       <c r="AM5" s="67"/>
       <c r="AN5" s="67"/>
       <c r="AO5" s="67"/>
@@ -8724,8 +8742,12 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="67"/>
-      <c r="AK6" s="67"/>
-      <c r="AL6" s="67"/>
+      <c r="AK6" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="70" t="s">
+        <v>0</v>
+      </c>
       <c r="AM6" s="67"/>
       <c r="AN6" s="67"/>
       <c r="AO6" s="67"/>
@@ -8800,7 +8822,9 @@
       </c>
       <c r="AJ7" s="67"/>
       <c r="AK7" s="67"/>
-      <c r="AL7" s="67"/>
+      <c r="AL7" s="67" t="s">
+        <v>0</v>
+      </c>
       <c r="AM7" s="67"/>
       <c r="AN7" s="67"/>
       <c r="AO7" s="67"/>
@@ -8877,7 +8901,9 @@
       </c>
       <c r="AJ8" s="67"/>
       <c r="AK8" s="67"/>
-      <c r="AL8" s="67"/>
+      <c r="AL8" s="67" t="s">
+        <v>0</v>
+      </c>
       <c r="AM8" s="67"/>
       <c r="AN8" s="67"/>
       <c r="AO8" s="67"/>
@@ -8977,9 +9003,15 @@
         <v>0</v>
       </c>
       <c r="AJ9" s="67"/>
-      <c r="AK9" s="67"/>
-      <c r="AL9" s="67"/>
-      <c r="AM9" s="67"/>
+      <c r="AK9" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="70" t="s">
+        <v>0</v>
+      </c>
       <c r="AN9" s="67"/>
       <c r="AO9" s="67"/>
       <c r="AP9" s="67"/>
@@ -9076,8 +9108,12 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="67"/>
-      <c r="AK10" s="67"/>
-      <c r="AL10" s="67"/>
+      <c r="AK10" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="70" t="s">
+        <v>0</v>
+      </c>
       <c r="AM10" s="67"/>
       <c r="AN10" s="67"/>
       <c r="AO10" s="67"/>
@@ -9179,8 +9215,12 @@
         <v>0</v>
       </c>
       <c r="AJ11" s="67"/>
-      <c r="AK11" s="67"/>
-      <c r="AL11" s="67"/>
+      <c r="AK11" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="70" t="s">
+        <v>0</v>
+      </c>
       <c r="AM11" s="67"/>
       <c r="AN11" s="67"/>
       <c r="AO11" s="67"/>
@@ -9280,8 +9320,12 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="67"/>
-      <c r="AK12" s="67"/>
-      <c r="AL12" s="67"/>
+      <c r="AK12" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="70" t="s">
+        <v>0</v>
+      </c>
       <c r="AM12" s="67"/>
       <c r="AN12" s="67"/>
       <c r="AO12" s="67"/>
@@ -9387,9 +9431,15 @@
       <c r="AJ13" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="AK13" s="67"/>
-      <c r="AL13" s="67"/>
-      <c r="AM13" s="67"/>
+      <c r="AK13" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="70" t="s">
+        <v>0</v>
+      </c>
       <c r="AN13" s="67"/>
       <c r="AO13" s="67"/>
       <c r="AP13" s="67"/>
@@ -9576,7 +9626,8 @@
     <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="AK3:AM3"/>
     <mergeCell ref="AH3:AJ3"/>
     <mergeCell ref="AE3:AG3"/>
     <mergeCell ref="A3:A4"/>

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TOEIC 300-500 K1" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="158">
   <si>
     <t>x</t>
   </si>
@@ -490,6 +490,12 @@
   </si>
   <si>
     <t>30/5-Lesson 11</t>
+  </si>
+  <si>
+    <t>31/5-Lesson 14</t>
+  </si>
+  <si>
+    <t>Test lần 1 (31/5/2017)</t>
   </si>
 </sst>
 </file>
@@ -756,7 +762,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -936,6 +942,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -957,9 +966,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -967,6 +973,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1322,30 +1331,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="72" t="s">
+      <c r="G2" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="73" t="s">
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="71" t="s">
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="71" t="s">
+      <c r="O2" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="71" t="s">
+      <c r="P2" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="71" t="s">
+      <c r="Q2" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="71" t="s">
+      <c r="R2" s="72" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1389,11 +1398,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -1646,30 +1655,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="72" t="s">
+      <c r="G2" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="73" t="s">
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="71" t="s">
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="71" t="s">
+      <c r="O2" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="71" t="s">
+      <c r="P2" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="71" t="s">
+      <c r="Q2" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="74" t="s">
+      <c r="R2" s="75" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1713,11 +1722,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="74"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="75"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -2692,30 +2701,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="72" t="s">
+      <c r="G2" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="73" t="s">
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="71" t="s">
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="71" t="s">
+      <c r="O2" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="71" t="s">
+      <c r="P2" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="71" t="s">
+      <c r="Q2" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="71" t="s">
+      <c r="R2" s="72" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2759,11 +2768,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -3040,13 +3049,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="F13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M13" sqref="M13"/>
+      <selection pane="bottomRight" activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3073,30 +3082,30 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I2" s="72" t="s">
+      <c r="I2" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="73" t="s">
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="71" t="s">
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="71" t="s">
+      <c r="Q2" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="71" t="s">
+      <c r="R2" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="71" t="s">
+      <c r="S2" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="71" t="s">
+      <c r="T2" s="72" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3146,11 +3155,11 @@
       <c r="O3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="71"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="72"/>
     </row>
     <row r="4" spans="1:20" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -3256,11 +3265,11 @@
         <v>15</v>
       </c>
       <c r="P5" s="14">
-        <f t="shared" ref="P5:P14" si="3">SUM(I5:L5)</f>
+        <f t="shared" ref="P5:P17" si="3">SUM(I5:L5)</f>
         <v>34</v>
       </c>
       <c r="Q5" s="14">
-        <f t="shared" ref="Q5:Q14" si="4">SUM(M5:O5)</f>
+        <f t="shared" ref="Q5:Q17" si="4">SUM(M5:O5)</f>
         <v>29</v>
       </c>
       <c r="R5" s="14">
@@ -3270,7 +3279,7 @@
         <v>85</v>
       </c>
       <c r="T5" s="30">
-        <f t="shared" ref="T5:T14" si="5">R5+S5</f>
+        <f t="shared" ref="T5:T17" si="5">R5+S5</f>
         <v>235</v>
       </c>
     </row>
@@ -3644,197 +3653,370 @@
       <c r="T13" s="30"/>
     </row>
     <row r="14" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
-        <v>8</v>
-      </c>
+      <c r="A14" s="14"/>
       <c r="B14" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>61</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="I14" s="17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J14" s="17">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="K14" s="17">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="L14" s="17">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="M14" s="17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N14" s="17">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="O14" s="17">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="P14" s="14">
-        <f t="shared" si="3"/>
-        <v>24</v>
+        <f>SUM(I14:L14)</f>
+        <v>61</v>
       </c>
       <c r="Q14" s="14">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="R14" s="17">
-        <v>95</v>
+        <v>320</v>
       </c>
       <c r="S14" s="17">
-        <v>90</v>
+        <v>220</v>
       </c>
       <c r="T14" s="30">
-        <f t="shared" si="5"/>
-        <v>185</v>
+        <f>SUM(R14:S14)</f>
+        <v>540</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
-        <v>9</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="I15" s="14">
-        <v>2</v>
-      </c>
-      <c r="J15" s="14">
-        <v>9</v>
-      </c>
-      <c r="K15" s="14">
-        <v>12</v>
-      </c>
-      <c r="L15" s="14">
-        <v>11</v>
-      </c>
-      <c r="M15" s="14">
-        <v>14</v>
-      </c>
-      <c r="N15" s="14">
-        <v>0</v>
-      </c>
-      <c r="O15" s="14">
-        <v>19</v>
-      </c>
+      <c r="A15" s="14"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
       <c r="P15" s="14">
-        <v>34</v>
+        <f t="shared" ref="P15:P16" si="6">SUM(I15:L15)</f>
+        <v>0</v>
       </c>
       <c r="Q15" s="14">
-        <v>33</v>
-      </c>
-      <c r="R15" s="14">
-        <v>150</v>
-      </c>
-      <c r="S15" s="14">
-        <v>110</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
       <c r="T15" s="30">
-        <f>R15+S15</f>
-        <v>260</v>
+        <f t="shared" ref="T15:T16" si="7">SUM(R15:S15)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="29"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="27"/>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="30"/>
+      <c r="P16" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
+        <v>8</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="I17" s="17">
+        <v>5</v>
+      </c>
+      <c r="J17" s="17">
+        <v>8</v>
+      </c>
+      <c r="K17" s="17">
+        <v>5</v>
+      </c>
+      <c r="L17" s="17">
+        <v>6</v>
+      </c>
+      <c r="M17" s="17">
+        <v>15</v>
+      </c>
+      <c r="N17" s="17">
+        <v>3</v>
+      </c>
+      <c r="O17" s="17">
+        <v>12</v>
+      </c>
+      <c r="P17" s="14">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="Q17" s="14">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="R17" s="17">
+        <v>95</v>
+      </c>
+      <c r="S17" s="17">
+        <v>90</v>
+      </c>
+      <c r="T17" s="30">
+        <f t="shared" si="5"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>9</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="14">
+        <v>2</v>
+      </c>
+      <c r="J18" s="14">
+        <v>9</v>
+      </c>
+      <c r="K18" s="14">
+        <v>12</v>
+      </c>
+      <c r="L18" s="14">
+        <v>11</v>
+      </c>
+      <c r="M18" s="14">
+        <v>14</v>
+      </c>
+      <c r="N18" s="14">
+        <v>0</v>
+      </c>
+      <c r="O18" s="14">
+        <v>19</v>
+      </c>
+      <c r="P18" s="14">
+        <v>34</v>
+      </c>
+      <c r="Q18" s="14">
+        <v>33</v>
+      </c>
+      <c r="R18" s="14">
+        <v>150</v>
+      </c>
+      <c r="S18" s="14">
+        <v>110</v>
+      </c>
+      <c r="T18" s="30">
+        <f>R18+S18</f>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="I19" s="14">
+        <v>5</v>
+      </c>
+      <c r="J19" s="14">
+        <v>18</v>
+      </c>
+      <c r="K19" s="14">
+        <v>13</v>
+      </c>
+      <c r="L19" s="14">
+        <v>16</v>
+      </c>
+      <c r="M19" s="14">
+        <v>18</v>
+      </c>
+      <c r="N19" s="14">
+        <v>5</v>
+      </c>
+      <c r="O19" s="14">
+        <v>19</v>
+      </c>
+      <c r="P19" s="14">
+        <f>SUM(I19:L19)</f>
+        <v>52</v>
+      </c>
+      <c r="Q19" s="14">
+        <f>SUM(M19:O19)</f>
+        <v>42</v>
+      </c>
+      <c r="R19" s="14">
+        <v>260</v>
+      </c>
+      <c r="S19" s="14">
+        <v>165</v>
+      </c>
+      <c r="T19" s="30">
+        <f t="shared" ref="T19:T21" si="8">R19+S19</f>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="30">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="30">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
         <v>10</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B22" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="29" t="s">
+      <c r="C22" s="21"/>
+      <c r="D22" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="I17" s="14">
+      <c r="E22" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="14">
         <v>4</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J22" s="14">
         <v>9</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K22" s="14">
         <v>15</v>
       </c>
-      <c r="L17" s="14">
+      <c r="L22" s="14">
         <v>11</v>
       </c>
-      <c r="M17" s="14">
+      <c r="M22" s="14">
         <v>17</v>
       </c>
-      <c r="N17" s="14">
+      <c r="N22" s="14">
         <v>4</v>
       </c>
-      <c r="O17" s="14">
+      <c r="O22" s="14">
         <v>14</v>
       </c>
-      <c r="P17" s="14">
-        <f>I17+J17+K17+L17</f>
+      <c r="P22" s="14">
+        <f>I22+J22+K22+L22</f>
         <v>39</v>
       </c>
-      <c r="Q17" s="14">
-        <f>M17+N17+O17</f>
+      <c r="Q22" s="14">
+        <f>M22+N22+O22</f>
         <v>35</v>
       </c>
-      <c r="R17" s="14">
+      <c r="R22" s="14">
         <v>180</v>
       </c>
-      <c r="S17" s="14">
+      <c r="S22" s="14">
         <v>120</v>
       </c>
-      <c r="T17" s="30">
-        <f>R17+S17</f>
+      <c r="T22" s="30">
+        <f>R22+S22</f>
         <v>300</v>
       </c>
     </row>
@@ -3897,130 +4079,130 @@
       </c>
     </row>
     <row r="3" spans="1:112" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78" t="s">
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78" t="s">
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78" t="s">
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78" t="s">
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78" t="s">
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
+      <c r="S3" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78" t="s">
+      <c r="T3" s="82"/>
+      <c r="U3" s="82"/>
+      <c r="V3" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="W3" s="78"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="78" t="s">
+      <c r="W3" s="82"/>
+      <c r="X3" s="82"/>
+      <c r="Y3" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="Z3" s="78"/>
-      <c r="AA3" s="78"/>
-      <c r="AB3" s="78" t="s">
+      <c r="Z3" s="82"/>
+      <c r="AA3" s="82"/>
+      <c r="AB3" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="AC3" s="78"/>
-      <c r="AD3" s="78"/>
-      <c r="AE3" s="78" t="s">
+      <c r="AC3" s="82"/>
+      <c r="AD3" s="82"/>
+      <c r="AE3" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="AF3" s="78"/>
-      <c r="AG3" s="78"/>
-      <c r="AH3" s="78" t="s">
+      <c r="AF3" s="82"/>
+      <c r="AG3" s="82"/>
+      <c r="AH3" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="AI3" s="78"/>
-      <c r="AJ3" s="78"/>
-      <c r="AK3" s="78" t="s">
+      <c r="AI3" s="82"/>
+      <c r="AJ3" s="82"/>
+      <c r="AK3" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="AL3" s="78"/>
-      <c r="AM3" s="78"/>
-      <c r="AN3" s="78" t="s">
+      <c r="AL3" s="82"/>
+      <c r="AM3" s="82"/>
+      <c r="AN3" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="AO3" s="78"/>
-      <c r="AP3" s="78"/>
-      <c r="AQ3" s="78" t="s">
+      <c r="AO3" s="82"/>
+      <c r="AP3" s="82"/>
+      <c r="AQ3" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="AR3" s="78"/>
-      <c r="AS3" s="78"/>
-      <c r="AT3" s="78" t="s">
+      <c r="AR3" s="82"/>
+      <c r="AS3" s="82"/>
+      <c r="AT3" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="AU3" s="78"/>
-      <c r="AV3" s="78"/>
-      <c r="AW3" s="78" t="s">
+      <c r="AU3" s="82"/>
+      <c r="AV3" s="82"/>
+      <c r="AW3" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="AX3" s="78"/>
-      <c r="AY3" s="78"/>
-      <c r="AZ3" s="78" t="s">
+      <c r="AX3" s="82"/>
+      <c r="AY3" s="82"/>
+      <c r="AZ3" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="BA3" s="78"/>
-      <c r="BB3" s="78"/>
-      <c r="BC3" s="78" t="s">
+      <c r="BA3" s="82"/>
+      <c r="BB3" s="82"/>
+      <c r="BC3" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="BD3" s="78"/>
-      <c r="BE3" s="78"/>
-      <c r="BF3" s="78" t="s">
+      <c r="BD3" s="82"/>
+      <c r="BE3" s="82"/>
+      <c r="BF3" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="BG3" s="78"/>
-      <c r="BH3" s="78"/>
-      <c r="BI3" s="78" t="s">
+      <c r="BG3" s="82"/>
+      <c r="BH3" s="82"/>
+      <c r="BI3" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="BJ3" s="78"/>
-      <c r="BK3" s="78"/>
-      <c r="BL3" s="78" t="s">
+      <c r="BJ3" s="82"/>
+      <c r="BK3" s="82"/>
+      <c r="BL3" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="BM3" s="78"/>
-      <c r="BN3" s="78"/>
-      <c r="BO3" s="78" t="s">
+      <c r="BM3" s="82"/>
+      <c r="BN3" s="82"/>
+      <c r="BO3" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="BP3" s="78"/>
-      <c r="BQ3" s="78"/>
-      <c r="BR3" s="78" t="s">
+      <c r="BP3" s="82"/>
+      <c r="BQ3" s="82"/>
+      <c r="BR3" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="BS3" s="78"/>
-      <c r="BT3" s="78"/>
+      <c r="BS3" s="82"/>
+      <c r="BT3" s="82"/>
       <c r="BU3" s="79" t="s">
         <v>126</v>
       </c>
@@ -4046,26 +4228,26 @@
       </c>
       <c r="CH3" s="80"/>
       <c r="CI3" s="81"/>
-      <c r="CJ3" s="75" t="s">
+      <c r="CJ3" s="76" t="s">
         <v>142</v>
       </c>
-      <c r="CK3" s="76"/>
-      <c r="CL3" s="77"/>
-      <c r="CM3" s="75" t="s">
+      <c r="CK3" s="77"/>
+      <c r="CL3" s="78"/>
+      <c r="CM3" s="76" t="s">
         <v>146</v>
       </c>
-      <c r="CN3" s="76"/>
-      <c r="CO3" s="77"/>
-      <c r="CP3" s="75" t="s">
+      <c r="CN3" s="77"/>
+      <c r="CO3" s="78"/>
+      <c r="CP3" s="76" t="s">
         <v>147</v>
       </c>
-      <c r="CQ3" s="76"/>
-      <c r="CR3" s="77"/>
-      <c r="CS3" s="75" t="s">
+      <c r="CQ3" s="77"/>
+      <c r="CR3" s="78"/>
+      <c r="CS3" s="76" t="s">
         <v>153</v>
       </c>
-      <c r="CT3" s="76"/>
-      <c r="CU3" s="77"/>
+      <c r="CT3" s="77"/>
+      <c r="CU3" s="78"/>
       <c r="CV3" s="35"/>
       <c r="CW3" s="35"/>
       <c r="CX3" s="35"/>
@@ -4081,9 +4263,9 @@
       <c r="DH3" s="58"/>
     </row>
     <row r="4" spans="1:112" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="82"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
       <c r="D4" s="34" t="s">
         <v>66</v>
       </c>
@@ -6340,25 +6522,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="CJ3:CL3"/>
-    <mergeCell ref="CG3:CI3"/>
-    <mergeCell ref="CA3:CC3"/>
-    <mergeCell ref="CD3:CF3"/>
-    <mergeCell ref="BL3:BN3"/>
-    <mergeCell ref="BO3:BQ3"/>
-    <mergeCell ref="BX3:BZ3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BK3"/>
-    <mergeCell ref="AQ3:AS3"/>
-    <mergeCell ref="AT3:AV3"/>
-    <mergeCell ref="AW3:AY3"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
     <mergeCell ref="CS3:CU3"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="M3:O3"/>
@@ -6375,6 +6538,25 @@
     <mergeCell ref="AK3:AM3"/>
     <mergeCell ref="AN3:AP3"/>
     <mergeCell ref="CM3:CO3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BK3"/>
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="AT3:AV3"/>
+    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="CJ3:CL3"/>
+    <mergeCell ref="CG3:CI3"/>
+    <mergeCell ref="CA3:CC3"/>
+    <mergeCell ref="CD3:CF3"/>
+    <mergeCell ref="BL3:BN3"/>
+    <mergeCell ref="BO3:BQ3"/>
+    <mergeCell ref="BX3:BZ3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6415,30 +6597,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="72" t="s">
+      <c r="G2" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="73" t="s">
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="71" t="s">
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="71" t="s">
+      <c r="O2" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="71" t="s">
+      <c r="P2" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="71" t="s">
+      <c r="Q2" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="71" t="s">
+      <c r="R2" s="72" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6482,11 +6664,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -6744,8 +6926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AS6" sqref="AS6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AR7" sqref="AR7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6768,10 +6950,10 @@
       </c>
     </row>
     <row r="3" spans="1:55" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="84" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="34" t="s">
@@ -6786,74 +6968,76 @@
       <c r="F3" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="84" t="s">
+      <c r="G3" s="85" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="75" t="s">
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="76" t="s">
         <v>123</v>
       </c>
-      <c r="K3" s="76"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="75" t="s">
+      <c r="K3" s="77"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="76" t="s">
         <v>129</v>
       </c>
-      <c r="N3" s="76"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="75" t="s">
+      <c r="N3" s="77"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="76" t="s">
         <v>131</v>
       </c>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="75" t="s">
+      <c r="Q3" s="77"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="76" t="s">
         <v>134</v>
       </c>
-      <c r="T3" s="76"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="75" t="s">
+      <c r="T3" s="77"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="76" t="s">
         <v>137</v>
       </c>
-      <c r="W3" s="76"/>
-      <c r="X3" s="77"/>
-      <c r="Y3" s="75" t="s">
+      <c r="W3" s="77"/>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="76" t="s">
         <v>140</v>
       </c>
-      <c r="Z3" s="76"/>
-      <c r="AA3" s="77"/>
-      <c r="AB3" s="75" t="s">
+      <c r="Z3" s="77"/>
+      <c r="AA3" s="78"/>
+      <c r="AB3" s="76" t="s">
         <v>143</v>
       </c>
-      <c r="AC3" s="76"/>
-      <c r="AD3" s="77"/>
-      <c r="AE3" s="75" t="s">
+      <c r="AC3" s="77"/>
+      <c r="AD3" s="78"/>
+      <c r="AE3" s="76" t="s">
         <v>144</v>
       </c>
-      <c r="AF3" s="76"/>
-      <c r="AG3" s="77"/>
-      <c r="AH3" s="75" t="s">
+      <c r="AF3" s="77"/>
+      <c r="AG3" s="78"/>
+      <c r="AH3" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="AI3" s="76"/>
-      <c r="AJ3" s="77"/>
-      <c r="AK3" s="75" t="s">
+      <c r="AI3" s="77"/>
+      <c r="AJ3" s="78"/>
+      <c r="AK3" s="76" t="s">
         <v>150</v>
       </c>
-      <c r="AL3" s="76"/>
-      <c r="AM3" s="77"/>
-      <c r="AN3" s="75" t="s">
+      <c r="AL3" s="77"/>
+      <c r="AM3" s="78"/>
+      <c r="AN3" s="76" t="s">
         <v>151</v>
       </c>
-      <c r="AO3" s="76"/>
-      <c r="AP3" s="77"/>
-      <c r="AQ3" s="75" t="s">
+      <c r="AO3" s="77"/>
+      <c r="AP3" s="78"/>
+      <c r="AQ3" s="76" t="s">
         <v>154</v>
       </c>
-      <c r="AR3" s="76"/>
-      <c r="AS3" s="77"/>
-      <c r="AT3" s="54"/>
-      <c r="AU3" s="54"/>
-      <c r="AV3" s="54"/>
+      <c r="AR3" s="77"/>
+      <c r="AS3" s="78"/>
+      <c r="AT3" s="76" t="s">
+        <v>156</v>
+      </c>
+      <c r="AU3" s="77"/>
+      <c r="AV3" s="78"/>
       <c r="AW3" s="54"/>
       <c r="AX3" s="54"/>
       <c r="AY3" s="54"/>
@@ -6863,8 +7047,8 @@
       <c r="BC3" s="54"/>
     </row>
     <row r="4" spans="1:55" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83"/>
-      <c r="B4" s="83"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="84"/>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
@@ -6986,9 +7170,15 @@
       <c r="AS4" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="AT4" s="54"/>
-      <c r="AU4" s="54"/>
-      <c r="AV4" s="54"/>
+      <c r="AT4" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="AU4" s="71" t="s">
+        <v>119</v>
+      </c>
+      <c r="AV4" s="71" t="s">
+        <v>64</v>
+      </c>
       <c r="AW4" s="54"/>
       <c r="AX4" s="54"/>
       <c r="AY4" s="54"/>
@@ -7099,8 +7289,12 @@
         <v>0</v>
       </c>
       <c r="AS5" s="54"/>
-      <c r="AT5" s="54"/>
-      <c r="AU5" s="54"/>
+      <c r="AT5" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="71" t="s">
+        <v>0</v>
+      </c>
       <c r="AV5" s="54"/>
       <c r="AW5" s="54"/>
       <c r="AX5" s="54"/>
@@ -7309,9 +7503,15 @@
         <v>0</v>
       </c>
       <c r="AS7" s="54"/>
-      <c r="AT7" s="54"/>
-      <c r="AU7" s="54"/>
-      <c r="AV7" s="54"/>
+      <c r="AT7" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="71" t="s">
+        <v>0</v>
+      </c>
       <c r="AW7" s="54"/>
       <c r="AX7" s="54"/>
       <c r="AY7" s="54"/>
@@ -7442,9 +7642,15 @@
       <c r="AS8" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="AT8" s="54"/>
-      <c r="AU8" s="54"/>
-      <c r="AV8" s="54"/>
+      <c r="AT8" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="71" t="s">
+        <v>0</v>
+      </c>
       <c r="AW8" s="54"/>
       <c r="AX8" s="54"/>
       <c r="AY8" s="54"/>
@@ -7557,8 +7763,12 @@
       <c r="AS9" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="AT9" s="54"/>
-      <c r="AU9" s="54"/>
+      <c r="AT9" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="71" t="s">
+        <v>0</v>
+      </c>
       <c r="AV9" s="54"/>
       <c r="AW9" s="54"/>
       <c r="AX9" s="54"/>
@@ -7692,9 +7902,15 @@
         <v>0</v>
       </c>
       <c r="AS10" s="54"/>
-      <c r="AT10" s="54"/>
-      <c r="AU10" s="54"/>
-      <c r="AV10" s="54"/>
+      <c r="AT10" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="71" t="s">
+        <v>0</v>
+      </c>
       <c r="AW10" s="54"/>
       <c r="AX10" s="54"/>
       <c r="AY10" s="54"/>
@@ -7856,22 +8072,23 @@
       <c r="S18" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="AT3:AV3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
     <mergeCell ref="AQ3:AS3"/>
     <mergeCell ref="AN3:AP3"/>
     <mergeCell ref="AH3:AJ3"/>
     <mergeCell ref="AK3:AM3"/>
     <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:U3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7912,30 +8129,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="72" t="s">
+      <c r="G2" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="73" t="s">
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="71" t="s">
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="71" t="s">
+      <c r="O2" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="71" t="s">
+      <c r="P2" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="71" t="s">
+      <c r="Q2" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="71" t="s">
+      <c r="R2" s="72" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7979,11 +8196,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -8324,7 +8541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="V5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="BA9" sqref="BA9"/>
       <selection pane="topRight" activeCell="BA9" sqref="BA9"/>
@@ -8351,10 +8568,10 @@
       </c>
     </row>
     <row r="3" spans="1:51" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="84" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="41" t="s">
@@ -8369,61 +8586,61 @@
       <c r="F3" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="G3" s="84" t="s">
+      <c r="G3" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="75" t="s">
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="K3" s="76"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="75" t="s">
+      <c r="K3" s="77"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="76" t="s">
         <v>128</v>
       </c>
-      <c r="N3" s="76"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="75" t="s">
+      <c r="N3" s="77"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="76" t="s">
         <v>132</v>
       </c>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="75" t="s">
+      <c r="Q3" s="77"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="76" t="s">
         <v>135</v>
       </c>
-      <c r="T3" s="76"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="75" t="s">
+      <c r="T3" s="77"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="76" t="s">
         <v>136</v>
       </c>
-      <c r="W3" s="76"/>
-      <c r="X3" s="77"/>
-      <c r="Y3" s="75" t="s">
+      <c r="W3" s="77"/>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="76" t="s">
         <v>141</v>
       </c>
-      <c r="Z3" s="76"/>
-      <c r="AA3" s="77"/>
-      <c r="AB3" s="75" t="s">
+      <c r="Z3" s="77"/>
+      <c r="AA3" s="78"/>
+      <c r="AB3" s="76" t="s">
         <v>145</v>
       </c>
-      <c r="AC3" s="76"/>
-      <c r="AD3" s="77"/>
-      <c r="AE3" s="75" t="s">
+      <c r="AC3" s="77"/>
+      <c r="AD3" s="78"/>
+      <c r="AE3" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="AF3" s="76"/>
-      <c r="AG3" s="77"/>
-      <c r="AH3" s="75" t="s">
+      <c r="AF3" s="77"/>
+      <c r="AG3" s="78"/>
+      <c r="AH3" s="76" t="s">
         <v>152</v>
       </c>
-      <c r="AI3" s="76"/>
-      <c r="AJ3" s="77"/>
-      <c r="AK3" s="75" t="s">
+      <c r="AI3" s="77"/>
+      <c r="AJ3" s="78"/>
+      <c r="AK3" s="76" t="s">
         <v>155</v>
       </c>
-      <c r="AL3" s="76"/>
-      <c r="AM3" s="77"/>
+      <c r="AL3" s="77"/>
+      <c r="AM3" s="78"/>
       <c r="AN3" s="35"/>
       <c r="AO3" s="35"/>
       <c r="AP3" s="35"/>
@@ -8438,8 +8655,8 @@
       <c r="AY3" s="35"/>
     </row>
     <row r="4" spans="1:51" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83"/>
-      <c r="B4" s="83"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="84"/>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="TOEIC 300-500 K1" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="159">
   <si>
     <t>x</t>
   </si>
@@ -496,6 +496,9 @@
   </si>
   <si>
     <t>Test lần 1 (31/5/2017)</t>
+  </si>
+  <si>
+    <t>1/6-Lesson 12</t>
   </si>
 </sst>
 </file>
@@ -762,7 +765,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -945,6 +948,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -966,6 +972,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -973,9 +982,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1331,30 +1337,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="73" t="s">
+      <c r="G2" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="74" t="s">
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="72" t="s">
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="72" t="s">
+      <c r="O2" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="72" t="s">
+      <c r="P2" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="72" t="s">
+      <c r="Q2" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="72" t="s">
+      <c r="R2" s="73" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1398,11 +1404,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -1655,30 +1661,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="73" t="s">
+      <c r="G2" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="74" t="s">
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="72" t="s">
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="72" t="s">
+      <c r="O2" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="72" t="s">
+      <c r="P2" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="72" t="s">
+      <c r="Q2" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="75" t="s">
+      <c r="R2" s="76" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1722,11 +1728,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="75"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="76"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -2701,30 +2707,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="73" t="s">
+      <c r="G2" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="74" t="s">
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="72" t="s">
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="72" t="s">
+      <c r="O2" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="72" t="s">
+      <c r="P2" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="72" t="s">
+      <c r="Q2" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="72" t="s">
+      <c r="R2" s="73" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2768,11 +2774,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -3082,30 +3088,30 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I2" s="73" t="s">
+      <c r="I2" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="74" t="s">
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="72" t="s">
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="72" t="s">
+      <c r="Q2" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="72" t="s">
+      <c r="R2" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="72" t="s">
+      <c r="S2" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="72" t="s">
+      <c r="T2" s="73" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3155,11 +3161,11 @@
       <c r="O3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
     </row>
     <row r="4" spans="1:20" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -4079,175 +4085,175 @@
       </c>
     </row>
     <row r="3" spans="1:112" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82" t="s">
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82" t="s">
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82" t="s">
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82" t="s">
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
-      <c r="S3" s="82" t="s">
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="T3" s="82"/>
-      <c r="U3" s="82"/>
-      <c r="V3" s="82" t="s">
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="W3" s="82"/>
-      <c r="X3" s="82"/>
-      <c r="Y3" s="82" t="s">
+      <c r="W3" s="80"/>
+      <c r="X3" s="80"/>
+      <c r="Y3" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="Z3" s="82"/>
-      <c r="AA3" s="82"/>
-      <c r="AB3" s="82" t="s">
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="AC3" s="82"/>
-      <c r="AD3" s="82"/>
-      <c r="AE3" s="82" t="s">
+      <c r="AC3" s="80"/>
+      <c r="AD3" s="80"/>
+      <c r="AE3" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="AF3" s="82"/>
-      <c r="AG3" s="82"/>
-      <c r="AH3" s="82" t="s">
+      <c r="AF3" s="80"/>
+      <c r="AG3" s="80"/>
+      <c r="AH3" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="AI3" s="82"/>
-      <c r="AJ3" s="82"/>
-      <c r="AK3" s="82" t="s">
+      <c r="AI3" s="80"/>
+      <c r="AJ3" s="80"/>
+      <c r="AK3" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="AL3" s="82"/>
-      <c r="AM3" s="82"/>
-      <c r="AN3" s="82" t="s">
+      <c r="AL3" s="80"/>
+      <c r="AM3" s="80"/>
+      <c r="AN3" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="AO3" s="82"/>
-      <c r="AP3" s="82"/>
-      <c r="AQ3" s="82" t="s">
+      <c r="AO3" s="80"/>
+      <c r="AP3" s="80"/>
+      <c r="AQ3" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="AR3" s="82"/>
-      <c r="AS3" s="82"/>
-      <c r="AT3" s="82" t="s">
+      <c r="AR3" s="80"/>
+      <c r="AS3" s="80"/>
+      <c r="AT3" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="AU3" s="82"/>
-      <c r="AV3" s="82"/>
-      <c r="AW3" s="82" t="s">
+      <c r="AU3" s="80"/>
+      <c r="AV3" s="80"/>
+      <c r="AW3" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="AX3" s="82"/>
-      <c r="AY3" s="82"/>
-      <c r="AZ3" s="82" t="s">
+      <c r="AX3" s="80"/>
+      <c r="AY3" s="80"/>
+      <c r="AZ3" s="80" t="s">
         <v>92</v>
       </c>
-      <c r="BA3" s="82"/>
-      <c r="BB3" s="82"/>
-      <c r="BC3" s="82" t="s">
+      <c r="BA3" s="80"/>
+      <c r="BB3" s="80"/>
+      <c r="BC3" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="BD3" s="82"/>
-      <c r="BE3" s="82"/>
-      <c r="BF3" s="82" t="s">
+      <c r="BD3" s="80"/>
+      <c r="BE3" s="80"/>
+      <c r="BF3" s="80" t="s">
         <v>103</v>
       </c>
-      <c r="BG3" s="82"/>
-      <c r="BH3" s="82"/>
-      <c r="BI3" s="82" t="s">
+      <c r="BG3" s="80"/>
+      <c r="BH3" s="80"/>
+      <c r="BI3" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="BJ3" s="82"/>
-      <c r="BK3" s="82"/>
-      <c r="BL3" s="82" t="s">
+      <c r="BJ3" s="80"/>
+      <c r="BK3" s="80"/>
+      <c r="BL3" s="80" t="s">
         <v>118</v>
       </c>
-      <c r="BM3" s="82"/>
-      <c r="BN3" s="82"/>
-      <c r="BO3" s="82" t="s">
+      <c r="BM3" s="80"/>
+      <c r="BN3" s="80"/>
+      <c r="BO3" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="BP3" s="82"/>
-      <c r="BQ3" s="82"/>
-      <c r="BR3" s="82" t="s">
+      <c r="BP3" s="80"/>
+      <c r="BQ3" s="80"/>
+      <c r="BR3" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="BS3" s="82"/>
-      <c r="BT3" s="82"/>
-      <c r="BU3" s="79" t="s">
+      <c r="BS3" s="80"/>
+      <c r="BT3" s="80"/>
+      <c r="BU3" s="81" t="s">
         <v>126</v>
       </c>
-      <c r="BV3" s="80"/>
-      <c r="BW3" s="81"/>
-      <c r="BX3" s="79" t="s">
+      <c r="BV3" s="82"/>
+      <c r="BW3" s="83"/>
+      <c r="BX3" s="81" t="s">
         <v>127</v>
       </c>
-      <c r="BY3" s="80"/>
-      <c r="BZ3" s="81"/>
-      <c r="CA3" s="79" t="s">
+      <c r="BY3" s="82"/>
+      <c r="BZ3" s="83"/>
+      <c r="CA3" s="81" t="s">
         <v>133</v>
       </c>
-      <c r="CB3" s="80"/>
-      <c r="CC3" s="81"/>
-      <c r="CD3" s="79" t="s">
+      <c r="CB3" s="82"/>
+      <c r="CC3" s="83"/>
+      <c r="CD3" s="81" t="s">
         <v>138</v>
       </c>
-      <c r="CE3" s="80"/>
-      <c r="CF3" s="81"/>
-      <c r="CG3" s="79" t="s">
+      <c r="CE3" s="82"/>
+      <c r="CF3" s="83"/>
+      <c r="CG3" s="81" t="s">
         <v>139</v>
       </c>
-      <c r="CH3" s="80"/>
-      <c r="CI3" s="81"/>
-      <c r="CJ3" s="76" t="s">
+      <c r="CH3" s="82"/>
+      <c r="CI3" s="83"/>
+      <c r="CJ3" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="CK3" s="77"/>
-      <c r="CL3" s="78"/>
-      <c r="CM3" s="76" t="s">
+      <c r="CK3" s="78"/>
+      <c r="CL3" s="79"/>
+      <c r="CM3" s="77" t="s">
         <v>146</v>
       </c>
-      <c r="CN3" s="77"/>
-      <c r="CO3" s="78"/>
-      <c r="CP3" s="76" t="s">
+      <c r="CN3" s="78"/>
+      <c r="CO3" s="79"/>
+      <c r="CP3" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="CQ3" s="77"/>
-      <c r="CR3" s="78"/>
-      <c r="CS3" s="76" t="s">
+      <c r="CQ3" s="78"/>
+      <c r="CR3" s="79"/>
+      <c r="CS3" s="77" t="s">
         <v>153</v>
       </c>
-      <c r="CT3" s="77"/>
-      <c r="CU3" s="78"/>
+      <c r="CT3" s="78"/>
+      <c r="CU3" s="79"/>
       <c r="CV3" s="35"/>
       <c r="CW3" s="35"/>
       <c r="CX3" s="35"/>
@@ -4263,9 +4269,9 @@
       <c r="DH3" s="58"/>
     </row>
     <row r="4" spans="1:112" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="83"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
       <c r="D4" s="34" t="s">
         <v>66</v>
       </c>
@@ -6522,6 +6528,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="CJ3:CL3"/>
+    <mergeCell ref="CG3:CI3"/>
+    <mergeCell ref="CA3:CC3"/>
+    <mergeCell ref="CD3:CF3"/>
+    <mergeCell ref="BL3:BN3"/>
+    <mergeCell ref="BO3:BQ3"/>
+    <mergeCell ref="BX3:BZ3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BK3"/>
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="AT3:AV3"/>
+    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
     <mergeCell ref="CS3:CU3"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="M3:O3"/>
@@ -6538,25 +6563,6 @@
     <mergeCell ref="AK3:AM3"/>
     <mergeCell ref="AN3:AP3"/>
     <mergeCell ref="CM3:CO3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BK3"/>
-    <mergeCell ref="AQ3:AS3"/>
-    <mergeCell ref="AT3:AV3"/>
-    <mergeCell ref="AW3:AY3"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="CJ3:CL3"/>
-    <mergeCell ref="CG3:CI3"/>
-    <mergeCell ref="CA3:CC3"/>
-    <mergeCell ref="CD3:CF3"/>
-    <mergeCell ref="BL3:BN3"/>
-    <mergeCell ref="BO3:BQ3"/>
-    <mergeCell ref="BX3:BZ3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6597,30 +6603,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="73" t="s">
+      <c r="G2" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="74" t="s">
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="72" t="s">
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="72" t="s">
+      <c r="O2" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="72" t="s">
+      <c r="P2" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="72" t="s">
+      <c r="Q2" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="72" t="s">
+      <c r="R2" s="73" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6664,11 +6670,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -6926,7 +6932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AR7" sqref="AR7"/>
     </sheetView>
   </sheetViews>
@@ -6950,10 +6956,10 @@
       </c>
     </row>
     <row r="3" spans="1:55" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="85" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="34" t="s">
@@ -6968,76 +6974,76 @@
       <c r="F3" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="85" t="s">
+      <c r="G3" s="86" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="76" t="s">
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="K3" s="77"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="76" t="s">
+      <c r="K3" s="78"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="N3" s="77"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="76" t="s">
+      <c r="N3" s="78"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="76" t="s">
+      <c r="Q3" s="78"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="T3" s="77"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="76" t="s">
+      <c r="T3" s="78"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="W3" s="77"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="76" t="s">
+      <c r="W3" s="78"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="Z3" s="77"/>
-      <c r="AA3" s="78"/>
-      <c r="AB3" s="76" t="s">
+      <c r="Z3" s="78"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="77" t="s">
         <v>143</v>
       </c>
-      <c r="AC3" s="77"/>
-      <c r="AD3" s="78"/>
-      <c r="AE3" s="76" t="s">
+      <c r="AC3" s="78"/>
+      <c r="AD3" s="79"/>
+      <c r="AE3" s="77" t="s">
         <v>144</v>
       </c>
-      <c r="AF3" s="77"/>
-      <c r="AG3" s="78"/>
-      <c r="AH3" s="76" t="s">
+      <c r="AF3" s="78"/>
+      <c r="AG3" s="79"/>
+      <c r="AH3" s="77" t="s">
         <v>149</v>
       </c>
-      <c r="AI3" s="77"/>
-      <c r="AJ3" s="78"/>
-      <c r="AK3" s="76" t="s">
+      <c r="AI3" s="78"/>
+      <c r="AJ3" s="79"/>
+      <c r="AK3" s="77" t="s">
         <v>150</v>
       </c>
-      <c r="AL3" s="77"/>
-      <c r="AM3" s="78"/>
-      <c r="AN3" s="76" t="s">
+      <c r="AL3" s="78"/>
+      <c r="AM3" s="79"/>
+      <c r="AN3" s="77" t="s">
         <v>151</v>
       </c>
-      <c r="AO3" s="77"/>
-      <c r="AP3" s="78"/>
-      <c r="AQ3" s="76" t="s">
+      <c r="AO3" s="78"/>
+      <c r="AP3" s="79"/>
+      <c r="AQ3" s="77" t="s">
         <v>154</v>
       </c>
-      <c r="AR3" s="77"/>
-      <c r="AS3" s="78"/>
-      <c r="AT3" s="76" t="s">
+      <c r="AR3" s="78"/>
+      <c r="AS3" s="79"/>
+      <c r="AT3" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="AU3" s="77"/>
-      <c r="AV3" s="78"/>
+      <c r="AU3" s="78"/>
+      <c r="AV3" s="79"/>
       <c r="AW3" s="54"/>
       <c r="AX3" s="54"/>
       <c r="AY3" s="54"/>
@@ -7047,8 +7053,8 @@
       <c r="BC3" s="54"/>
     </row>
     <row r="4" spans="1:55" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84"/>
-      <c r="B4" s="84"/>
+      <c r="A4" s="85"/>
+      <c r="B4" s="85"/>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
@@ -8073,17 +8079,17 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
     <mergeCell ref="AT3:AV3"/>
     <mergeCell ref="AB3:AD3"/>
     <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:U3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
     <mergeCell ref="AQ3:AS3"/>
     <mergeCell ref="AN3:AP3"/>
     <mergeCell ref="AH3:AJ3"/>
@@ -8129,30 +8135,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="73" t="s">
+      <c r="G2" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="74" t="s">
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="72" t="s">
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="72" t="s">
+      <c r="O2" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="72" t="s">
+      <c r="P2" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="72" t="s">
+      <c r="Q2" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="72" t="s">
+      <c r="R2" s="73" t="s">
         <v>18</v>
       </c>
     </row>
@@ -8196,11 +8202,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -8541,12 +8547,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="V5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="BA9" sqref="BA9"/>
       <selection pane="topRight" activeCell="BA9" sqref="BA9"/>
       <selection pane="bottomLeft" activeCell="BA9" sqref="BA9"/>
-      <selection pane="bottomRight" activeCell="AP9" sqref="AP9"/>
+      <selection pane="bottomRight" activeCell="AP8" sqref="AP8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8568,10 +8574,10 @@
       </c>
     </row>
     <row r="3" spans="1:51" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="85" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="41" t="s">
@@ -8586,64 +8592,66 @@
       <c r="F3" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="G3" s="85" t="s">
+      <c r="G3" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="76" t="s">
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="K3" s="77"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="76" t="s">
+      <c r="K3" s="78"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="N3" s="77"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="76" t="s">
+      <c r="N3" s="78"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="76" t="s">
+      <c r="Q3" s="78"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="77" t="s">
         <v>135</v>
       </c>
-      <c r="T3" s="77"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="76" t="s">
+      <c r="T3" s="78"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="W3" s="77"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="76" t="s">
+      <c r="W3" s="78"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="77" t="s">
         <v>141</v>
       </c>
-      <c r="Z3" s="77"/>
-      <c r="AA3" s="78"/>
-      <c r="AB3" s="76" t="s">
+      <c r="Z3" s="78"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="77" t="s">
         <v>145</v>
       </c>
-      <c r="AC3" s="77"/>
-      <c r="AD3" s="78"/>
-      <c r="AE3" s="76" t="s">
+      <c r="AC3" s="78"/>
+      <c r="AD3" s="79"/>
+      <c r="AE3" s="77" t="s">
         <v>148</v>
       </c>
-      <c r="AF3" s="77"/>
-      <c r="AG3" s="78"/>
-      <c r="AH3" s="76" t="s">
+      <c r="AF3" s="78"/>
+      <c r="AG3" s="79"/>
+      <c r="AH3" s="77" t="s">
         <v>152</v>
       </c>
-      <c r="AI3" s="77"/>
-      <c r="AJ3" s="78"/>
-      <c r="AK3" s="76" t="s">
+      <c r="AI3" s="78"/>
+      <c r="AJ3" s="79"/>
+      <c r="AK3" s="77" t="s">
         <v>155</v>
       </c>
-      <c r="AL3" s="77"/>
-      <c r="AM3" s="78"/>
-      <c r="AN3" s="35"/>
-      <c r="AO3" s="35"/>
-      <c r="AP3" s="35"/>
+      <c r="AL3" s="78"/>
+      <c r="AM3" s="79"/>
+      <c r="AN3" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="AO3" s="78"/>
+      <c r="AP3" s="79"/>
       <c r="AQ3" s="35"/>
       <c r="AR3" s="35"/>
       <c r="AS3" s="35"/>
@@ -8655,8 +8663,8 @@
       <c r="AY3" s="35"/>
     </row>
     <row r="4" spans="1:51" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84"/>
-      <c r="B4" s="84"/>
+      <c r="A4" s="85"/>
+      <c r="B4" s="85"/>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
@@ -8760,9 +8768,15 @@
       <c r="AM4" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="AN4" s="35"/>
-      <c r="AO4" s="35"/>
-      <c r="AP4" s="35"/>
+      <c r="AN4" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO4" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP4" s="72" t="s">
+        <v>64</v>
+      </c>
       <c r="AQ4" s="35"/>
       <c r="AR4" s="35"/>
       <c r="AS4" s="35"/>
@@ -8861,9 +8875,15 @@
         <v>0</v>
       </c>
       <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="67"/>
+      <c r="AN5" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="72" t="s">
+        <v>0</v>
+      </c>
       <c r="AQ5" s="67"/>
       <c r="AR5" s="67"/>
       <c r="AS5" s="67"/>
@@ -8966,8 +8986,12 @@
         <v>0</v>
       </c>
       <c r="AM6" s="67"/>
-      <c r="AN6" s="67"/>
-      <c r="AO6" s="67"/>
+      <c r="AN6" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="72" t="s">
+        <v>0</v>
+      </c>
       <c r="AP6" s="67"/>
       <c r="AQ6" s="67"/>
       <c r="AR6" s="67"/>
@@ -9043,8 +9067,12 @@
         <v>0</v>
       </c>
       <c r="AM7" s="67"/>
-      <c r="AN7" s="67"/>
-      <c r="AO7" s="67"/>
+      <c r="AN7" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="72" t="s">
+        <v>0</v>
+      </c>
       <c r="AP7" s="67"/>
       <c r="AQ7" s="67"/>
       <c r="AR7" s="67"/>
@@ -9123,7 +9151,9 @@
       </c>
       <c r="AM8" s="67"/>
       <c r="AN8" s="67"/>
-      <c r="AO8" s="67"/>
+      <c r="AO8" s="67" t="s">
+        <v>0</v>
+      </c>
       <c r="AP8" s="67"/>
       <c r="AQ8" s="67"/>
       <c r="AR8" s="67"/>
@@ -9229,8 +9259,12 @@
       <c r="AM9" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="AN9" s="67"/>
-      <c r="AO9" s="67"/>
+      <c r="AN9" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="72" t="s">
+        <v>0</v>
+      </c>
       <c r="AP9" s="67"/>
       <c r="AQ9" s="67"/>
       <c r="AR9" s="67"/>
@@ -9332,9 +9366,15 @@
         <v>0</v>
       </c>
       <c r="AM10" s="67"/>
-      <c r="AN10" s="67"/>
-      <c r="AO10" s="67"/>
-      <c r="AP10" s="67"/>
+      <c r="AN10" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="72" t="s">
+        <v>0</v>
+      </c>
       <c r="AQ10" s="67"/>
       <c r="AR10" s="67"/>
       <c r="AS10" s="67"/>
@@ -9439,9 +9479,15 @@
         <v>0</v>
       </c>
       <c r="AM11" s="67"/>
-      <c r="AN11" s="67"/>
-      <c r="AO11" s="67"/>
-      <c r="AP11" s="67"/>
+      <c r="AN11" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="72" t="s">
+        <v>0</v>
+      </c>
       <c r="AQ11" s="67"/>
       <c r="AR11" s="67"/>
       <c r="AS11" s="67"/>
@@ -9544,8 +9590,12 @@
         <v>0</v>
       </c>
       <c r="AM12" s="67"/>
-      <c r="AN12" s="67"/>
-      <c r="AO12" s="67"/>
+      <c r="AN12" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="72" t="s">
+        <v>0</v>
+      </c>
       <c r="AP12" s="67"/>
       <c r="AQ12" s="67"/>
       <c r="AR12" s="67"/>
@@ -9657,9 +9707,15 @@
       <c r="AM13" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="AN13" s="67"/>
-      <c r="AO13" s="67"/>
-      <c r="AP13" s="67"/>
+      <c r="AN13" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="72" t="s">
+        <v>0</v>
+      </c>
       <c r="AQ13" s="67"/>
       <c r="AR13" s="67"/>
       <c r="AS13" s="67"/>
@@ -9843,7 +9899,8 @@
     <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="AN3:AP3"/>
     <mergeCell ref="AK3:AM3"/>
     <mergeCell ref="AH3:AJ3"/>
     <mergeCell ref="AE3:AG3"/>

--- a/Danh Sach Lop/Offline TOEIC.xlsx
+++ b/Danh Sach Lop/Offline TOEIC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TOEIC 300-500 K1" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="160">
   <si>
     <t>x</t>
   </si>
@@ -499,6 +499,9 @@
   </si>
   <si>
     <t>1/6-Lesson 12</t>
+  </si>
+  <si>
+    <t>2/6-Lesson 15</t>
   </si>
 </sst>
 </file>
@@ -765,7 +768,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -951,6 +954,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -972,9 +978,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -982,6 +985,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1337,30 +1343,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="74" t="s">
+      <c r="G2" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="75" t="s">
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="73" t="s">
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="73" t="s">
+      <c r="O2" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="73" t="s">
+      <c r="P2" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="73" t="s">
+      <c r="Q2" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="73" t="s">
+      <c r="R2" s="74" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1404,11 +1410,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -1661,30 +1667,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="74" t="s">
+      <c r="G2" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="75" t="s">
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="73" t="s">
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="73" t="s">
+      <c r="O2" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="73" t="s">
+      <c r="P2" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="73" t="s">
+      <c r="Q2" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="76" t="s">
+      <c r="R2" s="77" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1728,11 +1734,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="76"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="77"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -2707,30 +2713,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="74" t="s">
+      <c r="G2" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="75" t="s">
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="73" t="s">
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="73" t="s">
+      <c r="O2" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="73" t="s">
+      <c r="P2" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="73" t="s">
+      <c r="Q2" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="73" t="s">
+      <c r="R2" s="74" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2774,11 +2780,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -3061,7 +3067,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="S20" sqref="S20"/>
+      <selection pane="bottomRight" activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3088,30 +3094,30 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I2" s="74" t="s">
+      <c r="I2" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="75" t="s">
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="73" t="s">
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="73" t="s">
+      <c r="Q2" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="73" t="s">
+      <c r="R2" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="73" t="s">
+      <c r="S2" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="73" t="s">
+      <c r="T2" s="74" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3161,11 +3167,11 @@
       <c r="O3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="74"/>
+      <c r="T3" s="74"/>
     </row>
     <row r="4" spans="1:20" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -4085,130 +4091,130 @@
       </c>
     </row>
     <row r="3" spans="1:112" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80" t="s">
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80" t="s">
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80" t="s">
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="N3" s="80"/>
-      <c r="O3" s="80"/>
-      <c r="P3" s="80" t="s">
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="80"/>
-      <c r="S3" s="80" t="s">
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="T3" s="80"/>
-      <c r="U3" s="80"/>
-      <c r="V3" s="80" t="s">
+      <c r="T3" s="84"/>
+      <c r="U3" s="84"/>
+      <c r="V3" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="W3" s="80"/>
-      <c r="X3" s="80"/>
-      <c r="Y3" s="80" t="s">
+      <c r="W3" s="84"/>
+      <c r="X3" s="84"/>
+      <c r="Y3" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="Z3" s="80"/>
-      <c r="AA3" s="80"/>
-      <c r="AB3" s="80" t="s">
+      <c r="Z3" s="84"/>
+      <c r="AA3" s="84"/>
+      <c r="AB3" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="AC3" s="80"/>
-      <c r="AD3" s="80"/>
-      <c r="AE3" s="80" t="s">
+      <c r="AC3" s="84"/>
+      <c r="AD3" s="84"/>
+      <c r="AE3" s="84" t="s">
         <v>79</v>
       </c>
-      <c r="AF3" s="80"/>
-      <c r="AG3" s="80"/>
-      <c r="AH3" s="80" t="s">
+      <c r="AF3" s="84"/>
+      <c r="AG3" s="84"/>
+      <c r="AH3" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="AI3" s="80"/>
-      <c r="AJ3" s="80"/>
-      <c r="AK3" s="80" t="s">
+      <c r="AI3" s="84"/>
+      <c r="AJ3" s="84"/>
+      <c r="AK3" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="AL3" s="80"/>
-      <c r="AM3" s="80"/>
-      <c r="AN3" s="80" t="s">
+      <c r="AL3" s="84"/>
+      <c r="AM3" s="84"/>
+      <c r="AN3" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="AO3" s="80"/>
-      <c r="AP3" s="80"/>
-      <c r="AQ3" s="80" t="s">
+      <c r="AO3" s="84"/>
+      <c r="AP3" s="84"/>
+      <c r="AQ3" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="AR3" s="80"/>
-      <c r="AS3" s="80"/>
-      <c r="AT3" s="80" t="s">
+      <c r="AR3" s="84"/>
+      <c r="AS3" s="84"/>
+      <c r="AT3" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="AU3" s="80"/>
-      <c r="AV3" s="80"/>
-      <c r="AW3" s="80" t="s">
+      <c r="AU3" s="84"/>
+      <c r="AV3" s="84"/>
+      <c r="AW3" s="84" t="s">
         <v>85</v>
       </c>
-      <c r="AX3" s="80"/>
-      <c r="AY3" s="80"/>
-      <c r="AZ3" s="80" t="s">
+      <c r="AX3" s="84"/>
+      <c r="AY3" s="84"/>
+      <c r="AZ3" s="84" t="s">
         <v>92</v>
       </c>
-      <c r="BA3" s="80"/>
-      <c r="BB3" s="80"/>
-      <c r="BC3" s="80" t="s">
+      <c r="BA3" s="84"/>
+      <c r="BB3" s="84"/>
+      <c r="BC3" s="84" t="s">
         <v>101</v>
       </c>
-      <c r="BD3" s="80"/>
-      <c r="BE3" s="80"/>
-      <c r="BF3" s="80" t="s">
+      <c r="BD3" s="84"/>
+      <c r="BE3" s="84"/>
+      <c r="BF3" s="84" t="s">
         <v>103</v>
       </c>
-      <c r="BG3" s="80"/>
-      <c r="BH3" s="80"/>
-      <c r="BI3" s="80" t="s">
+      <c r="BG3" s="84"/>
+      <c r="BH3" s="84"/>
+      <c r="BI3" s="84" t="s">
         <v>113</v>
       </c>
-      <c r="BJ3" s="80"/>
-      <c r="BK3" s="80"/>
-      <c r="BL3" s="80" t="s">
+      <c r="BJ3" s="84"/>
+      <c r="BK3" s="84"/>
+      <c r="BL3" s="84" t="s">
         <v>118</v>
       </c>
-      <c r="BM3" s="80"/>
-      <c r="BN3" s="80"/>
-      <c r="BO3" s="80" t="s">
+      <c r="BM3" s="84"/>
+      <c r="BN3" s="84"/>
+      <c r="BO3" s="84" t="s">
         <v>122</v>
       </c>
-      <c r="BP3" s="80"/>
-      <c r="BQ3" s="80"/>
-      <c r="BR3" s="80" t="s">
+      <c r="BP3" s="84"/>
+      <c r="BQ3" s="84"/>
+      <c r="BR3" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="BS3" s="80"/>
-      <c r="BT3" s="80"/>
+      <c r="BS3" s="84"/>
+      <c r="BT3" s="84"/>
       <c r="BU3" s="81" t="s">
         <v>126</v>
       </c>
@@ -4234,26 +4240,26 @@
       </c>
       <c r="CH3" s="82"/>
       <c r="CI3" s="83"/>
-      <c r="CJ3" s="77" t="s">
+      <c r="CJ3" s="78" t="s">
         <v>142</v>
       </c>
-      <c r="CK3" s="78"/>
-      <c r="CL3" s="79"/>
-      <c r="CM3" s="77" t="s">
+      <c r="CK3" s="79"/>
+      <c r="CL3" s="80"/>
+      <c r="CM3" s="78" t="s">
         <v>146</v>
       </c>
-      <c r="CN3" s="78"/>
-      <c r="CO3" s="79"/>
-      <c r="CP3" s="77" t="s">
+      <c r="CN3" s="79"/>
+      <c r="CO3" s="80"/>
+      <c r="CP3" s="78" t="s">
         <v>147</v>
       </c>
-      <c r="CQ3" s="78"/>
-      <c r="CR3" s="79"/>
-      <c r="CS3" s="77" t="s">
+      <c r="CQ3" s="79"/>
+      <c r="CR3" s="80"/>
+      <c r="CS3" s="78" t="s">
         <v>153</v>
       </c>
-      <c r="CT3" s="78"/>
-      <c r="CU3" s="79"/>
+      <c r="CT3" s="79"/>
+      <c r="CU3" s="80"/>
       <c r="CV3" s="35"/>
       <c r="CW3" s="35"/>
       <c r="CX3" s="35"/>
@@ -4269,9 +4275,9 @@
       <c r="DH3" s="58"/>
     </row>
     <row r="4" spans="1:112" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="84"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
+      <c r="A4" s="85"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
       <c r="D4" s="34" t="s">
         <v>66</v>
       </c>
@@ -6528,25 +6534,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="CJ3:CL3"/>
-    <mergeCell ref="CG3:CI3"/>
-    <mergeCell ref="CA3:CC3"/>
-    <mergeCell ref="CD3:CF3"/>
-    <mergeCell ref="BL3:BN3"/>
-    <mergeCell ref="BO3:BQ3"/>
-    <mergeCell ref="BX3:BZ3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BK3"/>
-    <mergeCell ref="AQ3:AS3"/>
-    <mergeCell ref="AT3:AV3"/>
-    <mergeCell ref="AW3:AY3"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
     <mergeCell ref="CS3:CU3"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="M3:O3"/>
@@ -6563,6 +6550,25 @@
     <mergeCell ref="AK3:AM3"/>
     <mergeCell ref="AN3:AP3"/>
     <mergeCell ref="CM3:CO3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BK3"/>
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="AT3:AV3"/>
+    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="CJ3:CL3"/>
+    <mergeCell ref="CG3:CI3"/>
+    <mergeCell ref="CA3:CC3"/>
+    <mergeCell ref="CD3:CF3"/>
+    <mergeCell ref="BL3:BN3"/>
+    <mergeCell ref="BO3:BQ3"/>
+    <mergeCell ref="BX3:BZ3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6603,30 +6609,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="74" t="s">
+      <c r="G2" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="75" t="s">
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="73" t="s">
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="73" t="s">
+      <c r="O2" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="73" t="s">
+      <c r="P2" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="73" t="s">
+      <c r="Q2" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="73" t="s">
+      <c r="R2" s="74" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6670,11 +6676,11 @@
       <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
@@ -6932,8 +6938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AR7" sqref="AR7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BA8" sqref="BA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6942,9 +6948,9 @@
     <col min="2" max="2" width="26.5703125" customWidth="1"/>
     <col min="3" max="6" width="6.7109375" style="17" hidden="1" customWidth="1"/>
     <col min="7" max="19" width="5.85546875" style="17" hidden="1" customWidth="1"/>
-    <col min="20" max="21" width="5.85546875" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="5.85546875" customWidth="1"/>
-    <col min="23" max="55" width="5.5703125" customWidth="1"/>
+    <col min="20" max="22" width="5.85546875" hidden="1" customWidth="1"/>
+    <col min="23" max="45" width="5.5703125" hidden="1" customWidth="1"/>
+    <col min="46" max="55" width="5.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="26.25" x14ac:dyDescent="0.4">
@@ -6956,10 +6962,10 @@
       </c>
     </row>
     <row r="3" spans="1:55" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="86" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="34" t="s">
@@ -6974,87 +6980,89 @@
       <c r="F3" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="86" t="s">
+      <c r="G3" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="77" t="s">
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="K3" s="78"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="77" t="s">
+      <c r="K3" s="79"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="78" t="s">
         <v>129</v>
       </c>
-      <c r="N3" s="78"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="77" t="s">
+      <c r="N3" s="79"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="78" t="s">
         <v>131</v>
       </c>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="77" t="s">
+      <c r="Q3" s="79"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="78" t="s">
         <v>134</v>
       </c>
-      <c r="T3" s="78"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="77" t="s">
+      <c r="T3" s="79"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="78" t="s">
         <v>137</v>
       </c>
-      <c r="W3" s="78"/>
-      <c r="X3" s="79"/>
-      <c r="Y3" s="77" t="s">
+      <c r="W3" s="79"/>
+      <c r="X3" s="80"/>
+      <c r="Y3" s="78" t="s">
         <v>140</v>
       </c>
-      <c r="Z3" s="78"/>
-      <c r="AA3" s="79"/>
-      <c r="AB3" s="77" t="s">
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="78" t="s">
         <v>143</v>
       </c>
-      <c r="AC3" s="78"/>
-      <c r="AD3" s="79"/>
-      <c r="AE3" s="77" t="s">
+      <c r="AC3" s="79"/>
+      <c r="AD3" s="80"/>
+      <c r="AE3" s="78" t="s">
         <v>144</v>
       </c>
-      <c r="AF3" s="78"/>
-      <c r="AG3" s="79"/>
-      <c r="AH3" s="77" t="s">
+      <c r="AF3" s="79"/>
+      <c r="AG3" s="80"/>
+      <c r="AH3" s="78" t="s">
         <v>149</v>
       </c>
-      <c r="AI3" s="78"/>
-      <c r="AJ3" s="79"/>
-      <c r="AK3" s="77" t="s">
+      <c r="AI3" s="79"/>
+      <c r="AJ3" s="80"/>
+      <c r="AK3" s="78" t="s">
         <v>150</v>
       </c>
-      <c r="AL3" s="78"/>
-      <c r="AM3" s="79"/>
-      <c r="AN3" s="77" t="s">
+      <c r="AL3" s="79"/>
+      <c r="AM3" s="80"/>
+      <c r="AN3" s="78" t="s">
         <v>151</v>
       </c>
-      <c r="AO3" s="78"/>
-      <c r="AP3" s="79"/>
-      <c r="AQ3" s="77" t="s">
+      <c r="AO3" s="79"/>
+      <c r="AP3" s="80"/>
+      <c r="AQ3" s="78" t="s">
         <v>154</v>
       </c>
-      <c r="AR3" s="78"/>
-      <c r="AS3" s="79"/>
-      <c r="AT3" s="77" t="s">
+      <c r="AR3" s="79"/>
+      <c r="AS3" s="80"/>
+      <c r="AT3" s="78" t="s">
         <v>156</v>
       </c>
-      <c r="AU3" s="78"/>
-      <c r="AV3" s="79"/>
-      <c r="AW3" s="54"/>
-      <c r="AX3" s="54"/>
-      <c r="AY3" s="54"/>
+      <c r="AU3" s="79"/>
+      <c r="AV3" s="80"/>
+      <c r="AW3" s="78" t="s">
+        <v>159</v>
+      </c>
+      <c r="AX3" s="79"/>
+      <c r="AY3" s="80"/>
       <c r="AZ3" s="54"/>
       <c r="BA3" s="54"/>
       <c r="BB3" s="54"/>
       <c r="BC3" s="54"/>
     </row>
     <row r="4" spans="1:55" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85"/>
-      <c r="B4" s="85"/>
+      <c r="A4" s="86"/>
+      <c r="B4" s="86"/>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
@@ -7185,9 +7193,15 @@
       <c r="AV4" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="AW4" s="54"/>
-      <c r="AX4" s="54"/>
-      <c r="AY4" s="54"/>
+      <c r="AW4" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX4" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="AY4" s="73" t="s">
+        <v>64</v>
+      </c>
       <c r="AZ4" s="54"/>
       <c r="BA4" s="54"/>
       <c r="BB4" s="54"/>
@@ -7302,8 +7316,12 @@
         <v>0</v>
       </c>
       <c r="AV5" s="54"/>
-      <c r="AW5" s="54"/>
-      <c r="AX5" s="54"/>
+      <c r="AW5" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="73" t="s">
+        <v>0</v>
+      </c>
       <c r="AY5" s="54"/>
       <c r="AZ5" s="54"/>
       <c r="BA5" s="54"/>
@@ -7387,8 +7405,12 @@
       <c r="AT6" s="54"/>
       <c r="AU6" s="54"/>
       <c r="AV6" s="54"/>
-      <c r="AW6" s="54"/>
-      <c r="AX6" s="54"/>
+      <c r="AW6" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="73" t="s">
+        <v>0</v>
+      </c>
       <c r="AY6" s="54"/>
       <c r="AZ6" s="54"/>
       <c r="BA6" s="54"/>
@@ -7518,9 +7540,15 @@
       <c r="AV7" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="AW7" s="54"/>
-      <c r="AX7" s="54"/>
-      <c r="AY7" s="54"/>
+      <c r="AW7" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="73" t="s">
+        <v>0</v>
+      </c>
       <c r="AZ7" s="54"/>
       <c r="BA7" s="54"/>
       <c r="BB7" s="54"/>
@@ -7657,9 +7685,15 @@
       <c r="AV8" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="AW8" s="54"/>
-      <c r="AX8" s="54"/>
-      <c r="AY8" s="54"/>
+      <c r="AW8" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="73" t="s">
+        <v>0</v>
+      </c>
       <c r="AZ8" s="54"/>
       <c r="BA8" s="54"/>
       <c r="BB8" s="54"/>
@@ -7776,9 +7810,15 @@
         <v>0</v>
       </c>
       <c r="AV9" s="54"/>
-      <c r="AW9" s="54"/>
-      <c r="AX9" s="54"/>
-      <c r="AY9" s="54"/>
+      <c r="AW9" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="73" t="s">
+        <v>0</v>
+      </c>
       <c r="AZ9" s="54"/>
       <c r="BA9" s="54"/>
       <c r="BB9" s="54"/>
@@ -7917,9 +7957,15 @@
       <c r="AV10" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="AW10" s="54"/>
-      <c r="AX10" s="54"/>
-      <c r="AY10" s="54"/>
+      <c r="AW10" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="73" t="s">
+        <v>0</v>
+      </c>
       <c r="AZ10" s="54"/>
       <c r="BA10" s="54"/>
       <c r="BB10" s="54"/>
@@ -8078,12 +8124,8 @@
       <c r="S18" s="14"/>
     </row>
   </sheetData>
-  <mergeCells 